--- a/Services/StateOfTexas/Data/COVID-19 Vaccine Data by County.xlsx
+++ b/Services/StateOfTexas/Data/COVID-19 Vaccine Data by County.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnicholas000\Desktop\COVID19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aearl914\Desktop\COVID-19\Daily County Updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CC6D931-8B0E-4BAA-8A56-4DFB5B207DEA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA2574C8-3F77-4157-B0B0-EBF45CC6A74F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About the Data" sheetId="2" r:id="rId1"/>
@@ -1444,15 +1444,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.59765625" customWidth="1"/>
-    <col min="2" max="2" width="121.53125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="121.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>271</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>267</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>294</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>264</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>261</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="113.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="120" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>265</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>266</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="64.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>282</v>
       </c>
@@ -1552,21 +1552,21 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.46484375" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.19921875" style="6" customWidth="1"/>
-    <col min="4" max="5" width="20.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.73046875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="11.46484375" style="6" customWidth="1"/>
+    <col min="4" max="5" width="20.69921875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.796875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="6" customWidth="1"/>
     <col min="8" max="8" width="13.19921875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="15.06640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.73046875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15.09765625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.796875" style="6" customWidth="1"/>
     <col min="11" max="11" width="12" style="6" customWidth="1"/>
     <col min="12" max="16384" width="9.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>262</v>
       </c>
@@ -1614,15 +1614,15 @@
       </c>
       <c r="D2" s="4">
         <f t="shared" si="0"/>
-        <v>700559</v>
+        <v>752324</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>652648</v>
+        <v>687846</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>47911</v>
+        <v>64478</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
@@ -1645,7 +1645,7 @@
         <v>9499038</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
@@ -1656,13 +1656,13 @@
         <v>4700</v>
       </c>
       <c r="D3" s="17">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="E3" s="17">
-        <v>563</v>
+        <v>586</v>
       </c>
       <c r="F3" s="17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G3" s="17">
         <v>49346</v>
@@ -1680,7 +1680,7 @@
         <v>24078</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
@@ -1691,13 +1691,13 @@
         <v>1100</v>
       </c>
       <c r="D4" s="17">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="E4" s="17">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="F4" s="17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="17">
         <v>13954</v>
@@ -1715,7 +1715,7 @@
         <v>5867</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
@@ -1726,13 +1726,13 @@
         <v>11100</v>
       </c>
       <c r="D5" s="17">
-        <v>2828</v>
+        <v>3006</v>
       </c>
       <c r="E5" s="17">
-        <v>2820</v>
+        <v>2996</v>
       </c>
       <c r="F5" s="17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G5" s="17">
         <v>70388</v>
@@ -1750,7 +1750,7 @@
         <v>34525</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
@@ -1761,13 +1761,13 @@
         <v>600</v>
       </c>
       <c r="D6" s="17">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="E6" s="17">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="F6" s="17">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G6" s="17">
         <v>19727</v>
@@ -1785,7 +1785,7 @@
         <v>10102</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
@@ -1796,10 +1796,10 @@
         <v>300</v>
       </c>
       <c r="D7" s="17">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E7" s="17">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F7" s="17">
         <v>16</v>
@@ -1820,7 +1820,7 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>11</v>
       </c>
@@ -1831,10 +1831,10 @@
         <v>200</v>
       </c>
       <c r="D8" s="17">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E8" s="17">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F8" s="17">
         <v>5</v>
@@ -1855,7 +1855,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>12</v>
       </c>
@@ -1866,13 +1866,13 @@
         <v>2400</v>
       </c>
       <c r="D9" s="17">
-        <v>895</v>
+        <v>1055</v>
       </c>
       <c r="E9" s="17">
-        <v>853</v>
+        <v>1002</v>
       </c>
       <c r="F9" s="17">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G9" s="17">
         <v>39065</v>
@@ -1890,7 +1890,7 @@
         <v>17891</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
@@ -1901,13 +1901,13 @@
         <v>1200</v>
       </c>
       <c r="D10" s="17">
-        <v>670</v>
+        <v>704</v>
       </c>
       <c r="E10" s="17">
-        <v>660</v>
+        <v>690</v>
       </c>
       <c r="F10" s="17">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G10" s="17">
         <v>25584</v>
@@ -1925,7 +1925,7 @@
         <v>10132</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
@@ -1936,10 +1936,10 @@
         <v>500</v>
       </c>
       <c r="D11" s="17">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E11" s="17">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F11" s="17">
         <v>0</v>
@@ -1960,7 +1960,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
@@ -1971,13 +1971,13 @@
         <v>200</v>
       </c>
       <c r="D12" s="17">
-        <v>379</v>
+        <v>441</v>
       </c>
       <c r="E12" s="17">
-        <v>374</v>
+        <v>433</v>
       </c>
       <c r="F12" s="17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G12" s="17">
         <v>19833</v>
@@ -1995,7 +1995,7 @@
         <v>9348</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>17</v>
       </c>
@@ -2006,13 +2006,13 @@
         <v>1400</v>
       </c>
       <c r="D13" s="17">
-        <v>1328</v>
+        <v>1404</v>
       </c>
       <c r="E13" s="17">
-        <v>1282</v>
+        <v>1347</v>
       </c>
       <c r="F13" s="17">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G13" s="17">
         <v>70499</v>
@@ -2030,7 +2030,7 @@
         <v>34606</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>18</v>
       </c>
@@ -2041,10 +2041,10 @@
         <v>600</v>
       </c>
       <c r="D14" s="17">
+        <v>224</v>
+      </c>
+      <c r="E14" s="17">
         <v>223</v>
-      </c>
-      <c r="E14" s="17">
-        <v>222</v>
       </c>
       <c r="F14" s="17">
         <v>1</v>
@@ -2065,7 +2065,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>19</v>
       </c>
@@ -2076,10 +2076,10 @@
         <v>1500</v>
       </c>
       <c r="D15" s="17">
-        <v>575</v>
+        <v>633</v>
       </c>
       <c r="E15" s="17">
-        <v>559</v>
+        <v>617</v>
       </c>
       <c r="F15" s="17">
         <v>16</v>
@@ -2100,7 +2100,7 @@
         <v>13037</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>20</v>
       </c>
@@ -2111,13 +2111,13 @@
         <v>19200</v>
       </c>
       <c r="D16" s="17">
-        <v>5096</v>
+        <v>5850</v>
       </c>
       <c r="E16" s="17">
-        <v>4868</v>
+        <v>5308</v>
       </c>
       <c r="F16" s="17">
-        <v>228</v>
+        <v>542</v>
       </c>
       <c r="G16" s="17">
         <v>265191</v>
@@ -2135,7 +2135,7 @@
         <v>105279</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>21</v>
       </c>
@@ -2146,13 +2146,13 @@
         <v>158875</v>
       </c>
       <c r="D17" s="17">
-        <v>50705</v>
+        <v>54729</v>
       </c>
       <c r="E17" s="17">
-        <v>47845</v>
+        <v>49869</v>
       </c>
       <c r="F17" s="17">
-        <v>2860</v>
+        <v>4860</v>
       </c>
       <c r="G17" s="17">
         <v>1541803</v>
@@ -2170,7 +2170,7 @@
         <v>696450</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>22</v>
       </c>
@@ -2181,13 +2181,13 @@
         <v>300</v>
       </c>
       <c r="D18" s="17">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E18" s="17">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F18" s="17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G18" s="17">
         <v>10177</v>
@@ -2205,7 +2205,7 @@
         <v>4572</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>23</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>24</v>
       </c>
@@ -2251,13 +2251,13 @@
         <v>1900</v>
       </c>
       <c r="D20" s="17">
+        <v>300</v>
+      </c>
+      <c r="E20" s="17">
         <v>288</v>
       </c>
-      <c r="E20" s="17">
-        <v>282</v>
-      </c>
       <c r="F20" s="17">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G20" s="17">
         <v>15491</v>
@@ -2275,7 +2275,7 @@
         <v>7171</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>25</v>
       </c>
@@ -2286,13 +2286,13 @@
         <v>6275</v>
       </c>
       <c r="D21" s="17">
-        <v>1404</v>
+        <v>1427</v>
       </c>
       <c r="E21" s="17">
-        <v>1373</v>
+        <v>1395</v>
       </c>
       <c r="F21" s="17">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G21" s="17">
         <v>78179</v>
@@ -2310,7 +2310,7 @@
         <v>36179</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>26</v>
       </c>
@@ -2321,13 +2321,13 @@
         <v>11100</v>
       </c>
       <c r="D22" s="17">
-        <v>8637</v>
+        <v>9679</v>
       </c>
       <c r="E22" s="17">
-        <v>7979</v>
+        <v>8653</v>
       </c>
       <c r="F22" s="17">
-        <v>658</v>
+        <v>1026</v>
       </c>
       <c r="G22" s="17">
         <v>295635</v>
@@ -2345,7 +2345,7 @@
         <v>119229</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -2356,13 +2356,13 @@
         <v>11950</v>
       </c>
       <c r="D23" s="17">
-        <v>2467</v>
+        <v>2597</v>
       </c>
       <c r="E23" s="17">
-        <v>2377</v>
+        <v>2447</v>
       </c>
       <c r="F23" s="17">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G23" s="17">
         <v>185835</v>
@@ -2380,7 +2380,7 @@
         <v>64988</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>28</v>
       </c>
@@ -2391,13 +2391,13 @@
         <v>800</v>
       </c>
       <c r="D24" s="17">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="E24" s="17">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="F24" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="17">
         <v>7291</v>
@@ -2415,7 +2415,7 @@
         <v>3547</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>29</v>
       </c>
@@ -2426,10 +2426,10 @@
         <v>100</v>
       </c>
       <c r="D25" s="17">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="E25" s="17">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="F25" s="17">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>30</v>
       </c>
@@ -2461,10 +2461,10 @@
         <v>300</v>
       </c>
       <c r="D26" s="17">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E26" s="17">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F26" s="17">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>31</v>
       </c>
@@ -2496,10 +2496,10 @@
         <v>1400</v>
       </c>
       <c r="D27" s="17">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="E27" s="17">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="F27" s="17">
         <v>14</v>
@@ -2520,7 +2520,7 @@
         <v>14261</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>32</v>
       </c>
@@ -2531,13 +2531,13 @@
         <v>500</v>
       </c>
       <c r="D28" s="17">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E28" s="17">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F28" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28" s="17">
         <v>14721</v>
@@ -2555,7 +2555,7 @@
         <v>7277</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>33</v>
       </c>
@@ -2566,13 +2566,13 @@
         <v>2600</v>
       </c>
       <c r="D29" s="17">
-        <v>729</v>
+        <v>745</v>
       </c>
       <c r="E29" s="17">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="F29" s="17">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G29" s="17">
         <v>39423</v>
@@ -2590,7 +2590,7 @@
         <v>17381</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>34</v>
       </c>
@@ -2601,13 +2601,13 @@
         <v>900</v>
       </c>
       <c r="D30" s="17">
-        <v>626</v>
+        <v>666</v>
       </c>
       <c r="E30" s="17">
-        <v>622</v>
+        <v>655</v>
       </c>
       <c r="F30" s="17">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G30" s="17">
         <v>33813</v>
@@ -2625,7 +2625,7 @@
         <v>16400</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>35</v>
       </c>
@@ -2636,13 +2636,13 @@
         <v>900</v>
       </c>
       <c r="D31" s="17">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="E31" s="17">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="F31" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G31" s="17">
         <v>17169</v>
@@ -2660,7 +2660,7 @@
         <v>7841</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>36</v>
       </c>
@@ -2671,10 +2671,10 @@
         <v>500</v>
       </c>
       <c r="D32" s="17">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E32" s="17">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F32" s="17">
         <v>58</v>
@@ -2695,7 +2695,7 @@
         <v>5346</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>37</v>
       </c>
@@ -2706,13 +2706,13 @@
         <v>26550</v>
       </c>
       <c r="D33" s="17">
-        <v>15295</v>
+        <v>16478</v>
       </c>
       <c r="E33" s="17">
-        <v>14591</v>
+        <v>15020</v>
       </c>
       <c r="F33" s="17">
-        <v>704</v>
+        <v>1458</v>
       </c>
       <c r="G33" s="17">
         <v>315242</v>
@@ -2730,7 +2730,7 @@
         <v>149238</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>38</v>
       </c>
@@ -2741,13 +2741,13 @@
         <v>0</v>
       </c>
       <c r="D34" s="17">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E34" s="17">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="F34" s="17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G34" s="17">
         <v>10054</v>
@@ -2765,7 +2765,7 @@
         <v>4991</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>39</v>
       </c>
@@ -2776,10 +2776,10 @@
         <v>200</v>
       </c>
       <c r="D35" s="17">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E35" s="17">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F35" s="17">
         <v>6</v>
@@ -2800,7 +2800,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>40</v>
       </c>
@@ -2811,10 +2811,10 @@
         <v>200</v>
       </c>
       <c r="D36" s="17">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E36" s="17">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F36" s="17">
         <v>3</v>
@@ -2835,7 +2835,7 @@
         <v>12120</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>41</v>
       </c>
@@ -2846,10 +2846,10 @@
         <v>200</v>
       </c>
       <c r="D37" s="17">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E37" s="17">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F37" s="17">
         <v>3</v>
@@ -2870,7 +2870,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>42</v>
       </c>
@@ -2881,13 +2881,13 @@
         <v>2900</v>
       </c>
       <c r="D38" s="17">
-        <v>755</v>
+        <v>831</v>
       </c>
       <c r="E38" s="17">
-        <v>705</v>
+        <v>774</v>
       </c>
       <c r="F38" s="17">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G38" s="17">
         <v>34171</v>
@@ -2905,7 +2905,7 @@
         <v>13721</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>43</v>
       </c>
@@ -2916,13 +2916,13 @@
         <v>3700</v>
       </c>
       <c r="D39" s="17">
-        <v>919</v>
+        <v>1000</v>
       </c>
       <c r="E39" s="17">
-        <v>911</v>
+        <v>977</v>
       </c>
       <c r="F39" s="17">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G39" s="17">
         <v>41571</v>
@@ -2940,7 +2940,7 @@
         <v>20430</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>44</v>
       </c>
@@ -2951,13 +2951,13 @@
         <v>900</v>
       </c>
       <c r="D40" s="17">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E40" s="17">
         <v>436</v>
       </c>
       <c r="F40" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" s="17">
         <v>5769</v>
@@ -2975,7 +2975,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
         <v>45</v>
       </c>
@@ -2986,13 +2986,13 @@
         <v>300</v>
       </c>
       <c r="D41" s="17">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E41" s="17">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F41" s="17">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G41" s="17">
         <v>8544</v>
@@ -3010,7 +3010,7 @@
         <v>4071</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>46</v>
       </c>
@@ -3021,13 +3021,13 @@
         <v>0</v>
       </c>
       <c r="D42" s="17">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="E42" s="17">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="F42" s="17">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G42" s="17">
         <v>2167</v>
@@ -3045,7 +3045,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
         <v>47</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
         <v>48</v>
       </c>
@@ -3091,10 +3091,10 @@
         <v>600</v>
       </c>
       <c r="D44" s="17">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E44" s="17">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F44" s="17">
         <v>6</v>
@@ -3115,7 +3115,7 @@
         <v>3427</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>49</v>
       </c>
@@ -3126,13 +3126,13 @@
         <v>43900</v>
       </c>
       <c r="D45" s="17">
-        <v>19635</v>
+        <v>21080</v>
       </c>
       <c r="E45" s="17">
-        <v>18023</v>
+        <v>19173</v>
       </c>
       <c r="F45" s="17">
-        <v>1612</v>
+        <v>1907</v>
       </c>
       <c r="G45" s="17">
         <v>806242</v>
@@ -3150,7 +3150,7 @@
         <v>256993</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
         <v>50</v>
       </c>
@@ -3161,10 +3161,10 @@
         <v>200</v>
       </c>
       <c r="D46" s="17">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E46" s="17">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F46" s="17">
         <v>1</v>
@@ -3185,7 +3185,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
         <v>51</v>
       </c>
@@ -3196,13 +3196,13 @@
         <v>500</v>
       </c>
       <c r="D47" s="17">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="E47" s="17">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="F47" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G47" s="17">
         <v>17682</v>
@@ -3220,7 +3220,7 @@
         <v>7953</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
         <v>52</v>
       </c>
@@ -3231,13 +3231,13 @@
         <v>8500</v>
       </c>
       <c r="D48" s="17">
-        <v>3329</v>
+        <v>3534</v>
       </c>
       <c r="E48" s="17">
-        <v>3235</v>
+        <v>3403</v>
       </c>
       <c r="F48" s="17">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="G48" s="17">
         <v>125758</v>
@@ -3255,7 +3255,7 @@
         <v>45927</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
         <v>53</v>
       </c>
@@ -3266,10 +3266,10 @@
         <v>500</v>
       </c>
       <c r="D49" s="17">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E49" s="17">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F49" s="17">
         <v>3</v>
@@ -3290,7 +3290,7 @@
         <v>5170</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
         <v>54</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
         <v>55</v>
       </c>
@@ -3336,13 +3336,13 @@
         <v>1300</v>
       </c>
       <c r="D51" s="17">
-        <v>624</v>
+        <v>734</v>
       </c>
       <c r="E51" s="17">
-        <v>610</v>
+        <v>717</v>
       </c>
       <c r="F51" s="17">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G51" s="17">
         <v>32501</v>
@@ -3360,7 +3360,7 @@
         <v>14449</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
         <v>56</v>
       </c>
@@ -3371,13 +3371,13 @@
         <v>1600</v>
       </c>
       <c r="D52" s="17">
-        <v>848</v>
+        <v>877</v>
       </c>
       <c r="E52" s="17">
-        <v>841</v>
+        <v>859</v>
       </c>
       <c r="F52" s="17">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G52" s="17">
         <v>58277</v>
@@ -3395,7 +3395,7 @@
         <v>25149</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
         <v>57</v>
       </c>
@@ -3406,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="D53" s="17">
-        <v>1003</v>
+        <v>1208</v>
       </c>
       <c r="E53" s="17">
-        <v>970</v>
+        <v>1116</v>
       </c>
       <c r="F53" s="17">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="G53" s="17">
         <v>1120</v>
@@ -3430,7 +3430,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
         <v>58</v>
       </c>
@@ -3441,10 +3441,10 @@
         <v>200</v>
       </c>
       <c r="D54" s="17">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E54" s="17">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F54" s="17">
         <v>0</v>
@@ -3465,7 +3465,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
         <v>59</v>
       </c>
@@ -3476,13 +3476,13 @@
         <v>0</v>
       </c>
       <c r="D55" s="17">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E55" s="17">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F55" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G55" s="17">
         <v>2687</v>
@@ -3500,7 +3500,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
         <v>60</v>
       </c>
@@ -3511,10 +3511,10 @@
         <v>200</v>
       </c>
       <c r="D56" s="17">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E56" s="17">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F56" s="17">
         <v>8</v>
@@ -3535,7 +3535,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
         <v>61</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
         <v>62</v>
       </c>
@@ -3581,10 +3581,10 @@
         <v>200</v>
       </c>
       <c r="D58" s="17">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E58" s="17">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F58" s="17">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
         <v>63</v>
       </c>
@@ -3616,13 +3616,13 @@
         <v>174725</v>
       </c>
       <c r="D59" s="17">
-        <v>49928</v>
+        <v>55770</v>
       </c>
       <c r="E59" s="17">
-        <v>44127</v>
+        <v>48169</v>
       </c>
       <c r="F59" s="17">
-        <v>5801</v>
+        <v>7601</v>
       </c>
       <c r="G59" s="17">
         <v>2015538</v>
@@ -3640,7 +3640,7 @@
         <v>820238</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
         <v>64</v>
       </c>
@@ -3651,10 +3651,10 @@
         <v>400</v>
       </c>
       <c r="D60" s="17">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E60" s="17">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F60" s="17">
         <v>4</v>
@@ -3675,7 +3675,7 @@
         <v>5005</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
         <v>66</v>
       </c>
@@ -3686,10 +3686,10 @@
         <v>1100</v>
       </c>
       <c r="D61" s="17">
-        <v>580</v>
+        <v>607</v>
       </c>
       <c r="E61" s="17">
-        <v>572</v>
+        <v>599</v>
       </c>
       <c r="F61" s="17">
         <v>8</v>
@@ -3710,7 +3710,7 @@
         <v>6265</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
         <v>67</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
         <v>68</v>
       </c>
@@ -3756,13 +3756,13 @@
         <v>22500</v>
       </c>
       <c r="D63" s="17">
-        <v>12181</v>
+        <v>13032</v>
       </c>
       <c r="E63" s="17">
-        <v>11362</v>
+        <v>12016</v>
       </c>
       <c r="F63" s="17">
-        <v>819</v>
+        <v>1016</v>
       </c>
       <c r="G63" s="17">
         <v>702429</v>
@@ -3780,7 +3780,7 @@
         <v>276089</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
         <v>65</v>
       </c>
@@ -3791,10 +3791,10 @@
         <v>700</v>
       </c>
       <c r="D64" s="17">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="E64" s="17">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="F64" s="17">
         <v>14</v>
@@ -3815,7 +3815,7 @@
         <v>7926</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
         <v>69</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
         <v>70</v>
       </c>
@@ -3861,10 +3861,10 @@
         <v>500</v>
       </c>
       <c r="D66" s="17">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E66" s="17">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F66" s="17">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>4018</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
         <v>71</v>
       </c>
@@ -3896,10 +3896,10 @@
         <v>100</v>
       </c>
       <c r="D67" s="17">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E67" s="17">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F67" s="17">
         <v>1</v>
@@ -3920,7 +3920,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
         <v>72</v>
       </c>
@@ -3931,10 +3931,10 @@
         <v>200</v>
       </c>
       <c r="D68" s="17">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E68" s="17">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="F68" s="17">
         <v>2</v>
@@ -3955,7 +3955,7 @@
         <v>4543</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
         <v>73</v>
       </c>
@@ -3966,13 +3966,13 @@
         <v>500</v>
       </c>
       <c r="D69" s="17">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E69" s="17">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F69" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G69" s="17">
         <v>14718</v>
@@ -3990,7 +3990,7 @@
         <v>7102</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
         <v>74</v>
       </c>
@@ -4001,13 +4001,13 @@
         <v>10200</v>
       </c>
       <c r="D70" s="17">
-        <v>2646</v>
+        <v>2841</v>
       </c>
       <c r="E70" s="17">
-        <v>2502</v>
+        <v>2695</v>
       </c>
       <c r="F70" s="17">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G70" s="17">
         <v>123303</v>
@@ -4025,7 +4025,7 @@
         <v>54750</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
         <v>75</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
         <v>76</v>
       </c>
@@ -4071,13 +4071,13 @@
         <v>69400</v>
       </c>
       <c r="D72" s="17">
-        <v>34086</v>
+        <v>35717</v>
       </c>
       <c r="E72" s="17">
-        <v>30181</v>
+        <v>31287</v>
       </c>
       <c r="F72" s="17">
-        <v>3905</v>
+        <v>4430</v>
       </c>
       <c r="G72" s="17">
         <v>640715</v>
@@ -4095,7 +4095,7 @@
         <v>281334</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
         <v>77</v>
       </c>
@@ -4106,13 +4106,13 @@
         <v>4500</v>
       </c>
       <c r="D73" s="17">
-        <v>3568</v>
+        <v>3857</v>
       </c>
       <c r="E73" s="17">
-        <v>3264</v>
+        <v>3457</v>
       </c>
       <c r="F73" s="17">
-        <v>304</v>
+        <v>400</v>
       </c>
       <c r="G73" s="17">
         <v>146536</v>
@@ -4130,7 +4130,7 @@
         <v>61039</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
         <v>78</v>
       </c>
@@ -4141,13 +4141,13 @@
         <v>600</v>
       </c>
       <c r="D74" s="17">
-        <v>471</v>
+        <v>545</v>
       </c>
       <c r="E74" s="17">
-        <v>467</v>
+        <v>527</v>
       </c>
       <c r="F74" s="17">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G74" s="17">
         <v>34869</v>
@@ -4165,7 +4165,7 @@
         <v>14817</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
         <v>79</v>
       </c>
@@ -4176,13 +4176,13 @@
         <v>300</v>
       </c>
       <c r="D75" s="17">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="E75" s="17">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="F75" s="17">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G75" s="17">
         <v>14306</v>
@@ -4200,7 +4200,7 @@
         <v>7192</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
         <v>80</v>
       </c>
@@ -4211,10 +4211,10 @@
         <v>2300</v>
       </c>
       <c r="D76" s="17">
-        <v>1087</v>
+        <v>1095</v>
       </c>
       <c r="E76" s="17">
-        <v>1075</v>
+        <v>1083</v>
       </c>
       <c r="F76" s="17">
         <v>12</v>
@@ -4235,7 +4235,7 @@
         <v>13661</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
         <v>81</v>
       </c>
@@ -4246,13 +4246,13 @@
         <v>1200</v>
       </c>
       <c r="D77" s="17">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="E77" s="17">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F77" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G77" s="17">
         <v>21209</v>
@@ -4270,7 +4270,7 @@
         <v>9754</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
         <v>82</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
         <v>83</v>
       </c>
@@ -4316,10 +4316,10 @@
         <v>200</v>
       </c>
       <c r="D79" s="17">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E79" s="17">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F79" s="17">
         <v>1</v>
@@ -4340,7 +4340,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
         <v>84</v>
       </c>
@@ -4351,13 +4351,13 @@
         <v>0</v>
       </c>
       <c r="D80" s="17">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E80" s="17">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F80" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" s="17">
         <v>937</v>
@@ -4375,7 +4375,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
         <v>85</v>
       </c>
@@ -4386,13 +4386,13 @@
         <v>34200</v>
       </c>
       <c r="D81" s="17">
-        <v>17855</v>
+        <v>19503</v>
       </c>
       <c r="E81" s="17">
-        <v>16290</v>
+        <v>17477</v>
       </c>
       <c r="F81" s="17">
-        <v>1565</v>
+        <v>2026</v>
       </c>
       <c r="G81" s="17">
         <v>626861</v>
@@ -4410,7 +4410,7 @@
         <v>192056</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
         <v>86</v>
       </c>
@@ -4421,10 +4421,10 @@
         <v>400</v>
       </c>
       <c r="D82" s="17">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E82" s="17">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F82" s="17">
         <v>2</v>
@@ -4445,7 +4445,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
         <v>87</v>
       </c>
@@ -4456,13 +4456,13 @@
         <v>1100</v>
       </c>
       <c r="D83" s="17">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="E83" s="17">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="F83" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" s="17">
         <v>16551</v>
@@ -4480,7 +4480,7 @@
         <v>8172</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
         <v>88</v>
       </c>
@@ -4491,10 +4491,10 @@
         <v>1500</v>
       </c>
       <c r="D84" s="17">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="E84" s="17">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="F84" s="17">
         <v>3</v>
@@ -4515,7 +4515,7 @@
         <v>7605</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
         <v>89</v>
       </c>
@@ -4526,13 +4526,13 @@
         <v>1100</v>
       </c>
       <c r="D85" s="17">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E85" s="17">
         <v>521</v>
       </c>
       <c r="F85" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G85" s="17">
         <v>14875</v>
@@ -4550,7 +4550,7 @@
         <v>6531</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
         <v>90</v>
       </c>
@@ -4561,13 +4561,13 @@
         <v>21500</v>
       </c>
       <c r="D86" s="17">
-        <v>11799</v>
+        <v>13754</v>
       </c>
       <c r="E86" s="17">
-        <v>11124</v>
+        <v>12426</v>
       </c>
       <c r="F86" s="17">
-        <v>675</v>
+        <v>1328</v>
       </c>
       <c r="G86" s="17">
         <v>267032</v>
@@ -4585,7 +4585,7 @@
         <v>113161</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
         <v>91</v>
       </c>
@@ -4596,10 +4596,10 @@
         <v>0</v>
       </c>
       <c r="D87" s="17">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E87" s="17">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F87" s="17">
         <v>3</v>
@@ -4620,7 +4620,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
         <v>92</v>
       </c>
@@ -4631,13 +4631,13 @@
         <v>1800</v>
       </c>
       <c r="D88" s="17">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="E88" s="17">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="F88" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G88" s="17">
         <v>22728</v>
@@ -4655,7 +4655,7 @@
         <v>10293</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
         <v>93</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
         <v>94</v>
       </c>
@@ -4701,10 +4701,10 @@
         <v>0</v>
       </c>
       <c r="D90" s="17">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E90" s="17">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F90" s="17">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
         <v>95</v>
       </c>
@@ -4736,10 +4736,10 @@
         <v>1000</v>
       </c>
       <c r="D91" s="17">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E91" s="17">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="F91" s="17">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>7818</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
         <v>96</v>
       </c>
@@ -4771,10 +4771,10 @@
         <v>1200</v>
       </c>
       <c r="D92" s="17">
-        <v>626</v>
+        <v>653</v>
       </c>
       <c r="E92" s="17">
-        <v>619</v>
+        <v>646</v>
       </c>
       <c r="F92" s="17">
         <v>7</v>
@@ -4795,7 +4795,7 @@
         <v>8475</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
         <v>97</v>
       </c>
@@ -4806,13 +4806,13 @@
         <v>16275</v>
       </c>
       <c r="D93" s="17">
-        <v>3414</v>
+        <v>3552</v>
       </c>
       <c r="E93" s="17">
-        <v>3374</v>
+        <v>3502</v>
       </c>
       <c r="F93" s="17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G93" s="17">
         <v>107568</v>
@@ -4830,7 +4830,7 @@
         <v>49725</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
         <v>98</v>
       </c>
@@ -4841,13 +4841,13 @@
         <v>10750</v>
       </c>
       <c r="D94" s="17">
-        <v>2792</v>
+        <v>2936</v>
       </c>
       <c r="E94" s="17">
-        <v>2545</v>
+        <v>2669</v>
       </c>
       <c r="F94" s="17">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="G94" s="17">
         <v>97771</v>
@@ -4865,7 +4865,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
         <v>99</v>
       </c>
@@ -4876,13 +4876,13 @@
         <v>900</v>
       </c>
       <c r="D95" s="17">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="E95" s="17">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="F95" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G95" s="17">
         <v>23692</v>
@@ -4900,7 +4900,7 @@
         <v>11724</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
         <v>100</v>
       </c>
@@ -4911,13 +4911,13 @@
         <v>5300</v>
       </c>
       <c r="D96" s="17">
-        <v>2980</v>
+        <v>3129</v>
       </c>
       <c r="E96" s="17">
-        <v>2863</v>
+        <v>2974</v>
       </c>
       <c r="F96" s="17">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="G96" s="17">
         <v>130156</v>
@@ -4935,7 +4935,7 @@
         <v>56504</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
         <v>101</v>
       </c>
@@ -4946,13 +4946,13 @@
         <v>2600</v>
       </c>
       <c r="D97" s="17">
-        <v>995</v>
+        <v>1005</v>
       </c>
       <c r="E97" s="17">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="F97" s="17">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G97" s="17">
         <v>25066</v>
@@ -4970,7 +4970,7 @@
         <v>12481</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
         <v>102</v>
       </c>
@@ -4981,13 +4981,13 @@
         <v>0</v>
       </c>
       <c r="D98" s="17">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E98" s="17">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F98" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98" s="17">
         <v>2399</v>
@@ -5005,7 +5005,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
         <v>103</v>
       </c>
@@ -5016,10 +5016,10 @@
         <v>1200</v>
       </c>
       <c r="D99" s="17">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E99" s="17">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F99" s="17">
         <v>0</v>
@@ -5040,7 +5040,7 @@
         <v>3427</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
         <v>104</v>
       </c>
@@ -5051,10 +5051,10 @@
         <v>400</v>
       </c>
       <c r="D100" s="17">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E100" s="17">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F100" s="17">
         <v>2</v>
@@ -5075,7 +5075,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
         <v>105</v>
       </c>
@@ -5086,10 +5086,10 @@
         <v>500</v>
       </c>
       <c r="D101" s="17">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E101" s="17">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F101" s="17">
         <v>5</v>
@@ -5110,7 +5110,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
         <v>106</v>
       </c>
@@ -5121,10 +5121,10 @@
         <v>3400</v>
       </c>
       <c r="D102" s="17">
-        <v>871</v>
+        <v>998</v>
       </c>
       <c r="E102" s="17">
-        <v>862</v>
+        <v>989</v>
       </c>
       <c r="F102" s="17">
         <v>9</v>
@@ -5145,7 +5145,7 @@
         <v>19766</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
         <v>107</v>
       </c>
@@ -5156,13 +5156,13 @@
         <v>363100</v>
       </c>
       <c r="D103" s="17">
-        <v>110095</v>
+        <v>117610</v>
       </c>
       <c r="E103" s="17">
-        <v>100737</v>
+        <v>105384</v>
       </c>
       <c r="F103" s="17">
-        <v>9358</v>
+        <v>12226</v>
       </c>
       <c r="G103" s="17">
         <v>3573784</v>
@@ -5180,7 +5180,7 @@
         <v>1572384</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
         <v>108</v>
       </c>
@@ -5191,13 +5191,13 @@
         <v>2200</v>
       </c>
       <c r="D104" s="17">
-        <v>870</v>
+        <v>970</v>
       </c>
       <c r="E104" s="17">
-        <v>800</v>
+        <v>898</v>
       </c>
       <c r="F104" s="17">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G104" s="17">
         <v>53015</v>
@@ -5215,7 +5215,7 @@
         <v>25401</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
         <v>109</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="s">
         <v>110</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
         <v>111</v>
       </c>
@@ -5296,13 +5296,13 @@
         <v>9750</v>
       </c>
       <c r="D107" s="17">
-        <v>4659</v>
+        <v>4922</v>
       </c>
       <c r="E107" s="17">
-        <v>4560</v>
+        <v>4785</v>
       </c>
       <c r="F107" s="17">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="G107" s="17">
         <v>183387</v>
@@ -5320,7 +5320,7 @@
         <v>67042</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="s">
         <v>112</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="s">
         <v>113</v>
       </c>
@@ -5366,13 +5366,13 @@
         <v>3100</v>
       </c>
       <c r="D109" s="17">
-        <v>1044</v>
+        <v>1209</v>
       </c>
       <c r="E109" s="17">
-        <v>1017</v>
+        <v>1134</v>
       </c>
       <c r="F109" s="17">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="G109" s="17">
         <v>67614</v>
@@ -5390,7 +5390,7 @@
         <v>35206</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="s">
         <v>114</v>
       </c>
@@ -5401,13 +5401,13 @@
         <v>63175</v>
       </c>
       <c r="D110" s="17">
-        <v>14558</v>
+        <v>15368</v>
       </c>
       <c r="E110" s="17">
-        <v>14151</v>
+        <v>14563</v>
       </c>
       <c r="F110" s="17">
-        <v>407</v>
+        <v>805</v>
       </c>
       <c r="G110" s="17">
         <v>649795</v>
@@ -5425,7 +5425,7 @@
         <v>319830</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
         <v>115</v>
       </c>
@@ -5436,13 +5436,13 @@
         <v>900</v>
       </c>
       <c r="D111" s="17">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E111" s="17">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="F111" s="17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G111" s="17">
         <v>29221</v>
@@ -5460,7 +5460,7 @@
         <v>14733</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
         <v>116</v>
       </c>
@@ -5471,13 +5471,13 @@
         <v>800</v>
       </c>
       <c r="D112" s="17">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="E112" s="17">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="F112" s="17">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G112" s="17">
         <v>17482</v>
@@ -5495,7 +5495,7 @@
         <v>8124</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
         <v>117</v>
       </c>
@@ -5506,13 +5506,13 @@
         <v>2100</v>
       </c>
       <c r="D113" s="17">
-        <v>893</v>
+        <v>931</v>
       </c>
       <c r="E113" s="17">
-        <v>881</v>
+        <v>909</v>
       </c>
       <c r="F113" s="17">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G113" s="17">
         <v>50235</v>
@@ -5530,7 +5530,7 @@
         <v>23089</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
         <v>118</v>
       </c>
@@ -5541,13 +5541,13 @@
         <v>1100</v>
       </c>
       <c r="D114" s="17">
-        <v>682</v>
+        <v>744</v>
       </c>
       <c r="E114" s="17">
-        <v>678</v>
+        <v>739</v>
       </c>
       <c r="F114" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G114" s="17">
         <v>29578</v>
@@ -5565,7 +5565,7 @@
         <v>13891</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
         <v>119</v>
       </c>
@@ -5576,10 +5576,10 @@
         <v>1500</v>
       </c>
       <c r="D115" s="17">
-        <v>633</v>
+        <v>652</v>
       </c>
       <c r="E115" s="17">
-        <v>632</v>
+        <v>651</v>
       </c>
       <c r="F115" s="17">
         <v>1</v>
@@ -5600,7 +5600,7 @@
         <v>9989</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
         <v>120</v>
       </c>
@@ -5614,10 +5614,10 @@
         <v>678</v>
       </c>
       <c r="E116" s="17">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F116" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G116" s="17">
         <v>28821</v>
@@ -5635,7 +5635,7 @@
         <v>14072</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="15" t="s">
         <v>121</v>
       </c>
@@ -5646,13 +5646,13 @@
         <v>0</v>
       </c>
       <c r="D117" s="17">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E117" s="17">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F117" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" s="17">
         <v>2968</v>
@@ -5670,7 +5670,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
         <v>122</v>
       </c>
@@ -5681,13 +5681,13 @@
         <v>4800</v>
       </c>
       <c r="D118" s="17">
-        <v>2319</v>
+        <v>2350</v>
       </c>
       <c r="E118" s="17">
-        <v>2262</v>
+        <v>2292</v>
       </c>
       <c r="F118" s="17">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G118" s="17">
         <v>77702</v>
@@ -5705,7 +5705,7 @@
         <v>36713</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="15" t="s">
         <v>123</v>
       </c>
@@ -5716,10 +5716,10 @@
         <v>500</v>
       </c>
       <c r="D119" s="17">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="E119" s="17">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="F119" s="17">
         <v>5</v>
@@ -5740,7 +5740,7 @@
         <v>7583</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="15" t="s">
         <v>124</v>
       </c>
@@ -5751,10 +5751,10 @@
         <v>0</v>
       </c>
       <c r="D120" s="17">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E120" s="17">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F120" s="17">
         <v>2</v>
@@ -5775,7 +5775,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
         <v>125</v>
       </c>
@@ -5786,13 +5786,13 @@
         <v>300</v>
       </c>
       <c r="D121" s="17">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E121" s="17">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F121" s="17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G121" s="17">
         <v>7488</v>
@@ -5810,7 +5810,7 @@
         <v>3304</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
         <v>126</v>
       </c>
@@ -5821,13 +5821,13 @@
         <v>1200</v>
       </c>
       <c r="D122" s="17">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="E122" s="17">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F122" s="17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G122" s="17">
         <v>11172</v>
@@ -5845,7 +5845,7 @@
         <v>5354</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="15" t="s">
         <v>127</v>
       </c>
@@ -5856,13 +5856,13 @@
         <v>1900</v>
       </c>
       <c r="D123" s="17">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="E123" s="17">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="F123" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G123" s="17">
         <v>28248</v>
@@ -5880,7 +5880,7 @@
         <v>15256</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="15" t="s">
         <v>128</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="15" t="s">
         <v>129</v>
       </c>
@@ -5926,13 +5926,13 @@
         <v>14650</v>
       </c>
       <c r="D125" s="17">
-        <v>2385</v>
+        <v>2519</v>
       </c>
       <c r="E125" s="17">
-        <v>2367</v>
+        <v>2499</v>
       </c>
       <c r="F125" s="17">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G125" s="17">
         <v>198728</v>
@@ -5950,7 +5950,7 @@
         <v>109233</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
         <v>130</v>
       </c>
@@ -5961,10 +5961,10 @@
         <v>0</v>
       </c>
       <c r="D126" s="17">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E126" s="17">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F126" s="17">
         <v>0</v>
@@ -5985,7 +5985,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
         <v>131</v>
       </c>
@@ -5996,13 +5996,13 @@
         <v>1000</v>
       </c>
       <c r="D127" s="17">
-        <v>730</v>
+        <v>779</v>
       </c>
       <c r="E127" s="17">
-        <v>719</v>
+        <v>767</v>
       </c>
       <c r="F127" s="17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G127" s="17">
         <v>29988</v>
@@ -6020,7 +6020,7 @@
         <v>15173</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
         <v>132</v>
       </c>
@@ -6031,13 +6031,13 @@
         <v>2700</v>
       </c>
       <c r="D128" s="17">
-        <v>2590</v>
+        <v>2827</v>
       </c>
       <c r="E128" s="17">
-        <v>2427</v>
+        <v>2608</v>
       </c>
       <c r="F128" s="17">
-        <v>163</v>
+        <v>219</v>
       </c>
       <c r="G128" s="17">
         <v>135188</v>
@@ -6055,7 +6055,7 @@
         <v>61261</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
         <v>133</v>
       </c>
@@ -6066,10 +6066,10 @@
         <v>100</v>
       </c>
       <c r="D129" s="17">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E129" s="17">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F129" s="17">
         <v>34</v>
@@ -6090,7 +6090,7 @@
         <v>8290</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="15" t="s">
         <v>134</v>
       </c>
@@ -6101,10 +6101,10 @@
         <v>700</v>
       </c>
       <c r="D130" s="17">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E130" s="17">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F130" s="17">
         <v>3</v>
@@ -6125,7 +6125,7 @@
         <v>6085</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="15" t="s">
         <v>135</v>
       </c>
@@ -6136,13 +6136,13 @@
         <v>3250</v>
       </c>
       <c r="D131" s="17">
-        <v>2608</v>
+        <v>2798</v>
       </c>
       <c r="E131" s="17">
-        <v>2372</v>
+        <v>2523</v>
       </c>
       <c r="F131" s="17">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="G131" s="17">
         <v>104736</v>
@@ -6160,7 +6160,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
         <v>136</v>
       </c>
@@ -6171,13 +6171,13 @@
         <v>2200</v>
       </c>
       <c r="D132" s="17">
-        <v>1286</v>
+        <v>1396</v>
       </c>
       <c r="E132" s="17">
-        <v>1208</v>
+        <v>1264</v>
       </c>
       <c r="F132" s="17">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="G132" s="17">
         <v>38074</v>
@@ -6195,7 +6195,7 @@
         <v>15516</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="15" t="s">
         <v>137</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="15" t="s">
         <v>138</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="15" t="s">
         <v>139</v>
       </c>
@@ -6276,13 +6276,13 @@
         <v>3000</v>
       </c>
       <c r="D135" s="17">
-        <v>968</v>
+        <v>1047</v>
       </c>
       <c r="E135" s="17">
-        <v>968</v>
+        <v>1045</v>
       </c>
       <c r="F135" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G135" s="17">
         <v>43611</v>
@@ -6300,7 +6300,7 @@
         <v>20395</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="15" t="s">
         <v>140</v>
       </c>
@@ -6311,13 +6311,13 @@
         <v>200</v>
       </c>
       <c r="D136" s="17">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E136" s="17">
         <v>63</v>
       </c>
       <c r="F136" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G136" s="17">
         <v>3844</v>
@@ -6335,7 +6335,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="15" t="s">
         <v>141</v>
       </c>
@@ -6346,10 +6346,10 @@
         <v>0</v>
       </c>
       <c r="D137" s="17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E137" s="17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F137" s="17">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
         <v>142</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="15" t="s">
         <v>143</v>
       </c>
@@ -6416,13 +6416,13 @@
         <v>800</v>
       </c>
       <c r="D139" s="17">
-        <v>496</v>
+        <v>536</v>
       </c>
       <c r="E139" s="17">
-        <v>489</v>
+        <v>528</v>
       </c>
       <c r="F139" s="17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G139" s="17">
         <v>25862</v>
@@ -6440,7 +6440,7 @@
         <v>10851</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
         <v>144</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="15" t="s">
         <v>145</v>
       </c>
@@ -6486,10 +6486,10 @@
         <v>100</v>
       </c>
       <c r="D141" s="17">
+        <v>74</v>
+      </c>
+      <c r="E141" s="17">
         <v>72</v>
-      </c>
-      <c r="E141" s="17">
-        <v>70</v>
       </c>
       <c r="F141" s="17">
         <v>2</v>
@@ -6510,7 +6510,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="15" t="s">
         <v>146</v>
       </c>
@@ -6521,10 +6521,10 @@
         <v>2900</v>
       </c>
       <c r="D142" s="17">
-        <v>1172</v>
+        <v>1187</v>
       </c>
       <c r="E142" s="17">
-        <v>1164</v>
+        <v>1179</v>
       </c>
       <c r="F142" s="17">
         <v>8</v>
@@ -6545,7 +6545,7 @@
         <v>19135</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="15" t="s">
         <v>147</v>
       </c>
@@ -6556,13 +6556,13 @@
         <v>200</v>
       </c>
       <c r="D143" s="17">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="E143" s="17">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F143" s="17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G143" s="17">
         <v>9647</v>
@@ -6580,7 +6580,7 @@
         <v>5028</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="15" t="s">
         <v>148</v>
       </c>
@@ -6591,13 +6591,13 @@
         <v>200</v>
       </c>
       <c r="D144" s="17">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E144" s="17">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F144" s="17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G144" s="17">
         <v>17275</v>
@@ -6615,7 +6615,7 @@
         <v>8188</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="15" t="s">
         <v>149</v>
       </c>
@@ -6626,10 +6626,10 @@
         <v>1400</v>
       </c>
       <c r="D145" s="17">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="E145" s="17">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="F145" s="17">
         <v>7</v>
@@ -6650,7 +6650,7 @@
         <v>7426</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="15" t="s">
         <v>150</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>6632</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="15" t="s">
         <v>151</v>
       </c>
@@ -6696,13 +6696,13 @@
         <v>500</v>
       </c>
       <c r="D147" s="17">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E147" s="17">
         <v>228</v>
       </c>
       <c r="F147" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G147" s="17">
         <v>14066</v>
@@ -6720,7 +6720,7 @@
         <v>6485</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="15" t="s">
         <v>152</v>
       </c>
@@ -6731,13 +6731,13 @@
         <v>3300</v>
       </c>
       <c r="D148" s="17">
-        <v>794</v>
+        <v>839</v>
       </c>
       <c r="E148" s="17">
-        <v>751</v>
+        <v>790</v>
       </c>
       <c r="F148" s="17">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G148" s="17">
         <v>70912</v>
@@ -6755,7 +6755,7 @@
         <v>32693</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="15" t="s">
         <v>153</v>
       </c>
@@ -6766,10 +6766,10 @@
         <v>1000</v>
       </c>
       <c r="D149" s="17">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E149" s="17">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F149" s="17">
         <v>1</v>
@@ -6790,7 +6790,7 @@
         <v>9655</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="15" t="s">
         <v>154</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
         <v>155</v>
       </c>
@@ -6836,10 +6836,10 @@
         <v>100</v>
       </c>
       <c r="D151" s="17">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E151" s="17">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F151" s="17">
         <v>0</v>
@@ -6860,7 +6860,7 @@
         <v>4881</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="15" t="s">
         <v>156</v>
       </c>
@@ -6871,13 +6871,13 @@
         <v>100</v>
       </c>
       <c r="D152" s="17">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="E152" s="17">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F152" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G152" s="17">
         <v>18642</v>
@@ -6895,7 +6895,7 @@
         <v>9093</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="15" t="s">
         <v>157</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="15" t="s">
         <v>158</v>
       </c>
@@ -6941,13 +6941,13 @@
         <v>53050</v>
       </c>
       <c r="D154" s="17">
-        <v>16599</v>
+        <v>16867</v>
       </c>
       <c r="E154" s="17">
-        <v>14345</v>
+        <v>14466</v>
       </c>
       <c r="F154" s="17">
-        <v>2254</v>
+        <v>2401</v>
       </c>
       <c r="G154" s="17">
         <v>243899</v>
@@ -6965,7 +6965,7 @@
         <v>94573</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="15" t="s">
         <v>159</v>
       </c>
@@ -6976,10 +6976,10 @@
         <v>200</v>
       </c>
       <c r="D155" s="17">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="E155" s="17">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="F155" s="17">
         <v>14</v>
@@ -7000,7 +7000,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="15" t="s">
         <v>160</v>
       </c>
@@ -7011,13 +7011,13 @@
         <v>500</v>
       </c>
       <c r="D156" s="17">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E156" s="17">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F156" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G156" s="17">
         <v>11353</v>
@@ -7035,7 +7035,7 @@
         <v>5423</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="15" t="s">
         <v>161</v>
       </c>
@@ -7046,10 +7046,10 @@
         <v>0</v>
       </c>
       <c r="D157" s="17">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E157" s="17">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F157" s="17">
         <v>6</v>
@@ -7070,7 +7070,7 @@
         <v>4457</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="15" t="s">
         <v>162</v>
       </c>
@@ -7081,10 +7081,10 @@
         <v>300</v>
       </c>
       <c r="D158" s="17">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E158" s="17">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F158" s="17">
         <v>8</v>
@@ -7105,7 +7105,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="15" t="s">
         <v>163</v>
       </c>
@@ -7116,13 +7116,13 @@
         <v>200</v>
       </c>
       <c r="D159" s="17">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E159" s="17">
         <v>126</v>
       </c>
       <c r="F159" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G159" s="17">
         <v>3567</v>
@@ -7140,7 +7140,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="15" t="s">
         <v>164</v>
       </c>
@@ -7151,10 +7151,10 @@
         <v>2300</v>
       </c>
       <c r="D160" s="17">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E160" s="17">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F160" s="17">
         <v>4</v>
@@ -7175,7 +7175,7 @@
         <v>14206</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="15" t="s">
         <v>165</v>
       </c>
@@ -7186,13 +7186,13 @@
         <v>1200</v>
       </c>
       <c r="D161" s="17">
-        <v>619</v>
+        <v>671</v>
       </c>
       <c r="E161" s="17">
-        <v>618</v>
+        <v>669</v>
       </c>
       <c r="F161" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G161" s="17">
         <v>42357</v>
@@ -7210,7 +7210,7 @@
         <v>21160</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="15" t="s">
         <v>166</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>3045</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="15" t="s">
         <v>167</v>
       </c>
@@ -7256,13 +7256,13 @@
         <v>11400</v>
       </c>
       <c r="D163" s="17">
-        <v>4661</v>
+        <v>5175</v>
       </c>
       <c r="E163" s="17">
-        <v>4561</v>
+        <v>4823</v>
       </c>
       <c r="F163" s="17">
-        <v>100</v>
+        <v>352</v>
       </c>
       <c r="G163" s="17">
         <v>198642</v>
@@ -7280,7 +7280,7 @@
         <v>84638</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="15" t="s">
         <v>168</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="15" t="s">
         <v>169</v>
       </c>
@@ -7326,13 +7326,13 @@
         <v>600</v>
       </c>
       <c r="D165" s="17">
-        <v>900</v>
+        <v>943</v>
       </c>
       <c r="E165" s="17">
-        <v>882</v>
+        <v>916</v>
       </c>
       <c r="F165" s="17">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G165" s="17">
         <v>42991</v>
@@ -7350,7 +7350,7 @@
         <v>19399</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="15" t="s">
         <v>170</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="15" t="s">
         <v>171</v>
       </c>
@@ -7396,13 +7396,13 @@
         <v>6300</v>
       </c>
       <c r="D167" s="17">
-        <v>2902</v>
+        <v>2930</v>
       </c>
       <c r="E167" s="17">
-        <v>2208</v>
+        <v>2234</v>
       </c>
       <c r="F167" s="17">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G167" s="17">
         <v>132357</v>
@@ -7420,7 +7420,7 @@
         <v>54263</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="15" t="s">
         <v>172</v>
       </c>
@@ -7431,13 +7431,13 @@
         <v>1200</v>
       </c>
       <c r="D168" s="17">
-        <v>370</v>
+        <v>432</v>
       </c>
       <c r="E168" s="17">
-        <v>369</v>
+        <v>428</v>
       </c>
       <c r="F168" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G168" s="17">
         <v>19805</v>
@@ -7455,7 +7455,7 @@
         <v>10021</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="15" t="s">
         <v>173</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="15" t="s">
         <v>174</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>3086</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="15" t="s">
         <v>175</v>
       </c>
@@ -7536,13 +7536,13 @@
         <v>200</v>
       </c>
       <c r="D171" s="17">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="E171" s="17">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="F171" s="17">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G171" s="17">
         <v>15803</v>
@@ -7560,7 +7560,7 @@
         <v>7509</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="15" t="s">
         <v>176</v>
       </c>
@@ -7571,13 +7571,13 @@
         <v>35575</v>
       </c>
       <c r="D172" s="17">
-        <v>8911</v>
+        <v>9577</v>
       </c>
       <c r="E172" s="17">
-        <v>8420</v>
+        <v>8800</v>
       </c>
       <c r="F172" s="17">
-        <v>491</v>
+        <v>777</v>
       </c>
       <c r="G172" s="17">
         <v>470846</v>
@@ -7595,7 +7595,7 @@
         <v>177437</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="15" t="s">
         <v>177</v>
       </c>
@@ -7606,10 +7606,10 @@
         <v>800</v>
       </c>
       <c r="D173" s="17">
-        <v>573</v>
+        <v>609</v>
       </c>
       <c r="E173" s="17">
-        <v>566</v>
+        <v>602</v>
       </c>
       <c r="F173" s="17">
         <v>7</v>
@@ -7630,7 +7630,7 @@
         <v>7114</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="15" t="s">
         <v>178</v>
       </c>
@@ -7641,13 +7641,13 @@
         <v>300</v>
       </c>
       <c r="D174" s="17">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E174" s="17">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F174" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G174" s="17">
         <v>9938</v>
@@ -7665,7 +7665,7 @@
         <v>4953</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
         <v>179</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="15" t="s">
         <v>180</v>
       </c>
@@ -7711,13 +7711,13 @@
         <v>5100</v>
       </c>
       <c r="D176" s="17">
-        <v>2219</v>
+        <v>2387</v>
       </c>
       <c r="E176" s="17">
-        <v>2213</v>
+        <v>2376</v>
       </c>
       <c r="F176" s="17">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G176" s="17">
         <v>52561</v>
@@ -7735,7 +7735,7 @@
         <v>24062</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="15" t="s">
         <v>181</v>
       </c>
@@ -7746,13 +7746,13 @@
         <v>1800</v>
       </c>
       <c r="D177" s="17">
-        <v>714</v>
+        <v>743</v>
       </c>
       <c r="E177" s="17">
-        <v>702</v>
+        <v>727</v>
       </c>
       <c r="F177" s="17">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G177" s="17">
         <v>40888</v>
@@ -7770,7 +7770,7 @@
         <v>19328</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="15" t="s">
         <v>182</v>
       </c>
@@ -7781,10 +7781,10 @@
         <v>400</v>
       </c>
       <c r="D178" s="17">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E178" s="17">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F178" s="17">
         <v>0</v>
@@ -7805,7 +7805,7 @@
         <v>6051</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="15" t="s">
         <v>183</v>
       </c>
@@ -7816,10 +7816,10 @@
         <v>700</v>
       </c>
       <c r="D179" s="17">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="E179" s="17">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="F179" s="17">
         <v>15</v>
@@ -7840,7 +7840,7 @@
         <v>5398</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="15" t="s">
         <v>184</v>
       </c>
@@ -7851,13 +7851,13 @@
         <v>29675</v>
       </c>
       <c r="D180" s="17">
-        <v>11431</v>
+        <v>12246</v>
       </c>
       <c r="E180" s="17">
-        <v>10984</v>
+        <v>11575</v>
       </c>
       <c r="F180" s="17">
-        <v>447</v>
+        <v>671</v>
       </c>
       <c r="G180" s="17">
         <v>282299</v>
@@ -7875,7 +7875,7 @@
         <v>135074</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="15" t="s">
         <v>185</v>
       </c>
@@ -7886,13 +7886,13 @@
         <v>500</v>
       </c>
       <c r="D181" s="17">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E181" s="17">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F181" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181" s="17">
         <v>7508</v>
@@ -7910,7 +7910,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="15" t="s">
         <v>186</v>
       </c>
@@ -7921,10 +7921,10 @@
         <v>0</v>
       </c>
       <c r="D182" s="17">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E182" s="17">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F182" s="17">
         <v>6</v>
@@ -7945,7 +7945,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="15" t="s">
         <v>187</v>
       </c>
@@ -7956,10 +7956,10 @@
         <v>800</v>
       </c>
       <c r="D183" s="17">
-        <v>480</v>
+        <v>513</v>
       </c>
       <c r="E183" s="17">
-        <v>477</v>
+        <v>510</v>
       </c>
       <c r="F183" s="17">
         <v>3</v>
@@ -7980,7 +7980,7 @@
         <v>32089</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="15" t="s">
         <v>188</v>
       </c>
@@ -7991,13 +7991,13 @@
         <v>600</v>
       </c>
       <c r="D184" s="17">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="E184" s="17">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F184" s="17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G184" s="17">
         <v>23268</v>
@@ -8015,7 +8015,7 @@
         <v>11269</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="15" t="s">
         <v>189</v>
       </c>
@@ -8026,13 +8026,13 @@
         <v>1100</v>
       </c>
       <c r="D185" s="17">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E185" s="17">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F185" s="17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G185" s="17">
         <v>19325</v>
@@ -8050,7 +8050,7 @@
         <v>9112</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="15" t="s">
         <v>190</v>
       </c>
@@ -8061,13 +8061,13 @@
         <v>4900</v>
       </c>
       <c r="D186" s="17">
-        <v>2756</v>
+        <v>2882</v>
       </c>
       <c r="E186" s="17">
-        <v>2637</v>
+        <v>2728</v>
       </c>
       <c r="F186" s="17">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="G186" s="17">
         <v>112329</v>
@@ -8085,7 +8085,7 @@
         <v>47252</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="15" t="s">
         <v>191</v>
       </c>
@@ -8096,13 +8096,13 @@
         <v>500</v>
       </c>
       <c r="D187" s="17">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E187" s="17">
         <v>333</v>
       </c>
       <c r="F187" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G187" s="17">
         <v>7111</v>
@@ -8120,7 +8120,7 @@
         <v>3503</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="15" t="s">
         <v>192</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>5876</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="15" t="s">
         <v>193</v>
       </c>
@@ -8166,13 +8166,13 @@
         <v>2400</v>
       </c>
       <c r="D189" s="17">
-        <v>604</v>
+        <v>622</v>
       </c>
       <c r="E189" s="17">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="F189" s="17">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G189" s="17">
         <v>41511</v>
@@ -8190,7 +8190,7 @@
         <v>20999</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="15" t="s">
         <v>194</v>
       </c>
@@ -8201,13 +8201,13 @@
         <v>35950</v>
       </c>
       <c r="D190" s="17">
-        <v>7452</v>
+        <v>7806</v>
       </c>
       <c r="E190" s="17">
-        <v>6983</v>
+        <v>7347</v>
       </c>
       <c r="F190" s="17">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="G190" s="17">
         <v>89806</v>
@@ -8225,7 +8225,7 @@
         <v>41999</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="15" t="s">
         <v>195</v>
       </c>
@@ -8236,10 +8236,10 @@
         <v>100</v>
       </c>
       <c r="D191" s="17">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E191" s="17">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F191" s="17">
         <v>0</v>
@@ -8260,7 +8260,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="15" t="s">
         <v>196</v>
       </c>
@@ -8271,13 +8271,13 @@
         <v>200</v>
       </c>
       <c r="D192" s="17">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E192" s="17">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F192" s="17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G192" s="17">
         <v>10262</v>
@@ -8295,7 +8295,7 @@
         <v>4960</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="15" t="s">
         <v>197</v>
       </c>
@@ -8306,13 +8306,13 @@
         <v>4500</v>
       </c>
       <c r="D193" s="17">
-        <v>11434</v>
+        <v>11987</v>
       </c>
       <c r="E193" s="17">
-        <v>10611</v>
+        <v>11169</v>
       </c>
       <c r="F193" s="17">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="G193" s="17">
         <v>109144</v>
@@ -8330,7 +8330,7 @@
         <v>41519</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="15" t="s">
         <v>198</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="15" t="s">
         <v>199</v>
       </c>
@@ -8376,10 +8376,10 @@
         <v>0</v>
       </c>
       <c r="D195" s="17">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E195" s="17">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F195" s="17">
         <v>1</v>
@@ -8400,7 +8400,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="15" t="s">
         <v>200</v>
       </c>
@@ -8411,13 +8411,13 @@
         <v>0</v>
       </c>
       <c r="D196" s="17">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E196" s="17">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F196" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G196" s="17">
         <v>9511</v>
@@ -8435,7 +8435,7 @@
         <v>5235</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="15" t="s">
         <v>201</v>
       </c>
@@ -8446,10 +8446,10 @@
         <v>400</v>
       </c>
       <c r="D197" s="17">
-        <v>297</v>
+        <v>370</v>
       </c>
       <c r="E197" s="17">
-        <v>296</v>
+        <v>369</v>
       </c>
       <c r="F197" s="17">
         <v>1</v>
@@ -8470,7 +8470,7 @@
         <v>5885</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="15" t="s">
         <v>202</v>
       </c>
@@ -8481,13 +8481,13 @@
         <v>600</v>
       </c>
       <c r="D198" s="17">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="E198" s="17">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="F198" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G198" s="17">
         <v>5497</v>
@@ -8505,7 +8505,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="15" t="s">
         <v>203</v>
       </c>
@@ -8516,10 +8516,10 @@
         <v>0</v>
       </c>
       <c r="D199" s="17">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E199" s="17">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F199" s="17">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="15" t="s">
         <v>204</v>
       </c>
@@ -8551,13 +8551,13 @@
         <v>500</v>
       </c>
       <c r="D200" s="17">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E200" s="17">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F200" s="17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G200" s="17">
         <v>14216</v>
@@ -8575,7 +8575,7 @@
         <v>6514</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="15" t="s">
         <v>205</v>
       </c>
@@ -8586,13 +8586,13 @@
         <v>3500</v>
       </c>
       <c r="D201" s="17">
-        <v>2001</v>
+        <v>2218</v>
       </c>
       <c r="E201" s="17">
-        <v>1868</v>
+        <v>2041</v>
       </c>
       <c r="F201" s="17">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="G201" s="17">
         <v>81869</v>
@@ -8610,7 +8610,7 @@
         <v>30252</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="15" t="s">
         <v>206</v>
       </c>
@@ -8621,13 +8621,13 @@
         <v>800</v>
       </c>
       <c r="D202" s="17">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="E202" s="17">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F202" s="17">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G202" s="17">
         <v>7992</v>
@@ -8645,7 +8645,7 @@
         <v>3905</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="15" t="s">
         <v>207</v>
       </c>
@@ -8656,13 +8656,13 @@
         <v>900</v>
       </c>
       <c r="D203" s="17">
-        <v>451</v>
+        <v>513</v>
       </c>
       <c r="E203" s="17">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="F203" s="17">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G203" s="17">
         <v>44061</v>
@@ -8680,7 +8680,7 @@
         <v>21319</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="15" t="s">
         <v>208</v>
       </c>
@@ -8691,10 +8691,10 @@
         <v>1100</v>
       </c>
       <c r="D204" s="17">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="E204" s="17">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="F204" s="17">
         <v>1</v>
@@ -8715,7 +8715,7 @@
         <v>4721</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="15" t="s">
         <v>209</v>
       </c>
@@ -8726,10 +8726,10 @@
         <v>800</v>
       </c>
       <c r="D205" s="17">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E205" s="17">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F205" s="17">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>3730</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="15" t="s">
         <v>210</v>
       </c>
@@ -8761,13 +8761,13 @@
         <v>900</v>
       </c>
       <c r="D206" s="17">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="E206" s="17">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="F206" s="17">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G206" s="17">
         <v>23713</v>
@@ -8785,7 +8785,7 @@
         <v>12311</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="15" t="s">
         <v>211</v>
       </c>
@@ -8796,13 +8796,13 @@
         <v>700</v>
       </c>
       <c r="D207" s="17">
-        <v>1008</v>
+        <v>1105</v>
       </c>
       <c r="E207" s="17">
-        <v>970</v>
+        <v>1052</v>
       </c>
       <c r="F207" s="17">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G207" s="17">
         <v>51382</v>
@@ -8820,7 +8820,7 @@
         <v>22807</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="15" t="s">
         <v>212</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="15" t="s">
         <v>213</v>
       </c>
@@ -8866,13 +8866,13 @@
         <v>200</v>
       </c>
       <c r="D209" s="17">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E209" s="17">
         <v>87</v>
       </c>
       <c r="F209" s="17">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G209" s="17">
         <v>2184</v>
@@ -8890,7 +8890,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="15" t="s">
         <v>214</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>6242</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="15" t="s">
         <v>215</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="15" t="s">
         <v>216</v>
       </c>
@@ -8971,10 +8971,10 @@
         <v>1200</v>
       </c>
       <c r="D212" s="17">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E212" s="17">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F212" s="17">
         <v>0</v>
@@ -8995,7 +8995,7 @@
         <v>9951</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="15" t="s">
         <v>217</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="15" t="s">
         <v>218</v>
       </c>
@@ -9041,13 +9041,13 @@
         <v>30400</v>
       </c>
       <c r="D214" s="17">
-        <v>7074</v>
+        <v>8525</v>
       </c>
       <c r="E214" s="17">
-        <v>6831</v>
+        <v>7905</v>
       </c>
       <c r="F214" s="17">
-        <v>243</v>
+        <v>620</v>
       </c>
       <c r="G214" s="17">
         <v>181426</v>
@@ -9065,7 +9065,7 @@
         <v>75818</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="15" t="s">
         <v>219</v>
       </c>
@@ -9076,13 +9076,13 @@
         <v>0</v>
       </c>
       <c r="D215" s="17">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E215" s="17">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F215" s="17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G215" s="17">
         <v>7769</v>
@@ -9100,7 +9100,7 @@
         <v>3417</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="15" t="s">
         <v>220</v>
       </c>
@@ -9111,13 +9111,13 @@
         <v>2200</v>
       </c>
       <c r="D216" s="17">
-        <v>1483</v>
+        <v>1553</v>
       </c>
       <c r="E216" s="17">
-        <v>1474</v>
+        <v>1540</v>
       </c>
       <c r="F216" s="17">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G216" s="17">
         <v>46042</v>
@@ -9135,7 +9135,7 @@
         <v>23826</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="15" t="s">
         <v>221</v>
       </c>
@@ -9146,10 +9146,10 @@
         <v>200</v>
       </c>
       <c r="D217" s="17">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E217" s="17">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F217" s="17">
         <v>4</v>
@@ -9170,7 +9170,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="15" t="s">
         <v>222</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="15" t="s">
         <v>223</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="15" t="s">
         <v>224</v>
       </c>
@@ -9251,13 +9251,13 @@
         <v>0</v>
       </c>
       <c r="D220" s="17">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E220" s="17">
         <v>37</v>
       </c>
       <c r="F220" s="17">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G220" s="17">
         <v>2909</v>
@@ -9275,7 +9275,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="15" t="s">
         <v>225</v>
       </c>
@@ -9286,10 +9286,10 @@
         <v>100</v>
       </c>
       <c r="D221" s="17">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E221" s="17">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F221" s="17">
         <v>2</v>
@@ -9310,7 +9310,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="15" t="s">
         <v>226</v>
       </c>
@@ -9321,13 +9321,13 @@
         <v>158275</v>
       </c>
       <c r="D222" s="17">
-        <v>38395</v>
+        <v>40293</v>
       </c>
       <c r="E222" s="17">
-        <v>36659</v>
+        <v>37904</v>
       </c>
       <c r="F222" s="17">
-        <v>1736</v>
+        <v>2389</v>
       </c>
       <c r="G222" s="17">
         <v>1596169</v>
@@ -9345,7 +9345,7 @@
         <v>660059</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="15" t="s">
         <v>227</v>
       </c>
@@ -9356,13 +9356,13 @@
         <v>10350</v>
       </c>
       <c r="D223" s="17">
-        <v>5460</v>
+        <v>5563</v>
       </c>
       <c r="E223" s="17">
-        <v>4352</v>
+        <v>4452</v>
       </c>
       <c r="F223" s="17">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G223" s="17">
         <v>108531</v>
@@ -9380,7 +9380,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="15" t="s">
         <v>228</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="15" t="s">
         <v>229</v>
       </c>
@@ -9426,10 +9426,10 @@
         <v>1300</v>
       </c>
       <c r="D225" s="17">
-        <v>538</v>
+        <v>623</v>
       </c>
       <c r="E225" s="17">
-        <v>530</v>
+        <v>615</v>
       </c>
       <c r="F225" s="17">
         <v>8</v>
@@ -9450,7 +9450,7 @@
         <v>4766</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="15" t="s">
         <v>230</v>
       </c>
@@ -9485,7 +9485,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="15" t="s">
         <v>231</v>
       </c>
@@ -9496,13 +9496,13 @@
         <v>1900</v>
       </c>
       <c r="D227" s="17">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="E227" s="17">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="F227" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G227" s="17">
         <v>25312</v>
@@ -9520,7 +9520,7 @@
         <v>11794</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="15" t="s">
         <v>232</v>
       </c>
@@ -9531,13 +9531,13 @@
         <v>9550</v>
       </c>
       <c r="D228" s="17">
-        <v>4704</v>
+        <v>5111</v>
       </c>
       <c r="E228" s="17">
-        <v>3356</v>
+        <v>3478</v>
       </c>
       <c r="F228" s="17">
-        <v>1348</v>
+        <v>1633</v>
       </c>
       <c r="G228" s="17">
         <v>93428</v>
@@ -9555,7 +9555,7 @@
         <v>39665</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="15" t="s">
         <v>233</v>
       </c>
@@ -9566,13 +9566,13 @@
         <v>96050</v>
       </c>
       <c r="D229" s="17">
-        <v>31028</v>
+        <v>32531</v>
       </c>
       <c r="E229" s="17">
-        <v>29381</v>
+        <v>30393</v>
       </c>
       <c r="F229" s="17">
-        <v>1647</v>
+        <v>2138</v>
       </c>
       <c r="G229" s="17">
         <v>1016090</v>
@@ -9590,7 +9590,7 @@
         <v>337286</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="15" t="s">
         <v>234</v>
       </c>
@@ -9601,10 +9601,10 @@
         <v>800</v>
       </c>
       <c r="D230" s="17">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="E230" s="17">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="F230" s="17">
         <v>0</v>
@@ -9625,7 +9625,7 @@
         <v>6368</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="15" t="s">
         <v>235</v>
       </c>
@@ -9636,10 +9636,10 @@
         <v>1000</v>
       </c>
       <c r="D231" s="17">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="E231" s="17">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="F231" s="17">
         <v>0</v>
@@ -9660,7 +9660,7 @@
         <v>9278</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="15" t="s">
         <v>236</v>
       </c>
@@ -9671,13 +9671,13 @@
         <v>400</v>
       </c>
       <c r="D232" s="17">
-        <v>514</v>
+        <v>557</v>
       </c>
       <c r="E232" s="17">
-        <v>470</v>
+        <v>504</v>
       </c>
       <c r="F232" s="17">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G232" s="17">
         <v>33211</v>
@@ -9695,7 +9695,7 @@
         <v>15425</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="15" t="s">
         <v>237</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="15" t="s">
         <v>238</v>
       </c>
@@ -9741,10 +9741,10 @@
         <v>1500</v>
       </c>
       <c r="D234" s="17">
-        <v>760</v>
+        <v>784</v>
       </c>
       <c r="E234" s="17">
-        <v>758</v>
+        <v>782</v>
       </c>
       <c r="F234" s="17">
         <v>2</v>
@@ -9765,7 +9765,7 @@
         <v>10179</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="15" t="s">
         <v>239</v>
       </c>
@@ -9776,13 +9776,13 @@
         <v>1800</v>
       </c>
       <c r="D235" s="17">
-        <v>1108</v>
+        <v>1146</v>
       </c>
       <c r="E235" s="17">
-        <v>1107</v>
+        <v>1143</v>
       </c>
       <c r="F235" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G235" s="17">
         <v>38039</v>
@@ -9800,7 +9800,7 @@
         <v>17165</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="15" t="s">
         <v>240</v>
       </c>
@@ -9811,13 +9811,13 @@
         <v>2000</v>
       </c>
       <c r="D236" s="17">
-        <v>841</v>
+        <v>983</v>
       </c>
       <c r="E236" s="17">
-        <v>788</v>
+        <v>916</v>
       </c>
       <c r="F236" s="17">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G236" s="17">
         <v>45144</v>
@@ -9835,7 +9835,7 @@
         <v>21537</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="15" t="s">
         <v>241</v>
       </c>
@@ -9846,13 +9846,13 @@
         <v>6150</v>
       </c>
       <c r="D237" s="17">
-        <v>2877</v>
+        <v>2892</v>
       </c>
       <c r="E237" s="17">
-        <v>2608</v>
+        <v>2621</v>
       </c>
       <c r="F237" s="17">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G237" s="17">
         <v>72004</v>
@@ -9870,7 +9870,7 @@
         <v>33178</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="15" t="s">
         <v>242</v>
       </c>
@@ -9881,13 +9881,13 @@
         <v>2700</v>
       </c>
       <c r="D238" s="17">
-        <v>893</v>
+        <v>929</v>
       </c>
       <c r="E238" s="17">
-        <v>884</v>
+        <v>918</v>
       </c>
       <c r="F238" s="17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G238" s="17">
         <v>64302</v>
@@ -9905,7 +9905,7 @@
         <v>28400</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="15" t="s">
         <v>243</v>
       </c>
@@ -9916,13 +9916,13 @@
         <v>1600</v>
       </c>
       <c r="D239" s="17">
-        <v>479</v>
+        <v>528</v>
       </c>
       <c r="E239" s="17">
-        <v>464</v>
+        <v>506</v>
       </c>
       <c r="F239" s="17">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G239" s="17">
         <v>44163</v>
@@ -9940,7 +9940,7 @@
         <v>18373</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="15" t="s">
         <v>244</v>
       </c>
@@ -9951,10 +9951,10 @@
         <v>300</v>
       </c>
       <c r="D240" s="17">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E240" s="17">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F240" s="17">
         <v>1</v>
@@ -9975,7 +9975,7 @@
         <v>4073</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="15" t="s">
         <v>245</v>
       </c>
@@ -9986,13 +9986,13 @@
         <v>1900</v>
       </c>
       <c r="D241" s="17">
-        <v>646</v>
+        <v>678</v>
       </c>
       <c r="E241" s="17">
-        <v>640</v>
+        <v>665</v>
       </c>
       <c r="F241" s="17">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G241" s="17">
         <v>28737</v>
@@ -10010,7 +10010,7 @@
         <v>13829</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="15" t="s">
         <v>246</v>
       </c>
@@ -10021,13 +10021,13 @@
         <v>25400</v>
       </c>
       <c r="D242" s="17">
-        <v>7177</v>
+        <v>7383</v>
       </c>
       <c r="E242" s="17">
-        <v>7094</v>
+        <v>7293</v>
       </c>
       <c r="F242" s="17">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G242" s="17">
         <v>205887</v>
@@ -10045,7 +10045,7 @@
         <v>96319</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="15" t="s">
         <v>247</v>
       </c>
@@ -10056,13 +10056,13 @@
         <v>1000</v>
       </c>
       <c r="D243" s="17">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="E243" s="17">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="F243" s="17">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G243" s="17">
         <v>31964</v>
@@ -10080,7 +10080,7 @@
         <v>16049</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="15" t="s">
         <v>248</v>
       </c>
@@ -10091,10 +10091,10 @@
         <v>200</v>
       </c>
       <c r="D244" s="17">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E244" s="17">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F244" s="17">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="15" t="s">
         <v>249</v>
       </c>
@@ -10126,13 +10126,13 @@
         <v>14950</v>
       </c>
       <c r="D245" s="17">
-        <v>4415</v>
+        <v>4498</v>
       </c>
       <c r="E245" s="17">
-        <v>4019</v>
+        <v>4099</v>
       </c>
       <c r="F245" s="17">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="G245" s="17">
         <v>106550</v>
@@ -10150,7 +10150,7 @@
         <v>50159</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="15" t="s">
         <v>250</v>
       </c>
@@ -10161,10 +10161,10 @@
         <v>2800</v>
       </c>
       <c r="D246" s="17">
-        <v>927</v>
+        <v>969</v>
       </c>
       <c r="E246" s="17">
-        <v>915</v>
+        <v>957</v>
       </c>
       <c r="F246" s="17">
         <v>12</v>
@@ -10185,7 +10185,7 @@
         <v>5328</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="15" t="s">
         <v>251</v>
       </c>
@@ -10196,13 +10196,13 @@
         <v>100</v>
       </c>
       <c r="D247" s="17">
-        <v>304</v>
+        <v>369</v>
       </c>
       <c r="E247" s="17">
-        <v>292</v>
+        <v>350</v>
       </c>
       <c r="F247" s="17">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G247" s="17">
         <v>16823</v>
@@ -10220,7 +10220,7 @@
         <v>9035</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="15" t="s">
         <v>252</v>
       </c>
@@ -10231,13 +10231,13 @@
         <v>26875</v>
       </c>
       <c r="D248" s="17">
-        <v>13732</v>
+        <v>14381</v>
       </c>
       <c r="E248" s="17">
-        <v>13329</v>
+        <v>13769</v>
       </c>
       <c r="F248" s="17">
-        <v>403</v>
+        <v>612</v>
       </c>
       <c r="G248" s="17">
         <v>457170</v>
@@ -10255,7 +10255,7 @@
         <v>160153</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="15" t="s">
         <v>253</v>
       </c>
@@ -10266,13 +10266,13 @@
         <v>2700</v>
       </c>
       <c r="D249" s="17">
-        <v>1651</v>
+        <v>1681</v>
       </c>
       <c r="E249" s="17">
-        <v>1595</v>
+        <v>1621</v>
       </c>
       <c r="F249" s="17">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G249" s="17">
         <v>42030</v>
@@ -10290,7 +10290,7 @@
         <v>16633</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="15" t="s">
         <v>254</v>
       </c>
@@ -10301,10 +10301,10 @@
         <v>200</v>
       </c>
       <c r="D250" s="17">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E250" s="17">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F250" s="17">
         <v>0</v>
@@ -10325,7 +10325,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="15" t="s">
         <v>255</v>
       </c>
@@ -10336,13 +10336,13 @@
         <v>4050</v>
       </c>
       <c r="D251" s="17">
-        <v>2654</v>
+        <v>2799</v>
       </c>
       <c r="E251" s="17">
-        <v>2340</v>
+        <v>2375</v>
       </c>
       <c r="F251" s="17">
-        <v>314</v>
+        <v>424</v>
       </c>
       <c r="G251" s="17">
         <v>55570</v>
@@ -10360,7 +10360,7 @@
         <v>26139</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="15" t="s">
         <v>256</v>
       </c>
@@ -10371,13 +10371,13 @@
         <v>1400</v>
       </c>
       <c r="D252" s="17">
-        <v>757</v>
+        <v>865</v>
       </c>
       <c r="E252" s="17">
-        <v>745</v>
+        <v>843</v>
       </c>
       <c r="F252" s="17">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G252" s="17">
         <v>37205</v>
@@ -10395,7 +10395,7 @@
         <v>18613</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="15" t="s">
         <v>257</v>
       </c>
@@ -10406,10 +10406,10 @@
         <v>300</v>
       </c>
       <c r="D253" s="17">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E253" s="17">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F253" s="17">
         <v>4</v>
@@ -10430,7 +10430,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="15" t="s">
         <v>258</v>
       </c>
@@ -10441,13 +10441,13 @@
         <v>1600</v>
       </c>
       <c r="D254" s="17">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E254" s="17">
         <v>481</v>
       </c>
       <c r="F254" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G254" s="17">
         <v>15028</v>
@@ -10465,7 +10465,7 @@
         <v>6955</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="15" t="s">
         <v>259</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>5427</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="15" t="s">
         <v>260</v>
       </c>
@@ -10511,10 +10511,10 @@
         <v>100</v>
       </c>
       <c r="D256" s="17">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E256" s="17">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F256" s="17">
         <v>0</v>
@@ -10535,7 +10535,7 @@
         <v>4807</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="15" t="s">
         <v>295</v>
       </c>
@@ -10546,29 +10546,19 @@
         <v>0</v>
       </c>
       <c r="D257" s="17">
-        <v>47756</v>
+        <v>54104</v>
       </c>
       <c r="E257" s="17">
-        <v>44758</v>
+        <v>49239</v>
       </c>
       <c r="F257" s="17">
-        <v>2998</v>
-      </c>
-      <c r="G257" s="17">
-        <v>0</v>
-      </c>
-      <c r="H257" s="17">
-        <v>0</v>
-      </c>
-      <c r="I257" s="17">
-        <v>0</v>
-      </c>
-      <c r="J257" s="17">
-        <v>0</v>
-      </c>
-      <c r="K257" s="17">
-        <v>0</v>
-      </c>
+        <v>4865</v>
+      </c>
+      <c r="G257" s="17"/>
+      <c r="H257" s="17"/>
+      <c r="I257" s="17"/>
+      <c r="J257" s="17"/>
+      <c r="K257" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10582,15 +10572,15 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.86328125" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" customWidth="1"/>
     <col min="3" max="3" width="18" style="13" customWidth="1"/>
-    <col min="4" max="4" width="37.73046875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="13" customWidth="1"/>
     <col min="5" max="5" width="22.19921875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>283</v>
       </c>
@@ -10607,7 +10597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>286</v>
       </c>
@@ -10615,91 +10605,91 @@
         <v>287</v>
       </c>
       <c r="C2" s="17">
-        <v>233382</v>
+        <v>248727</v>
       </c>
       <c r="D2" s="17">
-        <v>214040</v>
+        <v>222005</v>
       </c>
       <c r="E2" s="17">
-        <v>19342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="B3" s="12" t="s">
         <v>288</v>
       </c>
       <c r="C3" s="17">
-        <v>112153</v>
+        <v>119888</v>
       </c>
       <c r="D3" s="17">
-        <v>103753</v>
+        <v>108726</v>
       </c>
       <c r="E3" s="17">
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
         <v>289</v>
       </c>
       <c r="C4" s="17">
-        <v>64062</v>
+        <v>70823</v>
       </c>
       <c r="D4" s="17">
-        <v>62605</v>
+        <v>68874</v>
       </c>
       <c r="E4" s="17">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="12" t="s">
         <v>290</v>
       </c>
       <c r="C5" s="17">
-        <v>19787</v>
+        <v>21851</v>
       </c>
       <c r="D5" s="17">
-        <v>19722</v>
+        <v>21768</v>
       </c>
       <c r="E5" s="17">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12" t="s">
         <v>291</v>
       </c>
       <c r="C6" s="17">
+        <v>462</v>
+      </c>
+      <c r="D6" s="17">
         <v>452</v>
-      </c>
-      <c r="D6" s="17">
-        <v>442</v>
       </c>
       <c r="E6" s="17">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="5" t="s">
         <v>292</v>
       </c>
       <c r="C7" s="19">
-        <v>429836</v>
+        <v>461751</v>
       </c>
       <c r="D7" s="19">
-        <v>400562</v>
+        <v>421825</v>
       </c>
       <c r="E7" s="19">
-        <v>29274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>39926</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>293</v>
       </c>
@@ -10707,91 +10697,91 @@
         <v>287</v>
       </c>
       <c r="C8" s="19">
-        <v>125120</v>
+        <v>133171</v>
       </c>
       <c r="D8" s="19">
-        <v>113628</v>
+        <v>117922</v>
       </c>
       <c r="E8" s="19">
-        <v>11492</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="5" t="s">
         <v>288</v>
       </c>
       <c r="C9" s="19">
-        <v>67655</v>
+        <v>72394</v>
       </c>
       <c r="D9" s="19">
-        <v>62242</v>
+        <v>65307</v>
       </c>
       <c r="E9" s="19">
-        <v>5413</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7087</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="5" t="s">
         <v>289</v>
       </c>
       <c r="C10" s="19">
-        <v>55061</v>
+        <v>60637</v>
       </c>
       <c r="D10" s="19">
-        <v>53501</v>
+        <v>58647</v>
       </c>
       <c r="E10" s="19">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="5" t="s">
         <v>290</v>
       </c>
       <c r="C11" s="19">
-        <v>14315</v>
+        <v>15676</v>
       </c>
       <c r="D11" s="19">
-        <v>14239</v>
+        <v>15577</v>
       </c>
       <c r="E11" s="19">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="5" t="s">
         <v>291</v>
       </c>
       <c r="C12" s="19">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="D12" s="19">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="E12" s="19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="5" t="s">
         <v>292</v>
       </c>
       <c r="C13" s="19">
-        <v>262437</v>
+        <v>282178</v>
       </c>
       <c r="D13" s="19">
-        <v>243888</v>
+        <v>257744</v>
       </c>
       <c r="E13" s="19">
-        <v>18549</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>291</v>
       </c>
@@ -10799,61 +10789,61 @@
         <v>287</v>
       </c>
       <c r="C14" s="19">
-        <v>2533</v>
+        <v>2574</v>
       </c>
       <c r="D14" s="19">
-        <v>2487</v>
+        <v>2508</v>
       </c>
       <c r="E14" s="19">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="5" t="s">
         <v>288</v>
       </c>
       <c r="C15" s="19">
-        <v>1383</v>
+        <v>1399</v>
       </c>
       <c r="D15" s="19">
-        <v>1346</v>
+        <v>1354</v>
       </c>
       <c r="E15" s="19">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="5" t="s">
         <v>289</v>
       </c>
       <c r="C16" s="19">
-        <v>3751</v>
+        <v>3794</v>
       </c>
       <c r="D16" s="19">
-        <v>3746</v>
+        <v>3787</v>
       </c>
       <c r="E16" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="5" t="s">
         <v>290</v>
       </c>
       <c r="C17" s="19">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="D17" s="19">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="E17" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="5" t="s">
         <v>291</v>
@@ -10868,34 +10858,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="5" t="s">
         <v>292</v>
       </c>
       <c r="C19" s="19">
-        <v>8286</v>
+        <v>8395</v>
       </c>
       <c r="D19" s="19">
-        <v>8198</v>
+        <v>8277</v>
       </c>
       <c r="E19" s="19">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>262</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="19">
-        <v>700559</v>
+        <v>752324</v>
       </c>
       <c r="D20" s="19">
-        <v>652648</v>
+        <v>687846</v>
       </c>
       <c r="E20" s="19">
-        <v>47911</v>
+        <v>64478</v>
       </c>
     </row>
   </sheetData>

--- a/Services/StateOfTexas/Data/COVID-19 Vaccine Data by County.xlsx
+++ b/Services/StateOfTexas/Data/COVID-19 Vaccine Data by County.xlsx
@@ -5,18 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aearl914\Desktop\COVID-19\Daily County Updates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnicholas000\Desktop\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA2574C8-3F77-4157-B0B0-EBF45CC6A74F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41160ADE-08E4-4182-B300-5CFE693C2916}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About the Data" sheetId="2" r:id="rId1"/>
     <sheet name="By County" sheetId="1" r:id="rId2"/>
     <sheet name="Vaccinations by Gender, Age" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'By County'!$A$1:$K$257</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1006,7 +1009,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\-#,##0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1054,6 +1057,19 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1075,7 +1091,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1122,12 +1138,19 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1446,13 +1469,13 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.59765625" customWidth="1"/>
-    <col min="2" max="2" width="121.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="121.53125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>271</v>
       </c>
@@ -1460,7 +1483,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>267</v>
       </c>
@@ -1468,7 +1491,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" s="12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>294</v>
       </c>
@@ -1476,7 +1499,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1484,7 +1507,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -1492,7 +1515,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -1500,7 +1523,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>264</v>
       </c>
@@ -1508,7 +1531,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>261</v>
       </c>
@@ -1516,7 +1539,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="120" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>265</v>
       </c>
@@ -1524,7 +1547,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>266</v>
       </c>
@@ -1532,7 +1555,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>282</v>
       </c>
@@ -1552,21 +1575,21 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.46484375" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.19921875" style="6" customWidth="1"/>
-    <col min="4" max="5" width="20.69921875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.796875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="6" customWidth="1"/>
+    <col min="4" max="5" width="20.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.73046875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.46484375" style="6" customWidth="1"/>
     <col min="8" max="8" width="13.19921875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="15.09765625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.796875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15.06640625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.73046875" style="6" customWidth="1"/>
     <col min="11" max="11" width="12" style="6" customWidth="1"/>
     <col min="12" max="16384" width="9.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1601,7 +1624,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>262</v>
       </c>
@@ -1614,15 +1637,15 @@
       </c>
       <c r="D2" s="4">
         <f t="shared" si="0"/>
-        <v>752324</v>
+        <v>789569</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>687846</v>
+        <v>711337</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>64478</v>
+        <v>78232</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
@@ -1645,7 +1668,7 @@
         <v>9499038</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
@@ -1680,7 +1703,7 @@
         <v>24078</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
@@ -1715,7 +1738,7 @@
         <v>5867</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
@@ -1726,10 +1749,10 @@
         <v>11100</v>
       </c>
       <c r="D5" s="17">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="E5" s="17">
-        <v>2996</v>
+        <v>2997</v>
       </c>
       <c r="F5" s="17">
         <v>10</v>
@@ -1750,7 +1773,7 @@
         <v>34525</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
@@ -1761,13 +1784,13 @@
         <v>600</v>
       </c>
       <c r="D6" s="17">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="E6" s="17">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="F6" s="17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6" s="17">
         <v>19727</v>
@@ -1785,7 +1808,7 @@
         <v>10102</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
@@ -1796,10 +1819,10 @@
         <v>300</v>
       </c>
       <c r="D7" s="17">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E7" s="17">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F7" s="17">
         <v>16</v>
@@ -1820,7 +1843,7 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>11</v>
       </c>
@@ -1855,7 +1878,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>12</v>
       </c>
@@ -1866,13 +1889,13 @@
         <v>2400</v>
       </c>
       <c r="D9" s="17">
-        <v>1055</v>
+        <v>1086</v>
       </c>
       <c r="E9" s="17">
-        <v>1002</v>
+        <v>1030</v>
       </c>
       <c r="F9" s="17">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G9" s="17">
         <v>39065</v>
@@ -1890,7 +1913,7 @@
         <v>17891</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
@@ -1901,13 +1924,13 @@
         <v>1200</v>
       </c>
       <c r="D10" s="17">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="E10" s="17">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="F10" s="17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" s="17">
         <v>25584</v>
@@ -1925,7 +1948,7 @@
         <v>10132</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
@@ -1936,10 +1959,10 @@
         <v>500</v>
       </c>
       <c r="D11" s="17">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E11" s="17">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F11" s="17">
         <v>0</v>
@@ -1960,7 +1983,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
@@ -1971,13 +1994,13 @@
         <v>200</v>
       </c>
       <c r="D12" s="17">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="E12" s="17">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="F12" s="17">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G12" s="17">
         <v>19833</v>
@@ -1995,7 +2018,7 @@
         <v>9348</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>17</v>
       </c>
@@ -2006,13 +2029,13 @@
         <v>1400</v>
       </c>
       <c r="D13" s="17">
-        <v>1404</v>
+        <v>1439</v>
       </c>
       <c r="E13" s="17">
-        <v>1347</v>
+        <v>1360</v>
       </c>
       <c r="F13" s="17">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="G13" s="17">
         <v>70499</v>
@@ -2030,7 +2053,7 @@
         <v>34606</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>18</v>
       </c>
@@ -2041,13 +2064,13 @@
         <v>600</v>
       </c>
       <c r="D14" s="17">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E14" s="17">
         <v>223</v>
       </c>
       <c r="F14" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="17">
         <v>3002</v>
@@ -2065,7 +2088,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>19</v>
       </c>
@@ -2100,7 +2123,7 @@
         <v>13037</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>20</v>
       </c>
@@ -2111,13 +2134,13 @@
         <v>19200</v>
       </c>
       <c r="D16" s="17">
-        <v>5850</v>
+        <v>5899</v>
       </c>
       <c r="E16" s="17">
-        <v>5308</v>
+        <v>5346</v>
       </c>
       <c r="F16" s="17">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="G16" s="17">
         <v>265191</v>
@@ -2135,7 +2158,7 @@
         <v>105279</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>21</v>
       </c>
@@ -2146,13 +2169,13 @@
         <v>158875</v>
       </c>
       <c r="D17" s="17">
-        <v>54729</v>
+        <v>56539</v>
       </c>
       <c r="E17" s="17">
-        <v>49869</v>
+        <v>50740</v>
       </c>
       <c r="F17" s="17">
-        <v>4860</v>
+        <v>5799</v>
       </c>
       <c r="G17" s="17">
         <v>1541803</v>
@@ -2170,7 +2193,7 @@
         <v>696450</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>22</v>
       </c>
@@ -2181,13 +2204,13 @@
         <v>300</v>
       </c>
       <c r="D18" s="17">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E18" s="17">
         <v>178</v>
       </c>
       <c r="F18" s="17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G18" s="17">
         <v>10177</v>
@@ -2205,7 +2228,7 @@
         <v>4572</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>23</v>
       </c>
@@ -2240,7 +2263,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>24</v>
       </c>
@@ -2251,10 +2274,10 @@
         <v>1900</v>
       </c>
       <c r="D20" s="17">
-        <v>300</v>
+        <v>432</v>
       </c>
       <c r="E20" s="17">
-        <v>288</v>
+        <v>420</v>
       </c>
       <c r="F20" s="17">
         <v>12</v>
@@ -2275,7 +2298,7 @@
         <v>7171</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>25</v>
       </c>
@@ -2286,10 +2309,10 @@
         <v>6275</v>
       </c>
       <c r="D21" s="17">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="E21" s="17">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="F21" s="17">
         <v>32</v>
@@ -2310,7 +2333,7 @@
         <v>36179</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>26</v>
       </c>
@@ -2321,13 +2344,13 @@
         <v>11100</v>
       </c>
       <c r="D22" s="17">
-        <v>9679</v>
+        <v>10084</v>
       </c>
       <c r="E22" s="17">
-        <v>8653</v>
+        <v>8850</v>
       </c>
       <c r="F22" s="17">
-        <v>1026</v>
+        <v>1234</v>
       </c>
       <c r="G22" s="17">
         <v>295635</v>
@@ -2345,7 +2368,7 @@
         <v>119229</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -2356,13 +2379,13 @@
         <v>11950</v>
       </c>
       <c r="D23" s="17">
-        <v>2597</v>
+        <v>2639</v>
       </c>
       <c r="E23" s="17">
-        <v>2447</v>
+        <v>2484</v>
       </c>
       <c r="F23" s="17">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G23" s="17">
         <v>185835</v>
@@ -2380,7 +2403,7 @@
         <v>64988</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>28</v>
       </c>
@@ -2391,10 +2414,10 @@
         <v>800</v>
       </c>
       <c r="D24" s="17">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E24" s="17">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F24" s="17">
         <v>1</v>
@@ -2415,7 +2438,7 @@
         <v>3547</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>29</v>
       </c>
@@ -2450,7 +2473,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>30</v>
       </c>
@@ -2461,10 +2484,10 @@
         <v>300</v>
       </c>
       <c r="D26" s="17">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E26" s="17">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F26" s="17">
         <v>0</v>
@@ -2485,7 +2508,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>31</v>
       </c>
@@ -2496,10 +2519,10 @@
         <v>1400</v>
       </c>
       <c r="D27" s="17">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E27" s="17">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F27" s="17">
         <v>14</v>
@@ -2520,7 +2543,7 @@
         <v>14261</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>32</v>
       </c>
@@ -2555,7 +2578,7 @@
         <v>7277</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>33</v>
       </c>
@@ -2566,13 +2589,13 @@
         <v>2600</v>
       </c>
       <c r="D29" s="17">
-        <v>745</v>
+        <v>758</v>
       </c>
       <c r="E29" s="17">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="F29" s="17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G29" s="17">
         <v>39423</v>
@@ -2590,7 +2613,7 @@
         <v>17381</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>34</v>
       </c>
@@ -2601,13 +2624,13 @@
         <v>900</v>
       </c>
       <c r="D30" s="17">
-        <v>666</v>
+        <v>690</v>
       </c>
       <c r="E30" s="17">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="F30" s="17">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G30" s="17">
         <v>33813</v>
@@ -2625,7 +2648,7 @@
         <v>16400</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>35</v>
       </c>
@@ -2636,13 +2659,13 @@
         <v>900</v>
       </c>
       <c r="D31" s="17">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="E31" s="17">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="F31" s="17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G31" s="17">
         <v>17169</v>
@@ -2660,7 +2683,7 @@
         <v>7841</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>36</v>
       </c>
@@ -2695,7 +2718,7 @@
         <v>5346</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>37</v>
       </c>
@@ -2706,13 +2729,13 @@
         <v>26550</v>
       </c>
       <c r="D33" s="17">
-        <v>16478</v>
+        <v>17480</v>
       </c>
       <c r="E33" s="17">
-        <v>15020</v>
+        <v>15505</v>
       </c>
       <c r="F33" s="17">
-        <v>1458</v>
+        <v>1975</v>
       </c>
       <c r="G33" s="17">
         <v>315242</v>
@@ -2730,7 +2753,7 @@
         <v>149238</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>38</v>
       </c>
@@ -2765,7 +2788,7 @@
         <v>4991</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>39</v>
       </c>
@@ -2800,7 +2823,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>40</v>
       </c>
@@ -2835,7 +2858,7 @@
         <v>12120</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>41</v>
       </c>
@@ -2846,10 +2869,10 @@
         <v>200</v>
       </c>
       <c r="D37" s="17">
+        <v>193</v>
+      </c>
+      <c r="E37" s="17">
         <v>190</v>
-      </c>
-      <c r="E37" s="17">
-        <v>187</v>
       </c>
       <c r="F37" s="17">
         <v>3</v>
@@ -2870,7 +2893,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
         <v>42</v>
       </c>
@@ -2881,10 +2904,10 @@
         <v>2900</v>
       </c>
       <c r="D38" s="17">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="E38" s="17">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="F38" s="17">
         <v>57</v>
@@ -2905,7 +2928,7 @@
         <v>13721</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
         <v>43</v>
       </c>
@@ -2916,10 +2939,10 @@
         <v>3700</v>
       </c>
       <c r="D39" s="17">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E39" s="17">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="F39" s="17">
         <v>23</v>
@@ -2940,7 +2963,7 @@
         <v>20430</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>44</v>
       </c>
@@ -2975,7 +2998,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
         <v>45</v>
       </c>
@@ -2986,10 +3009,10 @@
         <v>300</v>
       </c>
       <c r="D41" s="17">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E41" s="17">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F41" s="17">
         <v>25</v>
@@ -3010,7 +3033,7 @@
         <v>4071</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
         <v>46</v>
       </c>
@@ -3021,13 +3044,13 @@
         <v>0</v>
       </c>
       <c r="D42" s="17">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="E42" s="17">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="F42" s="17">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G42" s="17">
         <v>2167</v>
@@ -3045,7 +3068,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
         <v>47</v>
       </c>
@@ -3080,7 +3103,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
         <v>48</v>
       </c>
@@ -3115,7 +3138,7 @@
         <v>3427</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
         <v>49</v>
       </c>
@@ -3126,13 +3149,13 @@
         <v>43900</v>
       </c>
       <c r="D45" s="17">
-        <v>21080</v>
+        <v>22121</v>
       </c>
       <c r="E45" s="17">
-        <v>19173</v>
+        <v>19694</v>
       </c>
       <c r="F45" s="17">
-        <v>1907</v>
+        <v>2427</v>
       </c>
       <c r="G45" s="17">
         <v>806242</v>
@@ -3150,7 +3173,7 @@
         <v>256993</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>50</v>
       </c>
@@ -3185,7 +3208,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
         <v>51</v>
       </c>
@@ -3220,7 +3243,7 @@
         <v>7953</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>52</v>
       </c>
@@ -3231,13 +3254,13 @@
         <v>8500</v>
       </c>
       <c r="D48" s="17">
-        <v>3534</v>
+        <v>3581</v>
       </c>
       <c r="E48" s="17">
-        <v>3403</v>
+        <v>3434</v>
       </c>
       <c r="F48" s="17">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="G48" s="17">
         <v>125758</v>
@@ -3255,7 +3278,7 @@
         <v>45927</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
         <v>53</v>
       </c>
@@ -3266,10 +3289,10 @@
         <v>500</v>
       </c>
       <c r="D49" s="17">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E49" s="17">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F49" s="17">
         <v>3</v>
@@ -3290,7 +3313,7 @@
         <v>5170</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>54</v>
       </c>
@@ -3325,7 +3348,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
         <v>55</v>
       </c>
@@ -3336,10 +3359,10 @@
         <v>1300</v>
       </c>
       <c r="D51" s="17">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="E51" s="17">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="F51" s="17">
         <v>17</v>
@@ -3360,7 +3383,7 @@
         <v>14449</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
         <v>56</v>
       </c>
@@ -3371,13 +3394,13 @@
         <v>1600</v>
       </c>
       <c r="D52" s="17">
-        <v>877</v>
+        <v>909</v>
       </c>
       <c r="E52" s="17">
-        <v>859</v>
+        <v>890</v>
       </c>
       <c r="F52" s="17">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G52" s="17">
         <v>58277</v>
@@ -3395,7 +3418,7 @@
         <v>25149</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
         <v>57</v>
       </c>
@@ -3406,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D53" s="17">
-        <v>1208</v>
+        <v>1274</v>
       </c>
       <c r="E53" s="17">
-        <v>1116</v>
+        <v>1167</v>
       </c>
       <c r="F53" s="17">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G53" s="17">
         <v>1120</v>
@@ -3430,7 +3453,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>58</v>
       </c>
@@ -3441,10 +3464,10 @@
         <v>200</v>
       </c>
       <c r="D54" s="17">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E54" s="17">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F54" s="17">
         <v>0</v>
@@ -3465,7 +3488,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
         <v>59</v>
       </c>
@@ -3500,7 +3523,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
         <v>60</v>
       </c>
@@ -3511,10 +3534,10 @@
         <v>200</v>
       </c>
       <c r="D56" s="17">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E56" s="17">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F56" s="17">
         <v>8</v>
@@ -3535,7 +3558,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
         <v>61</v>
       </c>
@@ -3546,10 +3569,10 @@
         <v>200</v>
       </c>
       <c r="D57" s="17">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E57" s="17">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F57" s="17">
         <v>0</v>
@@ -3570,7 +3593,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
         <v>62</v>
       </c>
@@ -3581,10 +3604,10 @@
         <v>200</v>
       </c>
       <c r="D58" s="17">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E58" s="17">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F58" s="17">
         <v>0</v>
@@ -3605,7 +3628,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
         <v>63</v>
       </c>
@@ -3616,13 +3639,13 @@
         <v>174725</v>
       </c>
       <c r="D59" s="17">
-        <v>55770</v>
+        <v>58195</v>
       </c>
       <c r="E59" s="17">
-        <v>48169</v>
+        <v>49655</v>
       </c>
       <c r="F59" s="17">
-        <v>7601</v>
+        <v>8540</v>
       </c>
       <c r="G59" s="17">
         <v>2015538</v>
@@ -3640,7 +3663,7 @@
         <v>820238</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
         <v>64</v>
       </c>
@@ -3651,10 +3674,10 @@
         <v>400</v>
       </c>
       <c r="D60" s="17">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E60" s="17">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F60" s="17">
         <v>4</v>
@@ -3675,7 +3698,7 @@
         <v>5005</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
         <v>66</v>
       </c>
@@ -3710,7 +3733,7 @@
         <v>6265</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
         <v>67</v>
       </c>
@@ -3721,10 +3744,10 @@
         <v>0</v>
       </c>
       <c r="D62" s="17">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E62" s="17">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F62" s="17">
         <v>0</v>
@@ -3745,7 +3768,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
         <v>68</v>
       </c>
@@ -3756,13 +3779,13 @@
         <v>22500</v>
       </c>
       <c r="D63" s="17">
-        <v>13032</v>
+        <v>13484</v>
       </c>
       <c r="E63" s="17">
-        <v>12016</v>
+        <v>12291</v>
       </c>
       <c r="F63" s="17">
-        <v>1016</v>
+        <v>1193</v>
       </c>
       <c r="G63" s="17">
         <v>702429</v>
@@ -3780,7 +3803,7 @@
         <v>276089</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
         <v>65</v>
       </c>
@@ -3791,13 +3814,13 @@
         <v>700</v>
       </c>
       <c r="D64" s="17">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E64" s="17">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F64" s="17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G64" s="17">
         <v>16610</v>
@@ -3815,7 +3838,7 @@
         <v>7926</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
         <v>69</v>
       </c>
@@ -3850,7 +3873,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
         <v>70</v>
       </c>
@@ -3861,10 +3884,10 @@
         <v>500</v>
       </c>
       <c r="D66" s="17">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E66" s="17">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F66" s="17">
         <v>0</v>
@@ -3885,7 +3908,7 @@
         <v>4018</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
         <v>71</v>
       </c>
@@ -3920,7 +3943,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
         <v>72</v>
       </c>
@@ -3931,10 +3954,10 @@
         <v>200</v>
       </c>
       <c r="D68" s="17">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="E68" s="17">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="F68" s="17">
         <v>2</v>
@@ -3955,7 +3978,7 @@
         <v>4543</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
         <v>73</v>
       </c>
@@ -3966,10 +3989,10 @@
         <v>500</v>
       </c>
       <c r="D69" s="17">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E69" s="17">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F69" s="17">
         <v>5</v>
@@ -3990,7 +4013,7 @@
         <v>7102</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
         <v>74</v>
       </c>
@@ -4001,10 +4024,10 @@
         <v>10200</v>
       </c>
       <c r="D70" s="17">
-        <v>2841</v>
+        <v>2878</v>
       </c>
       <c r="E70" s="17">
-        <v>2695</v>
+        <v>2732</v>
       </c>
       <c r="F70" s="17">
         <v>146</v>
@@ -4025,7 +4048,7 @@
         <v>54750</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
         <v>75</v>
       </c>
@@ -4060,7 +4083,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
         <v>76</v>
       </c>
@@ -4071,13 +4094,13 @@
         <v>69400</v>
       </c>
       <c r="D72" s="17">
-        <v>35717</v>
+        <v>38156</v>
       </c>
       <c r="E72" s="17">
-        <v>31287</v>
+        <v>33160</v>
       </c>
       <c r="F72" s="17">
-        <v>4430</v>
+        <v>4996</v>
       </c>
       <c r="G72" s="17">
         <v>640715</v>
@@ -4095,7 +4118,7 @@
         <v>281334</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
         <v>77</v>
       </c>
@@ -4106,13 +4129,13 @@
         <v>4500</v>
       </c>
       <c r="D73" s="17">
-        <v>3857</v>
+        <v>4020</v>
       </c>
       <c r="E73" s="17">
-        <v>3457</v>
+        <v>3595</v>
       </c>
       <c r="F73" s="17">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="G73" s="17">
         <v>146536</v>
@@ -4130,7 +4153,7 @@
         <v>61039</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
         <v>78</v>
       </c>
@@ -4141,13 +4164,13 @@
         <v>600</v>
       </c>
       <c r="D74" s="17">
-        <v>545</v>
+        <v>571</v>
       </c>
       <c r="E74" s="17">
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="F74" s="17">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G74" s="17">
         <v>34869</v>
@@ -4165,7 +4188,7 @@
         <v>14817</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="15" t="s">
         <v>79</v>
       </c>
@@ -4176,13 +4199,13 @@
         <v>300</v>
       </c>
       <c r="D75" s="17">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E75" s="17">
         <v>176</v>
       </c>
       <c r="F75" s="17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G75" s="17">
         <v>14306</v>
@@ -4200,7 +4223,7 @@
         <v>7192</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
         <v>80</v>
       </c>
@@ -4211,13 +4234,13 @@
         <v>2300</v>
       </c>
       <c r="D76" s="17">
-        <v>1095</v>
+        <v>1130</v>
       </c>
       <c r="E76" s="17">
-        <v>1083</v>
+        <v>1115</v>
       </c>
       <c r="F76" s="17">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G76" s="17">
         <v>29681</v>
@@ -4235,7 +4258,7 @@
         <v>13661</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
         <v>81</v>
       </c>
@@ -4246,13 +4269,13 @@
         <v>1200</v>
       </c>
       <c r="D77" s="17">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="E77" s="17">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="F77" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G77" s="17">
         <v>21209</v>
@@ -4270,7 +4293,7 @@
         <v>9754</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
         <v>82</v>
       </c>
@@ -4305,7 +4328,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
         <v>83</v>
       </c>
@@ -4316,10 +4339,10 @@
         <v>200</v>
       </c>
       <c r="D79" s="17">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E79" s="17">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F79" s="17">
         <v>1</v>
@@ -4340,7 +4363,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
         <v>84</v>
       </c>
@@ -4375,7 +4398,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="15" t="s">
         <v>85</v>
       </c>
@@ -4386,13 +4409,13 @@
         <v>34200</v>
       </c>
       <c r="D81" s="17">
-        <v>19503</v>
+        <v>20167</v>
       </c>
       <c r="E81" s="17">
-        <v>17477</v>
+        <v>17789</v>
       </c>
       <c r="F81" s="17">
-        <v>2026</v>
+        <v>2378</v>
       </c>
       <c r="G81" s="17">
         <v>626861</v>
@@ -4410,7 +4433,7 @@
         <v>192056</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
         <v>86</v>
       </c>
@@ -4445,7 +4468,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
         <v>87</v>
       </c>
@@ -4480,7 +4503,7 @@
         <v>8172</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
         <v>88</v>
       </c>
@@ -4491,10 +4514,10 @@
         <v>1500</v>
       </c>
       <c r="D84" s="17">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="E84" s="17">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="F84" s="17">
         <v>3</v>
@@ -4515,7 +4538,7 @@
         <v>7605</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
         <v>89</v>
       </c>
@@ -4526,13 +4549,13 @@
         <v>1100</v>
       </c>
       <c r="D85" s="17">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E85" s="17">
         <v>521</v>
       </c>
       <c r="F85" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G85" s="17">
         <v>14875</v>
@@ -4550,7 +4573,7 @@
         <v>6531</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
         <v>90</v>
       </c>
@@ -4561,13 +4584,13 @@
         <v>21500</v>
       </c>
       <c r="D86" s="17">
-        <v>13754</v>
+        <v>14568</v>
       </c>
       <c r="E86" s="17">
-        <v>12426</v>
+        <v>12989</v>
       </c>
       <c r="F86" s="17">
-        <v>1328</v>
+        <v>1579</v>
       </c>
       <c r="G86" s="17">
         <v>267032</v>
@@ -4585,7 +4608,7 @@
         <v>113161</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
         <v>91</v>
       </c>
@@ -4620,7 +4643,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="15" t="s">
         <v>92</v>
       </c>
@@ -4631,13 +4654,13 @@
         <v>1800</v>
       </c>
       <c r="D88" s="17">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="E88" s="17">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="F88" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G88" s="17">
         <v>22728</v>
@@ -4655,7 +4678,7 @@
         <v>10293</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
         <v>93</v>
       </c>
@@ -4690,7 +4713,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
         <v>94</v>
       </c>
@@ -4701,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="D90" s="17">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E90" s="17">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F90" s="17">
         <v>8</v>
@@ -4725,7 +4748,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
         <v>95</v>
       </c>
@@ -4736,13 +4759,13 @@
         <v>1000</v>
       </c>
       <c r="D91" s="17">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E91" s="17">
         <v>480</v>
       </c>
       <c r="F91" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" s="17">
         <v>15931</v>
@@ -4760,7 +4783,7 @@
         <v>7818</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
         <v>96</v>
       </c>
@@ -4795,7 +4818,7 @@
         <v>8475</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
         <v>97</v>
       </c>
@@ -4806,13 +4829,13 @@
         <v>16275</v>
       </c>
       <c r="D93" s="17">
-        <v>3552</v>
+        <v>3633</v>
       </c>
       <c r="E93" s="17">
-        <v>3502</v>
+        <v>3569</v>
       </c>
       <c r="F93" s="17">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G93" s="17">
         <v>107568</v>
@@ -4830,7 +4853,7 @@
         <v>49725</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
         <v>98</v>
       </c>
@@ -4841,13 +4864,13 @@
         <v>10750</v>
       </c>
       <c r="D94" s="17">
-        <v>2936</v>
+        <v>2947</v>
       </c>
       <c r="E94" s="17">
-        <v>2669</v>
+        <v>2677</v>
       </c>
       <c r="F94" s="17">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G94" s="17">
         <v>97771</v>
@@ -4865,7 +4888,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
         <v>99</v>
       </c>
@@ -4876,10 +4899,10 @@
         <v>900</v>
       </c>
       <c r="D95" s="17">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E95" s="17">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F95" s="17">
         <v>6</v>
@@ -4900,7 +4923,7 @@
         <v>11724</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
         <v>100</v>
       </c>
@@ -4911,13 +4934,13 @@
         <v>5300</v>
       </c>
       <c r="D96" s="17">
-        <v>3129</v>
+        <v>3156</v>
       </c>
       <c r="E96" s="17">
-        <v>2974</v>
+        <v>2989</v>
       </c>
       <c r="F96" s="17">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="G96" s="17">
         <v>130156</v>
@@ -4935,7 +4958,7 @@
         <v>56504</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
         <v>101</v>
       </c>
@@ -4946,10 +4969,10 @@
         <v>2600</v>
       </c>
       <c r="D97" s="17">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="E97" s="17">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="F97" s="17">
         <v>34</v>
@@ -4970,7 +4993,7 @@
         <v>12481</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
         <v>102</v>
       </c>
@@ -5005,7 +5028,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
         <v>103</v>
       </c>
@@ -5016,10 +5039,10 @@
         <v>1200</v>
       </c>
       <c r="D99" s="17">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E99" s="17">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F99" s="17">
         <v>0</v>
@@ -5040,7 +5063,7 @@
         <v>3427</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
         <v>104</v>
       </c>
@@ -5075,7 +5098,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
         <v>105</v>
       </c>
@@ -5110,7 +5133,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
         <v>106</v>
       </c>
@@ -5121,13 +5144,13 @@
         <v>3400</v>
       </c>
       <c r="D102" s="17">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="E102" s="17">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="F102" s="17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G102" s="17">
         <v>47640</v>
@@ -5145,7 +5168,7 @@
         <v>19766</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
         <v>107</v>
       </c>
@@ -5156,13 +5179,13 @@
         <v>363100</v>
       </c>
       <c r="D103" s="17">
-        <v>117610</v>
+        <v>120037</v>
       </c>
       <c r="E103" s="17">
-        <v>105384</v>
+        <v>106141</v>
       </c>
       <c r="F103" s="17">
-        <v>12226</v>
+        <v>13896</v>
       </c>
       <c r="G103" s="17">
         <v>3573784</v>
@@ -5180,7 +5203,7 @@
         <v>1572384</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
         <v>108</v>
       </c>
@@ -5191,10 +5214,10 @@
         <v>2200</v>
       </c>
       <c r="D104" s="17">
-        <v>970</v>
+        <v>1008</v>
       </c>
       <c r="E104" s="17">
-        <v>898</v>
+        <v>936</v>
       </c>
       <c r="F104" s="17">
         <v>72</v>
@@ -5215,7 +5238,7 @@
         <v>25401</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="15" t="s">
         <v>109</v>
       </c>
@@ -5226,10 +5249,10 @@
         <v>500</v>
       </c>
       <c r="D105" s="17">
+        <v>43</v>
+      </c>
+      <c r="E105" s="17">
         <v>42</v>
-      </c>
-      <c r="E105" s="17">
-        <v>41</v>
       </c>
       <c r="F105" s="17">
         <v>1</v>
@@ -5250,7 +5273,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
         <v>110</v>
       </c>
@@ -5261,10 +5284,10 @@
         <v>100</v>
       </c>
       <c r="D106" s="17">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E106" s="17">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F106" s="17">
         <v>2</v>
@@ -5285,7 +5308,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="15" t="s">
         <v>111</v>
       </c>
@@ -5296,13 +5319,13 @@
         <v>9750</v>
       </c>
       <c r="D107" s="17">
-        <v>4922</v>
+        <v>5214</v>
       </c>
       <c r="E107" s="17">
-        <v>4785</v>
+        <v>4986</v>
       </c>
       <c r="F107" s="17">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c r="G107" s="17">
         <v>183387</v>
@@ -5320,7 +5343,7 @@
         <v>67042</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="15" t="s">
         <v>112</v>
       </c>
@@ -5355,7 +5378,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="15" t="s">
         <v>113</v>
       </c>
@@ -5366,10 +5389,10 @@
         <v>3100</v>
       </c>
       <c r="D109" s="17">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="E109" s="17">
-        <v>1134</v>
+        <v>1139</v>
       </c>
       <c r="F109" s="17">
         <v>75</v>
@@ -5390,7 +5413,7 @@
         <v>35206</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="15" t="s">
         <v>114</v>
       </c>
@@ -5401,13 +5424,13 @@
         <v>63175</v>
       </c>
       <c r="D110" s="17">
-        <v>15368</v>
+        <v>19060</v>
       </c>
       <c r="E110" s="17">
-        <v>14563</v>
+        <v>16901</v>
       </c>
       <c r="F110" s="17">
-        <v>805</v>
+        <v>2159</v>
       </c>
       <c r="G110" s="17">
         <v>649795</v>
@@ -5425,7 +5448,7 @@
         <v>319830</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="15" t="s">
         <v>115</v>
       </c>
@@ -5436,13 +5459,13 @@
         <v>900</v>
       </c>
       <c r="D111" s="17">
-        <v>595</v>
+        <v>622</v>
       </c>
       <c r="E111" s="17">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="F111" s="17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G111" s="17">
         <v>29221</v>
@@ -5460,7 +5483,7 @@
         <v>14733</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="15" t="s">
         <v>116</v>
       </c>
@@ -5471,10 +5494,10 @@
         <v>800</v>
       </c>
       <c r="D112" s="17">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E112" s="17">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F112" s="17">
         <v>39</v>
@@ -5495,7 +5518,7 @@
         <v>8124</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="15" t="s">
         <v>117</v>
       </c>
@@ -5506,13 +5529,13 @@
         <v>2100</v>
       </c>
       <c r="D113" s="17">
-        <v>931</v>
+        <v>989</v>
       </c>
       <c r="E113" s="17">
-        <v>909</v>
+        <v>966</v>
       </c>
       <c r="F113" s="17">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G113" s="17">
         <v>50235</v>
@@ -5530,7 +5553,7 @@
         <v>23089</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="15" t="s">
         <v>118</v>
       </c>
@@ -5541,10 +5564,10 @@
         <v>1100</v>
       </c>
       <c r="D114" s="17">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E114" s="17">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F114" s="17">
         <v>5</v>
@@ -5565,7 +5588,7 @@
         <v>13891</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="15" t="s">
         <v>119</v>
       </c>
@@ -5576,13 +5599,13 @@
         <v>1500</v>
       </c>
       <c r="D115" s="17">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E115" s="17">
         <v>651</v>
       </c>
       <c r="F115" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G115" s="17">
         <v>19208</v>
@@ -5600,7 +5623,7 @@
         <v>9989</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="15" t="s">
         <v>120</v>
       </c>
@@ -5635,7 +5658,7 @@
         <v>14072</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="15" t="s">
         <v>121</v>
       </c>
@@ -5670,7 +5693,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="15" t="s">
         <v>122</v>
       </c>
@@ -5681,13 +5704,13 @@
         <v>4800</v>
       </c>
       <c r="D118" s="17">
-        <v>2350</v>
+        <v>2367</v>
       </c>
       <c r="E118" s="17">
-        <v>2292</v>
+        <v>2308</v>
       </c>
       <c r="F118" s="17">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G118" s="17">
         <v>77702</v>
@@ -5705,7 +5728,7 @@
         <v>36713</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="15" t="s">
         <v>123</v>
       </c>
@@ -5740,7 +5763,7 @@
         <v>7583</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="15" t="s">
         <v>124</v>
       </c>
@@ -5775,7 +5798,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="15" t="s">
         <v>125</v>
       </c>
@@ -5786,10 +5809,10 @@
         <v>300</v>
       </c>
       <c r="D121" s="17">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E121" s="17">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F121" s="17">
         <v>8</v>
@@ -5810,7 +5833,7 @@
         <v>3304</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="15" t="s">
         <v>126</v>
       </c>
@@ -5821,10 +5844,10 @@
         <v>1200</v>
       </c>
       <c r="D122" s="17">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E122" s="17">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F122" s="17">
         <v>10</v>
@@ -5845,7 +5868,7 @@
         <v>5354</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="15" t="s">
         <v>127</v>
       </c>
@@ -5856,13 +5879,13 @@
         <v>1900</v>
       </c>
       <c r="D123" s="17">
+        <v>465</v>
+      </c>
+      <c r="E123" s="17">
         <v>461</v>
       </c>
-      <c r="E123" s="17">
-        <v>458</v>
-      </c>
       <c r="F123" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G123" s="17">
         <v>28248</v>
@@ -5880,7 +5903,7 @@
         <v>15256</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="15" t="s">
         <v>128</v>
       </c>
@@ -5915,7 +5938,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="15" t="s">
         <v>129</v>
       </c>
@@ -5926,13 +5949,13 @@
         <v>14650</v>
       </c>
       <c r="D125" s="17">
-        <v>2519</v>
+        <v>2532</v>
       </c>
       <c r="E125" s="17">
-        <v>2499</v>
+        <v>2511</v>
       </c>
       <c r="F125" s="17">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G125" s="17">
         <v>198728</v>
@@ -5950,7 +5973,7 @@
         <v>109233</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="15" t="s">
         <v>130</v>
       </c>
@@ -5961,10 +5984,10 @@
         <v>0</v>
       </c>
       <c r="D126" s="17">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E126" s="17">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F126" s="17">
         <v>0</v>
@@ -5985,7 +6008,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="15" t="s">
         <v>131</v>
       </c>
@@ -5996,13 +6019,13 @@
         <v>1000</v>
       </c>
       <c r="D127" s="17">
-        <v>779</v>
+        <v>882</v>
       </c>
       <c r="E127" s="17">
-        <v>767</v>
+        <v>869</v>
       </c>
       <c r="F127" s="17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G127" s="17">
         <v>29988</v>
@@ -6020,7 +6043,7 @@
         <v>15173</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="15" t="s">
         <v>132</v>
       </c>
@@ -6031,13 +6054,13 @@
         <v>2700</v>
       </c>
       <c r="D128" s="17">
-        <v>2827</v>
+        <v>2926</v>
       </c>
       <c r="E128" s="17">
-        <v>2608</v>
+        <v>2701</v>
       </c>
       <c r="F128" s="17">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G128" s="17">
         <v>135188</v>
@@ -6055,7 +6078,7 @@
         <v>61261</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="15" t="s">
         <v>133</v>
       </c>
@@ -6066,10 +6089,10 @@
         <v>100</v>
       </c>
       <c r="D129" s="17">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E129" s="17">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F129" s="17">
         <v>34</v>
@@ -6090,7 +6113,7 @@
         <v>8290</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="15" t="s">
         <v>134</v>
       </c>
@@ -6125,7 +6148,7 @@
         <v>6085</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="15" t="s">
         <v>135</v>
       </c>
@@ -6136,13 +6159,13 @@
         <v>3250</v>
       </c>
       <c r="D131" s="17">
-        <v>2798</v>
+        <v>2841</v>
       </c>
       <c r="E131" s="17">
-        <v>2523</v>
+        <v>2556</v>
       </c>
       <c r="F131" s="17">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="G131" s="17">
         <v>104736</v>
@@ -6160,7 +6183,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="15" t="s">
         <v>136</v>
       </c>
@@ -6171,13 +6194,13 @@
         <v>2200</v>
       </c>
       <c r="D132" s="17">
-        <v>1396</v>
+        <v>1440</v>
       </c>
       <c r="E132" s="17">
-        <v>1264</v>
+        <v>1286</v>
       </c>
       <c r="F132" s="17">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="G132" s="17">
         <v>38074</v>
@@ -6195,7 +6218,7 @@
         <v>15516</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="15" t="s">
         <v>137</v>
       </c>
@@ -6230,7 +6253,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="15" t="s">
         <v>138</v>
       </c>
@@ -6265,7 +6288,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="15" t="s">
         <v>139</v>
       </c>
@@ -6276,10 +6299,10 @@
         <v>3000</v>
       </c>
       <c r="D135" s="17">
+        <v>1049</v>
+      </c>
+      <c r="E135" s="17">
         <v>1047</v>
-      </c>
-      <c r="E135" s="17">
-        <v>1045</v>
       </c>
       <c r="F135" s="17">
         <v>2</v>
@@ -6300,7 +6323,7 @@
         <v>20395</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="15" t="s">
         <v>140</v>
       </c>
@@ -6335,7 +6358,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="15" t="s">
         <v>141</v>
       </c>
@@ -6370,7 +6393,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="15" t="s">
         <v>142</v>
       </c>
@@ -6405,7 +6428,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="15" t="s">
         <v>143</v>
       </c>
@@ -6416,10 +6439,10 @@
         <v>800</v>
       </c>
       <c r="D139" s="17">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="E139" s="17">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="F139" s="17">
         <v>8</v>
@@ -6440,7 +6463,7 @@
         <v>10851</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="15" t="s">
         <v>144</v>
       </c>
@@ -6451,10 +6474,10 @@
         <v>300</v>
       </c>
       <c r="D140" s="17">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E140" s="17">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F140" s="17">
         <v>2</v>
@@ -6475,7 +6498,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="15" t="s">
         <v>145</v>
       </c>
@@ -6486,13 +6509,13 @@
         <v>100</v>
       </c>
       <c r="D141" s="17">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E141" s="17">
         <v>72</v>
       </c>
       <c r="F141" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G141" s="17">
         <v>6105</v>
@@ -6510,7 +6533,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="15" t="s">
         <v>146</v>
       </c>
@@ -6521,13 +6544,13 @@
         <v>2900</v>
       </c>
       <c r="D142" s="17">
-        <v>1187</v>
+        <v>1197</v>
       </c>
       <c r="E142" s="17">
-        <v>1179</v>
+        <v>1188</v>
       </c>
       <c r="F142" s="17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G142" s="17">
         <v>40212</v>
@@ -6545,7 +6568,7 @@
         <v>19135</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="15" t="s">
         <v>147</v>
       </c>
@@ -6556,10 +6579,10 @@
         <v>200</v>
       </c>
       <c r="D143" s="17">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="E143" s="17">
-        <v>269</v>
+        <v>368</v>
       </c>
       <c r="F143" s="17">
         <v>17</v>
@@ -6580,7 +6603,7 @@
         <v>5028</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="15" t="s">
         <v>148</v>
       </c>
@@ -6591,10 +6614,10 @@
         <v>200</v>
       </c>
       <c r="D144" s="17">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="E144" s="17">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="F144" s="17">
         <v>6</v>
@@ -6615,7 +6638,7 @@
         <v>8188</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="15" t="s">
         <v>149</v>
       </c>
@@ -6626,13 +6649,13 @@
         <v>1400</v>
       </c>
       <c r="D145" s="17">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="E145" s="17">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F145" s="17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G145" s="17">
         <v>16041</v>
@@ -6650,7 +6673,7 @@
         <v>7426</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="15" t="s">
         <v>150</v>
       </c>
@@ -6661,13 +6684,13 @@
         <v>600</v>
       </c>
       <c r="D146" s="17">
+        <v>256</v>
+      </c>
+      <c r="E146" s="17">
         <v>252</v>
       </c>
-      <c r="E146" s="17">
-        <v>250</v>
-      </c>
       <c r="F146" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G146" s="17">
         <v>13837</v>
@@ -6685,7 +6708,7 @@
         <v>6632</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="15" t="s">
         <v>151</v>
       </c>
@@ -6720,7 +6743,7 @@
         <v>6485</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="15" t="s">
         <v>152</v>
       </c>
@@ -6731,13 +6754,13 @@
         <v>3300</v>
       </c>
       <c r="D148" s="17">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="E148" s="17">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F148" s="17">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G148" s="17">
         <v>70912</v>
@@ -6755,7 +6778,7 @@
         <v>32693</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="15" t="s">
         <v>153</v>
       </c>
@@ -6766,13 +6789,13 @@
         <v>1000</v>
       </c>
       <c r="D149" s="17">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E149" s="17">
         <v>340</v>
       </c>
       <c r="F149" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G149" s="17">
         <v>19033</v>
@@ -6790,7 +6813,7 @@
         <v>9655</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="15" t="s">
         <v>154</v>
       </c>
@@ -6825,7 +6848,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="15" t="s">
         <v>155</v>
       </c>
@@ -6836,10 +6859,10 @@
         <v>100</v>
       </c>
       <c r="D151" s="17">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E151" s="17">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F151" s="17">
         <v>0</v>
@@ -6860,7 +6883,7 @@
         <v>4881</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="15" t="s">
         <v>156</v>
       </c>
@@ -6871,13 +6894,13 @@
         <v>100</v>
       </c>
       <c r="D152" s="17">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E152" s="17">
         <v>266</v>
       </c>
       <c r="F152" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G152" s="17">
         <v>18642</v>
@@ -6895,7 +6918,7 @@
         <v>9093</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="15" t="s">
         <v>157</v>
       </c>
@@ -6930,7 +6953,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
         <v>158</v>
       </c>
@@ -6941,10 +6964,10 @@
         <v>53050</v>
       </c>
       <c r="D154" s="17">
-        <v>16867</v>
+        <v>16960</v>
       </c>
       <c r="E154" s="17">
-        <v>14466</v>
+        <v>14559</v>
       </c>
       <c r="F154" s="17">
         <v>2401</v>
@@ -6965,7 +6988,7 @@
         <v>94573</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
         <v>159</v>
       </c>
@@ -7000,7 +7023,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
         <v>160</v>
       </c>
@@ -7011,10 +7034,10 @@
         <v>500</v>
       </c>
       <c r="D156" s="17">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E156" s="17">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F156" s="17">
         <v>3</v>
@@ -7035,7 +7058,7 @@
         <v>5423</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
         <v>161</v>
       </c>
@@ -7046,10 +7069,10 @@
         <v>0</v>
       </c>
       <c r="D157" s="17">
+        <v>98</v>
+      </c>
+      <c r="E157" s="17">
         <v>92</v>
-      </c>
-      <c r="E157" s="17">
-        <v>86</v>
       </c>
       <c r="F157" s="17">
         <v>6</v>
@@ -7070,7 +7093,7 @@
         <v>4457</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
         <v>162</v>
       </c>
@@ -7105,7 +7128,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="s">
         <v>163</v>
       </c>
@@ -7116,10 +7139,10 @@
         <v>200</v>
       </c>
       <c r="D159" s="17">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E159" s="17">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F159" s="17">
         <v>4</v>
@@ -7140,7 +7163,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
         <v>164</v>
       </c>
@@ -7151,10 +7174,10 @@
         <v>2300</v>
       </c>
       <c r="D160" s="17">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E160" s="17">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F160" s="17">
         <v>4</v>
@@ -7175,7 +7198,7 @@
         <v>14206</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="15" t="s">
         <v>165</v>
       </c>
@@ -7186,13 +7209,13 @@
         <v>1200</v>
       </c>
       <c r="D161" s="17">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="E161" s="17">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F161" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G161" s="17">
         <v>42357</v>
@@ -7210,7 +7233,7 @@
         <v>21160</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="15" t="s">
         <v>166</v>
       </c>
@@ -7245,7 +7268,7 @@
         <v>3045</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
         <v>167</v>
       </c>
@@ -7256,13 +7279,13 @@
         <v>11400</v>
       </c>
       <c r="D163" s="17">
-        <v>5175</v>
+        <v>5234</v>
       </c>
       <c r="E163" s="17">
-        <v>4823</v>
+        <v>4852</v>
       </c>
       <c r="F163" s="17">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="G163" s="17">
         <v>198642</v>
@@ -7280,7 +7303,7 @@
         <v>84638</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="15" t="s">
         <v>168</v>
       </c>
@@ -7315,7 +7338,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="15" t="s">
         <v>169</v>
       </c>
@@ -7326,13 +7349,13 @@
         <v>600</v>
       </c>
       <c r="D165" s="17">
-        <v>943</v>
+        <v>957</v>
       </c>
       <c r="E165" s="17">
-        <v>916</v>
+        <v>925</v>
       </c>
       <c r="F165" s="17">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G165" s="17">
         <v>42991</v>
@@ -7350,7 +7373,7 @@
         <v>19399</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="15" t="s">
         <v>170</v>
       </c>
@@ -7385,7 +7408,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="15" t="s">
         <v>171</v>
       </c>
@@ -7396,10 +7419,10 @@
         <v>6300</v>
       </c>
       <c r="D167" s="17">
-        <v>2930</v>
+        <v>2940</v>
       </c>
       <c r="E167" s="17">
-        <v>2234</v>
+        <v>2244</v>
       </c>
       <c r="F167" s="17">
         <v>696</v>
@@ -7420,7 +7443,7 @@
         <v>54263</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="15" t="s">
         <v>172</v>
       </c>
@@ -7431,10 +7454,10 @@
         <v>1200</v>
       </c>
       <c r="D168" s="17">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E168" s="17">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F168" s="17">
         <v>4</v>
@@ -7455,7 +7478,7 @@
         <v>10021</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
         <v>173</v>
       </c>
@@ -7466,13 +7489,13 @@
         <v>200</v>
       </c>
       <c r="D169" s="17">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E169" s="17">
         <v>189</v>
       </c>
       <c r="F169" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G169" s="17">
         <v>3970</v>
@@ -7490,7 +7513,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="15" t="s">
         <v>174</v>
       </c>
@@ -7525,7 +7548,7 @@
         <v>3086</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="15" t="s">
         <v>175</v>
       </c>
@@ -7536,10 +7559,10 @@
         <v>200</v>
       </c>
       <c r="D171" s="17">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E171" s="17">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F171" s="17">
         <v>32</v>
@@ -7560,7 +7583,7 @@
         <v>7509</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="15" t="s">
         <v>176</v>
       </c>
@@ -7571,13 +7594,13 @@
         <v>35575</v>
       </c>
       <c r="D172" s="17">
-        <v>9577</v>
+        <v>9702</v>
       </c>
       <c r="E172" s="17">
-        <v>8800</v>
+        <v>8851</v>
       </c>
       <c r="F172" s="17">
-        <v>777</v>
+        <v>851</v>
       </c>
       <c r="G172" s="17">
         <v>470846</v>
@@ -7595,7 +7618,7 @@
         <v>177437</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="15" t="s">
         <v>177</v>
       </c>
@@ -7606,10 +7629,10 @@
         <v>800</v>
       </c>
       <c r="D173" s="17">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E173" s="17">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F173" s="17">
         <v>7</v>
@@ -7630,7 +7653,7 @@
         <v>7114</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="15" t="s">
         <v>178</v>
       </c>
@@ -7665,7 +7688,7 @@
         <v>4953</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="15" t="s">
         <v>179</v>
       </c>
@@ -7700,7 +7723,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="15" t="s">
         <v>180</v>
       </c>
@@ -7711,10 +7734,10 @@
         <v>5100</v>
       </c>
       <c r="D176" s="17">
-        <v>2387</v>
+        <v>2378</v>
       </c>
       <c r="E176" s="17">
-        <v>2376</v>
+        <v>2367</v>
       </c>
       <c r="F176" s="17">
         <v>11</v>
@@ -7735,7 +7758,7 @@
         <v>24062</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="15" t="s">
         <v>181</v>
       </c>
@@ -7746,10 +7769,10 @@
         <v>1800</v>
       </c>
       <c r="D177" s="17">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="E177" s="17">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="F177" s="17">
         <v>16</v>
@@ -7770,7 +7793,7 @@
         <v>19328</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="15" t="s">
         <v>182</v>
       </c>
@@ -7781,10 +7804,10 @@
         <v>400</v>
       </c>
       <c r="D178" s="17">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E178" s="17">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F178" s="17">
         <v>0</v>
@@ -7805,7 +7828,7 @@
         <v>6051</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="15" t="s">
         <v>183</v>
       </c>
@@ -7816,10 +7839,10 @@
         <v>700</v>
       </c>
       <c r="D179" s="17">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E179" s="17">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F179" s="17">
         <v>15</v>
@@ -7840,7 +7863,7 @@
         <v>5398</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="15" t="s">
         <v>184</v>
       </c>
@@ -7851,13 +7874,13 @@
         <v>29675</v>
       </c>
       <c r="D180" s="17">
-        <v>12246</v>
+        <v>12519</v>
       </c>
       <c r="E180" s="17">
-        <v>11575</v>
+        <v>11733</v>
       </c>
       <c r="F180" s="17">
-        <v>671</v>
+        <v>786</v>
       </c>
       <c r="G180" s="17">
         <v>282299</v>
@@ -7875,7 +7898,7 @@
         <v>135074</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="15" t="s">
         <v>185</v>
       </c>
@@ -7886,13 +7909,13 @@
         <v>500</v>
       </c>
       <c r="D181" s="17">
+        <v>209</v>
+      </c>
+      <c r="E181" s="17">
         <v>207</v>
       </c>
-      <c r="E181" s="17">
-        <v>206</v>
-      </c>
       <c r="F181" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G181" s="17">
         <v>7508</v>
@@ -7910,7 +7933,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="15" t="s">
         <v>186</v>
       </c>
@@ -7945,7 +7968,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="15" t="s">
         <v>187</v>
       </c>
@@ -7956,13 +7979,13 @@
         <v>800</v>
       </c>
       <c r="D183" s="17">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="E183" s="17">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="F183" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G183" s="17">
         <v>65680</v>
@@ -7980,7 +8003,7 @@
         <v>32089</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="15" t="s">
         <v>188</v>
       </c>
@@ -7991,10 +8014,10 @@
         <v>600</v>
       </c>
       <c r="D184" s="17">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E184" s="17">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F184" s="17">
         <v>7</v>
@@ -8015,7 +8038,7 @@
         <v>11269</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="15" t="s">
         <v>189</v>
       </c>
@@ -8050,7 +8073,7 @@
         <v>9112</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
         <v>190</v>
       </c>
@@ -8061,13 +8084,13 @@
         <v>4900</v>
       </c>
       <c r="D186" s="17">
-        <v>2882</v>
+        <v>3014</v>
       </c>
       <c r="E186" s="17">
-        <v>2728</v>
+        <v>2856</v>
       </c>
       <c r="F186" s="17">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G186" s="17">
         <v>112329</v>
@@ -8085,7 +8108,7 @@
         <v>47252</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
         <v>191</v>
       </c>
@@ -8120,7 +8143,7 @@
         <v>3503</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
         <v>192</v>
       </c>
@@ -8155,7 +8178,7 @@
         <v>5876</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="15" t="s">
         <v>193</v>
       </c>
@@ -8166,13 +8189,13 @@
         <v>2400</v>
       </c>
       <c r="D189" s="17">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E189" s="17">
         <v>610</v>
       </c>
       <c r="F189" s="17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G189" s="17">
         <v>41511</v>
@@ -8190,7 +8213,7 @@
         <v>20999</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
         <v>194</v>
       </c>
@@ -8201,10 +8224,10 @@
         <v>35950</v>
       </c>
       <c r="D190" s="17">
-        <v>7806</v>
+        <v>7827</v>
       </c>
       <c r="E190" s="17">
-        <v>7347</v>
+        <v>7368</v>
       </c>
       <c r="F190" s="17">
         <v>459</v>
@@ -8225,7 +8248,7 @@
         <v>41999</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="15" t="s">
         <v>195</v>
       </c>
@@ -8260,7 +8283,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
         <v>196</v>
       </c>
@@ -8295,7 +8318,7 @@
         <v>4960</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
         <v>197</v>
       </c>
@@ -8306,13 +8329,13 @@
         <v>4500</v>
       </c>
       <c r="D193" s="17">
-        <v>11987</v>
+        <v>12024</v>
       </c>
       <c r="E193" s="17">
-        <v>11169</v>
+        <v>11205</v>
       </c>
       <c r="F193" s="17">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G193" s="17">
         <v>109144</v>
@@ -8330,7 +8353,7 @@
         <v>41519</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="15" t="s">
         <v>198</v>
       </c>
@@ -8365,7 +8388,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="15" t="s">
         <v>199</v>
       </c>
@@ -8400,7 +8423,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
         <v>200</v>
       </c>
@@ -8411,10 +8434,10 @@
         <v>0</v>
       </c>
       <c r="D196" s="17">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E196" s="17">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F196" s="17">
         <v>1</v>
@@ -8435,7 +8458,7 @@
         <v>5235</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
         <v>201</v>
       </c>
@@ -8446,10 +8469,10 @@
         <v>400</v>
       </c>
       <c r="D197" s="17">
+        <v>371</v>
+      </c>
+      <c r="E197" s="17">
         <v>370</v>
-      </c>
-      <c r="E197" s="17">
-        <v>369</v>
       </c>
       <c r="F197" s="17">
         <v>1</v>
@@ -8470,7 +8493,7 @@
         <v>5885</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="15" t="s">
         <v>202</v>
       </c>
@@ -8481,10 +8504,10 @@
         <v>600</v>
       </c>
       <c r="D198" s="17">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E198" s="17">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F198" s="17">
         <v>2</v>
@@ -8505,7 +8528,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="15" t="s">
         <v>203</v>
       </c>
@@ -8540,7 +8563,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="15" t="s">
         <v>204</v>
       </c>
@@ -8575,7 +8598,7 @@
         <v>6514</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="15" t="s">
         <v>205</v>
       </c>
@@ -8586,13 +8609,13 @@
         <v>3500</v>
       </c>
       <c r="D201" s="17">
-        <v>2218</v>
+        <v>2281</v>
       </c>
       <c r="E201" s="17">
-        <v>2041</v>
+        <v>2086</v>
       </c>
       <c r="F201" s="17">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="G201" s="17">
         <v>81869</v>
@@ -8610,7 +8633,7 @@
         <v>30252</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="15" t="s">
         <v>206</v>
       </c>
@@ -8645,7 +8668,7 @@
         <v>3905</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="15" t="s">
         <v>207</v>
       </c>
@@ -8656,10 +8679,10 @@
         <v>900</v>
       </c>
       <c r="D203" s="17">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="E203" s="17">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="F203" s="17">
         <v>31</v>
@@ -8680,7 +8703,7 @@
         <v>21319</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="15" t="s">
         <v>208</v>
       </c>
@@ -8691,10 +8714,10 @@
         <v>1100</v>
       </c>
       <c r="D204" s="17">
+        <v>226</v>
+      </c>
+      <c r="E204" s="17">
         <v>225</v>
-      </c>
-      <c r="E204" s="17">
-        <v>224</v>
       </c>
       <c r="F204" s="17">
         <v>1</v>
@@ -8715,7 +8738,7 @@
         <v>4721</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="15" t="s">
         <v>209</v>
       </c>
@@ -8726,10 +8749,10 @@
         <v>800</v>
       </c>
       <c r="D205" s="17">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E205" s="17">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F205" s="17">
         <v>0</v>
@@ -8750,7 +8773,7 @@
         <v>3730</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="15" t="s">
         <v>210</v>
       </c>
@@ -8761,13 +8784,13 @@
         <v>900</v>
       </c>
       <c r="D206" s="17">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E206" s="17">
         <v>352</v>
       </c>
       <c r="F206" s="17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G206" s="17">
         <v>23713</v>
@@ -8785,7 +8808,7 @@
         <v>12311</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="15" t="s">
         <v>211</v>
       </c>
@@ -8796,13 +8819,13 @@
         <v>700</v>
       </c>
       <c r="D207" s="17">
-        <v>1105</v>
+        <v>1129</v>
       </c>
       <c r="E207" s="17">
-        <v>1052</v>
+        <v>1068</v>
       </c>
       <c r="F207" s="17">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G207" s="17">
         <v>51382</v>
@@ -8820,7 +8843,7 @@
         <v>22807</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="15" t="s">
         <v>212</v>
       </c>
@@ -8831,10 +8854,10 @@
         <v>200</v>
       </c>
       <c r="D208" s="17">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E208" s="17">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F208" s="17">
         <v>0</v>
@@ -8855,7 +8878,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="15" t="s">
         <v>213</v>
       </c>
@@ -8890,7 +8913,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="15" t="s">
         <v>214</v>
       </c>
@@ -8925,7 +8948,7 @@
         <v>6242</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="15" t="s">
         <v>215</v>
       </c>
@@ -8936,10 +8959,10 @@
         <v>0</v>
       </c>
       <c r="D211" s="17">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E211" s="17">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F211" s="17">
         <v>9</v>
@@ -8960,7 +8983,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="15" t="s">
         <v>216</v>
       </c>
@@ -8971,13 +8994,13 @@
         <v>1200</v>
       </c>
       <c r="D212" s="17">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E212" s="17">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F212" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G212" s="17">
         <v>18618</v>
@@ -8995,7 +9018,7 @@
         <v>9951</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="15" t="s">
         <v>217</v>
       </c>
@@ -9030,7 +9053,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="15" t="s">
         <v>218</v>
       </c>
@@ -9041,13 +9064,13 @@
         <v>30400</v>
       </c>
       <c r="D214" s="17">
-        <v>8525</v>
+        <v>8540</v>
       </c>
       <c r="E214" s="17">
-        <v>7905</v>
+        <v>7919</v>
       </c>
       <c r="F214" s="17">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G214" s="17">
         <v>181426</v>
@@ -9065,7 +9088,7 @@
         <v>75818</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="15" t="s">
         <v>219</v>
       </c>
@@ -9076,10 +9099,10 @@
         <v>0</v>
       </c>
       <c r="D215" s="17">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E215" s="17">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F215" s="17">
         <v>9</v>
@@ -9100,7 +9123,7 @@
         <v>3417</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="15" t="s">
         <v>220</v>
       </c>
@@ -9111,13 +9134,13 @@
         <v>2200</v>
       </c>
       <c r="D216" s="17">
-        <v>1553</v>
+        <v>1624</v>
       </c>
       <c r="E216" s="17">
-        <v>1540</v>
+        <v>1589</v>
       </c>
       <c r="F216" s="17">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G216" s="17">
         <v>46042</v>
@@ -9135,7 +9158,7 @@
         <v>23826</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="15" t="s">
         <v>221</v>
       </c>
@@ -9170,7 +9193,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="15" t="s">
         <v>222</v>
       </c>
@@ -9205,7 +9228,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="15" t="s">
         <v>223</v>
       </c>
@@ -9216,10 +9239,10 @@
         <v>200</v>
       </c>
       <c r="D219" s="17">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E219" s="17">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F219" s="17">
         <v>2</v>
@@ -9240,7 +9263,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="15" t="s">
         <v>224</v>
       </c>
@@ -9275,7 +9298,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="15" t="s">
         <v>225</v>
       </c>
@@ -9310,7 +9333,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="15" t="s">
         <v>226</v>
       </c>
@@ -9321,13 +9344,13 @@
         <v>158275</v>
       </c>
       <c r="D222" s="17">
-        <v>40293</v>
+        <v>41001</v>
       </c>
       <c r="E222" s="17">
-        <v>37904</v>
+        <v>38424</v>
       </c>
       <c r="F222" s="17">
-        <v>2389</v>
+        <v>2577</v>
       </c>
       <c r="G222" s="17">
         <v>1596169</v>
@@ -9345,7 +9368,7 @@
         <v>660059</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="15" t="s">
         <v>227</v>
       </c>
@@ -9356,10 +9379,10 @@
         <v>10350</v>
       </c>
       <c r="D223" s="17">
-        <v>5563</v>
+        <v>5595</v>
       </c>
       <c r="E223" s="17">
-        <v>4452</v>
+        <v>4484</v>
       </c>
       <c r="F223" s="17">
         <v>1111</v>
@@ -9380,7 +9403,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="15" t="s">
         <v>228</v>
       </c>
@@ -9415,7 +9438,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="15" t="s">
         <v>229</v>
       </c>
@@ -9450,7 +9473,7 @@
         <v>4766</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="15" t="s">
         <v>230</v>
       </c>
@@ -9485,7 +9508,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="15" t="s">
         <v>231</v>
       </c>
@@ -9496,10 +9519,10 @@
         <v>1900</v>
       </c>
       <c r="D227" s="17">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E227" s="17">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F227" s="17">
         <v>5</v>
@@ -9520,7 +9543,7 @@
         <v>11794</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="15" t="s">
         <v>232</v>
       </c>
@@ -9531,10 +9554,10 @@
         <v>9550</v>
       </c>
       <c r="D228" s="17">
-        <v>5111</v>
+        <v>5130</v>
       </c>
       <c r="E228" s="17">
-        <v>3478</v>
+        <v>3497</v>
       </c>
       <c r="F228" s="17">
         <v>1633</v>
@@ -9555,7 +9578,7 @@
         <v>39665</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="15" t="s">
         <v>233</v>
       </c>
@@ -9566,13 +9589,13 @@
         <v>96050</v>
       </c>
       <c r="D229" s="17">
-        <v>32531</v>
+        <v>34175</v>
       </c>
       <c r="E229" s="17">
-        <v>30393</v>
+        <v>31044</v>
       </c>
       <c r="F229" s="17">
-        <v>2138</v>
+        <v>3131</v>
       </c>
       <c r="G229" s="17">
         <v>1016090</v>
@@ -9590,7 +9613,7 @@
         <v>337286</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="15" t="s">
         <v>234</v>
       </c>
@@ -9625,7 +9648,7 @@
         <v>6368</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="15" t="s">
         <v>235</v>
       </c>
@@ -9636,10 +9659,10 @@
         <v>1000</v>
       </c>
       <c r="D231" s="17">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E231" s="17">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="F231" s="17">
         <v>0</v>
@@ -9660,7 +9683,7 @@
         <v>9278</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="15" t="s">
         <v>236</v>
       </c>
@@ -9671,10 +9694,10 @@
         <v>400</v>
       </c>
       <c r="D232" s="17">
-        <v>557</v>
+        <v>604</v>
       </c>
       <c r="E232" s="17">
-        <v>504</v>
+        <v>551</v>
       </c>
       <c r="F232" s="17">
         <v>53</v>
@@ -9695,7 +9718,7 @@
         <v>15425</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="15" t="s">
         <v>237</v>
       </c>
@@ -9730,7 +9753,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="15" t="s">
         <v>238</v>
       </c>
@@ -9741,13 +9764,13 @@
         <v>1500</v>
       </c>
       <c r="D234" s="17">
-        <v>784</v>
+        <v>802</v>
       </c>
       <c r="E234" s="17">
-        <v>782</v>
+        <v>798</v>
       </c>
       <c r="F234" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G234" s="17">
         <v>20809</v>
@@ -9765,7 +9788,7 @@
         <v>10179</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="15" t="s">
         <v>239</v>
       </c>
@@ -9776,13 +9799,13 @@
         <v>1800</v>
       </c>
       <c r="D235" s="17">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="E235" s="17">
         <v>1143</v>
       </c>
       <c r="F235" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G235" s="17">
         <v>38039</v>
@@ -9800,7 +9823,7 @@
         <v>17165</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="15" t="s">
         <v>240</v>
       </c>
@@ -9811,13 +9834,13 @@
         <v>2000</v>
       </c>
       <c r="D236" s="17">
-        <v>983</v>
+        <v>1016</v>
       </c>
       <c r="E236" s="17">
-        <v>916</v>
+        <v>947</v>
       </c>
       <c r="F236" s="17">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G236" s="17">
         <v>45144</v>
@@ -9835,7 +9858,7 @@
         <v>21537</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="15" t="s">
         <v>241</v>
       </c>
@@ -9846,10 +9869,10 @@
         <v>6150</v>
       </c>
       <c r="D237" s="17">
-        <v>2892</v>
+        <v>2894</v>
       </c>
       <c r="E237" s="17">
-        <v>2621</v>
+        <v>2623</v>
       </c>
       <c r="F237" s="17">
         <v>271</v>
@@ -9870,7 +9893,7 @@
         <v>33178</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="15" t="s">
         <v>242</v>
       </c>
@@ -9881,13 +9904,13 @@
         <v>2700</v>
       </c>
       <c r="D238" s="17">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E238" s="17">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="F238" s="17">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G238" s="17">
         <v>64302</v>
@@ -9905,7 +9928,7 @@
         <v>28400</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="15" t="s">
         <v>243</v>
       </c>
@@ -9916,13 +9939,13 @@
         <v>1600</v>
       </c>
       <c r="D239" s="17">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="E239" s="17">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F239" s="17">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G239" s="17">
         <v>44163</v>
@@ -9940,7 +9963,7 @@
         <v>18373</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="15" t="s">
         <v>244</v>
       </c>
@@ -9975,7 +9998,7 @@
         <v>4073</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="15" t="s">
         <v>245</v>
       </c>
@@ -9986,10 +10009,10 @@
         <v>1900</v>
       </c>
       <c r="D241" s="17">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E241" s="17">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="F241" s="17">
         <v>13</v>
@@ -10010,7 +10033,7 @@
         <v>13829</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="15" t="s">
         <v>246</v>
       </c>
@@ -10021,13 +10044,13 @@
         <v>25400</v>
       </c>
       <c r="D242" s="17">
-        <v>7383</v>
+        <v>7424</v>
       </c>
       <c r="E242" s="17">
-        <v>7293</v>
+        <v>7327</v>
       </c>
       <c r="F242" s="17">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G242" s="17">
         <v>205887</v>
@@ -10045,7 +10068,7 @@
         <v>96319</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="15" t="s">
         <v>247</v>
       </c>
@@ -10056,13 +10079,13 @@
         <v>1000</v>
       </c>
       <c r="D243" s="17">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="E243" s="17">
-        <v>435</v>
+        <v>464</v>
       </c>
       <c r="F243" s="17">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G243" s="17">
         <v>31964</v>
@@ -10080,7 +10103,7 @@
         <v>16049</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="15" t="s">
         <v>248</v>
       </c>
@@ -10115,7 +10138,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="15" t="s">
         <v>249</v>
       </c>
@@ -10126,10 +10149,10 @@
         <v>14950</v>
       </c>
       <c r="D245" s="17">
-        <v>4498</v>
+        <v>4606</v>
       </c>
       <c r="E245" s="17">
-        <v>4099</v>
+        <v>4207</v>
       </c>
       <c r="F245" s="17">
         <v>399</v>
@@ -10150,7 +10173,7 @@
         <v>50159</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="15" t="s">
         <v>250</v>
       </c>
@@ -10185,7 +10208,7 @@
         <v>5328</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="15" t="s">
         <v>251</v>
       </c>
@@ -10196,13 +10219,13 @@
         <v>100</v>
       </c>
       <c r="D247" s="17">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="E247" s="17">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="F247" s="17">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G247" s="17">
         <v>16823</v>
@@ -10220,7 +10243,7 @@
         <v>9035</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="15" t="s">
         <v>252</v>
       </c>
@@ -10231,13 +10254,13 @@
         <v>26875</v>
       </c>
       <c r="D248" s="17">
-        <v>14381</v>
+        <v>15051</v>
       </c>
       <c r="E248" s="17">
-        <v>13769</v>
+        <v>14067</v>
       </c>
       <c r="F248" s="17">
-        <v>612</v>
+        <v>984</v>
       </c>
       <c r="G248" s="17">
         <v>457170</v>
@@ -10255,7 +10278,7 @@
         <v>160153</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="15" t="s">
         <v>253</v>
       </c>
@@ -10266,13 +10289,13 @@
         <v>2700</v>
       </c>
       <c r="D249" s="17">
-        <v>1681</v>
+        <v>1687</v>
       </c>
       <c r="E249" s="17">
-        <v>1621</v>
+        <v>1624</v>
       </c>
       <c r="F249" s="17">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G249" s="17">
         <v>42030</v>
@@ -10290,7 +10313,7 @@
         <v>16633</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="15" t="s">
         <v>254</v>
       </c>
@@ -10325,7 +10348,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="15" t="s">
         <v>255</v>
       </c>
@@ -10336,13 +10359,13 @@
         <v>4050</v>
       </c>
       <c r="D251" s="17">
-        <v>2799</v>
+        <v>2806</v>
       </c>
       <c r="E251" s="17">
-        <v>2375</v>
+        <v>2380</v>
       </c>
       <c r="F251" s="17">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G251" s="17">
         <v>55570</v>
@@ -10360,7 +10383,7 @@
         <v>26139</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="15" t="s">
         <v>256</v>
       </c>
@@ -10371,10 +10394,10 @@
         <v>1400</v>
       </c>
       <c r="D252" s="17">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="E252" s="17">
-        <v>843</v>
+        <v>850</v>
       </c>
       <c r="F252" s="17">
         <v>22</v>
@@ -10395,7 +10418,7 @@
         <v>18613</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="15" t="s">
         <v>257</v>
       </c>
@@ -10430,7 +10453,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="15" t="s">
         <v>258</v>
       </c>
@@ -10441,13 +10464,13 @@
         <v>1600</v>
       </c>
       <c r="D254" s="17">
+        <v>484</v>
+      </c>
+      <c r="E254" s="17">
         <v>482</v>
       </c>
-      <c r="E254" s="17">
-        <v>481</v>
-      </c>
       <c r="F254" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G254" s="17">
         <v>15028</v>
@@ -10465,7 +10488,7 @@
         <v>6955</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="15" t="s">
         <v>259</v>
       </c>
@@ -10500,7 +10523,7 @@
         <v>5427</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="15" t="s">
         <v>260</v>
       </c>
@@ -10511,10 +10534,10 @@
         <v>100</v>
       </c>
       <c r="D256" s="17">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E256" s="17">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F256" s="17">
         <v>0</v>
@@ -10535,7 +10558,7 @@
         <v>4807</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="15" t="s">
         <v>295</v>
       </c>
@@ -10546,21 +10569,32 @@
         <v>0</v>
       </c>
       <c r="D257" s="17">
-        <v>54104</v>
+        <v>67813</v>
       </c>
       <c r="E257" s="17">
-        <v>49239</v>
+        <v>58877</v>
       </c>
       <c r="F257" s="17">
-        <v>4865</v>
-      </c>
-      <c r="G257" s="17"/>
-      <c r="H257" s="17"/>
-      <c r="I257" s="17"/>
-      <c r="J257" s="17"/>
-      <c r="K257" s="17"/>
+        <v>8936</v>
+      </c>
+      <c r="G257" s="17">
+        <v>0</v>
+      </c>
+      <c r="H257" s="17">
+        <v>0</v>
+      </c>
+      <c r="I257" s="17">
+        <v>0</v>
+      </c>
+      <c r="J257" s="17">
+        <v>0</v>
+      </c>
+      <c r="K257" s="17">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K257" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10572,19 +10606,19 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.796875" customWidth="1"/>
+    <col min="2" max="2" width="11.86328125" customWidth="1"/>
     <col min="3" max="3" width="18" style="13" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="37.73046875" style="13" customWidth="1"/>
     <col min="5" max="5" width="22.19921875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="18" t="s">
         <v>284</v>
       </c>
       <c r="C1" s="18" t="s">
@@ -10597,298 +10631,304 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="C2" s="17">
-        <v>248727</v>
-      </c>
-      <c r="D2" s="17">
-        <v>222005</v>
-      </c>
-      <c r="E2" s="17">
-        <v>26722</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12" t="s">
+      <c r="C2" s="20">
+        <v>261441</v>
+      </c>
+      <c r="D2" s="20">
+        <v>228602</v>
+      </c>
+      <c r="E2" s="20">
+        <v>32839</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="17">
-        <v>119888</v>
-      </c>
-      <c r="D3" s="17">
-        <v>108726</v>
-      </c>
-      <c r="E3" s="17">
-        <v>11162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
+      <c r="C3" s="20">
+        <v>125483</v>
+      </c>
+      <c r="D3" s="20">
+        <v>112024</v>
+      </c>
+      <c r="E3" s="20">
+        <v>13459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
+      <c r="B4" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="C4" s="17">
-        <v>70823</v>
-      </c>
-      <c r="D4" s="17">
-        <v>68874</v>
-      </c>
-      <c r="E4" s="17">
-        <v>1949</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
+      <c r="C4" s="20">
+        <v>74390</v>
+      </c>
+      <c r="D4" s="20">
+        <v>72098</v>
+      </c>
+      <c r="E4" s="20">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
+      <c r="B5" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="C5" s="17">
-        <v>21851</v>
-      </c>
-      <c r="D5" s="17">
-        <v>21768</v>
-      </c>
-      <c r="E5" s="17">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12" t="s">
+      <c r="C5" s="20">
+        <v>22762</v>
+      </c>
+      <c r="D5" s="20">
+        <v>22669</v>
+      </c>
+      <c r="E5" s="20">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
+      <c r="B6" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C6" s="17">
-        <v>462</v>
-      </c>
-      <c r="D6" s="17">
-        <v>452</v>
-      </c>
-      <c r="E6" s="17">
+      <c r="C6" s="20">
+        <v>468</v>
+      </c>
+      <c r="D6" s="20">
+        <v>458</v>
+      </c>
+      <c r="E6" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
+      <c r="B7" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C7" s="19">
-        <v>461751</v>
-      </c>
-      <c r="D7" s="19">
-        <v>421825</v>
-      </c>
-      <c r="E7" s="19">
-        <v>39926</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="C7" s="20">
+        <v>484544</v>
+      </c>
+      <c r="D7" s="20">
+        <v>435851</v>
+      </c>
+      <c r="E7" s="20">
+        <v>48693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="C8" s="19">
-        <v>133171</v>
-      </c>
-      <c r="D8" s="19">
-        <v>117922</v>
-      </c>
-      <c r="E8" s="19">
-        <v>15249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="5" t="s">
+      <c r="C8" s="20">
+        <v>140393</v>
+      </c>
+      <c r="D8" s="20">
+        <v>121914</v>
+      </c>
+      <c r="E8" s="20">
+        <v>18479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="C9" s="19">
-        <v>72394</v>
-      </c>
-      <c r="D9" s="19">
-        <v>65307</v>
-      </c>
-      <c r="E9" s="19">
-        <v>7087</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="5" t="s">
+      <c r="C9" s="20">
+        <v>75884</v>
+      </c>
+      <c r="D9" s="20">
+        <v>67411</v>
+      </c>
+      <c r="E9" s="20">
+        <v>8473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="C10" s="19">
-        <v>60637</v>
-      </c>
-      <c r="D10" s="19">
-        <v>58647</v>
-      </c>
-      <c r="E10" s="19">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="5" t="s">
+      <c r="C10" s="20">
+        <v>63699</v>
+      </c>
+      <c r="D10" s="20">
+        <v>61366</v>
+      </c>
+      <c r="E10" s="20">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="C11" s="19">
-        <v>15676</v>
-      </c>
-      <c r="D11" s="19">
-        <v>15577</v>
-      </c>
-      <c r="E11" s="19">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="5" t="s">
+      <c r="C11" s="20">
+        <v>16328</v>
+      </c>
+      <c r="D11" s="20">
+        <v>16210</v>
+      </c>
+      <c r="E11" s="20">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C12" s="19">
-        <v>300</v>
-      </c>
-      <c r="D12" s="19">
+      <c r="C12" s="20">
+        <v>304</v>
+      </c>
+      <c r="D12" s="20">
+        <v>295</v>
+      </c>
+      <c r="E12" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+      <c r="B13" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C13" s="20">
+        <v>296608</v>
+      </c>
+      <c r="D13" s="20">
+        <v>267196</v>
+      </c>
+      <c r="E13" s="20">
+        <v>29412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="E12" s="19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" s="20">
+        <v>2589</v>
+      </c>
+      <c r="D14" s="20">
+        <v>2516</v>
+      </c>
+      <c r="E14" s="20">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" s="20">
+        <v>1403</v>
+      </c>
+      <c r="D15" s="20">
+        <v>1356</v>
+      </c>
+      <c r="E15" s="20">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
+      <c r="B16" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C16" s="20">
+        <v>3796</v>
+      </c>
+      <c r="D16" s="20">
+        <v>3789</v>
+      </c>
+      <c r="E16" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+      <c r="B17" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C17" s="20">
+        <v>622</v>
+      </c>
+      <c r="D17" s="20">
+        <v>622</v>
+      </c>
+      <c r="E17" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="22"/>
+      <c r="B18" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C18" s="20">
+        <v>7</v>
+      </c>
+      <c r="D18" s="20">
+        <v>7</v>
+      </c>
+      <c r="E18" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="B19" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C13" s="19">
-        <v>282178</v>
-      </c>
-      <c r="D13" s="19">
-        <v>257744</v>
-      </c>
-      <c r="E13" s="19">
-        <v>24434</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C14" s="19">
-        <v>2574</v>
-      </c>
-      <c r="D14" s="19">
-        <v>2508</v>
-      </c>
-      <c r="E14" s="19">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C15" s="19">
-        <v>1399</v>
-      </c>
-      <c r="D15" s="19">
-        <v>1354</v>
-      </c>
-      <c r="E15" s="19">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C16" s="19">
-        <v>3794</v>
-      </c>
-      <c r="D16" s="19">
-        <v>3787</v>
-      </c>
-      <c r="E16" s="19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C17" s="19">
-        <v>622</v>
-      </c>
-      <c r="D17" s="19">
-        <v>622</v>
-      </c>
-      <c r="E17" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C18" s="19">
-        <v>6</v>
-      </c>
-      <c r="D18" s="19">
-        <v>6</v>
-      </c>
-      <c r="E18" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C19" s="19">
-        <v>8395</v>
-      </c>
-      <c r="D19" s="19">
-        <v>8277</v>
-      </c>
-      <c r="E19" s="19">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="C19" s="20">
+        <v>8417</v>
+      </c>
+      <c r="D19" s="20">
+        <v>8290</v>
+      </c>
+      <c r="E19" s="20">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="19">
-        <v>752324</v>
-      </c>
-      <c r="D20" s="19">
-        <v>687846</v>
-      </c>
-      <c r="E20" s="19">
-        <v>64478</v>
+      <c r="B20" s="22"/>
+      <c r="C20" s="20">
+        <v>789569</v>
+      </c>
+      <c r="D20" s="20">
+        <v>711337</v>
+      </c>
+      <c r="E20" s="20">
+        <v>78232</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:B20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Services/StateOfTexas/Data/COVID-19 Vaccine Data by County.xlsx
+++ b/Services/StateOfTexas/Data/COVID-19 Vaccine Data by County.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnicholas000\Desktop\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C6ED7C8-2610-453C-9B0A-BB52F68F8645}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27746F42-CE3F-4190-96A7-EC58BE24B048}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About the Data" sheetId="2" r:id="rId1"/>
@@ -1467,7 +1467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1477,7 +1477,7 @@
     <col min="2" max="2" width="121.46484375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="48.65" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>271</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>267</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>264</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>261</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="129.65" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>265</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>266</v>
       </c>
@@ -1573,27 +1573,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K258"/>
+  <dimension ref="A1:K257"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.46484375" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.19921875" style="6" customWidth="1"/>
     <col min="4" max="5" width="20.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.796875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.73046875" style="6" customWidth="1"/>
     <col min="7" max="7" width="11.46484375" style="6" customWidth="1"/>
     <col min="8" max="8" width="13.19921875" style="6" customWidth="1"/>
     <col min="9" max="9" width="15.06640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.796875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.73046875" style="6" customWidth="1"/>
     <col min="11" max="11" width="12" style="6" customWidth="1"/>
     <col min="12" max="16384" width="9.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1641,15 +1639,15 @@
       </c>
       <c r="D2" s="4">
         <f t="shared" si="0"/>
-        <v>1200755</v>
+        <v>1276808</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>1038890</v>
+        <v>1109874</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>161865</v>
+        <v>166934</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
@@ -1672,7 +1670,7 @@
         <v>9499038</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
@@ -1683,13 +1681,13 @@
         <v>4700</v>
       </c>
       <c r="D3" s="16">
-        <v>1136</v>
+        <v>1285</v>
       </c>
       <c r="E3" s="16">
-        <v>1094</v>
+        <v>1237</v>
       </c>
       <c r="F3" s="16">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G3" s="17">
         <v>49346</v>
@@ -1707,7 +1705,7 @@
         <v>24078</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
@@ -1718,10 +1716,10 @@
         <v>1100</v>
       </c>
       <c r="D4" s="16">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="E4" s="16">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="F4" s="16">
         <v>27</v>
@@ -1742,7 +1740,7 @@
         <v>5867</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
@@ -1753,10 +1751,10 @@
         <v>11200</v>
       </c>
       <c r="D5" s="16">
-        <v>4307</v>
+        <v>4434</v>
       </c>
       <c r="E5" s="16">
-        <v>4289</v>
+        <v>4416</v>
       </c>
       <c r="F5" s="16">
         <v>18</v>
@@ -1777,7 +1775,7 @@
         <v>34525</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>9</v>
       </c>
@@ -1788,13 +1786,13 @@
         <v>500</v>
       </c>
       <c r="D6" s="16">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="E6" s="16">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="F6" s="16">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G6" s="17">
         <v>19727</v>
@@ -1812,7 +1810,7 @@
         <v>10102</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>10</v>
       </c>
@@ -1823,10 +1821,10 @@
         <v>300</v>
       </c>
       <c r="D7" s="16">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="E7" s="16">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="F7" s="16">
         <v>66</v>
@@ -1847,7 +1845,7 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>11</v>
       </c>
@@ -1858,10 +1856,10 @@
         <v>200</v>
       </c>
       <c r="D8" s="16">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E8" s="16">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="F8" s="16">
         <v>6</v>
@@ -1882,7 +1880,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>12</v>
       </c>
@@ -1893,13 +1891,13 @@
         <v>2700</v>
       </c>
       <c r="D9" s="16">
-        <v>1410</v>
+        <v>1437</v>
       </c>
       <c r="E9" s="16">
-        <v>1281</v>
+        <v>1307</v>
       </c>
       <c r="F9" s="16">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G9" s="17">
         <v>39065</v>
@@ -1917,7 +1915,7 @@
         <v>17891</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>13</v>
       </c>
@@ -1928,13 +1926,13 @@
         <v>1300</v>
       </c>
       <c r="D10" s="16">
-        <v>1165</v>
+        <v>1189</v>
       </c>
       <c r="E10" s="16">
-        <v>1128</v>
+        <v>1150</v>
       </c>
       <c r="F10" s="16">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G10" s="17">
         <v>25584</v>
@@ -1952,7 +1950,7 @@
         <v>10132</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>15</v>
       </c>
@@ -1963,10 +1961,10 @@
         <v>500</v>
       </c>
       <c r="D11" s="16">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E11" s="16">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F11" s="16">
         <v>2</v>
@@ -1987,7 +1985,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>16</v>
       </c>
@@ -1998,10 +1996,10 @@
         <v>200</v>
       </c>
       <c r="D12" s="16">
-        <v>807</v>
+        <v>881</v>
       </c>
       <c r="E12" s="16">
-        <v>770</v>
+        <v>844</v>
       </c>
       <c r="F12" s="16">
         <v>37</v>
@@ -2022,7 +2020,7 @@
         <v>9348</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>17</v>
       </c>
@@ -2033,13 +2031,13 @@
         <v>1700</v>
       </c>
       <c r="D13" s="16">
-        <v>1891</v>
+        <v>2027</v>
       </c>
       <c r="E13" s="16">
-        <v>1713</v>
+        <v>1844</v>
       </c>
       <c r="F13" s="16">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G13" s="17">
         <v>70499</v>
@@ -2057,7 +2055,7 @@
         <v>34606</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>18</v>
       </c>
@@ -2092,7 +2090,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>19</v>
       </c>
@@ -2103,10 +2101,10 @@
         <v>1500</v>
       </c>
       <c r="D15" s="16">
-        <v>847</v>
+        <v>985</v>
       </c>
       <c r="E15" s="16">
-        <v>775</v>
+        <v>913</v>
       </c>
       <c r="F15" s="16">
         <v>72</v>
@@ -2127,7 +2125,7 @@
         <v>13037</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>20</v>
       </c>
@@ -2138,13 +2136,13 @@
         <v>23200</v>
       </c>
       <c r="D16" s="16">
-        <v>11542</v>
+        <v>12418</v>
       </c>
       <c r="E16" s="16">
-        <v>9742</v>
+        <v>10553</v>
       </c>
       <c r="F16" s="16">
-        <v>1800</v>
+        <v>1865</v>
       </c>
       <c r="G16" s="17">
         <v>265191</v>
@@ -2162,7 +2160,7 @@
         <v>105279</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>21</v>
       </c>
@@ -2173,13 +2171,13 @@
         <v>194575</v>
       </c>
       <c r="D17" s="16">
-        <v>90651</v>
+        <v>95340</v>
       </c>
       <c r="E17" s="16">
-        <v>74378</v>
+        <v>78598</v>
       </c>
       <c r="F17" s="16">
-        <v>16273</v>
+        <v>16742</v>
       </c>
       <c r="G17" s="17">
         <v>1541803</v>
@@ -2197,7 +2195,7 @@
         <v>696450</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>22</v>
       </c>
@@ -2208,13 +2206,13 @@
         <v>300</v>
       </c>
       <c r="D18" s="16">
-        <v>905</v>
+        <v>922</v>
       </c>
       <c r="E18" s="16">
-        <v>886</v>
+        <v>902</v>
       </c>
       <c r="F18" s="16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G18" s="17">
         <v>10177</v>
@@ -2232,7 +2230,7 @@
         <v>4572</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>23</v>
       </c>
@@ -2243,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="D19" s="16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E19" s="16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F19" s="16">
         <v>0</v>
@@ -2267,7 +2265,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>24</v>
       </c>
@@ -2278,13 +2276,13 @@
         <v>1900</v>
       </c>
       <c r="D20" s="16">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="E20" s="16">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="F20" s="16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G20" s="17">
         <v>15491</v>
@@ -2302,7 +2300,7 @@
         <v>7171</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>25</v>
       </c>
@@ -2313,13 +2311,13 @@
         <v>7875</v>
       </c>
       <c r="D21" s="16">
-        <v>2744</v>
+        <v>2780</v>
       </c>
       <c r="E21" s="16">
-        <v>2325</v>
+        <v>2355</v>
       </c>
       <c r="F21" s="16">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="G21" s="17">
         <v>78179</v>
@@ -2348,13 +2346,13 @@
         <v>11400</v>
       </c>
       <c r="D22" s="16">
-        <v>15405</v>
+        <v>16355</v>
       </c>
       <c r="E22" s="16">
-        <v>12398</v>
+        <v>13260</v>
       </c>
       <c r="F22" s="16">
-        <v>3007</v>
+        <v>3095</v>
       </c>
       <c r="G22" s="17">
         <v>295635</v>
@@ -2383,13 +2381,13 @@
         <v>13950</v>
       </c>
       <c r="D23" s="16">
-        <v>5664</v>
+        <v>6022</v>
       </c>
       <c r="E23" s="16">
-        <v>5210</v>
+        <v>5556</v>
       </c>
       <c r="F23" s="16">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="G23" s="17">
         <v>185835</v>
@@ -2418,13 +2416,13 @@
         <v>1000</v>
       </c>
       <c r="D24" s="16">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="E24" s="16">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="F24" s="16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G24" s="17">
         <v>7291</v>
@@ -2453,10 +2451,10 @@
         <v>100</v>
       </c>
       <c r="D25" s="16">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E25" s="16">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F25" s="16">
         <v>1</v>
@@ -2523,10 +2521,10 @@
         <v>1500</v>
       </c>
       <c r="D27" s="16">
-        <v>898</v>
+        <v>920</v>
       </c>
       <c r="E27" s="16">
-        <v>873</v>
+        <v>895</v>
       </c>
       <c r="F27" s="16">
         <v>25</v>
@@ -2558,13 +2556,13 @@
         <v>500</v>
       </c>
       <c r="D28" s="16">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="E28" s="16">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="F28" s="16">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G28" s="17">
         <v>14721</v>
@@ -2593,13 +2591,13 @@
         <v>2800</v>
       </c>
       <c r="D29" s="16">
-        <v>1092</v>
+        <v>1147</v>
       </c>
       <c r="E29" s="16">
-        <v>1042</v>
+        <v>1096</v>
       </c>
       <c r="F29" s="16">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G29" s="17">
         <v>39423</v>
@@ -2628,13 +2626,13 @@
         <v>1200</v>
       </c>
       <c r="D30" s="16">
-        <v>921</v>
+        <v>986</v>
       </c>
       <c r="E30" s="16">
-        <v>857</v>
+        <v>918</v>
       </c>
       <c r="F30" s="16">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G30" s="17">
         <v>33813</v>
@@ -2663,13 +2661,13 @@
         <v>1000</v>
       </c>
       <c r="D31" s="16">
-        <v>752</v>
+        <v>792</v>
       </c>
       <c r="E31" s="16">
-        <v>710</v>
+        <v>741</v>
       </c>
       <c r="F31" s="16">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G31" s="17">
         <v>17169</v>
@@ -2698,10 +2696,10 @@
         <v>500</v>
       </c>
       <c r="D32" s="16">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E32" s="16">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F32" s="16">
         <v>124</v>
@@ -2733,13 +2731,13 @@
         <v>33950</v>
       </c>
       <c r="D33" s="16">
-        <v>25638</v>
+        <v>25852</v>
       </c>
       <c r="E33" s="16">
-        <v>22251</v>
+        <v>22411</v>
       </c>
       <c r="F33" s="16">
-        <v>3387</v>
+        <v>3441</v>
       </c>
       <c r="G33" s="17">
         <v>315242</v>
@@ -2768,13 +2766,13 @@
         <v>100</v>
       </c>
       <c r="D34" s="16">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="E34" s="16">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="F34" s="16">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G34" s="17">
         <v>10054</v>
@@ -2803,10 +2801,10 @@
         <v>200</v>
       </c>
       <c r="D35" s="16">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="E35" s="16">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="F35" s="16">
         <v>11</v>
@@ -2838,13 +2836,13 @@
         <v>300</v>
       </c>
       <c r="D36" s="16">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="E36" s="16">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F36" s="16">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G36" s="17">
         <v>24447</v>
@@ -2873,10 +2871,10 @@
         <v>300</v>
       </c>
       <c r="D37" s="16">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="E37" s="16">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="F37" s="16">
         <v>3</v>
@@ -2908,13 +2906,13 @@
         <v>2900</v>
       </c>
       <c r="D38" s="16">
-        <v>1263</v>
+        <v>1384</v>
       </c>
       <c r="E38" s="16">
-        <v>1141</v>
+        <v>1255</v>
       </c>
       <c r="F38" s="16">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G38" s="17">
         <v>34171</v>
@@ -2943,13 +2941,13 @@
         <v>4000</v>
       </c>
       <c r="D39" s="16">
-        <v>1592</v>
+        <v>1675</v>
       </c>
       <c r="E39" s="16">
-        <v>1541</v>
+        <v>1614</v>
       </c>
       <c r="F39" s="16">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G39" s="17">
         <v>41571</v>
@@ -2978,10 +2976,10 @@
         <v>900</v>
       </c>
       <c r="D40" s="16">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E40" s="16">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F40" s="16">
         <v>5</v>
@@ -3013,10 +3011,10 @@
         <v>300</v>
       </c>
       <c r="D41" s="16">
-        <v>519</v>
+        <v>552</v>
       </c>
       <c r="E41" s="16">
-        <v>445</v>
+        <v>478</v>
       </c>
       <c r="F41" s="16">
         <v>74</v>
@@ -3048,13 +3046,13 @@
         <v>100</v>
       </c>
       <c r="D42" s="16">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="E42" s="16">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F42" s="16">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G42" s="17">
         <v>2167</v>
@@ -3083,10 +3081,10 @@
         <v>0</v>
       </c>
       <c r="D43" s="16">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="E43" s="16">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="F43" s="16">
         <v>12</v>
@@ -3118,10 +3116,10 @@
         <v>600</v>
       </c>
       <c r="D44" s="16">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E44" s="16">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F44" s="16">
         <v>14</v>
@@ -3153,13 +3151,13 @@
         <v>39900</v>
       </c>
       <c r="D45" s="16">
-        <v>31695</v>
+        <v>33295</v>
       </c>
       <c r="E45" s="16">
-        <v>27791</v>
+        <v>29298</v>
       </c>
       <c r="F45" s="16">
-        <v>3904</v>
+        <v>3997</v>
       </c>
       <c r="G45" s="17">
         <v>806242</v>
@@ -3188,10 +3186,10 @@
         <v>300</v>
       </c>
       <c r="D46" s="16">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="E46" s="16">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="F46" s="16">
         <v>1</v>
@@ -3223,13 +3221,13 @@
         <v>600</v>
       </c>
       <c r="D47" s="16">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="E47" s="16">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="F47" s="16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G47" s="17">
         <v>17682</v>
@@ -3258,13 +3256,13 @@
         <v>8600</v>
       </c>
       <c r="D48" s="16">
-        <v>4877</v>
+        <v>5042</v>
       </c>
       <c r="E48" s="16">
-        <v>4312</v>
+        <v>4460</v>
       </c>
       <c r="F48" s="16">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="G48" s="17">
         <v>125758</v>
@@ -3293,10 +3291,10 @@
         <v>500</v>
       </c>
       <c r="D49" s="16">
-        <v>497</v>
+        <v>545</v>
       </c>
       <c r="E49" s="16">
-        <v>492</v>
+        <v>540</v>
       </c>
       <c r="F49" s="16">
         <v>5</v>
@@ -3328,10 +3326,10 @@
         <v>0</v>
       </c>
       <c r="D50" s="16">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E50" s="16">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="F50" s="16">
         <v>13</v>
@@ -3363,13 +3361,13 @@
         <v>1500</v>
       </c>
       <c r="D51" s="16">
-        <v>1230</v>
+        <v>1239</v>
       </c>
       <c r="E51" s="16">
-        <v>1190</v>
+        <v>1197</v>
       </c>
       <c r="F51" s="16">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G51" s="17">
         <v>32501</v>
@@ -3398,13 +3396,13 @@
         <v>1600</v>
       </c>
       <c r="D52" s="16">
-        <v>1253</v>
+        <v>1277</v>
       </c>
       <c r="E52" s="16">
-        <v>1177</v>
+        <v>1200</v>
       </c>
       <c r="F52" s="16">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G52" s="17">
         <v>58277</v>
@@ -3433,10 +3431,10 @@
         <v>0</v>
       </c>
       <c r="D53" s="16">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E53" s="16">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F53" s="16">
         <v>0</v>
@@ -3468,10 +3466,10 @@
         <v>200</v>
       </c>
       <c r="D54" s="16">
+        <v>154</v>
+      </c>
+      <c r="E54" s="16">
         <v>152</v>
-      </c>
-      <c r="E54" s="16">
-        <v>150</v>
       </c>
       <c r="F54" s="16">
         <v>2</v>
@@ -3503,13 +3501,13 @@
         <v>0</v>
       </c>
       <c r="D55" s="16">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="E55" s="16">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="F55" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G55" s="17">
         <v>2687</v>
@@ -3538,10 +3536,10 @@
         <v>200</v>
       </c>
       <c r="D56" s="16">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E56" s="16">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="F56" s="16">
         <v>16</v>
@@ -3573,10 +3571,10 @@
         <v>200</v>
       </c>
       <c r="D57" s="16">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E57" s="16">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F57" s="16">
         <v>0</v>
@@ -3608,10 +3606,10 @@
         <v>700</v>
       </c>
       <c r="D58" s="16">
-        <v>184</v>
+        <v>273</v>
       </c>
       <c r="E58" s="16">
-        <v>184</v>
+        <v>273</v>
       </c>
       <c r="F58" s="16">
         <v>0</v>
@@ -3643,13 +3641,13 @@
         <v>184875</v>
       </c>
       <c r="D59" s="16">
-        <v>88248</v>
+        <v>96266</v>
       </c>
       <c r="E59" s="16">
-        <v>73879</v>
+        <v>81643</v>
       </c>
       <c r="F59" s="16">
-        <v>14369</v>
+        <v>14623</v>
       </c>
       <c r="G59" s="17">
         <v>2015538</v>
@@ -3678,10 +3676,10 @@
         <v>500</v>
       </c>
       <c r="D60" s="16">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E60" s="16">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F60" s="16">
         <v>14</v>
@@ -3713,10 +3711,10 @@
         <v>1100</v>
       </c>
       <c r="D61" s="16">
-        <v>763</v>
+        <v>778</v>
       </c>
       <c r="E61" s="16">
-        <v>752</v>
+        <v>767</v>
       </c>
       <c r="F61" s="16">
         <v>11</v>
@@ -3748,10 +3746,10 @@
         <v>0</v>
       </c>
       <c r="D62" s="16">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E62" s="16">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F62" s="16">
         <v>6</v>
@@ -3783,13 +3781,13 @@
         <v>32400</v>
       </c>
       <c r="D63" s="16">
-        <v>18922</v>
+        <v>19932</v>
       </c>
       <c r="E63" s="16">
-        <v>16671</v>
+        <v>17636</v>
       </c>
       <c r="F63" s="16">
-        <v>2251</v>
+        <v>2296</v>
       </c>
       <c r="G63" s="17">
         <v>702429</v>
@@ -3818,13 +3816,13 @@
         <v>700</v>
       </c>
       <c r="D64" s="16">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E64" s="16">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F64" s="16">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G64" s="17">
         <v>16610</v>
@@ -3853,10 +3851,10 @@
         <v>0</v>
       </c>
       <c r="D65" s="16">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E65" s="16">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F65" s="16">
         <v>1</v>
@@ -3888,10 +3886,10 @@
         <v>500</v>
       </c>
       <c r="D66" s="16">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E66" s="16">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F66" s="16">
         <v>0</v>
@@ -3923,10 +3921,10 @@
         <v>100</v>
       </c>
       <c r="D67" s="16">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E67" s="16">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F67" s="16">
         <v>2</v>
@@ -3958,13 +3956,13 @@
         <v>200</v>
       </c>
       <c r="D68" s="16">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="E68" s="16">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F68" s="16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G68" s="17">
         <v>8359</v>
@@ -3993,10 +3991,10 @@
         <v>600</v>
       </c>
       <c r="D69" s="16">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="E69" s="16">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="F69" s="16">
         <v>19</v>
@@ -4028,13 +4026,13 @@
         <v>10900</v>
       </c>
       <c r="D70" s="16">
-        <v>5399</v>
+        <v>5489</v>
       </c>
       <c r="E70" s="16">
-        <v>5046</v>
+        <v>5135</v>
       </c>
       <c r="F70" s="16">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G70" s="17">
         <v>123303</v>
@@ -4063,13 +4061,13 @@
         <v>0</v>
       </c>
       <c r="D71" s="16">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E71" s="16">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F71" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G71" s="17">
         <v>1605</v>
@@ -4098,13 +4096,13 @@
         <v>79400</v>
       </c>
       <c r="D72" s="16">
-        <v>53993</v>
+        <v>57016</v>
       </c>
       <c r="E72" s="16">
-        <v>47189</v>
+        <v>49796</v>
       </c>
       <c r="F72" s="16">
-        <v>6804</v>
+        <v>7220</v>
       </c>
       <c r="G72" s="17">
         <v>640715</v>
@@ -4133,13 +4131,13 @@
         <v>4600</v>
       </c>
       <c r="D73" s="16">
-        <v>5503</v>
+        <v>5804</v>
       </c>
       <c r="E73" s="16">
-        <v>4792</v>
+        <v>5085</v>
       </c>
       <c r="F73" s="16">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="G73" s="17">
         <v>146536</v>
@@ -4168,10 +4166,10 @@
         <v>700</v>
       </c>
       <c r="D74" s="16">
-        <v>1007</v>
+        <v>1041</v>
       </c>
       <c r="E74" s="16">
-        <v>935</v>
+        <v>969</v>
       </c>
       <c r="F74" s="16">
         <v>72</v>
@@ -4203,10 +4201,10 @@
         <v>300</v>
       </c>
       <c r="D75" s="16">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="E75" s="16">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="F75" s="16">
         <v>21</v>
@@ -4238,13 +4236,13 @@
         <v>2300</v>
       </c>
       <c r="D76" s="16">
-        <v>1343</v>
+        <v>1447</v>
       </c>
       <c r="E76" s="16">
-        <v>1311</v>
+        <v>1409</v>
       </c>
       <c r="F76" s="16">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G76" s="17">
         <v>29681</v>
@@ -4273,13 +4271,13 @@
         <v>1200</v>
       </c>
       <c r="D77" s="16">
-        <v>768</v>
+        <v>840</v>
       </c>
       <c r="E77" s="16">
-        <v>746</v>
+        <v>817</v>
       </c>
       <c r="F77" s="16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G77" s="17">
         <v>21209</v>
@@ -4308,10 +4306,10 @@
         <v>200</v>
       </c>
       <c r="D78" s="16">
+        <v>69</v>
+      </c>
+      <c r="E78" s="16">
         <v>66</v>
-      </c>
-      <c r="E78" s="16">
-        <v>63</v>
       </c>
       <c r="F78" s="16">
         <v>3</v>
@@ -4343,13 +4341,13 @@
         <v>200</v>
       </c>
       <c r="D79" s="16">
-        <v>271</v>
+        <v>326</v>
       </c>
       <c r="E79" s="16">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="F79" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G79" s="17">
         <v>4283</v>
@@ -4378,10 +4376,10 @@
         <v>100</v>
       </c>
       <c r="D80" s="16">
+        <v>157</v>
+      </c>
+      <c r="E80" s="16">
         <v>155</v>
-      </c>
-      <c r="E80" s="16">
-        <v>153</v>
       </c>
       <c r="F80" s="16">
         <v>2</v>
@@ -4413,13 +4411,13 @@
         <v>34400</v>
       </c>
       <c r="D81" s="16">
-        <v>31305</v>
+        <v>33698</v>
       </c>
       <c r="E81" s="16">
-        <v>26156</v>
+        <v>28260</v>
       </c>
       <c r="F81" s="16">
-        <v>5149</v>
+        <v>5438</v>
       </c>
       <c r="G81" s="17">
         <v>626861</v>
@@ -4448,10 +4446,10 @@
         <v>400</v>
       </c>
       <c r="D82" s="16">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E82" s="16">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F82" s="16">
         <v>10</v>
@@ -4483,13 +4481,13 @@
         <v>1100</v>
       </c>
       <c r="D83" s="16">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="E83" s="16">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="F83" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G83" s="17">
         <v>16551</v>
@@ -4518,10 +4516,10 @@
         <v>1500</v>
       </c>
       <c r="D84" s="16">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E84" s="16">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F84" s="16">
         <v>11</v>
@@ -4553,10 +4551,10 @@
         <v>1100</v>
       </c>
       <c r="D85" s="16">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E85" s="16">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F85" s="16">
         <v>7</v>
@@ -4588,13 +4586,13 @@
         <v>21900</v>
       </c>
       <c r="D86" s="16">
-        <v>20266</v>
+        <v>20994</v>
       </c>
       <c r="E86" s="16">
-        <v>16873</v>
+        <v>17525</v>
       </c>
       <c r="F86" s="16">
-        <v>3393</v>
+        <v>3469</v>
       </c>
       <c r="G86" s="17">
         <v>267032</v>
@@ -4623,10 +4621,10 @@
         <v>0</v>
       </c>
       <c r="D87" s="16">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E87" s="16">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F87" s="16">
         <v>9</v>
@@ -4658,10 +4656,10 @@
         <v>1900</v>
       </c>
       <c r="D88" s="16">
-        <v>1077</v>
+        <v>1092</v>
       </c>
       <c r="E88" s="16">
-        <v>1057</v>
+        <v>1072</v>
       </c>
       <c r="F88" s="16">
         <v>20</v>
@@ -4693,13 +4691,13 @@
         <v>0</v>
       </c>
       <c r="D89" s="16">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E89" s="16">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F89" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G89" s="17">
         <v>1108</v>
@@ -4728,13 +4726,13 @@
         <v>100</v>
       </c>
       <c r="D90" s="16">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E90" s="16">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F90" s="16">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G90" s="17">
         <v>6615</v>
@@ -4763,10 +4761,10 @@
         <v>1200</v>
       </c>
       <c r="D91" s="16">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E91" s="16">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="F91" s="16">
         <v>13</v>
@@ -4798,10 +4796,10 @@
         <v>1200</v>
       </c>
       <c r="D92" s="16">
-        <v>876</v>
+        <v>890</v>
       </c>
       <c r="E92" s="16">
-        <v>868</v>
+        <v>882</v>
       </c>
       <c r="F92" s="16">
         <v>8</v>
@@ -4833,13 +4831,13 @@
         <v>16975</v>
       </c>
       <c r="D93" s="16">
-        <v>5155</v>
+        <v>5274</v>
       </c>
       <c r="E93" s="16">
-        <v>4936</v>
+        <v>5002</v>
       </c>
       <c r="F93" s="16">
-        <v>219</v>
+        <v>272</v>
       </c>
       <c r="G93" s="17">
         <v>107568</v>
@@ -4868,13 +4866,13 @@
         <v>10950</v>
       </c>
       <c r="D94" s="16">
-        <v>5274</v>
+        <v>5364</v>
       </c>
       <c r="E94" s="16">
-        <v>4284</v>
+        <v>4344</v>
       </c>
       <c r="F94" s="16">
-        <v>990</v>
+        <v>1020</v>
       </c>
       <c r="G94" s="17">
         <v>97771</v>
@@ -4903,13 +4901,13 @@
         <v>1000</v>
       </c>
       <c r="D95" s="16">
-        <v>681</v>
+        <v>734</v>
       </c>
       <c r="E95" s="16">
-        <v>661</v>
+        <v>712</v>
       </c>
       <c r="F95" s="16">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G95" s="17">
         <v>23692</v>
@@ -4938,13 +4936,13 @@
         <v>5300</v>
       </c>
       <c r="D96" s="16">
-        <v>4284</v>
+        <v>4380</v>
       </c>
       <c r="E96" s="16">
-        <v>3729</v>
+        <v>3817</v>
       </c>
       <c r="F96" s="16">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="G96" s="17">
         <v>130156</v>
@@ -4973,10 +4971,10 @@
         <v>2600</v>
       </c>
       <c r="D97" s="16">
-        <v>1499</v>
+        <v>1528</v>
       </c>
       <c r="E97" s="16">
-        <v>1421</v>
+        <v>1450</v>
       </c>
       <c r="F97" s="16">
         <v>78</v>
@@ -5008,10 +5006,10 @@
         <v>0</v>
       </c>
       <c r="D98" s="16">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="E98" s="16">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="F98" s="16">
         <v>4</v>
@@ -5043,10 +5041,10 @@
         <v>1200</v>
       </c>
       <c r="D99" s="16">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="E99" s="16">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="F99" s="16">
         <v>3</v>
@@ -5078,10 +5076,10 @@
         <v>400</v>
       </c>
       <c r="D100" s="16">
+        <v>252</v>
+      </c>
+      <c r="E100" s="16">
         <v>250</v>
-      </c>
-      <c r="E100" s="16">
-        <v>248</v>
       </c>
       <c r="F100" s="16">
         <v>2</v>
@@ -5113,10 +5111,10 @@
         <v>500</v>
       </c>
       <c r="D101" s="16">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="E101" s="16">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F101" s="16">
         <v>6</v>
@@ -5148,10 +5146,10 @@
         <v>3400</v>
       </c>
       <c r="D102" s="16">
-        <v>1559</v>
+        <v>1621</v>
       </c>
       <c r="E102" s="16">
-        <v>1499</v>
+        <v>1561</v>
       </c>
       <c r="F102" s="16">
         <v>60</v>
@@ -5183,13 +5181,13 @@
         <v>391825</v>
       </c>
       <c r="D103" s="16">
-        <v>190437</v>
+        <v>202642</v>
       </c>
       <c r="E103" s="16">
-        <v>159031</v>
+        <v>170144</v>
       </c>
       <c r="F103" s="16">
-        <v>31406</v>
+        <v>32498</v>
       </c>
       <c r="G103" s="17">
         <v>3573784</v>
@@ -5218,13 +5216,13 @@
         <v>2200</v>
       </c>
       <c r="D104" s="16">
-        <v>1618</v>
+        <v>1625</v>
       </c>
       <c r="E104" s="16">
-        <v>1381</v>
+        <v>1387</v>
       </c>
       <c r="F104" s="16">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G104" s="17">
         <v>53015</v>
@@ -5253,10 +5251,10 @@
         <v>0</v>
       </c>
       <c r="D105" s="16">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E105" s="16">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F105" s="16">
         <v>1</v>
@@ -5288,10 +5286,10 @@
         <v>100</v>
       </c>
       <c r="D106" s="16">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E106" s="16">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F106" s="16">
         <v>7</v>
@@ -5323,13 +5321,13 @@
         <v>12750</v>
       </c>
       <c r="D107" s="16">
-        <v>7466</v>
+        <v>8111</v>
       </c>
       <c r="E107" s="16">
-        <v>6670</v>
+        <v>7280</v>
       </c>
       <c r="F107" s="16">
-        <v>796</v>
+        <v>831</v>
       </c>
       <c r="G107" s="17">
         <v>183387</v>
@@ -5358,10 +5356,10 @@
         <v>800</v>
       </c>
       <c r="D108" s="16">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E108" s="16">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F108" s="16">
         <v>1</v>
@@ -5393,13 +5391,13 @@
         <v>3300</v>
       </c>
       <c r="D109" s="16">
-        <v>1882</v>
+        <v>2014</v>
       </c>
       <c r="E109" s="16">
-        <v>1698</v>
+        <v>1795</v>
       </c>
       <c r="F109" s="16">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="G109" s="17">
         <v>67614</v>
@@ -5428,13 +5426,13 @@
         <v>75175</v>
       </c>
       <c r="D110" s="16">
-        <v>28508</v>
+        <v>28844</v>
       </c>
       <c r="E110" s="16">
-        <v>24686</v>
+        <v>25016</v>
       </c>
       <c r="F110" s="16">
-        <v>3822</v>
+        <v>3828</v>
       </c>
       <c r="G110" s="17">
         <v>649795</v>
@@ -5463,13 +5461,13 @@
         <v>900</v>
       </c>
       <c r="D111" s="16">
-        <v>1096</v>
+        <v>1126</v>
       </c>
       <c r="E111" s="16">
-        <v>1052</v>
+        <v>1081</v>
       </c>
       <c r="F111" s="16">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G111" s="17">
         <v>29221</v>
@@ -5498,10 +5496,10 @@
         <v>700</v>
       </c>
       <c r="D112" s="16">
-        <v>763</v>
+        <v>780</v>
       </c>
       <c r="E112" s="16">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="F112" s="16">
         <v>107</v>
@@ -5533,13 +5531,13 @@
         <v>2100</v>
       </c>
       <c r="D113" s="16">
-        <v>1193</v>
+        <v>1234</v>
       </c>
       <c r="E113" s="16">
-        <v>1146</v>
+        <v>1182</v>
       </c>
       <c r="F113" s="16">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G113" s="17">
         <v>50235</v>
@@ -5568,10 +5566,10 @@
         <v>1200</v>
       </c>
       <c r="D114" s="16">
-        <v>1159</v>
+        <v>1173</v>
       </c>
       <c r="E114" s="16">
-        <v>1064</v>
+        <v>1078</v>
       </c>
       <c r="F114" s="16">
         <v>95</v>
@@ -5603,10 +5601,10 @@
         <v>1500</v>
       </c>
       <c r="D115" s="16">
-        <v>924</v>
+        <v>992</v>
       </c>
       <c r="E115" s="16">
-        <v>915</v>
+        <v>983</v>
       </c>
       <c r="F115" s="16">
         <v>9</v>
@@ -5638,10 +5636,10 @@
         <v>2500</v>
       </c>
       <c r="D116" s="16">
-        <v>923</v>
+        <v>936</v>
       </c>
       <c r="E116" s="16">
-        <v>901</v>
+        <v>914</v>
       </c>
       <c r="F116" s="16">
         <v>22</v>
@@ -5673,13 +5671,13 @@
         <v>0</v>
       </c>
       <c r="D117" s="16">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E117" s="16">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F117" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G117" s="17">
         <v>2968</v>
@@ -5708,13 +5706,13 @@
         <v>4900</v>
       </c>
       <c r="D118" s="16">
-        <v>2701</v>
+        <v>2783</v>
       </c>
       <c r="E118" s="16">
-        <v>2505</v>
+        <v>2584</v>
       </c>
       <c r="F118" s="16">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G118" s="17">
         <v>77702</v>
@@ -5743,10 +5741,10 @@
         <v>500</v>
       </c>
       <c r="D119" s="16">
-        <v>616</v>
+        <v>661</v>
       </c>
       <c r="E119" s="16">
-        <v>603</v>
+        <v>648</v>
       </c>
       <c r="F119" s="16">
         <v>13</v>
@@ -5778,13 +5776,13 @@
         <v>0</v>
       </c>
       <c r="D120" s="16">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E120" s="16">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F120" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G120" s="17">
         <v>1345</v>
@@ -5813,10 +5811,10 @@
         <v>300</v>
       </c>
       <c r="D121" s="16">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E121" s="16">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F121" s="16">
         <v>18</v>
@@ -5848,10 +5846,10 @@
         <v>1200</v>
       </c>
       <c r="D122" s="16">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="E122" s="16">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="F122" s="16">
         <v>37</v>
@@ -5883,10 +5881,10 @@
         <v>1900</v>
       </c>
       <c r="D123" s="16">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="E123" s="16">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="F123" s="16">
         <v>23</v>
@@ -5918,10 +5916,10 @@
         <v>0</v>
       </c>
       <c r="D124" s="16">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E124" s="16">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F124" s="16">
         <v>0</v>
@@ -5953,13 +5951,13 @@
         <v>15550</v>
       </c>
       <c r="D125" s="16">
-        <v>4339</v>
+        <v>4575</v>
       </c>
       <c r="E125" s="16">
-        <v>4011</v>
+        <v>4244</v>
       </c>
       <c r="F125" s="16">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G125" s="17">
         <v>198728</v>
@@ -5988,10 +5986,10 @@
         <v>100</v>
       </c>
       <c r="D126" s="16">
+        <v>458</v>
+      </c>
+      <c r="E126" s="16">
         <v>457</v>
-      </c>
-      <c r="E126" s="16">
-        <v>456</v>
       </c>
       <c r="F126" s="16">
         <v>1</v>
@@ -6023,13 +6021,13 @@
         <v>1000</v>
       </c>
       <c r="D127" s="16">
-        <v>1098</v>
+        <v>1120</v>
       </c>
       <c r="E127" s="16">
-        <v>1028</v>
+        <v>1047</v>
       </c>
       <c r="F127" s="16">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G127" s="17">
         <v>29988</v>
@@ -6058,13 +6056,13 @@
         <v>2800</v>
       </c>
       <c r="D128" s="16">
-        <v>4150</v>
+        <v>4321</v>
       </c>
       <c r="E128" s="16">
-        <v>3627</v>
+        <v>3782</v>
       </c>
       <c r="F128" s="16">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="G128" s="17">
         <v>135188</v>
@@ -6093,10 +6091,10 @@
         <v>100</v>
       </c>
       <c r="D129" s="16">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="E129" s="16">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="F129" s="16">
         <v>101</v>
@@ -6128,10 +6126,10 @@
         <v>800</v>
       </c>
       <c r="D130" s="16">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="E130" s="16">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="F130" s="16">
         <v>8</v>
@@ -6163,13 +6161,13 @@
         <v>3250</v>
       </c>
       <c r="D131" s="16">
-        <v>4074</v>
+        <v>4189</v>
       </c>
       <c r="E131" s="16">
-        <v>3532</v>
+        <v>3641</v>
       </c>
       <c r="F131" s="16">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="G131" s="17">
         <v>104736</v>
@@ -6198,13 +6196,13 @@
         <v>2300</v>
       </c>
       <c r="D132" s="16">
-        <v>2260</v>
+        <v>2412</v>
       </c>
       <c r="E132" s="16">
-        <v>1825</v>
+        <v>1969</v>
       </c>
       <c r="F132" s="16">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="G132" s="17">
         <v>38074</v>
@@ -6233,10 +6231,10 @@
         <v>0</v>
       </c>
       <c r="D133" s="16">
+        <v>14</v>
+      </c>
+      <c r="E133" s="16">
         <v>13</v>
-      </c>
-      <c r="E133" s="16">
-        <v>12</v>
       </c>
       <c r="F133" s="16">
         <v>1</v>
@@ -6303,13 +6301,13 @@
         <v>3100</v>
       </c>
       <c r="D135" s="16">
-        <v>1223</v>
+        <v>1298</v>
       </c>
       <c r="E135" s="16">
-        <v>1211</v>
+        <v>1285</v>
       </c>
       <c r="F135" s="16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G135" s="17">
         <v>43611</v>
@@ -6338,13 +6336,13 @@
         <v>300</v>
       </c>
       <c r="D136" s="16">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E136" s="16">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F136" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G136" s="17">
         <v>3844</v>
@@ -6408,10 +6406,10 @@
         <v>0</v>
       </c>
       <c r="D138" s="16">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E138" s="16">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F138" s="16">
         <v>0</v>
@@ -6443,13 +6441,13 @@
         <v>800</v>
       </c>
       <c r="D139" s="16">
-        <v>881</v>
+        <v>942</v>
       </c>
       <c r="E139" s="16">
-        <v>827</v>
+        <v>886</v>
       </c>
       <c r="F139" s="16">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G139" s="17">
         <v>25862</v>
@@ -6478,10 +6476,10 @@
         <v>300</v>
       </c>
       <c r="D140" s="16">
+        <v>200</v>
+      </c>
+      <c r="E140" s="16">
         <v>197</v>
-      </c>
-      <c r="E140" s="16">
-        <v>194</v>
       </c>
       <c r="F140" s="16">
         <v>3</v>
@@ -6548,13 +6546,13 @@
         <v>3100</v>
       </c>
       <c r="D142" s="16">
-        <v>1623</v>
+        <v>1654</v>
       </c>
       <c r="E142" s="16">
-        <v>1604</v>
+        <v>1634</v>
       </c>
       <c r="F142" s="16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G142" s="17">
         <v>40212</v>
@@ -6583,10 +6581,10 @@
         <v>200</v>
       </c>
       <c r="D143" s="16">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="E143" s="16">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="F143" s="16">
         <v>34</v>
@@ -6618,10 +6616,10 @@
         <v>200</v>
       </c>
       <c r="D144" s="16">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="E144" s="16">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="F144" s="16">
         <v>40</v>
@@ -6653,10 +6651,10 @@
         <v>1600</v>
       </c>
       <c r="D145" s="16">
-        <v>1074</v>
+        <v>1080</v>
       </c>
       <c r="E145" s="16">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="F145" s="16">
         <v>36</v>
@@ -6688,13 +6686,13 @@
         <v>600</v>
       </c>
       <c r="D146" s="16">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="E146" s="16">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="F146" s="16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G146" s="17">
         <v>13837</v>
@@ -6723,10 +6721,10 @@
         <v>500</v>
       </c>
       <c r="D147" s="16">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="E147" s="16">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="F147" s="16">
         <v>6</v>
@@ -6758,13 +6756,13 @@
         <v>3300</v>
       </c>
       <c r="D148" s="16">
-        <v>1689</v>
+        <v>1770</v>
       </c>
       <c r="E148" s="16">
-        <v>1602</v>
+        <v>1678</v>
       </c>
       <c r="F148" s="16">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G148" s="17">
         <v>70912</v>
@@ -6793,10 +6791,10 @@
         <v>1100</v>
       </c>
       <c r="D149" s="16">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="E149" s="16">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="F149" s="16">
         <v>11</v>
@@ -6828,10 +6826,10 @@
         <v>0</v>
       </c>
       <c r="D150" s="16">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E150" s="16">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F150" s="16">
         <v>1</v>
@@ -6863,10 +6861,10 @@
         <v>200</v>
       </c>
       <c r="D151" s="16">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E151" s="16">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F151" s="16">
         <v>8</v>
@@ -6898,13 +6896,13 @@
         <v>100</v>
       </c>
       <c r="D152" s="16">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="E152" s="16">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="F152" s="16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G152" s="17">
         <v>18642</v>
@@ -6968,13 +6966,13 @@
         <v>58050</v>
       </c>
       <c r="D154" s="16">
-        <v>25592</v>
+        <v>26203</v>
       </c>
       <c r="E154" s="16">
-        <v>20816</v>
+        <v>21423</v>
       </c>
       <c r="F154" s="16">
-        <v>4776</v>
+        <v>4780</v>
       </c>
       <c r="G154" s="17">
         <v>243899</v>
@@ -7003,10 +7001,10 @@
         <v>200</v>
       </c>
       <c r="D155" s="16">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E155" s="16">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F155" s="16">
         <v>34</v>
@@ -7038,13 +7036,13 @@
         <v>500</v>
       </c>
       <c r="D156" s="16">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="E156" s="16">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F156" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G156" s="17">
         <v>11353</v>
@@ -7073,10 +7071,10 @@
         <v>0</v>
       </c>
       <c r="D157" s="16">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E157" s="16">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F157" s="16">
         <v>26</v>
@@ -7143,10 +7141,10 @@
         <v>200</v>
       </c>
       <c r="D159" s="16">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E159" s="16">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F159" s="16">
         <v>15</v>
@@ -7178,10 +7176,10 @@
         <v>2400</v>
       </c>
       <c r="D160" s="16">
-        <v>523</v>
+        <v>555</v>
       </c>
       <c r="E160" s="16">
-        <v>513</v>
+        <v>545</v>
       </c>
       <c r="F160" s="16">
         <v>10</v>
@@ -7213,13 +7211,13 @@
         <v>2400</v>
       </c>
       <c r="D161" s="16">
-        <v>1272</v>
+        <v>1736</v>
       </c>
       <c r="E161" s="16">
-        <v>1266</v>
+        <v>1728</v>
       </c>
       <c r="F161" s="16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G161" s="17">
         <v>42357</v>
@@ -7248,13 +7246,13 @@
         <v>400</v>
       </c>
       <c r="D162" s="16">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="E162" s="16">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="F162" s="16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G162" s="17">
         <v>6675</v>
@@ -7283,13 +7281,13 @@
         <v>14500</v>
       </c>
       <c r="D163" s="16">
-        <v>9302</v>
+        <v>9502</v>
       </c>
       <c r="E163" s="16">
-        <v>8418</v>
+        <v>8597</v>
       </c>
       <c r="F163" s="16">
-        <v>884</v>
+        <v>905</v>
       </c>
       <c r="G163" s="17">
         <v>198642</v>
@@ -7321,10 +7319,10 @@
         <v>9</v>
       </c>
       <c r="E164" s="16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F164" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G164" s="17">
         <v>640</v>
@@ -7353,13 +7351,13 @@
         <v>1000</v>
       </c>
       <c r="D165" s="16">
-        <v>1588</v>
+        <v>1629</v>
       </c>
       <c r="E165" s="16">
-        <v>1466</v>
+        <v>1500</v>
       </c>
       <c r="F165" s="16">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G165" s="17">
         <v>42991</v>
@@ -7388,10 +7386,10 @@
         <v>0</v>
       </c>
       <c r="D166" s="16">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E166" s="16">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F166" s="16">
         <v>9</v>
@@ -7423,13 +7421,13 @@
         <v>6300</v>
       </c>
       <c r="D167" s="16">
-        <v>4858</v>
+        <v>4978</v>
       </c>
       <c r="E167" s="16">
-        <v>3500</v>
+        <v>3616</v>
       </c>
       <c r="F167" s="16">
-        <v>1358</v>
+        <v>1362</v>
       </c>
       <c r="G167" s="17">
         <v>132357</v>
@@ -7458,10 +7456,10 @@
         <v>1400</v>
       </c>
       <c r="D168" s="16">
-        <v>992</v>
+        <v>1060</v>
       </c>
       <c r="E168" s="16">
-        <v>969</v>
+        <v>1037</v>
       </c>
       <c r="F168" s="16">
         <v>23</v>
@@ -7493,10 +7491,10 @@
         <v>200</v>
       </c>
       <c r="D169" s="16">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E169" s="16">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F169" s="16">
         <v>5</v>
@@ -7528,10 +7526,10 @@
         <v>600</v>
       </c>
       <c r="D170" s="16">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E170" s="16">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F170" s="16">
         <v>1</v>
@@ -7563,10 +7561,10 @@
         <v>200</v>
       </c>
       <c r="D171" s="16">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="E171" s="16">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="F171" s="16">
         <v>63</v>
@@ -7598,13 +7596,13 @@
         <v>36475</v>
       </c>
       <c r="D172" s="16">
-        <v>14696</v>
+        <v>15732</v>
       </c>
       <c r="E172" s="16">
-        <v>12859</v>
+        <v>13783</v>
       </c>
       <c r="F172" s="16">
-        <v>1837</v>
+        <v>1949</v>
       </c>
       <c r="G172" s="17">
         <v>470846</v>
@@ -7633,10 +7631,10 @@
         <v>800</v>
       </c>
       <c r="D173" s="16">
-        <v>901</v>
+        <v>985</v>
       </c>
       <c r="E173" s="16">
-        <v>892</v>
+        <v>976</v>
       </c>
       <c r="F173" s="16">
         <v>9</v>
@@ -7668,13 +7666,13 @@
         <v>300</v>
       </c>
       <c r="D174" s="16">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="E174" s="16">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="F174" s="16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G174" s="17">
         <v>9938</v>
@@ -7703,10 +7701,10 @@
         <v>0</v>
       </c>
       <c r="D175" s="16">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E175" s="16">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F175" s="16">
         <v>1</v>
@@ -7738,10 +7736,10 @@
         <v>5500</v>
       </c>
       <c r="D176" s="16">
-        <v>3662</v>
+        <v>3694</v>
       </c>
       <c r="E176" s="16">
-        <v>3647</v>
+        <v>3679</v>
       </c>
       <c r="F176" s="16">
         <v>15</v>
@@ -7773,13 +7771,13 @@
         <v>1900</v>
       </c>
       <c r="D177" s="16">
-        <v>1103</v>
+        <v>1163</v>
       </c>
       <c r="E177" s="16">
-        <v>1071</v>
+        <v>1128</v>
       </c>
       <c r="F177" s="16">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G177" s="17">
         <v>40888</v>
@@ -7808,10 +7806,10 @@
         <v>400</v>
       </c>
       <c r="D178" s="16">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E178" s="16">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F178" s="16">
         <v>3</v>
@@ -7843,10 +7841,10 @@
         <v>1000</v>
       </c>
       <c r="D179" s="16">
-        <v>927</v>
+        <v>953</v>
       </c>
       <c r="E179" s="16">
-        <v>892</v>
+        <v>918</v>
       </c>
       <c r="F179" s="16">
         <v>35</v>
@@ -7878,13 +7876,13 @@
         <v>34275</v>
       </c>
       <c r="D180" s="16">
-        <v>15948</v>
+        <v>16343</v>
       </c>
       <c r="E180" s="16">
-        <v>13706</v>
+        <v>13984</v>
       </c>
       <c r="F180" s="16">
-        <v>2242</v>
+        <v>2359</v>
       </c>
       <c r="G180" s="17">
         <v>282299</v>
@@ -7913,10 +7911,10 @@
         <v>800</v>
       </c>
       <c r="D181" s="16">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="E181" s="16">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F181" s="16">
         <v>3</v>
@@ -7948,10 +7946,10 @@
         <v>0</v>
       </c>
       <c r="D182" s="16">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E182" s="16">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F182" s="16">
         <v>8</v>
@@ -7983,10 +7981,10 @@
         <v>800</v>
       </c>
       <c r="D183" s="16">
-        <v>848</v>
+        <v>893</v>
       </c>
       <c r="E183" s="16">
-        <v>795</v>
+        <v>840</v>
       </c>
       <c r="F183" s="16">
         <v>53</v>
@@ -8018,13 +8016,13 @@
         <v>700</v>
       </c>
       <c r="D184" s="16">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="E184" s="16">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="F184" s="16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G184" s="17">
         <v>23268</v>
@@ -8053,10 +8051,10 @@
         <v>1200</v>
       </c>
       <c r="D185" s="16">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="E185" s="16">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="F185" s="16">
         <v>33</v>
@@ -8088,13 +8086,13 @@
         <v>4900</v>
       </c>
       <c r="D186" s="16">
-        <v>4184</v>
+        <v>4264</v>
       </c>
       <c r="E186" s="16">
-        <v>3867</v>
+        <v>3933</v>
       </c>
       <c r="F186" s="16">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="G186" s="17">
         <v>112329</v>
@@ -8123,10 +8121,10 @@
         <v>500</v>
       </c>
       <c r="D187" s="16">
+        <v>417</v>
+      </c>
+      <c r="E187" s="16">
         <v>412</v>
-      </c>
-      <c r="E187" s="16">
-        <v>407</v>
       </c>
       <c r="F187" s="16">
         <v>5</v>
@@ -8158,13 +8156,13 @@
         <v>1200</v>
       </c>
       <c r="D188" s="16">
-        <v>575</v>
+        <v>597</v>
       </c>
       <c r="E188" s="16">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F188" s="16">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G188" s="17">
         <v>11723</v>
@@ -8193,13 +8191,13 @@
         <v>2500</v>
       </c>
       <c r="D189" s="16">
-        <v>1055</v>
+        <v>1108</v>
       </c>
       <c r="E189" s="16">
-        <v>1028</v>
+        <v>1080</v>
       </c>
       <c r="F189" s="16">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G189" s="17">
         <v>41511</v>
@@ -8228,13 +8226,13 @@
         <v>40950</v>
       </c>
       <c r="D190" s="16">
-        <v>10057</v>
+        <v>10429</v>
       </c>
       <c r="E190" s="16">
-        <v>9493</v>
+        <v>9864</v>
       </c>
       <c r="F190" s="16">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G190" s="17">
         <v>89806</v>
@@ -8298,10 +8296,10 @@
         <v>200</v>
       </c>
       <c r="D192" s="16">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E192" s="16">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F192" s="16">
         <v>19</v>
@@ -8333,13 +8331,13 @@
         <v>4500</v>
       </c>
       <c r="D193" s="16">
-        <v>15512</v>
+        <v>16124</v>
       </c>
       <c r="E193" s="16">
-        <v>14495</v>
+        <v>15106</v>
       </c>
       <c r="F193" s="16">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="G193" s="17">
         <v>109144</v>
@@ -8368,13 +8366,13 @@
         <v>100</v>
       </c>
       <c r="D194" s="16">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E194" s="16">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F194" s="16">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G194" s="17">
         <v>2900</v>
@@ -8403,10 +8401,10 @@
         <v>0</v>
       </c>
       <c r="D195" s="16">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="E195" s="16">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="F195" s="16">
         <v>1</v>
@@ -8438,10 +8436,10 @@
         <v>200</v>
       </c>
       <c r="D196" s="16">
-        <v>388</v>
+        <v>455</v>
       </c>
       <c r="E196" s="16">
-        <v>385</v>
+        <v>452</v>
       </c>
       <c r="F196" s="16">
         <v>3</v>
@@ -8473,10 +8471,10 @@
         <v>400</v>
       </c>
       <c r="D197" s="16">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E197" s="16">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F197" s="16">
         <v>5</v>
@@ -8508,10 +8506,10 @@
         <v>600</v>
       </c>
       <c r="D198" s="16">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E198" s="16">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F198" s="16">
         <v>9</v>
@@ -8543,10 +8541,10 @@
         <v>0</v>
       </c>
       <c r="D199" s="16">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E199" s="16">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F199" s="16">
         <v>0</v>
@@ -8578,13 +8576,13 @@
         <v>500</v>
       </c>
       <c r="D200" s="16">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="E200" s="16">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="F200" s="16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G200" s="17">
         <v>14216</v>
@@ -8613,13 +8611,13 @@
         <v>3500</v>
       </c>
       <c r="D201" s="16">
-        <v>3129</v>
+        <v>3231</v>
       </c>
       <c r="E201" s="16">
-        <v>2759</v>
+        <v>2858</v>
       </c>
       <c r="F201" s="16">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G201" s="17">
         <v>81869</v>
@@ -8648,13 +8646,13 @@
         <v>900</v>
       </c>
       <c r="D202" s="16">
-        <v>711</v>
+        <v>791</v>
       </c>
       <c r="E202" s="16">
-        <v>653</v>
+        <v>727</v>
       </c>
       <c r="F202" s="16">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G202" s="17">
         <v>7992</v>
@@ -8683,13 +8681,13 @@
         <v>1000</v>
       </c>
       <c r="D203" s="16">
-        <v>989</v>
+        <v>1080</v>
       </c>
       <c r="E203" s="16">
-        <v>891</v>
+        <v>971</v>
       </c>
       <c r="F203" s="16">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="G203" s="17">
         <v>44061</v>
@@ -8718,10 +8716,10 @@
         <v>1200</v>
       </c>
       <c r="D204" s="16">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="E204" s="16">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="F204" s="16">
         <v>2</v>
@@ -8753,13 +8751,13 @@
         <v>800</v>
       </c>
       <c r="D205" s="16">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="E205" s="16">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F205" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G205" s="17">
         <v>6982</v>
@@ -8788,13 +8786,13 @@
         <v>900</v>
       </c>
       <c r="D206" s="16">
-        <v>584</v>
+        <v>611</v>
       </c>
       <c r="E206" s="16">
-        <v>561</v>
+        <v>587</v>
       </c>
       <c r="F206" s="16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G206" s="17">
         <v>23713</v>
@@ -8823,13 +8821,13 @@
         <v>800</v>
       </c>
       <c r="D207" s="16">
-        <v>1502</v>
+        <v>1541</v>
       </c>
       <c r="E207" s="16">
-        <v>1351</v>
+        <v>1380</v>
       </c>
       <c r="F207" s="16">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="G207" s="17">
         <v>51382</v>
@@ -8858,13 +8856,13 @@
         <v>200</v>
       </c>
       <c r="D208" s="16">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E208" s="16">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F208" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G208" s="17">
         <v>5108</v>
@@ -8893,10 +8891,10 @@
         <v>200</v>
       </c>
       <c r="D209" s="16">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E209" s="16">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F209" s="16">
         <v>22</v>
@@ -8928,13 +8926,13 @@
         <v>500</v>
       </c>
       <c r="D210" s="16">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="E210" s="16">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="F210" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G210" s="17">
         <v>12956</v>
@@ -8998,10 +8996,10 @@
         <v>1200</v>
       </c>
       <c r="D212" s="16">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E212" s="16">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F212" s="16">
         <v>4</v>
@@ -9033,10 +9031,10 @@
         <v>0</v>
       </c>
       <c r="D213" s="16">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E213" s="16">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F213" s="16">
         <v>1</v>
@@ -9068,13 +9066,13 @@
         <v>34500</v>
       </c>
       <c r="D214" s="16">
-        <v>13691</v>
+        <v>14840</v>
       </c>
       <c r="E214" s="16">
-        <v>11911</v>
+        <v>12727</v>
       </c>
       <c r="F214" s="16">
-        <v>1780</v>
+        <v>2113</v>
       </c>
       <c r="G214" s="17">
         <v>181426</v>
@@ -9103,10 +9101,10 @@
         <v>0</v>
       </c>
       <c r="D215" s="16">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E215" s="16">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F215" s="16">
         <v>13</v>
@@ -9138,13 +9136,13 @@
         <v>2300</v>
       </c>
       <c r="D216" s="16">
-        <v>1905</v>
+        <v>1924</v>
       </c>
       <c r="E216" s="16">
-        <v>1833</v>
+        <v>1851</v>
       </c>
       <c r="F216" s="16">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G216" s="17">
         <v>46042</v>
@@ -9173,10 +9171,10 @@
         <v>300</v>
       </c>
       <c r="D217" s="16">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E217" s="16">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F217" s="16">
         <v>8</v>
@@ -9208,10 +9206,10 @@
         <v>0</v>
       </c>
       <c r="D218" s="16">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E218" s="16">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F218" s="16">
         <v>1</v>
@@ -9278,10 +9276,10 @@
         <v>100</v>
       </c>
       <c r="D220" s="16">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="E220" s="16">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="F220" s="16">
         <v>17</v>
@@ -9313,10 +9311,10 @@
         <v>100</v>
       </c>
       <c r="D221" s="16">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="E221" s="16">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="F221" s="16">
         <v>5</v>
@@ -9348,13 +9346,13 @@
         <v>178725</v>
       </c>
       <c r="D222" s="16">
-        <v>61868</v>
+        <v>65142</v>
       </c>
       <c r="E222" s="16">
-        <v>56504</v>
+        <v>59542</v>
       </c>
       <c r="F222" s="16">
-        <v>5364</v>
+        <v>5600</v>
       </c>
       <c r="G222" s="17">
         <v>1596169</v>
@@ -9383,13 +9381,13 @@
         <v>11350</v>
       </c>
       <c r="D223" s="16">
-        <v>8864</v>
+        <v>9064</v>
       </c>
       <c r="E223" s="16">
-        <v>6214</v>
+        <v>6412</v>
       </c>
       <c r="F223" s="16">
-        <v>2650</v>
+        <v>2652</v>
       </c>
       <c r="G223" s="17">
         <v>108531</v>
@@ -9453,10 +9451,10 @@
         <v>1300</v>
       </c>
       <c r="D225" s="16">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="E225" s="16">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="F225" s="16">
         <v>20</v>
@@ -9488,10 +9486,10 @@
         <v>100</v>
       </c>
       <c r="D226" s="16">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E226" s="16">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F226" s="16">
         <v>0</v>
@@ -9523,13 +9521,13 @@
         <v>2200</v>
       </c>
       <c r="D227" s="16">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="E227" s="16">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="F227" s="16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G227" s="17">
         <v>25312</v>
@@ -9558,13 +9556,13 @@
         <v>9950</v>
       </c>
       <c r="D228" s="16">
-        <v>5426</v>
+        <v>8075</v>
       </c>
       <c r="E228" s="16">
-        <v>3757</v>
+        <v>6314</v>
       </c>
       <c r="F228" s="16">
-        <v>1669</v>
+        <v>1761</v>
       </c>
       <c r="G228" s="17">
         <v>93428</v>
@@ -9593,13 +9591,13 @@
         <v>109650</v>
       </c>
       <c r="D229" s="16">
-        <v>50825</v>
+        <v>57116</v>
       </c>
       <c r="E229" s="16">
-        <v>43014</v>
+        <v>49072</v>
       </c>
       <c r="F229" s="16">
-        <v>7811</v>
+        <v>8044</v>
       </c>
       <c r="G229" s="17">
         <v>1016090</v>
@@ -9628,10 +9626,10 @@
         <v>800</v>
       </c>
       <c r="D230" s="16">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="E230" s="16">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="F230" s="16">
         <v>2</v>
@@ -9663,10 +9661,10 @@
         <v>1200</v>
       </c>
       <c r="D231" s="16">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="E231" s="16">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="F231" s="16">
         <v>2</v>
@@ -9698,13 +9696,13 @@
         <v>400</v>
       </c>
       <c r="D232" s="16">
-        <v>1008</v>
+        <v>1044</v>
       </c>
       <c r="E232" s="16">
-        <v>841</v>
+        <v>870</v>
       </c>
       <c r="F232" s="16">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G232" s="17">
         <v>33211</v>
@@ -9733,13 +9731,13 @@
         <v>200</v>
       </c>
       <c r="D233" s="16">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E233" s="16">
         <v>153</v>
       </c>
       <c r="F233" s="16">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G233" s="17">
         <v>2790</v>
@@ -9768,10 +9766,10 @@
         <v>1600</v>
       </c>
       <c r="D234" s="16">
-        <v>983</v>
+        <v>1014</v>
       </c>
       <c r="E234" s="16">
-        <v>969</v>
+        <v>1000</v>
       </c>
       <c r="F234" s="16">
         <v>14</v>
@@ -9803,10 +9801,10 @@
         <v>2100</v>
       </c>
       <c r="D235" s="16">
-        <v>1233</v>
+        <v>1246</v>
       </c>
       <c r="E235" s="16">
-        <v>1221</v>
+        <v>1234</v>
       </c>
       <c r="F235" s="16">
         <v>12</v>
@@ -9838,13 +9836,13 @@
         <v>2000</v>
       </c>
       <c r="D236" s="16">
-        <v>1530</v>
+        <v>1640</v>
       </c>
       <c r="E236" s="16">
-        <v>1395</v>
+        <v>1496</v>
       </c>
       <c r="F236" s="16">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="G236" s="17">
         <v>45144</v>
@@ -9873,10 +9871,10 @@
         <v>6550</v>
       </c>
       <c r="D237" s="16">
-        <v>4412</v>
+        <v>4450</v>
       </c>
       <c r="E237" s="16">
-        <v>3646</v>
+        <v>3684</v>
       </c>
       <c r="F237" s="16">
         <v>766</v>
@@ -9908,13 +9906,13 @@
         <v>3000</v>
       </c>
       <c r="D238" s="16">
-        <v>1521</v>
+        <v>1584</v>
       </c>
       <c r="E238" s="16">
-        <v>1491</v>
+        <v>1553</v>
       </c>
       <c r="F238" s="16">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G238" s="17">
         <v>64302</v>
@@ -9943,13 +9941,13 @@
         <v>1600</v>
       </c>
       <c r="D239" s="16">
-        <v>800</v>
+        <v>842</v>
       </c>
       <c r="E239" s="16">
-        <v>736</v>
+        <v>773</v>
       </c>
       <c r="F239" s="16">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G239" s="17">
         <v>44163</v>
@@ -9978,13 +9976,13 @@
         <v>400</v>
       </c>
       <c r="D240" s="16">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E240" s="16">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F240" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G240" s="17">
         <v>8544</v>
@@ -10013,13 +10011,13 @@
         <v>1900</v>
       </c>
       <c r="D241" s="16">
-        <v>1094</v>
+        <v>1153</v>
       </c>
       <c r="E241" s="16">
-        <v>1045</v>
+        <v>1097</v>
       </c>
       <c r="F241" s="16">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G241" s="17">
         <v>28737</v>
@@ -10048,10 +10046,10 @@
         <v>26800</v>
       </c>
       <c r="D242" s="16">
-        <v>9923</v>
+        <v>10124</v>
       </c>
       <c r="E242" s="16">
-        <v>9438</v>
+        <v>9639</v>
       </c>
       <c r="F242" s="16">
         <v>485</v>
@@ -10083,13 +10081,13 @@
         <v>1300</v>
       </c>
       <c r="D243" s="16">
-        <v>633</v>
+        <v>656</v>
       </c>
       <c r="E243" s="16">
-        <v>604</v>
+        <v>625</v>
       </c>
       <c r="F243" s="16">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G243" s="17">
         <v>31964</v>
@@ -10118,10 +10116,10 @@
         <v>400</v>
       </c>
       <c r="D244" s="16">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="E244" s="16">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="F244" s="16">
         <v>0</v>
@@ -10153,13 +10151,13 @@
         <v>14950</v>
       </c>
       <c r="D245" s="16">
-        <v>7616</v>
+        <v>8669</v>
       </c>
       <c r="E245" s="16">
-        <v>6253</v>
+        <v>7285</v>
       </c>
       <c r="F245" s="16">
-        <v>1363</v>
+        <v>1384</v>
       </c>
       <c r="G245" s="17">
         <v>106550</v>
@@ -10188,10 +10186,10 @@
         <v>2800</v>
       </c>
       <c r="D246" s="16">
-        <v>1149</v>
+        <v>1154</v>
       </c>
       <c r="E246" s="16">
-        <v>1095</v>
+        <v>1100</v>
       </c>
       <c r="F246" s="16">
         <v>54</v>
@@ -10223,13 +10221,13 @@
         <v>100</v>
       </c>
       <c r="D247" s="16">
-        <v>544</v>
+        <v>627</v>
       </c>
       <c r="E247" s="16">
-        <v>487</v>
+        <v>569</v>
       </c>
       <c r="F247" s="16">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G247" s="17">
         <v>16823</v>
@@ -10258,13 +10256,13 @@
         <v>27575</v>
       </c>
       <c r="D248" s="16">
-        <v>20269</v>
+        <v>22402</v>
       </c>
       <c r="E248" s="16">
-        <v>17775</v>
+        <v>19802</v>
       </c>
       <c r="F248" s="16">
-        <v>2494</v>
+        <v>2600</v>
       </c>
       <c r="G248" s="17">
         <v>457170</v>
@@ -10293,13 +10291,13 @@
         <v>2700</v>
       </c>
       <c r="D249" s="16">
-        <v>2246</v>
+        <v>2281</v>
       </c>
       <c r="E249" s="16">
-        <v>2102</v>
+        <v>2136</v>
       </c>
       <c r="F249" s="16">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G249" s="17">
         <v>42030</v>
@@ -10328,10 +10326,10 @@
         <v>200</v>
       </c>
       <c r="D250" s="16">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E250" s="16">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F250" s="16">
         <v>2</v>
@@ -10363,13 +10361,13 @@
         <v>4350</v>
       </c>
       <c r="D251" s="16">
-        <v>3933</v>
+        <v>3978</v>
       </c>
       <c r="E251" s="16">
-        <v>3141</v>
+        <v>3180</v>
       </c>
       <c r="F251" s="16">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="G251" s="17">
         <v>55570</v>
@@ -10398,13 +10396,13 @@
         <v>1500</v>
       </c>
       <c r="D252" s="16">
-        <v>1458</v>
+        <v>1545</v>
       </c>
       <c r="E252" s="16">
-        <v>1374</v>
+        <v>1453</v>
       </c>
       <c r="F252" s="16">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G252" s="17">
         <v>37205</v>
@@ -10433,10 +10431,10 @@
         <v>300</v>
       </c>
       <c r="D253" s="16">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E253" s="16">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F253" s="16">
         <v>7</v>
@@ -10468,10 +10466,10 @@
         <v>1700</v>
       </c>
       <c r="D254" s="16">
-        <v>593</v>
+        <v>655</v>
       </c>
       <c r="E254" s="16">
-        <v>588</v>
+        <v>650</v>
       </c>
       <c r="F254" s="16">
         <v>5</v>
@@ -10503,10 +10501,10 @@
         <v>200</v>
       </c>
       <c r="D255" s="16">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E255" s="16">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F255" s="16">
         <v>3</v>
@@ -10538,10 +10536,10 @@
         <v>100</v>
       </c>
       <c r="D256" s="16">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="E256" s="16">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="F256" s="16">
         <v>1</v>
@@ -10573,32 +10571,19 @@
         <v>0</v>
       </c>
       <c r="D257" s="16">
-        <v>114849</v>
+        <v>126245</v>
       </c>
       <c r="E257" s="16">
-        <v>99784</v>
+        <v>110846</v>
       </c>
       <c r="F257" s="16">
-        <v>15065</v>
+        <v>15399</v>
       </c>
       <c r="G257" s="17"/>
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
       <c r="J257" s="17"/>
       <c r="K257" s="17"/>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A258" s="19"/>
-      <c r="B258" s="20"/>
-      <c r="C258" s="16"/>
-      <c r="D258" s="16"/>
-      <c r="E258" s="16"/>
-      <c r="F258" s="16"/>
-      <c r="G258" s="17"/>
-      <c r="H258" s="17"/>
-      <c r="I258" s="17"/>
-      <c r="J258" s="17"/>
-      <c r="K258" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10610,15 +10595,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.796875" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" customWidth="1"/>
     <col min="3" max="3" width="18" style="13" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="37.73046875" style="13" customWidth="1"/>
     <col min="5" max="5" width="22.19921875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10647,13 +10630,13 @@
         <v>286</v>
       </c>
       <c r="C2" s="16">
-        <v>356320</v>
+        <v>371613</v>
       </c>
       <c r="D2" s="16">
-        <v>286500</v>
+        <v>299640</v>
       </c>
       <c r="E2" s="16">
-        <v>69820</v>
+        <v>71973</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -10662,13 +10645,13 @@
         <v>287</v>
       </c>
       <c r="C3" s="16">
-        <v>182615</v>
+        <v>192732</v>
       </c>
       <c r="D3" s="16">
-        <v>154581</v>
+        <v>163757</v>
       </c>
       <c r="E3" s="16">
-        <v>28034</v>
+        <v>28975</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -10677,13 +10660,13 @@
         <v>288</v>
       </c>
       <c r="C4" s="16">
-        <v>139270</v>
+        <v>152388</v>
       </c>
       <c r="D4" s="16">
-        <v>134438</v>
+        <v>147301</v>
       </c>
       <c r="E4" s="16">
-        <v>4832</v>
+        <v>5087</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -10692,13 +10675,13 @@
         <v>289</v>
       </c>
       <c r="C5" s="16">
-        <v>50379</v>
+        <v>59091</v>
       </c>
       <c r="D5" s="16">
-        <v>50178</v>
+        <v>58833</v>
       </c>
       <c r="E5" s="16">
-        <v>201</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -10707,10 +10690,10 @@
         <v>290</v>
       </c>
       <c r="C6" s="16">
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="D6" s="16">
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="E6" s="16">
         <v>26</v>
@@ -10722,13 +10705,13 @@
         <v>291</v>
       </c>
       <c r="C7" s="16">
-        <v>729238</v>
+        <v>776493</v>
       </c>
       <c r="D7" s="16">
-        <v>626325</v>
+        <v>670174</v>
       </c>
       <c r="E7" s="16">
-        <v>102913</v>
+        <v>106319</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -10739,13 +10722,13 @@
         <v>286</v>
       </c>
       <c r="C8" s="16">
-        <v>192713</v>
+        <v>200219</v>
       </c>
       <c r="D8" s="16">
-        <v>155590</v>
+        <v>162128</v>
       </c>
       <c r="E8" s="16">
-        <v>37123</v>
+        <v>38091</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -10754,13 +10737,13 @@
         <v>287</v>
       </c>
       <c r="C9" s="16">
-        <v>112522</v>
+        <v>118897</v>
       </c>
       <c r="D9" s="16">
-        <v>96031</v>
+        <v>101935</v>
       </c>
       <c r="E9" s="16">
-        <v>16491</v>
+        <v>16962</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -10769,13 +10752,13 @@
         <v>288</v>
       </c>
       <c r="C10" s="16">
-        <v>117013</v>
+        <v>127317</v>
       </c>
       <c r="D10" s="16">
-        <v>112285</v>
+        <v>122402</v>
       </c>
       <c r="E10" s="16">
-        <v>4728</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -10784,13 +10767,13 @@
         <v>289</v>
       </c>
       <c r="C11" s="16">
-        <v>34587</v>
+        <v>39035</v>
       </c>
       <c r="D11" s="16">
-        <v>34299</v>
+        <v>38719</v>
       </c>
       <c r="E11" s="16">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -10799,13 +10782,13 @@
         <v>290</v>
       </c>
       <c r="C12" s="16">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="D12" s="16">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="E12" s="16">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -10814,13 +10797,13 @@
         <v>291</v>
       </c>
       <c r="C13" s="16">
-        <v>457264</v>
+        <v>485908</v>
       </c>
       <c r="D13" s="16">
-        <v>398623</v>
+        <v>425612</v>
       </c>
       <c r="E13" s="16">
-        <v>58641</v>
+        <v>60296</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -10831,13 +10814,13 @@
         <v>286</v>
       </c>
       <c r="C14" s="16">
-        <v>3775</v>
+        <v>3836</v>
       </c>
       <c r="D14" s="16">
-        <v>3580</v>
+        <v>3636</v>
       </c>
       <c r="E14" s="16">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -10846,13 +10829,13 @@
         <v>287</v>
       </c>
       <c r="C15" s="16">
-        <v>2151</v>
+        <v>2179</v>
       </c>
       <c r="D15" s="16">
-        <v>2056</v>
+        <v>2082</v>
       </c>
       <c r="E15" s="16">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -10861,13 +10844,13 @@
         <v>288</v>
       </c>
       <c r="C16" s="16">
-        <v>7087</v>
+        <v>7148</v>
       </c>
       <c r="D16" s="16">
-        <v>7066</v>
+        <v>7126</v>
       </c>
       <c r="E16" s="16">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -10876,10 +10859,10 @@
         <v>289</v>
       </c>
       <c r="C17" s="16">
-        <v>1231</v>
+        <v>1235</v>
       </c>
       <c r="D17" s="16">
-        <v>1231</v>
+        <v>1235</v>
       </c>
       <c r="E17" s="16">
         <v>0</v>
@@ -10906,13 +10889,13 @@
         <v>291</v>
       </c>
       <c r="C19" s="16">
-        <v>14253</v>
+        <v>14407</v>
       </c>
       <c r="D19" s="16">
-        <v>13942</v>
+        <v>14088</v>
       </c>
       <c r="E19" s="16">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -10921,13 +10904,13 @@
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="16">
-        <v>1200755</v>
+        <v>1276808</v>
       </c>
       <c r="D20" s="16">
-        <v>1038890</v>
+        <v>1109874</v>
       </c>
       <c r="E20" s="16">
-        <v>161865</v>
+        <v>166934</v>
       </c>
     </row>
   </sheetData>

--- a/Services/StateOfTexas/Data/COVID-19 Vaccine Data by County.xlsx
+++ b/Services/StateOfTexas/Data/COVID-19 Vaccine Data by County.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="308">
   <si>
     <t>County Name</t>
   </si>
@@ -1713,15 +1713,15 @@
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:K2" si="0">SUM(D4:D258)</f>
-        <v>1426859</v>
+        <v>1500288</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>1241950</v>
+        <v>1297260</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>184909</v>
+        <v>203028</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
@@ -1790,13 +1790,13 @@
         <v>4700</v>
       </c>
       <c r="D4" s="29">
-        <v>1653</v>
+        <v>1763</v>
       </c>
       <c r="E4" s="29">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F4" s="29">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G4" s="30">
         <v>49346</v>
@@ -1825,13 +1825,13 @@
         <v>1100</v>
       </c>
       <c r="D5" s="29">
-        <v>729</v>
+        <v>891</v>
       </c>
       <c r="E5" s="29">
-        <v>683</v>
+        <v>793</v>
       </c>
       <c r="F5" s="29">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="G5" s="30">
         <v>13954</v>
@@ -1860,13 +1860,13 @@
         <v>11200</v>
       </c>
       <c r="D6" s="29">
-        <v>4827</v>
+        <v>5077</v>
       </c>
       <c r="E6" s="29">
-        <v>4744</v>
+        <v>4806</v>
       </c>
       <c r="F6" s="29">
-        <v>83</v>
+        <v>271</v>
       </c>
       <c r="G6" s="30">
         <v>70388</v>
@@ -1895,13 +1895,13 @@
         <v>600</v>
       </c>
       <c r="D7" s="29">
-        <v>629</v>
+        <v>800</v>
       </c>
       <c r="E7" s="29">
-        <v>586</v>
+        <v>741</v>
       </c>
       <c r="F7" s="29">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G7" s="30">
         <v>19727</v>
@@ -1930,13 +1930,13 @@
         <v>400</v>
       </c>
       <c r="D8" s="29">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="E8" s="29">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="F8" s="29">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G8" s="30">
         <v>7533</v>
@@ -1965,13 +1965,13 @@
         <v>200</v>
       </c>
       <c r="D9" s="29">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E9" s="29">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="F9" s="29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G9" s="30">
         <v>1693</v>
@@ -2000,13 +2000,13 @@
         <v>2900</v>
       </c>
       <c r="D10" s="29">
-        <v>1549</v>
+        <v>1618</v>
       </c>
       <c r="E10" s="29">
-        <v>1381</v>
+        <v>1427</v>
       </c>
       <c r="F10" s="29">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="G10" s="30">
         <v>39065</v>
@@ -2035,13 +2035,13 @@
         <v>1400</v>
       </c>
       <c r="D11" s="29">
-        <v>1271</v>
+        <v>1332</v>
       </c>
       <c r="E11" s="29">
-        <v>1229</v>
+        <v>1288</v>
       </c>
       <c r="F11" s="29">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G11" s="30">
         <v>25584</v>
@@ -2070,13 +2070,13 @@
         <v>1475</v>
       </c>
       <c r="D12" s="29">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E12" s="29">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F12" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" s="30">
         <v>5190</v>
@@ -2105,13 +2105,13 @@
         <v>200</v>
       </c>
       <c r="D13" s="29">
-        <v>1008</v>
+        <v>1083</v>
       </c>
       <c r="E13" s="29">
-        <v>964</v>
+        <v>1027</v>
       </c>
       <c r="F13" s="29">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G13" s="30">
         <v>19833</v>
@@ -2140,13 +2140,13 @@
         <v>3200</v>
       </c>
       <c r="D14" s="29">
-        <v>2130</v>
+        <v>2232</v>
       </c>
       <c r="E14" s="29">
-        <v>1946</v>
+        <v>2032</v>
       </c>
       <c r="F14" s="29">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="G14" s="30">
         <v>70499</v>
@@ -2175,13 +2175,13 @@
         <v>1575</v>
       </c>
       <c r="D15" s="29">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E15" s="29">
         <v>426</v>
       </c>
       <c r="F15" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G15" s="30">
         <v>3002</v>
@@ -2210,13 +2210,13 @@
         <v>4625</v>
       </c>
       <c r="D16" s="29">
-        <v>1022</v>
+        <v>1977</v>
       </c>
       <c r="E16" s="29">
-        <v>935</v>
+        <v>1871</v>
       </c>
       <c r="F16" s="29">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="G16" s="30">
         <v>26904</v>
@@ -2245,13 +2245,13 @@
         <v>27300</v>
       </c>
       <c r="D17" s="29">
-        <v>13888</v>
+        <v>14983</v>
       </c>
       <c r="E17" s="29">
-        <v>11716</v>
+        <v>12576</v>
       </c>
       <c r="F17" s="29">
-        <v>2172</v>
+        <v>2407</v>
       </c>
       <c r="G17" s="30">
         <v>265191</v>
@@ -2280,13 +2280,13 @@
         <v>235400</v>
       </c>
       <c r="D18" s="29">
-        <v>106400</v>
+        <v>112954</v>
       </c>
       <c r="E18" s="29">
-        <v>86536</v>
+        <v>91015</v>
       </c>
       <c r="F18" s="29">
-        <v>19864</v>
+        <v>21939</v>
       </c>
       <c r="G18" s="30">
         <v>1541803</v>
@@ -2315,13 +2315,13 @@
         <v>300</v>
       </c>
       <c r="D19" s="29">
-        <v>1011</v>
+        <v>1033</v>
       </c>
       <c r="E19" s="29">
-        <v>986</v>
+        <v>1002</v>
       </c>
       <c r="F19" s="29">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G19" s="30">
         <v>10177</v>
@@ -2350,10 +2350,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="29">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E20" s="29">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F20" s="29">
         <v>0</v>
@@ -2385,13 +2385,13 @@
         <v>1900</v>
       </c>
       <c r="D21" s="29">
-        <v>667</v>
+        <v>714</v>
       </c>
       <c r="E21" s="29">
-        <v>647</v>
+        <v>689</v>
       </c>
       <c r="F21" s="29">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G21" s="30">
         <v>15491</v>
@@ -2420,13 +2420,13 @@
         <v>8850</v>
       </c>
       <c r="D22" s="29">
-        <v>3307</v>
+        <v>3320</v>
       </c>
       <c r="E22" s="29">
-        <v>2697</v>
+        <v>2703</v>
       </c>
       <c r="F22" s="29">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="G22" s="30">
         <v>78179</v>
@@ -2455,13 +2455,13 @@
         <v>14600</v>
       </c>
       <c r="D23" s="29">
-        <v>17947</v>
+        <v>18749</v>
       </c>
       <c r="E23" s="29">
-        <v>14665</v>
+        <v>15303</v>
       </c>
       <c r="F23" s="29">
-        <v>3282</v>
+        <v>3446</v>
       </c>
       <c r="G23" s="30">
         <v>295635</v>
@@ -2490,13 +2490,13 @@
         <v>16125</v>
       </c>
       <c r="D24" s="29">
-        <v>6634</v>
+        <v>6777</v>
       </c>
       <c r="E24" s="29">
-        <v>6103</v>
+        <v>6180</v>
       </c>
       <c r="F24" s="29">
-        <v>531</v>
+        <v>597</v>
       </c>
       <c r="G24" s="30">
         <v>185835</v>
@@ -2525,13 +2525,13 @@
         <v>1000</v>
       </c>
       <c r="D25" s="29">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="E25" s="29">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="F25" s="29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" s="30">
         <v>7291</v>
@@ -2560,10 +2560,10 @@
         <v>100</v>
       </c>
       <c r="D26" s="29">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E26" s="29">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F26" s="29">
         <v>1</v>
@@ -2595,10 +2595,10 @@
         <v>600</v>
       </c>
       <c r="D27" s="29">
-        <v>185</v>
+        <v>274</v>
       </c>
       <c r="E27" s="29">
-        <v>183</v>
+        <v>272</v>
       </c>
       <c r="F27" s="29">
         <v>2</v>
@@ -2630,13 +2630,13 @@
         <v>1600</v>
       </c>
       <c r="D28" s="29">
-        <v>971</v>
+        <v>1196</v>
       </c>
       <c r="E28" s="29">
-        <v>946</v>
+        <v>960</v>
       </c>
       <c r="F28" s="29">
-        <v>25</v>
+        <v>236</v>
       </c>
       <c r="G28" s="30">
         <v>31586</v>
@@ -2665,13 +2665,13 @@
         <v>600</v>
       </c>
       <c r="D29" s="29">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="E29" s="29">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="F29" s="29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G29" s="30">
         <v>14721</v>
@@ -2700,13 +2700,13 @@
         <v>2800</v>
       </c>
       <c r="D30" s="29">
-        <v>1373</v>
+        <v>1451</v>
       </c>
       <c r="E30" s="29">
-        <v>1204</v>
+        <v>1256</v>
       </c>
       <c r="F30" s="29">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="G30" s="30">
         <v>39423</v>
@@ -2735,13 +2735,13 @@
         <v>1200</v>
       </c>
       <c r="D31" s="29">
-        <v>1044</v>
+        <v>1209</v>
       </c>
       <c r="E31" s="29">
-        <v>967</v>
+        <v>1121</v>
       </c>
       <c r="F31" s="29">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G31" s="30">
         <v>33813</v>
@@ -2770,13 +2770,13 @@
         <v>1000</v>
       </c>
       <c r="D32" s="29">
-        <v>904</v>
+        <v>988</v>
       </c>
       <c r="E32" s="29">
-        <v>851</v>
+        <v>897</v>
       </c>
       <c r="F32" s="29">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="G32" s="30">
         <v>17169</v>
@@ -2805,13 +2805,13 @@
         <v>700</v>
       </c>
       <c r="D33" s="29">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E33" s="29">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F33" s="29">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G33" s="30">
         <v>11666</v>
@@ -2840,13 +2840,13 @@
         <v>39850</v>
       </c>
       <c r="D34" s="29">
-        <v>26661</v>
+        <v>27355</v>
       </c>
       <c r="E34" s="29">
-        <v>22743</v>
+        <v>23058</v>
       </c>
       <c r="F34" s="29">
-        <v>3918</v>
+        <v>4297</v>
       </c>
       <c r="G34" s="30">
         <v>315242</v>
@@ -2875,13 +2875,13 @@
         <v>100</v>
       </c>
       <c r="D35" s="29">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="E35" s="29">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="F35" s="29">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G35" s="30">
         <v>10054</v>
@@ -2910,13 +2910,13 @@
         <v>200</v>
       </c>
       <c r="D36" s="29">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E36" s="29">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="F36" s="29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G36" s="30">
         <v>4769</v>
@@ -2945,13 +2945,13 @@
         <v>300</v>
       </c>
       <c r="D37" s="29">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E37" s="29">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F37" s="29">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G37" s="30">
         <v>24447</v>
@@ -2980,13 +2980,13 @@
         <v>700</v>
       </c>
       <c r="D38" s="29">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="E38" s="29">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="F38" s="29">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="G38" s="30">
         <v>5574</v>
@@ -3015,13 +3015,13 @@
         <v>4200</v>
       </c>
       <c r="D39" s="29">
-        <v>1582</v>
+        <v>1677</v>
       </c>
       <c r="E39" s="29">
-        <v>1443</v>
+        <v>1528</v>
       </c>
       <c r="F39" s="29">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G39" s="30">
         <v>34171</v>
@@ -3050,13 +3050,13 @@
         <v>4200</v>
       </c>
       <c r="D40" s="29">
-        <v>1918</v>
+        <v>2084</v>
       </c>
       <c r="E40" s="29">
-        <v>1853</v>
+        <v>2011</v>
       </c>
       <c r="F40" s="29">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G40" s="30">
         <v>41571</v>
@@ -3085,10 +3085,10 @@
         <v>900</v>
       </c>
       <c r="D41" s="29">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E41" s="29">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F41" s="29">
         <v>5</v>
@@ -3120,13 +3120,13 @@
         <v>1275</v>
       </c>
       <c r="D42" s="29">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="E42" s="29">
         <v>498</v>
       </c>
       <c r="F42" s="29">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G42" s="30">
         <v>8544</v>
@@ -3155,10 +3155,10 @@
         <v>100</v>
       </c>
       <c r="D43" s="29">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="E43" s="29">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="F43" s="29">
         <v>60</v>
@@ -3190,10 +3190,10 @@
         <v>0</v>
       </c>
       <c r="D44" s="29">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E44" s="29">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F44" s="29">
         <v>12</v>
@@ -3225,13 +3225,13 @@
         <v>600</v>
       </c>
       <c r="D45" s="29">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="E45" s="29">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="F45" s="29">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G45" s="30">
         <v>6555</v>
@@ -3260,13 +3260,13 @@
         <v>47375</v>
       </c>
       <c r="D46" s="29">
-        <v>36739</v>
+        <v>39074</v>
       </c>
       <c r="E46" s="29">
-        <v>32180</v>
+        <v>33832</v>
       </c>
       <c r="F46" s="29">
-        <v>4559</v>
+        <v>5242</v>
       </c>
       <c r="G46" s="30">
         <v>806242</v>
@@ -3295,13 +3295,13 @@
         <v>300</v>
       </c>
       <c r="D47" s="29">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="E47" s="29">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F47" s="29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G47" s="30">
         <v>2177</v>
@@ -3330,13 +3330,13 @@
         <v>600</v>
       </c>
       <c r="D48" s="29">
-        <v>684</v>
+        <v>701</v>
       </c>
       <c r="E48" s="29">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="F48" s="29">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G48" s="30">
         <v>17682</v>
@@ -3365,13 +3365,13 @@
         <v>9200</v>
       </c>
       <c r="D49" s="29">
-        <v>5494</v>
+        <v>5811</v>
       </c>
       <c r="E49" s="29">
-        <v>4792</v>
+        <v>4969</v>
       </c>
       <c r="F49" s="29">
-        <v>702</v>
+        <v>842</v>
       </c>
       <c r="G49" s="30">
         <v>125758</v>
@@ -3400,13 +3400,13 @@
         <v>1475</v>
       </c>
       <c r="D50" s="29">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="E50" s="29">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="F50" s="29">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G50" s="30">
         <v>11046</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="D51" s="29">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E51" s="29">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F51" s="29">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G51" s="30">
         <v>2381</v>
@@ -3470,13 +3470,13 @@
         <v>1500</v>
       </c>
       <c r="D52" s="29">
-        <v>1308</v>
+        <v>1324</v>
       </c>
       <c r="E52" s="29">
-        <v>1261</v>
+        <v>1272</v>
       </c>
       <c r="F52" s="29">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G52" s="30">
         <v>32501</v>
@@ -3505,13 +3505,13 @@
         <v>2575</v>
       </c>
       <c r="D53" s="29">
-        <v>1391</v>
+        <v>1484</v>
       </c>
       <c r="E53" s="29">
-        <v>1295</v>
+        <v>1366</v>
       </c>
       <c r="F53" s="29">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="G53" s="30">
         <v>58277</v>
@@ -3540,10 +3540,10 @@
         <v>0</v>
       </c>
       <c r="D54" s="29">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E54" s="29">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F54" s="29">
         <v>0</v>
@@ -3575,13 +3575,13 @@
         <v>1175</v>
       </c>
       <c r="D55" s="29">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E55" s="29">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F55" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G55" s="30">
         <v>3483</v>
@@ -3610,10 +3610,10 @@
         <v>0</v>
       </c>
       <c r="D56" s="29">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="E56" s="29">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="F56" s="29">
         <v>7</v>
@@ -3645,10 +3645,10 @@
         <v>1175</v>
       </c>
       <c r="D57" s="29">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="E57" s="29">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="F57" s="29">
         <v>17</v>
@@ -3680,10 +3680,10 @@
         <v>400</v>
       </c>
       <c r="D58" s="29">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E58" s="29">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F58" s="29">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>300</v>
       </c>
       <c r="D59" s="29">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E59" s="29">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F59" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" s="30">
         <v>5092</v>
@@ -3750,13 +3750,13 @@
         <v>236700</v>
       </c>
       <c r="D60" s="29">
-        <v>106741</v>
+        <v>111361</v>
       </c>
       <c r="E60" s="29">
-        <v>91594</v>
+        <v>95316</v>
       </c>
       <c r="F60" s="29">
-        <v>15147</v>
+        <v>16045</v>
       </c>
       <c r="G60" s="30">
         <v>2015538</v>
@@ -3785,13 +3785,13 @@
         <v>500</v>
       </c>
       <c r="D61" s="29">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="E61" s="29">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="F61" s="29">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G61" s="30">
         <v>9997</v>
@@ -3820,13 +3820,13 @@
         <v>1100</v>
       </c>
       <c r="D62" s="29">
-        <v>827</v>
+        <v>865</v>
       </c>
       <c r="E62" s="29">
-        <v>813</v>
+        <v>845</v>
       </c>
       <c r="F62" s="29">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G62" s="30">
         <v>14288</v>
@@ -3855,13 +3855,13 @@
         <v>0</v>
       </c>
       <c r="D63" s="29">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="E63" s="29">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F63" s="29">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G63" s="30">
         <v>4312</v>
@@ -3890,13 +3890,13 @@
         <v>39875</v>
       </c>
       <c r="D64" s="29">
-        <v>22259</v>
+        <v>23359</v>
       </c>
       <c r="E64" s="29">
-        <v>19744</v>
+        <v>20598</v>
       </c>
       <c r="F64" s="29">
-        <v>2515</v>
+        <v>2761</v>
       </c>
       <c r="G64" s="30">
         <v>702429</v>
@@ -3925,13 +3925,13 @@
         <v>700</v>
       </c>
       <c r="D65" s="29">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="E65" s="29">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="F65" s="29">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G65" s="30">
         <v>16610</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="D66" s="29">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E66" s="29">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F66" s="29">
         <v>1</v>
@@ -3995,10 +3995,10 @@
         <v>1475</v>
       </c>
       <c r="D67" s="29">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="E67" s="29">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="F67" s="29">
         <v>2</v>
@@ -4030,10 +4030,10 @@
         <v>100</v>
       </c>
       <c r="D68" s="29">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E68" s="29">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="F68" s="29">
         <v>2</v>
@@ -4065,13 +4065,13 @@
         <v>300</v>
       </c>
       <c r="D69" s="29">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="E69" s="29">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="F69" s="29">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G69" s="30">
         <v>8359</v>
@@ -4100,13 +4100,13 @@
         <v>600</v>
       </c>
       <c r="D70" s="29">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="E70" s="29">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F70" s="29">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G70" s="30">
         <v>14718</v>
@@ -4135,13 +4135,13 @@
         <v>15200</v>
       </c>
       <c r="D71" s="29">
-        <v>5780</v>
+        <v>5830</v>
       </c>
       <c r="E71" s="29">
-        <v>5375</v>
+        <v>5409</v>
       </c>
       <c r="F71" s="29">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="G71" s="30">
         <v>123303</v>
@@ -4170,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="D72" s="29">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E72" s="29">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F72" s="29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G72" s="30">
         <v>1605</v>
@@ -4205,13 +4205,13 @@
         <v>91975</v>
       </c>
       <c r="D73" s="29">
-        <v>63330</v>
+        <v>66386</v>
       </c>
       <c r="E73" s="29">
-        <v>54614</v>
+        <v>56994</v>
       </c>
       <c r="F73" s="29">
-        <v>8716</v>
+        <v>9392</v>
       </c>
       <c r="G73" s="30">
         <v>640715</v>
@@ -4240,13 +4240,13 @@
         <v>4600</v>
       </c>
       <c r="D74" s="29">
-        <v>6127</v>
+        <v>6420</v>
       </c>
       <c r="E74" s="29">
-        <v>5382</v>
+        <v>5613</v>
       </c>
       <c r="F74" s="29">
-        <v>745</v>
+        <v>807</v>
       </c>
       <c r="G74" s="30">
         <v>146536</v>
@@ -4275,13 +4275,13 @@
         <v>700</v>
       </c>
       <c r="D75" s="29">
-        <v>1093</v>
+        <v>1123</v>
       </c>
       <c r="E75" s="29">
-        <v>1020</v>
+        <v>1042</v>
       </c>
       <c r="F75" s="29">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G75" s="30">
         <v>34869</v>
@@ -4310,13 +4310,13 @@
         <v>1575</v>
       </c>
       <c r="D76" s="29">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="E76" s="29">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="F76" s="29">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G76" s="30">
         <v>14306</v>
@@ -4345,13 +4345,13 @@
         <v>3275</v>
       </c>
       <c r="D77" s="29">
-        <v>1617</v>
+        <v>1662</v>
       </c>
       <c r="E77" s="29">
-        <v>1519</v>
+        <v>1540</v>
       </c>
       <c r="F77" s="29">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="G77" s="30">
         <v>29681</v>
@@ -4380,13 +4380,13 @@
         <v>1200</v>
       </c>
       <c r="D78" s="29">
-        <v>862</v>
+        <v>885</v>
       </c>
       <c r="E78" s="29">
-        <v>835</v>
+        <v>851</v>
       </c>
       <c r="F78" s="29">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G78" s="30">
         <v>21209</v>
@@ -4415,13 +4415,13 @@
         <v>200</v>
       </c>
       <c r="D79" s="29">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E79" s="29">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F79" s="29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G79" s="30">
         <v>3139</v>
@@ -4450,13 +4450,13 @@
         <v>200</v>
       </c>
       <c r="D80" s="29">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="E80" s="29">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="F80" s="29">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G80" s="30">
         <v>4283</v>
@@ -4485,13 +4485,13 @@
         <v>100</v>
       </c>
       <c r="D81" s="29">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E81" s="29">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F81" s="29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G81" s="30">
         <v>937</v>
@@ -4520,13 +4520,13 @@
         <v>40950</v>
       </c>
       <c r="D82" s="29">
-        <v>39007</v>
+        <v>40819</v>
       </c>
       <c r="E82" s="29">
-        <v>33083</v>
+        <v>34436</v>
       </c>
       <c r="F82" s="29">
-        <v>5924</v>
+        <v>6383</v>
       </c>
       <c r="G82" s="30">
         <v>626861</v>
@@ -4555,13 +4555,13 @@
         <v>400</v>
       </c>
       <c r="D83" s="29">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="E83" s="29">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="F83" s="29">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G83" s="30">
         <v>8327</v>
@@ -4590,10 +4590,10 @@
         <v>1100</v>
       </c>
       <c r="D84" s="29">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="E84" s="29">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="F84" s="29">
         <v>4</v>
@@ -4625,13 +4625,13 @@
         <v>2475</v>
       </c>
       <c r="D85" s="29">
-        <v>816</v>
+        <v>860</v>
       </c>
       <c r="E85" s="29">
-        <v>804</v>
+        <v>833</v>
       </c>
       <c r="F85" s="29">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G85" s="30">
         <v>15133</v>
@@ -4660,13 +4660,13 @@
         <v>1100</v>
       </c>
       <c r="D86" s="29">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="E86" s="29">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F86" s="29">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G86" s="30">
         <v>14875</v>
@@ -4695,13 +4695,13 @@
         <v>28050</v>
       </c>
       <c r="D87" s="29">
-        <v>22087</v>
+        <v>22560</v>
       </c>
       <c r="E87" s="29">
-        <v>18532</v>
+        <v>18912</v>
       </c>
       <c r="F87" s="29">
-        <v>3555</v>
+        <v>3648</v>
       </c>
       <c r="G87" s="30">
         <v>267032</v>
@@ -4730,10 +4730,10 @@
         <v>0</v>
       </c>
       <c r="D88" s="29">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E88" s="29">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F88" s="29">
         <v>11</v>
@@ -4765,13 +4765,13 @@
         <v>3100</v>
       </c>
       <c r="D89" s="29">
-        <v>1114</v>
+        <v>1122</v>
       </c>
       <c r="E89" s="29">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="F89" s="29">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G89" s="30">
         <v>22728</v>
@@ -4835,13 +4835,13 @@
         <v>100</v>
       </c>
       <c r="D91" s="29">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="E91" s="29">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="F91" s="29">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G91" s="30">
         <v>6615</v>
@@ -4870,13 +4870,13 @@
         <v>1200</v>
       </c>
       <c r="D92" s="29">
-        <v>890</v>
+        <v>928</v>
       </c>
       <c r="E92" s="29">
-        <v>874</v>
+        <v>892</v>
       </c>
       <c r="F92" s="29">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G92" s="30">
         <v>15931</v>
@@ -4905,10 +4905,10 @@
         <v>1300</v>
       </c>
       <c r="D93" s="29">
-        <v>986</v>
+        <v>1023</v>
       </c>
       <c r="E93" s="29">
-        <v>977</v>
+        <v>1014</v>
       </c>
       <c r="F93" s="29">
         <v>9</v>
@@ -4940,13 +4940,13 @@
         <v>19900</v>
       </c>
       <c r="D94" s="29">
-        <v>6452</v>
+        <v>6749</v>
       </c>
       <c r="E94" s="29">
-        <v>5898</v>
+        <v>6028</v>
       </c>
       <c r="F94" s="29">
-        <v>554</v>
+        <v>721</v>
       </c>
       <c r="G94" s="30">
         <v>107568</v>
@@ -4975,13 +4975,13 @@
         <v>11925</v>
       </c>
       <c r="D95" s="29">
-        <v>5740</v>
+        <v>6019</v>
       </c>
       <c r="E95" s="29">
-        <v>4623</v>
+        <v>4753</v>
       </c>
       <c r="F95" s="29">
-        <v>1117</v>
+        <v>1266</v>
       </c>
       <c r="G95" s="30">
         <v>97771</v>
@@ -5010,13 +5010,13 @@
         <v>1100</v>
       </c>
       <c r="D96" s="29">
-        <v>795</v>
+        <v>823</v>
       </c>
       <c r="E96" s="29">
-        <v>770</v>
+        <v>796</v>
       </c>
       <c r="F96" s="29">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G96" s="30">
         <v>23692</v>
@@ -5045,13 +5045,13 @@
         <v>6275</v>
       </c>
       <c r="D97" s="29">
-        <v>4677</v>
+        <v>4991</v>
       </c>
       <c r="E97" s="29">
-        <v>3977</v>
+        <v>4072</v>
       </c>
       <c r="F97" s="29">
-        <v>700</v>
+        <v>919</v>
       </c>
       <c r="G97" s="30">
         <v>130156</v>
@@ -5080,13 +5080,13 @@
         <v>2600</v>
       </c>
       <c r="D98" s="29">
-        <v>1606</v>
+        <v>1659</v>
       </c>
       <c r="E98" s="29">
-        <v>1522</v>
+        <v>1548</v>
       </c>
       <c r="F98" s="29">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="G98" s="30">
         <v>25066</v>
@@ -5115,13 +5115,13 @@
         <v>0</v>
       </c>
       <c r="D99" s="29">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="E99" s="29">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="F99" s="29">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G99" s="30">
         <v>2399</v>
@@ -5150,13 +5150,13 @@
         <v>1200</v>
       </c>
       <c r="D100" s="29">
-        <v>1553</v>
+        <v>1624</v>
       </c>
       <c r="E100" s="29">
-        <v>1549</v>
+        <v>1558</v>
       </c>
       <c r="F100" s="29">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="G100" s="30">
         <v>6957</v>
@@ -5185,10 +5185,10 @@
         <v>600</v>
       </c>
       <c r="D101" s="29">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E101" s="29">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F101" s="29">
         <v>4</v>
@@ -5220,13 +5220,13 @@
         <v>500</v>
       </c>
       <c r="D102" s="29">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="E102" s="29">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F102" s="29">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G102" s="30">
         <v>3017</v>
@@ -5255,13 +5255,13 @@
         <v>4100</v>
       </c>
       <c r="D103" s="29">
-        <v>1812</v>
+        <v>2093</v>
       </c>
       <c r="E103" s="29">
-        <v>1738</v>
+        <v>2009</v>
       </c>
       <c r="F103" s="29">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G103" s="30">
         <v>47640</v>
@@ -5290,13 +5290,13 @@
         <v>462725</v>
       </c>
       <c r="D104" s="29">
-        <v>239431</v>
+        <v>253844</v>
       </c>
       <c r="E104" s="29">
-        <v>204072</v>
+        <v>215719</v>
       </c>
       <c r="F104" s="29">
-        <v>35359</v>
+        <v>38125</v>
       </c>
       <c r="G104" s="30">
         <v>3573784</v>
@@ -5325,13 +5325,13 @@
         <v>2700</v>
       </c>
       <c r="D105" s="29">
-        <v>1797</v>
+        <v>1858</v>
       </c>
       <c r="E105" s="29">
-        <v>1547</v>
+        <v>1594</v>
       </c>
       <c r="F105" s="29">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="G105" s="30">
         <v>53015</v>
@@ -5360,10 +5360,10 @@
         <v>1475</v>
       </c>
       <c r="D106" s="29">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E106" s="29">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F106" s="29">
         <v>3</v>
@@ -5395,10 +5395,10 @@
         <v>100</v>
       </c>
       <c r="D107" s="29">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E107" s="29">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F107" s="29">
         <v>8</v>
@@ -5430,13 +5430,13 @@
         <v>15175</v>
       </c>
       <c r="D108" s="29">
-        <v>9015</v>
+        <v>9469</v>
       </c>
       <c r="E108" s="29">
-        <v>7983</v>
+        <v>8356</v>
       </c>
       <c r="F108" s="29">
-        <v>1032</v>
+        <v>1113</v>
       </c>
       <c r="G108" s="30">
         <v>183387</v>
@@ -5465,10 +5465,10 @@
         <v>800</v>
       </c>
       <c r="D109" s="29">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E109" s="29">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F109" s="29">
         <v>1</v>
@@ -5500,13 +5500,13 @@
         <v>3400</v>
       </c>
       <c r="D110" s="29">
-        <v>2268</v>
+        <v>2425</v>
       </c>
       <c r="E110" s="29">
-        <v>2027</v>
+        <v>2168</v>
       </c>
       <c r="F110" s="29">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="G110" s="30">
         <v>67614</v>
@@ -5535,13 +5535,13 @@
         <v>90225</v>
       </c>
       <c r="D111" s="29">
-        <v>30778</v>
+        <v>34005</v>
       </c>
       <c r="E111" s="29">
-        <v>26765</v>
+        <v>29158</v>
       </c>
       <c r="F111" s="29">
-        <v>4013</v>
+        <v>4847</v>
       </c>
       <c r="G111" s="30">
         <v>649795</v>
@@ -5570,13 +5570,13 @@
         <v>900</v>
       </c>
       <c r="D112" s="29">
-        <v>1239</v>
+        <v>1371</v>
       </c>
       <c r="E112" s="29">
-        <v>1190</v>
+        <v>1320</v>
       </c>
       <c r="F112" s="29">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G112" s="30">
         <v>29221</v>
@@ -5605,13 +5605,13 @@
         <v>900</v>
       </c>
       <c r="D113" s="29">
-        <v>819</v>
+        <v>859</v>
       </c>
       <c r="E113" s="29">
-        <v>707</v>
+        <v>744</v>
       </c>
       <c r="F113" s="29">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G113" s="30">
         <v>17482</v>
@@ -5640,13 +5640,13 @@
         <v>2200</v>
       </c>
       <c r="D114" s="29">
-        <v>1300</v>
+        <v>1330</v>
       </c>
       <c r="E114" s="29">
-        <v>1245</v>
+        <v>1270</v>
       </c>
       <c r="F114" s="29">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G114" s="30">
         <v>50235</v>
@@ -5675,13 +5675,13 @@
         <v>2300</v>
       </c>
       <c r="D115" s="29">
-        <v>1324</v>
+        <v>1366</v>
       </c>
       <c r="E115" s="29">
-        <v>1178</v>
+        <v>1187</v>
       </c>
       <c r="F115" s="29">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="G115" s="30">
         <v>29578</v>
@@ -5710,13 +5710,13 @@
         <v>1500</v>
       </c>
       <c r="D116" s="29">
-        <v>1083</v>
+        <v>1142</v>
       </c>
       <c r="E116" s="29">
-        <v>1073</v>
+        <v>1124</v>
       </c>
       <c r="F116" s="29">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G116" s="30">
         <v>19208</v>
@@ -5745,13 +5745,13 @@
         <v>2600</v>
       </c>
       <c r="D117" s="29">
-        <v>1099</v>
+        <v>1121</v>
       </c>
       <c r="E117" s="29">
-        <v>1053</v>
+        <v>1058</v>
       </c>
       <c r="F117" s="29">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G117" s="30">
         <v>28821</v>
@@ -5780,10 +5780,10 @@
         <v>0</v>
       </c>
       <c r="D118" s="29">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E118" s="29">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F118" s="29">
         <v>4</v>
@@ -5815,13 +5815,13 @@
         <v>6850</v>
       </c>
       <c r="D119" s="29">
-        <v>3464</v>
+        <v>3735</v>
       </c>
       <c r="E119" s="29">
-        <v>2724</v>
+        <v>2800</v>
       </c>
       <c r="F119" s="29">
-        <v>740</v>
+        <v>935</v>
       </c>
       <c r="G119" s="30">
         <v>77702</v>
@@ -5850,13 +5850,13 @@
         <v>500</v>
       </c>
       <c r="D120" s="29">
-        <v>744</v>
+        <v>792</v>
       </c>
       <c r="E120" s="29">
-        <v>731</v>
+        <v>778</v>
       </c>
       <c r="F120" s="29">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G120" s="30">
         <v>15984</v>
@@ -5885,10 +5885,10 @@
         <v>0</v>
       </c>
       <c r="D121" s="29">
+        <v>52</v>
+      </c>
+      <c r="E121" s="29">
         <v>49</v>
-      </c>
-      <c r="E121" s="29">
-        <v>46</v>
       </c>
       <c r="F121" s="29">
         <v>3</v>
@@ -5920,13 +5920,13 @@
         <v>300</v>
       </c>
       <c r="D122" s="29">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E122" s="29">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F122" s="29">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G122" s="30">
         <v>7488</v>
@@ -5955,13 +5955,13 @@
         <v>2775</v>
       </c>
       <c r="D123" s="29">
-        <v>668</v>
+        <v>699</v>
       </c>
       <c r="E123" s="29">
-        <v>613</v>
+        <v>643</v>
       </c>
       <c r="F123" s="29">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G123" s="30">
         <v>11172</v>
@@ -5990,13 +5990,13 @@
         <v>3500</v>
       </c>
       <c r="D124" s="29">
-        <v>948</v>
+        <v>1068</v>
       </c>
       <c r="E124" s="29">
-        <v>917</v>
+        <v>1030</v>
       </c>
       <c r="F124" s="29">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G124" s="30">
         <v>28248</v>
@@ -6060,13 +6060,13 @@
         <v>18875</v>
       </c>
       <c r="D126" s="29">
-        <v>5311</v>
+        <v>5629</v>
       </c>
       <c r="E126" s="29">
-        <v>4910</v>
+        <v>5185</v>
       </c>
       <c r="F126" s="29">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="G126" s="30">
         <v>198728</v>
@@ -6095,10 +6095,10 @@
         <v>100</v>
       </c>
       <c r="D127" s="29">
+        <v>447</v>
+      </c>
+      <c r="E127" s="29">
         <v>446</v>
-      </c>
-      <c r="E127" s="29">
-        <v>445</v>
       </c>
       <c r="F127" s="29">
         <v>1</v>
@@ -6130,13 +6130,13 @@
         <v>2275</v>
       </c>
       <c r="D128" s="29">
-        <v>1154</v>
+        <v>1213</v>
       </c>
       <c r="E128" s="29">
-        <v>1064</v>
+        <v>1117</v>
       </c>
       <c r="F128" s="29">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G128" s="30">
         <v>29988</v>
@@ -6165,13 +6165,13 @@
         <v>2900</v>
       </c>
       <c r="D129" s="29">
-        <v>4762</v>
+        <v>5092</v>
       </c>
       <c r="E129" s="29">
-        <v>4192</v>
+        <v>4494</v>
       </c>
       <c r="F129" s="29">
-        <v>570</v>
+        <v>598</v>
       </c>
       <c r="G129" s="30">
         <v>135188</v>
@@ -6200,13 +6200,13 @@
         <v>200</v>
       </c>
       <c r="D130" s="29">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="E130" s="29">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="F130" s="29">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G130" s="30">
         <v>16827</v>
@@ -6235,13 +6235,13 @@
         <v>1200</v>
       </c>
       <c r="D131" s="29">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="E131" s="29">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="F131" s="29">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G131" s="30">
         <v>12523</v>
@@ -6270,13 +6270,13 @@
         <v>3350</v>
       </c>
       <c r="D132" s="29">
-        <v>4546</v>
+        <v>4769</v>
       </c>
       <c r="E132" s="29">
-        <v>3951</v>
+        <v>4065</v>
       </c>
       <c r="F132" s="29">
-        <v>595</v>
+        <v>704</v>
       </c>
       <c r="G132" s="30">
         <v>104736</v>
@@ -6305,13 +6305,13 @@
         <v>2300</v>
       </c>
       <c r="D133" s="29">
-        <v>2584</v>
+        <v>2698</v>
       </c>
       <c r="E133" s="29">
-        <v>2090</v>
+        <v>2145</v>
       </c>
       <c r="F133" s="29">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="G133" s="30">
         <v>38074</v>
@@ -6340,10 +6340,10 @@
         <v>0</v>
       </c>
       <c r="D134" s="29">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E134" s="29">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F134" s="29">
         <v>1</v>
@@ -6375,10 +6375,10 @@
         <v>0</v>
       </c>
       <c r="D135" s="29">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E135" s="29">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F135" s="29">
         <v>0</v>
@@ -6410,13 +6410,13 @@
         <v>3100</v>
       </c>
       <c r="D136" s="29">
-        <v>1567</v>
+        <v>1638</v>
       </c>
       <c r="E136" s="29">
-        <v>1546</v>
+        <v>1610</v>
       </c>
       <c r="F136" s="29">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G136" s="30">
         <v>43611</v>
@@ -6445,10 +6445,10 @@
         <v>300</v>
       </c>
       <c r="D137" s="29">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E137" s="29">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F137" s="29">
         <v>10</v>
@@ -6515,10 +6515,10 @@
         <v>0</v>
       </c>
       <c r="D139" s="29">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E139" s="29">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="F139" s="29">
         <v>0</v>
@@ -6550,13 +6550,13 @@
         <v>2975</v>
       </c>
       <c r="D140" s="29">
-        <v>975</v>
+        <v>1032</v>
       </c>
       <c r="E140" s="29">
-        <v>901</v>
+        <v>943</v>
       </c>
       <c r="F140" s="29">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G140" s="30">
         <v>25862</v>
@@ -6620,13 +6620,13 @@
         <v>1075</v>
       </c>
       <c r="D142" s="29">
-        <v>133</v>
+        <v>356</v>
       </c>
       <c r="E142" s="29">
-        <v>129</v>
+        <v>350</v>
       </c>
       <c r="F142" s="29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G142" s="30">
         <v>6105</v>
@@ -6655,13 +6655,13 @@
         <v>3100</v>
       </c>
       <c r="D143" s="29">
-        <v>1869</v>
+        <v>1898</v>
       </c>
       <c r="E143" s="29">
-        <v>1832</v>
+        <v>1852</v>
       </c>
       <c r="F143" s="29">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G143" s="30">
         <v>40212</v>
@@ -6690,10 +6690,10 @@
         <v>200</v>
       </c>
       <c r="D144" s="29">
-        <v>552</v>
+        <v>578</v>
       </c>
       <c r="E144" s="29">
-        <v>516</v>
+        <v>542</v>
       </c>
       <c r="F144" s="29">
         <v>36</v>
@@ -6725,13 +6725,13 @@
         <v>200</v>
       </c>
       <c r="D145" s="29">
-        <v>442</v>
+        <v>486</v>
       </c>
       <c r="E145" s="29">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="F145" s="29">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G145" s="30">
         <v>17275</v>
@@ -6760,13 +6760,13 @@
         <v>1600</v>
       </c>
       <c r="D146" s="29">
-        <v>1092</v>
+        <v>1115</v>
       </c>
       <c r="E146" s="29">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="F146" s="29">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="G146" s="30">
         <v>16041</v>
@@ -6795,10 +6795,10 @@
         <v>600</v>
       </c>
       <c r="D147" s="29">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="E147" s="29">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="F147" s="29">
         <v>15</v>
@@ -6830,13 +6830,13 @@
         <v>600</v>
       </c>
       <c r="D148" s="29">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="E148" s="29">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="F148" s="29">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G148" s="30">
         <v>14066</v>
@@ -6865,13 +6865,13 @@
         <v>4275</v>
       </c>
       <c r="D149" s="29">
-        <v>2048</v>
+        <v>2140</v>
       </c>
       <c r="E149" s="29">
-        <v>1950</v>
+        <v>2035</v>
       </c>
       <c r="F149" s="29">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G149" s="30">
         <v>70912</v>
@@ -6900,13 +6900,13 @@
         <v>1100</v>
       </c>
       <c r="D150" s="29">
+        <v>761</v>
+      </c>
+      <c r="E150" s="29">
         <v>749</v>
       </c>
-      <c r="E150" s="29">
-        <v>738</v>
-      </c>
       <c r="F150" s="29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G150" s="30">
         <v>19033</v>
@@ -6970,10 +6970,10 @@
         <v>200</v>
       </c>
       <c r="D152" s="29">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="E152" s="29">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="F152" s="29">
         <v>11</v>
@@ -7005,13 +7005,13 @@
         <v>100</v>
       </c>
       <c r="D153" s="29">
-        <v>620</v>
+        <v>654</v>
       </c>
       <c r="E153" s="29">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="F153" s="29">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="G153" s="30">
         <v>18642</v>
@@ -7075,13 +7075,13 @@
         <v>65300</v>
       </c>
       <c r="D155" s="29">
-        <v>28782</v>
+        <v>30132</v>
       </c>
       <c r="E155" s="29">
-        <v>23737</v>
+        <v>25007</v>
       </c>
       <c r="F155" s="29">
-        <v>5045</v>
+        <v>5125</v>
       </c>
       <c r="G155" s="30">
         <v>243899</v>
@@ -7110,10 +7110,10 @@
         <v>200</v>
       </c>
       <c r="D156" s="29">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="E156" s="29">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="F156" s="29">
         <v>38</v>
@@ -7145,13 +7145,13 @@
         <v>600</v>
       </c>
       <c r="D157" s="29">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="E157" s="29">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="F157" s="29">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G157" s="30">
         <v>11353</v>
@@ -7180,13 +7180,13 @@
         <v>0</v>
       </c>
       <c r="D158" s="29">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E158" s="29">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F158" s="29">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G158" s="30">
         <v>8117</v>
@@ -7215,13 +7215,13 @@
         <v>300</v>
       </c>
       <c r="D159" s="29">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="E159" s="29">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F159" s="29">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G159" s="30">
         <v>4306</v>
@@ -7250,10 +7250,10 @@
         <v>200</v>
       </c>
       <c r="D160" s="29">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E160" s="29">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F160" s="29">
         <v>15</v>
@@ -7285,13 +7285,13 @@
         <v>2500</v>
       </c>
       <c r="D161" s="29">
-        <v>596</v>
+        <v>661</v>
       </c>
       <c r="E161" s="29">
-        <v>586</v>
+        <v>646</v>
       </c>
       <c r="F161" s="29">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G161" s="30">
         <v>28353</v>
@@ -7320,13 +7320,13 @@
         <v>3600</v>
       </c>
       <c r="D162" s="29">
-        <v>2304</v>
+        <v>2341</v>
       </c>
       <c r="E162" s="29">
-        <v>2294</v>
+        <v>2309</v>
       </c>
       <c r="F162" s="29">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G162" s="30">
         <v>42357</v>
@@ -7355,13 +7355,13 @@
         <v>500</v>
       </c>
       <c r="D163" s="29">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E163" s="29">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F163" s="29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G163" s="30">
         <v>6675</v>
@@ -7390,13 +7390,13 @@
         <v>18650</v>
       </c>
       <c r="D164" s="29">
-        <v>10232</v>
+        <v>11557</v>
       </c>
       <c r="E164" s="29">
-        <v>9196</v>
+        <v>10415</v>
       </c>
       <c r="F164" s="29">
-        <v>1036</v>
+        <v>1142</v>
       </c>
       <c r="G164" s="30">
         <v>198642</v>
@@ -7425,10 +7425,10 @@
         <v>0</v>
       </c>
       <c r="D165" s="29">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E165" s="29">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F165" s="29">
         <v>1</v>
@@ -7460,13 +7460,13 @@
         <v>1000</v>
       </c>
       <c r="D166" s="29">
-        <v>1799</v>
+        <v>1916</v>
       </c>
       <c r="E166" s="29">
-        <v>1629</v>
+        <v>1717</v>
       </c>
       <c r="F166" s="29">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="G166" s="30">
         <v>42991</v>
@@ -7495,10 +7495,10 @@
         <v>0</v>
       </c>
       <c r="D167" s="29">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E167" s="29">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F167" s="29">
         <v>9</v>
@@ -7530,13 +7530,13 @@
         <v>11475</v>
       </c>
       <c r="D168" s="29">
-        <v>5641</v>
+        <v>5781</v>
       </c>
       <c r="E168" s="29">
-        <v>3978</v>
+        <v>4072</v>
       </c>
       <c r="F168" s="29">
-        <v>1663</v>
+        <v>1709</v>
       </c>
       <c r="G168" s="30">
         <v>132357</v>
@@ -7565,13 +7565,13 @@
         <v>1500</v>
       </c>
       <c r="D169" s="29">
-        <v>1109</v>
+        <v>1200</v>
       </c>
       <c r="E169" s="29">
-        <v>1082</v>
+        <v>1159</v>
       </c>
       <c r="F169" s="29">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G169" s="30">
         <v>19805</v>
@@ -7600,13 +7600,13 @@
         <v>200</v>
       </c>
       <c r="D170" s="29">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="E170" s="29">
         <v>255</v>
       </c>
       <c r="F170" s="29">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G170" s="30">
         <v>3970</v>
@@ -7635,10 +7635,10 @@
         <v>600</v>
       </c>
       <c r="D171" s="29">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E171" s="29">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F171" s="29">
         <v>1</v>
@@ -7670,13 +7670,13 @@
         <v>1175</v>
       </c>
       <c r="D172" s="29">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E172" s="29">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="F172" s="29">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G172" s="30">
         <v>15803</v>
@@ -7705,13 +7705,13 @@
         <v>41100</v>
       </c>
       <c r="D173" s="29">
-        <v>17447</v>
+        <v>18204</v>
       </c>
       <c r="E173" s="29">
-        <v>15327</v>
+        <v>15934</v>
       </c>
       <c r="F173" s="29">
-        <v>2120</v>
+        <v>2270</v>
       </c>
       <c r="G173" s="30">
         <v>470846</v>
@@ -7740,10 +7740,10 @@
         <v>800</v>
       </c>
       <c r="D174" s="29">
-        <v>1108</v>
+        <v>1154</v>
       </c>
       <c r="E174" s="29">
-        <v>1098</v>
+        <v>1144</v>
       </c>
       <c r="F174" s="29">
         <v>10</v>
@@ -7775,13 +7775,13 @@
         <v>300</v>
       </c>
       <c r="D175" s="29">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="E175" s="29">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="F175" s="29">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G175" s="30">
         <v>9938</v>
@@ -7810,13 +7810,13 @@
         <v>0</v>
       </c>
       <c r="D176" s="29">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E176" s="29">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F176" s="29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G176" s="30">
         <v>1016</v>
@@ -7845,13 +7845,13 @@
         <v>6700</v>
       </c>
       <c r="D177" s="29">
-        <v>3836</v>
+        <v>3955</v>
       </c>
       <c r="E177" s="29">
-        <v>3808</v>
+        <v>3896</v>
       </c>
       <c r="F177" s="29">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="G177" s="30">
         <v>52561</v>
@@ -7880,13 +7880,13 @@
         <v>2500</v>
       </c>
       <c r="D178" s="29">
-        <v>1256</v>
+        <v>1320</v>
       </c>
       <c r="E178" s="29">
-        <v>1218</v>
+        <v>1276</v>
       </c>
       <c r="F178" s="29">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G178" s="30">
         <v>40888</v>
@@ -7915,10 +7915,10 @@
         <v>400</v>
       </c>
       <c r="D179" s="29">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="E179" s="29">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="F179" s="29">
         <v>4</v>
@@ -7950,13 +7950,13 @@
         <v>1600</v>
       </c>
       <c r="D180" s="29">
-        <v>1031</v>
+        <v>1153</v>
       </c>
       <c r="E180" s="29">
-        <v>995</v>
+        <v>1115</v>
       </c>
       <c r="F180" s="29">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G180" s="30">
         <v>10998</v>
@@ -7985,13 +7985,13 @@
         <v>40450</v>
       </c>
       <c r="D181" s="29">
-        <v>17530</v>
+        <v>18594</v>
       </c>
       <c r="E181" s="29">
-        <v>14608</v>
+        <v>14965</v>
       </c>
       <c r="F181" s="29">
-        <v>2922</v>
+        <v>3629</v>
       </c>
       <c r="G181" s="30">
         <v>282299</v>
@@ -8020,13 +8020,13 @@
         <v>900</v>
       </c>
       <c r="D182" s="29">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="E182" s="29">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="F182" s="29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G182" s="30">
         <v>7508</v>
@@ -8055,10 +8055,10 @@
         <v>0</v>
       </c>
       <c r="D183" s="29">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E183" s="29">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F183" s="29">
         <v>9</v>
@@ -8090,13 +8090,13 @@
         <v>1200</v>
       </c>
       <c r="D184" s="29">
-        <v>1035</v>
+        <v>1079</v>
       </c>
       <c r="E184" s="29">
-        <v>966</v>
+        <v>1002</v>
       </c>
       <c r="F184" s="29">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G184" s="30">
         <v>65680</v>
@@ -8125,13 +8125,13 @@
         <v>800</v>
       </c>
       <c r="D185" s="29">
-        <v>664</v>
+        <v>725</v>
       </c>
       <c r="E185" s="29">
-        <v>652</v>
+        <v>712</v>
       </c>
       <c r="F185" s="29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G185" s="30">
         <v>23268</v>
@@ -8160,13 +8160,13 @@
         <v>1200</v>
       </c>
       <c r="D186" s="29">
-        <v>770</v>
+        <v>798</v>
       </c>
       <c r="E186" s="29">
-        <v>732</v>
+        <v>758</v>
       </c>
       <c r="F186" s="29">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G186" s="30">
         <v>19325</v>
@@ -8195,13 +8195,13 @@
         <v>6850</v>
       </c>
       <c r="D187" s="29">
-        <v>4422</v>
+        <v>4533</v>
       </c>
       <c r="E187" s="29">
-        <v>4082</v>
+        <v>4157</v>
       </c>
       <c r="F187" s="29">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="G187" s="30">
         <v>112329</v>
@@ -8230,10 +8230,10 @@
         <v>500</v>
       </c>
       <c r="D188" s="29">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="E188" s="29">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="F188" s="29">
         <v>5</v>
@@ -8265,13 +8265,13 @@
         <v>1200</v>
       </c>
       <c r="D189" s="29">
-        <v>628</v>
+        <v>677</v>
       </c>
       <c r="E189" s="29">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="F189" s="29">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="G189" s="30">
         <v>11723</v>
@@ -8300,13 +8300,13 @@
         <v>2700</v>
       </c>
       <c r="D190" s="29">
-        <v>1285</v>
+        <v>1349</v>
       </c>
       <c r="E190" s="29">
-        <v>1254</v>
+        <v>1313</v>
       </c>
       <c r="F190" s="29">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G190" s="30">
         <v>41511</v>
@@ -8335,13 +8335,13 @@
         <v>46150</v>
       </c>
       <c r="D191" s="29">
-        <v>11155</v>
+        <v>11762</v>
       </c>
       <c r="E191" s="29">
-        <v>10543</v>
+        <v>11066</v>
       </c>
       <c r="F191" s="29">
-        <v>612</v>
+        <v>696</v>
       </c>
       <c r="G191" s="30">
         <v>89806</v>
@@ -8370,10 +8370,10 @@
         <v>400</v>
       </c>
       <c r="D192" s="29">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E192" s="29">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F192" s="29">
         <v>0</v>
@@ -8405,13 +8405,13 @@
         <v>200</v>
       </c>
       <c r="D193" s="29">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="E193" s="29">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="F193" s="29">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G193" s="30">
         <v>10262</v>
@@ -8440,13 +8440,13 @@
         <v>4600</v>
       </c>
       <c r="D194" s="29">
-        <v>17287</v>
+        <v>18147</v>
       </c>
       <c r="E194" s="29">
-        <v>16203</v>
+        <v>16946</v>
       </c>
       <c r="F194" s="29">
-        <v>1084</v>
+        <v>1201</v>
       </c>
       <c r="G194" s="30">
         <v>109144</v>
@@ -8475,10 +8475,10 @@
         <v>100</v>
       </c>
       <c r="D195" s="29">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E195" s="29">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F195" s="29">
         <v>9</v>
@@ -8510,10 +8510,10 @@
         <v>0</v>
       </c>
       <c r="D196" s="29">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="E196" s="29">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="F196" s="29">
         <v>1</v>
@@ -8545,13 +8545,13 @@
         <v>200</v>
       </c>
       <c r="D197" s="29">
-        <v>570</v>
+        <v>665</v>
       </c>
       <c r="E197" s="29">
-        <v>565</v>
+        <v>659</v>
       </c>
       <c r="F197" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G197" s="30">
         <v>9511</v>
@@ -8580,13 +8580,13 @@
         <v>1375</v>
       </c>
       <c r="D198" s="29">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="E198" s="29">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F198" s="29">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G198" s="30">
         <v>13004</v>
@@ -8615,13 +8615,13 @@
         <v>600</v>
       </c>
       <c r="D199" s="29">
-        <v>424</v>
+        <v>488</v>
       </c>
       <c r="E199" s="29">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="F199" s="29">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G199" s="30">
         <v>5497</v>
@@ -8685,13 +8685,13 @@
         <v>700</v>
       </c>
       <c r="D201" s="29">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="E201" s="29">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="F201" s="29">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G201" s="30">
         <v>14216</v>
@@ -8720,13 +8720,13 @@
         <v>4400</v>
       </c>
       <c r="D202" s="29">
-        <v>3722</v>
+        <v>4010</v>
       </c>
       <c r="E202" s="29">
-        <v>3278</v>
+        <v>3479</v>
       </c>
       <c r="F202" s="29">
-        <v>444</v>
+        <v>531</v>
       </c>
       <c r="G202" s="30">
         <v>81869</v>
@@ -8755,13 +8755,13 @@
         <v>1000</v>
       </c>
       <c r="D203" s="29">
-        <v>822</v>
+        <v>855</v>
       </c>
       <c r="E203" s="29">
-        <v>758</v>
+        <v>789</v>
       </c>
       <c r="F203" s="29">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G203" s="30">
         <v>7992</v>
@@ -8790,13 +8790,13 @@
         <v>1000</v>
       </c>
       <c r="D204" s="29">
-        <v>1274</v>
+        <v>1390</v>
       </c>
       <c r="E204" s="29">
-        <v>1158</v>
+        <v>1262</v>
       </c>
       <c r="F204" s="29">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G204" s="30">
         <v>44061</v>
@@ -8825,13 +8825,13 @@
         <v>1200</v>
       </c>
       <c r="D205" s="29">
-        <v>686</v>
+        <v>728</v>
       </c>
       <c r="E205" s="29">
-        <v>684</v>
+        <v>724</v>
       </c>
       <c r="F205" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G205" s="30">
         <v>9116</v>
@@ -8860,13 +8860,13 @@
         <v>800</v>
       </c>
       <c r="D206" s="29">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="E206" s="29">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="F206" s="29">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G206" s="30">
         <v>6982</v>
@@ -8895,13 +8895,13 @@
         <v>1100</v>
       </c>
       <c r="D207" s="29">
-        <v>691</v>
+        <v>749</v>
       </c>
       <c r="E207" s="29">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="F207" s="29">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G207" s="30">
         <v>23713</v>
@@ -8930,13 +8930,13 @@
         <v>1700</v>
       </c>
       <c r="D208" s="29">
-        <v>1675</v>
+        <v>1809</v>
       </c>
       <c r="E208" s="29">
-        <v>1457</v>
+        <v>1538</v>
       </c>
       <c r="F208" s="29">
-        <v>218</v>
+        <v>271</v>
       </c>
       <c r="G208" s="30">
         <v>51382</v>
@@ -8965,13 +8965,13 @@
         <v>200</v>
       </c>
       <c r="D209" s="29">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E209" s="29">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F209" s="29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G209" s="30">
         <v>5108</v>
@@ -9000,10 +9000,10 @@
         <v>200</v>
       </c>
       <c r="D210" s="29">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E210" s="29">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F210" s="29">
         <v>22</v>
@@ -9035,13 +9035,13 @@
         <v>1475</v>
       </c>
       <c r="D211" s="29">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="E211" s="29">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="F211" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G211" s="30">
         <v>12956</v>
@@ -9070,10 +9070,10 @@
         <v>0</v>
       </c>
       <c r="D212" s="29">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E212" s="29">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F212" s="29">
         <v>17</v>
@@ -9105,10 +9105,10 @@
         <v>1200</v>
       </c>
       <c r="D213" s="29">
-        <v>601</v>
+        <v>627</v>
       </c>
       <c r="E213" s="29">
-        <v>585</v>
+        <v>611</v>
       </c>
       <c r="F213" s="29">
         <v>16</v>
@@ -9140,13 +9140,13 @@
         <v>0</v>
       </c>
       <c r="D214" s="29">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E214" s="29">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F214" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G214" s="30">
         <v>2368</v>
@@ -9175,13 +9175,13 @@
         <v>38750</v>
       </c>
       <c r="D215" s="29">
-        <v>16511</v>
+        <v>17346</v>
       </c>
       <c r="E215" s="29">
-        <v>14256</v>
+        <v>14760</v>
       </c>
       <c r="F215" s="29">
-        <v>2255</v>
+        <v>2586</v>
       </c>
       <c r="G215" s="30">
         <v>181426</v>
@@ -9210,10 +9210,10 @@
         <v>0</v>
       </c>
       <c r="D216" s="29">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E216" s="29">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F216" s="29">
         <v>14</v>
@@ -9245,13 +9245,13 @@
         <v>2900</v>
       </c>
       <c r="D217" s="29">
-        <v>1976</v>
+        <v>2112</v>
       </c>
       <c r="E217" s="29">
-        <v>1895</v>
+        <v>1945</v>
       </c>
       <c r="F217" s="29">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="G217" s="30">
         <v>46042</v>
@@ -9280,13 +9280,13 @@
         <v>300</v>
       </c>
       <c r="D218" s="29">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E218" s="29">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F218" s="29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G218" s="30">
         <v>7614</v>
@@ -9315,10 +9315,10 @@
         <v>0</v>
       </c>
       <c r="D219" s="29">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E219" s="29">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F219" s="29">
         <v>1</v>
@@ -9350,10 +9350,10 @@
         <v>200</v>
       </c>
       <c r="D220" s="29">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E220" s="29">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F220" s="29">
         <v>3</v>
@@ -9385,10 +9385,10 @@
         <v>100</v>
       </c>
       <c r="D221" s="29">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E221" s="29">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F221" s="29">
         <v>17</v>
@@ -9420,13 +9420,13 @@
         <v>100</v>
       </c>
       <c r="D222" s="29">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="E222" s="29">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="F222" s="29">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G222" s="30">
         <v>5843</v>
@@ -9455,13 +9455,13 @@
         <v>215950</v>
       </c>
       <c r="D223" s="29">
-        <v>71987</v>
+        <v>75209</v>
       </c>
       <c r="E223" s="29">
-        <v>65995</v>
+        <v>68656</v>
       </c>
       <c r="F223" s="29">
-        <v>5992</v>
+        <v>6553</v>
       </c>
       <c r="G223" s="30">
         <v>1596169</v>
@@ -9490,13 +9490,13 @@
         <v>12750</v>
       </c>
       <c r="D224" s="29">
-        <v>9328</v>
+        <v>9435</v>
       </c>
       <c r="E224" s="29">
-        <v>6651</v>
+        <v>6699</v>
       </c>
       <c r="F224" s="29">
-        <v>2677</v>
+        <v>2736</v>
       </c>
       <c r="G224" s="30">
         <v>108531</v>
@@ -9525,13 +9525,13 @@
         <v>0</v>
       </c>
       <c r="D225" s="29">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E225" s="29">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F225" s="29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G225" s="30">
         <v>652</v>
@@ -9560,13 +9560,13 @@
         <v>2375</v>
       </c>
       <c r="D226" s="29">
-        <v>756</v>
+        <v>813</v>
       </c>
       <c r="E226" s="29">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="F226" s="29">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="G226" s="30">
         <v>9564</v>
@@ -9630,13 +9630,13 @@
         <v>2700</v>
       </c>
       <c r="D228" s="29">
-        <v>856</v>
+        <v>939</v>
       </c>
       <c r="E228" s="29">
-        <v>841</v>
+        <v>923</v>
       </c>
       <c r="F228" s="29">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G228" s="30">
         <v>25312</v>
@@ -9665,13 +9665,13 @@
         <v>12000</v>
       </c>
       <c r="D229" s="29">
-        <v>8672</v>
+        <v>9251</v>
       </c>
       <c r="E229" s="29">
-        <v>6908</v>
+        <v>7278</v>
       </c>
       <c r="F229" s="29">
-        <v>1764</v>
+        <v>1973</v>
       </c>
       <c r="G229" s="30">
         <v>93428</v>
@@ -9700,13 +9700,13 @@
         <v>126550</v>
       </c>
       <c r="D230" s="29">
-        <v>61520</v>
+        <v>64458</v>
       </c>
       <c r="E230" s="29">
-        <v>52641</v>
+        <v>54817</v>
       </c>
       <c r="F230" s="29">
-        <v>8879</v>
+        <v>9641</v>
       </c>
       <c r="G230" s="30">
         <v>1016090</v>
@@ -9735,13 +9735,13 @@
         <v>1775</v>
       </c>
       <c r="D231" s="29">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="E231" s="29">
-        <v>476</v>
+        <v>511</v>
       </c>
       <c r="F231" s="29">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G231" s="30">
         <v>12118</v>
@@ -9770,13 +9770,13 @@
         <v>1200</v>
       </c>
       <c r="D232" s="29">
-        <v>989</v>
+        <v>1004</v>
       </c>
       <c r="E232" s="29">
-        <v>986</v>
+        <v>998</v>
       </c>
       <c r="F232" s="29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G232" s="30">
         <v>18704</v>
@@ -9805,13 +9805,13 @@
         <v>500</v>
       </c>
       <c r="D233" s="29">
-        <v>1130</v>
+        <v>1169</v>
       </c>
       <c r="E233" s="29">
-        <v>934</v>
+        <v>961</v>
       </c>
       <c r="F233" s="29">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="G233" s="30">
         <v>33211</v>
@@ -9875,13 +9875,13 @@
         <v>2775</v>
       </c>
       <c r="D235" s="29">
-        <v>1032</v>
+        <v>1665</v>
       </c>
       <c r="E235" s="29">
-        <v>1012</v>
+        <v>1641</v>
       </c>
       <c r="F235" s="29">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G235" s="30">
         <v>20809</v>
@@ -9910,10 +9910,10 @@
         <v>3075</v>
       </c>
       <c r="D236" s="29">
-        <v>1274</v>
+        <v>1279</v>
       </c>
       <c r="E236" s="29">
-        <v>1260</v>
+        <v>1265</v>
       </c>
       <c r="F236" s="29">
         <v>14</v>
@@ -9945,13 +9945,13 @@
         <v>2000</v>
       </c>
       <c r="D237" s="29">
-        <v>1918</v>
+        <v>2093</v>
       </c>
       <c r="E237" s="29">
-        <v>1749</v>
+        <v>1901</v>
       </c>
       <c r="F237" s="29">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="G237" s="30">
         <v>45144</v>
@@ -9980,13 +9980,13 @@
         <v>6575</v>
       </c>
       <c r="D238" s="29">
-        <v>4724</v>
+        <v>4787</v>
       </c>
       <c r="E238" s="29">
-        <v>3859</v>
+        <v>3888</v>
       </c>
       <c r="F238" s="29">
-        <v>865</v>
+        <v>899</v>
       </c>
       <c r="G238" s="30">
         <v>72004</v>
@@ -10015,13 +10015,13 @@
         <v>3200</v>
       </c>
       <c r="D239" s="29">
-        <v>1848</v>
+        <v>1989</v>
       </c>
       <c r="E239" s="29">
-        <v>1815</v>
+        <v>1949</v>
       </c>
       <c r="F239" s="29">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G239" s="30">
         <v>64302</v>
@@ -10050,13 +10050,13 @@
         <v>1700</v>
       </c>
       <c r="D240" s="29">
-        <v>901</v>
+        <v>1000</v>
       </c>
       <c r="E240" s="29">
-        <v>828</v>
+        <v>922</v>
       </c>
       <c r="F240" s="29">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G240" s="30">
         <v>44163</v>
@@ -10085,13 +10085,13 @@
         <v>400</v>
       </c>
       <c r="D241" s="29">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E241" s="29">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F241" s="29">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G241" s="30">
         <v>8544</v>
@@ -10120,13 +10120,13 @@
         <v>3900</v>
       </c>
       <c r="D242" s="29">
-        <v>1290</v>
+        <v>1347</v>
       </c>
       <c r="E242" s="29">
-        <v>1222</v>
+        <v>1271</v>
       </c>
       <c r="F242" s="29">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G242" s="30">
         <v>28737</v>
@@ -10155,13 +10155,13 @@
         <v>28100</v>
       </c>
       <c r="D243" s="29">
-        <v>10761</v>
+        <v>11542</v>
       </c>
       <c r="E243" s="29">
-        <v>10259</v>
+        <v>10922</v>
       </c>
       <c r="F243" s="29">
-        <v>502</v>
+        <v>620</v>
       </c>
       <c r="G243" s="30">
         <v>205887</v>
@@ -10190,13 +10190,13 @@
         <v>1800</v>
       </c>
       <c r="D244" s="29">
-        <v>737</v>
+        <v>779</v>
       </c>
       <c r="E244" s="29">
-        <v>701</v>
+        <v>741</v>
       </c>
       <c r="F244" s="29">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G244" s="30">
         <v>31964</v>
@@ -10225,10 +10225,10 @@
         <v>400</v>
       </c>
       <c r="D245" s="29">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="E245" s="29">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="F245" s="29">
         <v>0</v>
@@ -10260,13 +10260,13 @@
         <v>18850</v>
       </c>
       <c r="D246" s="29">
-        <v>9291</v>
+        <v>9452</v>
       </c>
       <c r="E246" s="29">
-        <v>7906</v>
+        <v>7954</v>
       </c>
       <c r="F246" s="29">
-        <v>1385</v>
+        <v>1498</v>
       </c>
       <c r="G246" s="30">
         <v>106550</v>
@@ -10295,13 +10295,13 @@
         <v>2900</v>
       </c>
       <c r="D247" s="29">
-        <v>1158</v>
+        <v>1270</v>
       </c>
       <c r="E247" s="29">
-        <v>1104</v>
+        <v>1124</v>
       </c>
       <c r="F247" s="29">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="G247" s="30">
         <v>9933</v>
@@ -10330,13 +10330,13 @@
         <v>400</v>
       </c>
       <c r="D248" s="29">
-        <v>662</v>
+        <v>679</v>
       </c>
       <c r="E248" s="29">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="F248" s="29">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G248" s="30">
         <v>16823</v>
@@ -10365,13 +10365,13 @@
         <v>33875</v>
       </c>
       <c r="D249" s="29">
-        <v>23992</v>
+        <v>25643</v>
       </c>
       <c r="E249" s="29">
-        <v>21073</v>
+        <v>22180</v>
       </c>
       <c r="F249" s="29">
-        <v>2919</v>
+        <v>3463</v>
       </c>
       <c r="G249" s="30">
         <v>457170</v>
@@ -10400,13 +10400,13 @@
         <v>3000</v>
       </c>
       <c r="D250" s="29">
-        <v>2383</v>
+        <v>2484</v>
       </c>
       <c r="E250" s="29">
-        <v>2196</v>
+        <v>2248</v>
       </c>
       <c r="F250" s="29">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="G250" s="30">
         <v>42030</v>
@@ -10470,13 +10470,13 @@
         <v>4350</v>
       </c>
       <c r="D252" s="29">
-        <v>4019</v>
+        <v>4035</v>
       </c>
       <c r="E252" s="29">
-        <v>3217</v>
+        <v>3231</v>
       </c>
       <c r="F252" s="29">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="G252" s="30">
         <v>55570</v>
@@ -10505,13 +10505,13 @@
         <v>1500</v>
       </c>
       <c r="D253" s="29">
-        <v>1784</v>
+        <v>1877</v>
       </c>
       <c r="E253" s="29">
-        <v>1677</v>
+        <v>1726</v>
       </c>
       <c r="F253" s="29">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="G253" s="30">
         <v>37205</v>
@@ -10540,10 +10540,10 @@
         <v>300</v>
       </c>
       <c r="D254" s="29">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E254" s="29">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F254" s="29">
         <v>7</v>
@@ -10575,13 +10575,13 @@
         <v>1700</v>
       </c>
       <c r="D255" s="29">
-        <v>673</v>
+        <v>711</v>
       </c>
       <c r="E255" s="29">
-        <v>668</v>
+        <v>690</v>
       </c>
       <c r="F255" s="29">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G255" s="30">
         <v>15028</v>
@@ -10610,13 +10610,13 @@
         <v>400</v>
       </c>
       <c r="D256" s="29">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="E256" s="29">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F256" s="29">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G256" s="30">
         <v>10088</v>
@@ -10645,10 +10645,10 @@
         <v>100</v>
       </c>
       <c r="D257" s="29">
-        <v>279</v>
+        <v>329</v>
       </c>
       <c r="E257" s="29">
-        <v>278</v>
+        <v>328</v>
       </c>
       <c r="F257" s="29">
         <v>1</v>
@@ -10680,13 +10680,13 @@
         <v>9775</v>
       </c>
       <c r="D258" s="29">
-        <v>147333</v>
+        <v>150604</v>
       </c>
       <c r="E258" s="29">
-        <v>131029</v>
+        <v>133143</v>
       </c>
       <c r="F258" s="29">
-        <v>16304</v>
+        <v>17461</v>
       </c>
       <c r="G258" s="30"/>
       <c r="H258" s="30"/>
@@ -10715,7 +10715,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
@@ -10761,13 +10761,13 @@
         <v>302</v>
       </c>
       <c r="D2" s="29">
-        <v>28191</v>
+        <v>29081</v>
       </c>
       <c r="E2" s="29">
-        <v>20765</v>
+        <v>21310</v>
       </c>
       <c r="F2" s="29">
-        <v>7426</v>
+        <v>7771</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -10781,13 +10781,13 @@
         <v>303</v>
       </c>
       <c r="D3" s="29">
-        <v>18671</v>
+        <v>18940</v>
       </c>
       <c r="E3" s="29">
-        <v>14627</v>
+        <v>14671</v>
       </c>
       <c r="F3" s="29">
-        <v>4044</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -10801,13 +10801,13 @@
         <v>301</v>
       </c>
       <c r="D4" s="29">
-        <v>48696</v>
+        <v>50625</v>
       </c>
       <c r="E4" s="29">
-        <v>37053</v>
+        <v>38138</v>
       </c>
       <c r="F4" s="29">
-        <v>11643</v>
+        <v>12487</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -10821,13 +10821,13 @@
         <v>305</v>
       </c>
       <c r="D5" s="29">
-        <v>104019</v>
+        <v>107010</v>
       </c>
       <c r="E5" s="29">
-        <v>79735</v>
+        <v>81253</v>
       </c>
       <c r="F5" s="29">
-        <v>24284</v>
+        <v>25757</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -10841,13 +10841,13 @@
         <v>304</v>
       </c>
       <c r="D6" s="29">
-        <v>29530</v>
+        <v>31450</v>
       </c>
       <c r="E6" s="29">
-        <v>26221</v>
+        <v>27625</v>
       </c>
       <c r="F6" s="29">
-        <v>3309</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -10861,13 +10861,13 @@
         <v>290</v>
       </c>
       <c r="D7" s="29">
-        <v>169911</v>
+        <v>176532</v>
       </c>
       <c r="E7" s="29">
-        <v>141426</v>
+        <v>145398</v>
       </c>
       <c r="F7" s="29">
-        <v>28485</v>
+        <v>31134</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -10881,13 +10881,13 @@
         <v>302</v>
       </c>
       <c r="D8" s="29">
-        <v>11233</v>
+        <v>11719</v>
       </c>
       <c r="E8" s="29">
-        <v>8646</v>
+        <v>9020</v>
       </c>
       <c r="F8" s="29">
-        <v>2587</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -10901,13 +10901,13 @@
         <v>303</v>
       </c>
       <c r="D9" s="29">
-        <v>13537</v>
+        <v>13757</v>
       </c>
       <c r="E9" s="29">
-        <v>10786</v>
+        <v>10866</v>
       </c>
       <c r="F9" s="29">
-        <v>2751</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -10921,13 +10921,13 @@
         <v>301</v>
       </c>
       <c r="D10" s="29">
-        <v>19179</v>
+        <v>20253</v>
       </c>
       <c r="E10" s="29">
-        <v>15535</v>
+        <v>16299</v>
       </c>
       <c r="F10" s="29">
-        <v>3644</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -10941,13 +10941,13 @@
         <v>305</v>
       </c>
       <c r="D11" s="29">
-        <v>57642</v>
+        <v>59831</v>
       </c>
       <c r="E11" s="29">
-        <v>46920</v>
+        <v>48344</v>
       </c>
       <c r="F11" s="29">
-        <v>10722</v>
+        <v>11487</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -10961,13 +10961,13 @@
         <v>304</v>
       </c>
       <c r="D12" s="29">
-        <v>15676</v>
+        <v>17040</v>
       </c>
       <c r="E12" s="29">
-        <v>14610</v>
+        <v>15636</v>
       </c>
       <c r="F12" s="29">
-        <v>1066</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -10981,13 +10981,13 @@
         <v>290</v>
       </c>
       <c r="D13" s="29">
-        <v>93861</v>
+        <v>98691</v>
       </c>
       <c r="E13" s="29">
-        <v>82402</v>
+        <v>85770</v>
       </c>
       <c r="F13" s="29">
-        <v>11459</v>
+        <v>12921</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -11001,13 +11001,13 @@
         <v>302</v>
       </c>
       <c r="D14" s="29">
-        <v>7207</v>
+        <v>7656</v>
       </c>
       <c r="E14" s="29">
-        <v>6861</v>
+        <v>7265</v>
       </c>
       <c r="F14" s="29">
-        <v>346</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -11021,13 +11021,13 @@
         <v>303</v>
       </c>
       <c r="D15" s="29">
-        <v>7217</v>
+        <v>7583</v>
       </c>
       <c r="E15" s="29">
-        <v>6823</v>
+        <v>7157</v>
       </c>
       <c r="F15" s="29">
-        <v>394</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -11041,13 +11041,13 @@
         <v>301</v>
       </c>
       <c r="D16" s="29">
-        <v>10473</v>
+        <v>11167</v>
       </c>
       <c r="E16" s="29">
-        <v>9928</v>
+        <v>10567</v>
       </c>
       <c r="F16" s="29">
-        <v>545</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -11061,13 +11061,13 @@
         <v>305</v>
       </c>
       <c r="D17" s="29">
-        <v>61798</v>
+        <v>66379</v>
       </c>
       <c r="E17" s="29">
-        <v>59453</v>
+        <v>63688</v>
       </c>
       <c r="F17" s="29">
-        <v>2345</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -11081,13 +11081,13 @@
         <v>304</v>
       </c>
       <c r="D18" s="29">
-        <v>15173</v>
+        <v>16383</v>
       </c>
       <c r="E18" s="29">
-        <v>14967</v>
+        <v>15900</v>
       </c>
       <c r="F18" s="29">
-        <v>206</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -11101,13 +11101,13 @@
         <v>290</v>
       </c>
       <c r="D19" s="29">
-        <v>82222</v>
+        <v>88384</v>
       </c>
       <c r="E19" s="29">
-        <v>79718</v>
+        <v>85155</v>
       </c>
       <c r="F19" s="29">
-        <v>2504</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -11121,13 +11121,13 @@
         <v>302</v>
       </c>
       <c r="D20" s="29">
-        <v>1426</v>
+        <v>1529</v>
       </c>
       <c r="E20" s="29">
-        <v>1417</v>
+        <v>1516</v>
       </c>
       <c r="F20" s="29">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -11141,13 +11141,13 @@
         <v>303</v>
       </c>
       <c r="D21" s="33">
-        <v>1421</v>
+        <v>1530</v>
       </c>
       <c r="E21" s="29">
-        <v>1418</v>
+        <v>1523</v>
       </c>
       <c r="F21" s="29">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -11161,13 +11161,13 @@
         <v>301</v>
       </c>
       <c r="D22" s="33">
-        <v>2179</v>
+        <v>2305</v>
       </c>
       <c r="E22" s="29">
-        <v>2157</v>
+        <v>2282</v>
       </c>
       <c r="F22" s="29">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -11181,13 +11181,13 @@
         <v>305</v>
       </c>
       <c r="D23" s="33">
-        <v>17843</v>
+        <v>19350</v>
       </c>
       <c r="E23" s="29">
-        <v>17680</v>
+        <v>19122</v>
       </c>
       <c r="F23" s="29">
-        <v>163</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -11201,13 +11201,13 @@
         <v>304</v>
       </c>
       <c r="D24" s="33">
-        <v>16786</v>
+        <v>18088</v>
       </c>
       <c r="E24" s="29">
-        <v>16771</v>
+        <v>17554</v>
       </c>
       <c r="F24" s="29">
-        <v>15</v>
+        <v>534</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -11221,13 +11221,13 @@
         <v>290</v>
       </c>
       <c r="D25" s="33">
-        <v>30711</v>
+        <v>33196</v>
       </c>
       <c r="E25" s="29">
-        <v>30387</v>
+        <v>32370</v>
       </c>
       <c r="F25" s="29">
-        <v>324</v>
+        <v>826</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -11281,10 +11281,10 @@
         <v>301</v>
       </c>
       <c r="D28" s="24">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E28" s="29">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F28" s="29">
         <v>3</v>
@@ -11301,10 +11301,10 @@
         <v>305</v>
       </c>
       <c r="D29" s="24">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E29" s="29">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F29" s="29">
         <v>4</v>
@@ -11341,13 +11341,13 @@
         <v>290</v>
       </c>
       <c r="D31" s="24">
-        <v>571</v>
+        <v>604</v>
       </c>
       <c r="E31" s="29">
-        <v>554</v>
+        <v>585</v>
       </c>
       <c r="F31" s="29">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -11361,13 +11361,13 @@
         <v>302</v>
       </c>
       <c r="D32" s="33">
-        <v>18227</v>
+        <v>18767</v>
       </c>
       <c r="E32" s="29">
-        <v>13349</v>
+        <v>13716</v>
       </c>
       <c r="F32" s="29">
-        <v>4878</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -11381,13 +11381,13 @@
         <v>303</v>
       </c>
       <c r="D33" s="33">
-        <v>7869</v>
+        <v>7929</v>
       </c>
       <c r="E33" s="29">
-        <v>6233</v>
+        <v>6203</v>
       </c>
       <c r="F33" s="29">
-        <v>1636</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -11401,13 +11401,13 @@
         <v>301</v>
       </c>
       <c r="D34" s="33">
-        <v>24877</v>
+        <v>25787</v>
       </c>
       <c r="E34" s="29">
-        <v>19065</v>
+        <v>19638</v>
       </c>
       <c r="F34" s="29">
-        <v>5812</v>
+        <v>6149</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -11421,13 +11421,13 @@
         <v>305</v>
       </c>
       <c r="D35" s="33">
-        <v>51051</v>
+        <v>52526</v>
       </c>
       <c r="E35" s="29">
-        <v>39836</v>
+        <v>40682</v>
       </c>
       <c r="F35" s="29">
-        <v>11215</v>
+        <v>11844</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -11441,13 +11441,13 @@
         <v>304</v>
       </c>
       <c r="D36" s="33">
-        <v>14074</v>
+        <v>15008</v>
       </c>
       <c r="E36" s="29">
-        <v>12261</v>
+        <v>12947</v>
       </c>
       <c r="F36" s="29">
-        <v>1813</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -11461,13 +11461,13 @@
         <v>290</v>
       </c>
       <c r="D37" s="33">
-        <v>98485</v>
+        <v>102412</v>
       </c>
       <c r="E37" s="29">
-        <v>82724</v>
+        <v>85206</v>
       </c>
       <c r="F37" s="29">
-        <v>15761</v>
+        <v>17206</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -11481,13 +11481,13 @@
         <v>302</v>
       </c>
       <c r="D38" s="33">
-        <v>7531</v>
+        <v>7906</v>
       </c>
       <c r="E38" s="29">
-        <v>5871</v>
+        <v>6170</v>
       </c>
       <c r="F38" s="29">
-        <v>1660</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -11501,13 +11501,13 @@
         <v>303</v>
       </c>
       <c r="D39" s="33">
-        <v>6602</v>
+        <v>6720</v>
       </c>
       <c r="E39" s="29">
-        <v>5497</v>
+        <v>5538</v>
       </c>
       <c r="F39" s="29">
-        <v>1105</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -11521,13 +11521,13 @@
         <v>301</v>
       </c>
       <c r="D40" s="33">
-        <v>11767</v>
+        <v>12345</v>
       </c>
       <c r="E40" s="29">
-        <v>9630</v>
+        <v>10082</v>
       </c>
       <c r="F40" s="29">
-        <v>2137</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -11541,13 +11541,13 @@
         <v>305</v>
       </c>
       <c r="D41" s="33">
-        <v>34788</v>
+        <v>36175</v>
       </c>
       <c r="E41" s="29">
-        <v>28718</v>
+        <v>29726</v>
       </c>
       <c r="F41" s="29">
-        <v>6070</v>
+        <v>6449</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -11561,13 +11561,13 @@
         <v>304</v>
       </c>
       <c r="D42" s="33">
-        <v>8482</v>
+        <v>9261</v>
       </c>
       <c r="E42" s="29">
-        <v>7750</v>
+        <v>8367</v>
       </c>
       <c r="F42" s="29">
-        <v>732</v>
+        <v>894</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -11581,13 +11581,13 @@
         <v>290</v>
       </c>
       <c r="D43" s="33">
-        <v>60897</v>
+        <v>64084</v>
       </c>
       <c r="E43" s="29">
-        <v>53982</v>
+        <v>56276</v>
       </c>
       <c r="F43" s="29">
-        <v>6915</v>
+        <v>7808</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -11601,13 +11601,13 @@
         <v>302</v>
       </c>
       <c r="D44" s="33">
-        <v>6501</v>
+        <v>6915</v>
       </c>
       <c r="E44" s="29">
-        <v>6205</v>
+        <v>6583</v>
       </c>
       <c r="F44" s="29">
-        <v>296</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -11621,13 +11621,13 @@
         <v>303</v>
       </c>
       <c r="D45" s="33">
-        <v>4736</v>
+        <v>4952</v>
       </c>
       <c r="E45" s="29">
-        <v>4530</v>
+        <v>4722</v>
       </c>
       <c r="F45" s="29">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -11641,13 +11641,13 @@
         <v>301</v>
       </c>
       <c r="D46" s="33">
-        <v>8186</v>
+        <v>8635</v>
       </c>
       <c r="E46" s="29">
-        <v>7731</v>
+        <v>8147</v>
       </c>
       <c r="F46" s="29">
-        <v>455</v>
+        <v>488</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -11661,13 +11661,13 @@
         <v>305</v>
       </c>
       <c r="D47" s="33">
-        <v>53648</v>
+        <v>57369</v>
       </c>
       <c r="E47" s="29">
-        <v>51295</v>
+        <v>54732</v>
       </c>
       <c r="F47" s="29">
-        <v>2353</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -11681,13 +11681,13 @@
         <v>304</v>
       </c>
       <c r="D48" s="33">
-        <v>10908</v>
+        <v>11787</v>
       </c>
       <c r="E48" s="29">
-        <v>10692</v>
+        <v>11408</v>
       </c>
       <c r="F48" s="29">
-        <v>216</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -11701,13 +11701,13 @@
         <v>290</v>
       </c>
       <c r="D49" s="33">
-        <v>68903</v>
+        <v>73868</v>
       </c>
       <c r="E49" s="29">
-        <v>66511</v>
+        <v>70889</v>
       </c>
       <c r="F49" s="29">
-        <v>2392</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -11721,13 +11721,13 @@
         <v>302</v>
       </c>
       <c r="D50" s="33">
-        <v>1320</v>
+        <v>1412</v>
       </c>
       <c r="E50" s="29">
-        <v>1300</v>
+        <v>1388</v>
       </c>
       <c r="F50" s="29">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -11741,13 +11741,13 @@
         <v>303</v>
       </c>
       <c r="D51" s="24">
-        <v>803</v>
+        <v>849</v>
       </c>
       <c r="E51" s="29">
-        <v>796</v>
+        <v>840</v>
       </c>
       <c r="F51" s="29">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -11761,13 +11761,13 @@
         <v>301</v>
       </c>
       <c r="D52" s="33">
-        <v>1470</v>
+        <v>1566</v>
       </c>
       <c r="E52" s="29">
-        <v>1444</v>
+        <v>1535</v>
       </c>
       <c r="F52" s="29">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -11781,13 +11781,13 @@
         <v>305</v>
       </c>
       <c r="D53" s="33">
-        <v>15526</v>
+        <v>16685</v>
       </c>
       <c r="E53" s="29">
-        <v>15323</v>
+        <v>16434</v>
       </c>
       <c r="F53" s="29">
-        <v>203</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -11801,13 +11801,13 @@
         <v>304</v>
       </c>
       <c r="D54" s="33">
-        <v>6844</v>
+        <v>7380</v>
       </c>
       <c r="E54" s="29">
-        <v>6827</v>
+        <v>7176</v>
       </c>
       <c r="F54" s="29">
-        <v>17</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -11821,13 +11821,13 @@
         <v>290</v>
       </c>
       <c r="D55" s="33">
-        <v>19857</v>
+        <v>21495</v>
       </c>
       <c r="E55" s="29">
-        <v>19609</v>
+        <v>20998</v>
       </c>
       <c r="F55" s="29">
-        <v>248</v>
+        <v>497</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -11841,10 +11841,10 @@
         <v>302</v>
       </c>
       <c r="D56" s="24">
+        <v>13</v>
+      </c>
+      <c r="E56" s="29">
         <v>12</v>
-      </c>
-      <c r="E56" s="29">
-        <v>11</v>
       </c>
       <c r="F56" s="29">
         <v>1</v>
@@ -11861,10 +11861,10 @@
         <v>303</v>
       </c>
       <c r="D57" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E57" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F57" s="29">
         <v>0</v>
@@ -11901,13 +11901,13 @@
         <v>305</v>
       </c>
       <c r="D59" s="24">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E59" s="29">
         <v>75</v>
       </c>
       <c r="F59" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -11941,13 +11941,13 @@
         <v>290</v>
       </c>
       <c r="D61" s="24">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="E61" s="29">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="F61" s="29">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -11961,13 +11961,13 @@
         <v>302</v>
       </c>
       <c r="D62" s="24">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="E62" s="29">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="F62" s="29">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -11981,13 +11981,13 @@
         <v>303</v>
       </c>
       <c r="D63" s="24">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="E63" s="29">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="F63" s="29">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -12001,13 +12001,13 @@
         <v>301</v>
       </c>
       <c r="D64" s="24">
-        <v>514</v>
+        <v>685</v>
       </c>
       <c r="E64" s="29">
-        <v>502</v>
+        <v>669</v>
       </c>
       <c r="F64" s="29">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -12021,13 +12021,13 @@
         <v>305</v>
       </c>
       <c r="D65" s="33">
-        <v>1217</v>
+        <v>1342</v>
       </c>
       <c r="E65" s="29">
-        <v>1167</v>
+        <v>1259</v>
       </c>
       <c r="F65" s="29">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -12041,13 +12041,13 @@
         <v>304</v>
       </c>
       <c r="D66" s="33">
-        <v>975</v>
+        <v>1037</v>
       </c>
       <c r="E66" s="29">
-        <v>957</v>
+        <v>994</v>
       </c>
       <c r="F66" s="29">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -12060,14 +12060,14 @@
       <c r="C67" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="D67" s="24">
-        <v>991</v>
+      <c r="D67" s="33">
+        <v>1001</v>
       </c>
       <c r="E67" s="29">
-        <v>865</v>
+        <v>873</v>
       </c>
       <c r="F67" s="29">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -12081,13 +12081,13 @@
         <v>302</v>
       </c>
       <c r="D68" s="24">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="E68" s="29">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="F68" s="29">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -12101,10 +12101,10 @@
         <v>303</v>
       </c>
       <c r="D69" s="24">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E69" s="29">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="F69" s="29">
         <v>3</v>
@@ -12121,13 +12121,13 @@
         <v>301</v>
       </c>
       <c r="D70" s="24">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="E70" s="29">
-        <v>197</v>
+        <v>262</v>
       </c>
       <c r="F70" s="29">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -12140,14 +12140,14 @@
       <c r="C71" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="D71" s="24">
-        <v>948</v>
+      <c r="D71" s="33">
+        <v>1025</v>
       </c>
       <c r="E71" s="29">
-        <v>914</v>
+        <v>976</v>
       </c>
       <c r="F71" s="29">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -12161,13 +12161,13 @@
         <v>304</v>
       </c>
       <c r="D72" s="24">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="E72" s="29">
-        <v>526</v>
+        <v>547</v>
       </c>
       <c r="F72" s="29">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -12181,13 +12181,13 @@
         <v>290</v>
       </c>
       <c r="D73" s="24">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="E73" s="29">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="F73" s="29">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -12201,10 +12201,10 @@
         <v>302</v>
       </c>
       <c r="D74" s="24">
-        <v>830</v>
+        <v>866</v>
       </c>
       <c r="E74" s="29">
-        <v>827</v>
+        <v>863</v>
       </c>
       <c r="F74" s="29">
         <v>3</v>
@@ -12221,10 +12221,10 @@
         <v>303</v>
       </c>
       <c r="D75" s="24">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="E75" s="29">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="F75" s="29">
         <v>3</v>
@@ -12241,10 +12241,10 @@
         <v>301</v>
       </c>
       <c r="D76" s="24">
-        <v>469</v>
+        <v>496</v>
       </c>
       <c r="E76" s="29">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="F76" s="29">
         <v>1</v>
@@ -12261,13 +12261,13 @@
         <v>305</v>
       </c>
       <c r="D77" s="33">
-        <v>4883</v>
+        <v>5048</v>
       </c>
       <c r="E77" s="29">
-        <v>4874</v>
+        <v>5036</v>
       </c>
       <c r="F77" s="29">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -12281,13 +12281,13 @@
         <v>304</v>
       </c>
       <c r="D78" s="33">
-        <v>2001</v>
+        <v>2056</v>
       </c>
       <c r="E78" s="29">
-        <v>1999</v>
+        <v>2052</v>
       </c>
       <c r="F78" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -12301,10 +12301,10 @@
         <v>290</v>
       </c>
       <c r="D79" s="24">
-        <v>513</v>
+        <v>540</v>
       </c>
       <c r="E79" s="29">
-        <v>492</v>
+        <v>519</v>
       </c>
       <c r="F79" s="29">
         <v>21</v>
@@ -12321,10 +12321,10 @@
         <v>302</v>
       </c>
       <c r="D80" s="24">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E80" s="29">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F80" s="29">
         <v>0</v>
@@ -12341,10 +12341,10 @@
         <v>303</v>
       </c>
       <c r="D81" s="24">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E81" s="29">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F81" s="29">
         <v>0</v>
@@ -12361,10 +12361,10 @@
         <v>301</v>
       </c>
       <c r="D82" s="24">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E82" s="29">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F82" s="29">
         <v>0</v>
@@ -12381,10 +12381,10 @@
         <v>305</v>
       </c>
       <c r="D83" s="24">
-        <v>884</v>
+        <v>909</v>
       </c>
       <c r="E83" s="29">
-        <v>884</v>
+        <v>909</v>
       </c>
       <c r="F83" s="29">
         <v>0</v>
@@ -12401,10 +12401,10 @@
         <v>304</v>
       </c>
       <c r="D84" s="24">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="E84" s="29">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="F84" s="29">
         <v>0</v>
@@ -12421,10 +12421,10 @@
         <v>290</v>
       </c>
       <c r="D85" s="24">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E85" s="29">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F85" s="29">
         <v>2</v>
@@ -12458,13 +12458,13 @@
         <v>290</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D87" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E87" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F87" s="29">
         <v>0</v>
@@ -12478,13 +12478,13 @@
         <v>290</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D88" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E88" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F88" s="29">
         <v>0</v>
@@ -12498,13 +12498,13 @@
         <v>290</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="D89" s="24">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E89" s="29">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F89" s="29">
         <v>0</v>
@@ -12512,22 +12512,42 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="C90" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="D90" s="33">
+        <v>9</v>
+      </c>
+      <c r="E90" s="29">
+        <v>9</v>
+      </c>
+      <c r="F90" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="B90" s="23" t="s">
+      <c r="B91" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="C90" s="26" t="s">
+      <c r="C91" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="D90" s="33">
-        <v>1426859</v>
-      </c>
-      <c r="E90" s="29">
-        <v>1241950</v>
-      </c>
-      <c r="F90" s="29">
-        <v>184909</v>
+      <c r="D91" s="33">
+        <v>1500288</v>
+      </c>
+      <c r="E91" s="33">
+        <v>1297260</v>
+      </c>
+      <c r="F91" s="33">
+        <v>203028</v>
       </c>
     </row>
   </sheetData>

--- a/Services/StateOfTexas/Data/COVID-19 Vaccine Data by County.xlsx
+++ b/Services/StateOfTexas/Data/COVID-19 Vaccine Data by County.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\IDPS immdox\COVID19\COVID Public Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnicholas000\Desktop\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C37BB24B-A4CB-465B-8266-C80D0A7DE525}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDFC87CF-F44F-4B84-82F0-8166D39745B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12048" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About the Data" sheetId="2" r:id="rId1"/>
@@ -1544,15 +1544,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showWhiteSpace="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.59765625" customWidth="1"/>
-    <col min="2" max="2" width="121.4765625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="121.46484375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="44.1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="48.65" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>271</v>
       </c>
@@ -1560,16 +1560,15 @@
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="B2" s="30" t="e">
-        <f ca="1">LastSavedTimeStamp()</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B2" s="30">
+        <v>44220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>267</v>
       </c>
@@ -1577,7 +1576,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" s="12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>292</v>
       </c>
@@ -1585,7 +1584,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="44.1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1593,7 +1592,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -1601,7 +1600,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="29.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -1609,7 +1608,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="12" customFormat="1" ht="29.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>305</v>
       </c>
@@ -1617,7 +1616,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>264</v>
       </c>
@@ -1625,7 +1624,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>261</v>
       </c>
@@ -1633,7 +1632,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="117.6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" ht="129.65" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>265</v>
       </c>
@@ -1641,7 +1640,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="29.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>266</v>
       </c>
@@ -1649,7 +1648,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="58.8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>280</v>
       </c>
@@ -1660,6 +1659,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C &amp;D&amp;RPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1668,23 +1670,23 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K259"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23828125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="14" customWidth="1"/>
-    <col min="2" max="3" width="12.23828125" style="6" customWidth="1"/>
-    <col min="4" max="5" width="20.6796875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.7578125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="11.4765625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="13.23828125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="15.078125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.7578125" style="6" customWidth="1"/>
+    <col min="2" max="3" width="12.19921875" style="6" customWidth="1"/>
+    <col min="4" max="5" width="20.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.73046875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.46484375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.19921875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15.06640625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.73046875" style="6" customWidth="1"/>
     <col min="11" max="11" width="12" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="9.23828125" style="5"/>
+    <col min="12" max="16384" width="9.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="67.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1719,7 +1721,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>262</v>
       </c>
@@ -1732,15 +1734,15 @@
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:K2" si="0">SUM(D4:D258)</f>
-        <v>1678517</v>
+        <v>1713980</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>1431089</v>
+        <v>1459293</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>247428</v>
+        <v>254687</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
@@ -1763,7 +1765,7 @@
         <v>9499038</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>299</v>
       </c>
@@ -1798,7 +1800,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
@@ -1809,13 +1811,13 @@
         <v>4700</v>
       </c>
       <c r="D4" s="32">
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c r="E4" s="32">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="F4" s="32">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G4" s="33">
         <v>49346</v>
@@ -1833,7 +1835,7 @@
         <v>24078</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>7</v>
       </c>
@@ -1844,13 +1846,13 @@
         <v>1100</v>
       </c>
       <c r="D5" s="32">
-        <v>1371</v>
+        <v>1416</v>
       </c>
       <c r="E5" s="32">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="F5" s="32">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="G5" s="33">
         <v>13954</v>
@@ -1868,7 +1870,7 @@
         <v>5867</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>8</v>
       </c>
@@ -1879,13 +1881,13 @@
         <v>11200</v>
       </c>
       <c r="D6" s="32">
-        <v>5449</v>
+        <v>5466</v>
       </c>
       <c r="E6" s="32">
-        <v>5004</v>
+        <v>5019</v>
       </c>
       <c r="F6" s="32">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G6" s="33">
         <v>70388</v>
@@ -1903,7 +1905,7 @@
         <v>34525</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>9</v>
       </c>
@@ -1914,13 +1916,13 @@
         <v>600</v>
       </c>
       <c r="D7" s="32">
-        <v>995</v>
+        <v>1015</v>
       </c>
       <c r="E7" s="32">
-        <v>917</v>
+        <v>936</v>
       </c>
       <c r="F7" s="32">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G7" s="33">
         <v>19727</v>
@@ -1938,7 +1940,7 @@
         <v>10102</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>10</v>
       </c>
@@ -1949,10 +1951,10 @@
         <v>400</v>
       </c>
       <c r="D8" s="32">
-        <v>520</v>
+        <v>554</v>
       </c>
       <c r="E8" s="32">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="F8" s="32">
         <v>69</v>
@@ -1973,7 +1975,7 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>11</v>
       </c>
@@ -2008,7 +2010,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>12</v>
       </c>
@@ -2019,13 +2021,13 @@
         <v>2900</v>
       </c>
       <c r="D10" s="32">
-        <v>1786</v>
+        <v>1803</v>
       </c>
       <c r="E10" s="32">
-        <v>1532</v>
+        <v>1544</v>
       </c>
       <c r="F10" s="32">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G10" s="33">
         <v>39065</v>
@@ -2043,7 +2045,7 @@
         <v>17891</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>13</v>
       </c>
@@ -2054,13 +2056,13 @@
         <v>1400</v>
       </c>
       <c r="D11" s="32">
-        <v>1457</v>
+        <v>1480</v>
       </c>
       <c r="E11" s="32">
-        <v>1372</v>
+        <v>1379</v>
       </c>
       <c r="F11" s="32">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="G11" s="33">
         <v>25584</v>
@@ -2078,7 +2080,7 @@
         <v>10132</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>15</v>
       </c>
@@ -2089,10 +2091,10 @@
         <v>1475</v>
       </c>
       <c r="D12" s="32">
-        <v>444</v>
+        <v>549</v>
       </c>
       <c r="E12" s="32">
-        <v>415</v>
+        <v>520</v>
       </c>
       <c r="F12" s="32">
         <v>29</v>
@@ -2113,7 +2115,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>16</v>
       </c>
@@ -2124,13 +2126,13 @@
         <v>200</v>
       </c>
       <c r="D13" s="32">
-        <v>1238</v>
+        <v>1251</v>
       </c>
       <c r="E13" s="32">
-        <v>1141</v>
+        <v>1149</v>
       </c>
       <c r="F13" s="32">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G13" s="33">
         <v>19833</v>
@@ -2148,7 +2150,7 @@
         <v>9348</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>17</v>
       </c>
@@ -2159,13 +2161,13 @@
         <v>3200</v>
       </c>
       <c r="D14" s="32">
-        <v>2548</v>
+        <v>2624</v>
       </c>
       <c r="E14" s="32">
-        <v>2303</v>
+        <v>2377</v>
       </c>
       <c r="F14" s="32">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G14" s="33">
         <v>70499</v>
@@ -2183,7 +2185,7 @@
         <v>34606</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>18</v>
       </c>
@@ -2194,10 +2196,10 @@
         <v>1575</v>
       </c>
       <c r="D15" s="32">
-        <v>458</v>
+        <v>722</v>
       </c>
       <c r="E15" s="32">
-        <v>428</v>
+        <v>692</v>
       </c>
       <c r="F15" s="32">
         <v>30</v>
@@ -2218,7 +2220,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>19</v>
       </c>
@@ -2229,10 +2231,10 @@
         <v>4625</v>
       </c>
       <c r="D16" s="32">
-        <v>2904</v>
+        <v>3004</v>
       </c>
       <c r="E16" s="32">
-        <v>2786</v>
+        <v>2886</v>
       </c>
       <c r="F16" s="32">
         <v>118</v>
@@ -2253,7 +2255,7 @@
         <v>13037</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>20</v>
       </c>
@@ -2264,13 +2266,13 @@
         <v>27300</v>
       </c>
       <c r="D17" s="32">
-        <v>16485</v>
+        <v>17127</v>
       </c>
       <c r="E17" s="32">
-        <v>13974</v>
+        <v>14613</v>
       </c>
       <c r="F17" s="32">
-        <v>2511</v>
+        <v>2514</v>
       </c>
       <c r="G17" s="33">
         <v>265191</v>
@@ -2288,7 +2290,7 @@
         <v>105279</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
         <v>21</v>
       </c>
@@ -2299,13 +2301,13 @@
         <v>235400</v>
       </c>
       <c r="D18" s="32">
-        <v>127442</v>
+        <v>130338</v>
       </c>
       <c r="E18" s="32">
-        <v>99527</v>
+        <v>101596</v>
       </c>
       <c r="F18" s="32">
-        <v>27915</v>
+        <v>28742</v>
       </c>
       <c r="G18" s="33">
         <v>1541803</v>
@@ -2323,7 +2325,7 @@
         <v>696450</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
         <v>22</v>
       </c>
@@ -2334,13 +2336,13 @@
         <v>300</v>
       </c>
       <c r="D19" s="32">
-        <v>1128</v>
+        <v>1141</v>
       </c>
       <c r="E19" s="32">
-        <v>1089</v>
+        <v>1100</v>
       </c>
       <c r="F19" s="32">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G19" s="33">
         <v>10177</v>
@@ -2358,7 +2360,7 @@
         <v>4572</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>23</v>
       </c>
@@ -2393,7 +2395,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
         <v>24</v>
       </c>
@@ -2404,10 +2406,10 @@
         <v>1900</v>
       </c>
       <c r="D21" s="32">
-        <v>779</v>
+        <v>789</v>
       </c>
       <c r="E21" s="32">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="F21" s="32">
         <v>29</v>
@@ -2428,7 +2430,7 @@
         <v>7171</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
         <v>25</v>
       </c>
@@ -2439,13 +2441,13 @@
         <v>8850</v>
       </c>
       <c r="D22" s="32">
-        <v>3415</v>
+        <v>3433</v>
       </c>
       <c r="E22" s="32">
-        <v>2781</v>
+        <v>2795</v>
       </c>
       <c r="F22" s="32">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="G22" s="33">
         <v>78179</v>
@@ -2463,7 +2465,7 @@
         <v>36179</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
         <v>26</v>
       </c>
@@ -2474,13 +2476,13 @@
         <v>14600</v>
       </c>
       <c r="D23" s="32">
-        <v>20631</v>
+        <v>21021</v>
       </c>
       <c r="E23" s="32">
-        <v>16708</v>
+        <v>17039</v>
       </c>
       <c r="F23" s="32">
-        <v>3923</v>
+        <v>3982</v>
       </c>
       <c r="G23" s="33">
         <v>295635</v>
@@ -2498,7 +2500,7 @@
         <v>119229</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
         <v>27</v>
       </c>
@@ -2509,13 +2511,13 @@
         <v>16125</v>
       </c>
       <c r="D24" s="32">
-        <v>7560</v>
+        <v>8049</v>
       </c>
       <c r="E24" s="32">
-        <v>6745</v>
+        <v>7213</v>
       </c>
       <c r="F24" s="32">
-        <v>815</v>
+        <v>836</v>
       </c>
       <c r="G24" s="33">
         <v>185835</v>
@@ -2533,7 +2535,7 @@
         <v>64988</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
         <v>28</v>
       </c>
@@ -2544,10 +2546,10 @@
         <v>1000</v>
       </c>
       <c r="D25" s="32">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="E25" s="32">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="F25" s="32">
         <v>26</v>
@@ -2568,7 +2570,7 @@
         <v>3547</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
         <v>29</v>
       </c>
@@ -2603,7 +2605,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
         <v>30</v>
       </c>
@@ -2614,13 +2616,13 @@
         <v>600</v>
       </c>
       <c r="D27" s="32">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E27" s="32">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F27" s="32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G27" s="33">
         <v>5438</v>
@@ -2638,7 +2640,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>31</v>
       </c>
@@ -2649,13 +2651,13 @@
         <v>1600</v>
       </c>
       <c r="D28" s="32">
-        <v>1246</v>
+        <v>1278</v>
       </c>
       <c r="E28" s="32">
-        <v>1002</v>
+        <v>1033</v>
       </c>
       <c r="F28" s="32">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G28" s="33">
         <v>31586</v>
@@ -2673,7 +2675,7 @@
         <v>14261</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
         <v>32</v>
       </c>
@@ -2684,10 +2686,10 @@
         <v>600</v>
       </c>
       <c r="D29" s="32">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="E29" s="32">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="F29" s="32">
         <v>50</v>
@@ -2708,7 +2710,7 @@
         <v>7277</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>33</v>
       </c>
@@ -2719,13 +2721,13 @@
         <v>2800</v>
       </c>
       <c r="D30" s="32">
-        <v>1542</v>
+        <v>1597</v>
       </c>
       <c r="E30" s="32">
-        <v>1338</v>
+        <v>1392</v>
       </c>
       <c r="F30" s="32">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G30" s="33">
         <v>39423</v>
@@ -2743,7 +2745,7 @@
         <v>17381</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
         <v>34</v>
       </c>
@@ -2754,10 +2756,10 @@
         <v>1200</v>
       </c>
       <c r="D31" s="32">
-        <v>1406</v>
+        <v>1421</v>
       </c>
       <c r="E31" s="32">
-        <v>1277</v>
+        <v>1292</v>
       </c>
       <c r="F31" s="32">
         <v>129</v>
@@ -2778,7 +2780,7 @@
         <v>16400</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
         <v>35</v>
       </c>
@@ -2789,13 +2791,13 @@
         <v>1000</v>
       </c>
       <c r="D32" s="32">
-        <v>1084</v>
+        <v>1096</v>
       </c>
       <c r="E32" s="32">
-        <v>961</v>
+        <v>972</v>
       </c>
       <c r="F32" s="32">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G32" s="33">
         <v>17169</v>
@@ -2813,7 +2815,7 @@
         <v>7841</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
         <v>36</v>
       </c>
@@ -2824,10 +2826,10 @@
         <v>700</v>
       </c>
       <c r="D33" s="32">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E33" s="32">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F33" s="32">
         <v>138</v>
@@ -2848,7 +2850,7 @@
         <v>5346</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
         <v>37</v>
       </c>
@@ -2859,13 +2861,13 @@
         <v>39850</v>
       </c>
       <c r="D34" s="32">
-        <v>33860</v>
+        <v>34206</v>
       </c>
       <c r="E34" s="32">
-        <v>29164</v>
+        <v>29430</v>
       </c>
       <c r="F34" s="32">
-        <v>4696</v>
+        <v>4776</v>
       </c>
       <c r="G34" s="33">
         <v>315242</v>
@@ -2883,7 +2885,7 @@
         <v>149238</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="34" t="s">
         <v>38</v>
       </c>
@@ -2894,13 +2896,13 @@
         <v>100</v>
       </c>
       <c r="D35" s="32">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="E35" s="32">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F35" s="32">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G35" s="33">
         <v>10054</v>
@@ -2918,7 +2920,7 @@
         <v>4991</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="34" t="s">
         <v>39</v>
       </c>
@@ -2953,7 +2955,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="34" t="s">
         <v>40</v>
       </c>
@@ -2988,7 +2990,7 @@
         <v>12120</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="34" t="s">
         <v>41</v>
       </c>
@@ -3023,7 +3025,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="34" t="s">
         <v>42</v>
       </c>
@@ -3034,10 +3036,10 @@
         <v>4200</v>
       </c>
       <c r="D39" s="32">
-        <v>1803</v>
+        <v>1879</v>
       </c>
       <c r="E39" s="32">
-        <v>1636</v>
+        <v>1712</v>
       </c>
       <c r="F39" s="32">
         <v>167</v>
@@ -3058,7 +3060,7 @@
         <v>13721</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="34" t="s">
         <v>43</v>
       </c>
@@ -3069,13 +3071,13 @@
         <v>4200</v>
       </c>
       <c r="D40" s="32">
-        <v>2309</v>
+        <v>2328</v>
       </c>
       <c r="E40" s="32">
-        <v>2145</v>
+        <v>2162</v>
       </c>
       <c r="F40" s="32">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G40" s="33">
         <v>41571</v>
@@ -3093,7 +3095,7 @@
         <v>20430</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="34" t="s">
         <v>44</v>
       </c>
@@ -3128,7 +3130,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="34" t="s">
         <v>45</v>
       </c>
@@ -3139,10 +3141,10 @@
         <v>1275</v>
       </c>
       <c r="D42" s="32">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="E42" s="32">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="F42" s="32">
         <v>96</v>
@@ -3163,7 +3165,7 @@
         <v>4071</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="34" t="s">
         <v>46</v>
       </c>
@@ -3198,7 +3200,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="34" t="s">
         <v>47</v>
       </c>
@@ -3233,7 +3235,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="34" t="s">
         <v>48</v>
       </c>
@@ -3268,7 +3270,7 @@
         <v>3427</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="34" t="s">
         <v>49</v>
       </c>
@@ -3279,13 +3281,13 @@
         <v>47375</v>
       </c>
       <c r="D46" s="32">
-        <v>45443</v>
+        <v>47079</v>
       </c>
       <c r="E46" s="32">
-        <v>38871</v>
+        <v>39912</v>
       </c>
       <c r="F46" s="32">
-        <v>6572</v>
+        <v>7167</v>
       </c>
       <c r="G46" s="33">
         <v>806242</v>
@@ -3303,7 +3305,7 @@
         <v>256993</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="34" t="s">
         <v>50</v>
       </c>
@@ -3314,10 +3316,10 @@
         <v>300</v>
       </c>
       <c r="D47" s="32">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E47" s="32">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F47" s="32">
         <v>7</v>
@@ -3338,7 +3340,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="34" t="s">
         <v>51</v>
       </c>
@@ -3349,13 +3351,13 @@
         <v>600</v>
       </c>
       <c r="D48" s="32">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="E48" s="32">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F48" s="32">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G48" s="33">
         <v>17682</v>
@@ -3373,7 +3375,7 @@
         <v>7953</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="34" t="s">
         <v>52</v>
       </c>
@@ -3384,13 +3386,13 @@
         <v>9200</v>
       </c>
       <c r="D49" s="32">
-        <v>6874</v>
+        <v>7005</v>
       </c>
       <c r="E49" s="32">
-        <v>5688</v>
+        <v>5777</v>
       </c>
       <c r="F49" s="32">
-        <v>1186</v>
+        <v>1228</v>
       </c>
       <c r="G49" s="33">
         <v>125758</v>
@@ -3408,7 +3410,7 @@
         <v>45927</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="34" t="s">
         <v>53</v>
       </c>
@@ -3419,13 +3421,13 @@
         <v>1475</v>
       </c>
       <c r="D50" s="32">
-        <v>815</v>
+        <v>1073</v>
       </c>
       <c r="E50" s="32">
-        <v>776</v>
+        <v>1027</v>
       </c>
       <c r="F50" s="32">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G50" s="33">
         <v>11046</v>
@@ -3443,7 +3445,7 @@
         <v>5170</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="34" t="s">
         <v>54</v>
       </c>
@@ -3478,7 +3480,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="34" t="s">
         <v>55</v>
       </c>
@@ -3489,13 +3491,13 @@
         <v>1500</v>
       </c>
       <c r="D52" s="32">
-        <v>1419</v>
+        <v>1436</v>
       </c>
       <c r="E52" s="32">
-        <v>1328</v>
+        <v>1339</v>
       </c>
       <c r="F52" s="32">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G52" s="33">
         <v>32501</v>
@@ -3513,7 +3515,7 @@
         <v>14449</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="34" t="s">
         <v>56</v>
       </c>
@@ -3524,13 +3526,13 @@
         <v>2575</v>
       </c>
       <c r="D53" s="32">
-        <v>1876</v>
+        <v>2217</v>
       </c>
       <c r="E53" s="32">
-        <v>1722</v>
+        <v>2061</v>
       </c>
       <c r="F53" s="32">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G53" s="33">
         <v>58277</v>
@@ -3548,7 +3550,7 @@
         <v>25149</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="34" t="s">
         <v>57</v>
       </c>
@@ -3583,7 +3585,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="34" t="s">
         <v>58</v>
       </c>
@@ -3594,10 +3596,10 @@
         <v>1175</v>
       </c>
       <c r="D55" s="32">
-        <v>195</v>
+        <v>289</v>
       </c>
       <c r="E55" s="32">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c r="F55" s="32">
         <v>19</v>
@@ -3618,7 +3620,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="34" t="s">
         <v>59</v>
       </c>
@@ -3653,7 +3655,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="34" t="s">
         <v>60</v>
       </c>
@@ -3688,7 +3690,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="34" t="s">
         <v>61</v>
       </c>
@@ -3723,7 +3725,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="34" t="s">
         <v>62</v>
       </c>
@@ -3734,13 +3736,13 @@
         <v>300</v>
       </c>
       <c r="D59" s="32">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E59" s="32">
         <v>314</v>
       </c>
       <c r="F59" s="32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G59" s="33">
         <v>5092</v>
@@ -3758,7 +3760,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="34" t="s">
         <v>63</v>
       </c>
@@ -3769,13 +3771,13 @@
         <v>236700</v>
       </c>
       <c r="D60" s="32">
-        <v>123940</v>
+        <v>125642</v>
       </c>
       <c r="E60" s="32">
-        <v>105617</v>
+        <v>106454</v>
       </c>
       <c r="F60" s="32">
-        <v>18323</v>
+        <v>19188</v>
       </c>
       <c r="G60" s="33">
         <v>2015538</v>
@@ -3793,7 +3795,7 @@
         <v>820238</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="34" t="s">
         <v>64</v>
       </c>
@@ -3804,10 +3806,10 @@
         <v>500</v>
       </c>
       <c r="D61" s="32">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E61" s="32">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F61" s="32">
         <v>22</v>
@@ -3828,7 +3830,7 @@
         <v>5005</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="34" t="s">
         <v>66</v>
       </c>
@@ -3839,10 +3841,10 @@
         <v>1100</v>
       </c>
       <c r="D62" s="32">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E62" s="32">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="F62" s="32">
         <v>41</v>
@@ -3863,7 +3865,7 @@
         <v>6265</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="34" t="s">
         <v>67</v>
       </c>
@@ -3874,13 +3876,13 @@
         <v>0</v>
       </c>
       <c r="D63" s="32">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E63" s="32">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F63" s="32">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G63" s="33">
         <v>4312</v>
@@ -3898,7 +3900,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="34" t="s">
         <v>68</v>
       </c>
@@ -3909,13 +3911,13 @@
         <v>39875</v>
       </c>
       <c r="D64" s="32">
-        <v>26193</v>
+        <v>26923</v>
       </c>
       <c r="E64" s="32">
-        <v>22483</v>
+        <v>22873</v>
       </c>
       <c r="F64" s="32">
-        <v>3710</v>
+        <v>4050</v>
       </c>
       <c r="G64" s="33">
         <v>702429</v>
@@ -3933,7 +3935,7 @@
         <v>276089</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="34" t="s">
         <v>65</v>
       </c>
@@ -3968,7 +3970,7 @@
         <v>7926</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="34" t="s">
         <v>69</v>
       </c>
@@ -3979,10 +3981,10 @@
         <v>0</v>
       </c>
       <c r="D66" s="32">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E66" s="32">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F66" s="32">
         <v>1</v>
@@ -4003,7 +4005,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="34" t="s">
         <v>70</v>
       </c>
@@ -4014,13 +4016,13 @@
         <v>1475</v>
       </c>
       <c r="D67" s="32">
-        <v>500</v>
+        <v>591</v>
       </c>
       <c r="E67" s="32">
-        <v>478</v>
+        <v>541</v>
       </c>
       <c r="F67" s="32">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G67" s="33">
         <v>7130</v>
@@ -4038,7 +4040,7 @@
         <v>4018</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="34" t="s">
         <v>71</v>
       </c>
@@ -4073,7 +4075,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="34" t="s">
         <v>72</v>
       </c>
@@ -4084,10 +4086,10 @@
         <v>300</v>
       </c>
       <c r="D69" s="32">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E69" s="32">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F69" s="32">
         <v>25</v>
@@ -4108,7 +4110,7 @@
         <v>4543</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="34" t="s">
         <v>73</v>
       </c>
@@ -4119,13 +4121,13 @@
         <v>600</v>
       </c>
       <c r="D70" s="32">
-        <v>811</v>
+        <v>839</v>
       </c>
       <c r="E70" s="32">
-        <v>751</v>
+        <v>778</v>
       </c>
       <c r="F70" s="32">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G70" s="33">
         <v>14718</v>
@@ -4143,7 +4145,7 @@
         <v>7102</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="34" t="s">
         <v>74</v>
       </c>
@@ -4154,13 +4156,13 @@
         <v>15200</v>
       </c>
       <c r="D71" s="32">
-        <v>7306</v>
+        <v>7404</v>
       </c>
       <c r="E71" s="32">
-        <v>5893</v>
+        <v>5944</v>
       </c>
       <c r="F71" s="32">
-        <v>1413</v>
+        <v>1460</v>
       </c>
       <c r="G71" s="33">
         <v>123303</v>
@@ -4178,7 +4180,7 @@
         <v>54750</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="34" t="s">
         <v>75</v>
       </c>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="D72" s="32">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E72" s="32">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F72" s="32">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G72" s="33">
         <v>1605</v>
@@ -4213,7 +4215,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="34" t="s">
         <v>76</v>
       </c>
@@ -4224,13 +4226,13 @@
         <v>91975</v>
       </c>
       <c r="D73" s="32">
-        <v>72981</v>
+        <v>75974</v>
       </c>
       <c r="E73" s="32">
-        <v>60655</v>
+        <v>62802</v>
       </c>
       <c r="F73" s="32">
-        <v>12326</v>
+        <v>13172</v>
       </c>
       <c r="G73" s="33">
         <v>640715</v>
@@ -4248,7 +4250,7 @@
         <v>281334</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="34" t="s">
         <v>77</v>
       </c>
@@ -4259,13 +4261,13 @@
         <v>4600</v>
       </c>
       <c r="D74" s="32">
-        <v>6924</v>
+        <v>7003</v>
       </c>
       <c r="E74" s="32">
-        <v>5977</v>
+        <v>6013</v>
       </c>
       <c r="F74" s="32">
-        <v>947</v>
+        <v>990</v>
       </c>
       <c r="G74" s="33">
         <v>146536</v>
@@ -4283,7 +4285,7 @@
         <v>61039</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="34" t="s">
         <v>78</v>
       </c>
@@ -4294,13 +4296,13 @@
         <v>700</v>
       </c>
       <c r="D75" s="32">
-        <v>1290</v>
+        <v>1322</v>
       </c>
       <c r="E75" s="32">
-        <v>1125</v>
+        <v>1154</v>
       </c>
       <c r="F75" s="32">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G75" s="33">
         <v>34869</v>
@@ -4318,7 +4320,7 @@
         <v>14817</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="34" t="s">
         <v>79</v>
       </c>
@@ -4329,10 +4331,10 @@
         <v>1575</v>
       </c>
       <c r="D76" s="32">
-        <v>687</v>
+        <v>840</v>
       </c>
       <c r="E76" s="32">
-        <v>655</v>
+        <v>808</v>
       </c>
       <c r="F76" s="32">
         <v>32</v>
@@ -4353,7 +4355,7 @@
         <v>7192</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="34" t="s">
         <v>80</v>
       </c>
@@ -4364,13 +4366,13 @@
         <v>3275</v>
       </c>
       <c r="D77" s="32">
-        <v>1848</v>
+        <v>1868</v>
       </c>
       <c r="E77" s="32">
-        <v>1634</v>
+        <v>1641</v>
       </c>
       <c r="F77" s="32">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="G77" s="33">
         <v>29681</v>
@@ -4388,7 +4390,7 @@
         <v>13661</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="34" t="s">
         <v>81</v>
       </c>
@@ -4399,13 +4401,13 @@
         <v>1200</v>
       </c>
       <c r="D78" s="32">
-        <v>932</v>
+        <v>950</v>
       </c>
       <c r="E78" s="32">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="F78" s="32">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G78" s="33">
         <v>21209</v>
@@ -4423,7 +4425,7 @@
         <v>9754</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="34" t="s">
         <v>82</v>
       </c>
@@ -4434,10 +4436,10 @@
         <v>200</v>
       </c>
       <c r="D79" s="32">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E79" s="32">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F79" s="32">
         <v>4</v>
@@ -4458,7 +4460,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="34" t="s">
         <v>83</v>
       </c>
@@ -4493,7 +4495,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="34" t="s">
         <v>84</v>
       </c>
@@ -4504,10 +4506,10 @@
         <v>100</v>
       </c>
       <c r="D81" s="32">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E81" s="32">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F81" s="32">
         <v>9</v>
@@ -4528,7 +4530,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="34" t="s">
         <v>85</v>
       </c>
@@ -4539,13 +4541,13 @@
         <v>40950</v>
       </c>
       <c r="D82" s="32">
-        <v>44609</v>
+        <v>45808</v>
       </c>
       <c r="E82" s="32">
-        <v>37436</v>
+        <v>38556</v>
       </c>
       <c r="F82" s="32">
-        <v>7173</v>
+        <v>7252</v>
       </c>
       <c r="G82" s="33">
         <v>626861</v>
@@ -4563,7 +4565,7 @@
         <v>192056</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="34" t="s">
         <v>86</v>
       </c>
@@ -4574,13 +4576,13 @@
         <v>400</v>
       </c>
       <c r="D83" s="32">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="E83" s="32">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F83" s="32">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G83" s="33">
         <v>8327</v>
@@ -4598,7 +4600,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="34" t="s">
         <v>87</v>
       </c>
@@ -4609,10 +4611,10 @@
         <v>1100</v>
       </c>
       <c r="D84" s="32">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="E84" s="32">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="F84" s="32">
         <v>8</v>
@@ -4633,7 +4635,7 @@
         <v>8172</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="34" t="s">
         <v>88</v>
       </c>
@@ -4644,13 +4646,13 @@
         <v>2475</v>
       </c>
       <c r="D85" s="32">
-        <v>1190</v>
+        <v>1197</v>
       </c>
       <c r="E85" s="32">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="F85" s="32">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G85" s="33">
         <v>15133</v>
@@ -4668,7 +4670,7 @@
         <v>7605</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="34" t="s">
         <v>89</v>
       </c>
@@ -4679,13 +4681,13 @@
         <v>1100</v>
       </c>
       <c r="D86" s="32">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="E86" s="32">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="F86" s="32">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G86" s="33">
         <v>14875</v>
@@ -4703,7 +4705,7 @@
         <v>6531</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="34" t="s">
         <v>90</v>
       </c>
@@ -4714,13 +4716,13 @@
         <v>28050</v>
       </c>
       <c r="D87" s="32">
-        <v>25641</v>
+        <v>25807</v>
       </c>
       <c r="E87" s="32">
-        <v>20799</v>
+        <v>20950</v>
       </c>
       <c r="F87" s="32">
-        <v>4842</v>
+        <v>4857</v>
       </c>
       <c r="G87" s="33">
         <v>267032</v>
@@ -4738,7 +4740,7 @@
         <v>113161</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="34" t="s">
         <v>91</v>
       </c>
@@ -4749,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="D88" s="32">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E88" s="32">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F88" s="32">
         <v>11</v>
@@ -4773,7 +4775,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="34" t="s">
         <v>92</v>
       </c>
@@ -4784,13 +4786,13 @@
         <v>3100</v>
       </c>
       <c r="D89" s="32">
-        <v>1408</v>
+        <v>1503</v>
       </c>
       <c r="E89" s="32">
-        <v>1350</v>
+        <v>1442</v>
       </c>
       <c r="F89" s="32">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G89" s="33">
         <v>22728</v>
@@ -4808,7 +4810,7 @@
         <v>10293</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="34" t="s">
         <v>93</v>
       </c>
@@ -4843,7 +4845,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="34" t="s">
         <v>94</v>
       </c>
@@ -4854,10 +4856,10 @@
         <v>100</v>
       </c>
       <c r="D91" s="32">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="E91" s="32">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="F91" s="32">
         <v>43</v>
@@ -4878,7 +4880,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="34" t="s">
         <v>95</v>
       </c>
@@ -4889,13 +4891,13 @@
         <v>1200</v>
       </c>
       <c r="D92" s="32">
-        <v>968</v>
+        <v>978</v>
       </c>
       <c r="E92" s="32">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="F92" s="32">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G92" s="33">
         <v>15931</v>
@@ -4913,7 +4915,7 @@
         <v>7818</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="34" t="s">
         <v>96</v>
       </c>
@@ -4924,10 +4926,10 @@
         <v>1300</v>
       </c>
       <c r="D93" s="32">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E93" s="32">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="F93" s="32">
         <v>25</v>
@@ -4948,7 +4950,7 @@
         <v>8475</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="34" t="s">
         <v>97</v>
       </c>
@@ -4959,13 +4961,13 @@
         <v>19900</v>
       </c>
       <c r="D94" s="32">
-        <v>7461</v>
+        <v>7619</v>
       </c>
       <c r="E94" s="32">
-        <v>6485</v>
+        <v>6595</v>
       </c>
       <c r="F94" s="32">
-        <v>976</v>
+        <v>1024</v>
       </c>
       <c r="G94" s="33">
         <v>107568</v>
@@ -4983,7 +4985,7 @@
         <v>49725</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="34" t="s">
         <v>98</v>
       </c>
@@ -4994,13 +4996,13 @@
         <v>11925</v>
       </c>
       <c r="D95" s="32">
-        <v>6382</v>
+        <v>6460</v>
       </c>
       <c r="E95" s="32">
-        <v>4949</v>
+        <v>4971</v>
       </c>
       <c r="F95" s="32">
-        <v>1433</v>
+        <v>1489</v>
       </c>
       <c r="G95" s="33">
         <v>97771</v>
@@ -5018,7 +5020,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="34" t="s">
         <v>99</v>
       </c>
@@ -5029,13 +5031,13 @@
         <v>1100</v>
       </c>
       <c r="D96" s="32">
-        <v>890</v>
+        <v>920</v>
       </c>
       <c r="E96" s="32">
-        <v>837</v>
+        <v>865</v>
       </c>
       <c r="F96" s="32">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G96" s="33">
         <v>23692</v>
@@ -5053,7 +5055,7 @@
         <v>11724</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="34" t="s">
         <v>100</v>
       </c>
@@ -5064,13 +5066,13 @@
         <v>6275</v>
       </c>
       <c r="D97" s="32">
-        <v>6093</v>
+        <v>6264</v>
       </c>
       <c r="E97" s="32">
-        <v>4599</v>
+        <v>4746</v>
       </c>
       <c r="F97" s="32">
-        <v>1494</v>
+        <v>1518</v>
       </c>
       <c r="G97" s="33">
         <v>130156</v>
@@ -5088,7 +5090,7 @@
         <v>56504</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="34" t="s">
         <v>101</v>
       </c>
@@ -5099,13 +5101,13 @@
         <v>2600</v>
       </c>
       <c r="D98" s="32">
-        <v>1735</v>
+        <v>1742</v>
       </c>
       <c r="E98" s="32">
-        <v>1585</v>
+        <v>1591</v>
       </c>
       <c r="F98" s="32">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G98" s="33">
         <v>25066</v>
@@ -5123,7 +5125,7 @@
         <v>12481</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="34" t="s">
         <v>102</v>
       </c>
@@ -5134,10 +5136,10 @@
         <v>0</v>
       </c>
       <c r="D99" s="32">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E99" s="32">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F99" s="32">
         <v>8</v>
@@ -5158,7 +5160,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="34" t="s">
         <v>103</v>
       </c>
@@ -5169,10 +5171,10 @@
         <v>1200</v>
       </c>
       <c r="D100" s="32">
-        <v>1658</v>
+        <v>1676</v>
       </c>
       <c r="E100" s="32">
-        <v>1565</v>
+        <v>1583</v>
       </c>
       <c r="F100" s="32">
         <v>93</v>
@@ -5193,7 +5195,7 @@
         <v>3427</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="34" t="s">
         <v>104</v>
       </c>
@@ -5228,7 +5230,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="34" t="s">
         <v>105</v>
       </c>
@@ -5239,10 +5241,10 @@
         <v>500</v>
       </c>
       <c r="D102" s="32">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E102" s="32">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F102" s="32">
         <v>43</v>
@@ -5263,7 +5265,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="34" t="s">
         <v>106</v>
       </c>
@@ -5274,13 +5276,13 @@
         <v>4100</v>
       </c>
       <c r="D103" s="32">
-        <v>2428</v>
+        <v>2542</v>
       </c>
       <c r="E103" s="32">
-        <v>2311</v>
+        <v>2367</v>
       </c>
       <c r="F103" s="32">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="G103" s="33">
         <v>47640</v>
@@ -5298,7 +5300,7 @@
         <v>19766</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="34" t="s">
         <v>107</v>
       </c>
@@ -5309,13 +5311,13 @@
         <v>462725</v>
       </c>
       <c r="D104" s="32">
-        <v>277828</v>
+        <v>280699</v>
       </c>
       <c r="E104" s="32">
-        <v>234047</v>
+        <v>236337</v>
       </c>
       <c r="F104" s="32">
-        <v>43781</v>
+        <v>44362</v>
       </c>
       <c r="G104" s="33">
         <v>3573784</v>
@@ -5333,7 +5335,7 @@
         <v>1572384</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="34" t="s">
         <v>108</v>
       </c>
@@ -5344,13 +5346,13 @@
         <v>2700</v>
       </c>
       <c r="D105" s="32">
-        <v>2278</v>
+        <v>2289</v>
       </c>
       <c r="E105" s="32">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="F105" s="32">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="G105" s="33">
         <v>53015</v>
@@ -5368,7 +5370,7 @@
         <v>25401</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="34" t="s">
         <v>109</v>
       </c>
@@ -5379,10 +5381,10 @@
         <v>1475</v>
       </c>
       <c r="D106" s="32">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E106" s="32">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F106" s="32">
         <v>3</v>
@@ -5403,7 +5405,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="34" t="s">
         <v>110</v>
       </c>
@@ -5414,10 +5416,10 @@
         <v>100</v>
       </c>
       <c r="D107" s="32">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="E107" s="32">
-        <v>197</v>
+        <v>307</v>
       </c>
       <c r="F107" s="32">
         <v>15</v>
@@ -5438,7 +5440,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="34" t="s">
         <v>111</v>
       </c>
@@ -5449,13 +5451,13 @@
         <v>15175</v>
       </c>
       <c r="D108" s="32">
-        <v>10438</v>
+        <v>10755</v>
       </c>
       <c r="E108" s="32">
-        <v>9073</v>
+        <v>9384</v>
       </c>
       <c r="F108" s="32">
-        <v>1365</v>
+        <v>1371</v>
       </c>
       <c r="G108" s="33">
         <v>183387</v>
@@ -5473,7 +5475,7 @@
         <v>67042</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="34" t="s">
         <v>112</v>
       </c>
@@ -5508,7 +5510,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="34" t="s">
         <v>113</v>
       </c>
@@ -5519,13 +5521,13 @@
         <v>3400</v>
       </c>
       <c r="D110" s="32">
-        <v>2731</v>
+        <v>2747</v>
       </c>
       <c r="E110" s="32">
-        <v>2403</v>
+        <v>2417</v>
       </c>
       <c r="F110" s="32">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G110" s="33">
         <v>67614</v>
@@ -5543,7 +5545,7 @@
         <v>35206</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="34" t="s">
         <v>114</v>
       </c>
@@ -5554,13 +5556,13 @@
         <v>90225</v>
       </c>
       <c r="D111" s="32">
-        <v>38188</v>
+        <v>38720</v>
       </c>
       <c r="E111" s="32">
-        <v>32566</v>
+        <v>32740</v>
       </c>
       <c r="F111" s="32">
-        <v>5622</v>
+        <v>5980</v>
       </c>
       <c r="G111" s="33">
         <v>649795</v>
@@ -5578,7 +5580,7 @@
         <v>319830</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="34" t="s">
         <v>115</v>
       </c>
@@ -5589,13 +5591,13 @@
         <v>900</v>
       </c>
       <c r="D112" s="32">
-        <v>1537</v>
+        <v>1548</v>
       </c>
       <c r="E112" s="32">
-        <v>1471</v>
+        <v>1479</v>
       </c>
       <c r="F112" s="32">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G112" s="33">
         <v>29221</v>
@@ -5613,7 +5615,7 @@
         <v>14733</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="34" t="s">
         <v>116</v>
       </c>
@@ -5624,10 +5626,10 @@
         <v>900</v>
       </c>
       <c r="D113" s="32">
-        <v>938</v>
+        <v>959</v>
       </c>
       <c r="E113" s="32">
-        <v>819</v>
+        <v>840</v>
       </c>
       <c r="F113" s="32">
         <v>119</v>
@@ -5648,7 +5650,7 @@
         <v>8124</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="34" t="s">
         <v>117</v>
       </c>
@@ -5659,13 +5661,13 @@
         <v>2200</v>
       </c>
       <c r="D114" s="32">
-        <v>1491</v>
+        <v>1543</v>
       </c>
       <c r="E114" s="32">
-        <v>1403</v>
+        <v>1444</v>
       </c>
       <c r="F114" s="32">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G114" s="33">
         <v>50235</v>
@@ -5683,7 +5685,7 @@
         <v>23089</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="34" t="s">
         <v>118</v>
       </c>
@@ -5694,13 +5696,13 @@
         <v>2300</v>
       </c>
       <c r="D115" s="32">
-        <v>1606</v>
+        <v>1622</v>
       </c>
       <c r="E115" s="32">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="F115" s="32">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G115" s="33">
         <v>29578</v>
@@ -5718,7 +5720,7 @@
         <v>13891</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="34" t="s">
         <v>119</v>
       </c>
@@ -5729,13 +5731,13 @@
         <v>1500</v>
       </c>
       <c r="D116" s="32">
-        <v>1256</v>
+        <v>1269</v>
       </c>
       <c r="E116" s="32">
-        <v>1175</v>
+        <v>1187</v>
       </c>
       <c r="F116" s="32">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G116" s="33">
         <v>19208</v>
@@ -5753,7 +5755,7 @@
         <v>9989</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="34" t="s">
         <v>120</v>
       </c>
@@ -5764,13 +5766,13 @@
         <v>2600</v>
       </c>
       <c r="D117" s="32">
-        <v>1149</v>
+        <v>1198</v>
       </c>
       <c r="E117" s="32">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="F117" s="32">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="G117" s="33">
         <v>28821</v>
@@ -5788,7 +5790,7 @@
         <v>14072</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="34" t="s">
         <v>121</v>
       </c>
@@ -5799,13 +5801,13 @@
         <v>0</v>
       </c>
       <c r="D118" s="32">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E118" s="32">
         <v>75</v>
       </c>
       <c r="F118" s="32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G118" s="33">
         <v>2968</v>
@@ -5823,7 +5825,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="34" t="s">
         <v>122</v>
       </c>
@@ -5834,13 +5836,13 @@
         <v>6850</v>
       </c>
       <c r="D119" s="32">
-        <v>4615</v>
+        <v>4648</v>
       </c>
       <c r="E119" s="32">
-        <v>3617</v>
+        <v>3634</v>
       </c>
       <c r="F119" s="32">
-        <v>998</v>
+        <v>1014</v>
       </c>
       <c r="G119" s="33">
         <v>77702</v>
@@ -5858,7 +5860,7 @@
         <v>36713</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="34" t="s">
         <v>123</v>
       </c>
@@ -5869,10 +5871,10 @@
         <v>500</v>
       </c>
       <c r="D120" s="32">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="E120" s="32">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="F120" s="32">
         <v>15</v>
@@ -5893,7 +5895,7 @@
         <v>7583</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="34" t="s">
         <v>124</v>
       </c>
@@ -5928,7 +5930,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="34" t="s">
         <v>125</v>
       </c>
@@ -5939,10 +5941,10 @@
         <v>300</v>
       </c>
       <c r="D122" s="32">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E122" s="32">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F122" s="32">
         <v>21</v>
@@ -5963,7 +5965,7 @@
         <v>3304</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="34" t="s">
         <v>126</v>
       </c>
@@ -5974,10 +5976,10 @@
         <v>2775</v>
       </c>
       <c r="D123" s="32">
-        <v>749</v>
+        <v>856</v>
       </c>
       <c r="E123" s="32">
-        <v>686</v>
+        <v>793</v>
       </c>
       <c r="F123" s="32">
         <v>63</v>
@@ -5998,7 +6000,7 @@
         <v>5354</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="34" t="s">
         <v>127</v>
       </c>
@@ -6009,13 +6011,13 @@
         <v>3500</v>
       </c>
       <c r="D124" s="32">
-        <v>1448</v>
+        <v>1455</v>
       </c>
       <c r="E124" s="32">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="F124" s="32">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G124" s="33">
         <v>28248</v>
@@ -6033,7 +6035,7 @@
         <v>15256</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="34" t="s">
         <v>128</v>
       </c>
@@ -6044,10 +6046,10 @@
         <v>0</v>
       </c>
       <c r="D125" s="32">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E125" s="32">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F125" s="32">
         <v>2</v>
@@ -6068,7 +6070,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="34" t="s">
         <v>129</v>
       </c>
@@ -6079,13 +6081,13 @@
         <v>18875</v>
       </c>
       <c r="D126" s="32">
-        <v>6674</v>
+        <v>6846</v>
       </c>
       <c r="E126" s="32">
-        <v>6146</v>
+        <v>6316</v>
       </c>
       <c r="F126" s="32">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="G126" s="33">
         <v>198728</v>
@@ -6103,7 +6105,7 @@
         <v>109233</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="34" t="s">
         <v>130</v>
       </c>
@@ -6114,10 +6116,10 @@
         <v>100</v>
       </c>
       <c r="D127" s="32">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E127" s="32">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F127" s="32">
         <v>3</v>
@@ -6138,7 +6140,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="34" t="s">
         <v>131</v>
       </c>
@@ -6149,13 +6151,13 @@
         <v>2275</v>
       </c>
       <c r="D128" s="32">
-        <v>2478</v>
+        <v>2520</v>
       </c>
       <c r="E128" s="32">
-        <v>2363</v>
+        <v>2398</v>
       </c>
       <c r="F128" s="32">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G128" s="33">
         <v>29988</v>
@@ -6173,7 +6175,7 @@
         <v>15173</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="34" t="s">
         <v>132</v>
       </c>
@@ -6184,13 +6186,13 @@
         <v>2900</v>
       </c>
       <c r="D129" s="32">
-        <v>5906</v>
+        <v>6196</v>
       </c>
       <c r="E129" s="32">
-        <v>5142</v>
+        <v>5408</v>
       </c>
       <c r="F129" s="32">
-        <v>764</v>
+        <v>788</v>
       </c>
       <c r="G129" s="33">
         <v>135188</v>
@@ -6208,7 +6210,7 @@
         <v>61261</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="34" t="s">
         <v>133</v>
       </c>
@@ -6219,13 +6221,13 @@
         <v>200</v>
       </c>
       <c r="D130" s="32">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="E130" s="32">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="F130" s="32">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G130" s="33">
         <v>16827</v>
@@ -6243,7 +6245,7 @@
         <v>8290</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="34" t="s">
         <v>134</v>
       </c>
@@ -6254,13 +6256,13 @@
         <v>1200</v>
       </c>
       <c r="D131" s="32">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E131" s="32">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F131" s="32">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G131" s="33">
         <v>12523</v>
@@ -6278,7 +6280,7 @@
         <v>6085</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="34" t="s">
         <v>135</v>
       </c>
@@ -6289,13 +6291,13 @@
         <v>3350</v>
       </c>
       <c r="D132" s="32">
-        <v>5052</v>
+        <v>5148</v>
       </c>
       <c r="E132" s="32">
-        <v>4272</v>
+        <v>4321</v>
       </c>
       <c r="F132" s="32">
-        <v>780</v>
+        <v>827</v>
       </c>
       <c r="G132" s="33">
         <v>104736</v>
@@ -6313,7 +6315,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="34" t="s">
         <v>136</v>
       </c>
@@ -6324,13 +6326,13 @@
         <v>2300</v>
       </c>
       <c r="D133" s="32">
-        <v>3031</v>
+        <v>3097</v>
       </c>
       <c r="E133" s="32">
-        <v>2316</v>
+        <v>2353</v>
       </c>
       <c r="F133" s="32">
-        <v>715</v>
+        <v>744</v>
       </c>
       <c r="G133" s="33">
         <v>38074</v>
@@ -6348,7 +6350,7 @@
         <v>15516</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="34" t="s">
         <v>137</v>
       </c>
@@ -6359,10 +6361,10 @@
         <v>0</v>
       </c>
       <c r="D134" s="32">
+        <v>21</v>
+      </c>
+      <c r="E134" s="32">
         <v>20</v>
-      </c>
-      <c r="E134" s="32">
-        <v>19</v>
       </c>
       <c r="F134" s="32">
         <v>1</v>
@@ -6383,7 +6385,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="34" t="s">
         <v>138</v>
       </c>
@@ -6394,10 +6396,10 @@
         <v>0</v>
       </c>
       <c r="D135" s="32">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E135" s="32">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F135" s="32">
         <v>0</v>
@@ -6418,7 +6420,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="34" t="s">
         <v>139</v>
       </c>
@@ -6429,13 +6431,13 @@
         <v>3100</v>
       </c>
       <c r="D136" s="32">
-        <v>2029</v>
+        <v>2142</v>
       </c>
       <c r="E136" s="32">
-        <v>1714</v>
+        <v>1778</v>
       </c>
       <c r="F136" s="32">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="G136" s="33">
         <v>43611</v>
@@ -6453,7 +6455,7 @@
         <v>20395</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="34" t="s">
         <v>140</v>
       </c>
@@ -6464,13 +6466,13 @@
         <v>300</v>
       </c>
       <c r="D137" s="32">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E137" s="32">
         <v>203</v>
       </c>
       <c r="F137" s="32">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G137" s="33">
         <v>3844</v>
@@ -6488,7 +6490,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="34" t="s">
         <v>141</v>
       </c>
@@ -6523,7 +6525,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="34" t="s">
         <v>142</v>
       </c>
@@ -6534,10 +6536,10 @@
         <v>0</v>
       </c>
       <c r="D139" s="32">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E139" s="32">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F139" s="32">
         <v>1</v>
@@ -6558,7 +6560,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="34" t="s">
         <v>143</v>
       </c>
@@ -6569,13 +6571,13 @@
         <v>2975</v>
       </c>
       <c r="D140" s="32">
-        <v>1766</v>
+        <v>1822</v>
       </c>
       <c r="E140" s="32">
-        <v>1660</v>
+        <v>1714</v>
       </c>
       <c r="F140" s="32">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G140" s="33">
         <v>25862</v>
@@ -6593,7 +6595,7 @@
         <v>10851</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="34" t="s">
         <v>144</v>
       </c>
@@ -6604,10 +6606,10 @@
         <v>300</v>
       </c>
       <c r="D141" s="32">
-        <v>211</v>
+        <v>300</v>
       </c>
       <c r="E141" s="32">
-        <v>200</v>
+        <v>289</v>
       </c>
       <c r="F141" s="32">
         <v>11</v>
@@ -6628,7 +6630,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="34" t="s">
         <v>145</v>
       </c>
@@ -6639,10 +6641,10 @@
         <v>1075</v>
       </c>
       <c r="D142" s="32">
-        <v>1043</v>
+        <v>1063</v>
       </c>
       <c r="E142" s="32">
-        <v>1025</v>
+        <v>1045</v>
       </c>
       <c r="F142" s="32">
         <v>18</v>
@@ -6663,7 +6665,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="34" t="s">
         <v>146</v>
       </c>
@@ -6674,13 +6676,13 @@
         <v>3100</v>
       </c>
       <c r="D143" s="32">
-        <v>2390</v>
+        <v>2445</v>
       </c>
       <c r="E143" s="32">
-        <v>2304</v>
+        <v>2350</v>
       </c>
       <c r="F143" s="32">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G143" s="33">
         <v>40212</v>
@@ -6698,7 +6700,7 @@
         <v>19135</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="34" t="s">
         <v>147</v>
       </c>
@@ -6709,10 +6711,10 @@
         <v>200</v>
       </c>
       <c r="D144" s="32">
-        <v>656</v>
+        <v>676</v>
       </c>
       <c r="E144" s="32">
-        <v>604</v>
+        <v>624</v>
       </c>
       <c r="F144" s="32">
         <v>52</v>
@@ -6733,7 +6735,7 @@
         <v>5028</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="34" t="s">
         <v>148</v>
       </c>
@@ -6744,13 +6746,13 @@
         <v>200</v>
       </c>
       <c r="D145" s="32">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="E145" s="32">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="F145" s="32">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G145" s="33">
         <v>17275</v>
@@ -6768,7 +6770,7 @@
         <v>8188</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="34" t="s">
         <v>149</v>
       </c>
@@ -6779,13 +6781,13 @@
         <v>1600</v>
       </c>
       <c r="D146" s="32">
-        <v>1170</v>
+        <v>1175</v>
       </c>
       <c r="E146" s="32">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="F146" s="32">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G146" s="33">
         <v>16041</v>
@@ -6803,7 +6805,7 @@
         <v>7426</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="34" t="s">
         <v>150</v>
       </c>
@@ -6814,10 +6816,10 @@
         <v>600</v>
       </c>
       <c r="D147" s="32">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="E147" s="32">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="F147" s="32">
         <v>26</v>
@@ -6838,7 +6840,7 @@
         <v>6632</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="34" t="s">
         <v>151</v>
       </c>
@@ -6849,10 +6851,10 @@
         <v>600</v>
       </c>
       <c r="D148" s="32">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E148" s="32">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F148" s="32">
         <v>15</v>
@@ -6873,7 +6875,7 @@
         <v>6485</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="34" t="s">
         <v>152</v>
       </c>
@@ -6884,10 +6886,10 @@
         <v>4275</v>
       </c>
       <c r="D149" s="32">
-        <v>2295</v>
+        <v>2359</v>
       </c>
       <c r="E149" s="32">
-        <v>2179</v>
+        <v>2243</v>
       </c>
       <c r="F149" s="32">
         <v>116</v>
@@ -6908,7 +6910,7 @@
         <v>32693</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="34" t="s">
         <v>153</v>
       </c>
@@ -6919,10 +6921,10 @@
         <v>1100</v>
       </c>
       <c r="D150" s="32">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="E150" s="32">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="F150" s="32">
         <v>14</v>
@@ -6943,7 +6945,7 @@
         <v>9655</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="34" t="s">
         <v>154</v>
       </c>
@@ -6954,10 +6956,10 @@
         <v>0</v>
       </c>
       <c r="D151" s="32">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E151" s="32">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F151" s="32">
         <v>3</v>
@@ -6978,7 +6980,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="34" t="s">
         <v>155</v>
       </c>
@@ -6989,13 +6991,13 @@
         <v>200</v>
       </c>
       <c r="D152" s="32">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="E152" s="32">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="F152" s="32">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G152" s="33">
         <v>9966</v>
@@ -7013,7 +7015,7 @@
         <v>4881</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="34" t="s">
         <v>156</v>
       </c>
@@ -7024,13 +7026,13 @@
         <v>100</v>
       </c>
       <c r="D153" s="32">
-        <v>710</v>
+        <v>724</v>
       </c>
       <c r="E153" s="32">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="F153" s="32">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G153" s="33">
         <v>18642</v>
@@ -7048,7 +7050,7 @@
         <v>9093</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="34" t="s">
         <v>157</v>
       </c>
@@ -7083,7 +7085,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="34" t="s">
         <v>158</v>
       </c>
@@ -7094,13 +7096,13 @@
         <v>65300</v>
       </c>
       <c r="D155" s="32">
-        <v>32839</v>
+        <v>33258</v>
       </c>
       <c r="E155" s="32">
-        <v>27349</v>
+        <v>27763</v>
       </c>
       <c r="F155" s="32">
-        <v>5490</v>
+        <v>5495</v>
       </c>
       <c r="G155" s="33">
         <v>243899</v>
@@ -7118,7 +7120,7 @@
         <v>94573</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="34" t="s">
         <v>159</v>
       </c>
@@ -7129,13 +7131,13 @@
         <v>200</v>
       </c>
       <c r="D156" s="32">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E156" s="32">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F156" s="32">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G156" s="33">
         <v>4820</v>
@@ -7153,7 +7155,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="34" t="s">
         <v>160</v>
       </c>
@@ -7188,7 +7190,7 @@
         <v>5423</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="34" t="s">
         <v>161</v>
       </c>
@@ -7223,7 +7225,7 @@
         <v>4457</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="34" t="s">
         <v>162</v>
       </c>
@@ -7258,7 +7260,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="34" t="s">
         <v>163</v>
       </c>
@@ -7269,10 +7271,10 @@
         <v>200</v>
       </c>
       <c r="D160" s="32">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E160" s="32">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F160" s="32">
         <v>16</v>
@@ -7293,7 +7295,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="34" t="s">
         <v>164</v>
       </c>
@@ -7304,13 +7306,13 @@
         <v>2500</v>
       </c>
       <c r="D161" s="32">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="E161" s="32">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="F161" s="32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G161" s="33">
         <v>28353</v>
@@ -7328,7 +7330,7 @@
         <v>14206</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="34" t="s">
         <v>165</v>
       </c>
@@ -7339,13 +7341,13 @@
         <v>3600</v>
       </c>
       <c r="D162" s="32">
-        <v>2484</v>
+        <v>2504</v>
       </c>
       <c r="E162" s="32">
-        <v>2380</v>
+        <v>2391</v>
       </c>
       <c r="F162" s="32">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G162" s="33">
         <v>42357</v>
@@ -7363,7 +7365,7 @@
         <v>21160</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="34" t="s">
         <v>166</v>
       </c>
@@ -7398,7 +7400,7 @@
         <v>3045</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="34" t="s">
         <v>167</v>
       </c>
@@ -7409,13 +7411,13 @@
         <v>18650</v>
       </c>
       <c r="D164" s="32">
-        <v>14021</v>
+        <v>14205</v>
       </c>
       <c r="E164" s="32">
-        <v>12760</v>
+        <v>12923</v>
       </c>
       <c r="F164" s="32">
-        <v>1261</v>
+        <v>1282</v>
       </c>
       <c r="G164" s="33">
         <v>198642</v>
@@ -7433,7 +7435,7 @@
         <v>84638</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="34" t="s">
         <v>168</v>
       </c>
@@ -7444,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="D165" s="32">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E165" s="32">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F165" s="32">
         <v>1</v>
@@ -7468,7 +7470,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="34" t="s">
         <v>169</v>
       </c>
@@ -7479,13 +7481,13 @@
         <v>1000</v>
       </c>
       <c r="D166" s="32">
-        <v>2150</v>
+        <v>2184</v>
       </c>
       <c r="E166" s="32">
-        <v>1848</v>
+        <v>1866</v>
       </c>
       <c r="F166" s="32">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="G166" s="33">
         <v>42991</v>
@@ -7503,7 +7505,7 @@
         <v>19399</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="34" t="s">
         <v>170</v>
       </c>
@@ -7538,7 +7540,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="34" t="s">
         <v>171</v>
       </c>
@@ -7549,13 +7551,13 @@
         <v>11475</v>
       </c>
       <c r="D168" s="32">
-        <v>6421</v>
+        <v>6465</v>
       </c>
       <c r="E168" s="32">
-        <v>4537</v>
+        <v>4563</v>
       </c>
       <c r="F168" s="32">
-        <v>1884</v>
+        <v>1902</v>
       </c>
       <c r="G168" s="33">
         <v>132357</v>
@@ -7573,7 +7575,7 @@
         <v>54263</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="34" t="s">
         <v>172</v>
       </c>
@@ -7584,13 +7586,13 @@
         <v>1500</v>
       </c>
       <c r="D169" s="32">
-        <v>1313</v>
+        <v>1322</v>
       </c>
       <c r="E169" s="32">
-        <v>1268</v>
+        <v>1276</v>
       </c>
       <c r="F169" s="32">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G169" s="33">
         <v>19805</v>
@@ -7608,7 +7610,7 @@
         <v>10021</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="34" t="s">
         <v>173</v>
       </c>
@@ -7619,10 +7621,10 @@
         <v>200</v>
       </c>
       <c r="D170" s="32">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E170" s="32">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F170" s="32">
         <v>20</v>
@@ -7643,7 +7645,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="34" t="s">
         <v>174</v>
       </c>
@@ -7654,13 +7656,13 @@
         <v>600</v>
       </c>
       <c r="D171" s="32">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E171" s="32">
         <v>283</v>
       </c>
       <c r="F171" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G171" s="33">
         <v>7087</v>
@@ -7678,7 +7680,7 @@
         <v>3086</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="34" t="s">
         <v>175</v>
       </c>
@@ -7689,10 +7691,10 @@
         <v>1175</v>
       </c>
       <c r="D172" s="32">
-        <v>1001</v>
+        <v>1015</v>
       </c>
       <c r="E172" s="32">
-        <v>932</v>
+        <v>946</v>
       </c>
       <c r="F172" s="32">
         <v>69</v>
@@ -7713,7 +7715,7 @@
         <v>7509</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="34" t="s">
         <v>176</v>
       </c>
@@ -7724,13 +7726,13 @@
         <v>41100</v>
       </c>
       <c r="D173" s="32">
-        <v>19827</v>
+        <v>20013</v>
       </c>
       <c r="E173" s="32">
-        <v>17256</v>
+        <v>17410</v>
       </c>
       <c r="F173" s="32">
-        <v>2571</v>
+        <v>2603</v>
       </c>
       <c r="G173" s="33">
         <v>470846</v>
@@ -7748,7 +7750,7 @@
         <v>177437</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="34" t="s">
         <v>177</v>
       </c>
@@ -7783,7 +7785,7 @@
         <v>7114</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="34" t="s">
         <v>178</v>
       </c>
@@ -7794,13 +7796,13 @@
         <v>300</v>
       </c>
       <c r="D175" s="32">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E175" s="32">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F175" s="32">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G175" s="33">
         <v>9938</v>
@@ -7818,7 +7820,7 @@
         <v>4953</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="34" t="s">
         <v>179</v>
       </c>
@@ -7829,10 +7831,10 @@
         <v>0</v>
       </c>
       <c r="D176" s="32">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E176" s="32">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F176" s="32">
         <v>5</v>
@@ -7853,7 +7855,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="34" t="s">
         <v>180</v>
       </c>
@@ -7864,13 +7866,13 @@
         <v>6700</v>
       </c>
       <c r="D177" s="32">
-        <v>4337</v>
+        <v>4352</v>
       </c>
       <c r="E177" s="32">
-        <v>4169</v>
+        <v>4180</v>
       </c>
       <c r="F177" s="32">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G177" s="33">
         <v>52561</v>
@@ -7888,7 +7890,7 @@
         <v>24062</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="34" t="s">
         <v>181</v>
       </c>
@@ -7899,13 +7901,13 @@
         <v>2500</v>
       </c>
       <c r="D178" s="32">
-        <v>1794</v>
+        <v>1980</v>
       </c>
       <c r="E178" s="32">
-        <v>1719</v>
+        <v>1903</v>
       </c>
       <c r="F178" s="32">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G178" s="33">
         <v>40888</v>
@@ -7923,7 +7925,7 @@
         <v>19328</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="34" t="s">
         <v>182</v>
       </c>
@@ -7934,10 +7936,10 @@
         <v>400</v>
       </c>
       <c r="D179" s="32">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E179" s="32">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F179" s="32">
         <v>5</v>
@@ -7958,7 +7960,7 @@
         <v>6051</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="34" t="s">
         <v>183</v>
       </c>
@@ -7969,13 +7971,13 @@
         <v>1600</v>
       </c>
       <c r="D180" s="32">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="E180" s="32">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="F180" s="32">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G180" s="33">
         <v>10998</v>
@@ -7993,7 +7995,7 @@
         <v>5398</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="34" t="s">
         <v>184</v>
       </c>
@@ -8004,13 +8006,13 @@
         <v>40450</v>
       </c>
       <c r="D181" s="32">
-        <v>20987</v>
+        <v>21732</v>
       </c>
       <c r="E181" s="32">
-        <v>16339</v>
+        <v>16877</v>
       </c>
       <c r="F181" s="32">
-        <v>4648</v>
+        <v>4855</v>
       </c>
       <c r="G181" s="33">
         <v>282299</v>
@@ -8028,7 +8030,7 @@
         <v>135074</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="34" t="s">
         <v>185</v>
       </c>
@@ -8063,7 +8065,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="34" t="s">
         <v>186</v>
       </c>
@@ -8098,7 +8100,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="34" t="s">
         <v>187</v>
       </c>
@@ -8109,13 +8111,13 @@
         <v>1200</v>
       </c>
       <c r="D184" s="32">
-        <v>1444</v>
+        <v>1455</v>
       </c>
       <c r="E184" s="32">
-        <v>1355</v>
+        <v>1365</v>
       </c>
       <c r="F184" s="32">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G184" s="33">
         <v>65680</v>
@@ -8133,7 +8135,7 @@
         <v>32089</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="34" t="s">
         <v>188</v>
       </c>
@@ -8144,10 +8146,10 @@
         <v>800</v>
       </c>
       <c r="D185" s="32">
-        <v>816</v>
+        <v>829</v>
       </c>
       <c r="E185" s="32">
-        <v>797</v>
+        <v>810</v>
       </c>
       <c r="F185" s="32">
         <v>19</v>
@@ -8168,7 +8170,7 @@
         <v>11269</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="34" t="s">
         <v>189</v>
       </c>
@@ -8179,13 +8181,13 @@
         <v>1200</v>
       </c>
       <c r="D186" s="32">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E186" s="32">
         <v>821</v>
       </c>
       <c r="F186" s="32">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G186" s="33">
         <v>19325</v>
@@ -8203,7 +8205,7 @@
         <v>9112</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="34" t="s">
         <v>190</v>
       </c>
@@ -8214,13 +8216,13 @@
         <v>6850</v>
       </c>
       <c r="D187" s="32">
-        <v>5976</v>
+        <v>6275</v>
       </c>
       <c r="E187" s="32">
-        <v>5465</v>
+        <v>5749</v>
       </c>
       <c r="F187" s="32">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="G187" s="33">
         <v>112329</v>
@@ -8238,7 +8240,7 @@
         <v>47252</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="34" t="s">
         <v>191</v>
       </c>
@@ -8249,13 +8251,13 @@
         <v>500</v>
       </c>
       <c r="D188" s="32">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="E188" s="32">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="F188" s="32">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G188" s="33">
         <v>7111</v>
@@ -8273,7 +8275,7 @@
         <v>3503</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="34" t="s">
         <v>192</v>
       </c>
@@ -8284,13 +8286,13 @@
         <v>1200</v>
       </c>
       <c r="D189" s="32">
-        <v>785</v>
+        <v>811</v>
       </c>
       <c r="E189" s="32">
-        <v>645</v>
+        <v>670</v>
       </c>
       <c r="F189" s="32">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G189" s="33">
         <v>11723</v>
@@ -8308,7 +8310,7 @@
         <v>5876</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="34" t="s">
         <v>193</v>
       </c>
@@ -8319,13 +8321,13 @@
         <v>2700</v>
       </c>
       <c r="D190" s="32">
-        <v>1493</v>
+        <v>1501</v>
       </c>
       <c r="E190" s="32">
-        <v>1451</v>
+        <v>1458</v>
       </c>
       <c r="F190" s="32">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G190" s="33">
         <v>41511</v>
@@ -8343,7 +8345,7 @@
         <v>20999</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="34" t="s">
         <v>194</v>
       </c>
@@ -8354,10 +8356,10 @@
         <v>46150</v>
       </c>
       <c r="D191" s="32">
-        <v>12146</v>
+        <v>12148</v>
       </c>
       <c r="E191" s="32">
-        <v>11372</v>
+        <v>11374</v>
       </c>
       <c r="F191" s="32">
         <v>774</v>
@@ -8378,7 +8380,7 @@
         <v>41999</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="34" t="s">
         <v>195</v>
       </c>
@@ -8389,10 +8391,10 @@
         <v>400</v>
       </c>
       <c r="D192" s="32">
+        <v>231</v>
+      </c>
+      <c r="E192" s="32">
         <v>230</v>
-      </c>
-      <c r="E192" s="32">
-        <v>229</v>
       </c>
       <c r="F192" s="32">
         <v>1</v>
@@ -8413,7 +8415,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="34" t="s">
         <v>196</v>
       </c>
@@ -8424,10 +8426,10 @@
         <v>200</v>
       </c>
       <c r="D193" s="32">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E193" s="32">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F193" s="32">
         <v>56</v>
@@ -8448,7 +8450,7 @@
         <v>4960</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="34" t="s">
         <v>197</v>
       </c>
@@ -8459,10 +8461,10 @@
         <v>4600</v>
       </c>
       <c r="D194" s="32">
-        <v>18654</v>
+        <v>18673</v>
       </c>
       <c r="E194" s="32">
-        <v>17344</v>
+        <v>17363</v>
       </c>
       <c r="F194" s="32">
         <v>1310</v>
@@ -8483,7 +8485,7 @@
         <v>41519</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="34" t="s">
         <v>198</v>
       </c>
@@ -8518,7 +8520,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="34" t="s">
         <v>199</v>
       </c>
@@ -8553,7 +8555,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="34" t="s">
         <v>200</v>
       </c>
@@ -8564,13 +8566,13 @@
         <v>200</v>
       </c>
       <c r="D197" s="32">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="E197" s="32">
         <v>799</v>
       </c>
       <c r="F197" s="32">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G197" s="33">
         <v>9511</v>
@@ -8588,7 +8590,7 @@
         <v>5235</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="34" t="s">
         <v>201</v>
       </c>
@@ -8623,7 +8625,7 @@
         <v>5885</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="34" t="s">
         <v>202</v>
       </c>
@@ -8634,10 +8636,10 @@
         <v>600</v>
       </c>
       <c r="D199" s="32">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E199" s="32">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F199" s="32">
         <v>82</v>
@@ -8658,7 +8660,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="34" t="s">
         <v>203</v>
       </c>
@@ -8669,10 +8671,10 @@
         <v>0</v>
       </c>
       <c r="D200" s="32">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E200" s="32">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F200" s="32">
         <v>0</v>
@@ -8693,7 +8695,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="34" t="s">
         <v>204</v>
       </c>
@@ -8704,10 +8706,10 @@
         <v>700</v>
       </c>
       <c r="D201" s="32">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="E201" s="32">
-        <v>511</v>
+        <v>538</v>
       </c>
       <c r="F201" s="32">
         <v>45</v>
@@ -8728,7 +8730,7 @@
         <v>6514</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="34" t="s">
         <v>205</v>
       </c>
@@ -8739,13 +8741,13 @@
         <v>4400</v>
       </c>
       <c r="D202" s="32">
-        <v>4502</v>
+        <v>4575</v>
       </c>
       <c r="E202" s="32">
-        <v>3874</v>
+        <v>3903</v>
       </c>
       <c r="F202" s="32">
-        <v>628</v>
+        <v>672</v>
       </c>
       <c r="G202" s="33">
         <v>81869</v>
@@ -8763,7 +8765,7 @@
         <v>30252</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="34" t="s">
         <v>206</v>
       </c>
@@ -8774,10 +8776,10 @@
         <v>1000</v>
       </c>
       <c r="D203" s="32">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E203" s="32">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="F203" s="32">
         <v>77</v>
@@ -8798,7 +8800,7 @@
         <v>3905</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="34" t="s">
         <v>207</v>
       </c>
@@ -8809,13 +8811,13 @@
         <v>1000</v>
       </c>
       <c r="D204" s="32">
-        <v>1551</v>
+        <v>1558</v>
       </c>
       <c r="E204" s="32">
         <v>1379</v>
       </c>
       <c r="F204" s="32">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="G204" s="33">
         <v>44061</v>
@@ -8833,7 +8835,7 @@
         <v>21319</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="34" t="s">
         <v>208</v>
       </c>
@@ -8844,10 +8846,10 @@
         <v>1200</v>
       </c>
       <c r="D205" s="32">
-        <v>818</v>
+        <v>874</v>
       </c>
       <c r="E205" s="32">
-        <v>814</v>
+        <v>870</v>
       </c>
       <c r="F205" s="32">
         <v>4</v>
@@ -8868,7 +8870,7 @@
         <v>4721</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="34" t="s">
         <v>209</v>
       </c>
@@ -8879,10 +8881,10 @@
         <v>800</v>
       </c>
       <c r="D206" s="32">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="E206" s="32">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="F206" s="32">
         <v>8</v>
@@ -8903,7 +8905,7 @@
         <v>3730</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="34" t="s">
         <v>210</v>
       </c>
@@ -8914,13 +8916,13 @@
         <v>1100</v>
       </c>
       <c r="D207" s="32">
-        <v>843</v>
+        <v>852</v>
       </c>
       <c r="E207" s="32">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="F207" s="32">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G207" s="33">
         <v>23713</v>
@@ -8938,7 +8940,7 @@
         <v>12311</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="34" t="s">
         <v>211</v>
       </c>
@@ -8949,13 +8951,13 @@
         <v>1700</v>
       </c>
       <c r="D208" s="32">
-        <v>2124</v>
+        <v>2192</v>
       </c>
       <c r="E208" s="32">
-        <v>1767</v>
+        <v>1823</v>
       </c>
       <c r="F208" s="32">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="G208" s="33">
         <v>51382</v>
@@ -8973,7 +8975,7 @@
         <v>22807</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="34" t="s">
         <v>212</v>
       </c>
@@ -8984,10 +8986,10 @@
         <v>200</v>
       </c>
       <c r="D209" s="32">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E209" s="32">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F209" s="32">
         <v>6</v>
@@ -9008,7 +9010,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="34" t="s">
         <v>213</v>
       </c>
@@ -9019,10 +9021,10 @@
         <v>200</v>
       </c>
       <c r="D210" s="32">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E210" s="32">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F210" s="32">
         <v>22</v>
@@ -9043,7 +9045,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="34" t="s">
         <v>214</v>
       </c>
@@ -9054,13 +9056,13 @@
         <v>1475</v>
       </c>
       <c r="D211" s="32">
-        <v>478</v>
+        <v>571</v>
       </c>
       <c r="E211" s="32">
-        <v>471</v>
+        <v>563</v>
       </c>
       <c r="F211" s="32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G211" s="33">
         <v>12956</v>
@@ -9078,7 +9080,7 @@
         <v>6242</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="34" t="s">
         <v>215</v>
       </c>
@@ -9089,13 +9091,13 @@
         <v>0</v>
       </c>
       <c r="D212" s="32">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E212" s="32">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F212" s="32">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G212" s="33">
         <v>2694</v>
@@ -9113,7 +9115,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="34" t="s">
         <v>216</v>
       </c>
@@ -9124,10 +9126,10 @@
         <v>1200</v>
       </c>
       <c r="D213" s="32">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E213" s="32">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F213" s="32">
         <v>22</v>
@@ -9148,7 +9150,7 @@
         <v>9951</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="34" t="s">
         <v>217</v>
       </c>
@@ -9183,7 +9185,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="34" t="s">
         <v>218</v>
       </c>
@@ -9194,13 +9196,13 @@
         <v>38750</v>
       </c>
       <c r="D215" s="32">
-        <v>18903</v>
+        <v>18981</v>
       </c>
       <c r="E215" s="32">
-        <v>15437</v>
+        <v>15451</v>
       </c>
       <c r="F215" s="32">
-        <v>3466</v>
+        <v>3530</v>
       </c>
       <c r="G215" s="33">
         <v>181426</v>
@@ -9218,7 +9220,7 @@
         <v>75818</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="34" t="s">
         <v>219</v>
       </c>
@@ -9229,13 +9231,13 @@
         <v>0</v>
       </c>
       <c r="D216" s="32">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E216" s="32">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F216" s="32">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G216" s="33">
         <v>7769</v>
@@ -9253,7 +9255,7 @@
         <v>3417</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="34" t="s">
         <v>220</v>
       </c>
@@ -9264,13 +9266,13 @@
         <v>2900</v>
       </c>
       <c r="D217" s="32">
-        <v>2556</v>
+        <v>2765</v>
       </c>
       <c r="E217" s="32">
-        <v>2172</v>
+        <v>2212</v>
       </c>
       <c r="F217" s="32">
-        <v>384</v>
+        <v>553</v>
       </c>
       <c r="G217" s="33">
         <v>46042</v>
@@ -9288,7 +9290,7 @@
         <v>23826</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="34" t="s">
         <v>221</v>
       </c>
@@ -9299,10 +9301,10 @@
         <v>300</v>
       </c>
       <c r="D218" s="32">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E218" s="32">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F218" s="32">
         <v>13</v>
@@ -9323,7 +9325,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="34" t="s">
         <v>222</v>
       </c>
@@ -9358,7 +9360,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="34" t="s">
         <v>223</v>
       </c>
@@ -9369,10 +9371,10 @@
         <v>200</v>
       </c>
       <c r="D220" s="32">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="E220" s="32">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="F220" s="32">
         <v>5</v>
@@ -9393,7 +9395,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="34" t="s">
         <v>224</v>
       </c>
@@ -9428,7 +9430,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="34" t="s">
         <v>225</v>
       </c>
@@ -9439,10 +9441,10 @@
         <v>100</v>
       </c>
       <c r="D222" s="32">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E222" s="32">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F222" s="32">
         <v>10</v>
@@ -9463,7 +9465,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="34" t="s">
         <v>226</v>
       </c>
@@ -9474,13 +9476,13 @@
         <v>215950</v>
       </c>
       <c r="D223" s="32">
-        <v>84957</v>
+        <v>87345</v>
       </c>
       <c r="E223" s="32">
-        <v>77038</v>
+        <v>79093</v>
       </c>
       <c r="F223" s="32">
-        <v>7919</v>
+        <v>8252</v>
       </c>
       <c r="G223" s="33">
         <v>1596169</v>
@@ -9498,7 +9500,7 @@
         <v>660059</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="34" t="s">
         <v>227</v>
       </c>
@@ -9509,13 +9511,13 @@
         <v>12750</v>
       </c>
       <c r="D224" s="32">
-        <v>11097</v>
+        <v>11137</v>
       </c>
       <c r="E224" s="32">
-        <v>8171</v>
+        <v>8202</v>
       </c>
       <c r="F224" s="32">
-        <v>2926</v>
+        <v>2935</v>
       </c>
       <c r="G224" s="33">
         <v>108531</v>
@@ -9533,7 +9535,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="34" t="s">
         <v>228</v>
       </c>
@@ -9544,10 +9546,10 @@
         <v>0</v>
       </c>
       <c r="D225" s="32">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E225" s="32">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F225" s="32">
         <v>8</v>
@@ -9568,7 +9570,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="34" t="s">
         <v>229</v>
       </c>
@@ -9579,13 +9581,13 @@
         <v>2375</v>
       </c>
       <c r="D226" s="32">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E226" s="32">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="F226" s="32">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G226" s="33">
         <v>9564</v>
@@ -9603,7 +9605,7 @@
         <v>4766</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="34" t="s">
         <v>230</v>
       </c>
@@ -9614,10 +9616,10 @@
         <v>200</v>
       </c>
       <c r="D227" s="32">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E227" s="32">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F227" s="32">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="34" t="s">
         <v>231</v>
       </c>
@@ -9649,13 +9651,13 @@
         <v>2700</v>
       </c>
       <c r="D228" s="32">
-        <v>1095</v>
+        <v>1110</v>
       </c>
       <c r="E228" s="32">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="F228" s="32">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G228" s="33">
         <v>25312</v>
@@ -9673,7 +9675,7 @@
         <v>11794</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="34" t="s">
         <v>232</v>
       </c>
@@ -9684,13 +9686,13 @@
         <v>12000</v>
       </c>
       <c r="D229" s="32">
-        <v>9852</v>
+        <v>9961</v>
       </c>
       <c r="E229" s="32">
-        <v>7444</v>
+        <v>7552</v>
       </c>
       <c r="F229" s="32">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="G229" s="33">
         <v>93428</v>
@@ -9708,7 +9710,7 @@
         <v>39665</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="34" t="s">
         <v>233</v>
       </c>
@@ -9719,13 +9721,13 @@
         <v>126550</v>
       </c>
       <c r="D230" s="32">
-        <v>72130</v>
+        <v>74248</v>
       </c>
       <c r="E230" s="32">
-        <v>60458</v>
+        <v>62455</v>
       </c>
       <c r="F230" s="32">
-        <v>11672</v>
+        <v>11793</v>
       </c>
       <c r="G230" s="33">
         <v>1016090</v>
@@ -9743,7 +9745,7 @@
         <v>337286</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="34" t="s">
         <v>234</v>
       </c>
@@ -9754,10 +9756,10 @@
         <v>1775</v>
       </c>
       <c r="D231" s="32">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E231" s="32">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F231" s="32">
         <v>11</v>
@@ -9778,7 +9780,7 @@
         <v>6368</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="34" t="s">
         <v>235</v>
       </c>
@@ -9789,10 +9791,10 @@
         <v>1200</v>
       </c>
       <c r="D232" s="32">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="E232" s="32">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="F232" s="32">
         <v>9</v>
@@ -9813,7 +9815,7 @@
         <v>9278</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="34" t="s">
         <v>236</v>
       </c>
@@ -9824,13 +9826,13 @@
         <v>500</v>
       </c>
       <c r="D233" s="32">
-        <v>1257</v>
+        <v>1264</v>
       </c>
       <c r="E233" s="32">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="F233" s="32">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G233" s="33">
         <v>33211</v>
@@ -9848,7 +9850,7 @@
         <v>15425</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="34" t="s">
         <v>237</v>
       </c>
@@ -9859,10 +9861,10 @@
         <v>200</v>
       </c>
       <c r="D234" s="32">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="E234" s="32">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="F234" s="32">
         <v>15</v>
@@ -9883,7 +9885,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="34" t="s">
         <v>238</v>
       </c>
@@ -9894,13 +9896,13 @@
         <v>2775</v>
       </c>
       <c r="D235" s="32">
-        <v>2343</v>
+        <v>2393</v>
       </c>
       <c r="E235" s="32">
-        <v>2042</v>
+        <v>2050</v>
       </c>
       <c r="F235" s="32">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="G235" s="33">
         <v>20809</v>
@@ -9918,7 +9920,7 @@
         <v>10179</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="34" t="s">
         <v>239</v>
       </c>
@@ -9929,13 +9931,13 @@
         <v>3075</v>
       </c>
       <c r="D236" s="32">
-        <v>1497</v>
+        <v>2589</v>
       </c>
       <c r="E236" s="32">
-        <v>1321</v>
+        <v>2390</v>
       </c>
       <c r="F236" s="32">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="G236" s="33">
         <v>38039</v>
@@ -9953,7 +9955,7 @@
         <v>17165</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="34" t="s">
         <v>240</v>
       </c>
@@ -9964,13 +9966,13 @@
         <v>2000</v>
       </c>
       <c r="D237" s="32">
-        <v>2336</v>
+        <v>2353</v>
       </c>
       <c r="E237" s="32">
-        <v>2026</v>
+        <v>2036</v>
       </c>
       <c r="F237" s="32">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="G237" s="33">
         <v>45144</v>
@@ -9988,7 +9990,7 @@
         <v>21537</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="34" t="s">
         <v>241</v>
       </c>
@@ -9999,10 +10001,10 @@
         <v>6575</v>
       </c>
       <c r="D238" s="32">
-        <v>5842</v>
+        <v>5878</v>
       </c>
       <c r="E238" s="32">
-        <v>4742</v>
+        <v>4778</v>
       </c>
       <c r="F238" s="32">
         <v>1100</v>
@@ -10023,7 +10025,7 @@
         <v>33178</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="34" t="s">
         <v>242</v>
       </c>
@@ -10034,10 +10036,10 @@
         <v>3200</v>
       </c>
       <c r="D239" s="32">
-        <v>2238</v>
+        <v>2243</v>
       </c>
       <c r="E239" s="32">
-        <v>2162</v>
+        <v>2167</v>
       </c>
       <c r="F239" s="32">
         <v>76</v>
@@ -10058,7 +10060,7 @@
         <v>28400</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="34" t="s">
         <v>243</v>
       </c>
@@ -10069,13 +10071,13 @@
         <v>1700</v>
       </c>
       <c r="D240" s="32">
-        <v>1087</v>
+        <v>1100</v>
       </c>
       <c r="E240" s="32">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="F240" s="32">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G240" s="33">
         <v>44163</v>
@@ -10093,7 +10095,7 @@
         <v>18373</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="34" t="s">
         <v>244</v>
       </c>
@@ -10104,10 +10106,10 @@
         <v>400</v>
       </c>
       <c r="D241" s="32">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E241" s="32">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F241" s="32">
         <v>18</v>
@@ -10128,7 +10130,7 @@
         <v>4073</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="34" t="s">
         <v>245</v>
       </c>
@@ -10139,13 +10141,13 @@
         <v>3900</v>
       </c>
       <c r="D242" s="32">
-        <v>1443</v>
+        <v>1455</v>
       </c>
       <c r="E242" s="32">
-        <v>1356</v>
+        <v>1365</v>
       </c>
       <c r="F242" s="32">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G242" s="33">
         <v>28737</v>
@@ -10163,7 +10165,7 @@
         <v>13829</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="34" t="s">
         <v>246</v>
       </c>
@@ -10174,13 +10176,13 @@
         <v>28100</v>
       </c>
       <c r="D243" s="32">
-        <v>13166</v>
+        <v>13363</v>
       </c>
       <c r="E243" s="32">
-        <v>12153</v>
+        <v>12249</v>
       </c>
       <c r="F243" s="32">
-        <v>1013</v>
+        <v>1114</v>
       </c>
       <c r="G243" s="33">
         <v>205887</v>
@@ -10198,7 +10200,7 @@
         <v>96319</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="34" t="s">
         <v>247</v>
       </c>
@@ -10209,13 +10211,13 @@
         <v>1800</v>
       </c>
       <c r="D244" s="32">
-        <v>1020</v>
+        <v>1058</v>
       </c>
       <c r="E244" s="32">
-        <v>973</v>
+        <v>1006</v>
       </c>
       <c r="F244" s="32">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G244" s="33">
         <v>31964</v>
@@ -10233,7 +10235,7 @@
         <v>16049</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="34" t="s">
         <v>248</v>
       </c>
@@ -10268,7 +10270,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="34" t="s">
         <v>249</v>
       </c>
@@ -10279,13 +10281,13 @@
         <v>18850</v>
       </c>
       <c r="D246" s="32">
-        <v>9652</v>
+        <v>10549</v>
       </c>
       <c r="E246" s="32">
-        <v>8111</v>
+        <v>8975</v>
       </c>
       <c r="F246" s="32">
-        <v>1541</v>
+        <v>1574</v>
       </c>
       <c r="G246" s="33">
         <v>106550</v>
@@ -10303,7 +10305,7 @@
         <v>50159</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="34" t="s">
         <v>250</v>
       </c>
@@ -10314,10 +10316,10 @@
         <v>2900</v>
       </c>
       <c r="D247" s="32">
-        <v>1280</v>
+        <v>1336</v>
       </c>
       <c r="E247" s="32">
-        <v>1131</v>
+        <v>1187</v>
       </c>
       <c r="F247" s="32">
         <v>149</v>
@@ -10338,7 +10340,7 @@
         <v>5328</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="34" t="s">
         <v>251</v>
       </c>
@@ -10349,13 +10351,13 @@
         <v>400</v>
       </c>
       <c r="D248" s="32">
-        <v>1088</v>
+        <v>1375</v>
       </c>
       <c r="E248" s="32">
-        <v>1008</v>
+        <v>1294</v>
       </c>
       <c r="F248" s="32">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G248" s="33">
         <v>16823</v>
@@ -10373,7 +10375,7 @@
         <v>9035</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="34" t="s">
         <v>252</v>
       </c>
@@ -10384,13 +10386,13 @@
         <v>33875</v>
       </c>
       <c r="D249" s="32">
-        <v>29452</v>
+        <v>30173</v>
       </c>
       <c r="E249" s="32">
-        <v>25180</v>
+        <v>25857</v>
       </c>
       <c r="F249" s="32">
-        <v>4272</v>
+        <v>4316</v>
       </c>
       <c r="G249" s="33">
         <v>457170</v>
@@ -10408,7 +10410,7 @@
         <v>160153</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="34" t="s">
         <v>253</v>
       </c>
@@ -10419,13 +10421,13 @@
         <v>3000</v>
       </c>
       <c r="D250" s="32">
-        <v>2772</v>
+        <v>2808</v>
       </c>
       <c r="E250" s="32">
-        <v>2348</v>
+        <v>2374</v>
       </c>
       <c r="F250" s="32">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="G250" s="33">
         <v>42030</v>
@@ -10443,7 +10445,7 @@
         <v>16633</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="34" t="s">
         <v>254</v>
       </c>
@@ -10478,7 +10480,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="34" t="s">
         <v>255</v>
       </c>
@@ -10489,13 +10491,13 @@
         <v>4350</v>
       </c>
       <c r="D252" s="32">
-        <v>4132</v>
+        <v>4182</v>
       </c>
       <c r="E252" s="32">
-        <v>3287</v>
+        <v>3307</v>
       </c>
       <c r="F252" s="32">
-        <v>845</v>
+        <v>875</v>
       </c>
       <c r="G252" s="33">
         <v>55570</v>
@@ -10513,7 +10515,7 @@
         <v>26139</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="34" t="s">
         <v>256</v>
       </c>
@@ -10524,13 +10526,13 @@
         <v>1500</v>
       </c>
       <c r="D253" s="32">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E253" s="32">
-        <v>1814</v>
+        <v>1823</v>
       </c>
       <c r="F253" s="32">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G253" s="33">
         <v>37205</v>
@@ -10548,7 +10550,7 @@
         <v>18613</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="34" t="s">
         <v>257</v>
       </c>
@@ -10559,10 +10561,10 @@
         <v>300</v>
       </c>
       <c r="D254" s="32">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="E254" s="32">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F254" s="32">
         <v>11</v>
@@ -10583,7 +10585,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="34" t="s">
         <v>258</v>
       </c>
@@ -10594,13 +10596,13 @@
         <v>1700</v>
       </c>
       <c r="D255" s="32">
-        <v>719</v>
+        <v>776</v>
       </c>
       <c r="E255" s="32">
-        <v>698</v>
+        <v>745</v>
       </c>
       <c r="F255" s="32">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G255" s="33">
         <v>15028</v>
@@ -10618,7 +10620,7 @@
         <v>6955</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="34" t="s">
         <v>259</v>
       </c>
@@ -10629,13 +10631,13 @@
         <v>400</v>
       </c>
       <c r="D256" s="32">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E256" s="32">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F256" s="32">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G256" s="33">
         <v>10088</v>
@@ -10653,7 +10655,7 @@
         <v>5427</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="34" t="s">
         <v>260</v>
       </c>
@@ -10664,13 +10666,13 @@
         <v>100</v>
       </c>
       <c r="D257" s="32">
-        <v>459</v>
+        <v>494</v>
       </c>
       <c r="E257" s="32">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="F257" s="32">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G257" s="33">
         <v>8768</v>
@@ -10688,7 +10690,7 @@
         <v>4807</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="34" t="s">
         <v>293</v>
       </c>
@@ -10699,13 +10701,13 @@
         <v>9775</v>
       </c>
       <c r="D258" s="32">
-        <v>164767</v>
+        <v>167276</v>
       </c>
       <c r="E258" s="32">
-        <v>142940</v>
+        <v>145131</v>
       </c>
       <c r="F258" s="32">
-        <v>21827</v>
+        <v>22145</v>
       </c>
       <c r="G258" s="33"/>
       <c r="H258" s="33"/>
@@ -10713,7 +10715,7 @@
       <c r="J258" s="33"/>
       <c r="K258" s="33"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="18"/>
       <c r="B259" s="19"/>
       <c r="C259" s="15"/>
@@ -10737,22 +10739,20 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F91"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23828125" defaultRowHeight="14.1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.23828125" style="23"/>
-    <col min="2" max="2" width="11.7578125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" style="23"/>
+    <col min="2" max="2" width="11.73046875" style="23" customWidth="1"/>
     <col min="3" max="3" width="18" style="26" customWidth="1"/>
-    <col min="4" max="4" width="24.23828125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="22.23828125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="24.19921875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="22.19921875" style="24" customWidth="1"/>
     <col min="6" max="6" width="18.59765625" style="24" customWidth="1"/>
-    <col min="7" max="16384" width="9.23828125" style="23"/>
+    <col min="7" max="16384" width="9.19921875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="22" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" s="22" customFormat="1" ht="45.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>281</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>284</v>
       </c>
@@ -10783,16 +10783,16 @@
         <v>301</v>
       </c>
       <c r="D2" s="32">
-        <v>30983</v>
+        <v>31236</v>
       </c>
       <c r="E2" s="32">
-        <v>22255</v>
+        <v>22363</v>
       </c>
       <c r="F2" s="32">
-        <v>8728</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+        <v>8873</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>284</v>
       </c>
@@ -10803,16 +10803,16 @@
         <v>302</v>
       </c>
       <c r="D3" s="32">
-        <v>20115</v>
+        <v>20259</v>
       </c>
       <c r="E3" s="32">
-        <v>15363</v>
+        <v>15445</v>
       </c>
       <c r="F3" s="32">
-        <v>4752</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+        <v>4814</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>284</v>
       </c>
@@ -10823,16 +10823,16 @@
         <v>300</v>
       </c>
       <c r="D4" s="32">
-        <v>54522</v>
+        <v>54875</v>
       </c>
       <c r="E4" s="32">
-        <v>40776</v>
+        <v>40989</v>
       </c>
       <c r="F4" s="32">
-        <v>13746</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+        <v>13886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>284</v>
       </c>
@@ -10843,16 +10843,16 @@
         <v>304</v>
       </c>
       <c r="D5" s="32">
-        <v>115102</v>
+        <v>116309</v>
       </c>
       <c r="E5" s="32">
-        <v>85373</v>
+        <v>85785</v>
       </c>
       <c r="F5" s="32">
-        <v>29729</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+        <v>30524</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>284</v>
       </c>
@@ -10863,16 +10863,16 @@
         <v>303</v>
       </c>
       <c r="D6" s="32">
-        <v>34666</v>
+        <v>35525</v>
       </c>
       <c r="E6" s="32">
-        <v>29285</v>
+        <v>29885</v>
       </c>
       <c r="F6" s="32">
-        <v>5381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>284</v>
       </c>
@@ -10883,17 +10883,17 @@
         <v>289</v>
       </c>
       <c r="D7" s="32">
-        <v>193424</v>
+        <v>197501</v>
       </c>
       <c r="E7" s="32">
-        <v>155376</v>
+        <v>158409</v>
       </c>
       <c r="F7" s="32">
-        <v>38048</v>
+        <v>39092</v>
       </c>
       <c r="O7" s="31"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>284</v>
       </c>
@@ -10904,17 +10904,17 @@
         <v>301</v>
       </c>
       <c r="D8" s="32">
-        <v>12884</v>
+        <v>13002</v>
       </c>
       <c r="E8" s="32">
-        <v>9787</v>
+        <v>9870</v>
       </c>
       <c r="F8" s="32">
-        <v>3097</v>
+        <v>3132</v>
       </c>
       <c r="O8" s="31"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>284</v>
       </c>
@@ -10925,17 +10925,17 @@
         <v>302</v>
       </c>
       <c r="D9" s="32">
-        <v>14834</v>
+        <v>14965</v>
       </c>
       <c r="E9" s="32">
-        <v>11648</v>
+        <v>11722</v>
       </c>
       <c r="F9" s="32">
-        <v>3186</v>
+        <v>3243</v>
       </c>
       <c r="O9" s="31"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>284</v>
       </c>
@@ -10946,17 +10946,17 @@
         <v>300</v>
       </c>
       <c r="D10" s="32">
-        <v>22532</v>
+        <v>22705</v>
       </c>
       <c r="E10" s="32">
-        <v>18169</v>
+        <v>18313</v>
       </c>
       <c r="F10" s="32">
-        <v>4363</v>
+        <v>4392</v>
       </c>
       <c r="O10" s="31"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>284</v>
       </c>
@@ -10967,17 +10967,17 @@
         <v>304</v>
       </c>
       <c r="D11" s="32">
-        <v>65713</v>
+        <v>66406</v>
       </c>
       <c r="E11" s="32">
-        <v>52465</v>
+        <v>52822</v>
       </c>
       <c r="F11" s="32">
-        <v>13248</v>
+        <v>13584</v>
       </c>
       <c r="O11" s="31"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>284</v>
       </c>
@@ -10988,17 +10988,17 @@
         <v>303</v>
       </c>
       <c r="D12" s="32">
-        <v>19055</v>
+        <v>19598</v>
       </c>
       <c r="E12" s="32">
-        <v>16799</v>
+        <v>17266</v>
       </c>
       <c r="F12" s="32">
-        <v>2256</v>
+        <v>2332</v>
       </c>
       <c r="O12" s="31"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>284</v>
       </c>
@@ -11009,17 +11009,17 @@
         <v>289</v>
       </c>
       <c r="D13" s="32">
-        <v>111101</v>
+        <v>114357</v>
       </c>
       <c r="E13" s="32">
-        <v>94655</v>
+        <v>97365</v>
       </c>
       <c r="F13" s="32">
-        <v>16446</v>
+        <v>16992</v>
       </c>
       <c r="O13" s="31"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>284</v>
       </c>
@@ -11030,17 +11030,17 @@
         <v>301</v>
       </c>
       <c r="D14" s="32">
-        <v>8773</v>
+        <v>8879</v>
       </c>
       <c r="E14" s="32">
-        <v>8273</v>
+        <v>8368</v>
       </c>
       <c r="F14" s="32">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="O14" s="31"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>284</v>
       </c>
@@ -11051,17 +11051,17 @@
         <v>302</v>
       </c>
       <c r="D15" s="32">
-        <v>8659</v>
+        <v>8773</v>
       </c>
       <c r="E15" s="32">
-        <v>8169</v>
+        <v>8277</v>
       </c>
       <c r="F15" s="32">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="O15" s="31"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>284</v>
       </c>
@@ -11072,17 +11072,17 @@
         <v>300</v>
       </c>
       <c r="D16" s="32">
-        <v>12824</v>
+        <v>13041</v>
       </c>
       <c r="E16" s="32">
-        <v>12094</v>
+        <v>12299</v>
       </c>
       <c r="F16" s="32">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="O16" s="31"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>284</v>
       </c>
@@ -11093,17 +11093,17 @@
         <v>304</v>
       </c>
       <c r="D17" s="32">
-        <v>76383</v>
+        <v>77770</v>
       </c>
       <c r="E17" s="32">
-        <v>72999</v>
+        <v>74236</v>
       </c>
       <c r="F17" s="32">
-        <v>3384</v>
+        <v>3534</v>
       </c>
       <c r="O17" s="31"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>284</v>
       </c>
@@ -11114,17 +11114,17 @@
         <v>303</v>
       </c>
       <c r="D18" s="32">
-        <v>18475</v>
+        <v>19065</v>
       </c>
       <c r="E18" s="32">
-        <v>17268</v>
+        <v>17826</v>
       </c>
       <c r="F18" s="32">
-        <v>1207</v>
+        <v>1239</v>
       </c>
       <c r="O18" s="31"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>284</v>
       </c>
@@ -11135,17 +11135,17 @@
         <v>289</v>
       </c>
       <c r="D19" s="32">
-        <v>104777</v>
+        <v>109167</v>
       </c>
       <c r="E19" s="32">
-        <v>99815</v>
+        <v>103655</v>
       </c>
       <c r="F19" s="32">
-        <v>4962</v>
+        <v>5512</v>
       </c>
       <c r="O19" s="31"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>284</v>
       </c>
@@ -11156,17 +11156,17 @@
         <v>301</v>
       </c>
       <c r="D20" s="32">
-        <v>1756</v>
+        <v>1766</v>
       </c>
       <c r="E20" s="32">
-        <v>1730</v>
+        <v>1739</v>
       </c>
       <c r="F20" s="32">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O20" s="31"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>284</v>
       </c>
@@ -11177,17 +11177,17 @@
         <v>302</v>
       </c>
       <c r="D21" s="32">
-        <v>1782</v>
+        <v>1810</v>
       </c>
       <c r="E21" s="32">
-        <v>1768</v>
+        <v>1796</v>
       </c>
       <c r="F21" s="32">
         <v>14</v>
       </c>
       <c r="O21" s="31"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>284</v>
       </c>
@@ -11198,17 +11198,17 @@
         <v>300</v>
       </c>
       <c r="D22" s="32">
+        <v>2716</v>
+      </c>
+      <c r="E22" s="32">
         <v>2660</v>
       </c>
-      <c r="E22" s="32">
-        <v>2610</v>
-      </c>
       <c r="F22" s="32">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="O22" s="31"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>284</v>
       </c>
@@ -11219,17 +11219,17 @@
         <v>304</v>
       </c>
       <c r="D23" s="32">
-        <v>22166</v>
+        <v>22414</v>
       </c>
       <c r="E23" s="32">
-        <v>21759</v>
+        <v>21982</v>
       </c>
       <c r="F23" s="32">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="O23" s="31"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>284</v>
       </c>
@@ -11240,17 +11240,17 @@
         <v>303</v>
       </c>
       <c r="D24" s="32">
-        <v>20812</v>
+        <v>21605</v>
       </c>
       <c r="E24" s="32">
-        <v>18704</v>
+        <v>19476</v>
       </c>
       <c r="F24" s="32">
-        <v>2108</v>
+        <v>2129</v>
       </c>
       <c r="O24" s="31"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>284</v>
       </c>
@@ -11261,17 +11261,17 @@
         <v>289</v>
       </c>
       <c r="D25" s="32">
-        <v>38659</v>
+        <v>40186</v>
       </c>
       <c r="E25" s="32">
-        <v>37062</v>
+        <v>38285</v>
       </c>
       <c r="F25" s="32">
-        <v>1597</v>
+        <v>1901</v>
       </c>
       <c r="O25" s="31"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>284</v>
       </c>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="O26" s="31"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>284</v>
       </c>
@@ -11313,7 +11313,7 @@
       </c>
       <c r="O27" s="31"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>284</v>
       </c>
@@ -11334,7 +11334,7 @@
       </c>
       <c r="O28" s="31"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>284</v>
       </c>
@@ -11345,17 +11345,17 @@
         <v>304</v>
       </c>
       <c r="D29" s="32">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E29" s="32">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F29" s="32">
         <v>4</v>
       </c>
       <c r="O29" s="31"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>284</v>
       </c>
@@ -11366,17 +11366,17 @@
         <v>303</v>
       </c>
       <c r="D30" s="32">
+        <v>14</v>
+      </c>
+      <c r="E30" s="32">
         <v>13</v>
-      </c>
-      <c r="E30" s="32">
-        <v>12</v>
       </c>
       <c r="F30" s="32">
         <v>1</v>
       </c>
       <c r="O30" s="31"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>284</v>
       </c>
@@ -11387,17 +11387,17 @@
         <v>289</v>
       </c>
       <c r="D31" s="32">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="E31" s="32">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="F31" s="32">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O31" s="31"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>291</v>
       </c>
@@ -11408,17 +11408,17 @@
         <v>301</v>
       </c>
       <c r="D32" s="32">
-        <v>20046</v>
+        <v>20185</v>
       </c>
       <c r="E32" s="32">
-        <v>14427</v>
+        <v>14497</v>
       </c>
       <c r="F32" s="32">
-        <v>5619</v>
+        <v>5688</v>
       </c>
       <c r="O32" s="31"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>291</v>
       </c>
@@ -11429,17 +11429,17 @@
         <v>302</v>
       </c>
       <c r="D33" s="32">
-        <v>8511</v>
+        <v>8579</v>
       </c>
       <c r="E33" s="32">
-        <v>6581</v>
+        <v>6631</v>
       </c>
       <c r="F33" s="32">
-        <v>1930</v>
+        <v>1948</v>
       </c>
       <c r="O33" s="31"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>291</v>
       </c>
@@ -11450,17 +11450,17 @@
         <v>300</v>
       </c>
       <c r="D34" s="32">
-        <v>27757</v>
+        <v>27935</v>
       </c>
       <c r="E34" s="32">
-        <v>21070</v>
+        <v>21190</v>
       </c>
       <c r="F34" s="32">
-        <v>6687</v>
+        <v>6745</v>
       </c>
       <c r="O34" s="31"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>291</v>
       </c>
@@ -11471,17 +11471,17 @@
         <v>304</v>
       </c>
       <c r="D35" s="32">
-        <v>56780</v>
+        <v>57240</v>
       </c>
       <c r="E35" s="32">
-        <v>43251</v>
+        <v>43489</v>
       </c>
       <c r="F35" s="32">
-        <v>13529</v>
+        <v>13751</v>
       </c>
       <c r="O35" s="31"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>291</v>
       </c>
@@ -11492,17 +11492,17 @@
         <v>303</v>
       </c>
       <c r="D36" s="32">
-        <v>16573</v>
+        <v>16962</v>
       </c>
       <c r="E36" s="32">
-        <v>13802</v>
+        <v>14063</v>
       </c>
       <c r="F36" s="32">
-        <v>2771</v>
+        <v>2899</v>
       </c>
       <c r="O36" s="31"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>291</v>
       </c>
@@ -11513,17 +11513,17 @@
         <v>289</v>
       </c>
       <c r="D37" s="32">
-        <v>112990</v>
+        <v>115560</v>
       </c>
       <c r="E37" s="32">
-        <v>91938</v>
+        <v>93900</v>
       </c>
       <c r="F37" s="32">
-        <v>21052</v>
+        <v>21660</v>
       </c>
       <c r="O37" s="31"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>291</v>
       </c>
@@ -11534,17 +11534,17 @@
         <v>301</v>
       </c>
       <c r="D38" s="32">
-        <v>8839</v>
+        <v>8936</v>
       </c>
       <c r="E38" s="32">
-        <v>6871</v>
+        <v>6950</v>
       </c>
       <c r="F38" s="32">
-        <v>1968</v>
+        <v>1986</v>
       </c>
       <c r="O38" s="31"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>291</v>
       </c>
@@ -11555,17 +11555,17 @@
         <v>302</v>
       </c>
       <c r="D39" s="32">
-        <v>7403</v>
+        <v>7484</v>
       </c>
       <c r="E39" s="32">
-        <v>6085</v>
+        <v>6141</v>
       </c>
       <c r="F39" s="32">
-        <v>1318</v>
+        <v>1343</v>
       </c>
       <c r="O39" s="31"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
         <v>291</v>
       </c>
@@ -11576,17 +11576,17 @@
         <v>300</v>
       </c>
       <c r="D40" s="32">
-        <v>13978</v>
+        <v>14115</v>
       </c>
       <c r="E40" s="32">
-        <v>11467</v>
+        <v>11578</v>
       </c>
       <c r="F40" s="32">
-        <v>2511</v>
+        <v>2537</v>
       </c>
       <c r="O40" s="31"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
         <v>291</v>
       </c>
@@ -11597,17 +11597,17 @@
         <v>304</v>
       </c>
       <c r="D41" s="32">
-        <v>40338</v>
+        <v>40731</v>
       </c>
       <c r="E41" s="32">
-        <v>33020</v>
+        <v>33274</v>
       </c>
       <c r="F41" s="32">
-        <v>7318</v>
+        <v>7457</v>
       </c>
       <c r="O41" s="31"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
         <v>291</v>
       </c>
@@ -11618,17 +11618,17 @@
         <v>303</v>
       </c>
       <c r="D42" s="32">
-        <v>10366</v>
+        <v>10608</v>
       </c>
       <c r="E42" s="32">
-        <v>9082</v>
+        <v>9294</v>
       </c>
       <c r="F42" s="32">
-        <v>1284</v>
+        <v>1314</v>
       </c>
       <c r="O42" s="31"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
         <v>291</v>
       </c>
@@ -11639,17 +11639,17 @@
         <v>289</v>
       </c>
       <c r="D43" s="32">
-        <v>72757</v>
+        <v>74880</v>
       </c>
       <c r="E43" s="32">
-        <v>62767</v>
+        <v>64537</v>
       </c>
       <c r="F43" s="32">
-        <v>9990</v>
+        <v>10343</v>
       </c>
       <c r="O43" s="31"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
         <v>291</v>
       </c>
@@ -11660,17 +11660,17 @@
         <v>301</v>
       </c>
       <c r="D44" s="32">
-        <v>7901</v>
+        <v>7992</v>
       </c>
       <c r="E44" s="32">
-        <v>7458</v>
+        <v>7541</v>
       </c>
       <c r="F44" s="32">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="O44" s="31"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="s">
         <v>291</v>
       </c>
@@ -11681,16 +11681,16 @@
         <v>302</v>
       </c>
       <c r="D45" s="32">
-        <v>5611</v>
+        <v>5686</v>
       </c>
       <c r="E45" s="32">
-        <v>5341</v>
+        <v>5414</v>
       </c>
       <c r="F45" s="32">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
         <v>291</v>
       </c>
@@ -11701,17 +11701,17 @@
         <v>300</v>
       </c>
       <c r="D46" s="32">
-        <v>9855</v>
+        <v>10040</v>
       </c>
       <c r="E46" s="32">
-        <v>9285</v>
+        <v>9457</v>
       </c>
       <c r="F46" s="32">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="O46" s="31"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
         <v>291</v>
       </c>
@@ -11722,17 +11722,17 @@
         <v>304</v>
       </c>
       <c r="D47" s="32">
-        <v>66019</v>
+        <v>67180</v>
       </c>
       <c r="E47" s="32">
-        <v>62784</v>
+        <v>63816</v>
       </c>
       <c r="F47" s="32">
-        <v>3235</v>
+        <v>3364</v>
       </c>
       <c r="O47" s="31"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
         <v>291</v>
       </c>
@@ -11743,16 +11743,16 @@
         <v>303</v>
       </c>
       <c r="D48" s="32">
-        <v>13181</v>
+        <v>13572</v>
       </c>
       <c r="E48" s="32">
-        <v>12369</v>
+        <v>12732</v>
       </c>
       <c r="F48" s="32">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
         <v>291</v>
       </c>
@@ -11763,17 +11763,17 @@
         <v>289</v>
       </c>
       <c r="D49" s="32">
-        <v>87245</v>
+        <v>90838</v>
       </c>
       <c r="E49" s="32">
-        <v>82876</v>
+        <v>86016</v>
       </c>
       <c r="F49" s="32">
-        <v>4369</v>
+        <v>4822</v>
       </c>
       <c r="O49" s="31"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
         <v>291</v>
       </c>
@@ -11784,17 +11784,17 @@
         <v>301</v>
       </c>
       <c r="D50" s="32">
-        <v>1592</v>
+        <v>1604</v>
       </c>
       <c r="E50" s="32">
-        <v>1549</v>
+        <v>1557</v>
       </c>
       <c r="F50" s="32">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O50" s="31"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
         <v>291</v>
       </c>
@@ -11805,16 +11805,16 @@
         <v>302</v>
       </c>
       <c r="D51" s="32">
-        <v>972</v>
+        <v>993</v>
       </c>
       <c r="E51" s="32">
-        <v>957</v>
+        <v>976</v>
       </c>
       <c r="F51" s="32">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>291</v>
       </c>
@@ -11825,17 +11825,17 @@
         <v>300</v>
       </c>
       <c r="D52" s="32">
-        <v>1780</v>
+        <v>1812</v>
       </c>
       <c r="E52" s="32">
-        <v>1729</v>
+        <v>1758</v>
       </c>
       <c r="F52" s="32">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O52" s="31"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="s">
         <v>291</v>
       </c>
@@ -11846,17 +11846,17 @@
         <v>304</v>
       </c>
       <c r="D53" s="32">
-        <v>18836</v>
+        <v>19037</v>
       </c>
       <c r="E53" s="32">
-        <v>18434</v>
+        <v>18605</v>
       </c>
       <c r="F53" s="32">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="O53" s="31"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="s">
         <v>291</v>
       </c>
@@ -11867,17 +11867,17 @@
         <v>303</v>
       </c>
       <c r="D54" s="32">
-        <v>8398</v>
+        <v>8706</v>
       </c>
       <c r="E54" s="32">
-        <v>7663</v>
+        <v>7960</v>
       </c>
       <c r="F54" s="32">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="O54" s="31"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="s">
         <v>291</v>
       </c>
@@ -11888,17 +11888,17 @@
         <v>289</v>
       </c>
       <c r="D55" s="32">
-        <v>25332</v>
+        <v>26326</v>
       </c>
       <c r="E55" s="32">
-        <v>24321</v>
+        <v>25135</v>
       </c>
       <c r="F55" s="32">
-        <v>1011</v>
+        <v>1191</v>
       </c>
       <c r="O55" s="31"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
         <v>291</v>
       </c>
@@ -11919,7 +11919,7 @@
       </c>
       <c r="O56" s="31"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
         <v>291</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
         <v>291</v>
       </c>
@@ -11960,7 +11960,7 @@
       </c>
       <c r="O58" s="31"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
         <v>291</v>
       </c>
@@ -11971,17 +11971,17 @@
         <v>304</v>
       </c>
       <c r="D59" s="32">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E59" s="32">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F59" s="32">
         <v>4</v>
       </c>
       <c r="O59" s="31"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
         <v>291</v>
       </c>
@@ -11992,17 +11992,17 @@
         <v>303</v>
       </c>
       <c r="D60" s="32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E60" s="32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F60" s="32">
         <v>0</v>
       </c>
       <c r="O60" s="31"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
         <v>291</v>
       </c>
@@ -12013,17 +12013,17 @@
         <v>289</v>
       </c>
       <c r="D61" s="32">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="E61" s="32">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="F61" s="32">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="O61" s="31"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
         <v>289</v>
       </c>
@@ -12034,17 +12034,17 @@
         <v>301</v>
       </c>
       <c r="D62" s="32">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E62" s="32">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F62" s="32">
         <v>61</v>
       </c>
       <c r="O62" s="31"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
         <v>289</v>
       </c>
@@ -12055,16 +12055,16 @@
         <v>302</v>
       </c>
       <c r="D63" s="32">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E63" s="32">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F63" s="32">
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="s">
         <v>289</v>
       </c>
@@ -12075,17 +12075,17 @@
         <v>300</v>
       </c>
       <c r="D64" s="32">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E64" s="32">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F64" s="32">
         <v>62</v>
       </c>
       <c r="O64" s="31"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
         <v>289</v>
       </c>
@@ -12096,17 +12096,17 @@
         <v>304</v>
       </c>
       <c r="D65" s="32">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="E65" s="32">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="F65" s="32">
         <v>154</v>
       </c>
       <c r="O65" s="31"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="s">
         <v>289</v>
       </c>
@@ -12117,16 +12117,16 @@
         <v>303</v>
       </c>
       <c r="D66" s="32">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="E66" s="32">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="F66" s="32">
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
         <v>289</v>
       </c>
@@ -12137,17 +12137,17 @@
         <v>289</v>
       </c>
       <c r="D67" s="32">
-        <v>1052</v>
+        <v>1082</v>
       </c>
       <c r="E67" s="32">
-        <v>915</v>
+        <v>930</v>
       </c>
       <c r="F67" s="32">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O67" s="31"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
         <v>289</v>
       </c>
@@ -12158,17 +12158,17 @@
         <v>301</v>
       </c>
       <c r="D68" s="32">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="E68" s="32">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="F68" s="32">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O68" s="31"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
         <v>289</v>
       </c>
@@ -12179,16 +12179,16 @@
         <v>302</v>
       </c>
       <c r="D69" s="32">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E69" s="32">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F69" s="32">
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="23" t="s">
         <v>289</v>
       </c>
@@ -12199,17 +12199,17 @@
         <v>300</v>
       </c>
       <c r="D70" s="32">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E70" s="32">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F70" s="32">
         <v>19</v>
       </c>
       <c r="O70" s="31"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
         <v>289</v>
       </c>
@@ -12220,17 +12220,17 @@
         <v>304</v>
       </c>
       <c r="D71" s="32">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="E71" s="32">
-        <v>1214</v>
+        <v>1219</v>
       </c>
       <c r="F71" s="32">
         <v>88</v>
       </c>
       <c r="O71" s="31"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
         <v>289</v>
       </c>
@@ -12241,16 +12241,16 @@
         <v>303</v>
       </c>
       <c r="D72" s="32">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E72" s="32">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F72" s="32">
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
         <v>289</v>
       </c>
@@ -12261,17 +12261,17 @@
         <v>289</v>
       </c>
       <c r="D73" s="32">
-        <v>523</v>
+        <v>554</v>
       </c>
       <c r="E73" s="32">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="F73" s="32">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="O73" s="31"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="23" t="s">
         <v>289</v>
       </c>
@@ -12282,17 +12282,17 @@
         <v>301</v>
       </c>
       <c r="D74" s="32">
-        <v>942</v>
+        <v>954</v>
       </c>
       <c r="E74" s="32">
-        <v>930</v>
+        <v>941</v>
       </c>
       <c r="F74" s="32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O74" s="31"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
         <v>289</v>
       </c>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="O75" s="31"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
         <v>289</v>
       </c>
@@ -12324,17 +12324,17 @@
         <v>300</v>
       </c>
       <c r="D76" s="32">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="E76" s="32">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="F76" s="32">
         <v>2</v>
       </c>
       <c r="O76" s="31"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="23" t="s">
         <v>289</v>
       </c>
@@ -12345,17 +12345,17 @@
         <v>304</v>
       </c>
       <c r="D77" s="32">
-        <v>5629</v>
+        <v>5665</v>
       </c>
       <c r="E77" s="32">
-        <v>5574</v>
+        <v>5609</v>
       </c>
       <c r="F77" s="32">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O77" s="31"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="23" t="s">
         <v>289</v>
       </c>
@@ -12376,7 +12376,7 @@
       </c>
       <c r="O78" s="31"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
         <v>289</v>
       </c>
@@ -12387,16 +12387,16 @@
         <v>289</v>
       </c>
       <c r="D79" s="32">
-        <v>583</v>
+        <v>646</v>
       </c>
       <c r="E79" s="32">
-        <v>561</v>
+        <v>603</v>
       </c>
       <c r="F79" s="32">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="23" t="s">
         <v>289</v>
       </c>
@@ -12407,16 +12407,16 @@
         <v>301</v>
       </c>
       <c r="D80" s="32">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E80" s="32">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F80" s="32">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="23" t="s">
         <v>289</v>
       </c>
@@ -12436,7 +12436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="23" t="s">
         <v>289</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="s">
         <v>289</v>
       </c>
@@ -12467,16 +12467,16 @@
         <v>304</v>
       </c>
       <c r="D83" s="32">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E83" s="32">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="F83" s="32">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
         <v>289</v>
       </c>
@@ -12496,7 +12496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="23" t="s">
         <v>289</v>
       </c>
@@ -12507,16 +12507,16 @@
         <v>289</v>
       </c>
       <c r="D85" s="32">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="E85" s="32">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="F85" s="32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="23" t="s">
         <v>289</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
         <v>289</v>
       </c>
@@ -12556,7 +12556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="23" t="s">
         <v>289</v>
       </c>
@@ -12576,7 +12576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="23" t="s">
         <v>289</v>
       </c>
@@ -12596,7 +12596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="23" t="s">
         <v>289</v>
       </c>
@@ -12616,7 +12616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="23" t="s">
         <v>262</v>
       </c>
@@ -12627,241 +12627,241 @@
         <v>290</v>
       </c>
       <c r="D91" s="32">
-        <v>1678517</v>
+        <v>1713980</v>
       </c>
       <c r="E91" s="32">
-        <v>1431089</v>
+        <v>1459293</v>
       </c>
       <c r="F91" s="32">
-        <v>247428</v>
-      </c>
-    </row>
-    <row r="97" spans="15:15" x14ac:dyDescent="0.45">
+        <v>254687</v>
+      </c>
+    </row>
+    <row r="97" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O97" s="31"/>
     </row>
-    <row r="98" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="98" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O98" s="31"/>
     </row>
-    <row r="99" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="99" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O99" s="31"/>
     </row>
-    <row r="100" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="100" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O100" s="31"/>
     </row>
-    <row r="101" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="101" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O101" s="31"/>
     </row>
-    <row r="102" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="102" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O102" s="31"/>
     </row>
-    <row r="103" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="103" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O103" s="31"/>
     </row>
-    <row r="104" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="104" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O104" s="31"/>
     </row>
-    <row r="105" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="105" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O105" s="31"/>
     </row>
-    <row r="106" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="106" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O106" s="31"/>
     </row>
-    <row r="107" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="107" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O107" s="31"/>
     </row>
-    <row r="108" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="108" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O108" s="31"/>
     </row>
-    <row r="109" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="109" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O109" s="31"/>
     </row>
-    <row r="110" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="110" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O110" s="31"/>
     </row>
-    <row r="111" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="111" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O111" s="31"/>
     </row>
-    <row r="112" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="112" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O112" s="31"/>
     </row>
-    <row r="113" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="113" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O113" s="31"/>
     </row>
-    <row r="114" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="114" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O114" s="31"/>
     </row>
-    <row r="115" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="115" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O115" s="31"/>
     </row>
-    <row r="116" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="116" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O116" s="31"/>
     </row>
-    <row r="117" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="117" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O117" s="31"/>
     </row>
-    <row r="118" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="118" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O118" s="31"/>
     </row>
-    <row r="119" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="119" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O119" s="31"/>
     </row>
-    <row r="120" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="120" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O120" s="31"/>
     </row>
-    <row r="121" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="121" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O121" s="31"/>
     </row>
-    <row r="122" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="122" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O122" s="31"/>
     </row>
-    <row r="123" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="123" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O123" s="31"/>
     </row>
-    <row r="124" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="124" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O124" s="31"/>
     </row>
-    <row r="125" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="125" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O125" s="31"/>
     </row>
-    <row r="126" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="126" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O126" s="31"/>
     </row>
-    <row r="127" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="127" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O127" s="31"/>
     </row>
-    <row r="128" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="128" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O128" s="31"/>
     </row>
-    <row r="129" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="129" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O129" s="31"/>
     </row>
-    <row r="130" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="130" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O130" s="31"/>
     </row>
-    <row r="131" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="131" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O131" s="31"/>
     </row>
-    <row r="132" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="132" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O132" s="31"/>
     </row>
-    <row r="133" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="133" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O133" s="31"/>
     </row>
-    <row r="134" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="134" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O134" s="31"/>
     </row>
-    <row r="136" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="136" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O136" s="31"/>
     </row>
-    <row r="137" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="137" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O137" s="31"/>
     </row>
-    <row r="139" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="139" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O139" s="31"/>
     </row>
-    <row r="140" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="140" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O140" s="31"/>
     </row>
-    <row r="142" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="142" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O142" s="31"/>
     </row>
-    <row r="143" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="143" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O143" s="31"/>
     </row>
-    <row r="144" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="144" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O144" s="31"/>
     </row>
-    <row r="145" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="145" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O145" s="31"/>
     </row>
-    <row r="146" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="146" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O146" s="31"/>
     </row>
-    <row r="148" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="148" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O148" s="31"/>
     </row>
-    <row r="149" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="149" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O149" s="31"/>
     </row>
-    <row r="150" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="150" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O150" s="31"/>
     </row>
-    <row r="151" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="151" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O151" s="31"/>
     </row>
-    <row r="152" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="152" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O152" s="31"/>
     </row>
-    <row r="157" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="157" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O157" s="31"/>
     </row>
-    <row r="158" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="158" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O158" s="31"/>
     </row>
-    <row r="160" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="160" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O160" s="31"/>
     </row>
-    <row r="161" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="161" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O161" s="31"/>
     </row>
-    <row r="163" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="163" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O163" s="31"/>
     </row>
-    <row r="164" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="164" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O164" s="31"/>
     </row>
-    <row r="166" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="166" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O166" s="31"/>
     </row>
-    <row r="167" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="167" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O167" s="31"/>
     </row>
-    <row r="196" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="196" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O196" s="31"/>
     </row>
-    <row r="197" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="197" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O197" s="31"/>
     </row>
-    <row r="199" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="199" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O199" s="31"/>
     </row>
-    <row r="200" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="200" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O200" s="31"/>
     </row>
-    <row r="202" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="202" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O202" s="31"/>
     </row>
-    <row r="214" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="214" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O214" s="31"/>
     </row>
-    <row r="215" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="215" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O215" s="31"/>
     </row>
-    <row r="232" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="232" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O232" s="31"/>
     </row>
-    <row r="233" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="233" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O233" s="31"/>
     </row>
-    <row r="235" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="235" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O235" s="31"/>
     </row>
-    <row r="236" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="236" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O236" s="31"/>
     </row>
-    <row r="250" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="250" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O250" s="31"/>
     </row>
-    <row r="251" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="251" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O251" s="31"/>
     </row>
-    <row r="274" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="274" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O274" s="31"/>
     </row>
-    <row r="275" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="275" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O275" s="31"/>
     </row>
-    <row r="276" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="276" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O276" s="31"/>
     </row>
   </sheetData>

--- a/Services/StateOfTexas/Data/COVID-19 Vaccine Data by County.xlsx
+++ b/Services/StateOfTexas/Data/COVID-19 Vaccine Data by County.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aearl914\Desktop\COVID-19\Daily County Updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43AFF350-F452-4ED5-AABE-7745479C7FF4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5684C2B-60DA-4579-99A7-F0C9ECBF03FD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12045" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="About the Data" sheetId="2" r:id="rId1"/>
     <sheet name="By County" sheetId="1" r:id="rId2"/>
     <sheet name="By Age, Gender, Race" sheetId="3" r:id="rId3"/>
+    <sheet name="By Age, Day" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'By County'!$A$1:$K$258</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="310">
   <si>
     <t>County Name</t>
   </si>
@@ -1027,6 +1028,9 @@
   </si>
   <si>
     <t xml:space="preserve">This worksheet is current as of </t>
+  </si>
+  <si>
+    <t>Vaccination Date</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1227,6 +1231,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1544,9 +1549,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1672,7 +1675,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1736,15 +1739,15 @@
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:K2" si="0">SUM(D4:D258)</f>
-        <v>1754569</v>
+        <v>1868596</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>1488783</v>
+        <v>1571093</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>265786</v>
+        <v>297503</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
@@ -1813,13 +1816,13 @@
         <v>4700</v>
       </c>
       <c r="D4" s="31">
-        <v>1940</v>
+        <v>2084</v>
       </c>
       <c r="E4" s="31">
-        <v>1832</v>
+        <v>1947</v>
       </c>
       <c r="F4" s="31">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="G4" s="32">
         <v>49346</v>
@@ -1848,13 +1851,13 @@
         <v>1600</v>
       </c>
       <c r="D5" s="31">
-        <v>1424</v>
+        <v>1525</v>
       </c>
       <c r="E5" s="31">
-        <v>1107</v>
+        <v>1114</v>
       </c>
       <c r="F5" s="31">
-        <v>317</v>
+        <v>411</v>
       </c>
       <c r="G5" s="32">
         <v>13954</v>
@@ -1883,13 +1886,13 @@
         <v>12200</v>
       </c>
       <c r="D6" s="31">
-        <v>5542</v>
+        <v>5633</v>
       </c>
       <c r="E6" s="31">
-        <v>5095</v>
+        <v>5150</v>
       </c>
       <c r="F6" s="31">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="G6" s="32">
         <v>70388</v>
@@ -1918,13 +1921,13 @@
         <v>600</v>
       </c>
       <c r="D7" s="31">
-        <v>1033</v>
+        <v>1078</v>
       </c>
       <c r="E7" s="31">
-        <v>945</v>
+        <v>983</v>
       </c>
       <c r="F7" s="31">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G7" s="32">
         <v>19727</v>
@@ -1953,13 +1956,13 @@
         <v>400</v>
       </c>
       <c r="D8" s="31">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="E8" s="31">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="F8" s="31">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="G8" s="32">
         <v>7533</v>
@@ -1988,13 +1991,13 @@
         <v>200</v>
       </c>
       <c r="D9" s="31">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="E9" s="31">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="F9" s="31">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G9" s="32">
         <v>1693</v>
@@ -2023,13 +2026,13 @@
         <v>2900</v>
       </c>
       <c r="D10" s="31">
-        <v>1870</v>
+        <v>1991</v>
       </c>
       <c r="E10" s="31">
-        <v>1558</v>
+        <v>1641</v>
       </c>
       <c r="F10" s="31">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="G10" s="32">
         <v>39065</v>
@@ -2058,13 +2061,13 @@
         <v>1400</v>
       </c>
       <c r="D11" s="31">
-        <v>1485</v>
+        <v>1547</v>
       </c>
       <c r="E11" s="31">
-        <v>1383</v>
+        <v>1419</v>
       </c>
       <c r="F11" s="31">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="G11" s="32">
         <v>25584</v>
@@ -2093,13 +2096,13 @@
         <v>2450</v>
       </c>
       <c r="D12" s="31">
-        <v>549</v>
+        <v>993</v>
       </c>
       <c r="E12" s="31">
-        <v>520</v>
+        <v>952</v>
       </c>
       <c r="F12" s="31">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G12" s="32">
         <v>5190</v>
@@ -2128,13 +2131,13 @@
         <v>200</v>
       </c>
       <c r="D13" s="31">
-        <v>1273</v>
+        <v>1382</v>
       </c>
       <c r="E13" s="31">
-        <v>1160</v>
+        <v>1232</v>
       </c>
       <c r="F13" s="31">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="G13" s="32">
         <v>19833</v>
@@ -2163,13 +2166,13 @@
         <v>4500</v>
       </c>
       <c r="D14" s="31">
-        <v>2679</v>
+        <v>2772</v>
       </c>
       <c r="E14" s="31">
-        <v>2415</v>
+        <v>2483</v>
       </c>
       <c r="F14" s="31">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="G14" s="32">
         <v>70499</v>
@@ -2198,13 +2201,13 @@
         <v>1575</v>
       </c>
       <c r="D15" s="31">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="E15" s="31">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F15" s="31">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G15" s="32">
         <v>3002</v>
@@ -2233,13 +2236,13 @@
         <v>7550</v>
       </c>
       <c r="D16" s="31">
-        <v>3045</v>
+        <v>3132</v>
       </c>
       <c r="E16" s="31">
-        <v>2892</v>
+        <v>2961</v>
       </c>
       <c r="F16" s="31">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="G16" s="32">
         <v>26904</v>
@@ -2268,13 +2271,13 @@
         <v>33650</v>
       </c>
       <c r="D17" s="31">
-        <v>17160</v>
+        <v>17362</v>
       </c>
       <c r="E17" s="31">
-        <v>14640</v>
+        <v>14721</v>
       </c>
       <c r="F17" s="31">
-        <v>2520</v>
+        <v>2641</v>
       </c>
       <c r="G17" s="32">
         <v>265191</v>
@@ -2303,13 +2306,13 @@
         <v>276025</v>
       </c>
       <c r="D18" s="31">
-        <v>132354</v>
+        <v>140427</v>
       </c>
       <c r="E18" s="31">
-        <v>102364</v>
+        <v>107628</v>
       </c>
       <c r="F18" s="31">
-        <v>29990</v>
+        <v>32799</v>
       </c>
       <c r="G18" s="32">
         <v>1541803</v>
@@ -2338,13 +2341,13 @@
         <v>300</v>
       </c>
       <c r="D19" s="31">
-        <v>1153</v>
+        <v>1181</v>
       </c>
       <c r="E19" s="31">
-        <v>1109</v>
+        <v>1131</v>
       </c>
       <c r="F19" s="31">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G19" s="32">
         <v>10177</v>
@@ -2373,10 +2376,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="31">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E20" s="31">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F20" s="31">
         <v>0</v>
@@ -2408,13 +2411,13 @@
         <v>2000</v>
       </c>
       <c r="D21" s="31">
-        <v>804</v>
+        <v>823</v>
       </c>
       <c r="E21" s="31">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="F21" s="31">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G21" s="32">
         <v>15491</v>
@@ -2443,13 +2446,13 @@
         <v>10050</v>
       </c>
       <c r="D22" s="31">
-        <v>3572</v>
+        <v>3654</v>
       </c>
       <c r="E22" s="31">
-        <v>2811</v>
+        <v>2850</v>
       </c>
       <c r="F22" s="31">
-        <v>761</v>
+        <v>804</v>
       </c>
       <c r="G22" s="32">
         <v>78179</v>
@@ -2478,13 +2481,13 @@
         <v>16900</v>
       </c>
       <c r="D23" s="31">
-        <v>21334</v>
+        <v>22762</v>
       </c>
       <c r="E23" s="31">
-        <v>17250</v>
+        <v>18387</v>
       </c>
       <c r="F23" s="31">
-        <v>4084</v>
+        <v>4375</v>
       </c>
       <c r="G23" s="32">
         <v>295635</v>
@@ -2513,13 +2516,13 @@
         <v>18025</v>
       </c>
       <c r="D24" s="31">
-        <v>8265</v>
+        <v>8423</v>
       </c>
       <c r="E24" s="31">
-        <v>7355</v>
+        <v>7408</v>
       </c>
       <c r="F24" s="31">
-        <v>910</v>
+        <v>1015</v>
       </c>
       <c r="G24" s="32">
         <v>185835</v>
@@ -2548,13 +2551,13 @@
         <v>1000</v>
       </c>
       <c r="D25" s="31">
-        <v>639</v>
+        <v>678</v>
       </c>
       <c r="E25" s="31">
-        <v>613</v>
+        <v>650</v>
       </c>
       <c r="F25" s="31">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G25" s="32">
         <v>7291</v>
@@ -2583,13 +2586,13 @@
         <v>100</v>
       </c>
       <c r="D26" s="31">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E26" s="31">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F26" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="32">
         <v>1295</v>
@@ -2618,10 +2621,10 @@
         <v>600</v>
       </c>
       <c r="D27" s="31">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="E27" s="31">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="F27" s="31">
         <v>5</v>
@@ -2653,13 +2656,13 @@
         <v>1700</v>
       </c>
       <c r="D28" s="31">
-        <v>1280</v>
+        <v>1326</v>
       </c>
       <c r="E28" s="31">
-        <v>1035</v>
+        <v>1075</v>
       </c>
       <c r="F28" s="31">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G28" s="32">
         <v>31586</v>
@@ -2688,13 +2691,13 @@
         <v>800</v>
       </c>
       <c r="D29" s="31">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="E29" s="31">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="F29" s="31">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G29" s="32">
         <v>14721</v>
@@ -2723,13 +2726,13 @@
         <v>3975</v>
       </c>
       <c r="D30" s="31">
-        <v>1601</v>
+        <v>1639</v>
       </c>
       <c r="E30" s="31">
-        <v>1393</v>
+        <v>1415</v>
       </c>
       <c r="F30" s="31">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="G30" s="32">
         <v>39423</v>
@@ -2758,13 +2761,13 @@
         <v>1400</v>
       </c>
       <c r="D31" s="31">
-        <v>1440</v>
+        <v>1608</v>
       </c>
       <c r="E31" s="31">
-        <v>1298</v>
+        <v>1347</v>
       </c>
       <c r="F31" s="31">
-        <v>142</v>
+        <v>261</v>
       </c>
       <c r="G31" s="32">
         <v>33813</v>
@@ -2793,13 +2796,13 @@
         <v>1000</v>
       </c>
       <c r="D32" s="31">
-        <v>1097</v>
+        <v>1272</v>
       </c>
       <c r="E32" s="31">
-        <v>972</v>
+        <v>1118</v>
       </c>
       <c r="F32" s="31">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="G32" s="32">
         <v>17169</v>
@@ -2828,13 +2831,13 @@
         <v>700</v>
       </c>
       <c r="D33" s="31">
-        <v>617</v>
+        <v>638</v>
       </c>
       <c r="E33" s="31">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="F33" s="31">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G33" s="32">
         <v>11666</v>
@@ -2863,13 +2866,13 @@
         <v>50250</v>
       </c>
       <c r="D34" s="31">
-        <v>34348</v>
+        <v>35191</v>
       </c>
       <c r="E34" s="31">
-        <v>29460</v>
+        <v>29866</v>
       </c>
       <c r="F34" s="31">
-        <v>4888</v>
+        <v>5325</v>
       </c>
       <c r="G34" s="32">
         <v>315242</v>
@@ -2898,13 +2901,13 @@
         <v>100</v>
       </c>
       <c r="D35" s="31">
-        <v>497</v>
+        <v>531</v>
       </c>
       <c r="E35" s="31">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="F35" s="31">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G35" s="32">
         <v>10054</v>
@@ -2933,13 +2936,13 @@
         <v>200</v>
       </c>
       <c r="D36" s="31">
-        <v>479</v>
+        <v>510</v>
       </c>
       <c r="E36" s="31">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="F36" s="31">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G36" s="32">
         <v>4769</v>
@@ -2968,13 +2971,13 @@
         <v>300</v>
       </c>
       <c r="D37" s="31">
-        <v>488</v>
+        <v>545</v>
       </c>
       <c r="E37" s="31">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="F37" s="31">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="G37" s="32">
         <v>24447</v>
@@ -3003,13 +3006,13 @@
         <v>700</v>
       </c>
       <c r="D38" s="31">
-        <v>527</v>
+        <v>592</v>
       </c>
       <c r="E38" s="31">
-        <v>468</v>
+        <v>518</v>
       </c>
       <c r="F38" s="31">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G38" s="32">
         <v>5574</v>
@@ -3038,13 +3041,13 @@
         <v>5400</v>
       </c>
       <c r="D39" s="31">
-        <v>1894</v>
+        <v>1945</v>
       </c>
       <c r="E39" s="31">
-        <v>1727</v>
+        <v>1758</v>
       </c>
       <c r="F39" s="31">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G39" s="32">
         <v>34171</v>
@@ -3073,13 +3076,13 @@
         <v>5200</v>
       </c>
       <c r="D40" s="31">
-        <v>2343</v>
+        <v>2533</v>
       </c>
       <c r="E40" s="31">
-        <v>2163</v>
+        <v>2292</v>
       </c>
       <c r="F40" s="31">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="G40" s="32">
         <v>41571</v>
@@ -3108,13 +3111,13 @@
         <v>1100</v>
       </c>
       <c r="D41" s="31">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="E41" s="31">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="F41" s="31">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G41" s="32">
         <v>5769</v>
@@ -3143,13 +3146,13 @@
         <v>2250</v>
       </c>
       <c r="D42" s="31">
-        <v>624</v>
+        <v>842</v>
       </c>
       <c r="E42" s="31">
-        <v>528</v>
+        <v>744</v>
       </c>
       <c r="F42" s="31">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G42" s="32">
         <v>8544</v>
@@ -3178,13 +3181,13 @@
         <v>100</v>
       </c>
       <c r="D43" s="31">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="E43" s="31">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="F43" s="31">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="G43" s="32">
         <v>2167</v>
@@ -3213,13 +3216,13 @@
         <v>0</v>
       </c>
       <c r="D44" s="31">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="E44" s="31">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="F44" s="31">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G44" s="32">
         <v>2839</v>
@@ -3248,10 +3251,10 @@
         <v>600</v>
       </c>
       <c r="D45" s="31">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="E45" s="31">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="F45" s="31">
         <v>32</v>
@@ -3283,13 +3286,13 @@
         <v>61275</v>
       </c>
       <c r="D46" s="31">
-        <v>48634</v>
+        <v>52975</v>
       </c>
       <c r="E46" s="31">
-        <v>41035</v>
+        <v>43645</v>
       </c>
       <c r="F46" s="31">
-        <v>7599</v>
+        <v>9330</v>
       </c>
       <c r="G46" s="32">
         <v>806242</v>
@@ -3318,10 +3321,10 @@
         <v>300</v>
       </c>
       <c r="D47" s="31">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E47" s="31">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F47" s="31">
         <v>7</v>
@@ -3353,13 +3356,13 @@
         <v>1600</v>
       </c>
       <c r="D48" s="31">
-        <v>761</v>
+        <v>781</v>
       </c>
       <c r="E48" s="31">
-        <v>715</v>
+        <v>730</v>
       </c>
       <c r="F48" s="31">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G48" s="32">
         <v>17682</v>
@@ -3388,13 +3391,13 @@
         <v>9700</v>
       </c>
       <c r="D49" s="31">
-        <v>7269</v>
+        <v>7645</v>
       </c>
       <c r="E49" s="31">
-        <v>5765</v>
+        <v>5969</v>
       </c>
       <c r="F49" s="31">
-        <v>1504</v>
+        <v>1676</v>
       </c>
       <c r="G49" s="32">
         <v>125758</v>
@@ -3423,13 +3426,13 @@
         <v>1775</v>
       </c>
       <c r="D50" s="31">
-        <v>1074</v>
+        <v>1339</v>
       </c>
       <c r="E50" s="31">
-        <v>1028</v>
+        <v>1287</v>
       </c>
       <c r="F50" s="31">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G50" s="32">
         <v>11046</v>
@@ -3458,10 +3461,10 @@
         <v>100</v>
       </c>
       <c r="D51" s="31">
+        <v>121</v>
+      </c>
+      <c r="E51" s="31">
         <v>102</v>
-      </c>
-      <c r="E51" s="31">
-        <v>83</v>
       </c>
       <c r="F51" s="31">
         <v>19</v>
@@ -3493,13 +3496,13 @@
         <v>1900</v>
       </c>
       <c r="D52" s="31">
-        <v>1448</v>
+        <v>1555</v>
       </c>
       <c r="E52" s="31">
-        <v>1348</v>
+        <v>1393</v>
       </c>
       <c r="F52" s="31">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="G52" s="32">
         <v>32501</v>
@@ -3528,13 +3531,13 @@
         <v>3750</v>
       </c>
       <c r="D53" s="31">
-        <v>2376</v>
+        <v>2478</v>
       </c>
       <c r="E53" s="31">
-        <v>2216</v>
+        <v>2257</v>
       </c>
       <c r="F53" s="31">
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="G53" s="32">
         <v>58277</v>
@@ -3563,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="D54" s="31">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E54" s="31">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F54" s="31">
         <v>1</v>
@@ -3598,13 +3601,13 @@
         <v>1175</v>
       </c>
       <c r="D55" s="31">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="E55" s="31">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="F55" s="31">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G55" s="32">
         <v>3483</v>
@@ -3633,10 +3636,10 @@
         <v>0</v>
       </c>
       <c r="D56" s="31">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="E56" s="31">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="F56" s="31">
         <v>9</v>
@@ -3668,13 +3671,13 @@
         <v>1175</v>
       </c>
       <c r="D57" s="31">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="E57" s="31">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="F57" s="31">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="G57" s="32">
         <v>4386</v>
@@ -3703,13 +3706,13 @@
         <v>400</v>
       </c>
       <c r="D58" s="31">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E58" s="31">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F58" s="31">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G58" s="32">
         <v>1797</v>
@@ -3738,13 +3741,13 @@
         <v>1475</v>
       </c>
       <c r="D59" s="31">
-        <v>318</v>
+        <v>568</v>
       </c>
       <c r="E59" s="31">
-        <v>314</v>
+        <v>557</v>
       </c>
       <c r="F59" s="31">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G59" s="32">
         <v>5092</v>
@@ -3773,13 +3776,13 @@
         <v>299125</v>
       </c>
       <c r="D60" s="31">
-        <v>127345</v>
+        <v>139810</v>
       </c>
       <c r="E60" s="31">
-        <v>107855</v>
+        <v>117520</v>
       </c>
       <c r="F60" s="31">
-        <v>19490</v>
+        <v>22290</v>
       </c>
       <c r="G60" s="32">
         <v>2015538</v>
@@ -3808,13 +3811,13 @@
         <v>600</v>
       </c>
       <c r="D61" s="31">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="E61" s="31">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F61" s="31">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G61" s="32">
         <v>9997</v>
@@ -3843,13 +3846,13 @@
         <v>1700</v>
       </c>
       <c r="D62" s="31">
-        <v>910</v>
+        <v>954</v>
       </c>
       <c r="E62" s="31">
-        <v>869</v>
+        <v>897</v>
       </c>
       <c r="F62" s="31">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G62" s="32">
         <v>14288</v>
@@ -3878,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="D63" s="31">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E63" s="31">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F63" s="31">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G63" s="32">
         <v>4312</v>
@@ -3913,13 +3916,13 @@
         <v>54125</v>
       </c>
       <c r="D64" s="31">
-        <v>27193</v>
+        <v>29268</v>
       </c>
       <c r="E64" s="31">
-        <v>23013</v>
+        <v>24229</v>
       </c>
       <c r="F64" s="31">
-        <v>4180</v>
+        <v>5039</v>
       </c>
       <c r="G64" s="32">
         <v>702429</v>
@@ -3948,13 +3951,13 @@
         <v>800</v>
       </c>
       <c r="D65" s="31">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="E65" s="31">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="F65" s="31">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G65" s="32">
         <v>16610</v>
@@ -3983,13 +3986,13 @@
         <v>0</v>
       </c>
       <c r="D66" s="31">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E66" s="31">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F66" s="31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G66" s="32">
         <v>1840</v>
@@ -4018,13 +4021,13 @@
         <v>2750</v>
       </c>
       <c r="D67" s="31">
-        <v>601</v>
+        <v>819</v>
       </c>
       <c r="E67" s="31">
-        <v>544</v>
+        <v>745</v>
       </c>
       <c r="F67" s="31">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G67" s="32">
         <v>7130</v>
@@ -4053,13 +4056,13 @@
         <v>100</v>
       </c>
       <c r="D68" s="31">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="E68" s="31">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="F68" s="31">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G68" s="32">
         <v>2655</v>
@@ -4088,13 +4091,13 @@
         <v>300</v>
       </c>
       <c r="D69" s="31">
-        <v>787</v>
+        <v>815</v>
       </c>
       <c r="E69" s="31">
-        <v>751</v>
+        <v>767</v>
       </c>
       <c r="F69" s="31">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G69" s="32">
         <v>8359</v>
@@ -4123,13 +4126,13 @@
         <v>900</v>
       </c>
       <c r="D70" s="31">
-        <v>844</v>
+        <v>912</v>
       </c>
       <c r="E70" s="31">
-        <v>782</v>
+        <v>823</v>
       </c>
       <c r="F70" s="31">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="G70" s="32">
         <v>14718</v>
@@ -4158,13 +4161,13 @@
         <v>19900</v>
       </c>
       <c r="D71" s="31">
-        <v>7411</v>
+        <v>8362</v>
       </c>
       <c r="E71" s="31">
-        <v>5947</v>
+        <v>6657</v>
       </c>
       <c r="F71" s="31">
-        <v>1464</v>
+        <v>1705</v>
       </c>
       <c r="G71" s="32">
         <v>123303</v>
@@ -4193,13 +4196,13 @@
         <v>0</v>
       </c>
       <c r="D72" s="31">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E72" s="31">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F72" s="31">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G72" s="32">
         <v>1605</v>
@@ -4228,13 +4231,13 @@
         <v>108125</v>
       </c>
       <c r="D73" s="31">
-        <v>77082</v>
+        <v>79191</v>
       </c>
       <c r="E73" s="31">
-        <v>62986</v>
+        <v>64345</v>
       </c>
       <c r="F73" s="31">
-        <v>14096</v>
+        <v>14846</v>
       </c>
       <c r="G73" s="32">
         <v>640715</v>
@@ -4263,13 +4266,13 @@
         <v>4800</v>
       </c>
       <c r="D74" s="31">
-        <v>7136</v>
+        <v>7491</v>
       </c>
       <c r="E74" s="31">
-        <v>6138</v>
+        <v>6356</v>
       </c>
       <c r="F74" s="31">
-        <v>998</v>
+        <v>1135</v>
       </c>
       <c r="G74" s="32">
         <v>146536</v>
@@ -4298,13 +4301,13 @@
         <v>1000</v>
       </c>
       <c r="D75" s="31">
-        <v>1329</v>
+        <v>1396</v>
       </c>
       <c r="E75" s="31">
-        <v>1159</v>
+        <v>1220</v>
       </c>
       <c r="F75" s="31">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G75" s="32">
         <v>34869</v>
@@ -4333,13 +4336,13 @@
         <v>2650</v>
       </c>
       <c r="D76" s="31">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="E76" s="31">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F76" s="31">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G76" s="32">
         <v>14306</v>
@@ -4368,13 +4371,13 @@
         <v>4650</v>
       </c>
       <c r="D77" s="31">
-        <v>1882</v>
+        <v>2101</v>
       </c>
       <c r="E77" s="31">
-        <v>1649</v>
+        <v>1674</v>
       </c>
       <c r="F77" s="31">
-        <v>233</v>
+        <v>427</v>
       </c>
       <c r="G77" s="32">
         <v>29681</v>
@@ -4403,13 +4406,13 @@
         <v>1400</v>
       </c>
       <c r="D78" s="31">
-        <v>959</v>
+        <v>988</v>
       </c>
       <c r="E78" s="31">
-        <v>897</v>
+        <v>918</v>
       </c>
       <c r="F78" s="31">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G78" s="32">
         <v>21209</v>
@@ -4438,13 +4441,13 @@
         <v>200</v>
       </c>
       <c r="D79" s="31">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E79" s="31">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F79" s="31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G79" s="32">
         <v>3139</v>
@@ -4473,13 +4476,13 @@
         <v>200</v>
       </c>
       <c r="D80" s="31">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="E80" s="31">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F80" s="31">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G80" s="32">
         <v>4283</v>
@@ -4508,13 +4511,13 @@
         <v>100</v>
       </c>
       <c r="D81" s="31">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E81" s="31">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F81" s="31">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G81" s="32">
         <v>937</v>
@@ -4543,13 +4546,13 @@
         <v>50575</v>
       </c>
       <c r="D82" s="31">
-        <v>47513</v>
+        <v>51812</v>
       </c>
       <c r="E82" s="31">
-        <v>39996</v>
+        <v>43573</v>
       </c>
       <c r="F82" s="31">
-        <v>7517</v>
+        <v>8239</v>
       </c>
       <c r="G82" s="32">
         <v>626861</v>
@@ -4578,13 +4581,13 @@
         <v>400</v>
       </c>
       <c r="D83" s="31">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="E83" s="31">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="F83" s="31">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G83" s="32">
         <v>8327</v>
@@ -4613,13 +4616,13 @@
         <v>1100</v>
       </c>
       <c r="D84" s="31">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="E84" s="31">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="F84" s="31">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G84" s="32">
         <v>16551</v>
@@ -4648,13 +4651,13 @@
         <v>2475</v>
       </c>
       <c r="D85" s="31">
-        <v>1197</v>
+        <v>1378</v>
       </c>
       <c r="E85" s="31">
-        <v>959</v>
+        <v>1124</v>
       </c>
       <c r="F85" s="31">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="G85" s="32">
         <v>15133</v>
@@ -4683,13 +4686,13 @@
         <v>1200</v>
       </c>
       <c r="D86" s="31">
-        <v>662</v>
+        <v>690</v>
       </c>
       <c r="E86" s="31">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="F86" s="31">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G86" s="32">
         <v>14875</v>
@@ -4718,13 +4721,13 @@
         <v>38225</v>
       </c>
       <c r="D87" s="31">
-        <v>25980</v>
+        <v>29881</v>
       </c>
       <c r="E87" s="31">
-        <v>21062</v>
+        <v>23681</v>
       </c>
       <c r="F87" s="31">
-        <v>4918</v>
+        <v>6200</v>
       </c>
       <c r="G87" s="32">
         <v>267032</v>
@@ -4753,13 +4756,13 @@
         <v>100</v>
       </c>
       <c r="D88" s="31">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="E88" s="31">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="F88" s="31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G88" s="32">
         <v>5021</v>
@@ -4788,13 +4791,13 @@
         <v>4300</v>
       </c>
       <c r="D89" s="31">
-        <v>1624</v>
+        <v>1855</v>
       </c>
       <c r="E89" s="31">
-        <v>1562</v>
+        <v>1716</v>
       </c>
       <c r="F89" s="31">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="G89" s="32">
         <v>22728</v>
@@ -4823,10 +4826,10 @@
         <v>0</v>
       </c>
       <c r="D90" s="31">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E90" s="31">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F90" s="31">
         <v>5</v>
@@ -4858,13 +4861,13 @@
         <v>100</v>
       </c>
       <c r="D91" s="31">
-        <v>584</v>
+        <v>606</v>
       </c>
       <c r="E91" s="31">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="F91" s="31">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G91" s="32">
         <v>6615</v>
@@ -4893,13 +4896,13 @@
         <v>1600</v>
       </c>
       <c r="D92" s="31">
-        <v>978</v>
+        <v>1020</v>
       </c>
       <c r="E92" s="31">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="F92" s="31">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="G92" s="32">
         <v>15931</v>
@@ -4928,13 +4931,13 @@
         <v>1300</v>
       </c>
       <c r="D93" s="31">
-        <v>1073</v>
+        <v>1138</v>
       </c>
       <c r="E93" s="31">
-        <v>1048</v>
+        <v>1084</v>
       </c>
       <c r="F93" s="31">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="G93" s="32">
         <v>17050</v>
@@ -4963,13 +4966,13 @@
         <v>21800</v>
       </c>
       <c r="D94" s="31">
-        <v>7775</v>
+        <v>8398</v>
       </c>
       <c r="E94" s="31">
-        <v>6658</v>
+        <v>7090</v>
       </c>
       <c r="F94" s="31">
-        <v>1117</v>
+        <v>1308</v>
       </c>
       <c r="G94" s="32">
         <v>107568</v>
@@ -4998,13 +5001,13 @@
         <v>16050</v>
       </c>
       <c r="D95" s="31">
-        <v>6467</v>
+        <v>6687</v>
       </c>
       <c r="E95" s="31">
-        <v>4945</v>
+        <v>5091</v>
       </c>
       <c r="F95" s="31">
-        <v>1522</v>
+        <v>1596</v>
       </c>
       <c r="G95" s="32">
         <v>97771</v>
@@ -5033,13 +5036,13 @@
         <v>1200</v>
       </c>
       <c r="D96" s="31">
-        <v>931</v>
+        <v>971</v>
       </c>
       <c r="E96" s="31">
-        <v>875</v>
+        <v>886</v>
       </c>
       <c r="F96" s="31">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="G96" s="32">
         <v>23692</v>
@@ -5068,13 +5071,13 @@
         <v>6275</v>
       </c>
       <c r="D97" s="31">
-        <v>6378</v>
+        <v>6647</v>
       </c>
       <c r="E97" s="31">
-        <v>4771</v>
+        <v>4908</v>
       </c>
       <c r="F97" s="31">
-        <v>1607</v>
+        <v>1739</v>
       </c>
       <c r="G97" s="32">
         <v>130156</v>
@@ -5103,13 +5106,13 @@
         <v>2600</v>
       </c>
       <c r="D98" s="31">
-        <v>1754</v>
+        <v>1909</v>
       </c>
       <c r="E98" s="31">
-        <v>1602</v>
+        <v>1679</v>
       </c>
       <c r="F98" s="31">
-        <v>152</v>
+        <v>230</v>
       </c>
       <c r="G98" s="32">
         <v>25066</v>
@@ -5138,10 +5141,10 @@
         <v>0</v>
       </c>
       <c r="D99" s="31">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="E99" s="31">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="F99" s="31">
         <v>9</v>
@@ -5173,13 +5176,13 @@
         <v>1600</v>
       </c>
       <c r="D100" s="31">
-        <v>1672</v>
+        <v>1683</v>
       </c>
       <c r="E100" s="31">
-        <v>1579</v>
+        <v>1586</v>
       </c>
       <c r="F100" s="31">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G100" s="32">
         <v>6957</v>
@@ -5208,13 +5211,13 @@
         <v>600</v>
       </c>
       <c r="D101" s="31">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="E101" s="31">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F101" s="31">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G101" s="32">
         <v>3992</v>
@@ -5243,13 +5246,13 @@
         <v>500</v>
       </c>
       <c r="D102" s="31">
-        <v>369</v>
+        <v>565</v>
       </c>
       <c r="E102" s="31">
-        <v>326</v>
+        <v>478</v>
       </c>
       <c r="F102" s="31">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="G102" s="32">
         <v>3017</v>
@@ -5278,13 +5281,13 @@
         <v>4700</v>
       </c>
       <c r="D103" s="31">
-        <v>2548</v>
+        <v>2600</v>
       </c>
       <c r="E103" s="31">
-        <v>2372</v>
+        <v>2407</v>
       </c>
       <c r="F103" s="31">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G103" s="32">
         <v>47640</v>
@@ -5313,13 +5316,13 @@
         <v>571325</v>
       </c>
       <c r="D104" s="31">
-        <v>288229</v>
+        <v>304607</v>
       </c>
       <c r="E104" s="31">
-        <v>242256</v>
+        <v>255708</v>
       </c>
       <c r="F104" s="31">
-        <v>45973</v>
+        <v>48899</v>
       </c>
       <c r="G104" s="32">
         <v>3573784</v>
@@ -5348,13 +5351,13 @@
         <v>2800</v>
       </c>
       <c r="D105" s="31">
-        <v>2289</v>
+        <v>2349</v>
       </c>
       <c r="E105" s="31">
-        <v>1998</v>
+        <v>2044</v>
       </c>
       <c r="F105" s="31">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="G105" s="32">
         <v>53015</v>
@@ -5383,13 +5386,13 @@
         <v>1475</v>
       </c>
       <c r="D106" s="31">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="E106" s="31">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="F106" s="31">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G106" s="32">
         <v>4850</v>
@@ -5418,13 +5421,13 @@
         <v>200</v>
       </c>
       <c r="D107" s="31">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="E107" s="31">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F107" s="31">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G107" s="32">
         <v>4635</v>
@@ -5453,13 +5456,13 @@
         <v>18125</v>
       </c>
       <c r="D108" s="31">
-        <v>11012</v>
+        <v>12054</v>
       </c>
       <c r="E108" s="31">
-        <v>9472</v>
+        <v>10350</v>
       </c>
       <c r="F108" s="31">
-        <v>1540</v>
+        <v>1704</v>
       </c>
       <c r="G108" s="32">
         <v>183387</v>
@@ -5488,13 +5491,13 @@
         <v>800</v>
       </c>
       <c r="D109" s="31">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="E109" s="31">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="F109" s="31">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G109" s="32">
         <v>2788</v>
@@ -5523,13 +5526,13 @@
         <v>3400</v>
       </c>
       <c r="D110" s="31">
-        <v>2755</v>
+        <v>3095</v>
       </c>
       <c r="E110" s="31">
-        <v>2425</v>
+        <v>2677</v>
       </c>
       <c r="F110" s="31">
-        <v>330</v>
+        <v>418</v>
       </c>
       <c r="G110" s="32">
         <v>67614</v>
@@ -5558,13 +5561,13 @@
         <v>107750</v>
       </c>
       <c r="D111" s="31">
-        <v>41386</v>
+        <v>44161</v>
       </c>
       <c r="E111" s="31">
-        <v>33939</v>
+        <v>35896</v>
       </c>
       <c r="F111" s="31">
-        <v>7447</v>
+        <v>8265</v>
       </c>
       <c r="G111" s="32">
         <v>649795</v>
@@ -5593,13 +5596,13 @@
         <v>1100</v>
       </c>
       <c r="D112" s="31">
-        <v>1566</v>
+        <v>1613</v>
       </c>
       <c r="E112" s="31">
-        <v>1493</v>
+        <v>1514</v>
       </c>
       <c r="F112" s="31">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G112" s="32">
         <v>29221</v>
@@ -5628,13 +5631,13 @@
         <v>900</v>
       </c>
       <c r="D113" s="31">
-        <v>983</v>
+        <v>1046</v>
       </c>
       <c r="E113" s="31">
-        <v>864</v>
+        <v>913</v>
       </c>
       <c r="F113" s="31">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="G113" s="32">
         <v>17482</v>
@@ -5663,13 +5666,13 @@
         <v>2200</v>
       </c>
       <c r="D114" s="31">
-        <v>1567</v>
+        <v>1666</v>
       </c>
       <c r="E114" s="31">
-        <v>1467</v>
+        <v>1542</v>
       </c>
       <c r="F114" s="31">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="G114" s="32">
         <v>50235</v>
@@ -5698,13 +5701,13 @@
         <v>2400</v>
       </c>
       <c r="D115" s="31">
-        <v>1623</v>
+        <v>1962</v>
       </c>
       <c r="E115" s="31">
-        <v>1404</v>
+        <v>1723</v>
       </c>
       <c r="F115" s="31">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="G115" s="32">
         <v>29578</v>
@@ -5733,13 +5736,13 @@
         <v>1500</v>
       </c>
       <c r="D116" s="31">
-        <v>1272</v>
+        <v>1332</v>
       </c>
       <c r="E116" s="31">
-        <v>1187</v>
+        <v>1219</v>
       </c>
       <c r="F116" s="31">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="G116" s="32">
         <v>19208</v>
@@ -5768,13 +5771,13 @@
         <v>2700</v>
       </c>
       <c r="D117" s="31">
-        <v>1199</v>
+        <v>1261</v>
       </c>
       <c r="E117" s="31">
-        <v>1075</v>
+        <v>1092</v>
       </c>
       <c r="F117" s="31">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="G117" s="32">
         <v>28821</v>
@@ -5838,13 +5841,13 @@
         <v>7050</v>
       </c>
       <c r="D119" s="31">
-        <v>4674</v>
+        <v>4952</v>
       </c>
       <c r="E119" s="31">
-        <v>3653</v>
+        <v>3727</v>
       </c>
       <c r="F119" s="31">
-        <v>1021</v>
+        <v>1225</v>
       </c>
       <c r="G119" s="32">
         <v>77702</v>
@@ -5873,13 +5876,13 @@
         <v>600</v>
       </c>
       <c r="D120" s="31">
-        <v>1044</v>
+        <v>1127</v>
       </c>
       <c r="E120" s="31">
-        <v>1029</v>
+        <v>1078</v>
       </c>
       <c r="F120" s="31">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="G120" s="32">
         <v>15984</v>
@@ -5908,10 +5911,10 @@
         <v>0</v>
       </c>
       <c r="D121" s="31">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E121" s="31">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F121" s="31">
         <v>4</v>
@@ -5943,13 +5946,13 @@
         <v>500</v>
       </c>
       <c r="D122" s="31">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E122" s="31">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F122" s="31">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G122" s="32">
         <v>7488</v>
@@ -5978,13 +5981,13 @@
         <v>2775</v>
       </c>
       <c r="D123" s="31">
-        <v>860</v>
+        <v>931</v>
       </c>
       <c r="E123" s="31">
-        <v>795</v>
+        <v>847</v>
       </c>
       <c r="F123" s="31">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G123" s="32">
         <v>11172</v>
@@ -6013,13 +6016,13 @@
         <v>5100</v>
       </c>
       <c r="D124" s="31">
-        <v>1456</v>
+        <v>1627</v>
       </c>
       <c r="E124" s="31">
-        <v>1408</v>
+        <v>1573</v>
       </c>
       <c r="F124" s="31">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G124" s="32">
         <v>28248</v>
@@ -6048,13 +6051,13 @@
         <v>100</v>
       </c>
       <c r="D125" s="31">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E125" s="31">
         <v>79</v>
       </c>
       <c r="F125" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G125" s="32">
         <v>2146</v>
@@ -6083,13 +6086,13 @@
         <v>22900</v>
       </c>
       <c r="D126" s="31">
-        <v>7012</v>
+        <v>7355</v>
       </c>
       <c r="E126" s="31">
-        <v>6464</v>
+        <v>6756</v>
       </c>
       <c r="F126" s="31">
-        <v>548</v>
+        <v>599</v>
       </c>
       <c r="G126" s="32">
         <v>198728</v>
@@ -6118,13 +6121,13 @@
         <v>100</v>
       </c>
       <c r="D127" s="31">
-        <v>469</v>
+        <v>540</v>
       </c>
       <c r="E127" s="31">
-        <v>466</v>
+        <v>498</v>
       </c>
       <c r="F127" s="31">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="G127" s="32">
         <v>3764</v>
@@ -6153,13 +6156,13 @@
         <v>3250</v>
       </c>
       <c r="D128" s="31">
-        <v>2490</v>
+        <v>2602</v>
       </c>
       <c r="E128" s="31">
-        <v>2329</v>
+        <v>2390</v>
       </c>
       <c r="F128" s="31">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="G128" s="32">
         <v>29988</v>
@@ -6188,13 +6191,13 @@
         <v>3500</v>
       </c>
       <c r="D129" s="31">
-        <v>6377</v>
+        <v>6681</v>
       </c>
       <c r="E129" s="31">
-        <v>5585</v>
+        <v>5802</v>
       </c>
       <c r="F129" s="31">
-        <v>792</v>
+        <v>879</v>
       </c>
       <c r="G129" s="32">
         <v>135188</v>
@@ -6223,13 +6226,13 @@
         <v>400</v>
       </c>
       <c r="D130" s="31">
-        <v>646</v>
+        <v>670</v>
       </c>
       <c r="E130" s="31">
-        <v>531</v>
+        <v>552</v>
       </c>
       <c r="F130" s="31">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G130" s="32">
         <v>16827</v>
@@ -6258,13 +6261,13 @@
         <v>1300</v>
       </c>
       <c r="D131" s="31">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="E131" s="31">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="F131" s="31">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G131" s="32">
         <v>12523</v>
@@ -6293,13 +6296,13 @@
         <v>3750</v>
       </c>
       <c r="D132" s="31">
-        <v>5205</v>
+        <v>5507</v>
       </c>
       <c r="E132" s="31">
-        <v>4362</v>
+        <v>4522</v>
       </c>
       <c r="F132" s="31">
-        <v>843</v>
+        <v>985</v>
       </c>
       <c r="G132" s="32">
         <v>104736</v>
@@ -6328,13 +6331,13 @@
         <v>2300</v>
       </c>
       <c r="D133" s="31">
-        <v>3159</v>
+        <v>3331</v>
       </c>
       <c r="E133" s="31">
-        <v>2371</v>
+        <v>2484</v>
       </c>
       <c r="F133" s="31">
-        <v>788</v>
+        <v>847</v>
       </c>
       <c r="G133" s="32">
         <v>38074</v>
@@ -6363,10 +6366,10 @@
         <v>0</v>
       </c>
       <c r="D134" s="31">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="E134" s="31">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="F134" s="31">
         <v>1</v>
@@ -6398,10 +6401,10 @@
         <v>0</v>
       </c>
       <c r="D135" s="31">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E135" s="31">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F135" s="31">
         <v>0</v>
@@ -6433,13 +6436,13 @@
         <v>3200</v>
       </c>
       <c r="D136" s="31">
-        <v>2172</v>
+        <v>2605</v>
       </c>
       <c r="E136" s="31">
-        <v>1806</v>
+        <v>1894</v>
       </c>
       <c r="F136" s="31">
-        <v>366</v>
+        <v>711</v>
       </c>
       <c r="G136" s="32">
         <v>43611</v>
@@ -6468,13 +6471,13 @@
         <v>300</v>
       </c>
       <c r="D137" s="31">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E137" s="31">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F137" s="31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G137" s="32">
         <v>3844</v>
@@ -6503,10 +6506,10 @@
         <v>0</v>
       </c>
       <c r="D138" s="31">
+        <v>10</v>
+      </c>
+      <c r="E138" s="31">
         <v>9</v>
-      </c>
-      <c r="E138" s="31">
-        <v>8</v>
       </c>
       <c r="F138" s="31">
         <v>1</v>
@@ -6538,10 +6541,10 @@
         <v>100</v>
       </c>
       <c r="D139" s="31">
+        <v>85</v>
+      </c>
+      <c r="E139" s="31">
         <v>84</v>
-      </c>
-      <c r="E139" s="31">
-        <v>83</v>
       </c>
       <c r="F139" s="31">
         <v>1</v>
@@ -6573,13 +6576,13 @@
         <v>5050</v>
       </c>
       <c r="D140" s="31">
-        <v>1843</v>
+        <v>2765</v>
       </c>
       <c r="E140" s="31">
-        <v>1730</v>
+        <v>2632</v>
       </c>
       <c r="F140" s="31">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G140" s="32">
         <v>25862</v>
@@ -6608,13 +6611,13 @@
         <v>300</v>
       </c>
       <c r="D141" s="31">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="E141" s="31">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F141" s="31">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G141" s="32">
         <v>2861</v>
@@ -6643,13 +6646,13 @@
         <v>2150</v>
       </c>
       <c r="D142" s="31">
-        <v>1064</v>
+        <v>1100</v>
       </c>
       <c r="E142" s="31">
-        <v>1046</v>
+        <v>1079</v>
       </c>
       <c r="F142" s="31">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G142" s="32">
         <v>6105</v>
@@ -6678,13 +6681,13 @@
         <v>3700</v>
       </c>
       <c r="D143" s="31">
-        <v>2446</v>
+        <v>2649</v>
       </c>
       <c r="E143" s="31">
-        <v>2350</v>
+        <v>2366</v>
       </c>
       <c r="F143" s="31">
-        <v>96</v>
+        <v>283</v>
       </c>
       <c r="G143" s="32">
         <v>40212</v>
@@ -6713,13 +6716,13 @@
         <v>400</v>
       </c>
       <c r="D144" s="31">
-        <v>677</v>
+        <v>915</v>
       </c>
       <c r="E144" s="31">
-        <v>625</v>
+        <v>856</v>
       </c>
       <c r="F144" s="31">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G144" s="32">
         <v>9647</v>
@@ -6748,13 +6751,13 @@
         <v>300</v>
       </c>
       <c r="D145" s="31">
-        <v>576</v>
+        <v>593</v>
       </c>
       <c r="E145" s="31">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="F145" s="31">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G145" s="32">
         <v>17275</v>
@@ -6783,13 +6786,13 @@
         <v>1900</v>
       </c>
       <c r="D146" s="31">
-        <v>1177</v>
+        <v>1194</v>
       </c>
       <c r="E146" s="31">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="F146" s="31">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G146" s="32">
         <v>16041</v>
@@ -6818,13 +6821,13 @@
         <v>600</v>
       </c>
       <c r="D147" s="31">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="E147" s="31">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="F147" s="31">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G147" s="32">
         <v>13837</v>
@@ -6853,13 +6856,13 @@
         <v>600</v>
       </c>
       <c r="D148" s="31">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="E148" s="31">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="F148" s="31">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G148" s="32">
         <v>14066</v>
@@ -6888,13 +6891,13 @@
         <v>5450</v>
       </c>
       <c r="D149" s="31">
-        <v>2377</v>
+        <v>2483</v>
       </c>
       <c r="E149" s="31">
-        <v>2258</v>
+        <v>2360</v>
       </c>
       <c r="F149" s="31">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G149" s="32">
         <v>70912</v>
@@ -6923,13 +6926,13 @@
         <v>1500</v>
       </c>
       <c r="D150" s="31">
-        <v>861</v>
+        <v>844</v>
       </c>
       <c r="E150" s="31">
-        <v>847</v>
+        <v>829</v>
       </c>
       <c r="F150" s="31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G150" s="32">
         <v>19033</v>
@@ -6958,13 +6961,13 @@
         <v>100</v>
       </c>
       <c r="D151" s="31">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="E151" s="31">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="F151" s="31">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="G151" s="32">
         <v>2496</v>
@@ -6993,13 +6996,13 @@
         <v>200</v>
       </c>
       <c r="D152" s="31">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="E152" s="31">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F152" s="31">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G152" s="32">
         <v>9966</v>
@@ -7028,13 +7031,13 @@
         <v>100</v>
       </c>
       <c r="D153" s="31">
-        <v>728</v>
+        <v>747</v>
       </c>
       <c r="E153" s="31">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="F153" s="31">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G153" s="32">
         <v>18642</v>
@@ -7063,10 +7066,10 @@
         <v>0</v>
       </c>
       <c r="D154" s="31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E154" s="31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F154" s="31">
         <v>0</v>
@@ -7098,13 +7101,13 @@
         <v>73900</v>
       </c>
       <c r="D155" s="31">
-        <v>33737</v>
+        <v>35955</v>
       </c>
       <c r="E155" s="31">
-        <v>28239</v>
+        <v>30140</v>
       </c>
       <c r="F155" s="31">
-        <v>5498</v>
+        <v>5815</v>
       </c>
       <c r="G155" s="32">
         <v>243899</v>
@@ -7133,13 +7136,13 @@
         <v>200</v>
       </c>
       <c r="D156" s="31">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="E156" s="31">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="F156" s="31">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G156" s="32">
         <v>4820</v>
@@ -7168,13 +7171,13 @@
         <v>700</v>
       </c>
       <c r="D157" s="31">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="E157" s="31">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F157" s="31">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G157" s="32">
         <v>11353</v>
@@ -7203,13 +7206,13 @@
         <v>0</v>
       </c>
       <c r="D158" s="31">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E158" s="31">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F158" s="31">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G158" s="32">
         <v>8117</v>
@@ -7238,10 +7241,10 @@
         <v>600</v>
       </c>
       <c r="D159" s="31">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="E159" s="31">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F159" s="31">
         <v>30</v>
@@ -7273,13 +7276,13 @@
         <v>200</v>
       </c>
       <c r="D160" s="31">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="E160" s="31">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F160" s="31">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="G160" s="32">
         <v>3567</v>
@@ -7308,13 +7311,13 @@
         <v>2500</v>
       </c>
       <c r="D161" s="31">
-        <v>830</v>
+        <v>860</v>
       </c>
       <c r="E161" s="31">
-        <v>808</v>
+        <v>836</v>
       </c>
       <c r="F161" s="31">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G161" s="32">
         <v>28353</v>
@@ -7343,13 +7346,13 @@
         <v>4800</v>
       </c>
       <c r="D162" s="31">
-        <v>2595</v>
+        <v>2742</v>
       </c>
       <c r="E162" s="31">
-        <v>2407</v>
+        <v>2453</v>
       </c>
       <c r="F162" s="31">
-        <v>188</v>
+        <v>289</v>
       </c>
       <c r="G162" s="32">
         <v>42357</v>
@@ -7378,13 +7381,13 @@
         <v>600</v>
       </c>
       <c r="D163" s="31">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="E163" s="31">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="F163" s="31">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G163" s="32">
         <v>6675</v>
@@ -7413,13 +7416,13 @@
         <v>23700</v>
       </c>
       <c r="D164" s="31">
-        <v>14309</v>
+        <v>14494</v>
       </c>
       <c r="E164" s="31">
-        <v>13024</v>
+        <v>13119</v>
       </c>
       <c r="F164" s="31">
-        <v>1285</v>
+        <v>1375</v>
       </c>
       <c r="G164" s="32">
         <v>198642</v>
@@ -7448,10 +7451,10 @@
         <v>100</v>
       </c>
       <c r="D165" s="31">
+        <v>22</v>
+      </c>
+      <c r="E165" s="31">
         <v>21</v>
-      </c>
-      <c r="E165" s="31">
-        <v>20</v>
       </c>
       <c r="F165" s="31">
         <v>1</v>
@@ -7483,13 +7486,13 @@
         <v>1400</v>
       </c>
       <c r="D166" s="31">
-        <v>2206</v>
+        <v>2326</v>
       </c>
       <c r="E166" s="31">
-        <v>1878</v>
+        <v>1950</v>
       </c>
       <c r="F166" s="31">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="G166" s="32">
         <v>42991</v>
@@ -7553,13 +7556,13 @@
         <v>16750</v>
       </c>
       <c r="D168" s="31">
-        <v>6476</v>
+        <v>7206</v>
       </c>
       <c r="E168" s="31">
-        <v>4571</v>
+        <v>5230</v>
       </c>
       <c r="F168" s="31">
-        <v>1905</v>
+        <v>1976</v>
       </c>
       <c r="G168" s="32">
         <v>132357</v>
@@ -7588,13 +7591,13 @@
         <v>1800</v>
       </c>
       <c r="D169" s="31">
-        <v>1324</v>
+        <v>1338</v>
       </c>
       <c r="E169" s="31">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="F169" s="31">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G169" s="32">
         <v>19805</v>
@@ -7623,10 +7626,10 @@
         <v>200</v>
       </c>
       <c r="D170" s="31">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E170" s="31">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F170" s="31">
         <v>20</v>
@@ -7658,13 +7661,13 @@
         <v>600</v>
       </c>
       <c r="D171" s="31">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E171" s="31">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F171" s="31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G171" s="32">
         <v>7087</v>
@@ -7693,13 +7696,13 @@
         <v>1275</v>
       </c>
       <c r="D172" s="31">
-        <v>1032</v>
+        <v>1060</v>
       </c>
       <c r="E172" s="31">
-        <v>963</v>
+        <v>987</v>
       </c>
       <c r="F172" s="31">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G172" s="32">
         <v>15803</v>
@@ -7728,13 +7731,13 @@
         <v>47850</v>
       </c>
       <c r="D173" s="31">
-        <v>20238</v>
+        <v>21554</v>
       </c>
       <c r="E173" s="31">
-        <v>17572</v>
+        <v>18506</v>
       </c>
       <c r="F173" s="31">
-        <v>2666</v>
+        <v>3048</v>
       </c>
       <c r="G173" s="32">
         <v>470846</v>
@@ -7763,13 +7766,13 @@
         <v>1100</v>
       </c>
       <c r="D174" s="31">
-        <v>1169</v>
+        <v>1297</v>
       </c>
       <c r="E174" s="31">
-        <v>1158</v>
+        <v>1216</v>
       </c>
       <c r="F174" s="31">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="G174" s="32">
         <v>15513</v>
@@ -7798,13 +7801,13 @@
         <v>300</v>
       </c>
       <c r="D175" s="31">
-        <v>421</v>
+        <v>451</v>
       </c>
       <c r="E175" s="31">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F175" s="31">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="G175" s="32">
         <v>9938</v>
@@ -7833,13 +7836,13 @@
         <v>0</v>
       </c>
       <c r="D176" s="31">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E176" s="31">
         <v>70</v>
       </c>
       <c r="F176" s="31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G176" s="32">
         <v>1016</v>
@@ -7868,13 +7871,13 @@
         <v>6700</v>
       </c>
       <c r="D177" s="31">
-        <v>4359</v>
+        <v>4506</v>
       </c>
       <c r="E177" s="31">
-        <v>4186</v>
+        <v>4219</v>
       </c>
       <c r="F177" s="31">
-        <v>173</v>
+        <v>287</v>
       </c>
       <c r="G177" s="32">
         <v>52561</v>
@@ -7903,13 +7906,13 @@
         <v>4000</v>
       </c>
       <c r="D178" s="31">
-        <v>1985</v>
+        <v>2029</v>
       </c>
       <c r="E178" s="31">
-        <v>1908</v>
+        <v>1926</v>
       </c>
       <c r="F178" s="31">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="G178" s="32">
         <v>40888</v>
@@ -7938,10 +7941,10 @@
         <v>400</v>
       </c>
       <c r="D179" s="31">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="E179" s="31">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="F179" s="31">
         <v>5</v>
@@ -7973,13 +7976,13 @@
         <v>1600</v>
       </c>
       <c r="D180" s="31">
-        <v>1435</v>
+        <v>1450</v>
       </c>
       <c r="E180" s="31">
-        <v>1387</v>
+        <v>1394</v>
       </c>
       <c r="F180" s="31">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G180" s="32">
         <v>10998</v>
@@ -8008,13 +8011,13 @@
         <v>48525</v>
       </c>
       <c r="D181" s="31">
-        <v>22333</v>
+        <v>23249</v>
       </c>
       <c r="E181" s="31">
-        <v>17016</v>
+        <v>17390</v>
       </c>
       <c r="F181" s="31">
-        <v>5317</v>
+        <v>5859</v>
       </c>
       <c r="G181" s="32">
         <v>282299</v>
@@ -8043,13 +8046,13 @@
         <v>900</v>
       </c>
       <c r="D182" s="31">
-        <v>501</v>
+        <v>605</v>
       </c>
       <c r="E182" s="31">
-        <v>496</v>
+        <v>565</v>
       </c>
       <c r="F182" s="31">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G182" s="32">
         <v>7508</v>
@@ -8078,13 +8081,13 @@
         <v>100</v>
       </c>
       <c r="D183" s="31">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E183" s="31">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F183" s="31">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G183" s="32">
         <v>1714</v>
@@ -8113,13 +8116,13 @@
         <v>1200</v>
       </c>
       <c r="D184" s="31">
-        <v>1473</v>
+        <v>1547</v>
       </c>
       <c r="E184" s="31">
-        <v>1381</v>
+        <v>1447</v>
       </c>
       <c r="F184" s="31">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G184" s="32">
         <v>65680</v>
@@ -8148,13 +8151,13 @@
         <v>1300</v>
       </c>
       <c r="D185" s="31">
-        <v>839</v>
+        <v>928</v>
       </c>
       <c r="E185" s="31">
-        <v>819</v>
+        <v>901</v>
       </c>
       <c r="F185" s="31">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G185" s="32">
         <v>23268</v>
@@ -8183,13 +8186,13 @@
         <v>1200</v>
       </c>
       <c r="D186" s="31">
-        <v>873</v>
+        <v>884</v>
       </c>
       <c r="E186" s="31">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="F186" s="31">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G186" s="32">
         <v>19325</v>
@@ -8218,13 +8221,13 @@
         <v>9200</v>
       </c>
       <c r="D187" s="31">
-        <v>6630</v>
+        <v>6985</v>
       </c>
       <c r="E187" s="31">
-        <v>6094</v>
+        <v>6363</v>
       </c>
       <c r="F187" s="31">
-        <v>536</v>
+        <v>622</v>
       </c>
       <c r="G187" s="32">
         <v>112329</v>
@@ -8253,13 +8256,13 @@
         <v>500</v>
       </c>
       <c r="D188" s="31">
-        <v>499</v>
+        <v>583</v>
       </c>
       <c r="E188" s="31">
-        <v>471</v>
+        <v>544</v>
       </c>
       <c r="F188" s="31">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G188" s="32">
         <v>7111</v>
@@ -8288,13 +8291,13 @@
         <v>1300</v>
       </c>
       <c r="D189" s="31">
-        <v>791</v>
+        <v>805</v>
       </c>
       <c r="E189" s="31">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F189" s="31">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G189" s="32">
         <v>11723</v>
@@ -8323,13 +8326,13 @@
         <v>2800</v>
       </c>
       <c r="D190" s="31">
-        <v>1515</v>
+        <v>1587</v>
       </c>
       <c r="E190" s="31">
-        <v>1469</v>
+        <v>1527</v>
       </c>
       <c r="F190" s="31">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G190" s="32">
         <v>41511</v>
@@ -8358,13 +8361,13 @@
         <v>60050</v>
       </c>
       <c r="D191" s="31">
-        <v>12151</v>
+        <v>13154</v>
       </c>
       <c r="E191" s="31">
-        <v>11376</v>
+        <v>11922</v>
       </c>
       <c r="F191" s="31">
-        <v>775</v>
+        <v>1232</v>
       </c>
       <c r="G191" s="32">
         <v>89806</v>
@@ -8393,10 +8396,10 @@
         <v>400</v>
       </c>
       <c r="D192" s="31">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E192" s="31">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F192" s="31">
         <v>2</v>
@@ -8428,13 +8431,13 @@
         <v>200</v>
       </c>
       <c r="D193" s="31">
-        <v>385</v>
+        <v>440</v>
       </c>
       <c r="E193" s="31">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="F193" s="31">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G193" s="32">
         <v>10262</v>
@@ -8463,13 +8466,13 @@
         <v>4600</v>
       </c>
       <c r="D194" s="31">
-        <v>18683</v>
+        <v>20224</v>
       </c>
       <c r="E194" s="31">
-        <v>17368</v>
+        <v>18131</v>
       </c>
       <c r="F194" s="31">
-        <v>1315</v>
+        <v>2093</v>
       </c>
       <c r="G194" s="32">
         <v>109144</v>
@@ -8533,13 +8536,13 @@
         <v>0</v>
       </c>
       <c r="D196" s="31">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E196" s="31">
         <v>219</v>
       </c>
       <c r="F196" s="31">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G196" s="32">
         <v>2882</v>
@@ -8568,13 +8571,13 @@
         <v>500</v>
       </c>
       <c r="D197" s="31">
-        <v>816</v>
+        <v>861</v>
       </c>
       <c r="E197" s="31">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="F197" s="31">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="G197" s="32">
         <v>9511</v>
@@ -8603,10 +8606,10 @@
         <v>2450</v>
       </c>
       <c r="D198" s="31">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="E198" s="31">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="F198" s="31">
         <v>15</v>
@@ -8638,13 +8641,13 @@
         <v>600</v>
       </c>
       <c r="D199" s="31">
-        <v>703</v>
+        <v>717</v>
       </c>
       <c r="E199" s="31">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F199" s="31">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G199" s="32">
         <v>5497</v>
@@ -8673,13 +8676,13 @@
         <v>0</v>
       </c>
       <c r="D200" s="31">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E200" s="31">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F200" s="31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G200" s="32">
         <v>673</v>
@@ -8708,13 +8711,13 @@
         <v>700</v>
       </c>
       <c r="D201" s="31">
-        <v>588</v>
+        <v>636</v>
       </c>
       <c r="E201" s="31">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F201" s="31">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="G201" s="32">
         <v>14216</v>
@@ -8743,13 +8746,13 @@
         <v>4400</v>
       </c>
       <c r="D202" s="31">
-        <v>4678</v>
+        <v>5009</v>
       </c>
       <c r="E202" s="31">
-        <v>3993</v>
+        <v>4229</v>
       </c>
       <c r="F202" s="31">
-        <v>685</v>
+        <v>780</v>
       </c>
       <c r="G202" s="32">
         <v>81869</v>
@@ -8778,13 +8781,13 @@
         <v>1300</v>
       </c>
       <c r="D203" s="31">
-        <v>873</v>
+        <v>907</v>
       </c>
       <c r="E203" s="31">
-        <v>796</v>
+        <v>828</v>
       </c>
       <c r="F203" s="31">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G203" s="32">
         <v>7992</v>
@@ -8813,13 +8816,13 @@
         <v>1100</v>
       </c>
       <c r="D204" s="31">
-        <v>1559</v>
+        <v>1616</v>
       </c>
       <c r="E204" s="31">
-        <v>1380</v>
+        <v>1410</v>
       </c>
       <c r="F204" s="31">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="G204" s="32">
         <v>44061</v>
@@ -8848,13 +8851,13 @@
         <v>1300</v>
       </c>
       <c r="D205" s="31">
-        <v>874</v>
+        <v>890</v>
       </c>
       <c r="E205" s="31">
-        <v>870</v>
+        <v>879</v>
       </c>
       <c r="F205" s="31">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G205" s="32">
         <v>9116</v>
@@ -8883,13 +8886,13 @@
         <v>800</v>
       </c>
       <c r="D206" s="31">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="E206" s="31">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F206" s="31">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G206" s="32">
         <v>6982</v>
@@ -8918,13 +8921,13 @@
         <v>1100</v>
       </c>
       <c r="D207" s="31">
-        <v>858</v>
+        <v>880</v>
       </c>
       <c r="E207" s="31">
-        <v>821</v>
+        <v>840</v>
       </c>
       <c r="F207" s="31">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G207" s="32">
         <v>23713</v>
@@ -8953,13 +8956,13 @@
         <v>1700</v>
       </c>
       <c r="D208" s="31">
-        <v>2265</v>
+        <v>2358</v>
       </c>
       <c r="E208" s="31">
-        <v>1829</v>
+        <v>1885</v>
       </c>
       <c r="F208" s="31">
-        <v>436</v>
+        <v>473</v>
       </c>
       <c r="G208" s="32">
         <v>51382</v>
@@ -8988,10 +8991,10 @@
         <v>200</v>
       </c>
       <c r="D209" s="31">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E209" s="31">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F209" s="31">
         <v>6</v>
@@ -9023,10 +9026,10 @@
         <v>200</v>
       </c>
       <c r="D210" s="31">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E210" s="31">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F210" s="31">
         <v>22</v>
@@ -9058,13 +9061,13 @@
         <v>1875</v>
       </c>
       <c r="D211" s="31">
-        <v>573</v>
+        <v>630</v>
       </c>
       <c r="E211" s="31">
-        <v>565</v>
+        <v>620</v>
       </c>
       <c r="F211" s="31">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G211" s="32">
         <v>12956</v>
@@ -9093,13 +9096,13 @@
         <v>100</v>
       </c>
       <c r="D212" s="31">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E212" s="31">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F212" s="31">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G212" s="32">
         <v>2694</v>
@@ -9128,13 +9131,13 @@
         <v>1200</v>
       </c>
       <c r="D213" s="31">
-        <v>698</v>
+        <v>714</v>
       </c>
       <c r="E213" s="31">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="F213" s="31">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G213" s="32">
         <v>18618</v>
@@ -9163,13 +9166,13 @@
         <v>100</v>
       </c>
       <c r="D214" s="31">
+        <v>143</v>
+      </c>
+      <c r="E214" s="31">
         <v>138</v>
       </c>
-      <c r="E214" s="31">
-        <v>135</v>
-      </c>
       <c r="F214" s="31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G214" s="32">
         <v>2368</v>
@@ -9198,13 +9201,13 @@
         <v>47600</v>
       </c>
       <c r="D215" s="31">
-        <v>19022</v>
+        <v>20420</v>
       </c>
       <c r="E215" s="31">
-        <v>15473</v>
+        <v>16160</v>
       </c>
       <c r="F215" s="31">
-        <v>3549</v>
+        <v>4260</v>
       </c>
       <c r="G215" s="32">
         <v>181426</v>
@@ -9233,13 +9236,13 @@
         <v>300</v>
       </c>
       <c r="D216" s="31">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="E216" s="31">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="F216" s="31">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G216" s="32">
         <v>7769</v>
@@ -9268,13 +9271,13 @@
         <v>3800</v>
       </c>
       <c r="D217" s="31">
-        <v>2811</v>
+        <v>2993</v>
       </c>
       <c r="E217" s="31">
-        <v>2234</v>
+        <v>2319</v>
       </c>
       <c r="F217" s="31">
-        <v>577</v>
+        <v>674</v>
       </c>
       <c r="G217" s="32">
         <v>46042</v>
@@ -9303,13 +9306,13 @@
         <v>300</v>
       </c>
       <c r="D218" s="31">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="E218" s="31">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="F218" s="31">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G218" s="32">
         <v>7614</v>
@@ -9338,10 +9341,10 @@
         <v>100</v>
       </c>
       <c r="D219" s="31">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E219" s="31">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F219" s="31">
         <v>5</v>
@@ -9408,10 +9411,10 @@
         <v>200</v>
       </c>
       <c r="D221" s="31">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E221" s="31">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F221" s="31">
         <v>19</v>
@@ -9443,13 +9446,13 @@
         <v>200</v>
       </c>
       <c r="D222" s="31">
-        <v>456</v>
+        <v>489</v>
       </c>
       <c r="E222" s="31">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="F222" s="31">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G222" s="32">
         <v>5843</v>
@@ -9478,13 +9481,13 @@
         <v>277725</v>
       </c>
       <c r="D223" s="31">
-        <v>94099</v>
+        <v>100096</v>
       </c>
       <c r="E223" s="31">
-        <v>85716</v>
+        <v>90645</v>
       </c>
       <c r="F223" s="31">
-        <v>8383</v>
+        <v>9451</v>
       </c>
       <c r="G223" s="32">
         <v>1596169</v>
@@ -9513,13 +9516,13 @@
         <v>16875</v>
       </c>
       <c r="D224" s="31">
-        <v>11138</v>
+        <v>11529</v>
       </c>
       <c r="E224" s="31">
-        <v>8202</v>
+        <v>8517</v>
       </c>
       <c r="F224" s="31">
-        <v>2936</v>
+        <v>3012</v>
       </c>
       <c r="G224" s="32">
         <v>108531</v>
@@ -9583,13 +9586,13 @@
         <v>2375</v>
       </c>
       <c r="D226" s="31">
-        <v>920</v>
+        <v>965</v>
       </c>
       <c r="E226" s="31">
-        <v>800</v>
+        <v>815</v>
       </c>
       <c r="F226" s="31">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="G226" s="32">
         <v>9564</v>
@@ -9618,13 +9621,13 @@
         <v>300</v>
       </c>
       <c r="D227" s="31">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E227" s="31">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F227" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G227" s="32">
         <v>1187</v>
@@ -9653,13 +9656,13 @@
         <v>2700</v>
       </c>
       <c r="D228" s="31">
-        <v>1112</v>
+        <v>1157</v>
       </c>
       <c r="E228" s="31">
-        <v>1020</v>
+        <v>1047</v>
       </c>
       <c r="F228" s="31">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="G228" s="32">
         <v>25312</v>
@@ -9688,13 +9691,13 @@
         <v>16950</v>
       </c>
       <c r="D229" s="31">
-        <v>9980</v>
+        <v>10831</v>
       </c>
       <c r="E229" s="31">
-        <v>7570</v>
+        <v>8365</v>
       </c>
       <c r="F229" s="31">
-        <v>2410</v>
+        <v>2466</v>
       </c>
       <c r="G229" s="32">
         <v>93428</v>
@@ -9723,13 +9726,13 @@
         <v>150550</v>
       </c>
       <c r="D230" s="31">
-        <v>75031</v>
+        <v>78240</v>
       </c>
       <c r="E230" s="31">
-        <v>62683</v>
+        <v>65050</v>
       </c>
       <c r="F230" s="31">
-        <v>12348</v>
+        <v>13190</v>
       </c>
       <c r="G230" s="32">
         <v>1016090</v>
@@ -9758,13 +9761,13 @@
         <v>1775</v>
       </c>
       <c r="D231" s="31">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="E231" s="31">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="F231" s="31">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G231" s="32">
         <v>12118</v>
@@ -9793,13 +9796,13 @@
         <v>1200</v>
       </c>
       <c r="D232" s="31">
-        <v>1036</v>
+        <v>1041</v>
       </c>
       <c r="E232" s="31">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="F232" s="31">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G232" s="32">
         <v>18704</v>
@@ -9828,13 +9831,13 @@
         <v>600</v>
       </c>
       <c r="D233" s="31">
-        <v>1259</v>
+        <v>1318</v>
       </c>
       <c r="E233" s="31">
-        <v>1014</v>
+        <v>1052</v>
       </c>
       <c r="F233" s="31">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G233" s="32">
         <v>33211</v>
@@ -9863,13 +9866,13 @@
         <v>400</v>
       </c>
       <c r="D234" s="31">
-        <v>198</v>
+        <v>297</v>
       </c>
       <c r="E234" s="31">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="F234" s="31">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="G234" s="32">
         <v>2790</v>
@@ -9898,13 +9901,13 @@
         <v>3750</v>
       </c>
       <c r="D235" s="31">
-        <v>2399</v>
+        <v>2436</v>
       </c>
       <c r="E235" s="31">
-        <v>2055</v>
+        <v>2088</v>
       </c>
       <c r="F235" s="31">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G235" s="32">
         <v>20809</v>
@@ -9933,13 +9936,13 @@
         <v>4050</v>
       </c>
       <c r="D236" s="31">
-        <v>2599</v>
+        <v>2618</v>
       </c>
       <c r="E236" s="31">
-        <v>2399</v>
+        <v>2408</v>
       </c>
       <c r="F236" s="31">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="G236" s="32">
         <v>38039</v>
@@ -9968,13 +9971,13 @@
         <v>2000</v>
       </c>
       <c r="D237" s="31">
-        <v>2389</v>
+        <v>2649</v>
       </c>
       <c r="E237" s="31">
-        <v>2072</v>
+        <v>2264</v>
       </c>
       <c r="F237" s="31">
-        <v>317</v>
+        <v>385</v>
       </c>
       <c r="G237" s="32">
         <v>45144</v>
@@ -10003,13 +10006,13 @@
         <v>9175</v>
       </c>
       <c r="D238" s="31">
-        <v>5915</v>
+        <v>6117</v>
       </c>
       <c r="E238" s="31">
-        <v>4811</v>
+        <v>4837</v>
       </c>
       <c r="F238" s="31">
-        <v>1104</v>
+        <v>1280</v>
       </c>
       <c r="G238" s="32">
         <v>72004</v>
@@ -10038,13 +10041,13 @@
         <v>4000</v>
       </c>
       <c r="D239" s="31">
-        <v>2245</v>
+        <v>2327</v>
       </c>
       <c r="E239" s="31">
-        <v>2169</v>
+        <v>2233</v>
       </c>
       <c r="F239" s="31">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="G239" s="32">
         <v>64302</v>
@@ -10073,13 +10076,13 @@
         <v>1700</v>
       </c>
       <c r="D240" s="31">
-        <v>1106</v>
+        <v>1168</v>
       </c>
       <c r="E240" s="31">
-        <v>1010</v>
+        <v>1063</v>
       </c>
       <c r="F240" s="31">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G240" s="32">
         <v>44163</v>
@@ -10108,13 +10111,13 @@
         <v>400</v>
       </c>
       <c r="D241" s="31">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="E241" s="31">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F241" s="31">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G241" s="32">
         <v>8544</v>
@@ -10143,13 +10146,13 @@
         <v>6200</v>
       </c>
       <c r="D242" s="31">
-        <v>1457</v>
+        <v>1585</v>
       </c>
       <c r="E242" s="31">
-        <v>1366</v>
+        <v>1488</v>
       </c>
       <c r="F242" s="31">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G242" s="32">
         <v>28737</v>
@@ -10178,13 +10181,13 @@
         <v>33500</v>
       </c>
       <c r="D243" s="31">
-        <v>13526</v>
+        <v>14486</v>
       </c>
       <c r="E243" s="31">
-        <v>12318</v>
+        <v>12731</v>
       </c>
       <c r="F243" s="31">
-        <v>1208</v>
+        <v>1755</v>
       </c>
       <c r="G243" s="32">
         <v>205887</v>
@@ -10213,13 +10216,13 @@
         <v>2100</v>
       </c>
       <c r="D244" s="31">
-        <v>1175</v>
+        <v>1233</v>
       </c>
       <c r="E244" s="31">
-        <v>1104</v>
+        <v>1148</v>
       </c>
       <c r="F244" s="31">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G244" s="32">
         <v>31964</v>
@@ -10248,13 +10251,13 @@
         <v>400</v>
       </c>
       <c r="D245" s="31">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="E245" s="31">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F245" s="31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G245" s="32">
         <v>4018</v>
@@ -10283,13 +10286,13 @@
         <v>21600</v>
       </c>
       <c r="D246" s="31">
-        <v>11127</v>
+        <v>11512</v>
       </c>
       <c r="E246" s="31">
-        <v>9494</v>
+        <v>9724</v>
       </c>
       <c r="F246" s="31">
-        <v>1633</v>
+        <v>1788</v>
       </c>
       <c r="G246" s="32">
         <v>106550</v>
@@ -10318,13 +10321,13 @@
         <v>4700</v>
       </c>
       <c r="D247" s="31">
-        <v>1343</v>
+        <v>1661</v>
       </c>
       <c r="E247" s="31">
-        <v>1193</v>
+        <v>1263</v>
       </c>
       <c r="F247" s="31">
-        <v>150</v>
+        <v>398</v>
       </c>
       <c r="G247" s="32">
         <v>9933</v>
@@ -10353,13 +10356,13 @@
         <v>500</v>
       </c>
       <c r="D248" s="31">
-        <v>1391</v>
+        <v>1409</v>
       </c>
       <c r="E248" s="31">
-        <v>1308</v>
+        <v>1319</v>
       </c>
       <c r="F248" s="31">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G248" s="32">
         <v>16823</v>
@@ -10388,13 +10391,13 @@
         <v>44250</v>
       </c>
       <c r="D249" s="31">
-        <v>30618</v>
+        <v>31620</v>
       </c>
       <c r="E249" s="31">
-        <v>25988</v>
+        <v>26632</v>
       </c>
       <c r="F249" s="31">
-        <v>4630</v>
+        <v>4988</v>
       </c>
       <c r="G249" s="32">
         <v>457170</v>
@@ -10423,13 +10426,13 @@
         <v>3400</v>
       </c>
       <c r="D250" s="31">
-        <v>2834</v>
+        <v>2999</v>
       </c>
       <c r="E250" s="31">
-        <v>2386</v>
+        <v>2454</v>
       </c>
       <c r="F250" s="31">
-        <v>448</v>
+        <v>545</v>
       </c>
       <c r="G250" s="32">
         <v>42030</v>
@@ -10458,13 +10461,13 @@
         <v>200</v>
       </c>
       <c r="D251" s="31">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="E251" s="31">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F251" s="31">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G251" s="32">
         <v>5798</v>
@@ -10493,13 +10496,13 @@
         <v>5550</v>
       </c>
       <c r="D252" s="31">
-        <v>4204</v>
+        <v>4260</v>
       </c>
       <c r="E252" s="31">
-        <v>3327</v>
+        <v>3358</v>
       </c>
       <c r="F252" s="31">
-        <v>877</v>
+        <v>902</v>
       </c>
       <c r="G252" s="32">
         <v>55570</v>
@@ -10528,13 +10531,13 @@
         <v>1500</v>
       </c>
       <c r="D253" s="31">
-        <v>2051</v>
+        <v>2290</v>
       </c>
       <c r="E253" s="31">
-        <v>1830</v>
+        <v>2003</v>
       </c>
       <c r="F253" s="31">
-        <v>221</v>
+        <v>287</v>
       </c>
       <c r="G253" s="32">
         <v>37205</v>
@@ -10563,13 +10566,13 @@
         <v>600</v>
       </c>
       <c r="D254" s="31">
-        <v>473</v>
+        <v>518</v>
       </c>
       <c r="E254" s="31">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F254" s="31">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="G254" s="32">
         <v>6336</v>
@@ -10598,13 +10601,13 @@
         <v>1900</v>
       </c>
       <c r="D255" s="31">
-        <v>778</v>
+        <v>887</v>
       </c>
       <c r="E255" s="31">
-        <v>746</v>
+        <v>814</v>
       </c>
       <c r="F255" s="31">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="G255" s="32">
         <v>15028</v>
@@ -10633,13 +10636,13 @@
         <v>700</v>
       </c>
       <c r="D256" s="31">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="E256" s="31">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F256" s="31">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="G256" s="32">
         <v>10088</v>
@@ -10668,13 +10671,13 @@
         <v>200</v>
       </c>
       <c r="D257" s="31">
-        <v>498</v>
+        <v>570</v>
       </c>
       <c r="E257" s="31">
-        <v>440</v>
+        <v>504</v>
       </c>
       <c r="F257" s="31">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G257" s="32">
         <v>8768</v>
@@ -10703,13 +10706,13 @@
         <v>9775</v>
       </c>
       <c r="D258" s="31">
-        <v>174495</v>
+        <v>187858</v>
       </c>
       <c r="E258" s="31">
-        <v>151201</v>
+        <v>161463</v>
       </c>
       <c r="F258" s="31">
-        <v>23294</v>
+        <v>26395</v>
       </c>
       <c r="G258" s="32"/>
       <c r="H258" s="32"/>
@@ -10741,7 +10744,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10752,7 +10755,7 @@
     <col min="6" max="6" width="18.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="22" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>281</v>
       </c>
@@ -10783,13 +10786,13 @@
         <v>301</v>
       </c>
       <c r="D2" s="31">
-        <v>31746</v>
+        <v>33599</v>
       </c>
       <c r="E2" s="31">
-        <v>22670</v>
+        <v>23650</v>
       </c>
       <c r="F2" s="31">
-        <v>9076</v>
+        <v>9949</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -10803,13 +10806,13 @@
         <v>302</v>
       </c>
       <c r="D3" s="31">
-        <v>20581</v>
+        <v>21719</v>
       </c>
       <c r="E3" s="31">
-        <v>15659</v>
+        <v>16350</v>
       </c>
       <c r="F3" s="31">
-        <v>4922</v>
+        <v>5369</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -10823,13 +10826,13 @@
         <v>300</v>
       </c>
       <c r="D4" s="31">
-        <v>56227</v>
+        <v>59853</v>
       </c>
       <c r="E4" s="31">
-        <v>41390</v>
+        <v>43671</v>
       </c>
       <c r="F4" s="31">
-        <v>14837</v>
+        <v>16182</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -10843,13 +10846,13 @@
         <v>304</v>
       </c>
       <c r="D5" s="31">
-        <v>119164</v>
+        <v>125009</v>
       </c>
       <c r="E5" s="31">
-        <v>87605</v>
+        <v>90819</v>
       </c>
       <c r="F5" s="31">
-        <v>31559</v>
+        <v>34190</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -10863,13 +10866,13 @@
         <v>303</v>
       </c>
       <c r="D6" s="31">
-        <v>36146</v>
+        <v>37969</v>
       </c>
       <c r="E6" s="31">
-        <v>30208</v>
+        <v>31143</v>
       </c>
       <c r="F6" s="31">
-        <v>5938</v>
+        <v>6826</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -10883,13 +10886,13 @@
         <v>289</v>
       </c>
       <c r="D7" s="31">
-        <v>198818</v>
+        <v>207282</v>
       </c>
       <c r="E7" s="31">
-        <v>158393</v>
+        <v>162907</v>
       </c>
       <c r="F7" s="31">
-        <v>40425</v>
+        <v>44375</v>
       </c>
       <c r="O7" s="30"/>
     </row>
@@ -10904,13 +10907,13 @@
         <v>301</v>
       </c>
       <c r="D8" s="31">
-        <v>13207</v>
+        <v>14408</v>
       </c>
       <c r="E8" s="31">
-        <v>10027</v>
+        <v>10805</v>
       </c>
       <c r="F8" s="31">
-        <v>3180</v>
+        <v>3603</v>
       </c>
       <c r="O8" s="30"/>
     </row>
@@ -10925,13 +10928,13 @@
         <v>302</v>
       </c>
       <c r="D9" s="31">
-        <v>15169</v>
+        <v>16375</v>
       </c>
       <c r="E9" s="31">
-        <v>11856</v>
+        <v>12658</v>
       </c>
       <c r="F9" s="31">
-        <v>3313</v>
+        <v>3717</v>
       </c>
       <c r="O9" s="30"/>
     </row>
@@ -10946,13 +10949,13 @@
         <v>300</v>
       </c>
       <c r="D10" s="31">
-        <v>23427</v>
+        <v>25409</v>
       </c>
       <c r="E10" s="31">
-        <v>18563</v>
+        <v>20073</v>
       </c>
       <c r="F10" s="31">
-        <v>4864</v>
+        <v>5336</v>
       </c>
       <c r="O10" s="30"/>
     </row>
@@ -10967,13 +10970,13 @@
         <v>304</v>
       </c>
       <c r="D11" s="31">
-        <v>68175</v>
+        <v>72833</v>
       </c>
       <c r="E11" s="31">
-        <v>54125</v>
+        <v>57212</v>
       </c>
       <c r="F11" s="31">
-        <v>14050</v>
+        <v>15621</v>
       </c>
       <c r="O11" s="30"/>
     </row>
@@ -10988,13 +10991,13 @@
         <v>303</v>
       </c>
       <c r="D12" s="31">
-        <v>19908</v>
+        <v>20989</v>
       </c>
       <c r="E12" s="31">
-        <v>17473</v>
+        <v>18059</v>
       </c>
       <c r="F12" s="31">
-        <v>2435</v>
+        <v>2930</v>
       </c>
       <c r="O12" s="30"/>
     </row>
@@ -11009,13 +11012,13 @@
         <v>289</v>
       </c>
       <c r="D13" s="31">
-        <v>115249</v>
+        <v>121286</v>
       </c>
       <c r="E13" s="31">
-        <v>97603</v>
+        <v>101572</v>
       </c>
       <c r="F13" s="31">
-        <v>17646</v>
+        <v>19714</v>
       </c>
       <c r="O13" s="30"/>
     </row>
@@ -11030,13 +11033,13 @@
         <v>301</v>
       </c>
       <c r="D14" s="31">
-        <v>9065</v>
+        <v>10494</v>
       </c>
       <c r="E14" s="31">
-        <v>8531</v>
+        <v>9695</v>
       </c>
       <c r="F14" s="31">
-        <v>534</v>
+        <v>799</v>
       </c>
       <c r="O14" s="30"/>
     </row>
@@ -11051,13 +11054,13 @@
         <v>302</v>
       </c>
       <c r="D15" s="31">
-        <v>8866</v>
+        <v>10011</v>
       </c>
       <c r="E15" s="31">
-        <v>8351</v>
+        <v>9411</v>
       </c>
       <c r="F15" s="31">
-        <v>515</v>
+        <v>600</v>
       </c>
       <c r="O15" s="30"/>
     </row>
@@ -11072,13 +11075,13 @@
         <v>300</v>
       </c>
       <c r="D16" s="31">
-        <v>13459</v>
+        <v>14687</v>
       </c>
       <c r="E16" s="31">
-        <v>12475</v>
+        <v>13559</v>
       </c>
       <c r="F16" s="31">
-        <v>984</v>
+        <v>1128</v>
       </c>
       <c r="O16" s="30"/>
     </row>
@@ -11093,13 +11096,13 @@
         <v>304</v>
       </c>
       <c r="D17" s="31">
-        <v>79706</v>
+        <v>86786</v>
       </c>
       <c r="E17" s="31">
-        <v>76002</v>
+        <v>82337</v>
       </c>
       <c r="F17" s="31">
-        <v>3704</v>
+        <v>4449</v>
       </c>
       <c r="O17" s="30"/>
     </row>
@@ -11114,13 +11117,13 @@
         <v>303</v>
       </c>
       <c r="D18" s="31">
-        <v>19439</v>
+        <v>20514</v>
       </c>
       <c r="E18" s="31">
-        <v>18149</v>
+        <v>18902</v>
       </c>
       <c r="F18" s="31">
-        <v>1290</v>
+        <v>1612</v>
       </c>
       <c r="O18" s="30"/>
     </row>
@@ -11135,13 +11138,13 @@
         <v>289</v>
       </c>
       <c r="D19" s="31">
-        <v>110346</v>
+        <v>117733</v>
       </c>
       <c r="E19" s="31">
-        <v>104433</v>
+        <v>110527</v>
       </c>
       <c r="F19" s="31">
-        <v>5913</v>
+        <v>7206</v>
       </c>
       <c r="O19" s="30"/>
     </row>
@@ -11156,13 +11159,13 @@
         <v>301</v>
       </c>
       <c r="D20" s="31">
-        <v>1785</v>
+        <v>2120</v>
       </c>
       <c r="E20" s="31">
-        <v>1756</v>
+        <v>2039</v>
       </c>
       <c r="F20" s="31">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="O20" s="30"/>
     </row>
@@ -11177,13 +11180,13 @@
         <v>302</v>
       </c>
       <c r="D21" s="31">
-        <v>1822</v>
+        <v>2076</v>
       </c>
       <c r="E21" s="31">
-        <v>1807</v>
+        <v>2051</v>
       </c>
       <c r="F21" s="31">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="O21" s="30"/>
     </row>
@@ -11198,13 +11201,13 @@
         <v>300</v>
       </c>
       <c r="D22" s="31">
-        <v>2808</v>
+        <v>3040</v>
       </c>
       <c r="E22" s="31">
-        <v>2704</v>
+        <v>2920</v>
       </c>
       <c r="F22" s="31">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="O22" s="30"/>
     </row>
@@ -11219,13 +11222,13 @@
         <v>304</v>
       </c>
       <c r="D23" s="31">
-        <v>22849</v>
+        <v>25039</v>
       </c>
       <c r="E23" s="31">
-        <v>22386</v>
+        <v>24343</v>
       </c>
       <c r="F23" s="31">
-        <v>463</v>
+        <v>696</v>
       </c>
       <c r="O23" s="30"/>
     </row>
@@ -11240,13 +11243,13 @@
         <v>303</v>
       </c>
       <c r="D24" s="31">
-        <v>21696</v>
+        <v>22460</v>
       </c>
       <c r="E24" s="31">
-        <v>19562</v>
+        <v>19951</v>
       </c>
       <c r="F24" s="31">
-        <v>2134</v>
+        <v>2509</v>
       </c>
       <c r="O24" s="30"/>
     </row>
@@ -11261,13 +11264,13 @@
         <v>289</v>
       </c>
       <c r="D25" s="31">
-        <v>40653</v>
+        <v>43301</v>
       </c>
       <c r="E25" s="31">
-        <v>38541</v>
+        <v>40717</v>
       </c>
       <c r="F25" s="31">
-        <v>2112</v>
+        <v>2584</v>
       </c>
       <c r="O25" s="30"/>
     </row>
@@ -11282,10 +11285,10 @@
         <v>301</v>
       </c>
       <c r="D26" s="31">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E26" s="31">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F26" s="31">
         <v>0</v>
@@ -11345,10 +11348,10 @@
         <v>304</v>
       </c>
       <c r="D29" s="31">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E29" s="31">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F29" s="31">
         <v>4</v>
@@ -11387,13 +11390,13 @@
         <v>289</v>
       </c>
       <c r="D31" s="31">
-        <v>675</v>
+        <v>695</v>
       </c>
       <c r="E31" s="31">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="F31" s="31">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O31" s="30"/>
     </row>
@@ -11408,13 +11411,13 @@
         <v>301</v>
       </c>
       <c r="D32" s="31">
-        <v>20571</v>
+        <v>21870</v>
       </c>
       <c r="E32" s="31">
-        <v>14780</v>
+        <v>15517</v>
       </c>
       <c r="F32" s="31">
-        <v>5791</v>
+        <v>6353</v>
       </c>
       <c r="O32" s="30"/>
     </row>
@@ -11429,13 +11432,13 @@
         <v>302</v>
       </c>
       <c r="D33" s="31">
-        <v>8693</v>
+        <v>9276</v>
       </c>
       <c r="E33" s="31">
-        <v>6711</v>
+        <v>7091</v>
       </c>
       <c r="F33" s="31">
-        <v>1982</v>
+        <v>2185</v>
       </c>
       <c r="O33" s="30"/>
     </row>
@@ -11450,13 +11453,13 @@
         <v>300</v>
       </c>
       <c r="D34" s="31">
-        <v>28629</v>
+        <v>30515</v>
       </c>
       <c r="E34" s="31">
-        <v>21368</v>
+        <v>22631</v>
       </c>
       <c r="F34" s="31">
-        <v>7261</v>
+        <v>7884</v>
       </c>
       <c r="O34" s="30"/>
     </row>
@@ -11471,13 +11474,13 @@
         <v>304</v>
       </c>
       <c r="D35" s="31">
-        <v>58687</v>
+        <v>62232</v>
       </c>
       <c r="E35" s="31">
-        <v>44531</v>
+        <v>46575</v>
       </c>
       <c r="F35" s="31">
-        <v>14156</v>
+        <v>15657</v>
       </c>
       <c r="O35" s="30"/>
     </row>
@@ -11492,13 +11495,13 @@
         <v>303</v>
       </c>
       <c r="D36" s="31">
-        <v>17296</v>
+        <v>18160</v>
       </c>
       <c r="E36" s="31">
-        <v>14248</v>
+        <v>14726</v>
       </c>
       <c r="F36" s="31">
-        <v>3048</v>
+        <v>3434</v>
       </c>
       <c r="O36" s="30"/>
     </row>
@@ -11513,13 +11516,13 @@
         <v>289</v>
       </c>
       <c r="D37" s="31">
-        <v>116312</v>
+        <v>121655</v>
       </c>
       <c r="E37" s="31">
-        <v>93939</v>
+        <v>96818</v>
       </c>
       <c r="F37" s="31">
-        <v>22373</v>
+        <v>24837</v>
       </c>
       <c r="O37" s="30"/>
     </row>
@@ -11534,13 +11537,13 @@
         <v>301</v>
       </c>
       <c r="D38" s="31">
-        <v>9130</v>
+        <v>10046</v>
       </c>
       <c r="E38" s="31">
-        <v>7096</v>
+        <v>7761</v>
       </c>
       <c r="F38" s="31">
-        <v>2034</v>
+        <v>2285</v>
       </c>
       <c r="O38" s="30"/>
     </row>
@@ -11555,13 +11558,13 @@
         <v>302</v>
       </c>
       <c r="D39" s="31">
-        <v>7584</v>
+        <v>8278</v>
       </c>
       <c r="E39" s="31">
-        <v>6207</v>
+        <v>6725</v>
       </c>
       <c r="F39" s="31">
-        <v>1377</v>
+        <v>1553</v>
       </c>
       <c r="O39" s="30"/>
     </row>
@@ -11576,13 +11579,13 @@
         <v>300</v>
       </c>
       <c r="D40" s="31">
-        <v>14545</v>
+        <v>16049</v>
       </c>
       <c r="E40" s="31">
-        <v>11725</v>
+        <v>12955</v>
       </c>
       <c r="F40" s="31">
-        <v>2820</v>
+        <v>3094</v>
       </c>
       <c r="O40" s="30"/>
     </row>
@@ -11597,13 +11600,13 @@
         <v>304</v>
       </c>
       <c r="D41" s="31">
-        <v>41845</v>
+        <v>45331</v>
       </c>
       <c r="E41" s="31">
-        <v>34184</v>
+        <v>36786</v>
       </c>
       <c r="F41" s="31">
-        <v>7661</v>
+        <v>8545</v>
       </c>
       <c r="O41" s="30"/>
     </row>
@@ -11618,13 +11621,13 @@
         <v>303</v>
       </c>
       <c r="D42" s="31">
-        <v>10776</v>
+        <v>11389</v>
       </c>
       <c r="E42" s="31">
-        <v>9406</v>
+        <v>9767</v>
       </c>
       <c r="F42" s="31">
-        <v>1370</v>
+        <v>1622</v>
       </c>
       <c r="O42" s="30"/>
     </row>
@@ -11639,13 +11642,13 @@
         <v>289</v>
       </c>
       <c r="D43" s="31">
-        <v>75455</v>
+        <v>79762</v>
       </c>
       <c r="E43" s="31">
-        <v>64751</v>
+        <v>67653</v>
       </c>
       <c r="F43" s="31">
-        <v>10704</v>
+        <v>12109</v>
       </c>
       <c r="O43" s="30"/>
     </row>
@@ -11660,13 +11663,13 @@
         <v>301</v>
       </c>
       <c r="D44" s="31">
-        <v>8180</v>
+        <v>9413</v>
       </c>
       <c r="E44" s="31">
-        <v>7710</v>
+        <v>8736</v>
       </c>
       <c r="F44" s="31">
-        <v>470</v>
+        <v>677</v>
       </c>
       <c r="O44" s="30"/>
     </row>
@@ -11681,13 +11684,13 @@
         <v>302</v>
       </c>
       <c r="D45" s="31">
-        <v>5743</v>
+        <v>6487</v>
       </c>
       <c r="E45" s="31">
-        <v>5462</v>
+        <v>6157</v>
       </c>
       <c r="F45" s="31">
-        <v>281</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -11701,13 +11704,13 @@
         <v>300</v>
       </c>
       <c r="D46" s="31">
-        <v>10381</v>
+        <v>11305</v>
       </c>
       <c r="E46" s="31">
-        <v>9609</v>
+        <v>10423</v>
       </c>
       <c r="F46" s="31">
-        <v>772</v>
+        <v>882</v>
       </c>
       <c r="O46" s="30"/>
     </row>
@@ -11722,13 +11725,13 @@
         <v>304</v>
       </c>
       <c r="D47" s="31">
-        <v>68871</v>
+        <v>75065</v>
       </c>
       <c r="E47" s="31">
-        <v>65337</v>
+        <v>70916</v>
       </c>
       <c r="F47" s="31">
-        <v>3534</v>
+        <v>4149</v>
       </c>
       <c r="O47" s="30"/>
     </row>
@@ -11743,13 +11746,13 @@
         <v>303</v>
       </c>
       <c r="D48" s="31">
-        <v>13863</v>
+        <v>14700</v>
       </c>
       <c r="E48" s="31">
-        <v>12992</v>
+        <v>13581</v>
       </c>
       <c r="F48" s="31">
-        <v>871</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -11763,13 +11766,13 @@
         <v>289</v>
       </c>
       <c r="D49" s="31">
-        <v>91852</v>
+        <v>98026</v>
       </c>
       <c r="E49" s="31">
-        <v>86710</v>
+        <v>91755</v>
       </c>
       <c r="F49" s="31">
-        <v>5142</v>
+        <v>6271</v>
       </c>
       <c r="O49" s="30"/>
     </row>
@@ -11784,13 +11787,13 @@
         <v>301</v>
       </c>
       <c r="D50" s="31">
-        <v>1626</v>
+        <v>1921</v>
       </c>
       <c r="E50" s="31">
-        <v>1577</v>
+        <v>1824</v>
       </c>
       <c r="F50" s="31">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="O50" s="30"/>
     </row>
@@ -11805,13 +11808,13 @@
         <v>302</v>
       </c>
       <c r="D51" s="31">
-        <v>1002</v>
+        <v>1139</v>
       </c>
       <c r="E51" s="31">
-        <v>985</v>
+        <v>1117</v>
       </c>
       <c r="F51" s="31">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -11825,13 +11828,13 @@
         <v>300</v>
       </c>
       <c r="D52" s="31">
-        <v>1876</v>
+        <v>2042</v>
       </c>
       <c r="E52" s="31">
-        <v>1792</v>
+        <v>1941</v>
       </c>
       <c r="F52" s="31">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="O52" s="30"/>
     </row>
@@ -11846,13 +11849,13 @@
         <v>304</v>
       </c>
       <c r="D53" s="31">
-        <v>19345</v>
+        <v>20988</v>
       </c>
       <c r="E53" s="31">
-        <v>18889</v>
+        <v>20389</v>
       </c>
       <c r="F53" s="31">
-        <v>456</v>
+        <v>599</v>
       </c>
       <c r="O53" s="30"/>
     </row>
@@ -11867,13 +11870,13 @@
         <v>303</v>
       </c>
       <c r="D54" s="31">
-        <v>8759</v>
+        <v>9104</v>
       </c>
       <c r="E54" s="31">
-        <v>8006</v>
+        <v>8196</v>
       </c>
       <c r="F54" s="31">
-        <v>753</v>
+        <v>908</v>
       </c>
       <c r="O54" s="30"/>
     </row>
@@ -11888,13 +11891,13 @@
         <v>289</v>
       </c>
       <c r="D55" s="31">
-        <v>26650</v>
+        <v>28525</v>
       </c>
       <c r="E55" s="31">
-        <v>25332</v>
+        <v>26891</v>
       </c>
       <c r="F55" s="31">
-        <v>1318</v>
+        <v>1634</v>
       </c>
       <c r="O55" s="30"/>
     </row>
@@ -11930,10 +11933,10 @@
         <v>302</v>
       </c>
       <c r="D57" s="31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E57" s="31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57" s="31">
         <v>0</v>
@@ -11971,10 +11974,10 @@
         <v>304</v>
       </c>
       <c r="D59" s="31">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E59" s="31">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F59" s="31">
         <v>4</v>
@@ -11992,10 +11995,10 @@
         <v>303</v>
       </c>
       <c r="D60" s="31">
+        <v>8</v>
+      </c>
+      <c r="E60" s="31">
         <v>7</v>
-      </c>
-      <c r="E60" s="31">
-        <v>6</v>
       </c>
       <c r="F60" s="31">
         <v>1</v>
@@ -12013,13 +12016,13 @@
         <v>289</v>
       </c>
       <c r="D61" s="31">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="E61" s="31">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="F61" s="31">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O61" s="30"/>
     </row>
@@ -12034,13 +12037,13 @@
         <v>301</v>
       </c>
       <c r="D62" s="31">
-        <v>605</v>
+        <v>650</v>
       </c>
       <c r="E62" s="31">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="F62" s="31">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="O62" s="30"/>
     </row>
@@ -12055,13 +12058,13 @@
         <v>302</v>
       </c>
       <c r="D63" s="31">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="E63" s="31">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="F63" s="31">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -12075,13 +12078,13 @@
         <v>300</v>
       </c>
       <c r="D64" s="31">
-        <v>922</v>
+        <v>972</v>
       </c>
       <c r="E64" s="31">
-        <v>829</v>
+        <v>872</v>
       </c>
       <c r="F64" s="31">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O64" s="30"/>
     </row>
@@ -12096,13 +12099,13 @@
         <v>304</v>
       </c>
       <c r="D65" s="31">
-        <v>1845</v>
+        <v>1992</v>
       </c>
       <c r="E65" s="31">
-        <v>1639</v>
+        <v>1777</v>
       </c>
       <c r="F65" s="31">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="O65" s="30"/>
     </row>
@@ -12117,13 +12120,13 @@
         <v>303</v>
       </c>
       <c r="D66" s="31">
-        <v>1354</v>
+        <v>1494</v>
       </c>
       <c r="E66" s="31">
-        <v>1131</v>
+        <v>1255</v>
       </c>
       <c r="F66" s="31">
-        <v>223</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -12137,13 +12140,13 @@
         <v>289</v>
       </c>
       <c r="D67" s="31">
-        <v>2955</v>
+        <v>2984</v>
       </c>
       <c r="E67" s="31">
-        <v>2804</v>
+        <v>2825</v>
       </c>
       <c r="F67" s="31">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="O67" s="30"/>
     </row>
@@ -12158,13 +12161,13 @@
         <v>301</v>
       </c>
       <c r="D68" s="31">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="E68" s="31">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="F68" s="31">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O68" s="30"/>
     </row>
@@ -12179,13 +12182,13 @@
         <v>302</v>
       </c>
       <c r="D69" s="31">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="E69" s="31">
-        <v>280</v>
+        <v>329</v>
       </c>
       <c r="F69" s="31">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -12199,13 +12202,13 @@
         <v>300</v>
       </c>
       <c r="D70" s="31">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="E70" s="31">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="F70" s="31">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O70" s="30"/>
     </row>
@@ -12220,13 +12223,13 @@
         <v>304</v>
       </c>
       <c r="D71" s="31">
-        <v>1433</v>
+        <v>1650</v>
       </c>
       <c r="E71" s="31">
-        <v>1316</v>
+        <v>1526</v>
       </c>
       <c r="F71" s="31">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="O71" s="30"/>
     </row>
@@ -12241,13 +12244,13 @@
         <v>303</v>
       </c>
       <c r="D72" s="31">
-        <v>709</v>
+        <v>842</v>
       </c>
       <c r="E72" s="31">
-        <v>625</v>
+        <v>752</v>
       </c>
       <c r="F72" s="31">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -12261,13 +12264,13 @@
         <v>289</v>
       </c>
       <c r="D73" s="31">
-        <v>3136</v>
+        <v>3164</v>
       </c>
       <c r="E73" s="31">
-        <v>3058</v>
+        <v>3074</v>
       </c>
       <c r="F73" s="31">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="O73" s="30"/>
     </row>
@@ -12282,10 +12285,10 @@
         <v>301</v>
       </c>
       <c r="D74" s="31">
-        <v>1022</v>
+        <v>1193</v>
       </c>
       <c r="E74" s="31">
-        <v>1006</v>
+        <v>1177</v>
       </c>
       <c r="F74" s="31">
         <v>16</v>
@@ -12303,13 +12306,13 @@
         <v>302</v>
       </c>
       <c r="D75" s="31">
-        <v>533</v>
+        <v>697</v>
       </c>
       <c r="E75" s="31">
-        <v>529</v>
+        <v>692</v>
       </c>
       <c r="F75" s="31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O75" s="30"/>
     </row>
@@ -12324,13 +12327,13 @@
         <v>300</v>
       </c>
       <c r="D76" s="31">
-        <v>629</v>
+        <v>759</v>
       </c>
       <c r="E76" s="31">
-        <v>623</v>
+        <v>752</v>
       </c>
       <c r="F76" s="31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O76" s="30"/>
     </row>
@@ -12345,13 +12348,13 @@
         <v>304</v>
       </c>
       <c r="D77" s="31">
-        <v>6161</v>
+        <v>7423</v>
       </c>
       <c r="E77" s="31">
-        <v>6084</v>
+        <v>7336</v>
       </c>
       <c r="F77" s="31">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="O77" s="30"/>
     </row>
@@ -12366,13 +12369,13 @@
         <v>303</v>
       </c>
       <c r="D78" s="31">
-        <v>2427</v>
+        <v>3005</v>
       </c>
       <c r="E78" s="31">
-        <v>2391</v>
+        <v>2967</v>
       </c>
       <c r="F78" s="31">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O78" s="30"/>
     </row>
@@ -12387,13 +12390,13 @@
         <v>289</v>
       </c>
       <c r="D79" s="31">
-        <v>7180</v>
+        <v>7219</v>
       </c>
       <c r="E79" s="31">
-        <v>7136</v>
+        <v>7167</v>
       </c>
       <c r="F79" s="31">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -12407,10 +12410,10 @@
         <v>301</v>
       </c>
       <c r="D80" s="31">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="E80" s="31">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="F80" s="31">
         <v>2</v>
@@ -12427,13 +12430,13 @@
         <v>302</v>
       </c>
       <c r="D81" s="31">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="E81" s="31">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F81" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -12447,10 +12450,10 @@
         <v>300</v>
       </c>
       <c r="D82" s="31">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E82" s="31">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="F82" s="31">
         <v>0</v>
@@ -12467,13 +12470,13 @@
         <v>304</v>
       </c>
       <c r="D83" s="31">
-        <v>1103</v>
+        <v>1320</v>
       </c>
       <c r="E83" s="31">
-        <v>1095</v>
+        <v>1309</v>
       </c>
       <c r="F83" s="31">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -12487,10 +12490,10 @@
         <v>303</v>
       </c>
       <c r="D84" s="31">
-        <v>420</v>
+        <v>520</v>
       </c>
       <c r="E84" s="31">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="F84" s="31">
         <v>1</v>
@@ -12507,13 +12510,13 @@
         <v>289</v>
       </c>
       <c r="D85" s="31">
-        <v>986</v>
+        <v>994</v>
       </c>
       <c r="E85" s="31">
-        <v>982</v>
+        <v>989</v>
       </c>
       <c r="F85" s="31">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -12627,13 +12630,2397 @@
         <v>290</v>
       </c>
       <c r="D91" s="31">
-        <v>1754569</v>
+        <v>1868596</v>
       </c>
       <c r="E91" s="31">
-        <v>1488783</v>
+        <v>1571093</v>
       </c>
       <c r="F91" s="31">
-        <v>265786</v>
+        <v>297503</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C215"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.59765625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="36">
+        <v>44179</v>
+      </c>
+      <c r="C2" s="23">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="36">
+        <v>44180</v>
+      </c>
+      <c r="C3" s="30">
+        <v>3929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="36">
+        <v>44181</v>
+      </c>
+      <c r="C4" s="30">
+        <v>12815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="36">
+        <v>44182</v>
+      </c>
+      <c r="C5" s="30">
+        <v>16030</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="36">
+        <v>44183</v>
+      </c>
+      <c r="C6" s="30">
+        <v>24520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" s="36">
+        <v>44184</v>
+      </c>
+      <c r="C7" s="30">
+        <v>11961</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8" s="36">
+        <v>44185</v>
+      </c>
+      <c r="C8" s="30">
+        <v>6373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B9" s="36">
+        <v>44186</v>
+      </c>
+      <c r="C9" s="30">
+        <v>18221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10" s="36">
+        <v>44187</v>
+      </c>
+      <c r="C10" s="30">
+        <v>16865</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11" s="36">
+        <v>44188</v>
+      </c>
+      <c r="C11" s="30">
+        <v>24300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12" s="36">
+        <v>44189</v>
+      </c>
+      <c r="C12" s="30">
+        <v>10240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B13" s="36">
+        <v>44190</v>
+      </c>
+      <c r="C13" s="30">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14" s="36">
+        <v>44191</v>
+      </c>
+      <c r="C14" s="30">
+        <v>6576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B15" s="36">
+        <v>44192</v>
+      </c>
+      <c r="C15" s="30">
+        <v>5221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" s="36">
+        <v>44193</v>
+      </c>
+      <c r="C16" s="30">
+        <v>25112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B17" s="36">
+        <v>44194</v>
+      </c>
+      <c r="C17" s="30">
+        <v>31712</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B18" s="36">
+        <v>44195</v>
+      </c>
+      <c r="C18" s="30">
+        <v>35024</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B19" s="36">
+        <v>44196</v>
+      </c>
+      <c r="C19" s="30">
+        <v>21462</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B20" s="36">
+        <v>44197</v>
+      </c>
+      <c r="C20" s="30">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B21" s="36">
+        <v>44198</v>
+      </c>
+      <c r="C21" s="30">
+        <v>9610</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B22" s="36">
+        <v>44199</v>
+      </c>
+      <c r="C22" s="30">
+        <v>6097</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B23" s="36">
+        <v>44200</v>
+      </c>
+      <c r="C23" s="30">
+        <v>23604</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B24" s="36">
+        <v>44201</v>
+      </c>
+      <c r="C24" s="30">
+        <v>27588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B25" s="36">
+        <v>44202</v>
+      </c>
+      <c r="C25" s="30">
+        <v>35410</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B26" s="36">
+        <v>44203</v>
+      </c>
+      <c r="C26" s="30">
+        <v>40286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B27" s="36">
+        <v>44204</v>
+      </c>
+      <c r="C27" s="30">
+        <v>42974</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B28" s="36">
+        <v>44205</v>
+      </c>
+      <c r="C28" s="30">
+        <v>18015</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B29" s="36">
+        <v>44206</v>
+      </c>
+      <c r="C29" s="30">
+        <v>8231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B30" s="36">
+        <v>44207</v>
+      </c>
+      <c r="C30" s="30">
+        <v>27448</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B31" s="36">
+        <v>44208</v>
+      </c>
+      <c r="C31" s="30">
+        <v>27548</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B32" s="36">
+        <v>44209</v>
+      </c>
+      <c r="C32" s="30">
+        <v>26423</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B33" s="36">
+        <v>44210</v>
+      </c>
+      <c r="C33" s="30">
+        <v>20536</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B34" s="36">
+        <v>44211</v>
+      </c>
+      <c r="C34" s="30">
+        <v>21134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B35" s="36">
+        <v>44212</v>
+      </c>
+      <c r="C35" s="30">
+        <v>11175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B36" s="36">
+        <v>44213</v>
+      </c>
+      <c r="C36" s="30">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B37" s="36">
+        <v>44214</v>
+      </c>
+      <c r="C37" s="30">
+        <v>11543</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B38" s="36">
+        <v>44215</v>
+      </c>
+      <c r="C38" s="30">
+        <v>20013</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B39" s="36">
+        <v>44216</v>
+      </c>
+      <c r="C39" s="30">
+        <v>25948</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B40" s="36">
+        <v>44217</v>
+      </c>
+      <c r="C40" s="30">
+        <v>23186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B41" s="36">
+        <v>44218</v>
+      </c>
+      <c r="C41" s="30">
+        <v>28161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B42" s="36">
+        <v>44219</v>
+      </c>
+      <c r="C42" s="30">
+        <v>13604</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B43" s="36">
+        <v>44220</v>
+      </c>
+      <c r="C43" s="30">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B44" s="36">
+        <v>44221</v>
+      </c>
+      <c r="C44" s="30">
+        <v>9328</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B45" s="36">
+        <v>44179</v>
+      </c>
+      <c r="C45" s="23">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B46" s="36">
+        <v>44180</v>
+      </c>
+      <c r="C46" s="30">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B47" s="36">
+        <v>44181</v>
+      </c>
+      <c r="C47" s="30">
+        <v>4981</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B48" s="36">
+        <v>44182</v>
+      </c>
+      <c r="C48" s="30">
+        <v>6663</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B49" s="36">
+        <v>44183</v>
+      </c>
+      <c r="C49" s="30">
+        <v>10710</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B50" s="36">
+        <v>44184</v>
+      </c>
+      <c r="C50" s="30">
+        <v>4544</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B51" s="36">
+        <v>44185</v>
+      </c>
+      <c r="C51" s="30">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B52" s="36">
+        <v>44186</v>
+      </c>
+      <c r="C52" s="30">
+        <v>7755</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B53" s="36">
+        <v>44187</v>
+      </c>
+      <c r="C53" s="30">
+        <v>7265</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B54" s="36">
+        <v>44188</v>
+      </c>
+      <c r="C54" s="30">
+        <v>10617</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B55" s="36">
+        <v>44189</v>
+      </c>
+      <c r="C55" s="30">
+        <v>4617</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B56" s="36">
+        <v>44190</v>
+      </c>
+      <c r="C56" s="23">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B57" s="36">
+        <v>44191</v>
+      </c>
+      <c r="C57" s="30">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B58" s="36">
+        <v>44192</v>
+      </c>
+      <c r="C58" s="30">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B59" s="36">
+        <v>44193</v>
+      </c>
+      <c r="C59" s="30">
+        <v>12682</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B60" s="36">
+        <v>44194</v>
+      </c>
+      <c r="C60" s="30">
+        <v>16693</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B61" s="36">
+        <v>44195</v>
+      </c>
+      <c r="C61" s="30">
+        <v>19527</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B62" s="36">
+        <v>44196</v>
+      </c>
+      <c r="C62" s="30">
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B63" s="36">
+        <v>44197</v>
+      </c>
+      <c r="C63" s="30">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B64" s="36">
+        <v>44198</v>
+      </c>
+      <c r="C64" s="30">
+        <v>5512</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B65" s="36">
+        <v>44199</v>
+      </c>
+      <c r="C65" s="30">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B66" s="36">
+        <v>44200</v>
+      </c>
+      <c r="C66" s="30">
+        <v>14601</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B67" s="36">
+        <v>44201</v>
+      </c>
+      <c r="C67" s="30">
+        <v>16320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B68" s="36">
+        <v>44202</v>
+      </c>
+      <c r="C68" s="30">
+        <v>19706</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B69" s="36">
+        <v>44203</v>
+      </c>
+      <c r="C69" s="30">
+        <v>22551</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B70" s="36">
+        <v>44204</v>
+      </c>
+      <c r="C70" s="30">
+        <v>24012</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B71" s="36">
+        <v>44205</v>
+      </c>
+      <c r="C71" s="30">
+        <v>10417</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B72" s="36">
+        <v>44206</v>
+      </c>
+      <c r="C72" s="30">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B73" s="36">
+        <v>44207</v>
+      </c>
+      <c r="C73" s="30">
+        <v>17226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B74" s="36">
+        <v>44208</v>
+      </c>
+      <c r="C74" s="30">
+        <v>18379</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B75" s="36">
+        <v>44209</v>
+      </c>
+      <c r="C75" s="30">
+        <v>18953</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B76" s="36">
+        <v>44210</v>
+      </c>
+      <c r="C76" s="30">
+        <v>16108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B77" s="36">
+        <v>44211</v>
+      </c>
+      <c r="C77" s="30">
+        <v>15527</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B78" s="36">
+        <v>44212</v>
+      </c>
+      <c r="C78" s="30">
+        <v>9390</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B79" s="36">
+        <v>44213</v>
+      </c>
+      <c r="C79" s="30">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B80" s="36">
+        <v>44214</v>
+      </c>
+      <c r="C80" s="30">
+        <v>8287</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B81" s="36">
+        <v>44215</v>
+      </c>
+      <c r="C81" s="30">
+        <v>15519</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B82" s="36">
+        <v>44216</v>
+      </c>
+      <c r="C82" s="30">
+        <v>19521</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B83" s="36">
+        <v>44217</v>
+      </c>
+      <c r="C83" s="30">
+        <v>18658</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B84" s="36">
+        <v>44218</v>
+      </c>
+      <c r="C84" s="30">
+        <v>19924</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B85" s="36">
+        <v>44219</v>
+      </c>
+      <c r="C85" s="30">
+        <v>10133</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B86" s="36">
+        <v>44220</v>
+      </c>
+      <c r="C86" s="30">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B87" s="36">
+        <v>44221</v>
+      </c>
+      <c r="C87" s="30">
+        <v>7340</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B88" s="36">
+        <v>44179</v>
+      </c>
+      <c r="C88" s="23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B89" s="36">
+        <v>44180</v>
+      </c>
+      <c r="C89" s="23">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B90" s="36">
+        <v>44181</v>
+      </c>
+      <c r="C90" s="30">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B91" s="36">
+        <v>44182</v>
+      </c>
+      <c r="C91" s="30">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B92" s="36">
+        <v>44183</v>
+      </c>
+      <c r="C92" s="30">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B93" s="36">
+        <v>44184</v>
+      </c>
+      <c r="C93" s="23">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B94" s="36">
+        <v>44185</v>
+      </c>
+      <c r="C94" s="30">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B95" s="36">
+        <v>44186</v>
+      </c>
+      <c r="C95" s="30">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B96" s="36">
+        <v>44187</v>
+      </c>
+      <c r="C96" s="30">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B97" s="36">
+        <v>44188</v>
+      </c>
+      <c r="C97" s="30">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B98" s="36">
+        <v>44189</v>
+      </c>
+      <c r="C98" s="30">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B99" s="36">
+        <v>44190</v>
+      </c>
+      <c r="C99" s="30">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B100" s="36">
+        <v>44191</v>
+      </c>
+      <c r="C100" s="30">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B101" s="36">
+        <v>44192</v>
+      </c>
+      <c r="C101" s="30">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B102" s="36">
+        <v>44193</v>
+      </c>
+      <c r="C102" s="30">
+        <v>6474</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B103" s="36">
+        <v>44194</v>
+      </c>
+      <c r="C103" s="30">
+        <v>10513</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B104" s="36">
+        <v>44195</v>
+      </c>
+      <c r="C104" s="30">
+        <v>16250</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B105" s="36">
+        <v>44196</v>
+      </c>
+      <c r="C105" s="30">
+        <v>10597</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B106" s="36">
+        <v>44197</v>
+      </c>
+      <c r="C106" s="30">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B107" s="36">
+        <v>44198</v>
+      </c>
+      <c r="C107" s="30">
+        <v>5941</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B108" s="36">
+        <v>44199</v>
+      </c>
+      <c r="C108" s="30">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B109" s="36">
+        <v>44200</v>
+      </c>
+      <c r="C109" s="30">
+        <v>15915</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B110" s="36">
+        <v>44201</v>
+      </c>
+      <c r="C110" s="30">
+        <v>17939</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B111" s="36">
+        <v>44202</v>
+      </c>
+      <c r="C111" s="30">
+        <v>19870</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B112" s="36">
+        <v>44203</v>
+      </c>
+      <c r="C112" s="30">
+        <v>23937</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B113" s="36">
+        <v>44204</v>
+      </c>
+      <c r="C113" s="30">
+        <v>24075</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B114" s="36">
+        <v>44205</v>
+      </c>
+      <c r="C114" s="30">
+        <v>13903</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B115" s="36">
+        <v>44206</v>
+      </c>
+      <c r="C115" s="30">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B116" s="36">
+        <v>44207</v>
+      </c>
+      <c r="C116" s="30">
+        <v>22562</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B117" s="36">
+        <v>44208</v>
+      </c>
+      <c r="C117" s="30">
+        <v>26139</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B118" s="36">
+        <v>44209</v>
+      </c>
+      <c r="C118" s="30">
+        <v>28089</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B119" s="36">
+        <v>44210</v>
+      </c>
+      <c r="C119" s="30">
+        <v>31638</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B120" s="36">
+        <v>44211</v>
+      </c>
+      <c r="C120" s="30">
+        <v>26541</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B121" s="36">
+        <v>44212</v>
+      </c>
+      <c r="C121" s="30">
+        <v>22437</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B122" s="36">
+        <v>44213</v>
+      </c>
+      <c r="C122" s="30">
+        <v>6655</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B123" s="36">
+        <v>44214</v>
+      </c>
+      <c r="C123" s="30">
+        <v>11626</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B124" s="36">
+        <v>44215</v>
+      </c>
+      <c r="C124" s="30">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B125" s="36">
+        <v>44216</v>
+      </c>
+      <c r="C125" s="30">
+        <v>25810</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B126" s="36">
+        <v>44217</v>
+      </c>
+      <c r="C126" s="30">
+        <v>28783</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B127" s="36">
+        <v>44218</v>
+      </c>
+      <c r="C127" s="30">
+        <v>24764</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B128" s="36">
+        <v>44219</v>
+      </c>
+      <c r="C128" s="30">
+        <v>17439</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B129" s="36">
+        <v>44220</v>
+      </c>
+      <c r="C129" s="30">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B130" s="36">
+        <v>44221</v>
+      </c>
+      <c r="C130" s="30">
+        <v>8479</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B131" s="36">
+        <v>44179</v>
+      </c>
+      <c r="C131" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B132" s="36">
+        <v>44180</v>
+      </c>
+      <c r="C132" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B133" s="36">
+        <v>44181</v>
+      </c>
+      <c r="C133" s="23">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B134" s="36">
+        <v>44182</v>
+      </c>
+      <c r="C134" s="23">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B135" s="36">
+        <v>44183</v>
+      </c>
+      <c r="C135" s="23">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B136" s="36">
+        <v>44184</v>
+      </c>
+      <c r="C136" s="23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B137" s="36">
+        <v>44185</v>
+      </c>
+      <c r="C137" s="23">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B138" s="36">
+        <v>44186</v>
+      </c>
+      <c r="C138" s="23">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B139" s="36">
+        <v>44187</v>
+      </c>
+      <c r="C139" s="23">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B140" s="36">
+        <v>44188</v>
+      </c>
+      <c r="C140" s="23">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B141" s="36">
+        <v>44189</v>
+      </c>
+      <c r="C141" s="23">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B142" s="36">
+        <v>44190</v>
+      </c>
+      <c r="C142" s="23">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B143" s="36">
+        <v>44191</v>
+      </c>
+      <c r="C143" s="23">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B144" s="36">
+        <v>44192</v>
+      </c>
+      <c r="C144" s="30">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B145" s="36">
+        <v>44193</v>
+      </c>
+      <c r="C145" s="30">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B146" s="36">
+        <v>44194</v>
+      </c>
+      <c r="C146" s="30">
+        <v>5423</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B147" s="36">
+        <v>44195</v>
+      </c>
+      <c r="C147" s="30">
+        <v>6948</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B148" s="36">
+        <v>44196</v>
+      </c>
+      <c r="C148" s="30">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B149" s="36">
+        <v>44197</v>
+      </c>
+      <c r="C149" s="30">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B150" s="36">
+        <v>44198</v>
+      </c>
+      <c r="C150" s="30">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B151" s="36">
+        <v>44199</v>
+      </c>
+      <c r="C151" s="30">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B152" s="36">
+        <v>44200</v>
+      </c>
+      <c r="C152" s="30">
+        <v>6505</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B153" s="36">
+        <v>44201</v>
+      </c>
+      <c r="C153" s="30">
+        <v>5635</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B154" s="36">
+        <v>44202</v>
+      </c>
+      <c r="C154" s="30">
+        <v>7355</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B155" s="36">
+        <v>44203</v>
+      </c>
+      <c r="C155" s="30">
+        <v>9261</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B156" s="36">
+        <v>44204</v>
+      </c>
+      <c r="C156" s="30">
+        <v>8460</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B157" s="36">
+        <v>44205</v>
+      </c>
+      <c r="C157" s="30">
+        <v>4715</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B158" s="36">
+        <v>44206</v>
+      </c>
+      <c r="C158" s="30">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B159" s="36">
+        <v>44207</v>
+      </c>
+      <c r="C159" s="30">
+        <v>8165</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B160" s="36">
+        <v>44208</v>
+      </c>
+      <c r="C160" s="30">
+        <v>8670</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B161" s="36">
+        <v>44209</v>
+      </c>
+      <c r="C161" s="30">
+        <v>11059</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B162" s="36">
+        <v>44210</v>
+      </c>
+      <c r="C162" s="30">
+        <v>11061</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B163" s="36">
+        <v>44211</v>
+      </c>
+      <c r="C163" s="30">
+        <v>7706</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B164" s="36">
+        <v>44212</v>
+      </c>
+      <c r="C164" s="30">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B165" s="36">
+        <v>44213</v>
+      </c>
+      <c r="C165" s="30">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B166" s="36">
+        <v>44214</v>
+      </c>
+      <c r="C166" s="30">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B167" s="36">
+        <v>44215</v>
+      </c>
+      <c r="C167" s="30">
+        <v>7497</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B168" s="36">
+        <v>44216</v>
+      </c>
+      <c r="C168" s="30">
+        <v>8987</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B169" s="36">
+        <v>44217</v>
+      </c>
+      <c r="C169" s="30">
+        <v>8482</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B170" s="36">
+        <v>44218</v>
+      </c>
+      <c r="C170" s="30">
+        <v>6949</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B171" s="36">
+        <v>44219</v>
+      </c>
+      <c r="C171" s="30">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B172" s="36">
+        <v>44220</v>
+      </c>
+      <c r="C172" s="23">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B173" s="36">
+        <v>44221</v>
+      </c>
+      <c r="C173" s="30">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B174" s="36">
+        <v>44180</v>
+      </c>
+      <c r="C174" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B175" s="36">
+        <v>44181</v>
+      </c>
+      <c r="C175" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B176" s="36">
+        <v>44182</v>
+      </c>
+      <c r="C176" s="23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B177" s="36">
+        <v>44183</v>
+      </c>
+      <c r="C177" s="23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B178" s="36">
+        <v>44184</v>
+      </c>
+      <c r="C178" s="23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B179" s="36">
+        <v>44185</v>
+      </c>
+      <c r="C179" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B180" s="36">
+        <v>44186</v>
+      </c>
+      <c r="C180" s="23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B181" s="36">
+        <v>44187</v>
+      </c>
+      <c r="C181" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B182" s="36">
+        <v>44188</v>
+      </c>
+      <c r="C182" s="23">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B183" s="36">
+        <v>44189</v>
+      </c>
+      <c r="C183" s="23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B184" s="36">
+        <v>44190</v>
+      </c>
+      <c r="C184" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B185" s="36">
+        <v>44191</v>
+      </c>
+      <c r="C185" s="23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B186" s="36">
+        <v>44192</v>
+      </c>
+      <c r="C186" s="23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B187" s="36">
+        <v>44193</v>
+      </c>
+      <c r="C187" s="23">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B188" s="36">
+        <v>44194</v>
+      </c>
+      <c r="C188" s="23">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B189" s="36">
+        <v>44195</v>
+      </c>
+      <c r="C189" s="23">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B190" s="36">
+        <v>44196</v>
+      </c>
+      <c r="C190" s="23">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B191" s="36">
+        <v>44197</v>
+      </c>
+      <c r="C191" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B192" s="36">
+        <v>44198</v>
+      </c>
+      <c r="C192" s="23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B193" s="36">
+        <v>44199</v>
+      </c>
+      <c r="C193" s="23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B194" s="36">
+        <v>44200</v>
+      </c>
+      <c r="C194" s="23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B195" s="36">
+        <v>44201</v>
+      </c>
+      <c r="C195" s="23">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B196" s="36">
+        <v>44202</v>
+      </c>
+      <c r="C196" s="23">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B197" s="36">
+        <v>44203</v>
+      </c>
+      <c r="C197" s="23">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B198" s="36">
+        <v>44204</v>
+      </c>
+      <c r="C198" s="23">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B199" s="36">
+        <v>44205</v>
+      </c>
+      <c r="C199" s="23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B200" s="36">
+        <v>44206</v>
+      </c>
+      <c r="C200" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B201" s="36">
+        <v>44207</v>
+      </c>
+      <c r="C201" s="23">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B202" s="36">
+        <v>44208</v>
+      </c>
+      <c r="C202" s="23">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B203" s="36">
+        <v>44209</v>
+      </c>
+      <c r="C203" s="23">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B204" s="36">
+        <v>44210</v>
+      </c>
+      <c r="C204" s="23">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B205" s="36">
+        <v>44211</v>
+      </c>
+      <c r="C205" s="23">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B206" s="36">
+        <v>44212</v>
+      </c>
+      <c r="C206" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B207" s="36">
+        <v>44213</v>
+      </c>
+      <c r="C207" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B208" s="36">
+        <v>44214</v>
+      </c>
+      <c r="C208" s="23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B209" s="36">
+        <v>44215</v>
+      </c>
+      <c r="C209" s="23">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B210" s="36">
+        <v>44216</v>
+      </c>
+      <c r="C210" s="23">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B211" s="36">
+        <v>44217</v>
+      </c>
+      <c r="C211" s="23">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B212" s="36">
+        <v>44218</v>
+      </c>
+      <c r="C212" s="23">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B213" s="36">
+        <v>44219</v>
+      </c>
+      <c r="C213" s="23">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B214" s="36">
+        <v>44220</v>
+      </c>
+      <c r="C214" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B215" s="36">
+        <v>44221</v>
+      </c>
+      <c r="C215" s="23">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Services/StateOfTexas/Data/COVID-19 Vaccine Data by County.xlsx
+++ b/Services/StateOfTexas/Data/COVID-19 Vaccine Data by County.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aearl914\Desktop\COVID-19\Daily County Updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5684C2B-60DA-4579-99A7-F0C9ECBF03FD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5739CE8A-4F45-4409-974E-575F98BC5DBC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12045" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About the Data" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="310">
   <si>
     <t>County Name</t>
   </si>
@@ -1549,7 +1549,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1570,7 +1570,7 @@
         <v>308</v>
       </c>
       <c r="B2" s="29">
-        <v>44221</v>
+        <v>44223</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1675,7 +1675,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K259"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1739,15 +1739,15 @@
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:K2" si="0">SUM(D4:D258)</f>
-        <v>1868596</v>
+        <v>1923503</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>1571093</v>
+        <v>1603193</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>297503</v>
+        <v>320310</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
@@ -1816,13 +1816,13 @@
         <v>4700</v>
       </c>
       <c r="D4" s="31">
-        <v>2084</v>
+        <v>2093</v>
       </c>
       <c r="E4" s="31">
-        <v>1947</v>
+        <v>1950</v>
       </c>
       <c r="F4" s="31">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G4" s="32">
         <v>49346</v>
@@ -1851,13 +1851,13 @@
         <v>1600</v>
       </c>
       <c r="D5" s="31">
-        <v>1525</v>
+        <v>1590</v>
       </c>
       <c r="E5" s="31">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="F5" s="31">
-        <v>411</v>
+        <v>472</v>
       </c>
       <c r="G5" s="32">
         <v>13954</v>
@@ -1886,13 +1886,13 @@
         <v>12200</v>
       </c>
       <c r="D6" s="31">
-        <v>5633</v>
+        <v>5759</v>
       </c>
       <c r="E6" s="31">
-        <v>5150</v>
+        <v>5195</v>
       </c>
       <c r="F6" s="31">
-        <v>483</v>
+        <v>564</v>
       </c>
       <c r="G6" s="32">
         <v>70388</v>
@@ -1921,13 +1921,13 @@
         <v>600</v>
       </c>
       <c r="D7" s="31">
-        <v>1078</v>
+        <v>1128</v>
       </c>
       <c r="E7" s="31">
-        <v>983</v>
+        <v>1018</v>
       </c>
       <c r="F7" s="31">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="G7" s="32">
         <v>19727</v>
@@ -1956,13 +1956,13 @@
         <v>400</v>
       </c>
       <c r="D8" s="31">
-        <v>581</v>
+        <v>636</v>
       </c>
       <c r="E8" s="31">
-        <v>502</v>
+        <v>544</v>
       </c>
       <c r="F8" s="31">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G8" s="32">
         <v>7533</v>
@@ -1991,10 +1991,10 @@
         <v>200</v>
       </c>
       <c r="D9" s="31">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="E9" s="31">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F9" s="31">
         <v>13</v>
@@ -2026,13 +2026,13 @@
         <v>2900</v>
       </c>
       <c r="D10" s="31">
-        <v>1991</v>
+        <v>2078</v>
       </c>
       <c r="E10" s="31">
-        <v>1641</v>
+        <v>1675</v>
       </c>
       <c r="F10" s="31">
-        <v>350</v>
+        <v>403</v>
       </c>
       <c r="G10" s="32">
         <v>39065</v>
@@ -2061,13 +2061,13 @@
         <v>1400</v>
       </c>
       <c r="D11" s="31">
-        <v>1547</v>
+        <v>1581</v>
       </c>
       <c r="E11" s="31">
-        <v>1419</v>
+        <v>1425</v>
       </c>
       <c r="F11" s="31">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="G11" s="32">
         <v>25584</v>
@@ -2096,13 +2096,13 @@
         <v>2450</v>
       </c>
       <c r="D12" s="31">
-        <v>993</v>
+        <v>1244</v>
       </c>
       <c r="E12" s="31">
-        <v>952</v>
+        <v>1194</v>
       </c>
       <c r="F12" s="31">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G12" s="32">
         <v>5190</v>
@@ -2131,13 +2131,13 @@
         <v>200</v>
       </c>
       <c r="D13" s="31">
-        <v>1382</v>
+        <v>1405</v>
       </c>
       <c r="E13" s="31">
-        <v>1232</v>
+        <v>1242</v>
       </c>
       <c r="F13" s="31">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="G13" s="32">
         <v>19833</v>
@@ -2166,13 +2166,13 @@
         <v>4500</v>
       </c>
       <c r="D14" s="31">
-        <v>2772</v>
+        <v>2938</v>
       </c>
       <c r="E14" s="31">
-        <v>2483</v>
+        <v>2515</v>
       </c>
       <c r="F14" s="31">
-        <v>289</v>
+        <v>423</v>
       </c>
       <c r="G14" s="32">
         <v>70499</v>
@@ -2201,13 +2201,13 @@
         <v>1575</v>
       </c>
       <c r="D15" s="31">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="E15" s="31">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F15" s="31">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G15" s="32">
         <v>3002</v>
@@ -2236,13 +2236,13 @@
         <v>7550</v>
       </c>
       <c r="D16" s="31">
-        <v>3132</v>
+        <v>3198</v>
       </c>
       <c r="E16" s="31">
-        <v>2961</v>
+        <v>3003</v>
       </c>
       <c r="F16" s="31">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="G16" s="32">
         <v>26904</v>
@@ -2271,13 +2271,13 @@
         <v>33650</v>
       </c>
       <c r="D17" s="31">
-        <v>17362</v>
+        <v>17968</v>
       </c>
       <c r="E17" s="31">
-        <v>14721</v>
+        <v>15182</v>
       </c>
       <c r="F17" s="31">
-        <v>2641</v>
+        <v>2786</v>
       </c>
       <c r="G17" s="32">
         <v>265191</v>
@@ -2306,13 +2306,13 @@
         <v>276025</v>
       </c>
       <c r="D18" s="31">
-        <v>140427</v>
+        <v>144424</v>
       </c>
       <c r="E18" s="31">
-        <v>107628</v>
+        <v>109623</v>
       </c>
       <c r="F18" s="31">
-        <v>32799</v>
+        <v>34801</v>
       </c>
       <c r="G18" s="32">
         <v>1541803</v>
@@ -2341,13 +2341,13 @@
         <v>300</v>
       </c>
       <c r="D19" s="31">
-        <v>1181</v>
+        <v>1214</v>
       </c>
       <c r="E19" s="31">
-        <v>1131</v>
+        <v>1159</v>
       </c>
       <c r="F19" s="31">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G19" s="32">
         <v>10177</v>
@@ -2376,13 +2376,13 @@
         <v>0</v>
       </c>
       <c r="D20" s="31">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E20" s="31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F20" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="32">
         <v>580</v>
@@ -2411,13 +2411,13 @@
         <v>2000</v>
       </c>
       <c r="D21" s="31">
-        <v>823</v>
+        <v>846</v>
       </c>
       <c r="E21" s="31">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="F21" s="31">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G21" s="32">
         <v>15491</v>
@@ -2446,13 +2446,13 @@
         <v>10050</v>
       </c>
       <c r="D22" s="31">
-        <v>3654</v>
+        <v>3725</v>
       </c>
       <c r="E22" s="31">
-        <v>2850</v>
+        <v>2896</v>
       </c>
       <c r="F22" s="31">
-        <v>804</v>
+        <v>829</v>
       </c>
       <c r="G22" s="32">
         <v>78179</v>
@@ -2481,13 +2481,13 @@
         <v>16900</v>
       </c>
       <c r="D23" s="31">
-        <v>22762</v>
+        <v>23208</v>
       </c>
       <c r="E23" s="31">
-        <v>18387</v>
+        <v>18675</v>
       </c>
       <c r="F23" s="31">
-        <v>4375</v>
+        <v>4533</v>
       </c>
       <c r="G23" s="32">
         <v>295635</v>
@@ -2516,13 +2516,13 @@
         <v>18025</v>
       </c>
       <c r="D24" s="31">
-        <v>8423</v>
+        <v>8565</v>
       </c>
       <c r="E24" s="31">
-        <v>7408</v>
+        <v>7464</v>
       </c>
       <c r="F24" s="31">
-        <v>1015</v>
+        <v>1101</v>
       </c>
       <c r="G24" s="32">
         <v>185835</v>
@@ -2551,13 +2551,13 @@
         <v>1000</v>
       </c>
       <c r="D25" s="31">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="E25" s="31">
         <v>650</v>
       </c>
       <c r="F25" s="31">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G25" s="32">
         <v>7291</v>
@@ -2586,13 +2586,13 @@
         <v>100</v>
       </c>
       <c r="D26" s="31">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E26" s="31">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F26" s="31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26" s="32">
         <v>1295</v>
@@ -2621,13 +2621,13 @@
         <v>600</v>
       </c>
       <c r="D27" s="31">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E27" s="31">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F27" s="31">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G27" s="32">
         <v>5438</v>
@@ -2656,13 +2656,13 @@
         <v>1700</v>
       </c>
       <c r="D28" s="31">
-        <v>1326</v>
+        <v>1569</v>
       </c>
       <c r="E28" s="31">
-        <v>1075</v>
+        <v>1084</v>
       </c>
       <c r="F28" s="31">
-        <v>251</v>
+        <v>485</v>
       </c>
       <c r="G28" s="32">
         <v>31586</v>
@@ -2691,13 +2691,13 @@
         <v>800</v>
       </c>
       <c r="D29" s="31">
-        <v>608</v>
+        <v>647</v>
       </c>
       <c r="E29" s="31">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="F29" s="31">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="G29" s="32">
         <v>14721</v>
@@ -2726,13 +2726,13 @@
         <v>3975</v>
       </c>
       <c r="D30" s="31">
-        <v>1639</v>
+        <v>1713</v>
       </c>
       <c r="E30" s="31">
-        <v>1415</v>
+        <v>1440</v>
       </c>
       <c r="F30" s="31">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="G30" s="32">
         <v>39423</v>
@@ -2761,13 +2761,13 @@
         <v>1400</v>
       </c>
       <c r="D31" s="31">
-        <v>1608</v>
+        <v>1707</v>
       </c>
       <c r="E31" s="31">
-        <v>1347</v>
+        <v>1416</v>
       </c>
       <c r="F31" s="31">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="G31" s="32">
         <v>33813</v>
@@ -2796,13 +2796,13 @@
         <v>1000</v>
       </c>
       <c r="D32" s="31">
-        <v>1272</v>
+        <v>1308</v>
       </c>
       <c r="E32" s="31">
-        <v>1118</v>
+        <v>1126</v>
       </c>
       <c r="F32" s="31">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="G32" s="32">
         <v>17169</v>
@@ -2831,13 +2831,13 @@
         <v>700</v>
       </c>
       <c r="D33" s="31">
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="E33" s="31">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F33" s="31">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="G33" s="32">
         <v>11666</v>
@@ -2866,13 +2866,13 @@
         <v>50250</v>
       </c>
       <c r="D34" s="31">
-        <v>35191</v>
+        <v>36230</v>
       </c>
       <c r="E34" s="31">
-        <v>29866</v>
+        <v>30188</v>
       </c>
       <c r="F34" s="31">
-        <v>5325</v>
+        <v>6042</v>
       </c>
       <c r="G34" s="32">
         <v>315242</v>
@@ -2901,13 +2901,13 @@
         <v>100</v>
       </c>
       <c r="D35" s="31">
-        <v>531</v>
+        <v>564</v>
       </c>
       <c r="E35" s="31">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="F35" s="31">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="G35" s="32">
         <v>10054</v>
@@ -2936,13 +2936,13 @@
         <v>200</v>
       </c>
       <c r="D36" s="31">
-        <v>510</v>
+        <v>574</v>
       </c>
       <c r="E36" s="31">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="F36" s="31">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G36" s="32">
         <v>4769</v>
@@ -2971,13 +2971,13 @@
         <v>300</v>
       </c>
       <c r="D37" s="31">
-        <v>545</v>
+        <v>585</v>
       </c>
       <c r="E37" s="31">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="F37" s="31">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="G37" s="32">
         <v>24447</v>
@@ -3006,13 +3006,13 @@
         <v>700</v>
       </c>
       <c r="D38" s="31">
-        <v>592</v>
+        <v>653</v>
       </c>
       <c r="E38" s="31">
-        <v>518</v>
+        <v>567</v>
       </c>
       <c r="F38" s="31">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G38" s="32">
         <v>5574</v>
@@ -3041,13 +3041,13 @@
         <v>5400</v>
       </c>
       <c r="D39" s="31">
-        <v>1945</v>
+        <v>2047</v>
       </c>
       <c r="E39" s="31">
-        <v>1758</v>
+        <v>1835</v>
       </c>
       <c r="F39" s="31">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="G39" s="32">
         <v>34171</v>
@@ -3076,13 +3076,13 @@
         <v>5200</v>
       </c>
       <c r="D40" s="31">
-        <v>2533</v>
+        <v>2708</v>
       </c>
       <c r="E40" s="31">
-        <v>2292</v>
+        <v>2382</v>
       </c>
       <c r="F40" s="31">
-        <v>241</v>
+        <v>326</v>
       </c>
       <c r="G40" s="32">
         <v>41571</v>
@@ -3111,13 +3111,13 @@
         <v>1100</v>
       </c>
       <c r="D41" s="31">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="E41" s="31">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="F41" s="31">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G41" s="32">
         <v>5769</v>
@@ -3146,13 +3146,13 @@
         <v>2250</v>
       </c>
       <c r="D42" s="31">
-        <v>842</v>
+        <v>910</v>
       </c>
       <c r="E42" s="31">
-        <v>744</v>
+        <v>781</v>
       </c>
       <c r="F42" s="31">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="G42" s="32">
         <v>8544</v>
@@ -3181,13 +3181,13 @@
         <v>100</v>
       </c>
       <c r="D43" s="31">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="E43" s="31">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F43" s="31">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G43" s="32">
         <v>2167</v>
@@ -3216,13 +3216,13 @@
         <v>0</v>
       </c>
       <c r="D44" s="31">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E44" s="31">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F44" s="31">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G44" s="32">
         <v>2839</v>
@@ -3251,13 +3251,13 @@
         <v>600</v>
       </c>
       <c r="D45" s="31">
-        <v>450</v>
+        <v>482</v>
       </c>
       <c r="E45" s="31">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="F45" s="31">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G45" s="32">
         <v>6555</v>
@@ -3286,13 +3286,13 @@
         <v>61275</v>
       </c>
       <c r="D46" s="31">
-        <v>52975</v>
+        <v>54798</v>
       </c>
       <c r="E46" s="31">
-        <v>43645</v>
+        <v>44954</v>
       </c>
       <c r="F46" s="31">
-        <v>9330</v>
+        <v>9844</v>
       </c>
       <c r="G46" s="32">
         <v>806242</v>
@@ -3321,13 +3321,13 @@
         <v>300</v>
       </c>
       <c r="D47" s="31">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="E47" s="31">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F47" s="31">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G47" s="32">
         <v>2177</v>
@@ -3356,13 +3356,13 @@
         <v>1600</v>
       </c>
       <c r="D48" s="31">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="E48" s="31">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="F48" s="31">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G48" s="32">
         <v>17682</v>
@@ -3391,13 +3391,13 @@
         <v>9700</v>
       </c>
       <c r="D49" s="31">
-        <v>7645</v>
+        <v>7897</v>
       </c>
       <c r="E49" s="31">
-        <v>5969</v>
+        <v>6075</v>
       </c>
       <c r="F49" s="31">
-        <v>1676</v>
+        <v>1822</v>
       </c>
       <c r="G49" s="32">
         <v>125758</v>
@@ -3426,13 +3426,13 @@
         <v>1775</v>
       </c>
       <c r="D50" s="31">
-        <v>1339</v>
+        <v>1414</v>
       </c>
       <c r="E50" s="31">
-        <v>1287</v>
+        <v>1335</v>
       </c>
       <c r="F50" s="31">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="G50" s="32">
         <v>11046</v>
@@ -3461,13 +3461,13 @@
         <v>100</v>
       </c>
       <c r="D51" s="31">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E51" s="31">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F51" s="31">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G51" s="32">
         <v>2381</v>
@@ -3496,13 +3496,13 @@
         <v>1900</v>
       </c>
       <c r="D52" s="31">
-        <v>1555</v>
+        <v>1582</v>
       </c>
       <c r="E52" s="31">
-        <v>1393</v>
+        <v>1409</v>
       </c>
       <c r="F52" s="31">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="G52" s="32">
         <v>32501</v>
@@ -3531,13 +3531,13 @@
         <v>3750</v>
       </c>
       <c r="D53" s="31">
-        <v>2478</v>
+        <v>2646</v>
       </c>
       <c r="E53" s="31">
-        <v>2257</v>
+        <v>2392</v>
       </c>
       <c r="F53" s="31">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="G53" s="32">
         <v>58277</v>
@@ -3601,13 +3601,13 @@
         <v>1175</v>
       </c>
       <c r="D55" s="31">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E55" s="31">
         <v>297</v>
       </c>
       <c r="F55" s="31">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G55" s="32">
         <v>3483</v>
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="D56" s="31">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E56" s="31">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F56" s="31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G56" s="32">
         <v>2687</v>
@@ -3671,13 +3671,13 @@
         <v>1175</v>
       </c>
       <c r="D57" s="31">
-        <v>406</v>
+        <v>447</v>
       </c>
       <c r="E57" s="31">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="F57" s="31">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="G57" s="32">
         <v>4386</v>
@@ -3741,13 +3741,13 @@
         <v>1475</v>
       </c>
       <c r="D59" s="31">
-        <v>568</v>
+        <v>685</v>
       </c>
       <c r="E59" s="31">
-        <v>557</v>
+        <v>671</v>
       </c>
       <c r="F59" s="31">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G59" s="32">
         <v>5092</v>
@@ -3776,13 +3776,13 @@
         <v>299125</v>
       </c>
       <c r="D60" s="31">
-        <v>139810</v>
+        <v>142481</v>
       </c>
       <c r="E60" s="31">
-        <v>117520</v>
+        <v>119237</v>
       </c>
       <c r="F60" s="31">
-        <v>22290</v>
+        <v>23244</v>
       </c>
       <c r="G60" s="32">
         <v>2015538</v>
@@ -3811,13 +3811,13 @@
         <v>600</v>
       </c>
       <c r="D61" s="31">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="E61" s="31">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="F61" s="31">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G61" s="32">
         <v>9997</v>
@@ -3846,13 +3846,13 @@
         <v>1700</v>
       </c>
       <c r="D62" s="31">
-        <v>954</v>
+        <v>1025</v>
       </c>
       <c r="E62" s="31">
-        <v>897</v>
+        <v>956</v>
       </c>
       <c r="F62" s="31">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G62" s="32">
         <v>14288</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="D63" s="31">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E63" s="31">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F63" s="31">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G63" s="32">
         <v>4312</v>
@@ -3916,13 +3916,13 @@
         <v>54125</v>
       </c>
       <c r="D64" s="31">
-        <v>29268</v>
+        <v>30218</v>
       </c>
       <c r="E64" s="31">
-        <v>24229</v>
+        <v>24750</v>
       </c>
       <c r="F64" s="31">
-        <v>5039</v>
+        <v>5468</v>
       </c>
       <c r="G64" s="32">
         <v>702429</v>
@@ -3951,13 +3951,13 @@
         <v>800</v>
       </c>
       <c r="D65" s="31">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="E65" s="31">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="F65" s="31">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G65" s="32">
         <v>16610</v>
@@ -3986,13 +3986,13 @@
         <v>0</v>
       </c>
       <c r="D66" s="31">
+        <v>72</v>
+      </c>
+      <c r="E66" s="31">
         <v>63</v>
       </c>
-      <c r="E66" s="31">
-        <v>57</v>
-      </c>
       <c r="F66" s="31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G66" s="32">
         <v>1840</v>
@@ -4021,13 +4021,13 @@
         <v>2750</v>
       </c>
       <c r="D67" s="31">
-        <v>819</v>
+        <v>1140</v>
       </c>
       <c r="E67" s="31">
-        <v>745</v>
+        <v>1037</v>
       </c>
       <c r="F67" s="31">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="G67" s="32">
         <v>7130</v>
@@ -4056,13 +4056,13 @@
         <v>100</v>
       </c>
       <c r="D68" s="31">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="E68" s="31">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F68" s="31">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G68" s="32">
         <v>2655</v>
@@ -4091,13 +4091,13 @@
         <v>300</v>
       </c>
       <c r="D69" s="31">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="E69" s="31">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F69" s="31">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G69" s="32">
         <v>8359</v>
@@ -4126,13 +4126,13 @@
         <v>900</v>
       </c>
       <c r="D70" s="31">
-        <v>912</v>
+        <v>946</v>
       </c>
       <c r="E70" s="31">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="F70" s="31">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="G70" s="32">
         <v>14718</v>
@@ -4161,13 +4161,13 @@
         <v>19900</v>
       </c>
       <c r="D71" s="31">
-        <v>8362</v>
+        <v>8452</v>
       </c>
       <c r="E71" s="31">
-        <v>6657</v>
+        <v>6670</v>
       </c>
       <c r="F71" s="31">
-        <v>1705</v>
+        <v>1782</v>
       </c>
       <c r="G71" s="32">
         <v>123303</v>
@@ -4196,13 +4196,13 @@
         <v>0</v>
       </c>
       <c r="D72" s="31">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E72" s="31">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F72" s="31">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G72" s="32">
         <v>1605</v>
@@ -4231,13 +4231,13 @@
         <v>108125</v>
       </c>
       <c r="D73" s="31">
-        <v>79191</v>
+        <v>83828</v>
       </c>
       <c r="E73" s="31">
-        <v>64345</v>
+        <v>67822</v>
       </c>
       <c r="F73" s="31">
-        <v>14846</v>
+        <v>16006</v>
       </c>
       <c r="G73" s="32">
         <v>640715</v>
@@ -4266,13 +4266,13 @@
         <v>4800</v>
       </c>
       <c r="D74" s="31">
-        <v>7491</v>
+        <v>7616</v>
       </c>
       <c r="E74" s="31">
-        <v>6356</v>
+        <v>6390</v>
       </c>
       <c r="F74" s="31">
-        <v>1135</v>
+        <v>1226</v>
       </c>
       <c r="G74" s="32">
         <v>146536</v>
@@ -4301,13 +4301,13 @@
         <v>1000</v>
       </c>
       <c r="D75" s="31">
-        <v>1396</v>
+        <v>1449</v>
       </c>
       <c r="E75" s="31">
-        <v>1220</v>
+        <v>1231</v>
       </c>
       <c r="F75" s="31">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="G75" s="32">
         <v>34869</v>
@@ -4336,13 +4336,13 @@
         <v>2650</v>
       </c>
       <c r="D76" s="31">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E76" s="31">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="F76" s="31">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G76" s="32">
         <v>14306</v>
@@ -4371,13 +4371,13 @@
         <v>4650</v>
       </c>
       <c r="D77" s="31">
-        <v>2101</v>
+        <v>2187</v>
       </c>
       <c r="E77" s="31">
-        <v>1674</v>
+        <v>1687</v>
       </c>
       <c r="F77" s="31">
-        <v>427</v>
+        <v>500</v>
       </c>
       <c r="G77" s="32">
         <v>29681</v>
@@ -4406,13 +4406,13 @@
         <v>1400</v>
       </c>
       <c r="D78" s="31">
-        <v>988</v>
+        <v>1023</v>
       </c>
       <c r="E78" s="31">
-        <v>918</v>
+        <v>930</v>
       </c>
       <c r="F78" s="31">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="G78" s="32">
         <v>21209</v>
@@ -4441,13 +4441,13 @@
         <v>200</v>
       </c>
       <c r="D79" s="31">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="E79" s="31">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="F79" s="31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G79" s="32">
         <v>3139</v>
@@ -4476,13 +4476,13 @@
         <v>200</v>
       </c>
       <c r="D80" s="31">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="E80" s="31">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F80" s="31">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G80" s="32">
         <v>4283</v>
@@ -4511,13 +4511,13 @@
         <v>100</v>
       </c>
       <c r="D81" s="31">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E81" s="31">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F81" s="31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G81" s="32">
         <v>937</v>
@@ -4546,13 +4546,13 @@
         <v>50575</v>
       </c>
       <c r="D82" s="31">
-        <v>51812</v>
+        <v>53635</v>
       </c>
       <c r="E82" s="31">
-        <v>43573</v>
+        <v>45026</v>
       </c>
       <c r="F82" s="31">
-        <v>8239</v>
+        <v>8609</v>
       </c>
       <c r="G82" s="32">
         <v>626861</v>
@@ -4581,13 +4581,13 @@
         <v>400</v>
       </c>
       <c r="D83" s="31">
-        <v>482</v>
+        <v>542</v>
       </c>
       <c r="E83" s="31">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="F83" s="31">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="G83" s="32">
         <v>8327</v>
@@ -4616,13 +4616,13 @@
         <v>1100</v>
       </c>
       <c r="D84" s="31">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="E84" s="31">
-        <v>549</v>
+        <v>578</v>
       </c>
       <c r="F84" s="31">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G84" s="32">
         <v>16551</v>
@@ -4651,13 +4651,13 @@
         <v>2475</v>
       </c>
       <c r="D85" s="31">
-        <v>1378</v>
+        <v>1557</v>
       </c>
       <c r="E85" s="31">
-        <v>1124</v>
+        <v>1281</v>
       </c>
       <c r="F85" s="31">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="G85" s="32">
         <v>15133</v>
@@ -4686,13 +4686,13 @@
         <v>1200</v>
       </c>
       <c r="D86" s="31">
-        <v>690</v>
+        <v>744</v>
       </c>
       <c r="E86" s="31">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="F86" s="31">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="G86" s="32">
         <v>14875</v>
@@ -4721,13 +4721,13 @@
         <v>38225</v>
       </c>
       <c r="D87" s="31">
-        <v>29881</v>
+        <v>30301</v>
       </c>
       <c r="E87" s="31">
-        <v>23681</v>
+        <v>23976</v>
       </c>
       <c r="F87" s="31">
-        <v>6200</v>
+        <v>6325</v>
       </c>
       <c r="G87" s="32">
         <v>267032</v>
@@ -4756,13 +4756,13 @@
         <v>100</v>
       </c>
       <c r="D88" s="31">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E88" s="31">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F88" s="31">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G88" s="32">
         <v>5021</v>
@@ -4791,13 +4791,13 @@
         <v>4300</v>
       </c>
       <c r="D89" s="31">
-        <v>1855</v>
+        <v>2047</v>
       </c>
       <c r="E89" s="31">
-        <v>1716</v>
+        <v>1828</v>
       </c>
       <c r="F89" s="31">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="G89" s="32">
         <v>22728</v>
@@ -4826,10 +4826,10 @@
         <v>0</v>
       </c>
       <c r="D90" s="31">
+        <v>46</v>
+      </c>
+      <c r="E90" s="31">
         <v>41</v>
-      </c>
-      <c r="E90" s="31">
-        <v>36</v>
       </c>
       <c r="F90" s="31">
         <v>5</v>
@@ -4861,13 +4861,13 @@
         <v>100</v>
       </c>
       <c r="D91" s="31">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="E91" s="31">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="F91" s="31">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G91" s="32">
         <v>6615</v>
@@ -4896,13 +4896,13 @@
         <v>1600</v>
       </c>
       <c r="D92" s="31">
-        <v>1020</v>
+        <v>1031</v>
       </c>
       <c r="E92" s="31">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="F92" s="31">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G92" s="32">
         <v>15931</v>
@@ -4931,13 +4931,13 @@
         <v>1300</v>
       </c>
       <c r="D93" s="31">
-        <v>1138</v>
+        <v>1169</v>
       </c>
       <c r="E93" s="31">
-        <v>1084</v>
+        <v>1110</v>
       </c>
       <c r="F93" s="31">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G93" s="32">
         <v>17050</v>
@@ -4966,13 +4966,13 @@
         <v>21800</v>
       </c>
       <c r="D94" s="31">
-        <v>8398</v>
+        <v>8595</v>
       </c>
       <c r="E94" s="31">
-        <v>7090</v>
+        <v>7179</v>
       </c>
       <c r="F94" s="31">
-        <v>1308</v>
+        <v>1416</v>
       </c>
       <c r="G94" s="32">
         <v>107568</v>
@@ -5001,13 +5001,13 @@
         <v>16050</v>
       </c>
       <c r="D95" s="31">
-        <v>6687</v>
+        <v>6768</v>
       </c>
       <c r="E95" s="31">
-        <v>5091</v>
+        <v>5146</v>
       </c>
       <c r="F95" s="31">
-        <v>1596</v>
+        <v>1622</v>
       </c>
       <c r="G95" s="32">
         <v>97771</v>
@@ -5036,13 +5036,13 @@
         <v>1200</v>
       </c>
       <c r="D96" s="31">
-        <v>971</v>
+        <v>984</v>
       </c>
       <c r="E96" s="31">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="F96" s="31">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G96" s="32">
         <v>23692</v>
@@ -5071,13 +5071,13 @@
         <v>6275</v>
       </c>
       <c r="D97" s="31">
-        <v>6647</v>
+        <v>6840</v>
       </c>
       <c r="E97" s="31">
-        <v>4908</v>
+        <v>4982</v>
       </c>
       <c r="F97" s="31">
-        <v>1739</v>
+        <v>1858</v>
       </c>
       <c r="G97" s="32">
         <v>130156</v>
@@ -5106,13 +5106,13 @@
         <v>2600</v>
       </c>
       <c r="D98" s="31">
-        <v>1909</v>
+        <v>1984</v>
       </c>
       <c r="E98" s="31">
-        <v>1679</v>
+        <v>1707</v>
       </c>
       <c r="F98" s="31">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="G98" s="32">
         <v>25066</v>
@@ -5141,13 +5141,13 @@
         <v>0</v>
       </c>
       <c r="D99" s="31">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="E99" s="31">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="F99" s="31">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G99" s="32">
         <v>2399</v>
@@ -5176,13 +5176,13 @@
         <v>1600</v>
       </c>
       <c r="D100" s="31">
-        <v>1683</v>
+        <v>1710</v>
       </c>
       <c r="E100" s="31">
-        <v>1586</v>
+        <v>1592</v>
       </c>
       <c r="F100" s="31">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="G100" s="32">
         <v>6957</v>
@@ -5211,13 +5211,13 @@
         <v>600</v>
       </c>
       <c r="D101" s="31">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="E101" s="31">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="F101" s="31">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G101" s="32">
         <v>3992</v>
@@ -5246,13 +5246,13 @@
         <v>500</v>
       </c>
       <c r="D102" s="31">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="E102" s="31">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="F102" s="31">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="G102" s="32">
         <v>3017</v>
@@ -5281,13 +5281,13 @@
         <v>4700</v>
       </c>
       <c r="D103" s="31">
-        <v>2600</v>
+        <v>2648</v>
       </c>
       <c r="E103" s="31">
-        <v>2407</v>
+        <v>2428</v>
       </c>
       <c r="F103" s="31">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="G103" s="32">
         <v>47640</v>
@@ -5316,13 +5316,13 @@
         <v>571325</v>
       </c>
       <c r="D104" s="31">
-        <v>304607</v>
+        <v>309095</v>
       </c>
       <c r="E104" s="31">
-        <v>255708</v>
+        <v>258581</v>
       </c>
       <c r="F104" s="31">
-        <v>48899</v>
+        <v>50514</v>
       </c>
       <c r="G104" s="32">
         <v>3573784</v>
@@ -5351,13 +5351,13 @@
         <v>2800</v>
       </c>
       <c r="D105" s="31">
-        <v>2349</v>
+        <v>2388</v>
       </c>
       <c r="E105" s="31">
-        <v>2044</v>
+        <v>2066</v>
       </c>
       <c r="F105" s="31">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="G105" s="32">
         <v>53015</v>
@@ -5386,13 +5386,13 @@
         <v>1475</v>
       </c>
       <c r="D106" s="31">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="E106" s="31">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="F106" s="31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G106" s="32">
         <v>4850</v>
@@ -5421,13 +5421,13 @@
         <v>200</v>
       </c>
       <c r="D107" s="31">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="E107" s="31">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F107" s="31">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G107" s="32">
         <v>4635</v>
@@ -5456,13 +5456,13 @@
         <v>18125</v>
       </c>
       <c r="D108" s="31">
-        <v>12054</v>
+        <v>13131</v>
       </c>
       <c r="E108" s="31">
-        <v>10350</v>
+        <v>11234</v>
       </c>
       <c r="F108" s="31">
-        <v>1704</v>
+        <v>1897</v>
       </c>
       <c r="G108" s="32">
         <v>183387</v>
@@ -5491,13 +5491,13 @@
         <v>800</v>
       </c>
       <c r="D109" s="31">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="E109" s="31">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="F109" s="31">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G109" s="32">
         <v>2788</v>
@@ -5526,13 +5526,13 @@
         <v>3400</v>
       </c>
       <c r="D110" s="31">
-        <v>3095</v>
+        <v>3209</v>
       </c>
       <c r="E110" s="31">
-        <v>2677</v>
+        <v>2709</v>
       </c>
       <c r="F110" s="31">
-        <v>418</v>
+        <v>500</v>
       </c>
       <c r="G110" s="32">
         <v>67614</v>
@@ -5561,13 +5561,13 @@
         <v>107750</v>
       </c>
       <c r="D111" s="31">
-        <v>44161</v>
+        <v>46529</v>
       </c>
       <c r="E111" s="31">
-        <v>35896</v>
+        <v>37318</v>
       </c>
       <c r="F111" s="31">
-        <v>8265</v>
+        <v>9211</v>
       </c>
       <c r="G111" s="32">
         <v>649795</v>
@@ -5596,13 +5596,13 @@
         <v>1100</v>
       </c>
       <c r="D112" s="31">
-        <v>1613</v>
+        <v>1683</v>
       </c>
       <c r="E112" s="31">
-        <v>1514</v>
+        <v>1528</v>
       </c>
       <c r="F112" s="31">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="G112" s="32">
         <v>29221</v>
@@ -5631,13 +5631,13 @@
         <v>900</v>
       </c>
       <c r="D113" s="31">
-        <v>1046</v>
+        <v>1108</v>
       </c>
       <c r="E113" s="31">
-        <v>913</v>
+        <v>953</v>
       </c>
       <c r="F113" s="31">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="G113" s="32">
         <v>17482</v>
@@ -5666,13 +5666,13 @@
         <v>2200</v>
       </c>
       <c r="D114" s="31">
-        <v>1666</v>
+        <v>1769</v>
       </c>
       <c r="E114" s="31">
-        <v>1542</v>
+        <v>1596</v>
       </c>
       <c r="F114" s="31">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="G114" s="32">
         <v>50235</v>
@@ -5701,13 +5701,13 @@
         <v>2400</v>
       </c>
       <c r="D115" s="31">
-        <v>1962</v>
+        <v>1993</v>
       </c>
       <c r="E115" s="31">
-        <v>1723</v>
+        <v>1731</v>
       </c>
       <c r="F115" s="31">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="G115" s="32">
         <v>29578</v>
@@ -5736,13 +5736,13 @@
         <v>1500</v>
       </c>
       <c r="D116" s="31">
-        <v>1332</v>
+        <v>1363</v>
       </c>
       <c r="E116" s="31">
-        <v>1219</v>
+        <v>1233</v>
       </c>
       <c r="F116" s="31">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="G116" s="32">
         <v>19208</v>
@@ -5771,13 +5771,13 @@
         <v>2700</v>
       </c>
       <c r="D117" s="31">
-        <v>1261</v>
+        <v>1274</v>
       </c>
       <c r="E117" s="31">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="F117" s="31">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="G117" s="32">
         <v>28821</v>
@@ -5806,13 +5806,13 @@
         <v>100</v>
       </c>
       <c r="D118" s="31">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E118" s="31">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="F118" s="31">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G118" s="32">
         <v>2968</v>
@@ -5841,13 +5841,13 @@
         <v>7050</v>
       </c>
       <c r="D119" s="31">
-        <v>4952</v>
+        <v>5230</v>
       </c>
       <c r="E119" s="31">
-        <v>3727</v>
+        <v>3758</v>
       </c>
       <c r="F119" s="31">
-        <v>1225</v>
+        <v>1472</v>
       </c>
       <c r="G119" s="32">
         <v>77702</v>
@@ -5876,13 +5876,13 @@
         <v>600</v>
       </c>
       <c r="D120" s="31">
-        <v>1127</v>
+        <v>1205</v>
       </c>
       <c r="E120" s="31">
-        <v>1078</v>
+        <v>1107</v>
       </c>
       <c r="F120" s="31">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="G120" s="32">
         <v>15984</v>
@@ -5911,13 +5911,13 @@
         <v>0</v>
       </c>
       <c r="D121" s="31">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E121" s="31">
         <v>61</v>
       </c>
       <c r="F121" s="31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G121" s="32">
         <v>1345</v>
@@ -5946,13 +5946,13 @@
         <v>500</v>
       </c>
       <c r="D122" s="31">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="E122" s="31">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F122" s="31">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G122" s="32">
         <v>7488</v>
@@ -5981,13 +5981,13 @@
         <v>2775</v>
       </c>
       <c r="D123" s="31">
-        <v>931</v>
+        <v>1063</v>
       </c>
       <c r="E123" s="31">
-        <v>847</v>
+        <v>960</v>
       </c>
       <c r="F123" s="31">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="G123" s="32">
         <v>11172</v>
@@ -6016,13 +6016,13 @@
         <v>5100</v>
       </c>
       <c r="D124" s="31">
-        <v>1627</v>
+        <v>1670</v>
       </c>
       <c r="E124" s="31">
-        <v>1573</v>
+        <v>1599</v>
       </c>
       <c r="F124" s="31">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G124" s="32">
         <v>28248</v>
@@ -6051,10 +6051,10 @@
         <v>100</v>
       </c>
       <c r="D125" s="31">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E125" s="31">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F125" s="31">
         <v>3</v>
@@ -6086,13 +6086,13 @@
         <v>22900</v>
       </c>
       <c r="D126" s="31">
-        <v>7355</v>
+        <v>7677</v>
       </c>
       <c r="E126" s="31">
-        <v>6756</v>
+        <v>7022</v>
       </c>
       <c r="F126" s="31">
-        <v>599</v>
+        <v>655</v>
       </c>
       <c r="G126" s="32">
         <v>198728</v>
@@ -6121,13 +6121,13 @@
         <v>100</v>
       </c>
       <c r="D127" s="31">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="E127" s="31">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F127" s="31">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G127" s="32">
         <v>3764</v>
@@ -6156,13 +6156,13 @@
         <v>3250</v>
       </c>
       <c r="D128" s="31">
-        <v>2602</v>
+        <v>2656</v>
       </c>
       <c r="E128" s="31">
-        <v>2390</v>
+        <v>2403</v>
       </c>
       <c r="F128" s="31">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="G128" s="32">
         <v>29988</v>
@@ -6191,13 +6191,13 @@
         <v>3500</v>
       </c>
       <c r="D129" s="31">
-        <v>6681</v>
+        <v>6935</v>
       </c>
       <c r="E129" s="31">
-        <v>5802</v>
+        <v>5961</v>
       </c>
       <c r="F129" s="31">
-        <v>879</v>
+        <v>974</v>
       </c>
       <c r="G129" s="32">
         <v>135188</v>
@@ -6226,13 +6226,13 @@
         <v>400</v>
       </c>
       <c r="D130" s="31">
-        <v>670</v>
+        <v>687</v>
       </c>
       <c r="E130" s="31">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="F130" s="31">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G130" s="32">
         <v>16827</v>
@@ -6261,13 +6261,13 @@
         <v>1300</v>
       </c>
       <c r="D131" s="31">
-        <v>584</v>
+        <v>609</v>
       </c>
       <c r="E131" s="31">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="F131" s="31">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G131" s="32">
         <v>12523</v>
@@ -6296,13 +6296,13 @@
         <v>3750</v>
       </c>
       <c r="D132" s="31">
-        <v>5507</v>
+        <v>5773</v>
       </c>
       <c r="E132" s="31">
-        <v>4522</v>
+        <v>4638</v>
       </c>
       <c r="F132" s="31">
-        <v>985</v>
+        <v>1135</v>
       </c>
       <c r="G132" s="32">
         <v>104736</v>
@@ -6331,13 +6331,13 @@
         <v>2300</v>
       </c>
       <c r="D133" s="31">
-        <v>3331</v>
+        <v>3394</v>
       </c>
       <c r="E133" s="31">
-        <v>2484</v>
+        <v>2522</v>
       </c>
       <c r="F133" s="31">
-        <v>847</v>
+        <v>872</v>
       </c>
       <c r="G133" s="32">
         <v>38074</v>
@@ -6401,10 +6401,10 @@
         <v>0</v>
       </c>
       <c r="D135" s="31">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E135" s="31">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F135" s="31">
         <v>0</v>
@@ -6436,13 +6436,13 @@
         <v>3200</v>
       </c>
       <c r="D136" s="31">
-        <v>2605</v>
+        <v>2656</v>
       </c>
       <c r="E136" s="31">
-        <v>1894</v>
+        <v>1920</v>
       </c>
       <c r="F136" s="31">
-        <v>711</v>
+        <v>736</v>
       </c>
       <c r="G136" s="32">
         <v>43611</v>
@@ -6471,13 +6471,13 @@
         <v>300</v>
       </c>
       <c r="D137" s="31">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E137" s="31">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F137" s="31">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G137" s="32">
         <v>3844</v>
@@ -6506,10 +6506,10 @@
         <v>0</v>
       </c>
       <c r="D138" s="31">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E138" s="31">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F138" s="31">
         <v>1</v>
@@ -6541,10 +6541,10 @@
         <v>100</v>
       </c>
       <c r="D139" s="31">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E139" s="31">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F139" s="31">
         <v>1</v>
@@ -6576,13 +6576,13 @@
         <v>5050</v>
       </c>
       <c r="D140" s="31">
-        <v>2765</v>
+        <v>2897</v>
       </c>
       <c r="E140" s="31">
-        <v>2632</v>
+        <v>2734</v>
       </c>
       <c r="F140" s="31">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="G140" s="32">
         <v>25862</v>
@@ -6611,13 +6611,13 @@
         <v>300</v>
       </c>
       <c r="D141" s="31">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="E141" s="31">
         <v>296</v>
       </c>
       <c r="F141" s="31">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G141" s="32">
         <v>2861</v>
@@ -6646,13 +6646,13 @@
         <v>2150</v>
       </c>
       <c r="D142" s="31">
-        <v>1100</v>
+        <v>1105</v>
       </c>
       <c r="E142" s="31">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="F142" s="31">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G142" s="32">
         <v>6105</v>
@@ -6681,13 +6681,13 @@
         <v>3700</v>
       </c>
       <c r="D143" s="31">
-        <v>2649</v>
+        <v>2701</v>
       </c>
       <c r="E143" s="31">
-        <v>2366</v>
+        <v>2371</v>
       </c>
       <c r="F143" s="31">
-        <v>283</v>
+        <v>330</v>
       </c>
       <c r="G143" s="32">
         <v>40212</v>
@@ -6716,13 +6716,13 @@
         <v>400</v>
       </c>
       <c r="D144" s="31">
-        <v>915</v>
+        <v>1172</v>
       </c>
       <c r="E144" s="31">
-        <v>856</v>
+        <v>1085</v>
       </c>
       <c r="F144" s="31">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="G144" s="32">
         <v>9647</v>
@@ -6751,13 +6751,13 @@
         <v>300</v>
       </c>
       <c r="D145" s="31">
-        <v>593</v>
+        <v>640</v>
       </c>
       <c r="E145" s="31">
-        <v>525</v>
+        <v>565</v>
       </c>
       <c r="F145" s="31">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G145" s="32">
         <v>17275</v>
@@ -6786,13 +6786,13 @@
         <v>1900</v>
       </c>
       <c r="D146" s="31">
-        <v>1194</v>
+        <v>1253</v>
       </c>
       <c r="E146" s="31">
-        <v>1080</v>
+        <v>1086</v>
       </c>
       <c r="F146" s="31">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="G146" s="32">
         <v>16041</v>
@@ -6821,13 +6821,13 @@
         <v>600</v>
       </c>
       <c r="D147" s="31">
-        <v>578</v>
+        <v>604</v>
       </c>
       <c r="E147" s="31">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="F147" s="31">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G147" s="32">
         <v>13837</v>
@@ -6856,13 +6856,13 @@
         <v>600</v>
       </c>
       <c r="D148" s="31">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="E148" s="31">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F148" s="31">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G148" s="32">
         <v>14066</v>
@@ -6891,13 +6891,13 @@
         <v>5450</v>
       </c>
       <c r="D149" s="31">
-        <v>2483</v>
+        <v>2572</v>
       </c>
       <c r="E149" s="31">
-        <v>2360</v>
+        <v>2431</v>
       </c>
       <c r="F149" s="31">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="G149" s="32">
         <v>70912</v>
@@ -6926,13 +6926,13 @@
         <v>1500</v>
       </c>
       <c r="D150" s="31">
-        <v>844</v>
+        <v>859</v>
       </c>
       <c r="E150" s="31">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="F150" s="31">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G150" s="32">
         <v>19033</v>
@@ -6961,13 +6961,13 @@
         <v>100</v>
       </c>
       <c r="D151" s="31">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="E151" s="31">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F151" s="31">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G151" s="32">
         <v>2496</v>
@@ -6996,13 +6996,13 @@
         <v>200</v>
       </c>
       <c r="D152" s="31">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="E152" s="31">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="F152" s="31">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G152" s="32">
         <v>9966</v>
@@ -7031,13 +7031,13 @@
         <v>100</v>
       </c>
       <c r="D153" s="31">
-        <v>747</v>
+        <v>774</v>
       </c>
       <c r="E153" s="31">
-        <v>661</v>
+        <v>680</v>
       </c>
       <c r="F153" s="31">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G153" s="32">
         <v>18642</v>
@@ -7066,10 +7066,10 @@
         <v>0</v>
       </c>
       <c r="D154" s="31">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E154" s="31">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F154" s="31">
         <v>0</v>
@@ -7101,13 +7101,13 @@
         <v>73900</v>
       </c>
       <c r="D155" s="31">
-        <v>35955</v>
+        <v>37535</v>
       </c>
       <c r="E155" s="31">
-        <v>30140</v>
+        <v>30989</v>
       </c>
       <c r="F155" s="31">
-        <v>5815</v>
+        <v>6546</v>
       </c>
       <c r="G155" s="32">
         <v>243899</v>
@@ -7136,13 +7136,13 @@
         <v>200</v>
       </c>
       <c r="D156" s="31">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="E156" s="31">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="F156" s="31">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="G156" s="32">
         <v>4820</v>
@@ -7171,13 +7171,13 @@
         <v>700</v>
       </c>
       <c r="D157" s="31">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="E157" s="31">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="F157" s="31">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="G157" s="32">
         <v>11353</v>
@@ -7206,13 +7206,13 @@
         <v>0</v>
       </c>
       <c r="D158" s="31">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E158" s="31">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F158" s="31">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G158" s="32">
         <v>8117</v>
@@ -7241,13 +7241,13 @@
         <v>600</v>
       </c>
       <c r="D159" s="31">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E159" s="31">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F159" s="31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G159" s="32">
         <v>4306</v>
@@ -7276,13 +7276,13 @@
         <v>200</v>
       </c>
       <c r="D160" s="31">
-        <v>260</v>
+        <v>317</v>
       </c>
       <c r="E160" s="31">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F160" s="31">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="G160" s="32">
         <v>3567</v>
@@ -7311,13 +7311,13 @@
         <v>2500</v>
       </c>
       <c r="D161" s="31">
-        <v>860</v>
+        <v>879</v>
       </c>
       <c r="E161" s="31">
-        <v>836</v>
+        <v>843</v>
       </c>
       <c r="F161" s="31">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G161" s="32">
         <v>28353</v>
@@ -7346,13 +7346,13 @@
         <v>4800</v>
       </c>
       <c r="D162" s="31">
-        <v>2742</v>
+        <v>2933</v>
       </c>
       <c r="E162" s="31">
-        <v>2453</v>
+        <v>2485</v>
       </c>
       <c r="F162" s="31">
-        <v>289</v>
+        <v>448</v>
       </c>
       <c r="G162" s="32">
         <v>42357</v>
@@ -7381,13 +7381,13 @@
         <v>600</v>
       </c>
       <c r="D163" s="31">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E163" s="31">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F163" s="31">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G163" s="32">
         <v>6675</v>
@@ -7416,13 +7416,13 @@
         <v>23700</v>
       </c>
       <c r="D164" s="31">
-        <v>14494</v>
+        <v>14887</v>
       </c>
       <c r="E164" s="31">
-        <v>13119</v>
+        <v>13307</v>
       </c>
       <c r="F164" s="31">
-        <v>1375</v>
+        <v>1580</v>
       </c>
       <c r="G164" s="32">
         <v>198642</v>
@@ -7486,13 +7486,13 @@
         <v>1400</v>
       </c>
       <c r="D166" s="31">
-        <v>2326</v>
+        <v>2423</v>
       </c>
       <c r="E166" s="31">
-        <v>1950</v>
+        <v>2002</v>
       </c>
       <c r="F166" s="31">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="G166" s="32">
         <v>42991</v>
@@ -7521,13 +7521,13 @@
         <v>100</v>
       </c>
       <c r="D167" s="31">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E167" s="31">
         <v>86</v>
       </c>
       <c r="F167" s="31">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G167" s="32">
         <v>1759</v>
@@ -7556,13 +7556,13 @@
         <v>16750</v>
       </c>
       <c r="D168" s="31">
-        <v>7206</v>
+        <v>7687</v>
       </c>
       <c r="E168" s="31">
-        <v>5230</v>
+        <v>5673</v>
       </c>
       <c r="F168" s="31">
-        <v>1976</v>
+        <v>2014</v>
       </c>
       <c r="G168" s="32">
         <v>132357</v>
@@ -7591,13 +7591,13 @@
         <v>1800</v>
       </c>
       <c r="D169" s="31">
-        <v>1338</v>
+        <v>1345</v>
       </c>
       <c r="E169" s="31">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="F169" s="31">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G169" s="32">
         <v>19805</v>
@@ -7626,13 +7626,13 @@
         <v>200</v>
       </c>
       <c r="D170" s="31">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="E170" s="31">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F170" s="31">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G170" s="32">
         <v>3970</v>
@@ -7661,13 +7661,13 @@
         <v>600</v>
       </c>
       <c r="D171" s="31">
+        <v>321</v>
+      </c>
+      <c r="E171" s="31">
         <v>290</v>
       </c>
-      <c r="E171" s="31">
-        <v>284</v>
-      </c>
       <c r="F171" s="31">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="G171" s="32">
         <v>7087</v>
@@ -7696,13 +7696,13 @@
         <v>1275</v>
       </c>
       <c r="D172" s="31">
-        <v>1060</v>
+        <v>1428</v>
       </c>
       <c r="E172" s="31">
-        <v>987</v>
+        <v>1351</v>
       </c>
       <c r="F172" s="31">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G172" s="32">
         <v>15803</v>
@@ -7731,13 +7731,13 @@
         <v>47850</v>
       </c>
       <c r="D173" s="31">
-        <v>21554</v>
+        <v>22179</v>
       </c>
       <c r="E173" s="31">
-        <v>18506</v>
+        <v>18885</v>
       </c>
       <c r="F173" s="31">
-        <v>3048</v>
+        <v>3294</v>
       </c>
       <c r="G173" s="32">
         <v>470846</v>
@@ -7766,13 +7766,13 @@
         <v>1100</v>
       </c>
       <c r="D174" s="31">
-        <v>1297</v>
+        <v>1407</v>
       </c>
       <c r="E174" s="31">
-        <v>1216</v>
+        <v>1276</v>
       </c>
       <c r="F174" s="31">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="G174" s="32">
         <v>15513</v>
@@ -7801,13 +7801,13 @@
         <v>300</v>
       </c>
       <c r="D175" s="31">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="E175" s="31">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="F175" s="31">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G175" s="32">
         <v>9938</v>
@@ -7836,13 +7836,13 @@
         <v>0</v>
       </c>
       <c r="D176" s="31">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E176" s="31">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F176" s="31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G176" s="32">
         <v>1016</v>
@@ -7871,13 +7871,13 @@
         <v>6700</v>
       </c>
       <c r="D177" s="31">
-        <v>4506</v>
+        <v>4751</v>
       </c>
       <c r="E177" s="31">
-        <v>4219</v>
+        <v>4237</v>
       </c>
       <c r="F177" s="31">
-        <v>287</v>
+        <v>514</v>
       </c>
       <c r="G177" s="32">
         <v>52561</v>
@@ -7906,13 +7906,13 @@
         <v>4000</v>
       </c>
       <c r="D178" s="31">
-        <v>2029</v>
+        <v>2108</v>
       </c>
       <c r="E178" s="31">
-        <v>1926</v>
+        <v>1954</v>
       </c>
       <c r="F178" s="31">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="G178" s="32">
         <v>40888</v>
@@ -7941,13 +7941,13 @@
         <v>400</v>
       </c>
       <c r="D179" s="31">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E179" s="31">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F179" s="31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G179" s="32">
         <v>11070</v>
@@ -7976,13 +7976,13 @@
         <v>1600</v>
       </c>
       <c r="D180" s="31">
-        <v>1450</v>
+        <v>1490</v>
       </c>
       <c r="E180" s="31">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="F180" s="31">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="G180" s="32">
         <v>10998</v>
@@ -8011,13 +8011,13 @@
         <v>48525</v>
       </c>
       <c r="D181" s="31">
-        <v>23249</v>
+        <v>24066</v>
       </c>
       <c r="E181" s="31">
-        <v>17390</v>
+        <v>17644</v>
       </c>
       <c r="F181" s="31">
-        <v>5859</v>
+        <v>6422</v>
       </c>
       <c r="G181" s="32">
         <v>282299</v>
@@ -8046,13 +8046,13 @@
         <v>900</v>
       </c>
       <c r="D182" s="31">
-        <v>605</v>
+        <v>642</v>
       </c>
       <c r="E182" s="31">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="F182" s="31">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="G182" s="32">
         <v>7508</v>
@@ -8081,13 +8081,13 @@
         <v>100</v>
       </c>
       <c r="D183" s="31">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E183" s="31">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F183" s="31">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G183" s="32">
         <v>1714</v>
@@ -8116,13 +8116,13 @@
         <v>1200</v>
       </c>
       <c r="D184" s="31">
-        <v>1547</v>
+        <v>1588</v>
       </c>
       <c r="E184" s="31">
-        <v>1447</v>
+        <v>1469</v>
       </c>
       <c r="F184" s="31">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="G184" s="32">
         <v>65680</v>
@@ -8151,13 +8151,13 @@
         <v>1300</v>
       </c>
       <c r="D185" s="31">
+        <v>956</v>
+      </c>
+      <c r="E185" s="31">
         <v>928</v>
       </c>
-      <c r="E185" s="31">
-        <v>901</v>
-      </c>
       <c r="F185" s="31">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G185" s="32">
         <v>23268</v>
@@ -8186,13 +8186,13 @@
         <v>1200</v>
       </c>
       <c r="D186" s="31">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c r="E186" s="31">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="F186" s="31">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G186" s="32">
         <v>19325</v>
@@ -8221,13 +8221,13 @@
         <v>9200</v>
       </c>
       <c r="D187" s="31">
-        <v>6985</v>
+        <v>7302</v>
       </c>
       <c r="E187" s="31">
-        <v>6363</v>
+        <v>6593</v>
       </c>
       <c r="F187" s="31">
-        <v>622</v>
+        <v>709</v>
       </c>
       <c r="G187" s="32">
         <v>112329</v>
@@ -8256,13 +8256,13 @@
         <v>500</v>
       </c>
       <c r="D188" s="31">
-        <v>583</v>
+        <v>682</v>
       </c>
       <c r="E188" s="31">
-        <v>544</v>
+        <v>625</v>
       </c>
       <c r="F188" s="31">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G188" s="32">
         <v>7111</v>
@@ -8291,13 +8291,13 @@
         <v>1300</v>
       </c>
       <c r="D189" s="31">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="E189" s="31">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F189" s="31">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G189" s="32">
         <v>11723</v>
@@ -8326,13 +8326,13 @@
         <v>2800</v>
       </c>
       <c r="D190" s="31">
-        <v>1587</v>
+        <v>1821</v>
       </c>
       <c r="E190" s="31">
-        <v>1527</v>
+        <v>1727</v>
       </c>
       <c r="F190" s="31">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="G190" s="32">
         <v>41511</v>
@@ -8361,13 +8361,13 @@
         <v>60050</v>
       </c>
       <c r="D191" s="31">
-        <v>13154</v>
+        <v>13868</v>
       </c>
       <c r="E191" s="31">
-        <v>11922</v>
+        <v>12277</v>
       </c>
       <c r="F191" s="31">
-        <v>1232</v>
+        <v>1591</v>
       </c>
       <c r="G191" s="32">
         <v>89806</v>
@@ -8396,13 +8396,13 @@
         <v>400</v>
       </c>
       <c r="D192" s="31">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="E192" s="31">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F192" s="31">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G192" s="32">
         <v>5092</v>
@@ -8431,13 +8431,13 @@
         <v>200</v>
       </c>
       <c r="D193" s="31">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="E193" s="31">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F193" s="31">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G193" s="32">
         <v>10262</v>
@@ -8466,13 +8466,13 @@
         <v>4600</v>
       </c>
       <c r="D194" s="31">
-        <v>20224</v>
+        <v>21366</v>
       </c>
       <c r="E194" s="31">
-        <v>18131</v>
+        <v>18679</v>
       </c>
       <c r="F194" s="31">
-        <v>2093</v>
+        <v>2687</v>
       </c>
       <c r="G194" s="32">
         <v>109144</v>
@@ -8501,13 +8501,13 @@
         <v>200</v>
       </c>
       <c r="D195" s="31">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E195" s="31">
         <v>117</v>
       </c>
       <c r="F195" s="31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G195" s="32">
         <v>2900</v>
@@ -8536,13 +8536,13 @@
         <v>0</v>
       </c>
       <c r="D196" s="31">
+        <v>240</v>
+      </c>
+      <c r="E196" s="31">
         <v>228</v>
       </c>
-      <c r="E196" s="31">
-        <v>219</v>
-      </c>
       <c r="F196" s="31">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G196" s="32">
         <v>2882</v>
@@ -8571,13 +8571,13 @@
         <v>500</v>
       </c>
       <c r="D197" s="31">
-        <v>861</v>
+        <v>876</v>
       </c>
       <c r="E197" s="31">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F197" s="31">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G197" s="32">
         <v>9511</v>
@@ -8606,10 +8606,10 @@
         <v>2450</v>
       </c>
       <c r="D198" s="31">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="E198" s="31">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="F198" s="31">
         <v>15</v>
@@ -8641,13 +8641,13 @@
         <v>600</v>
       </c>
       <c r="D199" s="31">
-        <v>717</v>
+        <v>769</v>
       </c>
       <c r="E199" s="31">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F199" s="31">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="G199" s="32">
         <v>5497</v>
@@ -8676,10 +8676,10 @@
         <v>0</v>
       </c>
       <c r="D200" s="31">
+        <v>55</v>
+      </c>
+      <c r="E200" s="31">
         <v>53</v>
-      </c>
-      <c r="E200" s="31">
-        <v>51</v>
       </c>
       <c r="F200" s="31">
         <v>2</v>
@@ -8711,13 +8711,13 @@
         <v>700</v>
       </c>
       <c r="D201" s="31">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="E201" s="31">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="F201" s="31">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G201" s="32">
         <v>14216</v>
@@ -8746,13 +8746,13 @@
         <v>4400</v>
       </c>
       <c r="D202" s="31">
-        <v>5009</v>
+        <v>5241</v>
       </c>
       <c r="E202" s="31">
-        <v>4229</v>
+        <v>4358</v>
       </c>
       <c r="F202" s="31">
-        <v>780</v>
+        <v>883</v>
       </c>
       <c r="G202" s="32">
         <v>81869</v>
@@ -8781,13 +8781,13 @@
         <v>1300</v>
       </c>
       <c r="D203" s="31">
-        <v>907</v>
+        <v>984</v>
       </c>
       <c r="E203" s="31">
-        <v>828</v>
+        <v>850</v>
       </c>
       <c r="F203" s="31">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="G203" s="32">
         <v>7992</v>
@@ -8816,13 +8816,13 @@
         <v>1100</v>
       </c>
       <c r="D204" s="31">
-        <v>1616</v>
+        <v>1667</v>
       </c>
       <c r="E204" s="31">
-        <v>1410</v>
+        <v>1442</v>
       </c>
       <c r="F204" s="31">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="G204" s="32">
         <v>44061</v>
@@ -8851,13 +8851,13 @@
         <v>1300</v>
       </c>
       <c r="D205" s="31">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="E205" s="31">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="F205" s="31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G205" s="32">
         <v>9116</v>
@@ -8886,13 +8886,13 @@
         <v>800</v>
       </c>
       <c r="D206" s="31">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E206" s="31">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F206" s="31">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G206" s="32">
         <v>6982</v>
@@ -8921,13 +8921,13 @@
         <v>1100</v>
       </c>
       <c r="D207" s="31">
-        <v>880</v>
+        <v>948</v>
       </c>
       <c r="E207" s="31">
-        <v>840</v>
+        <v>882</v>
       </c>
       <c r="F207" s="31">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G207" s="32">
         <v>23713</v>
@@ -8956,13 +8956,13 @@
         <v>1700</v>
       </c>
       <c r="D208" s="31">
-        <v>2358</v>
+        <v>2489</v>
       </c>
       <c r="E208" s="31">
-        <v>1885</v>
+        <v>1974</v>
       </c>
       <c r="F208" s="31">
-        <v>473</v>
+        <v>515</v>
       </c>
       <c r="G208" s="32">
         <v>51382</v>
@@ -8991,13 +8991,13 @@
         <v>200</v>
       </c>
       <c r="D209" s="31">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E209" s="31">
         <v>86</v>
       </c>
       <c r="F209" s="31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G209" s="32">
         <v>5108</v>
@@ -9026,13 +9026,13 @@
         <v>200</v>
       </c>
       <c r="D210" s="31">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E210" s="31">
         <v>113</v>
       </c>
       <c r="F210" s="31">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G210" s="32">
         <v>2184</v>
@@ -9061,13 +9061,13 @@
         <v>1875</v>
       </c>
       <c r="D211" s="31">
-        <v>630</v>
+        <v>655</v>
       </c>
       <c r="E211" s="31">
-        <v>620</v>
+        <v>639</v>
       </c>
       <c r="F211" s="31">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G211" s="32">
         <v>12956</v>
@@ -9096,10 +9096,10 @@
         <v>100</v>
       </c>
       <c r="D212" s="31">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E212" s="31">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F212" s="31">
         <v>21</v>
@@ -9131,13 +9131,13 @@
         <v>1200</v>
       </c>
       <c r="D213" s="31">
-        <v>714</v>
+        <v>751</v>
       </c>
       <c r="E213" s="31">
-        <v>688</v>
+        <v>716</v>
       </c>
       <c r="F213" s="31">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G213" s="32">
         <v>18618</v>
@@ -9166,13 +9166,13 @@
         <v>100</v>
       </c>
       <c r="D214" s="31">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="E214" s="31">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="F214" s="31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G214" s="32">
         <v>2368</v>
@@ -9201,13 +9201,13 @@
         <v>47600</v>
       </c>
       <c r="D215" s="31">
-        <v>20420</v>
+        <v>20649</v>
       </c>
       <c r="E215" s="31">
-        <v>16160</v>
+        <v>16251</v>
       </c>
       <c r="F215" s="31">
-        <v>4260</v>
+        <v>4398</v>
       </c>
       <c r="G215" s="32">
         <v>181426</v>
@@ -9236,13 +9236,13 @@
         <v>300</v>
       </c>
       <c r="D216" s="31">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E216" s="31">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F216" s="31">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G216" s="32">
         <v>7769</v>
@@ -9271,13 +9271,13 @@
         <v>3800</v>
       </c>
       <c r="D217" s="31">
-        <v>2993</v>
+        <v>3152</v>
       </c>
       <c r="E217" s="31">
-        <v>2319</v>
+        <v>2388</v>
       </c>
       <c r="F217" s="31">
-        <v>674</v>
+        <v>764</v>
       </c>
       <c r="G217" s="32">
         <v>46042</v>
@@ -9306,13 +9306,13 @@
         <v>300</v>
       </c>
       <c r="D218" s="31">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E218" s="31">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F218" s="31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G218" s="32">
         <v>7614</v>
@@ -9376,10 +9376,10 @@
         <v>200</v>
       </c>
       <c r="D220" s="31">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E220" s="31">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F220" s="31">
         <v>5</v>
@@ -9411,13 +9411,13 @@
         <v>200</v>
       </c>
       <c r="D221" s="31">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E221" s="31">
         <v>113</v>
       </c>
       <c r="F221" s="31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G221" s="32">
         <v>2909</v>
@@ -9446,13 +9446,13 @@
         <v>200</v>
       </c>
       <c r="D222" s="31">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="E222" s="31">
-        <v>469</v>
+        <v>503</v>
       </c>
       <c r="F222" s="31">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G222" s="32">
         <v>5843</v>
@@ -9481,13 +9481,13 @@
         <v>277725</v>
       </c>
       <c r="D223" s="31">
-        <v>100096</v>
+        <v>102978</v>
       </c>
       <c r="E223" s="31">
-        <v>90645</v>
+        <v>92668</v>
       </c>
       <c r="F223" s="31">
-        <v>9451</v>
+        <v>10310</v>
       </c>
       <c r="G223" s="32">
         <v>1596169</v>
@@ -9516,13 +9516,13 @@
         <v>16875</v>
       </c>
       <c r="D224" s="31">
-        <v>11529</v>
+        <v>11809</v>
       </c>
       <c r="E224" s="31">
-        <v>8517</v>
+        <v>8599</v>
       </c>
       <c r="F224" s="31">
-        <v>3012</v>
+        <v>3210</v>
       </c>
       <c r="G224" s="32">
         <v>108531</v>
@@ -9586,13 +9586,13 @@
         <v>2375</v>
       </c>
       <c r="D226" s="31">
-        <v>965</v>
+        <v>1013</v>
       </c>
       <c r="E226" s="31">
-        <v>815</v>
+        <v>827</v>
       </c>
       <c r="F226" s="31">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="G226" s="32">
         <v>9564</v>
@@ -9656,13 +9656,13 @@
         <v>2700</v>
       </c>
       <c r="D228" s="31">
-        <v>1157</v>
+        <v>1340</v>
       </c>
       <c r="E228" s="31">
-        <v>1047</v>
+        <v>1066</v>
       </c>
       <c r="F228" s="31">
-        <v>110</v>
+        <v>274</v>
       </c>
       <c r="G228" s="32">
         <v>25312</v>
@@ -9691,13 +9691,13 @@
         <v>16950</v>
       </c>
       <c r="D229" s="31">
-        <v>10831</v>
+        <v>10872</v>
       </c>
       <c r="E229" s="31">
-        <v>8365</v>
+        <v>8372</v>
       </c>
       <c r="F229" s="31">
-        <v>2466</v>
+        <v>2500</v>
       </c>
       <c r="G229" s="32">
         <v>93428</v>
@@ -9726,13 +9726,13 @@
         <v>150550</v>
       </c>
       <c r="D230" s="31">
-        <v>78240</v>
+        <v>81442</v>
       </c>
       <c r="E230" s="31">
-        <v>65050</v>
+        <v>66819</v>
       </c>
       <c r="F230" s="31">
-        <v>13190</v>
+        <v>14623</v>
       </c>
       <c r="G230" s="32">
         <v>1016090</v>
@@ -9761,13 +9761,13 @@
         <v>1775</v>
       </c>
       <c r="D231" s="31">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="E231" s="31">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="F231" s="31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G231" s="32">
         <v>12118</v>
@@ -9796,13 +9796,13 @@
         <v>1200</v>
       </c>
       <c r="D232" s="31">
-        <v>1041</v>
+        <v>1127</v>
       </c>
       <c r="E232" s="31">
-        <v>1030</v>
+        <v>1115</v>
       </c>
       <c r="F232" s="31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G232" s="32">
         <v>18704</v>
@@ -9831,13 +9831,13 @@
         <v>600</v>
       </c>
       <c r="D233" s="31">
-        <v>1318</v>
+        <v>1342</v>
       </c>
       <c r="E233" s="31">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="F233" s="31">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="G233" s="32">
         <v>33211</v>
@@ -9866,13 +9866,13 @@
         <v>400</v>
       </c>
       <c r="D234" s="31">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E234" s="31">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F234" s="31">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G234" s="32">
         <v>2790</v>
@@ -9901,13 +9901,13 @@
         <v>3750</v>
       </c>
       <c r="D235" s="31">
-        <v>2436</v>
+        <v>2628</v>
       </c>
       <c r="E235" s="31">
-        <v>2088</v>
+        <v>2231</v>
       </c>
       <c r="F235" s="31">
-        <v>348</v>
+        <v>397</v>
       </c>
       <c r="G235" s="32">
         <v>20809</v>
@@ -9936,13 +9936,13 @@
         <v>4050</v>
       </c>
       <c r="D236" s="31">
-        <v>2618</v>
+        <v>2911</v>
       </c>
       <c r="E236" s="31">
-        <v>2408</v>
+        <v>2491</v>
       </c>
       <c r="F236" s="31">
-        <v>210</v>
+        <v>420</v>
       </c>
       <c r="G236" s="32">
         <v>38039</v>
@@ -9971,13 +9971,13 @@
         <v>2000</v>
       </c>
       <c r="D237" s="31">
-        <v>2649</v>
+        <v>2754</v>
       </c>
       <c r="E237" s="31">
-        <v>2264</v>
+        <v>2310</v>
       </c>
       <c r="F237" s="31">
-        <v>385</v>
+        <v>444</v>
       </c>
       <c r="G237" s="32">
         <v>45144</v>
@@ -10006,13 +10006,13 @@
         <v>9175</v>
       </c>
       <c r="D238" s="31">
-        <v>6117</v>
+        <v>6192</v>
       </c>
       <c r="E238" s="31">
-        <v>4837</v>
+        <v>4895</v>
       </c>
       <c r="F238" s="31">
-        <v>1280</v>
+        <v>1297</v>
       </c>
       <c r="G238" s="32">
         <v>72004</v>
@@ -10041,13 +10041,13 @@
         <v>4000</v>
       </c>
       <c r="D239" s="31">
-        <v>2327</v>
+        <v>2406</v>
       </c>
       <c r="E239" s="31">
-        <v>2233</v>
+        <v>2277</v>
       </c>
       <c r="F239" s="31">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="G239" s="32">
         <v>64302</v>
@@ -10076,13 +10076,13 @@
         <v>1700</v>
       </c>
       <c r="D240" s="31">
-        <v>1168</v>
+        <v>1274</v>
       </c>
       <c r="E240" s="31">
-        <v>1063</v>
+        <v>1143</v>
       </c>
       <c r="F240" s="31">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="G240" s="32">
         <v>44163</v>
@@ -10111,13 +10111,13 @@
         <v>400</v>
       </c>
       <c r="D241" s="31">
-        <v>401</v>
+        <v>452</v>
       </c>
       <c r="E241" s="31">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F241" s="31">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="G241" s="32">
         <v>8544</v>
@@ -10146,13 +10146,13 @@
         <v>6200</v>
       </c>
       <c r="D242" s="31">
-        <v>1585</v>
+        <v>1625</v>
       </c>
       <c r="E242" s="31">
-        <v>1488</v>
+        <v>1522</v>
       </c>
       <c r="F242" s="31">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G242" s="32">
         <v>28737</v>
@@ -10181,13 +10181,13 @@
         <v>33500</v>
       </c>
       <c r="D243" s="31">
-        <v>14486</v>
+        <v>15456</v>
       </c>
       <c r="E243" s="31">
-        <v>12731</v>
+        <v>13235</v>
       </c>
       <c r="F243" s="31">
-        <v>1755</v>
+        <v>2221</v>
       </c>
       <c r="G243" s="32">
         <v>205887</v>
@@ -10216,13 +10216,13 @@
         <v>2100</v>
       </c>
       <c r="D244" s="31">
-        <v>1233</v>
+        <v>1273</v>
       </c>
       <c r="E244" s="31">
-        <v>1148</v>
+        <v>1172</v>
       </c>
       <c r="F244" s="31">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="G244" s="32">
         <v>31964</v>
@@ -10251,10 +10251,10 @@
         <v>400</v>
       </c>
       <c r="D245" s="31">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="E245" s="31">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F245" s="31">
         <v>3</v>
@@ -10286,13 +10286,13 @@
         <v>21600</v>
       </c>
       <c r="D246" s="31">
-        <v>11512</v>
+        <v>11909</v>
       </c>
       <c r="E246" s="31">
-        <v>9724</v>
+        <v>9993</v>
       </c>
       <c r="F246" s="31">
-        <v>1788</v>
+        <v>1916</v>
       </c>
       <c r="G246" s="32">
         <v>106550</v>
@@ -10321,13 +10321,13 @@
         <v>4700</v>
       </c>
       <c r="D247" s="31">
-        <v>1661</v>
+        <v>1718</v>
       </c>
       <c r="E247" s="31">
-        <v>1263</v>
+        <v>1269</v>
       </c>
       <c r="F247" s="31">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G247" s="32">
         <v>9933</v>
@@ -10356,13 +10356,13 @@
         <v>500</v>
       </c>
       <c r="D248" s="31">
-        <v>1409</v>
+        <v>1446</v>
       </c>
       <c r="E248" s="31">
-        <v>1319</v>
+        <v>1348</v>
       </c>
       <c r="F248" s="31">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G248" s="32">
         <v>16823</v>
@@ -10391,13 +10391,13 @@
         <v>44250</v>
       </c>
       <c r="D249" s="31">
-        <v>31620</v>
+        <v>33005</v>
       </c>
       <c r="E249" s="31">
-        <v>26632</v>
+        <v>27209</v>
       </c>
       <c r="F249" s="31">
-        <v>4988</v>
+        <v>5796</v>
       </c>
       <c r="G249" s="32">
         <v>457170</v>
@@ -10426,13 +10426,13 @@
         <v>3400</v>
       </c>
       <c r="D250" s="31">
-        <v>2999</v>
+        <v>3136</v>
       </c>
       <c r="E250" s="31">
-        <v>2454</v>
+        <v>2481</v>
       </c>
       <c r="F250" s="31">
-        <v>545</v>
+        <v>655</v>
       </c>
       <c r="G250" s="32">
         <v>42030</v>
@@ -10461,13 +10461,13 @@
         <v>200</v>
       </c>
       <c r="D251" s="31">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E251" s="31">
         <v>254</v>
       </c>
       <c r="F251" s="31">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G251" s="32">
         <v>5798</v>
@@ -10496,13 +10496,13 @@
         <v>5550</v>
       </c>
       <c r="D252" s="31">
-        <v>4260</v>
+        <v>4296</v>
       </c>
       <c r="E252" s="31">
-        <v>3358</v>
+        <v>3370</v>
       </c>
       <c r="F252" s="31">
-        <v>902</v>
+        <v>926</v>
       </c>
       <c r="G252" s="32">
         <v>55570</v>
@@ -10531,13 +10531,13 @@
         <v>1500</v>
       </c>
       <c r="D253" s="31">
-        <v>2290</v>
+        <v>2342</v>
       </c>
       <c r="E253" s="31">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="F253" s="31">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="G253" s="32">
         <v>37205</v>
@@ -10566,13 +10566,13 @@
         <v>600</v>
       </c>
       <c r="D254" s="31">
-        <v>518</v>
+        <v>590</v>
       </c>
       <c r="E254" s="31">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F254" s="31">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="G254" s="32">
         <v>6336</v>
@@ -10601,13 +10601,13 @@
         <v>1900</v>
       </c>
       <c r="D255" s="31">
-        <v>887</v>
+        <v>927</v>
       </c>
       <c r="E255" s="31">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="F255" s="31">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="G255" s="32">
         <v>15028</v>
@@ -10636,13 +10636,13 @@
         <v>700</v>
       </c>
       <c r="D256" s="31">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="E256" s="31">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="F256" s="31">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G256" s="32">
         <v>10088</v>
@@ -10671,13 +10671,13 @@
         <v>200</v>
       </c>
       <c r="D257" s="31">
-        <v>570</v>
+        <v>718</v>
       </c>
       <c r="E257" s="31">
-        <v>504</v>
+        <v>637</v>
       </c>
       <c r="F257" s="31">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="G257" s="32">
         <v>8768</v>
@@ -10706,13 +10706,13 @@
         <v>9775</v>
       </c>
       <c r="D258" s="31">
-        <v>187858</v>
+        <v>187901</v>
       </c>
       <c r="E258" s="31">
-        <v>161463</v>
+        <v>161131</v>
       </c>
       <c r="F258" s="31">
-        <v>26395</v>
+        <v>26770</v>
       </c>
       <c r="G258" s="32"/>
       <c r="H258" s="32"/>
@@ -10755,7 +10755,7 @@
     <col min="6" max="6" width="18.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="22" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>281</v>
       </c>
@@ -10786,13 +10786,13 @@
         <v>301</v>
       </c>
       <c r="D2" s="31">
-        <v>33599</v>
+        <v>33903</v>
       </c>
       <c r="E2" s="31">
-        <v>23650</v>
+        <v>23715</v>
       </c>
       <c r="F2" s="31">
-        <v>9949</v>
+        <v>10188</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -10806,13 +10806,13 @@
         <v>302</v>
       </c>
       <c r="D3" s="31">
-        <v>21719</v>
+        <v>21987</v>
       </c>
       <c r="E3" s="31">
-        <v>16350</v>
+        <v>16470</v>
       </c>
       <c r="F3" s="31">
-        <v>5369</v>
+        <v>5517</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -10826,13 +10826,13 @@
         <v>300</v>
       </c>
       <c r="D4" s="31">
-        <v>59853</v>
+        <v>60578</v>
       </c>
       <c r="E4" s="31">
-        <v>43671</v>
+        <v>44037</v>
       </c>
       <c r="F4" s="31">
-        <v>16182</v>
+        <v>16541</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -10846,13 +10846,13 @@
         <v>304</v>
       </c>
       <c r="D5" s="31">
-        <v>125009</v>
+        <v>127505</v>
       </c>
       <c r="E5" s="31">
-        <v>90819</v>
+        <v>91357</v>
       </c>
       <c r="F5" s="31">
-        <v>34190</v>
+        <v>36148</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -10866,13 +10866,13 @@
         <v>303</v>
       </c>
       <c r="D6" s="31">
-        <v>37969</v>
+        <v>38510</v>
       </c>
       <c r="E6" s="31">
-        <v>31143</v>
+        <v>31291</v>
       </c>
       <c r="F6" s="31">
-        <v>6826</v>
+        <v>7219</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -10886,13 +10886,13 @@
         <v>289</v>
       </c>
       <c r="D7" s="31">
-        <v>207282</v>
+        <v>214808</v>
       </c>
       <c r="E7" s="31">
-        <v>162907</v>
+        <v>166064</v>
       </c>
       <c r="F7" s="31">
-        <v>44375</v>
+        <v>48744</v>
       </c>
       <c r="O7" s="30"/>
     </row>
@@ -10907,13 +10907,13 @@
         <v>301</v>
       </c>
       <c r="D8" s="31">
-        <v>14408</v>
+        <v>14605</v>
       </c>
       <c r="E8" s="31">
-        <v>10805</v>
+        <v>10917</v>
       </c>
       <c r="F8" s="31">
-        <v>3603</v>
+        <v>3688</v>
       </c>
       <c r="O8" s="30"/>
     </row>
@@ -10928,13 +10928,13 @@
         <v>302</v>
       </c>
       <c r="D9" s="31">
-        <v>16375</v>
+        <v>16641</v>
       </c>
       <c r="E9" s="31">
-        <v>12658</v>
+        <v>12825</v>
       </c>
       <c r="F9" s="31">
-        <v>3717</v>
+        <v>3816</v>
       </c>
       <c r="O9" s="30"/>
     </row>
@@ -10949,13 +10949,13 @@
         <v>300</v>
       </c>
       <c r="D10" s="31">
-        <v>25409</v>
+        <v>25903</v>
       </c>
       <c r="E10" s="31">
-        <v>20073</v>
+        <v>20432</v>
       </c>
       <c r="F10" s="31">
-        <v>5336</v>
+        <v>5471</v>
       </c>
       <c r="O10" s="30"/>
     </row>
@@ -10970,13 +10970,13 @@
         <v>304</v>
       </c>
       <c r="D11" s="31">
-        <v>72833</v>
+        <v>74586</v>
       </c>
       <c r="E11" s="31">
-        <v>57212</v>
+        <v>57905</v>
       </c>
       <c r="F11" s="31">
-        <v>15621</v>
+        <v>16681</v>
       </c>
       <c r="O11" s="30"/>
     </row>
@@ -10991,13 +10991,13 @@
         <v>303</v>
       </c>
       <c r="D12" s="31">
-        <v>20989</v>
+        <v>21256</v>
       </c>
       <c r="E12" s="31">
-        <v>18059</v>
+        <v>18160</v>
       </c>
       <c r="F12" s="31">
-        <v>2930</v>
+        <v>3096</v>
       </c>
       <c r="O12" s="30"/>
     </row>
@@ -11012,13 +11012,13 @@
         <v>289</v>
       </c>
       <c r="D13" s="31">
-        <v>121286</v>
+        <v>126586</v>
       </c>
       <c r="E13" s="31">
-        <v>101572</v>
+        <v>104542</v>
       </c>
       <c r="F13" s="31">
-        <v>19714</v>
+        <v>22044</v>
       </c>
       <c r="O13" s="30"/>
     </row>
@@ -11033,13 +11033,13 @@
         <v>301</v>
       </c>
       <c r="D14" s="31">
-        <v>10494</v>
+        <v>10663</v>
       </c>
       <c r="E14" s="31">
-        <v>9695</v>
+        <v>9822</v>
       </c>
       <c r="F14" s="31">
-        <v>799</v>
+        <v>841</v>
       </c>
       <c r="O14" s="30"/>
     </row>
@@ -11054,13 +11054,13 @@
         <v>302</v>
       </c>
       <c r="D15" s="31">
-        <v>10011</v>
+        <v>10297</v>
       </c>
       <c r="E15" s="31">
-        <v>9411</v>
+        <v>9674</v>
       </c>
       <c r="F15" s="31">
-        <v>600</v>
+        <v>623</v>
       </c>
       <c r="O15" s="30"/>
     </row>
@@ -11075,13 +11075,13 @@
         <v>300</v>
       </c>
       <c r="D16" s="31">
-        <v>14687</v>
+        <v>15105</v>
       </c>
       <c r="E16" s="31">
-        <v>13559</v>
+        <v>13937</v>
       </c>
       <c r="F16" s="31">
-        <v>1128</v>
+        <v>1168</v>
       </c>
       <c r="O16" s="30"/>
     </row>
@@ -11096,13 +11096,13 @@
         <v>304</v>
       </c>
       <c r="D17" s="31">
-        <v>86786</v>
+        <v>89343</v>
       </c>
       <c r="E17" s="31">
-        <v>82337</v>
+        <v>84243</v>
       </c>
       <c r="F17" s="31">
-        <v>4449</v>
+        <v>5100</v>
       </c>
       <c r="O17" s="30"/>
     </row>
@@ -11117,13 +11117,13 @@
         <v>303</v>
       </c>
       <c r="D18" s="31">
-        <v>20514</v>
+        <v>20749</v>
       </c>
       <c r="E18" s="31">
-        <v>18902</v>
+        <v>19063</v>
       </c>
       <c r="F18" s="31">
-        <v>1612</v>
+        <v>1686</v>
       </c>
       <c r="O18" s="30"/>
     </row>
@@ -11138,13 +11138,13 @@
         <v>289</v>
       </c>
       <c r="D19" s="31">
-        <v>117733</v>
+        <v>123416</v>
       </c>
       <c r="E19" s="31">
-        <v>110527</v>
+        <v>114906</v>
       </c>
       <c r="F19" s="31">
-        <v>7206</v>
+        <v>8510</v>
       </c>
       <c r="O19" s="30"/>
     </row>
@@ -11159,13 +11159,13 @@
         <v>301</v>
       </c>
       <c r="D20" s="31">
-        <v>2120</v>
+        <v>2152</v>
       </c>
       <c r="E20" s="31">
-        <v>2039</v>
+        <v>2063</v>
       </c>
       <c r="F20" s="31">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="O20" s="30"/>
     </row>
@@ -11180,13 +11180,13 @@
         <v>302</v>
       </c>
       <c r="D21" s="31">
-        <v>2076</v>
+        <v>2163</v>
       </c>
       <c r="E21" s="31">
-        <v>2051</v>
+        <v>2135</v>
       </c>
       <c r="F21" s="31">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O21" s="30"/>
     </row>
@@ -11201,13 +11201,13 @@
         <v>300</v>
       </c>
       <c r="D22" s="31">
-        <v>3040</v>
+        <v>3137</v>
       </c>
       <c r="E22" s="31">
-        <v>2920</v>
+        <v>3009</v>
       </c>
       <c r="F22" s="31">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="O22" s="30"/>
     </row>
@@ -11222,13 +11222,13 @@
         <v>304</v>
       </c>
       <c r="D23" s="31">
-        <v>25039</v>
+        <v>25782</v>
       </c>
       <c r="E23" s="31">
-        <v>24343</v>
+        <v>24930</v>
       </c>
       <c r="F23" s="31">
-        <v>696</v>
+        <v>852</v>
       </c>
       <c r="O23" s="30"/>
     </row>
@@ -11243,13 +11243,13 @@
         <v>303</v>
       </c>
       <c r="D24" s="31">
-        <v>22460</v>
+        <v>22524</v>
       </c>
       <c r="E24" s="31">
-        <v>19951</v>
+        <v>19987</v>
       </c>
       <c r="F24" s="31">
-        <v>2509</v>
+        <v>2537</v>
       </c>
       <c r="O24" s="30"/>
     </row>
@@ -11264,13 +11264,13 @@
         <v>289</v>
       </c>
       <c r="D25" s="31">
-        <v>43301</v>
+        <v>45047</v>
       </c>
       <c r="E25" s="31">
-        <v>40717</v>
+        <v>42064</v>
       </c>
       <c r="F25" s="31">
-        <v>2584</v>
+        <v>2983</v>
       </c>
       <c r="O25" s="30"/>
     </row>
@@ -11348,10 +11348,10 @@
         <v>304</v>
       </c>
       <c r="D29" s="31">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E29" s="31">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F29" s="31">
         <v>4</v>
@@ -11390,13 +11390,13 @@
         <v>289</v>
       </c>
       <c r="D31" s="31">
-        <v>695</v>
+        <v>717</v>
       </c>
       <c r="E31" s="31">
-        <v>661</v>
+        <v>681</v>
       </c>
       <c r="F31" s="31">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O31" s="30"/>
     </row>
@@ -11411,13 +11411,13 @@
         <v>301</v>
       </c>
       <c r="D32" s="31">
-        <v>21870</v>
+        <v>22089</v>
       </c>
       <c r="E32" s="31">
-        <v>15517</v>
+        <v>15579</v>
       </c>
       <c r="F32" s="31">
-        <v>6353</v>
+        <v>6510</v>
       </c>
       <c r="O32" s="30"/>
     </row>
@@ -11432,13 +11432,13 @@
         <v>302</v>
       </c>
       <c r="D33" s="31">
-        <v>9276</v>
+        <v>9397</v>
       </c>
       <c r="E33" s="31">
-        <v>7091</v>
+        <v>7157</v>
       </c>
       <c r="F33" s="31">
-        <v>2185</v>
+        <v>2240</v>
       </c>
       <c r="O33" s="30"/>
     </row>
@@ -11453,13 +11453,13 @@
         <v>300</v>
       </c>
       <c r="D34" s="31">
-        <v>30515</v>
+        <v>30876</v>
       </c>
       <c r="E34" s="31">
-        <v>22631</v>
+        <v>22815</v>
       </c>
       <c r="F34" s="31">
-        <v>7884</v>
+        <v>8061</v>
       </c>
       <c r="O34" s="30"/>
     </row>
@@ -11474,13 +11474,13 @@
         <v>304</v>
       </c>
       <c r="D35" s="31">
-        <v>62232</v>
+        <v>63524</v>
       </c>
       <c r="E35" s="31">
-        <v>46575</v>
+        <v>46933</v>
       </c>
       <c r="F35" s="31">
-        <v>15657</v>
+        <v>16591</v>
       </c>
       <c r="O35" s="30"/>
     </row>
@@ -11495,13 +11495,13 @@
         <v>303</v>
       </c>
       <c r="D36" s="31">
-        <v>18160</v>
+        <v>18441</v>
       </c>
       <c r="E36" s="31">
-        <v>14726</v>
+        <v>14819</v>
       </c>
       <c r="F36" s="31">
-        <v>3434</v>
+        <v>3622</v>
       </c>
       <c r="O36" s="30"/>
     </row>
@@ -11516,13 +11516,13 @@
         <v>289</v>
       </c>
       <c r="D37" s="31">
-        <v>121655</v>
+        <v>126679</v>
       </c>
       <c r="E37" s="31">
-        <v>96818</v>
+        <v>99133</v>
       </c>
       <c r="F37" s="31">
-        <v>24837</v>
+        <v>27546</v>
       </c>
       <c r="O37" s="30"/>
     </row>
@@ -11537,13 +11537,13 @@
         <v>301</v>
       </c>
       <c r="D38" s="31">
-        <v>10046</v>
+        <v>10181</v>
       </c>
       <c r="E38" s="31">
-        <v>7761</v>
+        <v>7856</v>
       </c>
       <c r="F38" s="31">
-        <v>2285</v>
+        <v>2325</v>
       </c>
       <c r="O38" s="30"/>
     </row>
@@ -11558,13 +11558,13 @@
         <v>302</v>
       </c>
       <c r="D39" s="31">
-        <v>8278</v>
+        <v>8429</v>
       </c>
       <c r="E39" s="31">
-        <v>6725</v>
+        <v>6831</v>
       </c>
       <c r="F39" s="31">
-        <v>1553</v>
+        <v>1598</v>
       </c>
       <c r="O39" s="30"/>
     </row>
@@ -11579,13 +11579,13 @@
         <v>300</v>
       </c>
       <c r="D40" s="31">
-        <v>16049</v>
+        <v>16357</v>
       </c>
       <c r="E40" s="31">
-        <v>12955</v>
+        <v>13184</v>
       </c>
       <c r="F40" s="31">
-        <v>3094</v>
+        <v>3173</v>
       </c>
       <c r="O40" s="30"/>
     </row>
@@ -11600,13 +11600,13 @@
         <v>304</v>
       </c>
       <c r="D41" s="31">
-        <v>45331</v>
+        <v>46390</v>
       </c>
       <c r="E41" s="31">
-        <v>36786</v>
+        <v>37332</v>
       </c>
       <c r="F41" s="31">
-        <v>8545</v>
+        <v>9058</v>
       </c>
       <c r="O41" s="30"/>
     </row>
@@ -11621,13 +11621,13 @@
         <v>303</v>
       </c>
       <c r="D42" s="31">
-        <v>11389</v>
+        <v>11557</v>
       </c>
       <c r="E42" s="31">
-        <v>9767</v>
+        <v>9846</v>
       </c>
       <c r="F42" s="31">
-        <v>1622</v>
+        <v>1711</v>
       </c>
       <c r="O42" s="30"/>
     </row>
@@ -11642,13 +11642,13 @@
         <v>289</v>
       </c>
       <c r="D43" s="31">
-        <v>79762</v>
+        <v>83457</v>
       </c>
       <c r="E43" s="31">
-        <v>67653</v>
+        <v>69910</v>
       </c>
       <c r="F43" s="31">
-        <v>12109</v>
+        <v>13547</v>
       </c>
       <c r="O43" s="30"/>
     </row>
@@ -11663,13 +11663,13 @@
         <v>301</v>
       </c>
       <c r="D44" s="31">
-        <v>9413</v>
+        <v>9559</v>
       </c>
       <c r="E44" s="31">
-        <v>8736</v>
+        <v>8851</v>
       </c>
       <c r="F44" s="31">
-        <v>677</v>
+        <v>708</v>
       </c>
       <c r="O44" s="30"/>
     </row>
@@ -11684,13 +11684,13 @@
         <v>302</v>
       </c>
       <c r="D45" s="31">
-        <v>6487</v>
+        <v>6691</v>
       </c>
       <c r="E45" s="31">
-        <v>6157</v>
+        <v>6344</v>
       </c>
       <c r="F45" s="31">
-        <v>330</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -11704,13 +11704,13 @@
         <v>300</v>
       </c>
       <c r="D46" s="31">
-        <v>11305</v>
+        <v>11632</v>
       </c>
       <c r="E46" s="31">
-        <v>10423</v>
+        <v>10711</v>
       </c>
       <c r="F46" s="31">
-        <v>882</v>
+        <v>921</v>
       </c>
       <c r="O46" s="30"/>
     </row>
@@ -11725,13 +11725,13 @@
         <v>304</v>
       </c>
       <c r="D47" s="31">
-        <v>75065</v>
+        <v>77177</v>
       </c>
       <c r="E47" s="31">
-        <v>70916</v>
+        <v>72482</v>
       </c>
       <c r="F47" s="31">
-        <v>4149</v>
+        <v>4695</v>
       </c>
       <c r="O47" s="30"/>
     </row>
@@ -11746,13 +11746,13 @@
         <v>303</v>
       </c>
       <c r="D48" s="31">
-        <v>14700</v>
+        <v>14907</v>
       </c>
       <c r="E48" s="31">
-        <v>13581</v>
+        <v>13733</v>
       </c>
       <c r="F48" s="31">
-        <v>1119</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -11766,13 +11766,13 @@
         <v>289</v>
       </c>
       <c r="D49" s="31">
-        <v>98026</v>
+        <v>102689</v>
       </c>
       <c r="E49" s="31">
-        <v>91755</v>
+        <v>95378</v>
       </c>
       <c r="F49" s="31">
-        <v>6271</v>
+        <v>7311</v>
       </c>
       <c r="O49" s="30"/>
     </row>
@@ -11787,13 +11787,13 @@
         <v>301</v>
       </c>
       <c r="D50" s="31">
-        <v>1921</v>
+        <v>1952</v>
       </c>
       <c r="E50" s="31">
-        <v>1824</v>
+        <v>1847</v>
       </c>
       <c r="F50" s="31">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="O50" s="30"/>
     </row>
@@ -11808,13 +11808,13 @@
         <v>302</v>
       </c>
       <c r="D51" s="31">
-        <v>1139</v>
+        <v>1170</v>
       </c>
       <c r="E51" s="31">
-        <v>1117</v>
+        <v>1147</v>
       </c>
       <c r="F51" s="31">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -11828,13 +11828,13 @@
         <v>300</v>
       </c>
       <c r="D52" s="31">
-        <v>2042</v>
+        <v>2098</v>
       </c>
       <c r="E52" s="31">
-        <v>1941</v>
+        <v>1992</v>
       </c>
       <c r="F52" s="31">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="O52" s="30"/>
     </row>
@@ -11849,13 +11849,13 @@
         <v>304</v>
       </c>
       <c r="D53" s="31">
-        <v>20988</v>
+        <v>21500</v>
       </c>
       <c r="E53" s="31">
-        <v>20389</v>
+        <v>20765</v>
       </c>
       <c r="F53" s="31">
-        <v>599</v>
+        <v>735</v>
       </c>
       <c r="O53" s="30"/>
     </row>
@@ -11870,13 +11870,13 @@
         <v>303</v>
       </c>
       <c r="D54" s="31">
-        <v>9104</v>
+        <v>9138</v>
       </c>
       <c r="E54" s="31">
-        <v>8196</v>
+        <v>8222</v>
       </c>
       <c r="F54" s="31">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="O54" s="30"/>
     </row>
@@ -11891,13 +11891,13 @@
         <v>289</v>
       </c>
       <c r="D55" s="31">
-        <v>28525</v>
+        <v>29713</v>
       </c>
       <c r="E55" s="31">
-        <v>26891</v>
+        <v>27777</v>
       </c>
       <c r="F55" s="31">
-        <v>1634</v>
+        <v>1936</v>
       </c>
       <c r="O55" s="30"/>
     </row>
@@ -12016,13 +12016,13 @@
         <v>289</v>
       </c>
       <c r="D61" s="31">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="E61" s="31">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="F61" s="31">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O61" s="30"/>
     </row>
@@ -12040,10 +12040,10 @@
         <v>650</v>
       </c>
       <c r="E62" s="31">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F62" s="31">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O62" s="30"/>
     </row>
@@ -12061,10 +12061,10 @@
         <v>350</v>
       </c>
       <c r="E63" s="31">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F63" s="31">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -12078,13 +12078,13 @@
         <v>300</v>
       </c>
       <c r="D64" s="31">
-        <v>972</v>
+        <v>983</v>
       </c>
       <c r="E64" s="31">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="F64" s="31">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O64" s="30"/>
     </row>
@@ -12099,13 +12099,13 @@
         <v>304</v>
       </c>
       <c r="D65" s="31">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="E65" s="31">
-        <v>1777</v>
+        <v>1772</v>
       </c>
       <c r="F65" s="31">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="O65" s="30"/>
     </row>
@@ -12120,13 +12120,13 @@
         <v>303</v>
       </c>
       <c r="D66" s="31">
-        <v>1494</v>
+        <v>1501</v>
       </c>
       <c r="E66" s="31">
-        <v>1255</v>
+        <v>1260</v>
       </c>
       <c r="F66" s="31">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -12140,13 +12140,13 @@
         <v>289</v>
       </c>
       <c r="D67" s="31">
-        <v>2984</v>
+        <v>3049</v>
       </c>
       <c r="E67" s="31">
-        <v>2825</v>
+        <v>2842</v>
       </c>
       <c r="F67" s="31">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="O67" s="30"/>
     </row>
@@ -12161,10 +12161,10 @@
         <v>301</v>
       </c>
       <c r="D68" s="31">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="E68" s="31">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="F68" s="31">
         <v>42</v>
@@ -12202,13 +12202,13 @@
         <v>300</v>
       </c>
       <c r="D70" s="31">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="E70" s="31">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="F70" s="31">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O70" s="30"/>
     </row>
@@ -12223,13 +12223,13 @@
         <v>304</v>
       </c>
       <c r="D71" s="31">
-        <v>1650</v>
+        <v>1657</v>
       </c>
       <c r="E71" s="31">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="F71" s="31">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="O71" s="30"/>
     </row>
@@ -12244,10 +12244,10 @@
         <v>303</v>
       </c>
       <c r="D72" s="31">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E72" s="31">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="F72" s="31">
         <v>90</v>
@@ -12264,13 +12264,13 @@
         <v>289</v>
       </c>
       <c r="D73" s="31">
-        <v>3164</v>
+        <v>3198</v>
       </c>
       <c r="E73" s="31">
-        <v>3074</v>
+        <v>3089</v>
       </c>
       <c r="F73" s="31">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="O73" s="30"/>
     </row>
@@ -12285,10 +12285,10 @@
         <v>301</v>
       </c>
       <c r="D74" s="31">
-        <v>1193</v>
+        <v>1201</v>
       </c>
       <c r="E74" s="31">
-        <v>1177</v>
+        <v>1185</v>
       </c>
       <c r="F74" s="31">
         <v>16</v>
@@ -12306,10 +12306,10 @@
         <v>302</v>
       </c>
       <c r="D75" s="31">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E75" s="31">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F75" s="31">
         <v>5</v>
@@ -12327,10 +12327,10 @@
         <v>300</v>
       </c>
       <c r="D76" s="31">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="E76" s="31">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="F76" s="31">
         <v>7</v>
@@ -12348,13 +12348,13 @@
         <v>304</v>
       </c>
       <c r="D77" s="31">
-        <v>7423</v>
+        <v>7460</v>
       </c>
       <c r="E77" s="31">
-        <v>7336</v>
+        <v>7372</v>
       </c>
       <c r="F77" s="31">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O77" s="30"/>
     </row>
@@ -12369,10 +12369,10 @@
         <v>303</v>
       </c>
       <c r="D78" s="31">
-        <v>3005</v>
+        <v>3001</v>
       </c>
       <c r="E78" s="31">
-        <v>2967</v>
+        <v>2963</v>
       </c>
       <c r="F78" s="31">
         <v>38</v>
@@ -12390,13 +12390,13 @@
         <v>289</v>
       </c>
       <c r="D79" s="31">
-        <v>7219</v>
+        <v>7279</v>
       </c>
       <c r="E79" s="31">
-        <v>7167</v>
+        <v>7211</v>
       </c>
       <c r="F79" s="31">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -12410,10 +12410,10 @@
         <v>301</v>
       </c>
       <c r="D80" s="31">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E80" s="31">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F80" s="31">
         <v>2</v>
@@ -12430,10 +12430,10 @@
         <v>302</v>
       </c>
       <c r="D81" s="31">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E81" s="31">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F81" s="31">
         <v>1</v>
@@ -12470,10 +12470,10 @@
         <v>304</v>
       </c>
       <c r="D83" s="31">
+        <v>1331</v>
+      </c>
+      <c r="E83" s="31">
         <v>1320</v>
-      </c>
-      <c r="E83" s="31">
-        <v>1309</v>
       </c>
       <c r="F83" s="31">
         <v>11</v>
@@ -12490,10 +12490,10 @@
         <v>303</v>
       </c>
       <c r="D84" s="31">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E84" s="31">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F84" s="31">
         <v>1</v>
@@ -12510,13 +12510,13 @@
         <v>289</v>
       </c>
       <c r="D85" s="31">
-        <v>994</v>
+        <v>1017</v>
       </c>
       <c r="E85" s="31">
-        <v>989</v>
+        <v>1009</v>
       </c>
       <c r="F85" s="31">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -12630,13 +12630,13 @@
         <v>290</v>
       </c>
       <c r="D91" s="31">
-        <v>1868596</v>
+        <v>1923503</v>
       </c>
       <c r="E91" s="31">
-        <v>1571093</v>
+        <v>1603193</v>
       </c>
       <c r="F91" s="31">
-        <v>297503</v>
+        <v>320310</v>
       </c>
     </row>
   </sheetData>
@@ -12646,7 +12646,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C215"/>
+  <dimension ref="A1:C220"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -12699,7 +12699,7 @@
         <v>44181</v>
       </c>
       <c r="C4" s="30">
-        <v>12815</v>
+        <v>12817</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -12710,7 +12710,7 @@
         <v>44182</v>
       </c>
       <c r="C5" s="30">
-        <v>16030</v>
+        <v>16031</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -12721,7 +12721,7 @@
         <v>44183</v>
       </c>
       <c r="C6" s="30">
-        <v>24520</v>
+        <v>24524</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -12743,7 +12743,7 @@
         <v>44185</v>
       </c>
       <c r="C8" s="30">
-        <v>6373</v>
+        <v>6379</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -12754,7 +12754,7 @@
         <v>44186</v>
       </c>
       <c r="C9" s="30">
-        <v>18221</v>
+        <v>18219</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -12776,7 +12776,7 @@
         <v>44188</v>
       </c>
       <c r="C11" s="30">
-        <v>24300</v>
+        <v>24313</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -12787,7 +12787,7 @@
         <v>44189</v>
       </c>
       <c r="C12" s="30">
-        <v>10240</v>
+        <v>10241</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -12809,7 +12809,7 @@
         <v>44191</v>
       </c>
       <c r="C14" s="30">
-        <v>6576</v>
+        <v>6577</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -12831,7 +12831,7 @@
         <v>44193</v>
       </c>
       <c r="C16" s="30">
-        <v>25112</v>
+        <v>25146</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -12842,7 +12842,7 @@
         <v>44194</v>
       </c>
       <c r="C17" s="30">
-        <v>31712</v>
+        <v>31776</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -12853,7 +12853,7 @@
         <v>44195</v>
       </c>
       <c r="C18" s="30">
-        <v>35024</v>
+        <v>35062</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -12864,7 +12864,7 @@
         <v>44196</v>
       </c>
       <c r="C19" s="30">
-        <v>21462</v>
+        <v>21484</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -12875,7 +12875,7 @@
         <v>44197</v>
       </c>
       <c r="C20" s="30">
-        <v>2289</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -12886,7 +12886,7 @@
         <v>44198</v>
       </c>
       <c r="C21" s="30">
-        <v>9610</v>
+        <v>9617</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -12908,7 +12908,7 @@
         <v>44200</v>
       </c>
       <c r="C23" s="30">
-        <v>23604</v>
+        <v>23623</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -12919,7 +12919,7 @@
         <v>44201</v>
       </c>
       <c r="C24" s="30">
-        <v>27588</v>
+        <v>27610</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -12930,7 +12930,7 @@
         <v>44202</v>
       </c>
       <c r="C25" s="30">
-        <v>35410</v>
+        <v>35420</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -12941,7 +12941,7 @@
         <v>44203</v>
       </c>
       <c r="C26" s="30">
-        <v>40286</v>
+        <v>40298</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -12952,7 +12952,7 @@
         <v>44204</v>
       </c>
       <c r="C27" s="30">
-        <v>42974</v>
+        <v>43001</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -12963,7 +12963,7 @@
         <v>44205</v>
       </c>
       <c r="C28" s="30">
-        <v>18015</v>
+        <v>18062</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -12985,7 +12985,7 @@
         <v>44207</v>
       </c>
       <c r="C30" s="30">
-        <v>27448</v>
+        <v>27715</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -12996,7 +12996,7 @@
         <v>44208</v>
       </c>
       <c r="C31" s="30">
-        <v>27548</v>
+        <v>27568</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -13007,7 +13007,7 @@
         <v>44209</v>
       </c>
       <c r="C32" s="30">
-        <v>26423</v>
+        <v>26452</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -13018,7 +13018,7 @@
         <v>44210</v>
       </c>
       <c r="C33" s="30">
-        <v>20536</v>
+        <v>20579</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -13029,7 +13029,7 @@
         <v>44211</v>
       </c>
       <c r="C34" s="30">
-        <v>21134</v>
+        <v>21221</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -13040,7 +13040,7 @@
         <v>44212</v>
       </c>
       <c r="C35" s="30">
-        <v>11175</v>
+        <v>11192</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -13051,7 +13051,7 @@
         <v>44213</v>
       </c>
       <c r="C36" s="30">
-        <v>2576</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -13062,7 +13062,7 @@
         <v>44214</v>
       </c>
       <c r="C37" s="30">
-        <v>11543</v>
+        <v>11560</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -13073,7 +13073,7 @@
         <v>44215</v>
       </c>
       <c r="C38" s="30">
-        <v>20013</v>
+        <v>20086</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -13084,7 +13084,7 @@
         <v>44216</v>
       </c>
       <c r="C39" s="30">
-        <v>25948</v>
+        <v>26089</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -13095,7 +13095,7 @@
         <v>44217</v>
       </c>
       <c r="C40" s="30">
-        <v>23186</v>
+        <v>23489</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -13106,7 +13106,7 @@
         <v>44218</v>
       </c>
       <c r="C41" s="30">
-        <v>28161</v>
+        <v>28501</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -13117,7 +13117,7 @@
         <v>44219</v>
       </c>
       <c r="C42" s="30">
-        <v>13604</v>
+        <v>13890</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -13128,7 +13128,7 @@
         <v>44220</v>
       </c>
       <c r="C43" s="30">
-        <v>2774</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -13139,18 +13139,18 @@
         <v>44221</v>
       </c>
       <c r="C44" s="30">
-        <v>9328</v>
+        <v>14484</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B45" s="36">
-        <v>44179</v>
-      </c>
-      <c r="C45" s="23">
-        <v>139</v>
+        <v>44222</v>
+      </c>
+      <c r="C45" s="30">
+        <v>12046</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -13158,10 +13158,10 @@
         <v>286</v>
       </c>
       <c r="B46" s="36">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="C46" s="30">
-        <v>1500</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -13169,10 +13169,10 @@
         <v>286</v>
       </c>
       <c r="B47" s="36">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="C47" s="30">
-        <v>4981</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -13180,10 +13180,10 @@
         <v>286</v>
       </c>
       <c r="B48" s="36">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="C48" s="30">
-        <v>6663</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -13191,10 +13191,10 @@
         <v>286</v>
       </c>
       <c r="B49" s="36">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="C49" s="30">
-        <v>10710</v>
+        <v>6666</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -13202,10 +13202,10 @@
         <v>286</v>
       </c>
       <c r="B50" s="36">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="C50" s="30">
-        <v>4544</v>
+        <v>10714</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -13213,10 +13213,10 @@
         <v>286</v>
       </c>
       <c r="B51" s="36">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="C51" s="30">
-        <v>2378</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -13224,10 +13224,10 @@
         <v>286</v>
       </c>
       <c r="B52" s="36">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="C52" s="30">
-        <v>7755</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -13235,10 +13235,10 @@
         <v>286</v>
       </c>
       <c r="B53" s="36">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="C53" s="30">
-        <v>7265</v>
+        <v>7754</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -13246,10 +13246,10 @@
         <v>286</v>
       </c>
       <c r="B54" s="36">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="C54" s="30">
-        <v>10617</v>
+        <v>7266</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -13257,10 +13257,10 @@
         <v>286</v>
       </c>
       <c r="B55" s="36">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="C55" s="30">
-        <v>4617</v>
+        <v>10628</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -13268,10 +13268,10 @@
         <v>286</v>
       </c>
       <c r="B56" s="36">
-        <v>44190</v>
-      </c>
-      <c r="C56" s="23">
-        <v>663</v>
+        <v>44189</v>
+      </c>
+      <c r="C56" s="30">
+        <v>4620</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -13279,10 +13279,10 @@
         <v>286</v>
       </c>
       <c r="B57" s="36">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="C57" s="30">
-        <v>3138</v>
+        <v>663</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -13290,10 +13290,10 @@
         <v>286</v>
       </c>
       <c r="B58" s="36">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="C58" s="30">
-        <v>2189</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -13301,10 +13301,10 @@
         <v>286</v>
       </c>
       <c r="B59" s="36">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="C59" s="30">
-        <v>12682</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -13312,10 +13312,10 @@
         <v>286</v>
       </c>
       <c r="B60" s="36">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="C60" s="30">
-        <v>16693</v>
+        <v>12689</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -13323,10 +13323,10 @@
         <v>286</v>
       </c>
       <c r="B61" s="36">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="C61" s="30">
-        <v>19527</v>
+        <v>16742</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -13334,10 +13334,10 @@
         <v>286</v>
       </c>
       <c r="B62" s="36">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="C62" s="30">
-        <v>12480</v>
+        <v>19544</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -13345,10 +13345,10 @@
         <v>286</v>
       </c>
       <c r="B63" s="36">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="C63" s="30">
-        <v>1151</v>
+        <v>12485</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -13356,10 +13356,10 @@
         <v>286</v>
       </c>
       <c r="B64" s="36">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="C64" s="30">
-        <v>5512</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -13367,10 +13367,10 @@
         <v>286</v>
       </c>
       <c r="B65" s="36">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="C65" s="30">
-        <v>3240</v>
+        <v>5518</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -13378,10 +13378,10 @@
         <v>286</v>
       </c>
       <c r="B66" s="36">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="C66" s="30">
-        <v>14601</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -13389,10 +13389,10 @@
         <v>286</v>
       </c>
       <c r="B67" s="36">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="C67" s="30">
-        <v>16320</v>
+        <v>14619</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -13400,10 +13400,10 @@
         <v>286</v>
       </c>
       <c r="B68" s="36">
-        <v>44202</v>
+        <v>44201</v>
       </c>
       <c r="C68" s="30">
-        <v>19706</v>
+        <v>16343</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -13411,10 +13411,10 @@
         <v>286</v>
       </c>
       <c r="B69" s="36">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="C69" s="30">
-        <v>22551</v>
+        <v>19709</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -13422,10 +13422,10 @@
         <v>286</v>
       </c>
       <c r="B70" s="36">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="C70" s="30">
-        <v>24012</v>
+        <v>22559</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -13433,10 +13433,10 @@
         <v>286</v>
       </c>
       <c r="B71" s="36">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="C71" s="30">
-        <v>10417</v>
+        <v>24020</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -13444,10 +13444,10 @@
         <v>286</v>
       </c>
       <c r="B72" s="36">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="C72" s="30">
-        <v>4342</v>
+        <v>10432</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -13455,10 +13455,10 @@
         <v>286</v>
       </c>
       <c r="B73" s="36">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="C73" s="30">
-        <v>17226</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -13466,10 +13466,10 @@
         <v>286</v>
       </c>
       <c r="B74" s="36">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="C74" s="30">
-        <v>18379</v>
+        <v>17424</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -13477,10 +13477,10 @@
         <v>286</v>
       </c>
       <c r="B75" s="36">
-        <v>44209</v>
+        <v>44208</v>
       </c>
       <c r="C75" s="30">
-        <v>18953</v>
+        <v>18383</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -13488,10 +13488,10 @@
         <v>286</v>
       </c>
       <c r="B76" s="36">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="C76" s="30">
-        <v>16108</v>
+        <v>18965</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -13499,10 +13499,10 @@
         <v>286</v>
       </c>
       <c r="B77" s="36">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="C77" s="30">
-        <v>15527</v>
+        <v>16160</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -13510,10 +13510,10 @@
         <v>286</v>
       </c>
       <c r="B78" s="36">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="C78" s="30">
-        <v>9390</v>
+        <v>15602</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -13521,10 +13521,10 @@
         <v>286</v>
       </c>
       <c r="B79" s="36">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="C79" s="30">
-        <v>1641</v>
+        <v>9426</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -13532,10 +13532,10 @@
         <v>286</v>
       </c>
       <c r="B80" s="36">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="C80" s="30">
-        <v>8287</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -13543,10 +13543,10 @@
         <v>286</v>
       </c>
       <c r="B81" s="36">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="C81" s="30">
-        <v>15519</v>
+        <v>8310</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -13554,10 +13554,10 @@
         <v>286</v>
       </c>
       <c r="B82" s="36">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="C82" s="30">
-        <v>19521</v>
+        <v>15600</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -13565,10 +13565,10 @@
         <v>286</v>
       </c>
       <c r="B83" s="36">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="C83" s="30">
-        <v>18658</v>
+        <v>19748</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -13576,10 +13576,10 @@
         <v>286</v>
       </c>
       <c r="B84" s="36">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="C84" s="30">
-        <v>19924</v>
+        <v>18930</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -13587,10 +13587,10 @@
         <v>286</v>
       </c>
       <c r="B85" s="36">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="C85" s="30">
-        <v>10133</v>
+        <v>20232</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -13598,10 +13598,10 @@
         <v>286</v>
       </c>
       <c r="B86" s="36">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="C86" s="30">
-        <v>1970</v>
+        <v>10382</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -13609,32 +13609,32 @@
         <v>286</v>
       </c>
       <c r="B87" s="36">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="C87" s="30">
-        <v>7340</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B88" s="36">
-        <v>44179</v>
-      </c>
-      <c r="C88" s="23">
-        <v>24</v>
+        <v>44221</v>
+      </c>
+      <c r="C88" s="30">
+        <v>10394</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B89" s="36">
-        <v>44180</v>
-      </c>
-      <c r="C89" s="23">
-        <v>307</v>
+        <v>44222</v>
+      </c>
+      <c r="C89" s="30">
+        <v>9010</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -13642,10 +13642,10 @@
         <v>287</v>
       </c>
       <c r="B90" s="36">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="C90" s="30">
-        <v>955</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -13653,10 +13653,10 @@
         <v>287</v>
       </c>
       <c r="B91" s="36">
-        <v>44182</v>
+        <v>44180</v>
       </c>
       <c r="C91" s="30">
-        <v>1436</v>
+        <v>307</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -13664,10 +13664,10 @@
         <v>287</v>
       </c>
       <c r="B92" s="36">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="C92" s="30">
-        <v>2001</v>
+        <v>955</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -13675,10 +13675,10 @@
         <v>287</v>
       </c>
       <c r="B93" s="36">
-        <v>44184</v>
-      </c>
-      <c r="C93" s="23">
-        <v>983</v>
+        <v>44182</v>
+      </c>
+      <c r="C93" s="30">
+        <v>1436</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -13686,10 +13686,10 @@
         <v>287</v>
       </c>
       <c r="B94" s="36">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="C94" s="30">
-        <v>476</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -13697,10 +13697,10 @@
         <v>287</v>
       </c>
       <c r="B95" s="36">
-        <v>44186</v>
+        <v>44184</v>
       </c>
       <c r="C95" s="30">
-        <v>1470</v>
+        <v>983</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -13708,10 +13708,10 @@
         <v>287</v>
       </c>
       <c r="B96" s="36">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="C96" s="30">
-        <v>2046</v>
+        <v>476</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -13719,10 +13719,10 @@
         <v>287</v>
       </c>
       <c r="B97" s="36">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="C97" s="30">
-        <v>2856</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -13730,10 +13730,10 @@
         <v>287</v>
       </c>
       <c r="B98" s="36">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="C98" s="30">
-        <v>1876</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -13741,10 +13741,10 @@
         <v>287</v>
       </c>
       <c r="B99" s="36">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="C99" s="30">
-        <v>323</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -13752,10 +13752,10 @@
         <v>287</v>
       </c>
       <c r="B100" s="36">
-        <v>44191</v>
+        <v>44189</v>
       </c>
       <c r="C100" s="30">
-        <v>1703</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -13763,10 +13763,10 @@
         <v>287</v>
       </c>
       <c r="B101" s="36">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="C101" s="30">
-        <v>1110</v>
+        <v>323</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -13774,10 +13774,10 @@
         <v>287</v>
       </c>
       <c r="B102" s="36">
-        <v>44193</v>
+        <v>44191</v>
       </c>
       <c r="C102" s="30">
-        <v>6474</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -13785,10 +13785,10 @@
         <v>287</v>
       </c>
       <c r="B103" s="36">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="C103" s="30">
-        <v>10513</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -13796,10 +13796,10 @@
         <v>287</v>
       </c>
       <c r="B104" s="36">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="C104" s="30">
-        <v>16250</v>
+        <v>6488</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -13807,10 +13807,10 @@
         <v>287</v>
       </c>
       <c r="B105" s="36">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="C105" s="30">
-        <v>10597</v>
+        <v>10552</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -13818,10 +13818,10 @@
         <v>287</v>
       </c>
       <c r="B106" s="36">
-        <v>44197</v>
+        <v>44195</v>
       </c>
       <c r="C106" s="30">
-        <v>1273</v>
+        <v>16271</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -13829,10 +13829,10 @@
         <v>287</v>
       </c>
       <c r="B107" s="36">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="C107" s="30">
-        <v>5941</v>
+        <v>10611</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -13840,10 +13840,10 @@
         <v>287</v>
       </c>
       <c r="B108" s="36">
-        <v>44199</v>
+        <v>44197</v>
       </c>
       <c r="C108" s="30">
-        <v>3416</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -13851,10 +13851,10 @@
         <v>287</v>
       </c>
       <c r="B109" s="36">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="C109" s="30">
-        <v>15915</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -13862,10 +13862,10 @@
         <v>287</v>
       </c>
       <c r="B110" s="36">
-        <v>44201</v>
+        <v>44199</v>
       </c>
       <c r="C110" s="30">
-        <v>17939</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -13873,10 +13873,10 @@
         <v>287</v>
       </c>
       <c r="B111" s="36">
-        <v>44202</v>
+        <v>44200</v>
       </c>
       <c r="C111" s="30">
-        <v>19870</v>
+        <v>15925</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -13884,10 +13884,10 @@
         <v>287</v>
       </c>
       <c r="B112" s="36">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="C112" s="30">
-        <v>23937</v>
+        <v>17955</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -13895,10 +13895,10 @@
         <v>287</v>
       </c>
       <c r="B113" s="36">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="C113" s="30">
-        <v>24075</v>
+        <v>19874</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -13906,10 +13906,10 @@
         <v>287</v>
       </c>
       <c r="B114" s="36">
-        <v>44205</v>
+        <v>44203</v>
       </c>
       <c r="C114" s="30">
-        <v>13903</v>
+        <v>23950</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -13917,10 +13917,10 @@
         <v>287</v>
       </c>
       <c r="B115" s="36">
-        <v>44206</v>
+        <v>44204</v>
       </c>
       <c r="C115" s="30">
-        <v>4368</v>
+        <v>24091</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -13928,10 +13928,10 @@
         <v>287</v>
       </c>
       <c r="B116" s="36">
-        <v>44207</v>
+        <v>44205</v>
       </c>
       <c r="C116" s="30">
-        <v>22562</v>
+        <v>13906</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -13939,10 +13939,10 @@
         <v>287</v>
       </c>
       <c r="B117" s="36">
-        <v>44208</v>
+        <v>44206</v>
       </c>
       <c r="C117" s="30">
-        <v>26139</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -13950,10 +13950,10 @@
         <v>287</v>
       </c>
       <c r="B118" s="36">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="C118" s="30">
-        <v>28089</v>
+        <v>22716</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -13961,10 +13961,10 @@
         <v>287</v>
       </c>
       <c r="B119" s="36">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="C119" s="30">
-        <v>31638</v>
+        <v>26148</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -13972,10 +13972,10 @@
         <v>287</v>
       </c>
       <c r="B120" s="36">
-        <v>44211</v>
+        <v>44209</v>
       </c>
       <c r="C120" s="30">
-        <v>26541</v>
+        <v>28133</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -13983,10 +13983,10 @@
         <v>287</v>
       </c>
       <c r="B121" s="36">
-        <v>44212</v>
+        <v>44210</v>
       </c>
       <c r="C121" s="30">
-        <v>22437</v>
+        <v>31712</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -13994,10 +13994,10 @@
         <v>287</v>
       </c>
       <c r="B122" s="36">
-        <v>44213</v>
+        <v>44211</v>
       </c>
       <c r="C122" s="30">
-        <v>6655</v>
+        <v>27044</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -14005,10 +14005,10 @@
         <v>287</v>
       </c>
       <c r="B123" s="36">
-        <v>44214</v>
+        <v>44212</v>
       </c>
       <c r="C123" s="30">
-        <v>11626</v>
+        <v>22550</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -14016,10 +14016,10 @@
         <v>287</v>
       </c>
       <c r="B124" s="36">
-        <v>44215</v>
+        <v>44213</v>
       </c>
       <c r="C124" s="30">
-        <v>20001</v>
+        <v>6655</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -14027,10 +14027,10 @@
         <v>287</v>
       </c>
       <c r="B125" s="36">
-        <v>44216</v>
+        <v>44214</v>
       </c>
       <c r="C125" s="30">
-        <v>25810</v>
+        <v>11644</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -14038,10 +14038,10 @@
         <v>287</v>
       </c>
       <c r="B126" s="36">
-        <v>44217</v>
+        <v>44215</v>
       </c>
       <c r="C126" s="30">
-        <v>28783</v>
+        <v>20094</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -14049,10 +14049,10 @@
         <v>287</v>
       </c>
       <c r="B127" s="36">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="C127" s="30">
-        <v>24764</v>
+        <v>26467</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -14060,10 +14060,10 @@
         <v>287</v>
       </c>
       <c r="B128" s="36">
-        <v>44219</v>
+        <v>44217</v>
       </c>
       <c r="C128" s="30">
-        <v>17439</v>
+        <v>29124</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -14071,10 +14071,10 @@
         <v>287</v>
       </c>
       <c r="B129" s="36">
-        <v>44220</v>
+        <v>44218</v>
       </c>
       <c r="C129" s="30">
-        <v>2517</v>
+        <v>25198</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -14082,43 +14082,43 @@
         <v>287</v>
       </c>
       <c r="B130" s="36">
-        <v>44221</v>
+        <v>44219</v>
       </c>
       <c r="C130" s="30">
-        <v>8479</v>
+        <v>17985</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B131" s="36">
-        <v>44179</v>
-      </c>
-      <c r="C131" s="23">
-        <v>1</v>
+        <v>44220</v>
+      </c>
+      <c r="C131" s="30">
+        <v>2620</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B132" s="36">
-        <v>44180</v>
-      </c>
-      <c r="C132" s="23">
-        <v>5</v>
+        <v>44221</v>
+      </c>
+      <c r="C132" s="30">
+        <v>10984</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B133" s="36">
-        <v>44181</v>
-      </c>
-      <c r="C133" s="23">
-        <v>34</v>
+        <v>44222</v>
+      </c>
+      <c r="C133" s="30">
+        <v>11349</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -14126,10 +14126,10 @@
         <v>288</v>
       </c>
       <c r="B134" s="36">
-        <v>44182</v>
+        <v>44179</v>
       </c>
       <c r="C134" s="23">
-        <v>69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -14137,10 +14137,10 @@
         <v>288</v>
       </c>
       <c r="B135" s="36">
-        <v>44183</v>
+        <v>44180</v>
       </c>
       <c r="C135" s="23">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -14148,10 +14148,10 @@
         <v>288</v>
       </c>
       <c r="B136" s="36">
-        <v>44184</v>
+        <v>44181</v>
       </c>
       <c r="C136" s="23">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -14159,10 +14159,10 @@
         <v>288</v>
       </c>
       <c r="B137" s="36">
-        <v>44185</v>
+        <v>44182</v>
       </c>
       <c r="C137" s="23">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -14170,10 +14170,10 @@
         <v>288</v>
       </c>
       <c r="B138" s="36">
-        <v>44186</v>
+        <v>44183</v>
       </c>
       <c r="C138" s="23">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -14181,10 +14181,10 @@
         <v>288</v>
       </c>
       <c r="B139" s="36">
-        <v>44187</v>
+        <v>44184</v>
       </c>
       <c r="C139" s="23">
-        <v>157</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -14192,10 +14192,10 @@
         <v>288</v>
       </c>
       <c r="B140" s="36">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="C140" s="23">
-        <v>573</v>
+        <v>88</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -14203,10 +14203,10 @@
         <v>288</v>
       </c>
       <c r="B141" s="36">
-        <v>44189</v>
+        <v>44186</v>
       </c>
       <c r="C141" s="23">
-        <v>400</v>
+        <v>53</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -14214,10 +14214,10 @@
         <v>288</v>
       </c>
       <c r="B142" s="36">
-        <v>44190</v>
+        <v>44187</v>
       </c>
       <c r="C142" s="23">
-        <v>57</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -14225,10 +14225,10 @@
         <v>288</v>
       </c>
       <c r="B143" s="36">
-        <v>44191</v>
+        <v>44188</v>
       </c>
       <c r="C143" s="23">
-        <v>505</v>
+        <v>575</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -14236,10 +14236,10 @@
         <v>288</v>
       </c>
       <c r="B144" s="36">
-        <v>44192</v>
+        <v>44189</v>
       </c>
       <c r="C144" s="30">
-        <v>367</v>
+        <v>399</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -14247,10 +14247,10 @@
         <v>288</v>
       </c>
       <c r="B145" s="36">
-        <v>44193</v>
+        <v>44190</v>
       </c>
       <c r="C145" s="30">
-        <v>2623</v>
+        <v>57</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -14258,10 +14258,10 @@
         <v>288</v>
       </c>
       <c r="B146" s="36">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="C146" s="30">
-        <v>5423</v>
+        <v>506</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -14269,10 +14269,10 @@
         <v>288</v>
       </c>
       <c r="B147" s="36">
-        <v>44195</v>
+        <v>44192</v>
       </c>
       <c r="C147" s="30">
-        <v>6948</v>
+        <v>367</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -14280,10 +14280,10 @@
         <v>288</v>
       </c>
       <c r="B148" s="36">
-        <v>44196</v>
+        <v>44193</v>
       </c>
       <c r="C148" s="30">
-        <v>3155</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -14291,10 +14291,10 @@
         <v>288</v>
       </c>
       <c r="B149" s="36">
-        <v>44197</v>
+        <v>44194</v>
       </c>
       <c r="C149" s="30">
-        <v>388</v>
+        <v>5434</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -14302,10 +14302,10 @@
         <v>288</v>
       </c>
       <c r="B150" s="36">
-        <v>44198</v>
+        <v>44195</v>
       </c>
       <c r="C150" s="30">
-        <v>1998</v>
+        <v>6962</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -14313,10 +14313,10 @@
         <v>288</v>
       </c>
       <c r="B151" s="36">
-        <v>44199</v>
+        <v>44196</v>
       </c>
       <c r="C151" s="30">
-        <v>1216</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -14324,10 +14324,10 @@
         <v>288</v>
       </c>
       <c r="B152" s="36">
-        <v>44200</v>
+        <v>44197</v>
       </c>
       <c r="C152" s="30">
-        <v>6505</v>
+        <v>389</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -14335,10 +14335,10 @@
         <v>288</v>
       </c>
       <c r="B153" s="36">
-        <v>44201</v>
+        <v>44198</v>
       </c>
       <c r="C153" s="30">
-        <v>5635</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -14346,10 +14346,10 @@
         <v>288</v>
       </c>
       <c r="B154" s="36">
-        <v>44202</v>
+        <v>44199</v>
       </c>
       <c r="C154" s="30">
-        <v>7355</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -14357,10 +14357,10 @@
         <v>288</v>
       </c>
       <c r="B155" s="36">
-        <v>44203</v>
+        <v>44200</v>
       </c>
       <c r="C155" s="30">
-        <v>9261</v>
+        <v>6509</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -14368,10 +14368,10 @@
         <v>288</v>
       </c>
       <c r="B156" s="36">
-        <v>44204</v>
+        <v>44201</v>
       </c>
       <c r="C156" s="30">
-        <v>8460</v>
+        <v>5638</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -14379,10 +14379,10 @@
         <v>288</v>
       </c>
       <c r="B157" s="36">
-        <v>44205</v>
+        <v>44202</v>
       </c>
       <c r="C157" s="30">
-        <v>4715</v>
+        <v>7357</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -14390,10 +14390,10 @@
         <v>288</v>
       </c>
       <c r="B158" s="36">
-        <v>44206</v>
+        <v>44203</v>
       </c>
       <c r="C158" s="30">
-        <v>1379</v>
+        <v>9262</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -14401,10 +14401,10 @@
         <v>288</v>
       </c>
       <c r="B159" s="36">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="C159" s="30">
-        <v>8165</v>
+        <v>8467</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -14412,10 +14412,10 @@
         <v>288</v>
       </c>
       <c r="B160" s="36">
-        <v>44208</v>
+        <v>44205</v>
       </c>
       <c r="C160" s="30">
-        <v>8670</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -14423,10 +14423,10 @@
         <v>288</v>
       </c>
       <c r="B161" s="36">
-        <v>44209</v>
+        <v>44206</v>
       </c>
       <c r="C161" s="30">
-        <v>11059</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -14434,10 +14434,10 @@
         <v>288</v>
       </c>
       <c r="B162" s="36">
-        <v>44210</v>
+        <v>44207</v>
       </c>
       <c r="C162" s="30">
-        <v>11061</v>
+        <v>8203</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -14445,10 +14445,10 @@
         <v>288</v>
       </c>
       <c r="B163" s="36">
-        <v>44211</v>
+        <v>44208</v>
       </c>
       <c r="C163" s="30">
-        <v>7706</v>
+        <v>8673</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -14456,10 +14456,10 @@
         <v>288</v>
       </c>
       <c r="B164" s="36">
-        <v>44212</v>
+        <v>44209</v>
       </c>
       <c r="C164" s="30">
-        <v>4495</v>
+        <v>11076</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -14467,10 +14467,10 @@
         <v>288</v>
       </c>
       <c r="B165" s="36">
-        <v>44213</v>
+        <v>44210</v>
       </c>
       <c r="C165" s="30">
-        <v>1659</v>
+        <v>11106</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -14478,10 +14478,10 @@
         <v>288</v>
       </c>
       <c r="B166" s="36">
-        <v>44214</v>
+        <v>44211</v>
       </c>
       <c r="C166" s="30">
-        <v>4920</v>
+        <v>7944</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -14489,10 +14489,10 @@
         <v>288</v>
       </c>
       <c r="B167" s="36">
-        <v>44215</v>
+        <v>44212</v>
       </c>
       <c r="C167" s="30">
-        <v>7497</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -14500,10 +14500,10 @@
         <v>288</v>
       </c>
       <c r="B168" s="36">
-        <v>44216</v>
+        <v>44213</v>
       </c>
       <c r="C168" s="30">
-        <v>8987</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -14511,10 +14511,10 @@
         <v>288</v>
       </c>
       <c r="B169" s="36">
-        <v>44217</v>
+        <v>44214</v>
       </c>
       <c r="C169" s="30">
-        <v>8482</v>
+        <v>4923</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -14522,10 +14522,10 @@
         <v>288</v>
       </c>
       <c r="B170" s="36">
-        <v>44218</v>
+        <v>44215</v>
       </c>
       <c r="C170" s="30">
-        <v>6949</v>
+        <v>7505</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -14533,10 +14533,10 @@
         <v>288</v>
       </c>
       <c r="B171" s="36">
-        <v>44219</v>
+        <v>44216</v>
       </c>
       <c r="C171" s="30">
-        <v>4900</v>
+        <v>9102</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -14544,10 +14544,10 @@
         <v>288</v>
       </c>
       <c r="B172" s="36">
-        <v>44220</v>
-      </c>
-      <c r="C172" s="23">
-        <v>655</v>
+        <v>44217</v>
+      </c>
+      <c r="C172" s="30">
+        <v>8670</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -14555,54 +14555,54 @@
         <v>288</v>
       </c>
       <c r="B173" s="36">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="C173" s="30">
-        <v>2351</v>
+        <v>7134</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B174" s="36">
-        <v>44180</v>
-      </c>
-      <c r="C174" s="23">
-        <v>2</v>
+        <v>44219</v>
+      </c>
+      <c r="C174" s="30">
+        <v>5008</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B175" s="36">
-        <v>44181</v>
+        <v>44220</v>
       </c>
       <c r="C175" s="23">
-        <v>5</v>
+        <v>673</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B176" s="36">
-        <v>44182</v>
-      </c>
-      <c r="C176" s="23">
-        <v>13</v>
+        <v>44221</v>
+      </c>
+      <c r="C176" s="30">
+        <v>3000</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B177" s="36">
-        <v>44183</v>
-      </c>
-      <c r="C177" s="23">
-        <v>40</v>
+        <v>44222</v>
+      </c>
+      <c r="C177" s="30">
+        <v>2978</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -14610,10 +14610,10 @@
         <v>289</v>
       </c>
       <c r="B178" s="36">
-        <v>44184</v>
+        <v>44180</v>
       </c>
       <c r="C178" s="23">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -14621,10 +14621,10 @@
         <v>289</v>
       </c>
       <c r="B179" s="36">
-        <v>44185</v>
+        <v>44181</v>
       </c>
       <c r="C179" s="23">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -14632,10 +14632,10 @@
         <v>289</v>
       </c>
       <c r="B180" s="36">
-        <v>44186</v>
+        <v>44182</v>
       </c>
       <c r="C180" s="23">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -14643,10 +14643,10 @@
         <v>289</v>
       </c>
       <c r="B181" s="36">
-        <v>44187</v>
+        <v>44183</v>
       </c>
       <c r="C181" s="23">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -14654,10 +14654,10 @@
         <v>289</v>
       </c>
       <c r="B182" s="36">
-        <v>44188</v>
+        <v>44184</v>
       </c>
       <c r="C182" s="23">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -14665,10 +14665,10 @@
         <v>289</v>
       </c>
       <c r="B183" s="36">
-        <v>44189</v>
+        <v>44185</v>
       </c>
       <c r="C183" s="23">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -14676,10 +14676,10 @@
         <v>289</v>
       </c>
       <c r="B184" s="36">
-        <v>44190</v>
+        <v>44186</v>
       </c>
       <c r="C184" s="23">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -14687,10 +14687,10 @@
         <v>289</v>
       </c>
       <c r="B185" s="36">
-        <v>44191</v>
+        <v>44187</v>
       </c>
       <c r="C185" s="23">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -14698,10 +14698,10 @@
         <v>289</v>
       </c>
       <c r="B186" s="36">
-        <v>44192</v>
+        <v>44188</v>
       </c>
       <c r="C186" s="23">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -14709,10 +14709,10 @@
         <v>289</v>
       </c>
       <c r="B187" s="36">
-        <v>44193</v>
+        <v>44189</v>
       </c>
       <c r="C187" s="23">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -14720,10 +14720,10 @@
         <v>289</v>
       </c>
       <c r="B188" s="36">
-        <v>44194</v>
+        <v>44190</v>
       </c>
       <c r="C188" s="23">
-        <v>88</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -14731,10 +14731,10 @@
         <v>289</v>
       </c>
       <c r="B189" s="36">
-        <v>44195</v>
+        <v>44191</v>
       </c>
       <c r="C189" s="23">
-        <v>93</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -14742,10 +14742,10 @@
         <v>289</v>
       </c>
       <c r="B190" s="36">
-        <v>44196</v>
+        <v>44192</v>
       </c>
       <c r="C190" s="23">
-        <v>62</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -14753,10 +14753,10 @@
         <v>289</v>
       </c>
       <c r="B191" s="36">
-        <v>44197</v>
+        <v>44193</v>
       </c>
       <c r="C191" s="23">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -14764,10 +14764,10 @@
         <v>289</v>
       </c>
       <c r="B192" s="36">
-        <v>44198</v>
+        <v>44194</v>
       </c>
       <c r="C192" s="23">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -14775,10 +14775,10 @@
         <v>289</v>
       </c>
       <c r="B193" s="36">
-        <v>44199</v>
+        <v>44195</v>
       </c>
       <c r="C193" s="23">
-        <v>14</v>
+        <v>93</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -14786,10 +14786,10 @@
         <v>289</v>
       </c>
       <c r="B194" s="36">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="C194" s="23">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -14797,10 +14797,10 @@
         <v>289</v>
       </c>
       <c r="B195" s="36">
-        <v>44201</v>
+        <v>44197</v>
       </c>
       <c r="C195" s="23">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -14808,10 +14808,10 @@
         <v>289</v>
       </c>
       <c r="B196" s="36">
-        <v>44202</v>
+        <v>44198</v>
       </c>
       <c r="C196" s="23">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -14819,10 +14819,10 @@
         <v>289</v>
       </c>
       <c r="B197" s="36">
-        <v>44203</v>
+        <v>44199</v>
       </c>
       <c r="C197" s="23">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -14830,10 +14830,10 @@
         <v>289</v>
       </c>
       <c r="B198" s="36">
-        <v>44204</v>
+        <v>44200</v>
       </c>
       <c r="C198" s="23">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -14841,10 +14841,10 @@
         <v>289</v>
       </c>
       <c r="B199" s="36">
-        <v>44205</v>
+        <v>44201</v>
       </c>
       <c r="C199" s="23">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -14852,10 +14852,10 @@
         <v>289</v>
       </c>
       <c r="B200" s="36">
-        <v>44206</v>
+        <v>44202</v>
       </c>
       <c r="C200" s="23">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -14863,10 +14863,10 @@
         <v>289</v>
       </c>
       <c r="B201" s="36">
-        <v>44207</v>
+        <v>44203</v>
       </c>
       <c r="C201" s="23">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -14874,10 +14874,10 @@
         <v>289</v>
       </c>
       <c r="B202" s="36">
-        <v>44208</v>
+        <v>44204</v>
       </c>
       <c r="C202" s="23">
-        <v>79</v>
+        <v>36</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -14885,10 +14885,10 @@
         <v>289</v>
       </c>
       <c r="B203" s="36">
-        <v>44209</v>
+        <v>44205</v>
       </c>
       <c r="C203" s="23">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -14896,10 +14896,10 @@
         <v>289</v>
       </c>
       <c r="B204" s="36">
-        <v>44210</v>
+        <v>44206</v>
       </c>
       <c r="C204" s="23">
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -14907,7 +14907,7 @@
         <v>289</v>
       </c>
       <c r="B205" s="36">
-        <v>44211</v>
+        <v>44207</v>
       </c>
       <c r="C205" s="23">
         <v>57</v>
@@ -14918,10 +14918,10 @@
         <v>289</v>
       </c>
       <c r="B206" s="36">
-        <v>44212</v>
+        <v>44208</v>
       </c>
       <c r="C206" s="23">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -14929,10 +14929,10 @@
         <v>289</v>
       </c>
       <c r="B207" s="36">
-        <v>44213</v>
+        <v>44209</v>
       </c>
       <c r="C207" s="23">
-        <v>4</v>
+        <v>93</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -14940,10 +14940,10 @@
         <v>289</v>
       </c>
       <c r="B208" s="36">
-        <v>44214</v>
+        <v>44210</v>
       </c>
       <c r="C208" s="23">
-        <v>17</v>
+        <v>62</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -14951,10 +14951,10 @@
         <v>289</v>
       </c>
       <c r="B209" s="36">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="C209" s="23">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -14962,10 +14962,10 @@
         <v>289</v>
       </c>
       <c r="B210" s="36">
-        <v>44216</v>
+        <v>44212</v>
       </c>
       <c r="C210" s="23">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -14973,10 +14973,10 @@
         <v>289</v>
       </c>
       <c r="B211" s="36">
-        <v>44217</v>
+        <v>44213</v>
       </c>
       <c r="C211" s="23">
-        <v>58</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -14984,10 +14984,10 @@
         <v>289</v>
       </c>
       <c r="B212" s="36">
-        <v>44218</v>
+        <v>44214</v>
       </c>
       <c r="C212" s="23">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -14995,10 +14995,10 @@
         <v>289</v>
       </c>
       <c r="B213" s="36">
-        <v>44219</v>
+        <v>44215</v>
       </c>
       <c r="C213" s="23">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -15006,10 +15006,10 @@
         <v>289</v>
       </c>
       <c r="B214" s="36">
-        <v>44220</v>
+        <v>44216</v>
       </c>
       <c r="C214" s="23">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -15017,10 +15017,65 @@
         <v>289</v>
       </c>
       <c r="B215" s="36">
+        <v>44217</v>
+      </c>
+      <c r="C215" s="23">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B216" s="36">
+        <v>44218</v>
+      </c>
+      <c r="C216" s="23">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B217" s="36">
+        <v>44219</v>
+      </c>
+      <c r="C217" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B218" s="36">
+        <v>44220</v>
+      </c>
+      <c r="C218" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B219" s="36">
         <v>44221</v>
       </c>
-      <c r="C215" s="23">
-        <v>29</v>
+      <c r="C219" s="23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B220" s="36">
+        <v>44222</v>
+      </c>
+      <c r="C220" s="23">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Services/StateOfTexas/Data/COVID-19 Vaccine Data by County.xlsx
+++ b/Services/StateOfTexas/Data/COVID-19 Vaccine Data by County.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="311">
   <si>
     <t>County Name</t>
   </si>
@@ -1573,7 +1573,7 @@
         <v>305</v>
       </c>
       <c r="B2" s="29">
-        <v>44224</v>
+        <v>44225</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1678,9 +1678,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K259"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1744,15 +1742,15 @@
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:K2" si="0">SUM(D4:D258)</f>
-        <v>2056962</v>
+        <v>2170149</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>1687025</v>
+        <v>1759812</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>369937</v>
+        <v>410337</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
@@ -1821,13 +1819,13 @@
         <v>4700</v>
       </c>
       <c r="D4" s="31">
-        <v>2115</v>
+        <v>2189</v>
       </c>
       <c r="E4" s="31">
-        <v>1959</v>
+        <v>1985</v>
       </c>
       <c r="F4" s="31">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="G4" s="32">
         <v>48781</v>
@@ -1856,13 +1854,13 @@
         <v>1600</v>
       </c>
       <c r="D5" s="31">
-        <v>1769</v>
+        <v>2208</v>
       </c>
       <c r="E5" s="31">
-        <v>1192</v>
+        <v>1618</v>
       </c>
       <c r="F5" s="31">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="G5" s="32">
         <v>16893</v>
@@ -1891,13 +1889,13 @@
         <v>12200</v>
       </c>
       <c r="D6" s="31">
-        <v>6036</v>
+        <v>6248</v>
       </c>
       <c r="E6" s="31">
-        <v>5271</v>
+        <v>5357</v>
       </c>
       <c r="F6" s="31">
-        <v>765</v>
+        <v>891</v>
       </c>
       <c r="G6" s="32">
         <v>70305</v>
@@ -1926,13 +1924,13 @@
         <v>600</v>
       </c>
       <c r="D7" s="31">
-        <v>1188</v>
+        <v>1281</v>
       </c>
       <c r="E7" s="31">
-        <v>1066</v>
+        <v>1155</v>
       </c>
       <c r="F7" s="31">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G7" s="32">
         <v>23448</v>
@@ -1961,13 +1959,13 @@
         <v>400</v>
       </c>
       <c r="D8" s="31">
-        <v>684</v>
+        <v>713</v>
       </c>
       <c r="E8" s="31">
-        <v>577</v>
+        <v>601</v>
       </c>
       <c r="F8" s="31">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G8" s="32">
         <v>6824</v>
@@ -1996,13 +1994,13 @@
         <v>200</v>
       </c>
       <c r="D9" s="31">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="E9" s="31">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F9" s="31">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G9" s="32">
         <v>1648</v>
@@ -2031,13 +2029,13 @@
         <v>2900</v>
       </c>
       <c r="D10" s="31">
-        <v>2414</v>
+        <v>2858</v>
       </c>
       <c r="E10" s="31">
-        <v>1895</v>
+        <v>2261</v>
       </c>
       <c r="F10" s="31">
-        <v>519</v>
+        <v>597</v>
       </c>
       <c r="G10" s="32">
         <v>40483</v>
@@ -2066,13 +2064,13 @@
         <v>1400</v>
       </c>
       <c r="D11" s="31">
-        <v>1669</v>
+        <v>1959</v>
       </c>
       <c r="E11" s="31">
-        <v>1477</v>
+        <v>1711</v>
       </c>
       <c r="F11" s="31">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="G11" s="32">
         <v>24384</v>
@@ -2101,13 +2099,13 @@
         <v>2450</v>
       </c>
       <c r="D12" s="31">
-        <v>1291</v>
+        <v>1310</v>
       </c>
       <c r="E12" s="31">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="F12" s="31">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="G12" s="32">
         <v>5684</v>
@@ -2136,13 +2134,13 @@
         <v>200</v>
       </c>
       <c r="D13" s="31">
-        <v>1462</v>
+        <v>1525</v>
       </c>
       <c r="E13" s="31">
-        <v>1269</v>
+        <v>1289</v>
       </c>
       <c r="F13" s="31">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="G13" s="32">
         <v>18258</v>
@@ -2171,13 +2169,13 @@
         <v>4500</v>
       </c>
       <c r="D14" s="31">
-        <v>3188</v>
+        <v>3327</v>
       </c>
       <c r="E14" s="31">
-        <v>2595</v>
+        <v>2647</v>
       </c>
       <c r="F14" s="31">
-        <v>593</v>
+        <v>680</v>
       </c>
       <c r="G14" s="32">
         <v>68916</v>
@@ -2206,13 +2204,13 @@
         <v>1575</v>
       </c>
       <c r="D15" s="31">
-        <v>753</v>
+        <v>786</v>
       </c>
       <c r="E15" s="31">
-        <v>696</v>
+        <v>721</v>
       </c>
       <c r="F15" s="31">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G15" s="32">
         <v>2887</v>
@@ -2241,13 +2239,13 @@
         <v>7550</v>
       </c>
       <c r="D16" s="31">
-        <v>3814</v>
+        <v>4017</v>
       </c>
       <c r="E16" s="31">
-        <v>3597</v>
+        <v>3793</v>
       </c>
       <c r="F16" s="31">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="G16" s="32">
         <v>27790</v>
@@ -2276,13 +2274,13 @@
         <v>33650</v>
       </c>
       <c r="D17" s="31">
-        <v>18648</v>
+        <v>19446</v>
       </c>
       <c r="E17" s="31">
-        <v>15744</v>
+        <v>16425</v>
       </c>
       <c r="F17" s="31">
-        <v>2904</v>
+        <v>3021</v>
       </c>
       <c r="G17" s="32">
         <v>264909</v>
@@ -2311,13 +2309,13 @@
         <v>276025</v>
       </c>
       <c r="D18" s="31">
-        <v>152866</v>
+        <v>158906</v>
       </c>
       <c r="E18" s="31">
-        <v>113458</v>
+        <v>117174</v>
       </c>
       <c r="F18" s="31">
-        <v>39408</v>
+        <v>41732</v>
       </c>
       <c r="G18" s="32">
         <v>1649172</v>
@@ -2346,13 +2344,13 @@
         <v>300</v>
       </c>
       <c r="D19" s="31">
-        <v>1455</v>
+        <v>1540</v>
       </c>
       <c r="E19" s="31">
-        <v>1284</v>
+        <v>1344</v>
       </c>
       <c r="F19" s="31">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="G19" s="32">
         <v>9721</v>
@@ -2381,10 +2379,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="31">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E20" s="31">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F20" s="31">
         <v>2</v>
@@ -2416,13 +2414,13 @@
         <v>2000</v>
       </c>
       <c r="D21" s="31">
-        <v>888</v>
+        <v>936</v>
       </c>
       <c r="E21" s="31">
-        <v>787</v>
+        <v>815</v>
       </c>
       <c r="F21" s="31">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G21" s="32">
         <v>14388</v>
@@ -2451,13 +2449,13 @@
         <v>10050</v>
       </c>
       <c r="D22" s="31">
-        <v>4015</v>
+        <v>4187</v>
       </c>
       <c r="E22" s="31">
-        <v>2960</v>
+        <v>3036</v>
       </c>
       <c r="F22" s="31">
-        <v>1055</v>
+        <v>1151</v>
       </c>
       <c r="G22" s="32">
         <v>75454</v>
@@ -2486,13 +2484,13 @@
         <v>16900</v>
       </c>
       <c r="D23" s="31">
-        <v>24603</v>
+        <v>25396</v>
       </c>
       <c r="E23" s="31">
-        <v>19498</v>
+        <v>19908</v>
       </c>
       <c r="F23" s="31">
-        <v>5105</v>
+        <v>5488</v>
       </c>
       <c r="G23" s="32">
         <v>299211</v>
@@ -2521,13 +2519,13 @@
         <v>18025</v>
       </c>
       <c r="D24" s="31">
-        <v>8762</v>
+        <v>9752</v>
       </c>
       <c r="E24" s="31">
-        <v>7551</v>
+        <v>8356</v>
       </c>
       <c r="F24" s="31">
-        <v>1211</v>
+        <v>1396</v>
       </c>
       <c r="G24" s="32">
         <v>188279</v>
@@ -2556,13 +2554,13 @@
         <v>1000</v>
       </c>
       <c r="D25" s="31">
-        <v>785</v>
+        <v>840</v>
       </c>
       <c r="E25" s="31">
-        <v>705</v>
+        <v>756</v>
       </c>
       <c r="F25" s="31">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G25" s="32">
         <v>7247</v>
@@ -2591,13 +2589,13 @@
         <v>100</v>
       </c>
       <c r="D26" s="31">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="E26" s="31">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F26" s="31">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G26" s="32">
         <v>1289</v>
@@ -2626,10 +2624,10 @@
         <v>600</v>
       </c>
       <c r="D27" s="31">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="E27" s="31">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="F27" s="31">
         <v>62</v>
@@ -2661,13 +2659,13 @@
         <v>1700</v>
       </c>
       <c r="D28" s="31">
-        <v>1601</v>
+        <v>1649</v>
       </c>
       <c r="E28" s="31">
-        <v>1101</v>
+        <v>1143</v>
       </c>
       <c r="F28" s="31">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="G28" s="32">
         <v>31624</v>
@@ -2696,13 +2694,13 @@
         <v>800</v>
       </c>
       <c r="D29" s="31">
+        <v>812</v>
+      </c>
+      <c r="E29" s="31">
         <v>683</v>
       </c>
-      <c r="E29" s="31">
-        <v>576</v>
-      </c>
       <c r="F29" s="31">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="G29" s="32">
         <v>14273</v>
@@ -2731,13 +2729,13 @@
         <v>3975</v>
       </c>
       <c r="D30" s="31">
-        <v>1796</v>
+        <v>1934</v>
       </c>
       <c r="E30" s="31">
-        <v>1491</v>
+        <v>1540</v>
       </c>
       <c r="F30" s="31">
-        <v>305</v>
+        <v>394</v>
       </c>
       <c r="G30" s="32">
         <v>39401</v>
@@ -2766,13 +2764,13 @@
         <v>1400</v>
       </c>
       <c r="D31" s="31">
-        <v>1772</v>
+        <v>1869</v>
       </c>
       <c r="E31" s="31">
-        <v>1441</v>
+        <v>1505</v>
       </c>
       <c r="F31" s="31">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="G31" s="32">
         <v>35286</v>
@@ -2801,13 +2799,13 @@
         <v>1000</v>
       </c>
       <c r="D32" s="31">
-        <v>1339</v>
+        <v>1472</v>
       </c>
       <c r="E32" s="31">
-        <v>1117</v>
+        <v>1178</v>
       </c>
       <c r="F32" s="31">
-        <v>222</v>
+        <v>294</v>
       </c>
       <c r="G32" s="32">
         <v>17873</v>
@@ -2836,13 +2834,13 @@
         <v>700</v>
       </c>
       <c r="D33" s="31">
-        <v>715</v>
+        <v>798</v>
       </c>
       <c r="E33" s="31">
-        <v>546</v>
+        <v>613</v>
       </c>
       <c r="F33" s="31">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="G33" s="32">
         <v>11212</v>
@@ -2871,13 +2869,13 @@
         <v>50250</v>
       </c>
       <c r="D34" s="31">
-        <v>37612</v>
+        <v>39849</v>
       </c>
       <c r="E34" s="31">
-        <v>30629</v>
+        <v>31759</v>
       </c>
       <c r="F34" s="31">
-        <v>6983</v>
+        <v>8090</v>
       </c>
       <c r="G34" s="32">
         <v>319351</v>
@@ -2906,13 +2904,13 @@
         <v>100</v>
       </c>
       <c r="D35" s="31">
-        <v>620</v>
+        <v>649</v>
       </c>
       <c r="E35" s="31">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="F35" s="31">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G35" s="32">
         <v>10475</v>
@@ -2941,13 +2939,13 @@
         <v>200</v>
       </c>
       <c r="D36" s="31">
-        <v>600</v>
+        <v>666</v>
       </c>
       <c r="E36" s="31">
-        <v>546</v>
+        <v>576</v>
       </c>
       <c r="F36" s="31">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="G36" s="32">
         <v>4650</v>
@@ -2976,13 +2974,13 @@
         <v>300</v>
       </c>
       <c r="D37" s="31">
-        <v>617</v>
+        <v>646</v>
       </c>
       <c r="E37" s="31">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="F37" s="31">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="G37" s="32">
         <v>24308</v>
@@ -3011,13 +3009,13 @@
         <v>700</v>
       </c>
       <c r="D38" s="31">
-        <v>717</v>
+        <v>778</v>
       </c>
       <c r="E38" s="31">
-        <v>620</v>
+        <v>671</v>
       </c>
       <c r="F38" s="31">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G38" s="32">
         <v>5315</v>
@@ -3046,13 +3044,13 @@
         <v>5400</v>
       </c>
       <c r="D39" s="31">
-        <v>2105</v>
+        <v>2223</v>
       </c>
       <c r="E39" s="31">
-        <v>1868</v>
+        <v>1895</v>
       </c>
       <c r="F39" s="31">
-        <v>237</v>
+        <v>328</v>
       </c>
       <c r="G39" s="32">
         <v>33361</v>
@@ -3081,13 +3079,13 @@
         <v>5200</v>
       </c>
       <c r="D40" s="31">
-        <v>2810</v>
+        <v>2970</v>
       </c>
       <c r="E40" s="31">
-        <v>2431</v>
+        <v>2504</v>
       </c>
       <c r="F40" s="31">
-        <v>379</v>
+        <v>466</v>
       </c>
       <c r="G40" s="32">
         <v>40660</v>
@@ -3116,13 +3114,13 @@
         <v>1100</v>
       </c>
       <c r="D41" s="31">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="E41" s="31">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="F41" s="31">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G41" s="32">
         <v>5784</v>
@@ -3151,13 +3149,13 @@
         <v>2250</v>
       </c>
       <c r="D42" s="31">
-        <v>1203</v>
+        <v>1349</v>
       </c>
       <c r="E42" s="31">
-        <v>1064</v>
+        <v>1172</v>
       </c>
       <c r="F42" s="31">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="G42" s="32">
         <v>8023</v>
@@ -3186,13 +3184,13 @@
         <v>100</v>
       </c>
       <c r="D43" s="31">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="E43" s="31">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F43" s="31">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G43" s="32">
         <v>2524</v>
@@ -3221,13 +3219,13 @@
         <v>0</v>
       </c>
       <c r="D44" s="31">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E44" s="31">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F44" s="31">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G44" s="32">
         <v>2653</v>
@@ -3256,13 +3254,13 @@
         <v>600</v>
       </c>
       <c r="D45" s="31">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="E45" s="31">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="F45" s="31">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G45" s="32">
         <v>6728</v>
@@ -3291,13 +3289,13 @@
         <v>61275</v>
       </c>
       <c r="D46" s="31">
-        <v>58058</v>
+        <v>60943</v>
       </c>
       <c r="E46" s="31">
-        <v>47117</v>
+        <v>49019</v>
       </c>
       <c r="F46" s="31">
-        <v>10941</v>
+        <v>11924</v>
       </c>
       <c r="G46" s="32">
         <v>841758</v>
@@ -3326,13 +3324,13 @@
         <v>300</v>
       </c>
       <c r="D47" s="31">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="E47" s="31">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F47" s="31">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G47" s="32">
         <v>2451</v>
@@ -3361,13 +3359,13 @@
         <v>1600</v>
       </c>
       <c r="D48" s="31">
-        <v>898</v>
+        <v>924</v>
       </c>
       <c r="E48" s="31">
-        <v>760</v>
+        <v>779</v>
       </c>
       <c r="F48" s="31">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G48" s="32">
         <v>16882</v>
@@ -3396,13 +3394,13 @@
         <v>9700</v>
       </c>
       <c r="D49" s="31">
-        <v>8723</v>
+        <v>9329</v>
       </c>
       <c r="E49" s="31">
-        <v>6607</v>
+        <v>7009</v>
       </c>
       <c r="F49" s="31">
-        <v>2116</v>
+        <v>2320</v>
       </c>
       <c r="G49" s="32">
         <v>122316</v>
@@ -3431,13 +3429,13 @@
         <v>1775</v>
       </c>
       <c r="D50" s="31">
-        <v>1464</v>
+        <v>1493</v>
       </c>
       <c r="E50" s="31">
-        <v>1351</v>
+        <v>1358</v>
       </c>
       <c r="F50" s="31">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="G50" s="32">
         <v>10333</v>
@@ -3466,10 +3464,10 @@
         <v>100</v>
       </c>
       <c r="D51" s="31">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="E51" s="31">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="F51" s="31">
         <v>24</v>
@@ -3501,13 +3499,13 @@
         <v>1900</v>
       </c>
       <c r="D52" s="31">
-        <v>1626</v>
+        <v>1669</v>
       </c>
       <c r="E52" s="31">
-        <v>1431</v>
+        <v>1458</v>
       </c>
       <c r="F52" s="31">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="G52" s="32">
         <v>32061</v>
@@ -3536,13 +3534,13 @@
         <v>3750</v>
       </c>
       <c r="D53" s="31">
-        <v>2837</v>
+        <v>3074</v>
       </c>
       <c r="E53" s="31">
-        <v>2543</v>
+        <v>2720</v>
       </c>
       <c r="F53" s="31">
-        <v>294</v>
+        <v>354</v>
       </c>
       <c r="G53" s="32">
         <v>61429</v>
@@ -3606,13 +3604,13 @@
         <v>1175</v>
       </c>
       <c r="D55" s="31">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="E55" s="31">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="F55" s="31">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="G55" s="32">
         <v>4793</v>
@@ -3641,10 +3639,10 @@
         <v>0</v>
       </c>
       <c r="D56" s="31">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="E56" s="31">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="F56" s="31">
         <v>10</v>
@@ -3676,13 +3674,13 @@
         <v>1175</v>
       </c>
       <c r="D57" s="31">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="E57" s="31">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="F57" s="31">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="G57" s="32">
         <v>5020</v>
@@ -3711,13 +3709,13 @@
         <v>400</v>
       </c>
       <c r="D58" s="31">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E58" s="31">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="F58" s="31">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G58" s="32">
         <v>1820</v>
@@ -3746,13 +3744,13 @@
         <v>1475</v>
       </c>
       <c r="D59" s="31">
-        <v>746</v>
+        <v>807</v>
       </c>
       <c r="E59" s="31">
-        <v>731</v>
+        <v>790</v>
       </c>
       <c r="F59" s="31">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G59" s="32">
         <v>5258</v>
@@ -3781,13 +3779,13 @@
         <v>299125</v>
       </c>
       <c r="D60" s="31">
-        <v>150100</v>
+        <v>157421</v>
       </c>
       <c r="E60" s="31">
-        <v>124256</v>
+        <v>129660</v>
       </c>
       <c r="F60" s="31">
-        <v>25844</v>
+        <v>27761</v>
       </c>
       <c r="G60" s="32">
         <v>2114319</v>
@@ -3816,13 +3814,13 @@
         <v>600</v>
       </c>
       <c r="D61" s="31">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="E61" s="31">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="F61" s="31">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G61" s="32">
         <v>10637</v>
@@ -3851,13 +3849,13 @@
         <v>1700</v>
       </c>
       <c r="D62" s="31">
-        <v>1102</v>
+        <v>1246</v>
       </c>
       <c r="E62" s="31">
-        <v>1005</v>
+        <v>1042</v>
       </c>
       <c r="F62" s="31">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="G62" s="32">
         <v>13191</v>
@@ -3886,13 +3884,13 @@
         <v>0</v>
       </c>
       <c r="D63" s="31">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="E63" s="31">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="F63" s="31">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="G63" s="32">
         <v>4362</v>
@@ -3921,13 +3919,13 @@
         <v>54125</v>
       </c>
       <c r="D64" s="31">
-        <v>31962</v>
+        <v>33868</v>
       </c>
       <c r="E64" s="31">
-        <v>25664</v>
+        <v>26949</v>
       </c>
       <c r="F64" s="31">
-        <v>6298</v>
+        <v>6919</v>
       </c>
       <c r="G64" s="32">
         <v>740206</v>
@@ -3956,13 +3954,13 @@
         <v>800</v>
       </c>
       <c r="D65" s="31">
-        <v>645</v>
+        <v>756</v>
       </c>
       <c r="E65" s="31">
-        <v>542</v>
+        <v>621</v>
       </c>
       <c r="F65" s="31">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="G65" s="32">
         <v>17638</v>
@@ -3991,13 +3989,13 @@
         <v>0</v>
       </c>
       <c r="D66" s="31">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E66" s="31">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F66" s="31">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G66" s="32">
         <v>1878</v>
@@ -4026,13 +4024,13 @@
         <v>2750</v>
       </c>
       <c r="D67" s="31">
-        <v>1415</v>
+        <v>1531</v>
       </c>
       <c r="E67" s="31">
-        <v>1309</v>
+        <v>1405</v>
       </c>
       <c r="F67" s="31">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="G67" s="32">
         <v>8764</v>
@@ -4061,13 +4059,13 @@
         <v>100</v>
       </c>
       <c r="D68" s="31">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="E68" s="31">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F68" s="31">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G68" s="32">
         <v>2774</v>
@@ -4096,13 +4094,13 @@
         <v>300</v>
       </c>
       <c r="D69" s="31">
-        <v>879</v>
+        <v>930</v>
       </c>
       <c r="E69" s="31">
-        <v>796</v>
+        <v>833</v>
       </c>
       <c r="F69" s="31">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="G69" s="32">
         <v>9023</v>
@@ -4131,13 +4129,13 @@
         <v>900</v>
       </c>
       <c r="D70" s="31">
-        <v>994</v>
+        <v>1109</v>
       </c>
       <c r="E70" s="31">
-        <v>845</v>
+        <v>903</v>
       </c>
       <c r="F70" s="31">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="G70" s="32">
         <v>14611</v>
@@ -4166,13 +4164,13 @@
         <v>19900</v>
       </c>
       <c r="D71" s="31">
-        <v>11821</v>
+        <v>12420</v>
       </c>
       <c r="E71" s="31">
-        <v>9789</v>
+        <v>10316</v>
       </c>
       <c r="F71" s="31">
-        <v>2032</v>
+        <v>2104</v>
       </c>
       <c r="G71" s="32">
         <v>140862</v>
@@ -4201,10 +4199,10 @@
         <v>0</v>
       </c>
       <c r="D72" s="31">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E72" s="31">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F72" s="31">
         <v>22</v>
@@ -4236,13 +4234,13 @@
         <v>108125</v>
       </c>
       <c r="D73" s="31">
-        <v>87567</v>
+        <v>90572</v>
       </c>
       <c r="E73" s="31">
-        <v>70501</v>
+        <v>73122</v>
       </c>
       <c r="F73" s="31">
-        <v>17066</v>
+        <v>17450</v>
       </c>
       <c r="G73" s="32">
         <v>664164</v>
@@ -4271,13 +4269,13 @@
         <v>4800</v>
       </c>
       <c r="D74" s="31">
-        <v>8056</v>
+        <v>8393</v>
       </c>
       <c r="E74" s="31">
-        <v>6579</v>
+        <v>6789</v>
       </c>
       <c r="F74" s="31">
-        <v>1477</v>
+        <v>1604</v>
       </c>
       <c r="G74" s="32">
         <v>140959</v>
@@ -4306,13 +4304,13 @@
         <v>1000</v>
       </c>
       <c r="D75" s="31">
-        <v>1549</v>
+        <v>1775</v>
       </c>
       <c r="E75" s="31">
-        <v>1312</v>
+        <v>1497</v>
       </c>
       <c r="F75" s="31">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="G75" s="32">
         <v>34043</v>
@@ -4341,13 +4339,13 @@
         <v>2650</v>
       </c>
       <c r="D76" s="31">
-        <v>991</v>
+        <v>1078</v>
       </c>
       <c r="E76" s="31">
-        <v>950</v>
+        <v>1008</v>
       </c>
       <c r="F76" s="31">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="G76" s="32">
         <v>13589</v>
@@ -4376,13 +4374,13 @@
         <v>4650</v>
       </c>
       <c r="D77" s="31">
-        <v>2654</v>
+        <v>2850</v>
       </c>
       <c r="E77" s="31">
-        <v>2126</v>
+        <v>2288</v>
       </c>
       <c r="F77" s="31">
-        <v>528</v>
+        <v>562</v>
       </c>
       <c r="G77" s="32">
         <v>28488</v>
@@ -4411,13 +4409,13 @@
         <v>1400</v>
       </c>
       <c r="D78" s="31">
-        <v>1089</v>
+        <v>1122</v>
       </c>
       <c r="E78" s="31">
-        <v>979</v>
+        <v>1006</v>
       </c>
       <c r="F78" s="31">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G78" s="32">
         <v>21033</v>
@@ -4446,13 +4444,13 @@
         <v>200</v>
       </c>
       <c r="D79" s="31">
-        <v>198</v>
+        <v>276</v>
       </c>
       <c r="E79" s="31">
-        <v>189</v>
+        <v>266</v>
       </c>
       <c r="F79" s="31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G79" s="32">
         <v>3226</v>
@@ -4481,13 +4479,13 @@
         <v>200</v>
       </c>
       <c r="D80" s="31">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="E80" s="31">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="F80" s="31">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G80" s="32">
         <v>4468</v>
@@ -4516,10 +4514,10 @@
         <v>100</v>
       </c>
       <c r="D81" s="31">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="E81" s="31">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F81" s="31">
         <v>17</v>
@@ -4551,13 +4549,13 @@
         <v>50575</v>
       </c>
       <c r="D82" s="31">
-        <v>57205</v>
+        <v>60696</v>
       </c>
       <c r="E82" s="31">
-        <v>47520</v>
+        <v>50127</v>
       </c>
       <c r="F82" s="31">
-        <v>9685</v>
+        <v>10569</v>
       </c>
       <c r="G82" s="32">
         <v>681745</v>
@@ -4586,13 +4584,13 @@
         <v>400</v>
       </c>
       <c r="D83" s="31">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="E83" s="31">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="F83" s="31">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G83" s="32">
         <v>8474</v>
@@ -4621,13 +4619,13 @@
         <v>1100</v>
       </c>
       <c r="D84" s="31">
-        <v>628</v>
+        <v>657</v>
       </c>
       <c r="E84" s="31">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="F84" s="31">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G84" s="32">
         <v>15926</v>
@@ -4656,13 +4654,13 @@
         <v>2475</v>
       </c>
       <c r="D85" s="31">
-        <v>1690</v>
+        <v>1840</v>
       </c>
       <c r="E85" s="31">
-        <v>1399</v>
+        <v>1547</v>
       </c>
       <c r="F85" s="31">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G85" s="32">
         <v>16062</v>
@@ -4691,13 +4689,13 @@
         <v>1200</v>
       </c>
       <c r="D86" s="31">
-        <v>809</v>
+        <v>854</v>
       </c>
       <c r="E86" s="31">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="F86" s="31">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="G86" s="32">
         <v>16010</v>
@@ -4726,13 +4724,13 @@
         <v>38225</v>
       </c>
       <c r="D87" s="31">
-        <v>33862</v>
+        <v>34549</v>
       </c>
       <c r="E87" s="31">
-        <v>26538</v>
+        <v>26824</v>
       </c>
       <c r="F87" s="31">
-        <v>7324</v>
+        <v>7725</v>
       </c>
       <c r="G87" s="32">
         <v>284584</v>
@@ -4761,13 +4759,13 @@
         <v>100</v>
       </c>
       <c r="D88" s="31">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E88" s="31">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F88" s="31">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G88" s="32">
         <v>5585</v>
@@ -4796,13 +4794,13 @@
         <v>4300</v>
       </c>
       <c r="D89" s="31">
-        <v>2281</v>
+        <v>2429</v>
       </c>
       <c r="E89" s="31">
-        <v>1911</v>
+        <v>1998</v>
       </c>
       <c r="F89" s="31">
-        <v>370</v>
+        <v>431</v>
       </c>
       <c r="G89" s="32">
         <v>21871</v>
@@ -4831,10 +4829,10 @@
         <v>0</v>
       </c>
       <c r="D90" s="31">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="E90" s="31">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F90" s="31">
         <v>5</v>
@@ -4866,13 +4864,13 @@
         <v>100</v>
       </c>
       <c r="D91" s="31">
-        <v>654</v>
+        <v>680</v>
       </c>
       <c r="E91" s="31">
-        <v>585</v>
+        <v>610</v>
       </c>
       <c r="F91" s="31">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G91" s="32">
         <v>6430</v>
@@ -4901,13 +4899,13 @@
         <v>1600</v>
       </c>
       <c r="D92" s="31">
-        <v>1078</v>
+        <v>1132</v>
       </c>
       <c r="E92" s="31">
-        <v>941</v>
+        <v>963</v>
       </c>
       <c r="F92" s="31">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="G92" s="32">
         <v>16466</v>
@@ -4936,13 +4934,13 @@
         <v>1300</v>
       </c>
       <c r="D93" s="31">
-        <v>1253</v>
+        <v>1324</v>
       </c>
       <c r="E93" s="31">
-        <v>1158</v>
+        <v>1210</v>
       </c>
       <c r="F93" s="31">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="G93" s="32">
         <v>19064</v>
@@ -4971,13 +4969,13 @@
         <v>21800</v>
       </c>
       <c r="D94" s="31">
-        <v>9171</v>
+        <v>9771</v>
       </c>
       <c r="E94" s="31">
-        <v>7506</v>
+        <v>7943</v>
       </c>
       <c r="F94" s="31">
-        <v>1665</v>
+        <v>1828</v>
       </c>
       <c r="G94" s="32">
         <v>105377</v>
@@ -5006,13 +5004,13 @@
         <v>16050</v>
       </c>
       <c r="D95" s="31">
-        <v>6979</v>
+        <v>7219</v>
       </c>
       <c r="E95" s="31">
-        <v>5292</v>
+        <v>5419</v>
       </c>
       <c r="F95" s="31">
-        <v>1687</v>
+        <v>1800</v>
       </c>
       <c r="G95" s="32">
         <v>97920</v>
@@ -5041,13 +5039,13 @@
         <v>1200</v>
       </c>
       <c r="D96" s="31">
-        <v>1025</v>
+        <v>1096</v>
       </c>
       <c r="E96" s="31">
-        <v>913</v>
+        <v>949</v>
       </c>
       <c r="F96" s="31">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="G96" s="32">
         <v>23414</v>
@@ -5076,13 +5074,13 @@
         <v>6275</v>
       </c>
       <c r="D97" s="31">
-        <v>7216</v>
+        <v>7499</v>
       </c>
       <c r="E97" s="31">
-        <v>5182</v>
+        <v>5333</v>
       </c>
       <c r="F97" s="31">
-        <v>2034</v>
+        <v>2166</v>
       </c>
       <c r="G97" s="32">
         <v>136431</v>
@@ -5111,13 +5109,13 @@
         <v>2600</v>
       </c>
       <c r="D98" s="31">
-        <v>2134</v>
+        <v>2252</v>
       </c>
       <c r="E98" s="31">
-        <v>1781</v>
+        <v>1837</v>
       </c>
       <c r="F98" s="31">
-        <v>353</v>
+        <v>415</v>
       </c>
       <c r="G98" s="32">
         <v>24936</v>
@@ -5146,13 +5144,13 @@
         <v>0</v>
       </c>
       <c r="D99" s="31">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E99" s="31">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F99" s="31">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G99" s="32">
         <v>2606</v>
@@ -5181,13 +5179,13 @@
         <v>1600</v>
       </c>
       <c r="D100" s="31">
-        <v>1806</v>
+        <v>1959</v>
       </c>
       <c r="E100" s="31">
-        <v>1601</v>
+        <v>1627</v>
       </c>
       <c r="F100" s="31">
-        <v>205</v>
+        <v>332</v>
       </c>
       <c r="G100" s="32">
         <v>6553</v>
@@ -5216,13 +5214,13 @@
         <v>600</v>
       </c>
       <c r="D101" s="31">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="E101" s="31">
-        <v>393</v>
+        <v>476</v>
       </c>
       <c r="F101" s="31">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G101" s="32">
         <v>4417</v>
@@ -5251,13 +5249,13 @@
         <v>500</v>
       </c>
       <c r="D102" s="31">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="E102" s="31">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="F102" s="31">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G102" s="32">
         <v>3008</v>
@@ -5286,13 +5284,13 @@
         <v>4700</v>
       </c>
       <c r="D103" s="31">
-        <v>2752</v>
+        <v>3072</v>
       </c>
       <c r="E103" s="31">
-        <v>2487</v>
+        <v>2746</v>
       </c>
       <c r="F103" s="31">
-        <v>265</v>
+        <v>326</v>
       </c>
       <c r="G103" s="32">
         <v>45896</v>
@@ -5321,13 +5319,13 @@
         <v>571325</v>
       </c>
       <c r="D104" s="31">
-        <v>326020</v>
+        <v>340474</v>
       </c>
       <c r="E104" s="31">
-        <v>269691</v>
+        <v>277188</v>
       </c>
       <c r="F104" s="31">
-        <v>56329</v>
+        <v>63286</v>
       </c>
       <c r="G104" s="32">
         <v>3866923</v>
@@ -5356,13 +5354,13 @@
         <v>2800</v>
       </c>
       <c r="D105" s="31">
-        <v>2449</v>
+        <v>2545</v>
       </c>
       <c r="E105" s="31">
-        <v>2099</v>
+        <v>2143</v>
       </c>
       <c r="F105" s="31">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="G105" s="32">
         <v>52923</v>
@@ -5391,13 +5389,13 @@
         <v>1475</v>
       </c>
       <c r="D106" s="31">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="E106" s="31">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="F106" s="31">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G106" s="32">
         <v>5042</v>
@@ -5426,13 +5424,13 @@
         <v>200</v>
       </c>
       <c r="D107" s="31">
-        <v>348</v>
+        <v>407</v>
       </c>
       <c r="E107" s="31">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="F107" s="31">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="G107" s="32">
         <v>5119</v>
@@ -5461,13 +5459,13 @@
         <v>18125</v>
       </c>
       <c r="D108" s="31">
-        <v>14119</v>
+        <v>15128</v>
       </c>
       <c r="E108" s="31">
-        <v>11734</v>
+        <v>12299</v>
       </c>
       <c r="F108" s="31">
-        <v>2385</v>
+        <v>2829</v>
       </c>
       <c r="G108" s="32">
         <v>196828</v>
@@ -5496,13 +5494,13 @@
         <v>800</v>
       </c>
       <c r="D109" s="31">
-        <v>436</v>
+        <v>535</v>
       </c>
       <c r="E109" s="31">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F109" s="31">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="G109" s="32">
         <v>3429</v>
@@ -5531,13 +5529,13 @@
         <v>3400</v>
       </c>
       <c r="D110" s="31">
-        <v>3324</v>
+        <v>3513</v>
       </c>
       <c r="E110" s="31">
-        <v>2751</v>
+        <v>2882</v>
       </c>
       <c r="F110" s="31">
-        <v>573</v>
+        <v>631</v>
       </c>
       <c r="G110" s="32">
         <v>66406</v>
@@ -5566,13 +5564,13 @@
         <v>107750</v>
       </c>
       <c r="D111" s="31">
-        <v>52965</v>
+        <v>57389</v>
       </c>
       <c r="E111" s="31">
-        <v>42851</v>
+        <v>45698</v>
       </c>
       <c r="F111" s="31">
-        <v>10114</v>
+        <v>11691</v>
       </c>
       <c r="G111" s="32">
         <v>650228</v>
@@ -5601,13 +5599,13 @@
         <v>1100</v>
       </c>
       <c r="D112" s="31">
-        <v>1921</v>
+        <v>2058</v>
       </c>
       <c r="E112" s="31">
-        <v>1700</v>
+        <v>1776</v>
       </c>
       <c r="F112" s="31">
-        <v>221</v>
+        <v>282</v>
       </c>
       <c r="G112" s="32">
         <v>28116</v>
@@ -5636,13 +5634,13 @@
         <v>900</v>
       </c>
       <c r="D113" s="31">
-        <v>1282</v>
+        <v>1364</v>
       </c>
       <c r="E113" s="31">
-        <v>1025</v>
+        <v>1082</v>
       </c>
       <c r="F113" s="31">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="G113" s="32">
         <v>18921</v>
@@ -5671,13 +5669,13 @@
         <v>2200</v>
       </c>
       <c r="D114" s="31">
-        <v>1994</v>
+        <v>2274</v>
       </c>
       <c r="E114" s="31">
-        <v>1715</v>
+        <v>1846</v>
       </c>
       <c r="F114" s="31">
-        <v>279</v>
+        <v>428</v>
       </c>
       <c r="G114" s="32">
         <v>48946</v>
@@ -5706,13 +5704,13 @@
         <v>2400</v>
       </c>
       <c r="D115" s="31">
-        <v>2012</v>
+        <v>2040</v>
       </c>
       <c r="E115" s="31">
-        <v>1737</v>
+        <v>1745</v>
       </c>
       <c r="F115" s="31">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="G115" s="32">
         <v>29544</v>
@@ -5741,13 +5739,13 @@
         <v>1500</v>
       </c>
       <c r="D116" s="31">
-        <v>1399</v>
+        <v>1462</v>
       </c>
       <c r="E116" s="31">
-        <v>1237</v>
+        <v>1258</v>
       </c>
       <c r="F116" s="31">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="G116" s="32">
         <v>18491</v>
@@ -5776,13 +5774,13 @@
         <v>2700</v>
       </c>
       <c r="D117" s="31">
-        <v>1346</v>
+        <v>1366</v>
       </c>
       <c r="E117" s="31">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="F117" s="31">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="G117" s="32">
         <v>33215</v>
@@ -5811,10 +5809,10 @@
         <v>100</v>
       </c>
       <c r="D118" s="31">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E118" s="31">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="F118" s="31">
         <v>13</v>
@@ -5846,13 +5844,13 @@
         <v>7050</v>
       </c>
       <c r="D119" s="31">
-        <v>5679</v>
+        <v>6007</v>
       </c>
       <c r="E119" s="31">
-        <v>3847</v>
+        <v>3920</v>
       </c>
       <c r="F119" s="31">
-        <v>1832</v>
+        <v>2087</v>
       </c>
       <c r="G119" s="32">
         <v>76397</v>
@@ -5881,13 +5879,13 @@
         <v>600</v>
       </c>
       <c r="D120" s="31">
-        <v>1302</v>
+        <v>1351</v>
       </c>
       <c r="E120" s="31">
-        <v>1156</v>
+        <v>1188</v>
       </c>
       <c r="F120" s="31">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="G120" s="32">
         <v>16691</v>
@@ -5916,13 +5914,13 @@
         <v>0</v>
       </c>
       <c r="D121" s="31">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E121" s="31">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F121" s="31">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G121" s="32">
         <v>1280</v>
@@ -5951,13 +5949,13 @@
         <v>500</v>
       </c>
       <c r="D122" s="31">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="E122" s="31">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="F122" s="31">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G122" s="32">
         <v>7087</v>
@@ -5986,13 +5984,13 @@
         <v>2775</v>
       </c>
       <c r="D123" s="31">
-        <v>1219</v>
+        <v>1297</v>
       </c>
       <c r="E123" s="31">
-        <v>1013</v>
+        <v>1044</v>
       </c>
       <c r="F123" s="31">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="G123" s="32">
         <v>12317</v>
@@ -6021,13 +6019,13 @@
         <v>5100</v>
       </c>
       <c r="D124" s="31">
-        <v>1818</v>
+        <v>2116</v>
       </c>
       <c r="E124" s="31">
-        <v>1723</v>
+        <v>1999</v>
       </c>
       <c r="F124" s="31">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="G124" s="32">
         <v>28138</v>
@@ -6056,10 +6054,10 @@
         <v>100</v>
       </c>
       <c r="D125" s="31">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="E125" s="31">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="F125" s="31">
         <v>12</v>
@@ -6091,13 +6089,13 @@
         <v>22900</v>
       </c>
       <c r="D126" s="31">
-        <v>8261</v>
+        <v>8695</v>
       </c>
       <c r="E126" s="31">
-        <v>7419</v>
+        <v>7742</v>
       </c>
       <c r="F126" s="31">
-        <v>842</v>
+        <v>953</v>
       </c>
       <c r="G126" s="32">
         <v>204766</v>
@@ -6126,10 +6124,10 @@
         <v>100</v>
       </c>
       <c r="D127" s="31">
-        <v>554</v>
+        <v>576</v>
       </c>
       <c r="E127" s="31">
-        <v>499</v>
+        <v>521</v>
       </c>
       <c r="F127" s="31">
         <v>55</v>
@@ -6161,13 +6159,13 @@
         <v>3250</v>
       </c>
       <c r="D128" s="31">
-        <v>2948</v>
+        <v>3117</v>
       </c>
       <c r="E128" s="31">
-        <v>2551</v>
+        <v>2686</v>
       </c>
       <c r="F128" s="31">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="G128" s="32">
         <v>32000</v>
@@ -6196,13 +6194,13 @@
         <v>3500</v>
       </c>
       <c r="D129" s="31">
-        <v>7596</v>
+        <v>8178</v>
       </c>
       <c r="E129" s="31">
-        <v>6298</v>
+        <v>6735</v>
       </c>
       <c r="F129" s="31">
-        <v>1298</v>
+        <v>1443</v>
       </c>
       <c r="G129" s="32">
         <v>134667</v>
@@ -6231,13 +6229,13 @@
         <v>400</v>
       </c>
       <c r="D130" s="31">
-        <v>725</v>
+        <v>808</v>
       </c>
       <c r="E130" s="31">
-        <v>595</v>
+        <v>668</v>
       </c>
       <c r="F130" s="31">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G130" s="32">
         <v>16850</v>
@@ -6266,13 +6264,13 @@
         <v>1300</v>
       </c>
       <c r="D131" s="31">
-        <v>649</v>
+        <v>860</v>
       </c>
       <c r="E131" s="31">
-        <v>602</v>
+        <v>808</v>
       </c>
       <c r="F131" s="31">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G131" s="32">
         <v>12394</v>
@@ -6301,13 +6299,13 @@
         <v>3750</v>
       </c>
       <c r="D132" s="31">
-        <v>6134</v>
+        <v>6400</v>
       </c>
       <c r="E132" s="31">
-        <v>4776</v>
+        <v>4927</v>
       </c>
       <c r="F132" s="31">
-        <v>1358</v>
+        <v>1473</v>
       </c>
       <c r="G132" s="32">
         <v>99179</v>
@@ -6336,13 +6334,13 @@
         <v>2300</v>
       </c>
       <c r="D133" s="31">
-        <v>3605</v>
+        <v>3716</v>
       </c>
       <c r="E133" s="31">
-        <v>2620</v>
+        <v>2692</v>
       </c>
       <c r="F133" s="31">
-        <v>985</v>
+        <v>1024</v>
       </c>
       <c r="G133" s="32">
         <v>38571</v>
@@ -6371,10 +6369,10 @@
         <v>0</v>
       </c>
       <c r="D134" s="31">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="E134" s="31">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F134" s="31">
         <v>1</v>
@@ -6406,10 +6404,10 @@
         <v>0</v>
       </c>
       <c r="D135" s="31">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E135" s="31">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F135" s="31">
         <v>0</v>
@@ -6441,13 +6439,13 @@
         <v>3200</v>
       </c>
       <c r="D136" s="31">
-        <v>2872</v>
+        <v>2970</v>
       </c>
       <c r="E136" s="31">
-        <v>2024</v>
+        <v>2107</v>
       </c>
       <c r="F136" s="31">
-        <v>848</v>
+        <v>863</v>
       </c>
       <c r="G136" s="32">
         <v>43315</v>
@@ -6476,13 +6474,13 @@
         <v>300</v>
       </c>
       <c r="D137" s="31">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="E137" s="31">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F137" s="31">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G137" s="32">
         <v>3576</v>
@@ -6511,10 +6509,10 @@
         <v>0</v>
       </c>
       <c r="D138" s="31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E138" s="31">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F138" s="31">
         <v>2</v>
@@ -6546,10 +6544,10 @@
         <v>100</v>
       </c>
       <c r="D139" s="31">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="E139" s="31">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="F139" s="31">
         <v>2</v>
@@ -6581,13 +6579,13 @@
         <v>5050</v>
       </c>
       <c r="D140" s="31">
-        <v>3323</v>
+        <v>4498</v>
       </c>
       <c r="E140" s="31">
-        <v>3109</v>
+        <v>4244</v>
       </c>
       <c r="F140" s="31">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="G140" s="32">
         <v>25029</v>
@@ -6616,13 +6614,13 @@
         <v>300</v>
       </c>
       <c r="D141" s="31">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="E141" s="31">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="F141" s="31">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G141" s="32">
         <v>3076</v>
@@ -6651,10 +6649,10 @@
         <v>2150</v>
       </c>
       <c r="D142" s="31">
-        <v>1118</v>
+        <v>1285</v>
       </c>
       <c r="E142" s="31">
-        <v>1092</v>
+        <v>1259</v>
       </c>
       <c r="F142" s="31">
         <v>26</v>
@@ -6686,13 +6684,13 @@
         <v>3700</v>
       </c>
       <c r="D143" s="31">
-        <v>2720</v>
+        <v>3196</v>
       </c>
       <c r="E143" s="31">
-        <v>2377</v>
+        <v>2579</v>
       </c>
       <c r="F143" s="31">
-        <v>343</v>
+        <v>617</v>
       </c>
       <c r="G143" s="32">
         <v>39931</v>
@@ -6721,13 +6719,13 @@
         <v>400</v>
       </c>
       <c r="D144" s="31">
-        <v>1256</v>
+        <v>1285</v>
       </c>
       <c r="E144" s="31">
-        <v>1127</v>
+        <v>1140</v>
       </c>
       <c r="F144" s="31">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="G144" s="32">
         <v>9751</v>
@@ -6756,13 +6754,13 @@
         <v>300</v>
       </c>
       <c r="D145" s="31">
-        <v>695</v>
+        <v>778</v>
       </c>
       <c r="E145" s="31">
-        <v>620</v>
+        <v>680</v>
       </c>
       <c r="F145" s="31">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="G145" s="32">
         <v>17203</v>
@@ -6791,13 +6789,13 @@
         <v>1900</v>
       </c>
       <c r="D146" s="31">
-        <v>1292</v>
+        <v>1400</v>
       </c>
       <c r="E146" s="31">
-        <v>1100</v>
+        <v>1142</v>
       </c>
       <c r="F146" s="31">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="G146" s="32">
         <v>16378</v>
@@ -6826,13 +6824,13 @@
         <v>600</v>
       </c>
       <c r="D147" s="31">
-        <v>645</v>
+        <v>678</v>
       </c>
       <c r="E147" s="31">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="F147" s="31">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="G147" s="32">
         <v>14026</v>
@@ -6861,13 +6859,13 @@
         <v>600</v>
       </c>
       <c r="D148" s="31">
-        <v>595</v>
+        <v>630</v>
       </c>
       <c r="E148" s="31">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="F148" s="31">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="G148" s="32">
         <v>14157</v>
@@ -6896,13 +6894,13 @@
         <v>5450</v>
       </c>
       <c r="D149" s="31">
-        <v>2680</v>
+        <v>2864</v>
       </c>
       <c r="E149" s="31">
-        <v>2494</v>
+        <v>2583</v>
       </c>
       <c r="F149" s="31">
-        <v>186</v>
+        <v>281</v>
       </c>
       <c r="G149" s="32">
         <v>67078</v>
@@ -6931,13 +6929,13 @@
         <v>1500</v>
       </c>
       <c r="D150" s="31">
-        <v>867</v>
+        <v>879</v>
       </c>
       <c r="E150" s="31">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="F150" s="31">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G150" s="32">
         <v>18913</v>
@@ -6966,13 +6964,13 @@
         <v>100</v>
       </c>
       <c r="D151" s="31">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="E151" s="31">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="F151" s="31">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G151" s="32">
         <v>2873</v>
@@ -7001,13 +6999,13 @@
         <v>200</v>
       </c>
       <c r="D152" s="31">
-        <v>573</v>
+        <v>629</v>
       </c>
       <c r="E152" s="31">
-        <v>547</v>
+        <v>599</v>
       </c>
       <c r="F152" s="31">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G152" s="32">
         <v>9816</v>
@@ -7036,13 +7034,13 @@
         <v>100</v>
       </c>
       <c r="D153" s="31">
-        <v>814</v>
+        <v>850</v>
       </c>
       <c r="E153" s="31">
-        <v>706</v>
+        <v>728</v>
       </c>
       <c r="F153" s="31">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="G153" s="32">
         <v>16584</v>
@@ -7071,10 +7069,10 @@
         <v>0</v>
       </c>
       <c r="D154" s="31">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E154" s="31">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F154" s="31">
         <v>0</v>
@@ -7106,13 +7104,13 @@
         <v>73900</v>
       </c>
       <c r="D155" s="31">
-        <v>41420</v>
+        <v>43722</v>
       </c>
       <c r="E155" s="31">
-        <v>33633</v>
+        <v>34844</v>
       </c>
       <c r="F155" s="31">
-        <v>7787</v>
+        <v>8878</v>
       </c>
       <c r="G155" s="32">
         <v>254605</v>
@@ -7141,13 +7139,13 @@
         <v>200</v>
       </c>
       <c r="D156" s="31">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="E156" s="31">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="F156" s="31">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G156" s="32">
         <v>4386</v>
@@ -7176,13 +7174,13 @@
         <v>700</v>
       </c>
       <c r="D157" s="31">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="E157" s="31">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="F157" s="31">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="G157" s="32">
         <v>11642</v>
@@ -7211,13 +7209,13 @@
         <v>0</v>
       </c>
       <c r="D158" s="31">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="E158" s="31">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="F158" s="31">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G158" s="32">
         <v>8491</v>
@@ -7246,10 +7244,10 @@
         <v>600</v>
       </c>
       <c r="D159" s="31">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="E159" s="31">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="F159" s="31">
         <v>35</v>
@@ -7281,13 +7279,13 @@
         <v>200</v>
       </c>
       <c r="D160" s="31">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="E160" s="31">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="F160" s="31">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G160" s="32">
         <v>3218</v>
@@ -7316,13 +7314,13 @@
         <v>2500</v>
       </c>
       <c r="D161" s="31">
-        <v>934</v>
+        <v>1009</v>
       </c>
       <c r="E161" s="31">
-        <v>889</v>
+        <v>961</v>
       </c>
       <c r="F161" s="31">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G161" s="32">
         <v>28934</v>
@@ -7351,13 +7349,13 @@
         <v>4800</v>
       </c>
       <c r="D162" s="31">
-        <v>3006</v>
+        <v>3070</v>
       </c>
       <c r="E162" s="31">
-        <v>2522</v>
+        <v>2578</v>
       </c>
       <c r="F162" s="31">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="G162" s="32">
         <v>44442</v>
@@ -7386,13 +7384,13 @@
         <v>600</v>
       </c>
       <c r="D163" s="31">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="E163" s="31">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="F163" s="31">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G163" s="32">
         <v>6974</v>
@@ -7421,13 +7419,13 @@
         <v>23700</v>
       </c>
       <c r="D164" s="31">
-        <v>15782</v>
+        <v>16801</v>
       </c>
       <c r="E164" s="31">
-        <v>13971</v>
+        <v>14655</v>
       </c>
       <c r="F164" s="31">
-        <v>1811</v>
+        <v>2146</v>
       </c>
       <c r="G164" s="32">
         <v>198197</v>
@@ -7456,13 +7454,13 @@
         <v>100</v>
       </c>
       <c r="D165" s="31">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E165" s="31">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F165" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G165" s="32">
         <v>671</v>
@@ -7491,13 +7489,13 @@
         <v>1400</v>
       </c>
       <c r="D166" s="31">
-        <v>2719</v>
+        <v>2886</v>
       </c>
       <c r="E166" s="31">
-        <v>2157</v>
+        <v>2274</v>
       </c>
       <c r="F166" s="31">
-        <v>562</v>
+        <v>612</v>
       </c>
       <c r="G166" s="32">
         <v>40921</v>
@@ -7526,13 +7524,13 @@
         <v>100</v>
       </c>
       <c r="D167" s="31">
-        <v>105</v>
+        <v>187</v>
       </c>
       <c r="E167" s="31">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="F167" s="31">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G167" s="32">
         <v>1807</v>
@@ -7561,13 +7559,13 @@
         <v>16750</v>
       </c>
       <c r="D168" s="31">
-        <v>8678</v>
+        <v>9462</v>
       </c>
       <c r="E168" s="31">
-        <v>6534</v>
+        <v>7245</v>
       </c>
       <c r="F168" s="31">
-        <v>2144</v>
+        <v>2217</v>
       </c>
       <c r="G168" s="32">
         <v>144930</v>
@@ -7596,13 +7594,13 @@
         <v>1800</v>
       </c>
       <c r="D169" s="31">
-        <v>1361</v>
+        <v>1485</v>
       </c>
       <c r="E169" s="31">
-        <v>1291</v>
+        <v>1381</v>
       </c>
       <c r="F169" s="31">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="G169" s="32">
         <v>19423</v>
@@ -7631,13 +7629,13 @@
         <v>200</v>
       </c>
       <c r="D170" s="31">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="E170" s="31">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F170" s="31">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G170" s="32">
         <v>3922</v>
@@ -7666,13 +7664,13 @@
         <v>600</v>
       </c>
       <c r="D171" s="31">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="E171" s="31">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F171" s="31">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G171" s="32">
         <v>8166</v>
@@ -7701,13 +7699,13 @@
         <v>1275</v>
       </c>
       <c r="D172" s="31">
-        <v>1465</v>
+        <v>1545</v>
       </c>
       <c r="E172" s="31">
-        <v>1379</v>
+        <v>1439</v>
       </c>
       <c r="F172" s="31">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G172" s="32">
         <v>15356</v>
@@ -7736,13 +7734,13 @@
         <v>47850</v>
       </c>
       <c r="D173" s="31">
-        <v>23389</v>
+        <v>24623</v>
       </c>
       <c r="E173" s="31">
-        <v>19548</v>
+        <v>20056</v>
       </c>
       <c r="F173" s="31">
-        <v>3841</v>
+        <v>4567</v>
       </c>
       <c r="G173" s="32">
         <v>494493</v>
@@ -7771,13 +7769,13 @@
         <v>1100</v>
       </c>
       <c r="D174" s="31">
-        <v>1495</v>
+        <v>1596</v>
       </c>
       <c r="E174" s="31">
-        <v>1309</v>
+        <v>1372</v>
       </c>
       <c r="F174" s="31">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="G174" s="32">
         <v>16000</v>
@@ -7806,13 +7804,13 @@
         <v>300</v>
       </c>
       <c r="D175" s="31">
-        <v>546</v>
+        <v>569</v>
       </c>
       <c r="E175" s="31">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="F175" s="31">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="G175" s="32">
         <v>9910</v>
@@ -7841,13 +7839,13 @@
         <v>0</v>
       </c>
       <c r="D176" s="31">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E176" s="31">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F176" s="31">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G176" s="32">
         <v>986</v>
@@ -7876,13 +7874,13 @@
         <v>6700</v>
       </c>
       <c r="D177" s="31">
-        <v>5495</v>
+        <v>6148</v>
       </c>
       <c r="E177" s="31">
-        <v>4784</v>
+        <v>5321</v>
       </c>
       <c r="F177" s="31">
-        <v>711</v>
+        <v>827</v>
       </c>
       <c r="G177" s="32">
         <v>52134</v>
@@ -7911,13 +7909,13 @@
         <v>4000</v>
       </c>
       <c r="D178" s="31">
-        <v>2446</v>
+        <v>3012</v>
       </c>
       <c r="E178" s="31">
-        <v>2187</v>
+        <v>2660</v>
       </c>
       <c r="F178" s="31">
-        <v>259</v>
+        <v>352</v>
       </c>
       <c r="G178" s="32">
         <v>37845</v>
@@ -7946,13 +7944,13 @@
         <v>400</v>
       </c>
       <c r="D179" s="31">
-        <v>469</v>
+        <v>559</v>
       </c>
       <c r="E179" s="31">
-        <v>453</v>
+        <v>528</v>
       </c>
       <c r="F179" s="31">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G179" s="32">
         <v>11330</v>
@@ -7981,13 +7979,13 @@
         <v>1600</v>
       </c>
       <c r="D180" s="31">
-        <v>1609</v>
+        <v>1709</v>
       </c>
       <c r="E180" s="31">
-        <v>1483</v>
+        <v>1572</v>
       </c>
       <c r="F180" s="31">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G180" s="32">
         <v>12129</v>
@@ -8016,13 +8014,13 @@
         <v>48525</v>
       </c>
       <c r="D181" s="31">
-        <v>25670</v>
+        <v>26754</v>
       </c>
       <c r="E181" s="31">
-        <v>18628</v>
+        <v>19406</v>
       </c>
       <c r="F181" s="31">
-        <v>7042</v>
+        <v>7348</v>
       </c>
       <c r="G181" s="32">
         <v>301743</v>
@@ -8051,13 +8049,13 @@
         <v>900</v>
       </c>
       <c r="D182" s="31">
-        <v>678</v>
+        <v>719</v>
       </c>
       <c r="E182" s="31">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="F182" s="31">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="G182" s="32">
         <v>8466</v>
@@ -8086,13 +8084,13 @@
         <v>100</v>
       </c>
       <c r="D183" s="31">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="E183" s="31">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F183" s="31">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G183" s="32">
         <v>1797</v>
@@ -8121,13 +8119,13 @@
         <v>1200</v>
       </c>
       <c r="D184" s="31">
-        <v>1867</v>
+        <v>1948</v>
       </c>
       <c r="E184" s="31">
-        <v>1708</v>
+        <v>1768</v>
       </c>
       <c r="F184" s="31">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="G184" s="32">
         <v>68992</v>
@@ -8156,13 +8154,13 @@
         <v>1300</v>
       </c>
       <c r="D185" s="31">
-        <v>989</v>
+        <v>1115</v>
       </c>
       <c r="E185" s="31">
-        <v>953</v>
+        <v>975</v>
       </c>
       <c r="F185" s="31">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="G185" s="32">
         <v>22350</v>
@@ -8191,13 +8189,13 @@
         <v>1200</v>
       </c>
       <c r="D186" s="31">
-        <v>920</v>
+        <v>953</v>
       </c>
       <c r="E186" s="31">
-        <v>844</v>
+        <v>870</v>
       </c>
       <c r="F186" s="31">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G186" s="32">
         <v>19380</v>
@@ -8226,13 +8224,13 @@
         <v>9200</v>
       </c>
       <c r="D187" s="31">
-        <v>7940</v>
+        <v>8503</v>
       </c>
       <c r="E187" s="31">
-        <v>6957</v>
+        <v>7299</v>
       </c>
       <c r="F187" s="31">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="G187" s="32">
         <v>109678</v>
@@ -8261,13 +8259,13 @@
         <v>500</v>
       </c>
       <c r="D188" s="31">
-        <v>706</v>
+        <v>736</v>
       </c>
       <c r="E188" s="31">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="F188" s="31">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="G188" s="32">
         <v>6852</v>
@@ -8296,13 +8294,13 @@
         <v>1300</v>
       </c>
       <c r="D189" s="31">
-        <v>1122</v>
+        <v>1188</v>
       </c>
       <c r="E189" s="31">
-        <v>701</v>
+        <v>765</v>
       </c>
       <c r="F189" s="31">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G189" s="32">
         <v>12932</v>
@@ -8331,13 +8329,13 @@
         <v>2800</v>
       </c>
       <c r="D190" s="31">
-        <v>1915</v>
+        <v>2014</v>
       </c>
       <c r="E190" s="31">
-        <v>1768</v>
+        <v>1808</v>
       </c>
       <c r="F190" s="31">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="G190" s="32">
         <v>40850</v>
@@ -8366,13 +8364,13 @@
         <v>60050</v>
       </c>
       <c r="D191" s="31">
-        <v>14864</v>
+        <v>15928</v>
       </c>
       <c r="E191" s="31">
-        <v>12664</v>
+        <v>13098</v>
       </c>
       <c r="F191" s="31">
-        <v>2200</v>
+        <v>2830</v>
       </c>
       <c r="G191" s="32">
         <v>95716</v>
@@ -8401,13 +8399,13 @@
         <v>400</v>
       </c>
       <c r="D192" s="31">
-        <v>277</v>
+        <v>340</v>
       </c>
       <c r="E192" s="31">
-        <v>258</v>
+        <v>320</v>
       </c>
       <c r="F192" s="31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G192" s="32">
         <v>4516</v>
@@ -8436,13 +8434,13 @@
         <v>200</v>
       </c>
       <c r="D193" s="31">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="E193" s="31">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="F193" s="31">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G193" s="32">
         <v>9415</v>
@@ -8471,13 +8469,13 @@
         <v>4600</v>
       </c>
       <c r="D194" s="31">
-        <v>23099</v>
+        <v>24519</v>
       </c>
       <c r="E194" s="31">
-        <v>19208</v>
+        <v>19657</v>
       </c>
       <c r="F194" s="31">
-        <v>3891</v>
+        <v>4862</v>
       </c>
       <c r="G194" s="32">
         <v>110179</v>
@@ -8506,13 +8504,13 @@
         <v>200</v>
       </c>
       <c r="D195" s="31">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="E195" s="31">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="F195" s="31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G195" s="32">
         <v>3272</v>
@@ -8541,13 +8539,13 @@
         <v>0</v>
       </c>
       <c r="D196" s="31">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="E196" s="31">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="F196" s="31">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G196" s="32">
         <v>2778</v>
@@ -8576,13 +8574,13 @@
         <v>500</v>
       </c>
       <c r="D197" s="31">
-        <v>915</v>
+        <v>961</v>
       </c>
       <c r="E197" s="31">
-        <v>838</v>
+        <v>861</v>
       </c>
       <c r="F197" s="31">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="G197" s="32">
         <v>10218</v>
@@ -8611,13 +8609,13 @@
         <v>2450</v>
       </c>
       <c r="D198" s="31">
-        <v>1763</v>
+        <v>2030</v>
       </c>
       <c r="E198" s="31">
-        <v>1736</v>
+        <v>1958</v>
       </c>
       <c r="F198" s="31">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="G198" s="32">
         <v>12796</v>
@@ -8646,13 +8644,13 @@
         <v>600</v>
       </c>
       <c r="D199" s="31">
-        <v>822</v>
+        <v>963</v>
       </c>
       <c r="E199" s="31">
-        <v>661</v>
+        <v>691</v>
       </c>
       <c r="F199" s="31">
-        <v>161</v>
+        <v>272</v>
       </c>
       <c r="G199" s="32">
         <v>6038</v>
@@ -8681,13 +8679,13 @@
         <v>0</v>
       </c>
       <c r="D200" s="31">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E200" s="31">
         <v>53</v>
       </c>
       <c r="F200" s="31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G200" s="32">
         <v>794</v>
@@ -8716,13 +8714,13 @@
         <v>700</v>
       </c>
       <c r="D201" s="31">
-        <v>668</v>
+        <v>690</v>
       </c>
       <c r="E201" s="31">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="F201" s="31">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G201" s="32">
         <v>13592</v>
@@ -8751,13 +8749,13 @@
         <v>4400</v>
       </c>
       <c r="D202" s="31">
-        <v>5611</v>
+        <v>5942</v>
       </c>
       <c r="E202" s="31">
-        <v>4549</v>
+        <v>4765</v>
       </c>
       <c r="F202" s="31">
-        <v>1062</v>
+        <v>1177</v>
       </c>
       <c r="G202" s="32">
         <v>83981</v>
@@ -8786,13 +8784,13 @@
         <v>1300</v>
       </c>
       <c r="D203" s="31">
-        <v>1083</v>
+        <v>1175</v>
       </c>
       <c r="E203" s="31">
-        <v>881</v>
+        <v>910</v>
       </c>
       <c r="F203" s="31">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="G203" s="32">
         <v>8755</v>
@@ -8821,13 +8819,13 @@
         <v>1100</v>
       </c>
       <c r="D204" s="31">
-        <v>1743</v>
+        <v>1796</v>
       </c>
       <c r="E204" s="31">
-        <v>1471</v>
+        <v>1512</v>
       </c>
       <c r="F204" s="31">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="G204" s="32">
         <v>42667</v>
@@ -8856,13 +8854,13 @@
         <v>1300</v>
       </c>
       <c r="D205" s="31">
-        <v>929</v>
+        <v>973</v>
       </c>
       <c r="E205" s="31">
-        <v>898</v>
+        <v>920</v>
       </c>
       <c r="F205" s="31">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G205" s="32">
         <v>8194</v>
@@ -8891,13 +8889,13 @@
         <v>800</v>
       </c>
       <c r="D206" s="31">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="E206" s="31">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="F206" s="31">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G206" s="32">
         <v>6879</v>
@@ -8926,13 +8924,13 @@
         <v>1100</v>
       </c>
       <c r="D207" s="31">
-        <v>997</v>
+        <v>1089</v>
       </c>
       <c r="E207" s="31">
-        <v>920</v>
+        <v>993</v>
       </c>
       <c r="F207" s="31">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="G207" s="32">
         <v>23313</v>
@@ -8961,13 +8959,13 @@
         <v>1700</v>
       </c>
       <c r="D208" s="31">
-        <v>2877</v>
+        <v>3047</v>
       </c>
       <c r="E208" s="31">
-        <v>2310</v>
+        <v>2468</v>
       </c>
       <c r="F208" s="31">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="G208" s="32">
         <v>55627</v>
@@ -8996,13 +8994,13 @@
         <v>200</v>
       </c>
       <c r="D209" s="31">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E209" s="31">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F209" s="31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G209" s="32">
         <v>4798</v>
@@ -9031,13 +9029,13 @@
         <v>200</v>
       </c>
       <c r="D210" s="31">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="E210" s="31">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F210" s="31">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G210" s="32">
         <v>2580</v>
@@ -9066,13 +9064,13 @@
         <v>1875</v>
       </c>
       <c r="D211" s="31">
-        <v>793</v>
+        <v>859</v>
       </c>
       <c r="E211" s="31">
-        <v>765</v>
+        <v>818</v>
       </c>
       <c r="F211" s="31">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G211" s="32">
         <v>14395</v>
@@ -9101,13 +9099,13 @@
         <v>100</v>
       </c>
       <c r="D212" s="31">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E212" s="31">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F212" s="31">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G212" s="32">
         <v>2713</v>
@@ -9136,13 +9134,13 @@
         <v>1200</v>
       </c>
       <c r="D213" s="31">
-        <v>794</v>
+        <v>864</v>
       </c>
       <c r="E213" s="31">
-        <v>725</v>
+        <v>785</v>
       </c>
       <c r="F213" s="31">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="G213" s="32">
         <v>19620</v>
@@ -9171,10 +9169,10 @@
         <v>100</v>
       </c>
       <c r="D214" s="31">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="E214" s="31">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="F214" s="31">
         <v>9</v>
@@ -9206,13 +9204,13 @@
         <v>47600</v>
       </c>
       <c r="D215" s="31">
-        <v>21465</v>
+        <v>22423</v>
       </c>
       <c r="E215" s="31">
-        <v>16358</v>
+        <v>17080</v>
       </c>
       <c r="F215" s="31">
-        <v>5107</v>
+        <v>5343</v>
       </c>
       <c r="G215" s="32">
         <v>186509</v>
@@ -9241,13 +9239,13 @@
         <v>300</v>
       </c>
       <c r="D216" s="31">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="E216" s="31">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F216" s="31">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G216" s="32">
         <v>7605</v>
@@ -9276,13 +9274,13 @@
         <v>3800</v>
       </c>
       <c r="D217" s="31">
-        <v>3419</v>
+        <v>3766</v>
       </c>
       <c r="E217" s="31">
-        <v>2555</v>
+        <v>2654</v>
       </c>
       <c r="F217" s="31">
-        <v>864</v>
+        <v>1112</v>
       </c>
       <c r="G217" s="32">
         <v>47076</v>
@@ -9311,13 +9309,13 @@
         <v>300</v>
       </c>
       <c r="D218" s="31">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="E218" s="31">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="F218" s="31">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G218" s="32">
         <v>7628</v>
@@ -9346,10 +9344,10 @@
         <v>100</v>
       </c>
       <c r="D219" s="31">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E219" s="31">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F219" s="31">
         <v>5</v>
@@ -9381,10 +9379,10 @@
         <v>200</v>
       </c>
       <c r="D220" s="31">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E220" s="31">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F220" s="31">
         <v>5</v>
@@ -9416,13 +9414,13 @@
         <v>200</v>
       </c>
       <c r="D221" s="31">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="E221" s="31">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="F221" s="31">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G221" s="32">
         <v>3494</v>
@@ -9451,13 +9449,13 @@
         <v>200</v>
       </c>
       <c r="D222" s="31">
-        <v>596</v>
+        <v>649</v>
       </c>
       <c r="E222" s="31">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="F222" s="31">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="G222" s="32">
         <v>5828</v>
@@ -9486,13 +9484,13 @@
         <v>277725</v>
       </c>
       <c r="D223" s="31">
-        <v>111208</v>
+        <v>117089</v>
       </c>
       <c r="E223" s="31">
-        <v>97596</v>
+        <v>101545</v>
       </c>
       <c r="F223" s="31">
-        <v>13612</v>
+        <v>15544</v>
       </c>
       <c r="G223" s="32">
         <v>1697191</v>
@@ -9521,13 +9519,13 @@
         <v>16875</v>
       </c>
       <c r="D224" s="31">
-        <v>12397</v>
+        <v>13315</v>
       </c>
       <c r="E224" s="31">
-        <v>8899</v>
+        <v>9488</v>
       </c>
       <c r="F224" s="31">
-        <v>3498</v>
+        <v>3827</v>
       </c>
       <c r="G224" s="32">
         <v>109707</v>
@@ -9556,13 +9554,13 @@
         <v>0</v>
       </c>
       <c r="D225" s="31">
-        <v>51</v>
+        <v>215</v>
       </c>
       <c r="E225" s="31">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="F225" s="31">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G225" s="32">
         <v>870</v>
@@ -9591,13 +9589,13 @@
         <v>2375</v>
       </c>
       <c r="D226" s="31">
-        <v>1128</v>
+        <v>1371</v>
       </c>
       <c r="E226" s="31">
-        <v>844</v>
+        <v>1054</v>
       </c>
       <c r="F226" s="31">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="G226" s="32">
         <v>9981</v>
@@ -9626,13 +9624,13 @@
         <v>300</v>
       </c>
       <c r="D227" s="31">
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="E227" s="31">
-        <v>196</v>
+        <v>257</v>
       </c>
       <c r="F227" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G227" s="32">
         <v>1235</v>
@@ -9661,13 +9659,13 @@
         <v>2700</v>
       </c>
       <c r="D228" s="31">
-        <v>1557</v>
+        <v>1611</v>
       </c>
       <c r="E228" s="31">
-        <v>1115</v>
+        <v>1161</v>
       </c>
       <c r="F228" s="31">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="G228" s="32">
         <v>24866</v>
@@ -9696,13 +9694,13 @@
         <v>16950</v>
       </c>
       <c r="D229" s="31">
-        <v>11353</v>
+        <v>11574</v>
       </c>
       <c r="E229" s="31">
-        <v>8818</v>
+        <v>8992</v>
       </c>
       <c r="F229" s="31">
-        <v>2535</v>
+        <v>2582</v>
       </c>
       <c r="G229" s="32">
         <v>99401</v>
@@ -9731,13 +9729,13 @@
         <v>150550</v>
       </c>
       <c r="D230" s="31">
-        <v>85374</v>
+        <v>89526</v>
       </c>
       <c r="E230" s="31">
-        <v>68912</v>
+        <v>71035</v>
       </c>
       <c r="F230" s="31">
-        <v>16462</v>
+        <v>18491</v>
       </c>
       <c r="G230" s="32">
         <v>1055964</v>
@@ -9766,13 +9764,13 @@
         <v>1775</v>
       </c>
       <c r="D231" s="31">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="E231" s="31">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="F231" s="31">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G231" s="32">
         <v>11811</v>
@@ -9801,13 +9799,13 @@
         <v>1200</v>
       </c>
       <c r="D232" s="31">
-        <v>1267</v>
+        <v>1343</v>
       </c>
       <c r="E232" s="31">
-        <v>1201</v>
+        <v>1211</v>
       </c>
       <c r="F232" s="31">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="G232" s="32">
         <v>17475</v>
@@ -9836,13 +9834,13 @@
         <v>600</v>
       </c>
       <c r="D233" s="31">
-        <v>1389</v>
+        <v>1459</v>
       </c>
       <c r="E233" s="31">
-        <v>1084</v>
+        <v>1135</v>
       </c>
       <c r="F233" s="31">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="G233" s="32">
         <v>33807</v>
@@ -9871,10 +9869,10 @@
         <v>400</v>
       </c>
       <c r="D234" s="31">
-        <v>352</v>
+        <v>403</v>
       </c>
       <c r="E234" s="31">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="F234" s="31">
         <v>127</v>
@@ -9906,13 +9904,13 @@
         <v>3750</v>
       </c>
       <c r="D235" s="31">
-        <v>3074</v>
+        <v>3306</v>
       </c>
       <c r="E235" s="31">
-        <v>2669</v>
+        <v>2896</v>
       </c>
       <c r="F235" s="31">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="G235" s="32">
         <v>21966</v>
@@ -9941,13 +9939,13 @@
         <v>4050</v>
       </c>
       <c r="D236" s="31">
-        <v>2939</v>
+        <v>2972</v>
       </c>
       <c r="E236" s="31">
-        <v>2506</v>
+        <v>2537</v>
       </c>
       <c r="F236" s="31">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G236" s="32">
         <v>36171</v>
@@ -9976,13 +9974,13 @@
         <v>2000</v>
       </c>
       <c r="D237" s="31">
-        <v>2826</v>
+        <v>3001</v>
       </c>
       <c r="E237" s="31">
-        <v>2330</v>
+        <v>2407</v>
       </c>
       <c r="F237" s="31">
-        <v>496</v>
+        <v>594</v>
       </c>
       <c r="G237" s="32">
         <v>44585</v>
@@ -10011,13 +10009,13 @@
         <v>9175</v>
       </c>
       <c r="D238" s="31">
-        <v>6464</v>
+        <v>7647</v>
       </c>
       <c r="E238" s="31">
-        <v>4961</v>
+        <v>6061</v>
       </c>
       <c r="F238" s="31">
-        <v>1503</v>
+        <v>1586</v>
       </c>
       <c r="G238" s="32">
         <v>78170</v>
@@ -10046,13 +10044,13 @@
         <v>4000</v>
       </c>
       <c r="D239" s="31">
-        <v>2621</v>
+        <v>2756</v>
       </c>
       <c r="E239" s="31">
-        <v>2369</v>
+        <v>2435</v>
       </c>
       <c r="F239" s="31">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="G239" s="32">
         <v>63001</v>
@@ -10081,13 +10079,13 @@
         <v>1700</v>
       </c>
       <c r="D240" s="31">
-        <v>1405</v>
+        <v>1510</v>
       </c>
       <c r="E240" s="31">
-        <v>1259</v>
+        <v>1316</v>
       </c>
       <c r="F240" s="31">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="G240" s="32">
         <v>41643</v>
@@ -10116,13 +10114,13 @@
         <v>400</v>
       </c>
       <c r="D241" s="31">
-        <v>468</v>
+        <v>575</v>
       </c>
       <c r="E241" s="31">
-        <v>362</v>
+        <v>467</v>
       </c>
       <c r="F241" s="31">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G241" s="32">
         <v>10349</v>
@@ -10151,13 +10149,13 @@
         <v>6200</v>
       </c>
       <c r="D242" s="31">
-        <v>1820</v>
+        <v>1963</v>
       </c>
       <c r="E242" s="31">
-        <v>1667</v>
+        <v>1732</v>
       </c>
       <c r="F242" s="31">
-        <v>153</v>
+        <v>231</v>
       </c>
       <c r="G242" s="32">
         <v>28511</v>
@@ -10186,13 +10184,13 @@
         <v>33500</v>
       </c>
       <c r="D243" s="31">
-        <v>16923</v>
+        <v>18521</v>
       </c>
       <c r="E243" s="31">
-        <v>13831</v>
+        <v>14813</v>
       </c>
       <c r="F243" s="31">
-        <v>3092</v>
+        <v>3708</v>
       </c>
       <c r="G243" s="32">
         <v>206120</v>
@@ -10221,13 +10219,13 @@
         <v>2100</v>
       </c>
       <c r="D244" s="31">
-        <v>1328</v>
+        <v>1426</v>
       </c>
       <c r="E244" s="31">
-        <v>1213</v>
+        <v>1299</v>
       </c>
       <c r="F244" s="31">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G244" s="32">
         <v>32707</v>
@@ -10256,13 +10254,13 @@
         <v>400</v>
       </c>
       <c r="D245" s="31">
-        <v>465</v>
+        <v>493</v>
       </c>
       <c r="E245" s="31">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="F245" s="31">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G245" s="32">
         <v>4507</v>
@@ -10291,13 +10289,13 @@
         <v>21600</v>
       </c>
       <c r="D246" s="31">
-        <v>12463</v>
+        <v>12893</v>
       </c>
       <c r="E246" s="31">
-        <v>10252</v>
+        <v>10541</v>
       </c>
       <c r="F246" s="31">
-        <v>2211</v>
+        <v>2352</v>
       </c>
       <c r="G246" s="32">
         <v>106967</v>
@@ -10326,13 +10324,13 @@
         <v>4700</v>
       </c>
       <c r="D247" s="31">
-        <v>1929</v>
+        <v>2066</v>
       </c>
       <c r="E247" s="31">
-        <v>1420</v>
+        <v>1537</v>
       </c>
       <c r="F247" s="31">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="G247" s="32">
         <v>10374</v>
@@ -10361,13 +10359,13 @@
         <v>500</v>
       </c>
       <c r="D248" s="31">
-        <v>1494</v>
+        <v>1555</v>
       </c>
       <c r="E248" s="31">
-        <v>1383</v>
+        <v>1412</v>
       </c>
       <c r="F248" s="31">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="G248" s="32">
         <v>17301</v>
@@ -10396,13 +10394,13 @@
         <v>44250</v>
       </c>
       <c r="D249" s="31">
-        <v>34678</v>
+        <v>36530</v>
       </c>
       <c r="E249" s="31">
-        <v>27927</v>
+        <v>28574</v>
       </c>
       <c r="F249" s="31">
-        <v>6751</v>
+        <v>7956</v>
       </c>
       <c r="G249" s="32">
         <v>476807</v>
@@ -10431,13 +10429,13 @@
         <v>3400</v>
       </c>
       <c r="D250" s="31">
-        <v>3393</v>
+        <v>3586</v>
       </c>
       <c r="E250" s="31">
-        <v>2536</v>
+        <v>2634</v>
       </c>
       <c r="F250" s="31">
-        <v>857</v>
+        <v>952</v>
       </c>
       <c r="G250" s="32">
         <v>42688</v>
@@ -10466,13 +10464,13 @@
         <v>200</v>
       </c>
       <c r="D251" s="31">
-        <v>304</v>
+        <v>552</v>
       </c>
       <c r="E251" s="31">
-        <v>271</v>
+        <v>516</v>
       </c>
       <c r="F251" s="31">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G251" s="32">
         <v>6884</v>
@@ -10501,13 +10499,13 @@
         <v>5550</v>
       </c>
       <c r="D252" s="31">
-        <v>4407</v>
+        <v>4473</v>
       </c>
       <c r="E252" s="31">
-        <v>3412</v>
+        <v>3443</v>
       </c>
       <c r="F252" s="31">
-        <v>995</v>
+        <v>1030</v>
       </c>
       <c r="G252" s="32">
         <v>53226</v>
@@ -10536,13 +10534,13 @@
         <v>1500</v>
       </c>
       <c r="D253" s="31">
-        <v>2382</v>
+        <v>2505</v>
       </c>
       <c r="E253" s="31">
-        <v>2017</v>
+        <v>2114</v>
       </c>
       <c r="F253" s="31">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="G253" s="32">
         <v>37555</v>
@@ -10571,13 +10569,13 @@
         <v>600</v>
       </c>
       <c r="D254" s="31">
-        <v>633</v>
+        <v>692</v>
       </c>
       <c r="E254" s="31">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="F254" s="31">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="G254" s="32">
         <v>6757</v>
@@ -10606,13 +10604,13 @@
         <v>1900</v>
       </c>
       <c r="D255" s="31">
-        <v>950</v>
+        <v>1075</v>
       </c>
       <c r="E255" s="31">
-        <v>839</v>
+        <v>908</v>
       </c>
       <c r="F255" s="31">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="G255" s="32">
         <v>14738</v>
@@ -10641,13 +10639,13 @@
         <v>700</v>
       </c>
       <c r="D256" s="31">
-        <v>614</v>
+        <v>688</v>
       </c>
       <c r="E256" s="31">
-        <v>541</v>
+        <v>606</v>
       </c>
       <c r="F256" s="31">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G256" s="32">
         <v>10303</v>
@@ -10676,13 +10674,13 @@
         <v>200</v>
       </c>
       <c r="D257" s="31">
-        <v>901</v>
+        <v>1002</v>
       </c>
       <c r="E257" s="31">
-        <v>814</v>
+        <v>903</v>
       </c>
       <c r="F257" s="31">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G257" s="32">
         <v>9244</v>
@@ -10711,13 +10709,13 @@
         <v>9775</v>
       </c>
       <c r="D258" s="31">
-        <v>205243</v>
+        <v>217896</v>
       </c>
       <c r="E258" s="31">
-        <v>172799</v>
+        <v>181646</v>
       </c>
       <c r="F258" s="31">
-        <v>32444</v>
+        <v>36250</v>
       </c>
       <c r="G258" s="32"/>
       <c r="H258" s="32"/>
@@ -10791,13 +10789,13 @@
         <v>298</v>
       </c>
       <c r="D2" s="31">
-        <v>35529</v>
+        <v>36360</v>
       </c>
       <c r="E2" s="31">
-        <v>24424</v>
+        <v>24718</v>
       </c>
       <c r="F2" s="31">
-        <v>11105</v>
+        <v>11642</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -10811,13 +10809,13 @@
         <v>299</v>
       </c>
       <c r="D3" s="31">
-        <v>23310</v>
+        <v>24066</v>
       </c>
       <c r="E3" s="31">
-        <v>17163</v>
+        <v>17562</v>
       </c>
       <c r="F3" s="31">
-        <v>6147</v>
+        <v>6504</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -10831,13 +10829,13 @@
         <v>297</v>
       </c>
       <c r="D4" s="31">
-        <v>65751</v>
+        <v>68456</v>
       </c>
       <c r="E4" s="31">
-        <v>47964</v>
+        <v>49290</v>
       </c>
       <c r="F4" s="31">
-        <v>17787</v>
+        <v>19166</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -10851,13 +10849,13 @@
         <v>301</v>
       </c>
       <c r="D5" s="31">
-        <v>136926</v>
+        <v>142087</v>
       </c>
       <c r="E5" s="31">
-        <v>95493</v>
+        <v>98076</v>
       </c>
       <c r="F5" s="31">
-        <v>41433</v>
+        <v>44011</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -10871,13 +10869,13 @@
         <v>300</v>
       </c>
       <c r="D6" s="31">
-        <v>41557</v>
+        <v>43319</v>
       </c>
       <c r="E6" s="31">
-        <v>32577</v>
+        <v>33836</v>
       </c>
       <c r="F6" s="31">
-        <v>8980</v>
+        <v>9483</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -10891,13 +10889,13 @@
         <v>286</v>
       </c>
       <c r="D7" s="31">
-        <v>224515</v>
+        <v>235316</v>
       </c>
       <c r="E7" s="31">
-        <v>170201</v>
+        <v>175946</v>
       </c>
       <c r="F7" s="31">
-        <v>54314</v>
+        <v>59370</v>
       </c>
       <c r="O7" s="30"/>
     </row>
@@ -10912,13 +10910,13 @@
         <v>298</v>
       </c>
       <c r="D8" s="31">
-        <v>15457</v>
+        <v>15894</v>
       </c>
       <c r="E8" s="31">
-        <v>11464</v>
+        <v>11689</v>
       </c>
       <c r="F8" s="31">
-        <v>3993</v>
+        <v>4205</v>
       </c>
       <c r="O8" s="30"/>
     </row>
@@ -10933,13 +10931,13 @@
         <v>299</v>
       </c>
       <c r="D9" s="31">
-        <v>17710</v>
+        <v>18371</v>
       </c>
       <c r="E9" s="31">
-        <v>13465</v>
+        <v>13878</v>
       </c>
       <c r="F9" s="31">
-        <v>4245</v>
+        <v>4493</v>
       </c>
       <c r="O9" s="30"/>
     </row>
@@ -10954,13 +10952,13 @@
         <v>297</v>
       </c>
       <c r="D10" s="31">
-        <v>29033</v>
+        <v>30598</v>
       </c>
       <c r="E10" s="31">
-        <v>23083</v>
+        <v>24055</v>
       </c>
       <c r="F10" s="31">
-        <v>5950</v>
+        <v>6543</v>
       </c>
       <c r="O10" s="30"/>
     </row>
@@ -10975,13 +10973,13 @@
         <v>301</v>
       </c>
       <c r="D11" s="31">
-        <v>80254</v>
+        <v>84252</v>
       </c>
       <c r="E11" s="31">
-        <v>60883</v>
+        <v>63226</v>
       </c>
       <c r="F11" s="31">
-        <v>19371</v>
+        <v>21026</v>
       </c>
       <c r="O11" s="30"/>
     </row>
@@ -10996,13 +10994,13 @@
         <v>300</v>
       </c>
       <c r="D12" s="31">
-        <v>23003</v>
+        <v>24218</v>
       </c>
       <c r="E12" s="31">
-        <v>18928</v>
+        <v>19841</v>
       </c>
       <c r="F12" s="31">
-        <v>4075</v>
+        <v>4377</v>
       </c>
       <c r="O12" s="30"/>
     </row>
@@ -11017,13 +11015,13 @@
         <v>286</v>
       </c>
       <c r="D13" s="31">
-        <v>133499</v>
+        <v>142007</v>
       </c>
       <c r="E13" s="31">
-        <v>108381</v>
+        <v>113636</v>
       </c>
       <c r="F13" s="31">
-        <v>25118</v>
+        <v>28371</v>
       </c>
       <c r="O13" s="30"/>
     </row>
@@ -11038,13 +11036,13 @@
         <v>298</v>
       </c>
       <c r="D14" s="31">
-        <v>11762</v>
+        <v>12167</v>
       </c>
       <c r="E14" s="31">
-        <v>10675</v>
+        <v>10958</v>
       </c>
       <c r="F14" s="31">
-        <v>1087</v>
+        <v>1209</v>
       </c>
       <c r="O14" s="30"/>
     </row>
@@ -11059,13 +11057,13 @@
         <v>299</v>
       </c>
       <c r="D15" s="31">
-        <v>11140</v>
+        <v>11835</v>
       </c>
       <c r="E15" s="31">
-        <v>10380</v>
+        <v>10982</v>
       </c>
       <c r="F15" s="31">
-        <v>760</v>
+        <v>853</v>
       </c>
       <c r="O15" s="30"/>
     </row>
@@ -11080,13 +11078,13 @@
         <v>297</v>
       </c>
       <c r="D16" s="31">
-        <v>17646</v>
+        <v>18963</v>
       </c>
       <c r="E16" s="31">
-        <v>16343</v>
+        <v>17300</v>
       </c>
       <c r="F16" s="31">
-        <v>1303</v>
+        <v>1663</v>
       </c>
       <c r="O16" s="30"/>
     </row>
@@ -11101,13 +11099,13 @@
         <v>301</v>
       </c>
       <c r="D17" s="31">
-        <v>96115</v>
+        <v>102001</v>
       </c>
       <c r="E17" s="31">
-        <v>89395</v>
+        <v>93575</v>
       </c>
       <c r="F17" s="31">
-        <v>6720</v>
+        <v>8426</v>
       </c>
       <c r="O17" s="30"/>
     </row>
@@ -11122,13 +11120,13 @@
         <v>300</v>
       </c>
       <c r="D18" s="31">
-        <v>22465</v>
+        <v>23625</v>
       </c>
       <c r="E18" s="31">
-        <v>19991</v>
+        <v>20921</v>
       </c>
       <c r="F18" s="31">
-        <v>2474</v>
+        <v>2704</v>
       </c>
       <c r="O18" s="30"/>
     </row>
@@ -11143,13 +11141,13 @@
         <v>286</v>
       </c>
       <c r="D19" s="31">
-        <v>131694</v>
+        <v>142341</v>
       </c>
       <c r="E19" s="31">
-        <v>121063</v>
+        <v>129352</v>
       </c>
       <c r="F19" s="31">
-        <v>10631</v>
+        <v>12989</v>
       </c>
       <c r="O19" s="30"/>
     </row>
@@ -11164,13 +11162,13 @@
         <v>298</v>
       </c>
       <c r="D20" s="31">
-        <v>2402</v>
+        <v>2495</v>
       </c>
       <c r="E20" s="31">
-        <v>2263</v>
+        <v>2330</v>
       </c>
       <c r="F20" s="31">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="O20" s="30"/>
     </row>
@@ -11185,13 +11183,13 @@
         <v>299</v>
       </c>
       <c r="D21" s="31">
-        <v>2325</v>
+        <v>2459</v>
       </c>
       <c r="E21" s="31">
-        <v>2287</v>
+        <v>2409</v>
       </c>
       <c r="F21" s="31">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="O21" s="30"/>
     </row>
@@ -11206,13 +11204,13 @@
         <v>297</v>
       </c>
       <c r="D22" s="31">
-        <v>3677</v>
+        <v>3963</v>
       </c>
       <c r="E22" s="31">
-        <v>3530</v>
+        <v>3749</v>
       </c>
       <c r="F22" s="31">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="O22" s="30"/>
     </row>
@@ -11227,13 +11225,13 @@
         <v>301</v>
       </c>
       <c r="D23" s="31">
-        <v>27727</v>
+        <v>29218</v>
       </c>
       <c r="E23" s="31">
-        <v>26486</v>
+        <v>27528</v>
       </c>
       <c r="F23" s="31">
-        <v>1241</v>
+        <v>1690</v>
       </c>
       <c r="O23" s="30"/>
     </row>
@@ -11248,13 +11246,13 @@
         <v>300</v>
       </c>
       <c r="D24" s="31">
-        <v>24213</v>
+        <v>25460</v>
       </c>
       <c r="E24" s="31">
-        <v>20539</v>
+        <v>21638</v>
       </c>
       <c r="F24" s="31">
-        <v>3674</v>
+        <v>3822</v>
       </c>
       <c r="O24" s="30"/>
     </row>
@@ -11269,13 +11267,13 @@
         <v>286</v>
       </c>
       <c r="D25" s="31">
-        <v>47740</v>
+        <v>51315</v>
       </c>
       <c r="E25" s="31">
-        <v>44017</v>
+        <v>46608</v>
       </c>
       <c r="F25" s="31">
-        <v>3723</v>
+        <v>4707</v>
       </c>
       <c r="O25" s="30"/>
     </row>
@@ -11290,13 +11288,13 @@
         <v>298</v>
       </c>
       <c r="D26" s="31">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E26" s="31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F26" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="30"/>
     </row>
@@ -11332,10 +11330,10 @@
         <v>297</v>
       </c>
       <c r="D28" s="31">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E28" s="31">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F28" s="31">
         <v>4</v>
@@ -11353,13 +11351,13 @@
         <v>301</v>
       </c>
       <c r="D29" s="31">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="E29" s="31">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F29" s="31">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O29" s="30"/>
     </row>
@@ -11374,13 +11372,13 @@
         <v>300</v>
       </c>
       <c r="D30" s="31">
+        <v>18</v>
+      </c>
+      <c r="E30" s="31">
         <v>15</v>
       </c>
-      <c r="E30" s="31">
-        <v>14</v>
-      </c>
       <c r="F30" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O30" s="30"/>
     </row>
@@ -11395,10 +11393,10 @@
         <v>286</v>
       </c>
       <c r="D31" s="31">
-        <v>747</v>
+        <v>774</v>
       </c>
       <c r="E31" s="31">
-        <v>706</v>
+        <v>733</v>
       </c>
       <c r="F31" s="31">
         <v>41</v>
@@ -11416,13 +11414,13 @@
         <v>298</v>
       </c>
       <c r="D32" s="31">
-        <v>23145</v>
+        <v>23764</v>
       </c>
       <c r="E32" s="31">
-        <v>16109</v>
+        <v>16330</v>
       </c>
       <c r="F32" s="31">
-        <v>7036</v>
+        <v>7434</v>
       </c>
       <c r="O32" s="30"/>
     </row>
@@ -11437,13 +11435,13 @@
         <v>299</v>
       </c>
       <c r="D33" s="31">
-        <v>9968</v>
+        <v>10307</v>
       </c>
       <c r="E33" s="31">
-        <v>7442</v>
+        <v>7623</v>
       </c>
       <c r="F33" s="31">
-        <v>2526</v>
+        <v>2684</v>
       </c>
       <c r="O33" s="30"/>
     </row>
@@ -11458,13 +11456,13 @@
         <v>297</v>
       </c>
       <c r="D34" s="31">
-        <v>33979</v>
+        <v>35696</v>
       </c>
       <c r="E34" s="31">
-        <v>25322</v>
+        <v>26200</v>
       </c>
       <c r="F34" s="31">
-        <v>8657</v>
+        <v>9496</v>
       </c>
       <c r="O34" s="30"/>
     </row>
@@ -11479,13 +11477,13 @@
         <v>301</v>
       </c>
       <c r="D35" s="31">
-        <v>68112</v>
+        <v>71518</v>
       </c>
       <c r="E35" s="31">
-        <v>49093</v>
+        <v>50666</v>
       </c>
       <c r="F35" s="31">
-        <v>19019</v>
+        <v>20852</v>
       </c>
       <c r="O35" s="30"/>
     </row>
@@ -11500,13 +11498,13 @@
         <v>300</v>
       </c>
       <c r="D36" s="31">
-        <v>19880</v>
+        <v>20764</v>
       </c>
       <c r="E36" s="31">
-        <v>15480</v>
+        <v>16076</v>
       </c>
       <c r="F36" s="31">
-        <v>4400</v>
+        <v>4688</v>
       </c>
       <c r="O36" s="30"/>
     </row>
@@ -11521,13 +11519,13 @@
         <v>286</v>
       </c>
       <c r="D37" s="31">
-        <v>132879</v>
+        <v>139888</v>
       </c>
       <c r="E37" s="31">
-        <v>101852</v>
+        <v>105645</v>
       </c>
       <c r="F37" s="31">
-        <v>31027</v>
+        <v>34243</v>
       </c>
       <c r="O37" s="30"/>
     </row>
@@ -11542,13 +11540,13 @@
         <v>298</v>
       </c>
       <c r="D38" s="31">
-        <v>10846</v>
+        <v>11184</v>
       </c>
       <c r="E38" s="31">
-        <v>8306</v>
+        <v>8492</v>
       </c>
       <c r="F38" s="31">
-        <v>2540</v>
+        <v>2692</v>
       </c>
       <c r="O38" s="30"/>
     </row>
@@ -11563,13 +11561,13 @@
         <v>299</v>
       </c>
       <c r="D39" s="31">
-        <v>9037</v>
+        <v>9453</v>
       </c>
       <c r="E39" s="31">
-        <v>7226</v>
+        <v>7505</v>
       </c>
       <c r="F39" s="31">
-        <v>1811</v>
+        <v>1948</v>
       </c>
       <c r="O39" s="30"/>
     </row>
@@ -11584,13 +11582,13 @@
         <v>297</v>
       </c>
       <c r="D40" s="31">
-        <v>18457</v>
+        <v>19535</v>
       </c>
       <c r="E40" s="31">
-        <v>15057</v>
+        <v>15742</v>
       </c>
       <c r="F40" s="31">
-        <v>3400</v>
+        <v>3793</v>
       </c>
       <c r="O40" s="30"/>
     </row>
@@ -11605,13 +11603,13 @@
         <v>301</v>
       </c>
       <c r="D41" s="31">
-        <v>49907</v>
+        <v>52725</v>
       </c>
       <c r="E41" s="31">
-        <v>39373</v>
+        <v>41002</v>
       </c>
       <c r="F41" s="31">
-        <v>10534</v>
+        <v>11723</v>
       </c>
       <c r="O41" s="30"/>
     </row>
@@ -11626,13 +11624,13 @@
         <v>300</v>
       </c>
       <c r="D42" s="31">
-        <v>12428</v>
+        <v>13219</v>
       </c>
       <c r="E42" s="31">
-        <v>10289</v>
+        <v>10839</v>
       </c>
       <c r="F42" s="31">
-        <v>2139</v>
+        <v>2380</v>
       </c>
       <c r="O42" s="30"/>
     </row>
@@ -11647,13 +11645,13 @@
         <v>286</v>
       </c>
       <c r="D43" s="31">
-        <v>88285</v>
+        <v>94379</v>
       </c>
       <c r="E43" s="31">
-        <v>72785</v>
+        <v>76847</v>
       </c>
       <c r="F43" s="31">
-        <v>15500</v>
+        <v>17532</v>
       </c>
       <c r="O43" s="30"/>
     </row>
@@ -11668,13 +11666,13 @@
         <v>298</v>
       </c>
       <c r="D44" s="31">
-        <v>10507</v>
+        <v>10854</v>
       </c>
       <c r="E44" s="31">
-        <v>9574</v>
+        <v>9806</v>
       </c>
       <c r="F44" s="31">
-        <v>933</v>
+        <v>1048</v>
       </c>
       <c r="O44" s="30"/>
     </row>
@@ -11689,13 +11687,13 @@
         <v>299</v>
       </c>
       <c r="D45" s="31">
-        <v>7216</v>
+        <v>7640</v>
       </c>
       <c r="E45" s="31">
-        <v>6776</v>
+        <v>7137</v>
       </c>
       <c r="F45" s="31">
-        <v>440</v>
+        <v>503</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -11709,13 +11707,13 @@
         <v>297</v>
       </c>
       <c r="D46" s="31">
-        <v>13542</v>
+        <v>14493</v>
       </c>
       <c r="E46" s="31">
-        <v>12541</v>
+        <v>13212</v>
       </c>
       <c r="F46" s="31">
-        <v>1001</v>
+        <v>1281</v>
       </c>
       <c r="O46" s="30"/>
     </row>
@@ -11730,13 +11728,13 @@
         <v>301</v>
       </c>
       <c r="D47" s="31">
-        <v>82900</v>
+        <v>88000</v>
       </c>
       <c r="E47" s="31">
-        <v>76834</v>
+        <v>80410</v>
       </c>
       <c r="F47" s="31">
-        <v>6066</v>
+        <v>7590</v>
       </c>
       <c r="O47" s="30"/>
     </row>
@@ -11751,13 +11749,13 @@
         <v>300</v>
       </c>
       <c r="D48" s="31">
-        <v>16060</v>
+        <v>16807</v>
       </c>
       <c r="E48" s="31">
-        <v>14387</v>
+        <v>14960</v>
       </c>
       <c r="F48" s="31">
-        <v>1673</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -11771,13 +11769,13 @@
         <v>286</v>
       </c>
       <c r="D49" s="31">
-        <v>109620</v>
+        <v>118650</v>
       </c>
       <c r="E49" s="31">
-        <v>100574</v>
+        <v>107501</v>
       </c>
       <c r="F49" s="31">
-        <v>9046</v>
+        <v>11149</v>
       </c>
       <c r="O49" s="30"/>
     </row>
@@ -11792,13 +11790,13 @@
         <v>298</v>
       </c>
       <c r="D50" s="31">
-        <v>2190</v>
+        <v>2261</v>
       </c>
       <c r="E50" s="31">
-        <v>2035</v>
+        <v>2082</v>
       </c>
       <c r="F50" s="31">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="O50" s="30"/>
     </row>
@@ -11813,13 +11811,13 @@
         <v>299</v>
       </c>
       <c r="D51" s="31">
-        <v>1266</v>
+        <v>1340</v>
       </c>
       <c r="E51" s="31">
-        <v>1230</v>
+        <v>1288</v>
       </c>
       <c r="F51" s="31">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -11833,13 +11831,13 @@
         <v>297</v>
       </c>
       <c r="D52" s="31">
-        <v>2467</v>
+        <v>2643</v>
       </c>
       <c r="E52" s="31">
-        <v>2346</v>
+        <v>2474</v>
       </c>
       <c r="F52" s="31">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="O52" s="30"/>
     </row>
@@ -11854,13 +11852,13 @@
         <v>301</v>
       </c>
       <c r="D53" s="31">
-        <v>23122</v>
+        <v>24382</v>
       </c>
       <c r="E53" s="31">
-        <v>22040</v>
+        <v>22863</v>
       </c>
       <c r="F53" s="31">
-        <v>1082</v>
+        <v>1519</v>
       </c>
       <c r="O53" s="30"/>
     </row>
@@ -11875,13 +11873,13 @@
         <v>300</v>
       </c>
       <c r="D54" s="31">
-        <v>9822</v>
+        <v>10280</v>
       </c>
       <c r="E54" s="31">
-        <v>8472</v>
+        <v>8858</v>
       </c>
       <c r="F54" s="31">
-        <v>1350</v>
+        <v>1422</v>
       </c>
       <c r="O54" s="30"/>
     </row>
@@ -11896,13 +11894,13 @@
         <v>286</v>
       </c>
       <c r="D55" s="31">
-        <v>31670</v>
+        <v>34007</v>
       </c>
       <c r="E55" s="31">
-        <v>29215</v>
+        <v>30922</v>
       </c>
       <c r="F55" s="31">
-        <v>2455</v>
+        <v>3085</v>
       </c>
       <c r="O55" s="30"/>
     </row>
@@ -11938,10 +11936,10 @@
         <v>299</v>
       </c>
       <c r="D57" s="31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E57" s="31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F57" s="31">
         <v>0</v>
@@ -11979,13 +11977,13 @@
         <v>301</v>
       </c>
       <c r="D59" s="31">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E59" s="31">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F59" s="31">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O59" s="30"/>
     </row>
@@ -12000,10 +11998,10 @@
         <v>300</v>
       </c>
       <c r="D60" s="31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E60" s="31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F60" s="31">
         <v>2</v>
@@ -12021,13 +12019,13 @@
         <v>286</v>
       </c>
       <c r="D61" s="31">
+        <v>513</v>
+      </c>
+      <c r="E61" s="31">
         <v>484</v>
       </c>
-      <c r="E61" s="31">
-        <v>456</v>
-      </c>
       <c r="F61" s="31">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O61" s="30"/>
     </row>
@@ -12042,13 +12040,13 @@
         <v>298</v>
       </c>
       <c r="D62" s="31">
-        <v>715</v>
+        <v>761</v>
       </c>
       <c r="E62" s="31">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="F62" s="31">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="O62" s="30"/>
     </row>
@@ -12063,13 +12061,13 @@
         <v>299</v>
       </c>
       <c r="D63" s="31">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="E63" s="31">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="F63" s="31">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12083,13 +12081,13 @@
         <v>297</v>
       </c>
       <c r="D64" s="31">
-        <v>1048</v>
+        <v>1096</v>
       </c>
       <c r="E64" s="31">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="F64" s="31">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="O64" s="30"/>
     </row>
@@ -12104,13 +12102,13 @@
         <v>301</v>
       </c>
       <c r="D65" s="31">
-        <v>2191</v>
+        <v>2309</v>
       </c>
       <c r="E65" s="31">
-        <v>1848</v>
+        <v>1868</v>
       </c>
       <c r="F65" s="31">
-        <v>343</v>
+        <v>441</v>
       </c>
       <c r="O65" s="30"/>
     </row>
@@ -12125,13 +12123,13 @@
         <v>300</v>
       </c>
       <c r="D66" s="31">
-        <v>1683</v>
+        <v>1787</v>
       </c>
       <c r="E66" s="31">
-        <v>1348</v>
+        <v>1367</v>
       </c>
       <c r="F66" s="31">
-        <v>335</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12145,13 +12143,13 @@
         <v>286</v>
       </c>
       <c r="D67" s="31">
-        <v>3126</v>
+        <v>3184</v>
       </c>
       <c r="E67" s="31">
-        <v>2872</v>
+        <v>2891</v>
       </c>
       <c r="F67" s="31">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="O67" s="30"/>
     </row>
@@ -12166,13 +12164,13 @@
         <v>298</v>
       </c>
       <c r="D68" s="31">
-        <v>454</v>
+        <v>487</v>
       </c>
       <c r="E68" s="31">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="F68" s="31">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="O68" s="30"/>
     </row>
@@ -12187,13 +12185,13 @@
         <v>299</v>
       </c>
       <c r="D69" s="31">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="E69" s="31">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="F69" s="31">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12207,13 +12205,13 @@
         <v>297</v>
       </c>
       <c r="D70" s="31">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="E70" s="31">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F70" s="31">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="O70" s="30"/>
     </row>
@@ -12228,13 +12226,13 @@
         <v>301</v>
       </c>
       <c r="D71" s="31">
-        <v>1822</v>
+        <v>1887</v>
       </c>
       <c r="E71" s="31">
-        <v>1628</v>
+        <v>1647</v>
       </c>
       <c r="F71" s="31">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="O71" s="30"/>
     </row>
@@ -12249,13 +12247,13 @@
         <v>300</v>
       </c>
       <c r="D72" s="31">
-        <v>961</v>
+        <v>1010</v>
       </c>
       <c r="E72" s="31">
-        <v>835</v>
+        <v>844</v>
       </c>
       <c r="F72" s="31">
-        <v>126</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12269,13 +12267,13 @@
         <v>286</v>
       </c>
       <c r="D73" s="31">
-        <v>3231</v>
+        <v>3271</v>
       </c>
       <c r="E73" s="31">
-        <v>3104</v>
+        <v>3120</v>
       </c>
       <c r="F73" s="31">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="O73" s="30"/>
     </row>
@@ -12290,13 +12288,13 @@
         <v>298</v>
       </c>
       <c r="D74" s="31">
-        <v>1356</v>
+        <v>1401</v>
       </c>
       <c r="E74" s="31">
-        <v>1319</v>
+        <v>1339</v>
       </c>
       <c r="F74" s="31">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="O74" s="30"/>
     </row>
@@ -12311,13 +12309,13 @@
         <v>299</v>
       </c>
       <c r="D75" s="31">
-        <v>801</v>
+        <v>837</v>
       </c>
       <c r="E75" s="31">
-        <v>786</v>
+        <v>810</v>
       </c>
       <c r="F75" s="31">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="O75" s="30"/>
     </row>
@@ -12332,13 +12330,13 @@
         <v>297</v>
       </c>
       <c r="D76" s="31">
-        <v>882</v>
+        <v>911</v>
       </c>
       <c r="E76" s="31">
-        <v>868</v>
+        <v>888</v>
       </c>
       <c r="F76" s="31">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O76" s="30"/>
     </row>
@@ -12353,13 +12351,13 @@
         <v>301</v>
       </c>
       <c r="D77" s="31">
-        <v>8634</v>
+        <v>8916</v>
       </c>
       <c r="E77" s="31">
-        <v>8340</v>
+        <v>8478</v>
       </c>
       <c r="F77" s="31">
-        <v>294</v>
+        <v>438</v>
       </c>
       <c r="O77" s="30"/>
     </row>
@@ -12374,13 +12372,13 @@
         <v>300</v>
       </c>
       <c r="D78" s="31">
-        <v>3454</v>
+        <v>3565</v>
       </c>
       <c r="E78" s="31">
-        <v>3342</v>
+        <v>3395</v>
       </c>
       <c r="F78" s="31">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="O78" s="30"/>
     </row>
@@ -12395,13 +12393,13 @@
         <v>286</v>
       </c>
       <c r="D79" s="31">
-        <v>7330</v>
+        <v>7399</v>
       </c>
       <c r="E79" s="31">
-        <v>7252</v>
+        <v>7286</v>
       </c>
       <c r="F79" s="31">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12415,13 +12413,13 @@
         <v>298</v>
       </c>
       <c r="D80" s="31">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="E80" s="31">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F80" s="31">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12435,10 +12433,10 @@
         <v>299</v>
       </c>
       <c r="D81" s="31">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E81" s="31">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F81" s="31">
         <v>1</v>
@@ -12455,13 +12453,13 @@
         <v>297</v>
       </c>
       <c r="D82" s="31">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E82" s="31">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F82" s="31">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12475,13 +12473,13 @@
         <v>301</v>
       </c>
       <c r="D83" s="31">
-        <v>1530</v>
+        <v>1584</v>
       </c>
       <c r="E83" s="31">
-        <v>1497</v>
+        <v>1524</v>
       </c>
       <c r="F83" s="31">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12495,13 +12493,13 @@
         <v>300</v>
       </c>
       <c r="D84" s="31">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="E84" s="31">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="F84" s="31">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12515,13 +12513,13 @@
         <v>286</v>
       </c>
       <c r="D85" s="31">
-        <v>1037</v>
+        <v>1049</v>
       </c>
       <c r="E85" s="31">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="F85" s="31">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12615,10 +12613,10 @@
         <v>286</v>
       </c>
       <c r="D90" s="31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E90" s="31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F90" s="31">
         <v>0</v>
@@ -12635,13 +12633,13 @@
         <v>287</v>
       </c>
       <c r="D91" s="31">
-        <v>2056962</v>
+        <v>2170149</v>
       </c>
       <c r="E91" s="31">
-        <v>1687025</v>
+        <v>1759812</v>
       </c>
       <c r="F91" s="31">
-        <v>369937</v>
+        <v>410337</v>
       </c>
     </row>
   </sheetData>
@@ -12651,7 +12649,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C226"/>
+  <dimension ref="A1:C230"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -12715,7 +12713,7 @@
         <v>44182</v>
       </c>
       <c r="C5" s="30">
-        <v>16055</v>
+        <v>16056</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -12737,7 +12735,7 @@
         <v>44184</v>
       </c>
       <c r="C7" s="30">
-        <v>12370</v>
+        <v>12371</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -12748,7 +12746,7 @@
         <v>44185</v>
       </c>
       <c r="C8" s="30">
-        <v>6736</v>
+        <v>6739</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -12759,7 +12757,7 @@
         <v>44186</v>
       </c>
       <c r="C9" s="30">
-        <v>18403</v>
+        <v>18404</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -12770,7 +12768,7 @@
         <v>44187</v>
       </c>
       <c r="C10" s="30">
-        <v>17096</v>
+        <v>17099</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -12781,7 +12779,7 @@
         <v>44188</v>
       </c>
       <c r="C11" s="30">
-        <v>24558</v>
+        <v>24564</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -12792,7 +12790,7 @@
         <v>44189</v>
       </c>
       <c r="C12" s="30">
-        <v>10241</v>
+        <v>10243</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -12814,7 +12812,7 @@
         <v>44191</v>
       </c>
       <c r="C14" s="30">
-        <v>6654</v>
+        <v>6657</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -12825,7 +12823,7 @@
         <v>44192</v>
       </c>
       <c r="C15" s="30">
-        <v>5296</v>
+        <v>5297</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -12836,7 +12834,7 @@
         <v>44193</v>
       </c>
       <c r="C16" s="30">
-        <v>25240</v>
+        <v>25360</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -12847,7 +12845,7 @@
         <v>44194</v>
       </c>
       <c r="C17" s="30">
-        <v>31832</v>
+        <v>31971</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -12858,7 +12856,7 @@
         <v>44195</v>
       </c>
       <c r="C18" s="30">
-        <v>35289</v>
+        <v>36055</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -12869,7 +12867,7 @@
         <v>44196</v>
       </c>
       <c r="C19" s="30">
-        <v>21516</v>
+        <v>21551</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -12880,7 +12878,7 @@
         <v>44197</v>
       </c>
       <c r="C20" s="30">
-        <v>2306</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -12891,7 +12889,7 @@
         <v>44198</v>
       </c>
       <c r="C21" s="30">
-        <v>9758</v>
+        <v>9834</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -12902,7 +12900,7 @@
         <v>44199</v>
       </c>
       <c r="C22" s="30">
-        <v>6128</v>
+        <v>6144</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -12913,7 +12911,7 @@
         <v>44200</v>
       </c>
       <c r="C23" s="30">
-        <v>23689</v>
+        <v>23807</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -12924,7 +12922,7 @@
         <v>44201</v>
       </c>
       <c r="C24" s="30">
-        <v>27733</v>
+        <v>27771</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -12935,7 +12933,7 @@
         <v>44202</v>
       </c>
       <c r="C25" s="30">
-        <v>35587</v>
+        <v>35773</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -12946,7 +12944,7 @@
         <v>44203</v>
       </c>
       <c r="C26" s="30">
-        <v>40474</v>
+        <v>40512</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -12957,7 +12955,7 @@
         <v>44204</v>
       </c>
       <c r="C27" s="30">
-        <v>43405</v>
+        <v>43578</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -12968,7 +12966,7 @@
         <v>44205</v>
       </c>
       <c r="C28" s="30">
-        <v>18462</v>
+        <v>18471</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -12990,7 +12988,7 @@
         <v>44207</v>
       </c>
       <c r="C30" s="30">
-        <v>28073</v>
+        <v>28185</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -13001,7 +12999,7 @@
         <v>44208</v>
       </c>
       <c r="C31" s="30">
-        <v>28601</v>
+        <v>28832</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -13012,7 +13010,7 @@
         <v>44209</v>
       </c>
       <c r="C32" s="30">
-        <v>26659</v>
+        <v>27194</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -13023,7 +13021,7 @@
         <v>44210</v>
       </c>
       <c r="C33" s="30">
-        <v>20689</v>
+        <v>21024</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -13034,7 +13032,7 @@
         <v>44211</v>
       </c>
       <c r="C34" s="30">
-        <v>21442</v>
+        <v>21695</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -13045,7 +13043,7 @@
         <v>44212</v>
       </c>
       <c r="C35" s="30">
-        <v>11301</v>
+        <v>11374</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -13056,7 +13054,7 @@
         <v>44213</v>
       </c>
       <c r="C36" s="30">
-        <v>2643</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -13067,7 +13065,7 @@
         <v>44214</v>
       </c>
       <c r="C37" s="30">
-        <v>11780</v>
+        <v>11786</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -13078,7 +13076,7 @@
         <v>44215</v>
       </c>
       <c r="C38" s="30">
-        <v>20680</v>
+        <v>20919</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -13089,7 +13087,7 @@
         <v>44216</v>
       </c>
       <c r="C39" s="30">
-        <v>26515</v>
+        <v>26990</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -13100,7 +13098,7 @@
         <v>44217</v>
       </c>
       <c r="C40" s="30">
-        <v>24118</v>
+        <v>24432</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -13111,7 +13109,7 @@
         <v>44218</v>
       </c>
       <c r="C41" s="30">
-        <v>29736</v>
+        <v>29868</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -13122,7 +13120,7 @@
         <v>44219</v>
       </c>
       <c r="C42" s="30">
-        <v>15911</v>
+        <v>16178</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -13133,7 +13131,7 @@
         <v>44220</v>
       </c>
       <c r="C43" s="30">
-        <v>5831</v>
+        <v>6567</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -13144,7 +13142,7 @@
         <v>44221</v>
       </c>
       <c r="C44" s="30">
-        <v>26797</v>
+        <v>30009</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -13155,7 +13153,7 @@
         <v>44222</v>
       </c>
       <c r="C45" s="30">
-        <v>21216</v>
+        <v>30561</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -13166,7 +13164,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="30">
-        <v>12278</v>
+        <v>19082</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -13177,7 +13175,7 @@
         <v>44224</v>
       </c>
       <c r="C47" s="30">
-        <v>1</v>
+        <v>11598</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -13221,7 +13219,7 @@
         <v>44182</v>
       </c>
       <c r="C51" s="30">
-        <v>6671</v>
+        <v>6672</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -13232,7 +13230,7 @@
         <v>44183</v>
       </c>
       <c r="C52" s="30">
-        <v>10791</v>
+        <v>10790</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -13243,7 +13241,7 @@
         <v>44184</v>
       </c>
       <c r="C53" s="30">
-        <v>4702</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -13265,7 +13263,7 @@
         <v>44186</v>
       </c>
       <c r="C55" s="30">
-        <v>7825</v>
+        <v>7830</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -13276,7 +13274,7 @@
         <v>44187</v>
       </c>
       <c r="C56" s="30">
-        <v>7333</v>
+        <v>7332</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -13287,7 +13285,7 @@
         <v>44188</v>
       </c>
       <c r="C57" s="30">
-        <v>10713</v>
+        <v>10720</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -13320,7 +13318,7 @@
         <v>44191</v>
       </c>
       <c r="C60" s="30">
-        <v>3162</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -13331,7 +13329,7 @@
         <v>44192</v>
       </c>
       <c r="C61" s="30">
-        <v>2231</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -13342,7 +13340,7 @@
         <v>44193</v>
       </c>
       <c r="C62" s="30">
-        <v>12722</v>
+        <v>12783</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -13353,7 +13351,7 @@
         <v>44194</v>
       </c>
       <c r="C63" s="30">
-        <v>16774</v>
+        <v>16843</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -13364,7 +13362,7 @@
         <v>44195</v>
       </c>
       <c r="C64" s="30">
-        <v>19645</v>
+        <v>19919</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -13375,7 +13373,7 @@
         <v>44196</v>
       </c>
       <c r="C65" s="30">
-        <v>12513</v>
+        <v>12536</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -13386,7 +13384,7 @@
         <v>44197</v>
       </c>
       <c r="C66" s="30">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -13397,7 +13395,7 @@
         <v>44198</v>
       </c>
       <c r="C67" s="30">
-        <v>5596</v>
+        <v>5644</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -13408,7 +13406,7 @@
         <v>44199</v>
       </c>
       <c r="C68" s="30">
-        <v>3248</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -13419,7 +13417,7 @@
         <v>44200</v>
       </c>
       <c r="C69" s="30">
-        <v>14653</v>
+        <v>14710</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -13430,7 +13428,7 @@
         <v>44201</v>
       </c>
       <c r="C70" s="30">
-        <v>16380</v>
+        <v>16422</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -13441,7 +13439,7 @@
         <v>44202</v>
       </c>
       <c r="C71" s="30">
-        <v>19791</v>
+        <v>19857</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -13452,7 +13450,7 @@
         <v>44203</v>
       </c>
       <c r="C72" s="30">
-        <v>22645</v>
+        <v>22669</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -13463,7 +13461,7 @@
         <v>44204</v>
       </c>
       <c r="C73" s="30">
-        <v>24175</v>
+        <v>24286</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -13474,7 +13472,7 @@
         <v>44205</v>
       </c>
       <c r="C74" s="30">
-        <v>10578</v>
+        <v>10588</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -13485,7 +13483,7 @@
         <v>44206</v>
       </c>
       <c r="C75" s="30">
-        <v>4420</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -13496,7 +13494,7 @@
         <v>44207</v>
       </c>
       <c r="C76" s="30">
-        <v>17795</v>
+        <v>17861</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -13507,7 +13505,7 @@
         <v>44208</v>
       </c>
       <c r="C77" s="30">
-        <v>19449</v>
+        <v>19550</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -13518,7 +13516,7 @@
         <v>44209</v>
       </c>
       <c r="C78" s="30">
-        <v>19115</v>
+        <v>19542</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -13529,7 +13527,7 @@
         <v>44210</v>
       </c>
       <c r="C79" s="30">
-        <v>16258</v>
+        <v>16528</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -13540,7 +13538,7 @@
         <v>44211</v>
       </c>
       <c r="C80" s="30">
-        <v>15735</v>
+        <v>15882</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -13551,7 +13549,7 @@
         <v>44212</v>
       </c>
       <c r="C81" s="30">
-        <v>9475</v>
+        <v>9541</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -13562,7 +13560,7 @@
         <v>44213</v>
       </c>
       <c r="C82" s="30">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -13573,7 +13571,7 @@
         <v>44214</v>
       </c>
       <c r="C83" s="30">
-        <v>8406</v>
+        <v>8414</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -13584,7 +13582,7 @@
         <v>44215</v>
       </c>
       <c r="C84" s="30">
-        <v>15981</v>
+        <v>16186</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -13595,7 +13593,7 @@
         <v>44216</v>
       </c>
       <c r="C85" s="30">
-        <v>19948</v>
+        <v>20364</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -13606,7 +13604,7 @@
         <v>44217</v>
       </c>
       <c r="C86" s="30">
-        <v>19389</v>
+        <v>19618</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -13617,7 +13615,7 @@
         <v>44218</v>
       </c>
       <c r="C87" s="30">
-        <v>21000</v>
+        <v>21200</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -13628,7 +13626,7 @@
         <v>44219</v>
       </c>
       <c r="C88" s="30">
-        <v>11319</v>
+        <v>11536</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -13639,7 +13637,7 @@
         <v>44220</v>
       </c>
       <c r="C89" s="30">
-        <v>4168</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -13650,7 +13648,7 @@
         <v>44221</v>
       </c>
       <c r="C90" s="30">
-        <v>18324</v>
+        <v>20474</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -13661,7 +13659,7 @@
         <v>44222</v>
       </c>
       <c r="C91" s="30">
-        <v>14923</v>
+        <v>21598</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -13672,18 +13670,18 @@
         <v>44223</v>
       </c>
       <c r="C92" s="30">
-        <v>10096</v>
+        <v>15226</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B93" s="36">
-        <v>44179</v>
+        <v>44224</v>
       </c>
       <c r="C93" s="30">
-        <v>24</v>
+        <v>10485</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -13691,10 +13689,10 @@
         <v>284</v>
       </c>
       <c r="B94" s="36">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="C94" s="30">
-        <v>308</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -13702,10 +13700,10 @@
         <v>284</v>
       </c>
       <c r="B95" s="36">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="C95" s="30">
-        <v>956</v>
+        <v>308</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -13713,10 +13711,10 @@
         <v>284</v>
       </c>
       <c r="B96" s="36">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="C96" s="30">
-        <v>1437</v>
+        <v>956</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -13724,10 +13722,10 @@
         <v>284</v>
       </c>
       <c r="B97" s="36">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="C97" s="30">
-        <v>2015</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -13735,10 +13733,10 @@
         <v>284</v>
       </c>
       <c r="B98" s="36">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="C98" s="30">
-        <v>1007</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -13746,10 +13744,10 @@
         <v>284</v>
       </c>
       <c r="B99" s="36">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="C99" s="30">
-        <v>495</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -13757,10 +13755,10 @@
         <v>284</v>
       </c>
       <c r="B100" s="36">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="C100" s="30">
-        <v>1480</v>
+        <v>495</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -13768,10 +13766,10 @@
         <v>284</v>
       </c>
       <c r="B101" s="36">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="C101" s="30">
-        <v>2061</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -13779,10 +13777,10 @@
         <v>284</v>
       </c>
       <c r="B102" s="36">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="C102" s="30">
-        <v>2874</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -13790,10 +13788,10 @@
         <v>284</v>
       </c>
       <c r="B103" s="36">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="C103" s="30">
-        <v>1877</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -13801,10 +13799,10 @@
         <v>284</v>
       </c>
       <c r="B104" s="36">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="C104" s="30">
-        <v>324</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -13812,10 +13810,10 @@
         <v>284</v>
       </c>
       <c r="B105" s="36">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="C105" s="30">
-        <v>1706</v>
+        <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -13823,10 +13821,10 @@
         <v>284</v>
       </c>
       <c r="B106" s="36">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="C106" s="30">
-        <v>1118</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -13834,10 +13832,10 @@
         <v>284</v>
       </c>
       <c r="B107" s="36">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="C107" s="30">
-        <v>6498</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -13845,10 +13843,10 @@
         <v>284</v>
       </c>
       <c r="B108" s="36">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="C108" s="30">
-        <v>10559</v>
+        <v>6528</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -13856,10 +13854,10 @@
         <v>284</v>
       </c>
       <c r="B109" s="36">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="C109" s="30">
-        <v>16347</v>
+        <v>10597</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -13867,10 +13865,10 @@
         <v>284</v>
       </c>
       <c r="B110" s="36">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="C110" s="30">
-        <v>10630</v>
+        <v>16499</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -13878,10 +13876,10 @@
         <v>284</v>
       </c>
       <c r="B111" s="36">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="C111" s="30">
-        <v>1279</v>
+        <v>10670</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -13889,10 +13887,10 @@
         <v>284</v>
       </c>
       <c r="B112" s="36">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="C112" s="30">
-        <v>6037</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -13900,10 +13898,10 @@
         <v>284</v>
       </c>
       <c r="B113" s="36">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="C113" s="30">
-        <v>3431</v>
+        <v>6093</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -13911,10 +13909,10 @@
         <v>284</v>
       </c>
       <c r="B114" s="36">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="C114" s="30">
-        <v>15961</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -13922,10 +13920,10 @@
         <v>284</v>
       </c>
       <c r="B115" s="36">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="C115" s="30">
-        <v>18085</v>
+        <v>15992</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -13933,10 +13931,10 @@
         <v>284</v>
       </c>
       <c r="B116" s="36">
-        <v>44202</v>
+        <v>44201</v>
       </c>
       <c r="C116" s="30">
-        <v>20004</v>
+        <v>18125</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -13944,10 +13942,10 @@
         <v>284</v>
       </c>
       <c r="B117" s="36">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="C117" s="30">
-        <v>24067</v>
+        <v>20037</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -13955,10 +13953,10 @@
         <v>284</v>
       </c>
       <c r="B118" s="36">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="C118" s="30">
-        <v>24196</v>
+        <v>24077</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -13966,10 +13964,10 @@
         <v>284</v>
       </c>
       <c r="B119" s="36">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="C119" s="30">
-        <v>13912</v>
+        <v>24371</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -13977,10 +13975,10 @@
         <v>284</v>
       </c>
       <c r="B120" s="36">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="C120" s="30">
-        <v>4373</v>
+        <v>13920</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -13988,10 +13986,10 @@
         <v>284</v>
       </c>
       <c r="B121" s="36">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="C121" s="30">
-        <v>23434</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -13999,10 +13997,10 @@
         <v>284</v>
       </c>
       <c r="B122" s="36">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="C122" s="30">
-        <v>28002</v>
+        <v>23482</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -14010,10 +14008,10 @@
         <v>284</v>
       </c>
       <c r="B123" s="36">
-        <v>44209</v>
+        <v>44208</v>
       </c>
       <c r="C123" s="30">
-        <v>28406</v>
+        <v>28158</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -14021,10 +14019,10 @@
         <v>284</v>
       </c>
       <c r="B124" s="36">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="C124" s="30">
-        <v>31947</v>
+        <v>29084</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -14032,10 +14030,10 @@
         <v>284</v>
       </c>
       <c r="B125" s="36">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="C125" s="30">
-        <v>27794</v>
+        <v>32520</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -14043,10 +14041,10 @@
         <v>284</v>
       </c>
       <c r="B126" s="36">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="C126" s="30">
-        <v>22592</v>
+        <v>28146</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -14054,10 +14052,10 @@
         <v>284</v>
       </c>
       <c r="B127" s="36">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="C127" s="30">
-        <v>6664</v>
+        <v>23177</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -14065,10 +14063,10 @@
         <v>284</v>
       </c>
       <c r="B128" s="36">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="C128" s="30">
-        <v>11806</v>
+        <v>6673</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -14076,10 +14074,10 @@
         <v>284</v>
       </c>
       <c r="B129" s="36">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="C129" s="30">
-        <v>20539</v>
+        <v>11820</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -14087,10 +14085,10 @@
         <v>284</v>
       </c>
       <c r="B130" s="36">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="C130" s="30">
-        <v>26740</v>
+        <v>20845</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -14098,10 +14096,10 @@
         <v>284</v>
       </c>
       <c r="B131" s="36">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="C131" s="30">
-        <v>29593</v>
+        <v>27227</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -14109,10 +14107,10 @@
         <v>284</v>
       </c>
       <c r="B132" s="36">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="C132" s="30">
-        <v>26078</v>
+        <v>29858</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -14120,10 +14118,10 @@
         <v>284</v>
       </c>
       <c r="B133" s="36">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="C133" s="30">
-        <v>19253</v>
+        <v>26527</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -14131,10 +14129,10 @@
         <v>284</v>
       </c>
       <c r="B134" s="36">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="C134" s="30">
-        <v>6930</v>
+        <v>19555</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -14142,10 +14140,10 @@
         <v>284</v>
       </c>
       <c r="B135" s="36">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="C135" s="30">
-        <v>19196</v>
+        <v>8202</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -14153,10 +14151,10 @@
         <v>284</v>
       </c>
       <c r="B136" s="36">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="C136" s="30">
-        <v>16766</v>
+        <v>21897</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -14164,32 +14162,32 @@
         <v>284</v>
       </c>
       <c r="B137" s="36">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="C137" s="30">
-        <v>14323</v>
+        <v>24158</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B138" s="36">
-        <v>44179</v>
-      </c>
-      <c r="C138" s="23">
-        <v>1</v>
+        <v>44223</v>
+      </c>
+      <c r="C138" s="30">
+        <v>19970</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B139" s="36">
-        <v>44180</v>
-      </c>
-      <c r="C139" s="23">
-        <v>5</v>
+        <v>44224</v>
+      </c>
+      <c r="C139" s="30">
+        <v>15396</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -14197,10 +14195,10 @@
         <v>285</v>
       </c>
       <c r="B140" s="36">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="C140" s="23">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -14208,10 +14206,10 @@
         <v>285</v>
       </c>
       <c r="B141" s="36">
-        <v>44182</v>
+        <v>44180</v>
       </c>
       <c r="C141" s="23">
-        <v>69</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -14219,10 +14217,10 @@
         <v>285</v>
       </c>
       <c r="B142" s="36">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="C142" s="23">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -14230,10 +14228,10 @@
         <v>285</v>
       </c>
       <c r="B143" s="36">
-        <v>44184</v>
+        <v>44182</v>
       </c>
       <c r="C143" s="23">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -14241,10 +14239,10 @@
         <v>285</v>
       </c>
       <c r="B144" s="36">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="C144" s="30">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -14252,10 +14250,10 @@
         <v>285</v>
       </c>
       <c r="B145" s="36">
-        <v>44186</v>
+        <v>44184</v>
       </c>
       <c r="C145" s="30">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -14263,10 +14261,10 @@
         <v>285</v>
       </c>
       <c r="B146" s="36">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="C146" s="30">
-        <v>157</v>
+        <v>88</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -14274,10 +14272,10 @@
         <v>285</v>
       </c>
       <c r="B147" s="36">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="C147" s="30">
-        <v>576</v>
+        <v>54</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -14285,10 +14283,10 @@
         <v>285</v>
       </c>
       <c r="B148" s="36">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="C148" s="30">
-        <v>399</v>
+        <v>157</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -14296,10 +14294,10 @@
         <v>285</v>
       </c>
       <c r="B149" s="36">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="C149" s="30">
-        <v>57</v>
+        <v>577</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -14307,10 +14305,10 @@
         <v>285</v>
       </c>
       <c r="B150" s="36">
-        <v>44191</v>
+        <v>44189</v>
       </c>
       <c r="C150" s="30">
-        <v>506</v>
+        <v>401</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -14318,10 +14316,10 @@
         <v>285</v>
       </c>
       <c r="B151" s="36">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="C151" s="30">
-        <v>367</v>
+        <v>57</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -14329,10 +14327,10 @@
         <v>285</v>
       </c>
       <c r="B152" s="36">
-        <v>44193</v>
+        <v>44191</v>
       </c>
       <c r="C152" s="30">
-        <v>2627</v>
+        <v>507</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -14340,10 +14338,10 @@
         <v>285</v>
       </c>
       <c r="B153" s="36">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="C153" s="30">
-        <v>5442</v>
+        <v>367</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -14351,10 +14349,10 @@
         <v>285</v>
       </c>
       <c r="B154" s="36">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="C154" s="30">
-        <v>6990</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -14362,10 +14360,10 @@
         <v>285</v>
       </c>
       <c r="B155" s="36">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="C155" s="30">
-        <v>3164</v>
+        <v>5463</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -14373,10 +14371,10 @@
         <v>285</v>
       </c>
       <c r="B156" s="36">
-        <v>44197</v>
+        <v>44195</v>
       </c>
       <c r="C156" s="30">
-        <v>389</v>
+        <v>7017</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -14384,10 +14382,10 @@
         <v>285</v>
       </c>
       <c r="B157" s="36">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="C157" s="30">
-        <v>2013</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -14395,10 +14393,10 @@
         <v>285</v>
       </c>
       <c r="B158" s="36">
-        <v>44199</v>
+        <v>44197</v>
       </c>
       <c r="C158" s="30">
-        <v>1218</v>
+        <v>396</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -14406,10 +14404,10 @@
         <v>285</v>
       </c>
       <c r="B159" s="36">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="C159" s="30">
-        <v>6531</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -14417,10 +14415,10 @@
         <v>285</v>
       </c>
       <c r="B160" s="36">
-        <v>44201</v>
+        <v>44199</v>
       </c>
       <c r="C160" s="30">
-        <v>5698</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -14428,10 +14426,10 @@
         <v>285</v>
       </c>
       <c r="B161" s="36">
-        <v>44202</v>
+        <v>44200</v>
       </c>
       <c r="C161" s="30">
-        <v>7410</v>
+        <v>6545</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -14439,10 +14437,10 @@
         <v>285</v>
       </c>
       <c r="B162" s="36">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="C162" s="30">
-        <v>9305</v>
+        <v>5713</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -14450,10 +14448,10 @@
         <v>285</v>
       </c>
       <c r="B163" s="36">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="C163" s="30">
-        <v>8499</v>
+        <v>7416</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -14461,10 +14459,10 @@
         <v>285</v>
       </c>
       <c r="B164" s="36">
-        <v>44205</v>
+        <v>44203</v>
       </c>
       <c r="C164" s="30">
-        <v>4718</v>
+        <v>9312</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -14472,10 +14470,10 @@
         <v>285</v>
       </c>
       <c r="B165" s="36">
-        <v>44206</v>
+        <v>44204</v>
       </c>
       <c r="C165" s="30">
-        <v>1380</v>
+        <v>8537</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -14483,10 +14481,10 @@
         <v>285</v>
       </c>
       <c r="B166" s="36">
-        <v>44207</v>
+        <v>44205</v>
       </c>
       <c r="C166" s="30">
-        <v>8349</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -14494,10 +14492,10 @@
         <v>285</v>
       </c>
       <c r="B167" s="36">
-        <v>44208</v>
+        <v>44206</v>
       </c>
       <c r="C167" s="30">
-        <v>8969</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -14505,10 +14503,10 @@
         <v>285</v>
       </c>
       <c r="B168" s="36">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="C168" s="30">
-        <v>11139</v>
+        <v>8347</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -14516,10 +14514,10 @@
         <v>285</v>
       </c>
       <c r="B169" s="36">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="C169" s="30">
-        <v>11242</v>
+        <v>8982</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -14527,10 +14525,10 @@
         <v>285</v>
       </c>
       <c r="B170" s="36">
-        <v>44211</v>
+        <v>44209</v>
       </c>
       <c r="C170" s="30">
-        <v>8347</v>
+        <v>11318</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -14538,10 +14536,10 @@
         <v>285</v>
       </c>
       <c r="B171" s="36">
-        <v>44212</v>
+        <v>44210</v>
       </c>
       <c r="C171" s="30">
-        <v>4513</v>
+        <v>11386</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -14549,10 +14547,10 @@
         <v>285</v>
       </c>
       <c r="B172" s="36">
-        <v>44213</v>
+        <v>44211</v>
       </c>
       <c r="C172" s="30">
-        <v>1660</v>
+        <v>8459</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -14560,10 +14558,10 @@
         <v>285</v>
       </c>
       <c r="B173" s="36">
-        <v>44214</v>
+        <v>44212</v>
       </c>
       <c r="C173" s="30">
-        <v>4963</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -14571,10 +14569,10 @@
         <v>285</v>
       </c>
       <c r="B174" s="36">
-        <v>44215</v>
+        <v>44213</v>
       </c>
       <c r="C174" s="30">
-        <v>7792</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -14582,10 +14580,10 @@
         <v>285</v>
       </c>
       <c r="B175" s="36">
-        <v>44216</v>
+        <v>44214</v>
       </c>
       <c r="C175" s="30">
-        <v>9188</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -14593,10 +14591,10 @@
         <v>285</v>
       </c>
       <c r="B176" s="36">
-        <v>44217</v>
+        <v>44215</v>
       </c>
       <c r="C176" s="30">
-        <v>8811</v>
+        <v>7894</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -14604,10 +14602,10 @@
         <v>285</v>
       </c>
       <c r="B177" s="36">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="C177" s="30">
-        <v>7311</v>
+        <v>9521</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -14615,10 +14613,10 @@
         <v>285</v>
       </c>
       <c r="B178" s="36">
-        <v>44219</v>
+        <v>44217</v>
       </c>
       <c r="C178" s="30">
-        <v>5247</v>
+        <v>8902</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -14626,10 +14624,10 @@
         <v>285</v>
       </c>
       <c r="B179" s="36">
-        <v>44220</v>
+        <v>44218</v>
       </c>
       <c r="C179" s="30">
-        <v>1544</v>
+        <v>7466</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -14637,10 +14635,10 @@
         <v>285</v>
       </c>
       <c r="B180" s="36">
-        <v>44221</v>
+        <v>44219</v>
       </c>
       <c r="C180" s="30">
-        <v>6912</v>
+        <v>5315</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -14648,10 +14646,10 @@
         <v>285</v>
       </c>
       <c r="B181" s="36">
-        <v>44222</v>
+        <v>44220</v>
       </c>
       <c r="C181" s="30">
-        <v>4671</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -14659,43 +14657,43 @@
         <v>285</v>
       </c>
       <c r="B182" s="36">
-        <v>44223</v>
+        <v>44221</v>
       </c>
       <c r="C182" s="30">
-        <v>3843</v>
+        <v>7661</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B183" s="36">
-        <v>44180</v>
-      </c>
-      <c r="C183" s="23">
-        <v>2</v>
+        <v>44222</v>
+      </c>
+      <c r="C183" s="30">
+        <v>7910</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B184" s="36">
-        <v>44181</v>
-      </c>
-      <c r="C184" s="23">
-        <v>5</v>
+        <v>44223</v>
+      </c>
+      <c r="C184" s="30">
+        <v>5660</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B185" s="36">
-        <v>44182</v>
-      </c>
-      <c r="C185" s="23">
-        <v>13</v>
+        <v>44224</v>
+      </c>
+      <c r="C185" s="30">
+        <v>3693</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -14703,10 +14701,10 @@
         <v>286</v>
       </c>
       <c r="B186" s="36">
-        <v>44183</v>
+        <v>44180</v>
       </c>
       <c r="C186" s="23">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -14714,10 +14712,10 @@
         <v>286</v>
       </c>
       <c r="B187" s="36">
-        <v>44184</v>
+        <v>44181</v>
       </c>
       <c r="C187" s="23">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -14725,10 +14723,10 @@
         <v>286</v>
       </c>
       <c r="B188" s="36">
-        <v>44185</v>
+        <v>44182</v>
       </c>
       <c r="C188" s="23">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -14736,10 +14734,10 @@
         <v>286</v>
       </c>
       <c r="B189" s="36">
-        <v>44186</v>
+        <v>44183</v>
       </c>
       <c r="C189" s="23">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -14747,10 +14745,10 @@
         <v>286</v>
       </c>
       <c r="B190" s="36">
-        <v>44187</v>
+        <v>44184</v>
       </c>
       <c r="C190" s="23">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -14758,10 +14756,10 @@
         <v>286</v>
       </c>
       <c r="B191" s="36">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="C191" s="23">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -14769,10 +14767,10 @@
         <v>286</v>
       </c>
       <c r="B192" s="36">
-        <v>44189</v>
+        <v>44186</v>
       </c>
       <c r="C192" s="23">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -14780,10 +14778,10 @@
         <v>286</v>
       </c>
       <c r="B193" s="36">
-        <v>44190</v>
+        <v>44187</v>
       </c>
       <c r="C193" s="23">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -14791,10 +14789,10 @@
         <v>286</v>
       </c>
       <c r="B194" s="36">
-        <v>44191</v>
+        <v>44188</v>
       </c>
       <c r="C194" s="23">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -14802,10 +14800,10 @@
         <v>286</v>
       </c>
       <c r="B195" s="36">
-        <v>44192</v>
+        <v>44189</v>
       </c>
       <c r="C195" s="23">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -14813,10 +14811,10 @@
         <v>286</v>
       </c>
       <c r="B196" s="36">
-        <v>44193</v>
+        <v>44190</v>
       </c>
       <c r="C196" s="23">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -14824,10 +14822,10 @@
         <v>286</v>
       </c>
       <c r="B197" s="36">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="C197" s="23">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -14835,10 +14833,10 @@
         <v>286</v>
       </c>
       <c r="B198" s="36">
-        <v>44195</v>
+        <v>44192</v>
       </c>
       <c r="C198" s="23">
-        <v>92</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -14846,10 +14844,10 @@
         <v>286</v>
       </c>
       <c r="B199" s="36">
-        <v>44196</v>
+        <v>44193</v>
       </c>
       <c r="C199" s="23">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -14857,10 +14855,10 @@
         <v>286</v>
       </c>
       <c r="B200" s="36">
-        <v>44197</v>
+        <v>44194</v>
       </c>
       <c r="C200" s="23">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -14868,10 +14866,10 @@
         <v>286</v>
       </c>
       <c r="B201" s="36">
-        <v>44198</v>
+        <v>44195</v>
       </c>
       <c r="C201" s="23">
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -14879,10 +14877,10 @@
         <v>286</v>
       </c>
       <c r="B202" s="36">
-        <v>44199</v>
+        <v>44196</v>
       </c>
       <c r="C202" s="23">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -14890,10 +14888,10 @@
         <v>286</v>
       </c>
       <c r="B203" s="36">
-        <v>44200</v>
+        <v>44197</v>
       </c>
       <c r="C203" s="23">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -14901,10 +14899,10 @@
         <v>286</v>
       </c>
       <c r="B204" s="36">
-        <v>44201</v>
+        <v>44198</v>
       </c>
       <c r="C204" s="23">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -14912,10 +14910,10 @@
         <v>286</v>
       </c>
       <c r="B205" s="36">
-        <v>44202</v>
+        <v>44199</v>
       </c>
       <c r="C205" s="23">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -14923,10 +14921,10 @@
         <v>286</v>
       </c>
       <c r="B206" s="36">
-        <v>44203</v>
+        <v>44200</v>
       </c>
       <c r="C206" s="23">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -14934,10 +14932,10 @@
         <v>286</v>
       </c>
       <c r="B207" s="36">
-        <v>44204</v>
+        <v>44201</v>
       </c>
       <c r="C207" s="23">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -14945,10 +14943,10 @@
         <v>286</v>
       </c>
       <c r="B208" s="36">
-        <v>44205</v>
+        <v>44202</v>
       </c>
       <c r="C208" s="23">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -14956,10 +14954,10 @@
         <v>286</v>
       </c>
       <c r="B209" s="36">
-        <v>44206</v>
+        <v>44203</v>
       </c>
       <c r="C209" s="23">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -14967,10 +14965,10 @@
         <v>286</v>
       </c>
       <c r="B210" s="36">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="C210" s="23">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -14978,10 +14976,10 @@
         <v>286</v>
       </c>
       <c r="B211" s="36">
-        <v>44208</v>
+        <v>44205</v>
       </c>
       <c r="C211" s="23">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -14989,10 +14987,10 @@
         <v>286</v>
       </c>
       <c r="B212" s="36">
-        <v>44209</v>
+        <v>44206</v>
       </c>
       <c r="C212" s="23">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -15000,10 +14998,10 @@
         <v>286</v>
       </c>
       <c r="B213" s="36">
-        <v>44210</v>
+        <v>44207</v>
       </c>
       <c r="C213" s="23">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -15011,10 +15009,10 @@
         <v>286</v>
       </c>
       <c r="B214" s="36">
-        <v>44211</v>
+        <v>44208</v>
       </c>
       <c r="C214" s="23">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -15022,10 +15020,10 @@
         <v>286</v>
       </c>
       <c r="B215" s="36">
-        <v>44212</v>
+        <v>44209</v>
       </c>
       <c r="C215" s="23">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -15033,10 +15031,10 @@
         <v>286</v>
       </c>
       <c r="B216" s="36">
-        <v>44213</v>
+        <v>44210</v>
       </c>
       <c r="C216" s="23">
-        <v>4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -15044,10 +15042,10 @@
         <v>286</v>
       </c>
       <c r="B217" s="36">
-        <v>44214</v>
+        <v>44211</v>
       </c>
       <c r="C217" s="23">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -15055,10 +15053,10 @@
         <v>286</v>
       </c>
       <c r="B218" s="36">
-        <v>44215</v>
+        <v>44212</v>
       </c>
       <c r="C218" s="23">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -15066,10 +15064,10 @@
         <v>286</v>
       </c>
       <c r="B219" s="36">
-        <v>44216</v>
+        <v>44213</v>
       </c>
       <c r="C219" s="23">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -15077,10 +15075,10 @@
         <v>286</v>
       </c>
       <c r="B220" s="36">
-        <v>44217</v>
+        <v>44214</v>
       </c>
       <c r="C220" s="23">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -15088,10 +15086,10 @@
         <v>286</v>
       </c>
       <c r="B221" s="36">
-        <v>44218</v>
+        <v>44215</v>
       </c>
       <c r="C221" s="23">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -15099,10 +15097,10 @@
         <v>286</v>
       </c>
       <c r="B222" s="36">
-        <v>44219</v>
+        <v>44216</v>
       </c>
       <c r="C222" s="23">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -15110,10 +15108,10 @@
         <v>286</v>
       </c>
       <c r="B223" s="36">
-        <v>44220</v>
+        <v>44217</v>
       </c>
       <c r="C223" s="23">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -15121,10 +15119,10 @@
         <v>286</v>
       </c>
       <c r="B224" s="36">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="C224" s="23">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -15132,10 +15130,10 @@
         <v>286</v>
       </c>
       <c r="B225" s="36">
-        <v>44222</v>
+        <v>44219</v>
       </c>
       <c r="C225" s="23">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -15143,10 +15141,54 @@
         <v>286</v>
       </c>
       <c r="B226" s="36">
+        <v>44220</v>
+      </c>
+      <c r="C226" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B227" s="36">
+        <v>44221</v>
+      </c>
+      <c r="C227" s="23">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B228" s="36">
+        <v>44222</v>
+      </c>
+      <c r="C228" s="23">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B229" s="36">
         <v>44223</v>
       </c>
-      <c r="C226" s="23">
-        <v>53</v>
+      <c r="C229" s="23">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B230" s="36">
+        <v>44224</v>
+      </c>
+      <c r="C230" s="23">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Services/StateOfTexas/Data/COVID-19 Vaccine Data by County.xlsx
+++ b/Services/StateOfTexas/Data/COVID-19 Vaccine Data by County.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnicholas000\Desktop\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEFA083E-FF51-4B7E-982D-AC37404A7D50}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0133808-9C57-4E57-B0DA-B37D2F4917F3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="311">
   <si>
     <t>County Name</t>
   </si>
@@ -1035,168 +1035,6 @@
   </si>
   <si>
     <t>2018 Population Estimates available from the U.S. Census Bureau at https://www.census.gov/data/tables/time-series/demo/popest/2010s-counties-detail.html.</t>
-  </si>
-  <si>
-    <t>12/14/2020</t>
-  </si>
-  <si>
-    <t>12/15/2020</t>
-  </si>
-  <si>
-    <t>12/16/2020</t>
-  </si>
-  <si>
-    <t>12/17/2020</t>
-  </si>
-  <si>
-    <t>12/18/2020</t>
-  </si>
-  <si>
-    <t>12/19/2020</t>
-  </si>
-  <si>
-    <t>12/20/2020</t>
-  </si>
-  <si>
-    <t>12/21/2020</t>
-  </si>
-  <si>
-    <t>12/22/2020</t>
-  </si>
-  <si>
-    <t>12/23/2020</t>
-  </si>
-  <si>
-    <t>12/24/2020</t>
-  </si>
-  <si>
-    <t>12/25/2020</t>
-  </si>
-  <si>
-    <t>12/26/2020</t>
-  </si>
-  <si>
-    <t>12/27/2020</t>
-  </si>
-  <si>
-    <t>12/28/2020</t>
-  </si>
-  <si>
-    <t>12/29/2020</t>
-  </si>
-  <si>
-    <t>12/30/2020</t>
-  </si>
-  <si>
-    <t>12/31/2020</t>
-  </si>
-  <si>
-    <t>1/1/2021</t>
-  </si>
-  <si>
-    <t>1/2/2021</t>
-  </si>
-  <si>
-    <t>1/3/2021</t>
-  </si>
-  <si>
-    <t>1/4/2021</t>
-  </si>
-  <si>
-    <t>1/5/2021</t>
-  </si>
-  <si>
-    <t>1/6/2021</t>
-  </si>
-  <si>
-    <t>1/7/2021</t>
-  </si>
-  <si>
-    <t>1/8/2021</t>
-  </si>
-  <si>
-    <t>1/9/2021</t>
-  </si>
-  <si>
-    <t>1/10/2021</t>
-  </si>
-  <si>
-    <t>1/11/2021</t>
-  </si>
-  <si>
-    <t>1/12/2021</t>
-  </si>
-  <si>
-    <t>1/13/2021</t>
-  </si>
-  <si>
-    <t>1/14/2021</t>
-  </si>
-  <si>
-    <t>1/15/2021</t>
-  </si>
-  <si>
-    <t>1/16/2021</t>
-  </si>
-  <si>
-    <t>1/17/2021</t>
-  </si>
-  <si>
-    <t>1/18/2021</t>
-  </si>
-  <si>
-    <t>1/19/2021</t>
-  </si>
-  <si>
-    <t>1/20/2021</t>
-  </si>
-  <si>
-    <t>1/21/2021</t>
-  </si>
-  <si>
-    <t>1/22/2021</t>
-  </si>
-  <si>
-    <t>1/23/2021</t>
-  </si>
-  <si>
-    <t>1/24/2021</t>
-  </si>
-  <si>
-    <t>1/25/2021</t>
-  </si>
-  <si>
-    <t>1/26/2021</t>
-  </si>
-  <si>
-    <t>1/27/2021</t>
-  </si>
-  <si>
-    <t>1/28/2021</t>
-  </si>
-  <si>
-    <t>1/29/2021</t>
-  </si>
-  <si>
-    <t>1/30/2021</t>
-  </si>
-  <si>
-    <t>1/31/2021</t>
-  </si>
-  <si>
-    <t>2/1/2021</t>
-  </si>
-  <si>
-    <t>2/2/2021</t>
-  </si>
-  <si>
-    <t>2/3/2021</t>
-  </si>
-  <si>
-    <t>2/4/2021</t>
-  </si>
-  <si>
-    <t>2/5/2021</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1402,6 +1240,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1720,7 +1564,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1728,7 +1574,7 @@
     <col min="2" max="2" width="121.46484375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="48.65" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>270</v>
       </c>
@@ -1736,15 +1582,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>305</v>
       </c>
       <c r="B2" s="29">
-        <v>44233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>267</v>
       </c>
@@ -1768,7 +1614,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -1776,7 +1622,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -1792,7 +1638,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>264</v>
       </c>
@@ -1800,7 +1646,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>261</v>
       </c>
@@ -1808,7 +1654,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>265</v>
       </c>
@@ -1846,23 +1692,23 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K259"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="14" customWidth="1"/>
     <col min="2" max="3" width="12.19921875" style="6" customWidth="1"/>
     <col min="4" max="5" width="20.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.796875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.73046875" style="6" customWidth="1"/>
     <col min="7" max="7" width="11.46484375" style="6" customWidth="1"/>
     <col min="8" max="8" width="13.19921875" style="6" customWidth="1"/>
     <col min="9" max="9" width="15.06640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.796875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.73046875" style="6" customWidth="1"/>
     <col min="11" max="11" width="12" style="6" customWidth="1"/>
     <col min="12" max="16384" width="9.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="64.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1910,15 +1756,15 @@
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:K2" si="0">SUM(D4:D258)</f>
-        <v>3063297</v>
+        <v>3202062</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>2330010</v>
+        <v>2423278</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>733287</v>
+        <v>778784</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
@@ -1941,7 +1787,7 @@
         <v>8218444</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>296</v>
       </c>
@@ -1976,7 +1822,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
@@ -1987,13 +1833,13 @@
         <v>6200</v>
       </c>
       <c r="D4" s="32">
-        <v>2638</v>
+        <v>2769</v>
       </c>
       <c r="E4" s="32">
-        <v>2251</v>
+        <v>2327</v>
       </c>
       <c r="F4" s="32">
-        <v>387</v>
+        <v>442</v>
       </c>
       <c r="G4" s="33">
         <v>48158</v>
@@ -2011,7 +1857,7 @@
         <v>20361</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>7</v>
       </c>
@@ -2022,13 +1868,13 @@
         <v>1600</v>
       </c>
       <c r="D5" s="32">
-        <v>2838</v>
+        <v>2859</v>
       </c>
       <c r="E5" s="32">
-        <v>2218</v>
+        <v>2237</v>
       </c>
       <c r="F5" s="32">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G5" s="33">
         <v>12998</v>
@@ -2046,7 +1892,7 @@
         <v>5225</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>8</v>
       </c>
@@ -2057,13 +1903,13 @@
         <v>13600</v>
       </c>
       <c r="D6" s="32">
-        <v>10173</v>
+        <v>10433</v>
       </c>
       <c r="E6" s="32">
-        <v>7263</v>
+        <v>7317</v>
       </c>
       <c r="F6" s="32">
-        <v>2910</v>
+        <v>3116</v>
       </c>
       <c r="G6" s="33">
         <v>67140</v>
@@ -2081,7 +1927,7 @@
         <v>28251</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>9</v>
       </c>
@@ -2092,13 +1938,13 @@
         <v>1100</v>
       </c>
       <c r="D7" s="32">
-        <v>1948</v>
+        <v>2000</v>
       </c>
       <c r="E7" s="32">
-        <v>1598</v>
+        <v>1629</v>
       </c>
       <c r="F7" s="32">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="G7" s="33">
         <v>19788</v>
@@ -2116,7 +1962,7 @@
         <v>6706</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>10</v>
       </c>
@@ -2127,13 +1973,13 @@
         <v>700</v>
       </c>
       <c r="D8" s="32">
-        <v>1179</v>
+        <v>1233</v>
       </c>
       <c r="E8" s="32">
-        <v>926</v>
+        <v>948</v>
       </c>
       <c r="F8" s="32">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="G8" s="33">
         <v>7040</v>
@@ -2151,7 +1997,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>11</v>
       </c>
@@ -2162,13 +2008,13 @@
         <v>400</v>
       </c>
       <c r="D9" s="32">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E9" s="32">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F9" s="32">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G9" s="33">
         <v>1491</v>
@@ -2186,7 +2032,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>12</v>
       </c>
@@ -2197,13 +2043,13 @@
         <v>2900</v>
       </c>
       <c r="D10" s="32">
-        <v>3583</v>
+        <v>3721</v>
       </c>
       <c r="E10" s="32">
-        <v>2709</v>
+        <v>2752</v>
       </c>
       <c r="F10" s="32">
-        <v>874</v>
+        <v>969</v>
       </c>
       <c r="G10" s="33">
         <v>38165</v>
@@ -2221,7 +2067,7 @@
         <v>15065</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>13</v>
       </c>
@@ -2232,13 +2078,13 @@
         <v>1800</v>
       </c>
       <c r="D11" s="32">
-        <v>3445</v>
+        <v>3519</v>
       </c>
       <c r="E11" s="32">
-        <v>2755</v>
+        <v>2769</v>
       </c>
       <c r="F11" s="32">
-        <v>690</v>
+        <v>750</v>
       </c>
       <c r="G11" s="33">
         <v>23679</v>
@@ -2256,7 +2102,7 @@
         <v>7950</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>15</v>
       </c>
@@ -2267,13 +2113,13 @@
         <v>3525</v>
       </c>
       <c r="D12" s="32">
-        <v>1474</v>
+        <v>1490</v>
       </c>
       <c r="E12" s="32">
-        <v>1346</v>
+        <v>1361</v>
       </c>
       <c r="F12" s="32">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G12" s="33">
         <v>5088</v>
@@ -2291,7 +2137,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>16</v>
       </c>
@@ -2302,13 +2148,13 @@
         <v>500</v>
       </c>
       <c r="D13" s="32">
-        <v>1956</v>
+        <v>2403</v>
       </c>
       <c r="E13" s="32">
-        <v>1606</v>
+        <v>2032</v>
       </c>
       <c r="F13" s="32">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="G13" s="33">
         <v>19442</v>
@@ -2326,7 +2172,7 @@
         <v>6543</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>17</v>
       </c>
@@ -2337,13 +2183,13 @@
         <v>6200</v>
       </c>
       <c r="D14" s="32">
-        <v>4340</v>
+        <v>4428</v>
       </c>
       <c r="E14" s="32">
-        <v>3166</v>
+        <v>3194</v>
       </c>
       <c r="F14" s="32">
-        <v>1174</v>
+        <v>1234</v>
       </c>
       <c r="G14" s="33">
         <v>67134</v>
@@ -2361,7 +2207,7 @@
         <v>28809</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>18</v>
       </c>
@@ -2372,13 +2218,13 @@
         <v>1975</v>
       </c>
       <c r="D15" s="32">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E15" s="32">
         <v>731</v>
       </c>
       <c r="F15" s="32">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G15" s="33">
         <v>2838</v>
@@ -2396,7 +2242,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>19</v>
       </c>
@@ -2407,10 +2253,10 @@
         <v>11075</v>
       </c>
       <c r="D16" s="32">
-        <v>5917</v>
+        <v>5913</v>
       </c>
       <c r="E16" s="32">
-        <v>5180</v>
+        <v>5176</v>
       </c>
       <c r="F16" s="32">
         <v>737</v>
@@ -2431,7 +2277,7 @@
         <v>11345</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>20</v>
       </c>
@@ -2442,13 +2288,13 @@
         <v>41450</v>
       </c>
       <c r="D17" s="32">
-        <v>27771</v>
+        <v>28546</v>
       </c>
       <c r="E17" s="32">
-        <v>20049</v>
+        <v>20633</v>
       </c>
       <c r="F17" s="32">
-        <v>7722</v>
+        <v>7913</v>
       </c>
       <c r="G17" s="33">
         <v>266749</v>
@@ -2466,7 +2312,7 @@
         <v>93362</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
         <v>21</v>
       </c>
@@ -2477,13 +2323,13 @@
         <v>309800</v>
       </c>
       <c r="D18" s="32">
-        <v>209163</v>
+        <v>221131</v>
       </c>
       <c r="E18" s="32">
-        <v>154339</v>
+        <v>162079</v>
       </c>
       <c r="F18" s="32">
-        <v>54824</v>
+        <v>59052</v>
       </c>
       <c r="G18" s="33">
         <v>1531180</v>
@@ -2512,13 +2358,13 @@
         <v>900</v>
       </c>
       <c r="D19" s="32">
-        <v>2341</v>
+        <v>2399</v>
       </c>
       <c r="E19" s="32">
-        <v>1780</v>
+        <v>1848</v>
       </c>
       <c r="F19" s="32">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="G19" s="33">
         <v>9838</v>
@@ -2547,10 +2393,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="32">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E20" s="32">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" s="32">
         <v>9</v>
@@ -2582,13 +2428,13 @@
         <v>2700</v>
       </c>
       <c r="D21" s="32">
-        <v>1305</v>
+        <v>1349</v>
       </c>
       <c r="E21" s="32">
-        <v>1027</v>
+        <v>1068</v>
       </c>
       <c r="F21" s="32">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G21" s="33">
         <v>15082</v>
@@ -2617,13 +2463,13 @@
         <v>11050</v>
       </c>
       <c r="D22" s="32">
-        <v>5795</v>
+        <v>5868</v>
       </c>
       <c r="E22" s="32">
-        <v>3977</v>
+        <v>4018</v>
       </c>
       <c r="F22" s="32">
-        <v>1818</v>
+        <v>1850</v>
       </c>
       <c r="G22" s="33">
         <v>73969</v>
@@ -2652,13 +2498,13 @@
         <v>29600</v>
       </c>
       <c r="D23" s="32">
-        <v>34462</v>
+        <v>36501</v>
       </c>
       <c r="E23" s="32">
-        <v>25248</v>
+        <v>26566</v>
       </c>
       <c r="F23" s="32">
-        <v>9214</v>
+        <v>9935</v>
       </c>
       <c r="G23" s="33">
         <v>282493</v>
@@ -2687,13 +2533,13 @@
         <v>24625</v>
       </c>
       <c r="D24" s="32">
-        <v>15736</v>
+        <v>15774</v>
       </c>
       <c r="E24" s="32">
-        <v>13096</v>
+        <v>13123</v>
       </c>
       <c r="F24" s="32">
-        <v>2640</v>
+        <v>2651</v>
       </c>
       <c r="G24" s="33">
         <v>184217</v>
@@ -2722,13 +2568,13 @@
         <v>1300</v>
       </c>
       <c r="D25" s="32">
-        <v>2058</v>
+        <v>2081</v>
       </c>
       <c r="E25" s="32">
-        <v>1751</v>
+        <v>1771</v>
       </c>
       <c r="F25" s="32">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G25" s="33">
         <v>7715</v>
@@ -2757,13 +2603,13 @@
         <v>400</v>
       </c>
       <c r="D26" s="32">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E26" s="32">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="F26" s="32">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G26" s="33">
         <v>1253</v>
@@ -2792,13 +2638,13 @@
         <v>800</v>
       </c>
       <c r="D27" s="32">
-        <v>817</v>
+        <v>844</v>
       </c>
       <c r="E27" s="32">
-        <v>697</v>
+        <v>715</v>
       </c>
       <c r="F27" s="32">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G27" s="33">
         <v>5305</v>
@@ -2827,13 +2673,13 @@
         <v>2100</v>
       </c>
       <c r="D28" s="32">
-        <v>2548</v>
+        <v>2563</v>
       </c>
       <c r="E28" s="32">
-        <v>1863</v>
+        <v>1874</v>
       </c>
       <c r="F28" s="32">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="G28" s="33">
         <v>30759</v>
@@ -2862,13 +2708,13 @@
         <v>800</v>
       </c>
       <c r="D29" s="32">
-        <v>1427</v>
+        <v>1433</v>
       </c>
       <c r="E29" s="32">
-        <v>1063</v>
+        <v>1068</v>
       </c>
       <c r="F29" s="32">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G29" s="33">
         <v>14756</v>
@@ -2897,13 +2743,13 @@
         <v>5250</v>
       </c>
       <c r="D30" s="32">
-        <v>3308</v>
+        <v>3598</v>
       </c>
       <c r="E30" s="32">
-        <v>2602</v>
+        <v>2881</v>
       </c>
       <c r="F30" s="32">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="G30" s="33">
         <v>38465</v>
@@ -2932,13 +2778,13 @@
         <v>2400</v>
       </c>
       <c r="D31" s="32">
-        <v>2516</v>
+        <v>2564</v>
       </c>
       <c r="E31" s="32">
-        <v>1944</v>
+        <v>1959</v>
       </c>
       <c r="F31" s="32">
-        <v>572</v>
+        <v>605</v>
       </c>
       <c r="G31" s="33">
         <v>34365</v>
@@ -2967,13 +2813,13 @@
         <v>1100</v>
       </c>
       <c r="D32" s="32">
-        <v>1835</v>
+        <v>1856</v>
       </c>
       <c r="E32" s="32">
-        <v>1396</v>
+        <v>1388</v>
       </c>
       <c r="F32" s="32">
-        <v>439</v>
+        <v>468</v>
       </c>
       <c r="G32" s="33">
         <v>16904</v>
@@ -3002,13 +2848,13 @@
         <v>1000</v>
       </c>
       <c r="D33" s="32">
-        <v>1078</v>
+        <v>1114</v>
       </c>
       <c r="E33" s="32">
-        <v>841</v>
+        <v>868</v>
       </c>
       <c r="F33" s="32">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="G33" s="33">
         <v>11257</v>
@@ -3037,13 +2883,13 @@
         <v>58950</v>
       </c>
       <c r="D34" s="32">
-        <v>58280</v>
+        <v>60183</v>
       </c>
       <c r="E34" s="32">
-        <v>42926</v>
+        <v>44103</v>
       </c>
       <c r="F34" s="32">
-        <v>15354</v>
+        <v>16080</v>
       </c>
       <c r="G34" s="33">
         <v>309192</v>
@@ -3072,13 +2918,13 @@
         <v>300</v>
       </c>
       <c r="D35" s="32">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="E35" s="32">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F35" s="32">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G35" s="33">
         <v>9898</v>
@@ -3107,13 +2953,13 @@
         <v>200</v>
       </c>
       <c r="D36" s="32">
-        <v>953</v>
+        <v>970</v>
       </c>
       <c r="E36" s="32">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="F36" s="32">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="G36" s="33">
         <v>4757</v>
@@ -3142,13 +2988,13 @@
         <v>400</v>
       </c>
       <c r="D37" s="32">
-        <v>862</v>
+        <v>877</v>
       </c>
       <c r="E37" s="32">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="F37" s="32">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G37" s="33">
         <v>24130</v>
@@ -3177,13 +3023,13 @@
         <v>700</v>
       </c>
       <c r="D38" s="32">
-        <v>1032</v>
+        <v>1054</v>
       </c>
       <c r="E38" s="32">
-        <v>857</v>
+        <v>876</v>
       </c>
       <c r="F38" s="32">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G38" s="33">
         <v>5649</v>
@@ -3212,13 +3058,13 @@
         <v>8000</v>
       </c>
       <c r="D39" s="32">
-        <v>3081</v>
+        <v>3206</v>
       </c>
       <c r="E39" s="32">
-        <v>2321</v>
+        <v>2418</v>
       </c>
       <c r="F39" s="32">
-        <v>760</v>
+        <v>788</v>
       </c>
       <c r="G39" s="33">
         <v>31859</v>
@@ -3247,13 +3093,13 @@
         <v>5200</v>
       </c>
       <c r="D40" s="32">
-        <v>3614</v>
+        <v>3633</v>
       </c>
       <c r="E40" s="32">
-        <v>2840</v>
+        <v>2848</v>
       </c>
       <c r="F40" s="32">
-        <v>774</v>
+        <v>785</v>
       </c>
       <c r="G40" s="33">
         <v>40543</v>
@@ -3282,13 +3128,13 @@
         <v>1500</v>
       </c>
       <c r="D41" s="32">
-        <v>921</v>
+        <v>930</v>
       </c>
       <c r="E41" s="32">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="F41" s="32">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G41" s="33">
         <v>6063</v>
@@ -3317,13 +3163,13 @@
         <v>3325</v>
       </c>
       <c r="D42" s="32">
-        <v>2402</v>
+        <v>2464</v>
       </c>
       <c r="E42" s="32">
-        <v>2026</v>
+        <v>2062</v>
       </c>
       <c r="F42" s="32">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="G42" s="33">
         <v>8623</v>
@@ -3352,13 +3198,13 @@
         <v>300</v>
       </c>
       <c r="D43" s="32">
-        <v>620</v>
+        <v>668</v>
       </c>
       <c r="E43" s="32">
-        <v>482</v>
+        <v>516</v>
       </c>
       <c r="F43" s="32">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="G43" s="33">
         <v>2153</v>
@@ -3387,13 +3233,13 @@
         <v>0</v>
       </c>
       <c r="D44" s="32">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="E44" s="32">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="F44" s="32">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="G44" s="33">
         <v>2747</v>
@@ -3422,13 +3268,13 @@
         <v>800</v>
       </c>
       <c r="D45" s="32">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="E45" s="32">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="F45" s="32">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="G45" s="33">
         <v>6813</v>
@@ -3457,13 +3303,13 @@
         <v>108975</v>
       </c>
       <c r="D46" s="32">
-        <v>97765</v>
+        <v>105692</v>
       </c>
       <c r="E46" s="32">
-        <v>76636</v>
+        <v>83029</v>
       </c>
       <c r="F46" s="32">
-        <v>21129</v>
+        <v>22663</v>
       </c>
       <c r="G46" s="33">
         <v>774920</v>
@@ -3527,13 +3373,13 @@
         <v>2200</v>
       </c>
       <c r="D48" s="32">
-        <v>2327</v>
+        <v>2356</v>
       </c>
       <c r="E48" s="32">
-        <v>1946</v>
+        <v>1967</v>
       </c>
       <c r="F48" s="32">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="G48" s="33">
         <v>16919</v>
@@ -3562,13 +3408,13 @@
         <v>15300</v>
       </c>
       <c r="D49" s="32">
-        <v>15553</v>
+        <v>16157</v>
       </c>
       <c r="E49" s="32">
-        <v>12152</v>
+        <v>12577</v>
       </c>
       <c r="F49" s="32">
-        <v>3401</v>
+        <v>3580</v>
       </c>
       <c r="G49" s="33">
         <v>118601</v>
@@ -3597,13 +3443,13 @@
         <v>1875</v>
       </c>
       <c r="D50" s="32">
-        <v>1897</v>
+        <v>1909</v>
       </c>
       <c r="E50" s="32">
-        <v>1444</v>
+        <v>1453</v>
       </c>
       <c r="F50" s="32">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G50" s="33">
         <v>10873</v>
@@ -3632,13 +3478,13 @@
         <v>100</v>
       </c>
       <c r="D51" s="32">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E51" s="32">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F51" s="32">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G51" s="33">
         <v>2240</v>
@@ -3667,13 +3513,13 @@
         <v>3100</v>
       </c>
       <c r="D52" s="32">
-        <v>3082</v>
+        <v>3125</v>
       </c>
       <c r="E52" s="32">
-        <v>2173</v>
+        <v>2206</v>
       </c>
       <c r="F52" s="32">
-        <v>909</v>
+        <v>919</v>
       </c>
       <c r="G52" s="33">
         <v>32099</v>
@@ -3702,13 +3548,13 @@
         <v>5125</v>
       </c>
       <c r="D53" s="32">
-        <v>4340</v>
+        <v>4755</v>
       </c>
       <c r="E53" s="32">
-        <v>3502</v>
+        <v>3873</v>
       </c>
       <c r="F53" s="32">
-        <v>838</v>
+        <v>882</v>
       </c>
       <c r="G53" s="33">
         <v>59473</v>
@@ -3737,10 +3583,10 @@
         <v>0</v>
       </c>
       <c r="D54" s="32">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E54" s="32">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F54" s="32">
         <v>32</v>
@@ -3772,13 +3618,13 @@
         <v>1175</v>
       </c>
       <c r="D55" s="32">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E55" s="32">
         <v>491</v>
       </c>
       <c r="F55" s="32">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G55" s="33">
         <v>3518</v>
@@ -3807,13 +3653,13 @@
         <v>0</v>
       </c>
       <c r="D56" s="32">
-        <v>601</v>
+        <v>673</v>
       </c>
       <c r="E56" s="32">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="F56" s="32">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="G56" s="33">
         <v>2661</v>
@@ -3842,13 +3688,13 @@
         <v>1375</v>
       </c>
       <c r="D57" s="32">
-        <v>1282</v>
+        <v>1296</v>
       </c>
       <c r="E57" s="32">
-        <v>1093</v>
+        <v>1104</v>
       </c>
       <c r="F57" s="32">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G57" s="33">
         <v>4409</v>
@@ -3912,13 +3758,13 @@
         <v>2850</v>
       </c>
       <c r="D59" s="32">
-        <v>1352</v>
+        <v>1386</v>
       </c>
       <c r="E59" s="32">
-        <v>1243</v>
+        <v>1258</v>
       </c>
       <c r="F59" s="32">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="G59" s="33">
         <v>5199</v>
@@ -3947,13 +3793,13 @@
         <v>362525</v>
       </c>
       <c r="D60" s="32">
-        <v>233885</v>
+        <v>253346</v>
       </c>
       <c r="E60" s="32">
-        <v>183599</v>
+        <v>195565</v>
       </c>
       <c r="F60" s="32">
-        <v>50286</v>
+        <v>57781</v>
       </c>
       <c r="G60" s="33">
         <v>2016277</v>
@@ -3982,10 +3828,10 @@
         <v>700</v>
       </c>
       <c r="D61" s="32">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="E61" s="32">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="F61" s="32">
         <v>130</v>
@@ -4017,13 +3863,13 @@
         <v>1900</v>
       </c>
       <c r="D62" s="32">
-        <v>1838</v>
+        <v>1873</v>
       </c>
       <c r="E62" s="32">
-        <v>1258</v>
+        <v>1285</v>
       </c>
       <c r="F62" s="32">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="G62" s="33">
         <v>13521</v>
@@ -4052,13 +3898,13 @@
         <v>200</v>
       </c>
       <c r="D63" s="32">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="E63" s="32">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F63" s="32">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G63" s="33">
         <v>4219</v>
@@ -4087,13 +3933,13 @@
         <v>91100</v>
       </c>
       <c r="D64" s="32">
-        <v>50379</v>
+        <v>53208</v>
       </c>
       <c r="E64" s="32">
-        <v>37552</v>
+        <v>39084</v>
       </c>
       <c r="F64" s="32">
-        <v>12827</v>
+        <v>14124</v>
       </c>
       <c r="G64" s="33">
         <v>671841</v>
@@ -4122,13 +3968,13 @@
         <v>800</v>
       </c>
       <c r="D65" s="32">
-        <v>1257</v>
+        <v>1269</v>
       </c>
       <c r="E65" s="32">
-        <v>945</v>
+        <v>954</v>
       </c>
       <c r="F65" s="32">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G65" s="33">
         <v>16085</v>
@@ -4157,10 +4003,10 @@
         <v>0</v>
       </c>
       <c r="D66" s="32">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E66" s="32">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F66" s="32">
         <v>20</v>
@@ -4192,13 +4038,13 @@
         <v>4025</v>
       </c>
       <c r="D67" s="32">
-        <v>2228</v>
+        <v>2294</v>
       </c>
       <c r="E67" s="32">
-        <v>2042</v>
+        <v>2105</v>
       </c>
       <c r="F67" s="32">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G67" s="33">
         <v>7570</v>
@@ -4227,13 +4073,13 @@
         <v>200</v>
       </c>
       <c r="D68" s="32">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E68" s="32">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="F68" s="32">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G68" s="33">
         <v>2749</v>
@@ -4262,13 +4108,13 @@
         <v>600</v>
       </c>
       <c r="D69" s="32">
-        <v>1354</v>
+        <v>1436</v>
       </c>
       <c r="E69" s="32">
-        <v>1146</v>
+        <v>1223</v>
       </c>
       <c r="F69" s="32">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G69" s="33">
         <v>8615</v>
@@ -4297,13 +4143,13 @@
         <v>1100</v>
       </c>
       <c r="D70" s="32">
-        <v>1662</v>
+        <v>1671</v>
       </c>
       <c r="E70" s="32">
-        <v>1170</v>
+        <v>1176</v>
       </c>
       <c r="F70" s="32">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="G70" s="33">
         <v>14892</v>
@@ -4332,13 +4178,13 @@
         <v>25100</v>
       </c>
       <c r="D71" s="32">
-        <v>17331</v>
+        <v>18510</v>
       </c>
       <c r="E71" s="32">
-        <v>13112</v>
+        <v>14184</v>
       </c>
       <c r="F71" s="32">
-        <v>4219</v>
+        <v>4326</v>
       </c>
       <c r="G71" s="33">
         <v>117633</v>
@@ -4370,10 +4216,10 @@
         <v>184</v>
       </c>
       <c r="E72" s="32">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F72" s="32">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G72" s="33">
         <v>1507</v>
@@ -4402,13 +4248,13 @@
         <v>134575</v>
       </c>
       <c r="D73" s="32">
-        <v>120359</v>
+        <v>123393</v>
       </c>
       <c r="E73" s="32">
-        <v>89089</v>
+        <v>91771</v>
       </c>
       <c r="F73" s="32">
-        <v>31270</v>
+        <v>31622</v>
       </c>
       <c r="G73" s="33">
         <v>636010</v>
@@ -4437,13 +4283,13 @@
         <v>11300</v>
       </c>
       <c r="D74" s="32">
-        <v>14746</v>
+        <v>16647</v>
       </c>
       <c r="E74" s="32">
-        <v>11182</v>
+        <v>12668</v>
       </c>
       <c r="F74" s="32">
-        <v>3564</v>
+        <v>3979</v>
       </c>
       <c r="G74" s="33">
         <v>136950</v>
@@ -4472,13 +4318,13 @@
         <v>1800</v>
       </c>
       <c r="D75" s="32">
-        <v>2836</v>
+        <v>2921</v>
       </c>
       <c r="E75" s="32">
-        <v>2223</v>
+        <v>2287</v>
       </c>
       <c r="F75" s="32">
-        <v>613</v>
+        <v>634</v>
       </c>
       <c r="G75" s="33">
         <v>34464</v>
@@ -4507,13 +4353,13 @@
         <v>3625</v>
       </c>
       <c r="D76" s="32">
-        <v>1573</v>
+        <v>1747</v>
       </c>
       <c r="E76" s="32">
-        <v>1383</v>
+        <v>1552</v>
       </c>
       <c r="F76" s="32">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G76" s="33">
         <v>14024</v>
@@ -4542,13 +4388,13 @@
         <v>6325</v>
       </c>
       <c r="D77" s="32">
-        <v>4035</v>
+        <v>4081</v>
       </c>
       <c r="E77" s="32">
-        <v>2890</v>
+        <v>2924</v>
       </c>
       <c r="F77" s="32">
-        <v>1145</v>
+        <v>1157</v>
       </c>
       <c r="G77" s="33">
         <v>28568</v>
@@ -4577,13 +4423,13 @@
         <v>1400</v>
       </c>
       <c r="D78" s="32">
-        <v>1819</v>
+        <v>1864</v>
       </c>
       <c r="E78" s="32">
-        <v>1536</v>
+        <v>1557</v>
       </c>
       <c r="F78" s="32">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="G78" s="33">
         <v>20745</v>
@@ -4612,10 +4458,10 @@
         <v>400</v>
       </c>
       <c r="D79" s="32">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E79" s="32">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F79" s="32">
         <v>26</v>
@@ -4647,13 +4493,13 @@
         <v>600</v>
       </c>
       <c r="D80" s="32">
-        <v>841</v>
+        <v>891</v>
       </c>
       <c r="E80" s="32">
-        <v>608</v>
+        <v>652</v>
       </c>
       <c r="F80" s="32">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G80" s="33">
         <v>4390</v>
@@ -4717,13 +4563,13 @@
         <v>84475</v>
       </c>
       <c r="D82" s="32">
-        <v>85128</v>
+        <v>90050</v>
       </c>
       <c r="E82" s="32">
-        <v>65489</v>
+        <v>68898</v>
       </c>
       <c r="F82" s="32">
-        <v>19639</v>
+        <v>21152</v>
       </c>
       <c r="G82" s="33">
         <v>596689</v>
@@ -4752,13 +4598,13 @@
         <v>900</v>
       </c>
       <c r="D83" s="32">
-        <v>724</v>
+        <v>738</v>
       </c>
       <c r="E83" s="32">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F83" s="32">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="G83" s="33">
         <v>8579</v>
@@ -4787,13 +4633,13 @@
         <v>1200</v>
       </c>
       <c r="D84" s="32">
-        <v>948</v>
+        <v>974</v>
       </c>
       <c r="E84" s="32">
-        <v>751</v>
+        <v>768</v>
       </c>
       <c r="F84" s="32">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="G84" s="33">
         <v>15830</v>
@@ -4822,13 +4668,13 @@
         <v>3475</v>
       </c>
       <c r="D85" s="32">
-        <v>2291</v>
+        <v>2335</v>
       </c>
       <c r="E85" s="32">
-        <v>1787</v>
+        <v>1793</v>
       </c>
       <c r="F85" s="32">
-        <v>504</v>
+        <v>542</v>
       </c>
       <c r="G85" s="33">
         <v>16032</v>
@@ -4857,10 +4703,10 @@
         <v>1200</v>
       </c>
       <c r="D86" s="32">
-        <v>1329</v>
+        <v>1353</v>
       </c>
       <c r="E86" s="32">
-        <v>793</v>
+        <v>817</v>
       </c>
       <c r="F86" s="32">
         <v>536</v>
@@ -4892,13 +4738,13 @@
         <v>45700</v>
       </c>
       <c r="D87" s="32">
-        <v>44102</v>
+        <v>48270</v>
       </c>
       <c r="E87" s="32">
-        <v>33650</v>
+        <v>35532</v>
       </c>
       <c r="F87" s="32">
-        <v>10452</v>
+        <v>12738</v>
       </c>
       <c r="G87" s="33">
         <v>265404</v>
@@ -4927,13 +4773,13 @@
         <v>400</v>
       </c>
       <c r="D88" s="32">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E88" s="32">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F88" s="32">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G88" s="33">
         <v>5277</v>
@@ -4962,13 +4808,13 @@
         <v>5500</v>
       </c>
       <c r="D89" s="32">
-        <v>3864</v>
+        <v>3990</v>
       </c>
       <c r="E89" s="32">
-        <v>3129</v>
+        <v>3245</v>
       </c>
       <c r="F89" s="32">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="G89" s="33">
         <v>22039</v>
@@ -4997,13 +4843,13 @@
         <v>0</v>
       </c>
       <c r="D90" s="32">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E90" s="32">
         <v>249</v>
       </c>
       <c r="F90" s="32">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G90" s="33">
         <v>1083</v>
@@ -5032,13 +4878,13 @@
         <v>100</v>
       </c>
       <c r="D91" s="32">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="E91" s="32">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="F91" s="32">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G91" s="33">
         <v>6195</v>
@@ -5067,13 +4913,13 @@
         <v>1600</v>
       </c>
       <c r="D92" s="32">
-        <v>2028</v>
+        <v>2039</v>
       </c>
       <c r="E92" s="32">
-        <v>1554</v>
+        <v>1562</v>
       </c>
       <c r="F92" s="32">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="G92" s="33">
         <v>15812</v>
@@ -5102,13 +4948,13 @@
         <v>1400</v>
       </c>
       <c r="D93" s="32">
-        <v>2240</v>
+        <v>2346</v>
       </c>
       <c r="E93" s="32">
-        <v>1554</v>
+        <v>1574</v>
       </c>
       <c r="F93" s="32">
-        <v>686</v>
+        <v>772</v>
       </c>
       <c r="G93" s="33">
         <v>17024</v>
@@ -5137,13 +4983,13 @@
         <v>22500</v>
       </c>
       <c r="D94" s="32">
-        <v>12877</v>
+        <v>13118</v>
       </c>
       <c r="E94" s="32">
-        <v>9269</v>
+        <v>9368</v>
       </c>
       <c r="F94" s="32">
-        <v>3608</v>
+        <v>3750</v>
       </c>
       <c r="G94" s="33">
         <v>105559</v>
@@ -5172,13 +5018,13 @@
         <v>20375</v>
       </c>
       <c r="D95" s="32">
-        <v>9956</v>
+        <v>10058</v>
       </c>
       <c r="E95" s="32">
-        <v>7774</v>
+        <v>7828</v>
       </c>
       <c r="F95" s="32">
-        <v>2182</v>
+        <v>2230</v>
       </c>
       <c r="G95" s="33">
         <v>94815</v>
@@ -5207,13 +5053,13 @@
         <v>1400</v>
       </c>
       <c r="D96" s="32">
-        <v>1702</v>
+        <v>1711</v>
       </c>
       <c r="E96" s="32">
-        <v>1303</v>
+        <v>1309</v>
       </c>
       <c r="F96" s="32">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="G96" s="33">
         <v>22728</v>
@@ -5242,13 +5088,13 @@
         <v>14650</v>
       </c>
       <c r="D97" s="32">
-        <v>13319</v>
+        <v>13739</v>
       </c>
       <c r="E97" s="32">
-        <v>10309</v>
+        <v>10605</v>
       </c>
       <c r="F97" s="32">
-        <v>3010</v>
+        <v>3134</v>
       </c>
       <c r="G97" s="33">
         <v>127337</v>
@@ -5277,13 +5123,13 @@
         <v>2900</v>
       </c>
       <c r="D98" s="32">
-        <v>3184</v>
+        <v>3294</v>
       </c>
       <c r="E98" s="32">
-        <v>2232</v>
+        <v>2313</v>
       </c>
       <c r="F98" s="32">
-        <v>952</v>
+        <v>981</v>
       </c>
       <c r="G98" s="33">
         <v>25531</v>
@@ -5312,10 +5158,10 @@
         <v>0</v>
       </c>
       <c r="D99" s="32">
-        <v>463</v>
+        <v>542</v>
       </c>
       <c r="E99" s="32">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="F99" s="32">
         <v>111</v>
@@ -5347,13 +5193,13 @@
         <v>1600</v>
       </c>
       <c r="D100" s="32">
-        <v>2247</v>
+        <v>2253</v>
       </c>
       <c r="E100" s="32">
-        <v>1696</v>
+        <v>1700</v>
       </c>
       <c r="F100" s="32">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G100" s="33">
         <v>6826</v>
@@ -5382,13 +5228,13 @@
         <v>600</v>
       </c>
       <c r="D101" s="32">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="E101" s="32">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F101" s="32">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G101" s="33">
         <v>4043</v>
@@ -5417,13 +5263,13 @@
         <v>1000</v>
       </c>
       <c r="D102" s="32">
-        <v>1024</v>
+        <v>1043</v>
       </c>
       <c r="E102" s="32">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="F102" s="32">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="G102" s="33">
         <v>3193</v>
@@ -5452,13 +5298,13 @@
         <v>5400</v>
       </c>
       <c r="D103" s="32">
-        <v>4216</v>
+        <v>4445</v>
       </c>
       <c r="E103" s="32">
-        <v>3309</v>
+        <v>3508</v>
       </c>
       <c r="F103" s="32">
-        <v>907</v>
+        <v>937</v>
       </c>
       <c r="G103" s="33">
         <v>44673</v>
@@ -5487,13 +5333,13 @@
         <v>666400</v>
       </c>
       <c r="D104" s="32">
-        <v>448023</v>
+        <v>468231</v>
       </c>
       <c r="E104" s="32">
-        <v>331341</v>
+        <v>345204</v>
       </c>
       <c r="F104" s="32">
-        <v>116682</v>
+        <v>123027</v>
       </c>
       <c r="G104" s="33">
         <v>3566488</v>
@@ -5522,13 +5368,13 @@
         <v>3800</v>
       </c>
       <c r="D105" s="32">
-        <v>3418</v>
+        <v>3453</v>
       </c>
       <c r="E105" s="32">
-        <v>2671</v>
+        <v>2687</v>
       </c>
       <c r="F105" s="32">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="G105" s="33">
         <v>51725</v>
@@ -5557,13 +5403,13 @@
         <v>1475</v>
       </c>
       <c r="D106" s="32">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="E106" s="32">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F106" s="32">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G106" s="33">
         <v>4548</v>
@@ -5592,13 +5438,13 @@
         <v>500</v>
       </c>
       <c r="D107" s="32">
-        <v>821</v>
+        <v>841</v>
       </c>
       <c r="E107" s="32">
-        <v>742</v>
+        <v>753</v>
       </c>
       <c r="F107" s="32">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G107" s="33">
         <v>4822</v>
@@ -5627,13 +5473,13 @@
         <v>21575</v>
       </c>
       <c r="D108" s="32">
-        <v>21241</v>
+        <v>21653</v>
       </c>
       <c r="E108" s="32">
-        <v>16474</v>
+        <v>16782</v>
       </c>
       <c r="F108" s="32">
-        <v>4767</v>
+        <v>4871</v>
       </c>
       <c r="G108" s="33">
         <v>177006</v>
@@ -5662,13 +5508,13 @@
         <v>1300</v>
       </c>
       <c r="D109" s="32">
-        <v>885</v>
+        <v>928</v>
       </c>
       <c r="E109" s="32">
-        <v>556</v>
+        <v>598</v>
       </c>
       <c r="F109" s="32">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G109" s="33">
         <v>2822</v>
@@ -5697,13 +5543,13 @@
         <v>4100</v>
       </c>
       <c r="D110" s="32">
-        <v>4753</v>
+        <v>4899</v>
       </c>
       <c r="E110" s="32">
-        <v>3734</v>
+        <v>3838</v>
       </c>
       <c r="F110" s="32">
-        <v>1019</v>
+        <v>1061</v>
       </c>
       <c r="G110" s="33">
         <v>66599</v>
@@ -5732,13 +5578,13 @@
         <v>123725</v>
       </c>
       <c r="D111" s="32">
-        <v>89266</v>
+        <v>92088</v>
       </c>
       <c r="E111" s="32">
-        <v>67927</v>
+        <v>69062</v>
       </c>
       <c r="F111" s="32">
-        <v>21339</v>
+        <v>23026</v>
       </c>
       <c r="G111" s="33">
         <v>612794</v>
@@ -5767,13 +5613,13 @@
         <v>1900</v>
       </c>
       <c r="D112" s="32">
-        <v>2900</v>
+        <v>2959</v>
       </c>
       <c r="E112" s="32">
-        <v>2372</v>
+        <v>2421</v>
       </c>
       <c r="F112" s="32">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="G112" s="33">
         <v>28703</v>
@@ -5802,13 +5648,13 @@
         <v>1200</v>
       </c>
       <c r="D113" s="32">
-        <v>2435</v>
+        <v>2556</v>
       </c>
       <c r="E113" s="32">
-        <v>1950</v>
+        <v>2052</v>
       </c>
       <c r="F113" s="32">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="G113" s="33">
         <v>17708</v>
@@ -5837,13 +5683,13 @@
         <v>4000</v>
       </c>
       <c r="D114" s="32">
-        <v>4501</v>
+        <v>4673</v>
       </c>
       <c r="E114" s="32">
-        <v>3634</v>
+        <v>3765</v>
       </c>
       <c r="F114" s="32">
-        <v>867</v>
+        <v>908</v>
       </c>
       <c r="G114" s="33">
         <v>48893</v>
@@ -5872,13 +5718,13 @@
         <v>2800</v>
       </c>
       <c r="D115" s="32">
-        <v>2264</v>
+        <v>2332</v>
       </c>
       <c r="E115" s="32">
-        <v>1906</v>
+        <v>1915</v>
       </c>
       <c r="F115" s="32">
-        <v>358</v>
+        <v>417</v>
       </c>
       <c r="G115" s="33">
         <v>28777</v>
@@ -5907,13 +5753,13 @@
         <v>2000</v>
       </c>
       <c r="D116" s="32">
-        <v>1960</v>
+        <v>2048</v>
       </c>
       <c r="E116" s="32">
-        <v>1403</v>
+        <v>1440</v>
       </c>
       <c r="F116" s="32">
-        <v>557</v>
+        <v>608</v>
       </c>
       <c r="G116" s="33">
         <v>19012</v>
@@ -5942,13 +5788,13 @@
         <v>2900</v>
       </c>
       <c r="D117" s="32">
-        <v>2081</v>
+        <v>2157</v>
       </c>
       <c r="E117" s="32">
-        <v>1431</v>
+        <v>1484</v>
       </c>
       <c r="F117" s="32">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="G117" s="33">
         <v>29004</v>
@@ -5977,13 +5823,13 @@
         <v>100</v>
       </c>
       <c r="D118" s="32">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E118" s="32">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F118" s="32">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G118" s="33">
         <v>3863</v>
@@ -6012,13 +5858,13 @@
         <v>7150</v>
       </c>
       <c r="D119" s="32">
-        <v>7815</v>
+        <v>7925</v>
       </c>
       <c r="E119" s="32">
-        <v>5410</v>
+        <v>5508</v>
       </c>
       <c r="F119" s="32">
-        <v>2405</v>
+        <v>2417</v>
       </c>
       <c r="G119" s="33">
         <v>76213</v>
@@ -6047,13 +5893,13 @@
         <v>800</v>
       </c>
       <c r="D120" s="32">
-        <v>1765</v>
+        <v>1853</v>
       </c>
       <c r="E120" s="32">
-        <v>1391</v>
+        <v>1453</v>
       </c>
       <c r="F120" s="32">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="G120" s="33">
         <v>16356</v>
@@ -6082,13 +5928,13 @@
         <v>0</v>
       </c>
       <c r="D121" s="32">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E121" s="32">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F121" s="32">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G121" s="33">
         <v>1221</v>
@@ -6117,13 +5963,13 @@
         <v>1100</v>
       </c>
       <c r="D122" s="32">
-        <v>1051</v>
+        <v>1059</v>
       </c>
       <c r="E122" s="32">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="F122" s="32">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G122" s="33">
         <v>7131</v>
@@ -6152,13 +5998,13 @@
         <v>2775</v>
       </c>
       <c r="D123" s="32">
-        <v>2010</v>
+        <v>2023</v>
       </c>
       <c r="E123" s="32">
-        <v>1518</v>
+        <v>1525</v>
       </c>
       <c r="F123" s="32">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="G123" s="33">
         <v>11465</v>
@@ -6187,13 +6033,13 @@
         <v>7100</v>
       </c>
       <c r="D124" s="32">
-        <v>3315</v>
+        <v>3399</v>
       </c>
       <c r="E124" s="32">
-        <v>2993</v>
+        <v>3071</v>
       </c>
       <c r="F124" s="32">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="G124" s="33">
         <v>28143</v>
@@ -6222,13 +6068,13 @@
         <v>200</v>
       </c>
       <c r="D125" s="32">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="E125" s="32">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="F125" s="32">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G125" s="33">
         <v>2136</v>
@@ -6257,13 +6103,13 @@
         <v>27750</v>
       </c>
       <c r="D126" s="32">
-        <v>13945</v>
+        <v>14420</v>
       </c>
       <c r="E126" s="32">
-        <v>11052</v>
+        <v>11445</v>
       </c>
       <c r="F126" s="32">
-        <v>2893</v>
+        <v>2975</v>
       </c>
       <c r="G126" s="33">
         <v>198652</v>
@@ -6292,13 +6138,13 @@
         <v>200</v>
       </c>
       <c r="D127" s="32">
-        <v>753</v>
+        <v>778</v>
       </c>
       <c r="E127" s="32">
-        <v>680</v>
+        <v>696</v>
       </c>
       <c r="F127" s="32">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G127" s="33">
         <v>3775</v>
@@ -6327,13 +6173,13 @@
         <v>4725</v>
       </c>
       <c r="D128" s="32">
-        <v>4918</v>
+        <v>5662</v>
       </c>
       <c r="E128" s="32">
-        <v>4261</v>
+        <v>4942</v>
       </c>
       <c r="F128" s="32">
-        <v>657</v>
+        <v>720</v>
       </c>
       <c r="G128" s="33">
         <v>30668</v>
@@ -6362,13 +6208,13 @@
         <v>4700</v>
       </c>
       <c r="D129" s="32">
-        <v>11347</v>
+        <v>11762</v>
       </c>
       <c r="E129" s="32">
-        <v>8611</v>
+        <v>8870</v>
       </c>
       <c r="F129" s="32">
-        <v>2736</v>
+        <v>2892</v>
       </c>
       <c r="G129" s="33">
         <v>131756</v>
@@ -6397,13 +6243,13 @@
         <v>500</v>
       </c>
       <c r="D130" s="32">
-        <v>1269</v>
+        <v>1286</v>
       </c>
       <c r="E130" s="32">
-        <v>1035</v>
+        <v>1045</v>
       </c>
       <c r="F130" s="32">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="G130" s="33">
         <v>16878</v>
@@ -6432,13 +6278,13 @@
         <v>1800</v>
       </c>
       <c r="D131" s="32">
-        <v>1383</v>
+        <v>1391</v>
       </c>
       <c r="E131" s="32">
-        <v>1167</v>
+        <v>1173</v>
       </c>
       <c r="F131" s="32">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G131" s="33">
         <v>12681</v>
@@ -6467,13 +6313,13 @@
         <v>4750</v>
       </c>
       <c r="D132" s="32">
-        <v>9839</v>
+        <v>10402</v>
       </c>
       <c r="E132" s="32">
-        <v>7086</v>
+        <v>7482</v>
       </c>
       <c r="F132" s="32">
-        <v>2753</v>
+        <v>2920</v>
       </c>
       <c r="G132" s="33">
         <v>96783</v>
@@ -6502,13 +6348,13 @@
         <v>2300</v>
       </c>
       <c r="D133" s="32">
-        <v>4899</v>
+        <v>5137</v>
       </c>
       <c r="E133" s="32">
-        <v>3601</v>
+        <v>3779</v>
       </c>
       <c r="F133" s="32">
-        <v>1298</v>
+        <v>1358</v>
       </c>
       <c r="G133" s="33">
         <v>36427</v>
@@ -6537,10 +6383,10 @@
         <v>0</v>
       </c>
       <c r="D134" s="32">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E134" s="32">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F134" s="32">
         <v>8</v>
@@ -6607,13 +6453,13 @@
         <v>4700</v>
       </c>
       <c r="D136" s="32">
-        <v>4482</v>
+        <v>4618</v>
       </c>
       <c r="E136" s="32">
-        <v>3345</v>
+        <v>3460</v>
       </c>
       <c r="F136" s="32">
-        <v>1137</v>
+        <v>1158</v>
       </c>
       <c r="G136" s="33">
         <v>43569</v>
@@ -6642,13 +6488,13 @@
         <v>500</v>
       </c>
       <c r="D137" s="32">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="E137" s="32">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="F137" s="32">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G137" s="33">
         <v>3673</v>
@@ -6677,13 +6523,13 @@
         <v>0</v>
       </c>
       <c r="D138" s="32">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E138" s="32">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F138" s="32">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G138" s="33">
         <v>209</v>
@@ -6712,13 +6558,13 @@
         <v>200</v>
       </c>
       <c r="D139" s="32">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E139" s="32">
         <v>393</v>
       </c>
       <c r="F139" s="32">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G139" s="33">
         <v>3084</v>
@@ -6747,13 +6593,13 @@
         <v>7225</v>
       </c>
       <c r="D140" s="32">
-        <v>5907</v>
+        <v>5943</v>
       </c>
       <c r="E140" s="32">
-        <v>5440</v>
+        <v>5456</v>
       </c>
       <c r="F140" s="32">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="G140" s="33">
         <v>24154</v>
@@ -6782,13 +6628,13 @@
         <v>700</v>
       </c>
       <c r="D141" s="32">
-        <v>720</v>
+        <v>807</v>
       </c>
       <c r="E141" s="32">
-        <v>597</v>
+        <v>641</v>
       </c>
       <c r="F141" s="32">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="G141" s="33">
         <v>2794</v>
@@ -6817,13 +6663,13 @@
         <v>3425</v>
       </c>
       <c r="D142" s="32">
-        <v>1738</v>
+        <v>1744</v>
       </c>
       <c r="E142" s="32">
-        <v>1666</v>
+        <v>1670</v>
       </c>
       <c r="F142" s="32">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G142" s="33">
         <v>6190</v>
@@ -6852,13 +6698,13 @@
         <v>4400</v>
       </c>
       <c r="D143" s="32">
-        <v>5387</v>
+        <v>5531</v>
       </c>
       <c r="E143" s="32">
-        <v>4130</v>
+        <v>4246</v>
       </c>
       <c r="F143" s="32">
-        <v>1257</v>
+        <v>1285</v>
       </c>
       <c r="G143" s="33">
         <v>39263</v>
@@ -6887,13 +6733,13 @@
         <v>400</v>
       </c>
       <c r="D144" s="32">
-        <v>1625</v>
+        <v>1640</v>
       </c>
       <c r="E144" s="32">
-        <v>1336</v>
+        <v>1348</v>
       </c>
       <c r="F144" s="32">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G144" s="33">
         <v>9866</v>
@@ -6922,13 +6768,13 @@
         <v>800</v>
       </c>
       <c r="D145" s="32">
-        <v>1179</v>
+        <v>1248</v>
       </c>
       <c r="E145" s="32">
-        <v>980</v>
+        <v>1046</v>
       </c>
       <c r="F145" s="32">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G145" s="33">
         <v>17054</v>
@@ -6957,13 +6803,13 @@
         <v>2100</v>
       </c>
       <c r="D146" s="32">
-        <v>2204</v>
+        <v>2214</v>
       </c>
       <c r="E146" s="32">
-        <v>1525</v>
+        <v>1533</v>
       </c>
       <c r="F146" s="32">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="G146" s="33">
         <v>15912</v>
@@ -6992,13 +6838,13 @@
         <v>800</v>
       </c>
       <c r="D147" s="32">
-        <v>1156</v>
+        <v>1165</v>
       </c>
       <c r="E147" s="32">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="F147" s="32">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="G147" s="33">
         <v>13842</v>
@@ -7027,13 +6873,13 @@
         <v>700</v>
       </c>
       <c r="D148" s="32">
-        <v>864</v>
+        <v>884</v>
       </c>
       <c r="E148" s="32">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="F148" s="32">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="G148" s="33">
         <v>13838</v>
@@ -7062,13 +6908,13 @@
         <v>7225</v>
       </c>
       <c r="D149" s="32">
-        <v>3949</v>
+        <v>4016</v>
       </c>
       <c r="E149" s="32">
-        <v>3149</v>
+        <v>3188</v>
       </c>
       <c r="F149" s="32">
-        <v>800</v>
+        <v>828</v>
       </c>
       <c r="G149" s="33">
         <v>65463</v>
@@ -7097,13 +6943,13 @@
         <v>1700</v>
       </c>
       <c r="D150" s="32">
-        <v>1223</v>
+        <v>1317</v>
       </c>
       <c r="E150" s="32">
-        <v>1025</v>
+        <v>1098</v>
       </c>
       <c r="F150" s="32">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="G150" s="33">
         <v>18756</v>
@@ -7132,13 +6978,13 @@
         <v>200</v>
       </c>
       <c r="D151" s="32">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="E151" s="32">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="F151" s="32">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G151" s="33">
         <v>2584</v>
@@ -7167,13 +7013,13 @@
         <v>300</v>
       </c>
       <c r="D152" s="32">
-        <v>1053</v>
+        <v>1073</v>
       </c>
       <c r="E152" s="32">
-        <v>953</v>
+        <v>967</v>
       </c>
       <c r="F152" s="32">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G152" s="33">
         <v>10027</v>
@@ -7202,13 +7048,13 @@
         <v>1200</v>
       </c>
       <c r="D153" s="32">
-        <v>1818</v>
+        <v>2059</v>
       </c>
       <c r="E153" s="32">
-        <v>1533</v>
+        <v>1767</v>
       </c>
       <c r="F153" s="32">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="G153" s="33">
         <v>18691</v>
@@ -7272,13 +7118,13 @@
         <v>84600</v>
       </c>
       <c r="D155" s="32">
-        <v>56726</v>
+        <v>58479</v>
       </c>
       <c r="E155" s="32">
-        <v>42783</v>
+        <v>44130</v>
       </c>
       <c r="F155" s="32">
-        <v>13943</v>
+        <v>14349</v>
       </c>
       <c r="G155" s="33">
         <v>242390</v>
@@ -7307,13 +7153,13 @@
         <v>400</v>
       </c>
       <c r="D156" s="32">
-        <v>672</v>
+        <v>687</v>
       </c>
       <c r="E156" s="32">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="F156" s="32">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G156" s="33">
         <v>4446</v>
@@ -7342,13 +7188,13 @@
         <v>700</v>
       </c>
       <c r="D157" s="32">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="E157" s="32">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F157" s="32">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G157" s="33">
         <v>11656</v>
@@ -7377,13 +7223,13 @@
         <v>0</v>
       </c>
       <c r="D158" s="32">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E158" s="32">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F158" s="32">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G158" s="33">
         <v>8348</v>
@@ -7412,13 +7258,13 @@
         <v>600</v>
       </c>
       <c r="D159" s="32">
-        <v>1113</v>
+        <v>1139</v>
       </c>
       <c r="E159" s="32">
-        <v>837</v>
+        <v>860</v>
       </c>
       <c r="F159" s="32">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G159" s="33">
         <v>4110</v>
@@ -7447,10 +7293,10 @@
         <v>200</v>
       </c>
       <c r="D160" s="32">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="E160" s="32">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="F160" s="32">
         <v>132</v>
@@ -7482,13 +7328,13 @@
         <v>2800</v>
       </c>
       <c r="D161" s="32">
-        <v>1908</v>
+        <v>1942</v>
       </c>
       <c r="E161" s="32">
-        <v>1535</v>
+        <v>1561</v>
       </c>
       <c r="F161" s="32">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="G161" s="33">
         <v>28184</v>
@@ -7517,13 +7363,13 @@
         <v>6200</v>
       </c>
       <c r="D162" s="32">
-        <v>3989</v>
+        <v>4073</v>
       </c>
       <c r="E162" s="32">
-        <v>3258</v>
+        <v>3325</v>
       </c>
       <c r="F162" s="32">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="G162" s="33">
         <v>42252</v>
@@ -7552,13 +7398,13 @@
         <v>1000</v>
       </c>
       <c r="D163" s="32">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="E163" s="32">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="F163" s="32">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G163" s="33">
         <v>6423</v>
@@ -7587,13 +7433,13 @@
         <v>27950</v>
       </c>
       <c r="D164" s="32">
-        <v>23616</v>
+        <v>25119</v>
       </c>
       <c r="E164" s="32">
-        <v>19049</v>
+        <v>20507</v>
       </c>
       <c r="F164" s="32">
-        <v>4567</v>
+        <v>4612</v>
       </c>
       <c r="G164" s="33">
         <v>198527</v>
@@ -7622,10 +7468,10 @@
         <v>100</v>
       </c>
       <c r="D165" s="32">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E165" s="32">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F165" s="32">
         <v>5</v>
@@ -7657,13 +7503,13 @@
         <v>1900</v>
       </c>
       <c r="D166" s="32">
-        <v>4121</v>
+        <v>4240</v>
       </c>
       <c r="E166" s="32">
-        <v>3158</v>
+        <v>3231</v>
       </c>
       <c r="F166" s="32">
-        <v>963</v>
+        <v>1009</v>
       </c>
       <c r="G166" s="33">
         <v>40600</v>
@@ -7692,13 +7538,13 @@
         <v>100</v>
       </c>
       <c r="D167" s="32">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="E167" s="32">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F167" s="32">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G167" s="33">
         <v>1786</v>
@@ -7727,13 +7573,13 @@
         <v>22525</v>
       </c>
       <c r="D168" s="32">
-        <v>16082</v>
+        <v>18968</v>
       </c>
       <c r="E168" s="32">
-        <v>12912</v>
+        <v>15720</v>
       </c>
       <c r="F168" s="32">
-        <v>3170</v>
+        <v>3248</v>
       </c>
       <c r="G168" s="33">
         <v>127791</v>
@@ -7762,13 +7608,13 @@
         <v>2200</v>
       </c>
       <c r="D169" s="32">
-        <v>2020</v>
+        <v>2250</v>
       </c>
       <c r="E169" s="32">
-        <v>1604</v>
+        <v>1621</v>
       </c>
       <c r="F169" s="32">
-        <v>416</v>
+        <v>629</v>
       </c>
       <c r="G169" s="33">
         <v>19684</v>
@@ -7797,13 +7643,13 @@
         <v>200</v>
       </c>
       <c r="D170" s="32">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="E170" s="32">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="F170" s="32">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G170" s="33">
         <v>3999</v>
@@ -7832,10 +7678,10 @@
         <v>900</v>
       </c>
       <c r="D171" s="32">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="E171" s="32">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="F171" s="32">
         <v>238</v>
@@ -7867,13 +7713,13 @@
         <v>1375</v>
       </c>
       <c r="D172" s="32">
-        <v>2330</v>
+        <v>2367</v>
       </c>
       <c r="E172" s="32">
-        <v>2077</v>
+        <v>2102</v>
       </c>
       <c r="F172" s="32">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="G172" s="33">
         <v>15658</v>
@@ -7902,13 +7748,13 @@
         <v>67950</v>
       </c>
       <c r="D173" s="32">
-        <v>35202</v>
+        <v>35773</v>
       </c>
       <c r="E173" s="32">
-        <v>25337</v>
+        <v>25671</v>
       </c>
       <c r="F173" s="32">
-        <v>9865</v>
+        <v>10102</v>
       </c>
       <c r="G173" s="33">
         <v>452615</v>
@@ -7937,13 +7783,13 @@
         <v>1300</v>
       </c>
       <c r="D174" s="32">
-        <v>2262</v>
+        <v>2301</v>
       </c>
       <c r="E174" s="32">
-        <v>1637</v>
+        <v>1661</v>
       </c>
       <c r="F174" s="32">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="G174" s="33">
         <v>15118</v>
@@ -7972,13 +7818,13 @@
         <v>500</v>
       </c>
       <c r="D175" s="32">
-        <v>719</v>
+        <v>735</v>
       </c>
       <c r="E175" s="32">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="F175" s="32">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="G175" s="33">
         <v>9799</v>
@@ -8007,13 +7853,13 @@
         <v>0</v>
       </c>
       <c r="D176" s="32">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E176" s="32">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F176" s="32">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G176" s="33">
         <v>1019</v>
@@ -8042,13 +7888,13 @@
         <v>7300</v>
       </c>
       <c r="D177" s="32">
-        <v>8148</v>
+        <v>8199</v>
       </c>
       <c r="E177" s="32">
-        <v>5794</v>
+        <v>5806</v>
       </c>
       <c r="F177" s="32">
-        <v>2354</v>
+        <v>2393</v>
       </c>
       <c r="G177" s="33">
         <v>51643</v>
@@ -8077,13 +7923,13 @@
         <v>5500</v>
       </c>
       <c r="D178" s="32">
-        <v>5605</v>
+        <v>5701</v>
       </c>
       <c r="E178" s="32">
-        <v>4835</v>
+        <v>4869</v>
       </c>
       <c r="F178" s="32">
-        <v>770</v>
+        <v>832</v>
       </c>
       <c r="G178" s="33">
         <v>37869</v>
@@ -8112,10 +7958,10 @@
         <v>900</v>
       </c>
       <c r="D179" s="32">
-        <v>1037</v>
+        <v>1055</v>
       </c>
       <c r="E179" s="32">
-        <v>910</v>
+        <v>928</v>
       </c>
       <c r="F179" s="32">
         <v>127</v>
@@ -8147,13 +7993,13 @@
         <v>2100</v>
       </c>
       <c r="D180" s="32">
-        <v>1976</v>
+        <v>1987</v>
       </c>
       <c r="E180" s="32">
         <v>1579</v>
       </c>
       <c r="F180" s="32">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="G180" s="33">
         <v>11357</v>
@@ -8182,13 +8028,13 @@
         <v>57300</v>
       </c>
       <c r="D181" s="32">
-        <v>34903</v>
+        <v>35632</v>
       </c>
       <c r="E181" s="32">
-        <v>23957</v>
+        <v>24598</v>
       </c>
       <c r="F181" s="32">
-        <v>10946</v>
+        <v>11034</v>
       </c>
       <c r="G181" s="33">
         <v>283500</v>
@@ -8217,13 +8063,13 @@
         <v>1000</v>
       </c>
       <c r="D182" s="32">
-        <v>902</v>
+        <v>941</v>
       </c>
       <c r="E182" s="32">
-        <v>693</v>
+        <v>712</v>
       </c>
       <c r="F182" s="32">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="G182" s="33">
         <v>7104</v>
@@ -8287,13 +8133,13 @@
         <v>1600</v>
       </c>
       <c r="D184" s="32">
-        <v>3050</v>
+        <v>3104</v>
       </c>
       <c r="E184" s="32">
-        <v>2535</v>
+        <v>2579</v>
       </c>
       <c r="F184" s="32">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="G184" s="33">
         <v>65096</v>
@@ -8322,13 +8168,13 @@
         <v>1700</v>
       </c>
       <c r="D185" s="32">
-        <v>1615</v>
+        <v>1635</v>
       </c>
       <c r="E185" s="32">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="F185" s="32">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="G185" s="33">
         <v>22932</v>
@@ -8357,13 +8203,13 @@
         <v>1500</v>
       </c>
       <c r="D186" s="32">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="E186" s="32">
         <v>987</v>
       </c>
       <c r="F186" s="32">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G186" s="33">
         <v>18383</v>
@@ -8392,13 +8238,13 @@
         <v>11450</v>
       </c>
       <c r="D187" s="32">
-        <v>12192</v>
+        <v>12712</v>
       </c>
       <c r="E187" s="32">
-        <v>9583</v>
+        <v>9871</v>
       </c>
       <c r="F187" s="32">
-        <v>2609</v>
+        <v>2841</v>
       </c>
       <c r="G187" s="33">
         <v>107827</v>
@@ -8427,13 +8273,13 @@
         <v>800</v>
       </c>
       <c r="D188" s="32">
-        <v>1247</v>
+        <v>1254</v>
       </c>
       <c r="E188" s="32">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="F188" s="32">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G188" s="33">
         <v>7266</v>
@@ -8462,13 +8308,13 @@
         <v>1900</v>
       </c>
       <c r="D189" s="32">
-        <v>2217</v>
+        <v>2241</v>
       </c>
       <c r="E189" s="32">
-        <v>1715</v>
+        <v>1738</v>
       </c>
       <c r="F189" s="32">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G189" s="33">
         <v>12222</v>
@@ -8497,13 +8343,13 @@
         <v>3700</v>
       </c>
       <c r="D190" s="32">
-        <v>3424</v>
+        <v>3620</v>
       </c>
       <c r="E190" s="32">
-        <v>2878</v>
+        <v>3011</v>
       </c>
       <c r="F190" s="32">
-        <v>546</v>
+        <v>609</v>
       </c>
       <c r="G190" s="33">
         <v>40971</v>
@@ -8532,13 +8378,13 @@
         <v>69025</v>
       </c>
       <c r="D191" s="32">
-        <v>21891</v>
+        <v>22427</v>
       </c>
       <c r="E191" s="32">
-        <v>15169</v>
+        <v>15466</v>
       </c>
       <c r="F191" s="32">
-        <v>6722</v>
+        <v>6961</v>
       </c>
       <c r="G191" s="33">
         <v>89345</v>
@@ -8567,10 +8413,10 @@
         <v>700</v>
       </c>
       <c r="D192" s="32">
-        <v>1087</v>
+        <v>1106</v>
       </c>
       <c r="E192" s="32">
-        <v>990</v>
+        <v>1009</v>
       </c>
       <c r="F192" s="32">
         <v>97</v>
@@ -8602,13 +8448,13 @@
         <v>200</v>
       </c>
       <c r="D193" s="32">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="E193" s="32">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="F193" s="32">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G193" s="33">
         <v>9985</v>
@@ -8637,13 +8483,13 @@
         <v>6000</v>
       </c>
       <c r="D194" s="32">
-        <v>32925</v>
+        <v>33904</v>
       </c>
       <c r="E194" s="32">
-        <v>22509</v>
+        <v>23047</v>
       </c>
       <c r="F194" s="32">
-        <v>10416</v>
+        <v>10857</v>
       </c>
       <c r="G194" s="33">
         <v>106760</v>
@@ -8672,13 +8518,13 @@
         <v>200</v>
       </c>
       <c r="D195" s="32">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E195" s="32">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F195" s="32">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G195" s="33">
         <v>2758</v>
@@ -8707,10 +8553,10 @@
         <v>0</v>
       </c>
       <c r="D196" s="32">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E196" s="32">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F196" s="32">
         <v>97</v>
@@ -8742,13 +8588,13 @@
         <v>500</v>
       </c>
       <c r="D197" s="32">
-        <v>1353</v>
+        <v>1366</v>
       </c>
       <c r="E197" s="32">
-        <v>1216</v>
+        <v>1224</v>
       </c>
       <c r="F197" s="32">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G197" s="33">
         <v>10022</v>
@@ -8777,13 +8623,13 @@
         <v>3725</v>
       </c>
       <c r="D198" s="32">
-        <v>3098</v>
+        <v>3104</v>
       </c>
       <c r="E198" s="32">
-        <v>2740</v>
+        <v>2745</v>
       </c>
       <c r="F198" s="32">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G198" s="33">
         <v>12389</v>
@@ -8812,13 +8658,13 @@
         <v>600</v>
       </c>
       <c r="D199" s="32">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="E199" s="32">
         <v>792</v>
       </c>
       <c r="F199" s="32">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G199" s="33">
         <v>5593</v>
@@ -8847,13 +8693,13 @@
         <v>0</v>
       </c>
       <c r="D200" s="32">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E200" s="32">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F200" s="32">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G200" s="33">
         <v>705</v>
@@ -8882,13 +8728,13 @@
         <v>800</v>
       </c>
       <c r="D201" s="32">
-        <v>1109</v>
+        <v>1142</v>
       </c>
       <c r="E201" s="32">
-        <v>877</v>
+        <v>907</v>
       </c>
       <c r="F201" s="32">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G201" s="33">
         <v>13548</v>
@@ -8917,13 +8763,13 @@
         <v>6275</v>
       </c>
       <c r="D202" s="32">
-        <v>9549</v>
+        <v>10061</v>
       </c>
       <c r="E202" s="32">
-        <v>7327</v>
+        <v>7673</v>
       </c>
       <c r="F202" s="32">
-        <v>2222</v>
+        <v>2388</v>
       </c>
       <c r="G202" s="33">
         <v>76870</v>
@@ -8952,13 +8798,13 @@
         <v>1500</v>
       </c>
       <c r="D203" s="32">
-        <v>1281</v>
+        <v>1353</v>
       </c>
       <c r="E203" s="32">
-        <v>909</v>
+        <v>936</v>
       </c>
       <c r="F203" s="32">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="G203" s="33">
         <v>8140</v>
@@ -8987,13 +8833,13 @@
         <v>1900</v>
       </c>
       <c r="D204" s="32">
-        <v>2331</v>
+        <v>2375</v>
       </c>
       <c r="E204" s="32">
-        <v>1890</v>
+        <v>1914</v>
       </c>
       <c r="F204" s="32">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="G204" s="33">
         <v>43676</v>
@@ -9022,13 +8868,13 @@
         <v>1300</v>
       </c>
       <c r="D205" s="32">
-        <v>1230</v>
+        <v>1266</v>
       </c>
       <c r="E205" s="32">
-        <v>1049</v>
+        <v>1068</v>
       </c>
       <c r="F205" s="32">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="G205" s="33">
         <v>8839</v>
@@ -9057,13 +8903,13 @@
         <v>1200</v>
       </c>
       <c r="D206" s="32">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="E206" s="32">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="F206" s="32">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G206" s="33">
         <v>6828</v>
@@ -9092,13 +8938,13 @@
         <v>1600</v>
       </c>
       <c r="D207" s="32">
-        <v>1635</v>
+        <v>1665</v>
       </c>
       <c r="E207" s="32">
-        <v>1309</v>
+        <v>1326</v>
       </c>
       <c r="F207" s="32">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="G207" s="33">
         <v>23259</v>
@@ -9127,13 +8973,13 @@
         <v>2100</v>
       </c>
       <c r="D208" s="32">
-        <v>5202</v>
+        <v>5327</v>
       </c>
       <c r="E208" s="32">
-        <v>4199</v>
+        <v>4302</v>
       </c>
       <c r="F208" s="32">
-        <v>1003</v>
+        <v>1025</v>
       </c>
       <c r="G208" s="33">
         <v>50902</v>
@@ -9162,10 +9008,10 @@
         <v>200</v>
       </c>
       <c r="D209" s="32">
+        <v>168</v>
+      </c>
+      <c r="E209" s="32">
         <v>148</v>
-      </c>
-      <c r="E209" s="32">
-        <v>128</v>
       </c>
       <c r="F209" s="32">
         <v>20</v>
@@ -9197,13 +9043,13 @@
         <v>200</v>
       </c>
       <c r="D210" s="32">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="E210" s="32">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F210" s="32">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G210" s="33">
         <v>2244</v>
@@ -9232,13 +9078,13 @@
         <v>2950</v>
       </c>
       <c r="D211" s="32">
-        <v>1401</v>
+        <v>1415</v>
       </c>
       <c r="E211" s="32">
-        <v>1160</v>
+        <v>1172</v>
       </c>
       <c r="F211" s="32">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G211" s="33">
         <v>13034</v>
@@ -9267,10 +9113,10 @@
         <v>300</v>
       </c>
       <c r="D212" s="32">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="E212" s="32">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F212" s="32">
         <v>32</v>
@@ -9302,13 +9148,13 @@
         <v>1700</v>
       </c>
       <c r="D213" s="32">
-        <v>1257</v>
+        <v>1269</v>
       </c>
       <c r="E213" s="32">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="F213" s="32">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G213" s="33">
         <v>19457</v>
@@ -9337,10 +9183,10 @@
         <v>500</v>
       </c>
       <c r="D214" s="32">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E214" s="32">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F214" s="32">
         <v>25</v>
@@ -9372,13 +9218,13 @@
         <v>53900</v>
       </c>
       <c r="D215" s="32">
-        <v>26939</v>
+        <v>27031</v>
       </c>
       <c r="E215" s="32">
-        <v>20022</v>
+        <v>20088</v>
       </c>
       <c r="F215" s="32">
-        <v>6917</v>
+        <v>6943</v>
       </c>
       <c r="G215" s="33">
         <v>179746</v>
@@ -9407,13 +9253,13 @@
         <v>600</v>
       </c>
       <c r="D216" s="32">
-        <v>981</v>
+        <v>1048</v>
       </c>
       <c r="E216" s="32">
-        <v>777</v>
+        <v>843</v>
       </c>
       <c r="F216" s="32">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G216" s="33">
         <v>7253</v>
@@ -9442,13 +9288,13 @@
         <v>5300</v>
       </c>
       <c r="D217" s="32">
-        <v>5397</v>
+        <v>5830</v>
       </c>
       <c r="E217" s="32">
-        <v>3932</v>
+        <v>4259</v>
       </c>
       <c r="F217" s="32">
-        <v>1465</v>
+        <v>1571</v>
       </c>
       <c r="G217" s="33">
         <v>45433</v>
@@ -9477,10 +9323,10 @@
         <v>800</v>
       </c>
       <c r="D218" s="32">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E218" s="32">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F218" s="32">
         <v>46</v>
@@ -9512,13 +9358,13 @@
         <v>100</v>
       </c>
       <c r="D219" s="32">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E219" s="32">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F219" s="32">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G219" s="33">
         <v>985</v>
@@ -9547,10 +9393,10 @@
         <v>500</v>
       </c>
       <c r="D220" s="32">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E220" s="32">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F220" s="32">
         <v>44</v>
@@ -9582,13 +9428,13 @@
         <v>300</v>
       </c>
       <c r="D221" s="32">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="E221" s="32">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F221" s="32">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="G221" s="33">
         <v>2980</v>
@@ -9617,13 +9463,13 @@
         <v>500</v>
       </c>
       <c r="D222" s="32">
-        <v>1121</v>
+        <v>1146</v>
       </c>
       <c r="E222" s="32">
-        <v>879</v>
+        <v>896</v>
       </c>
       <c r="F222" s="32">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="G222" s="33">
         <v>5767</v>
@@ -9652,13 +9498,13 @@
         <v>326175</v>
       </c>
       <c r="D223" s="32">
-        <v>165805</v>
+        <v>173197</v>
       </c>
       <c r="E223" s="32">
-        <v>129201</v>
+        <v>133438</v>
       </c>
       <c r="F223" s="32">
-        <v>36604</v>
+        <v>39759</v>
       </c>
       <c r="G223" s="33">
         <v>1595611</v>
@@ -9687,13 +9533,13 @@
         <v>21200</v>
       </c>
       <c r="D224" s="32">
-        <v>18812</v>
+        <v>19283</v>
       </c>
       <c r="E224" s="32">
-        <v>14264</v>
+        <v>14645</v>
       </c>
       <c r="F224" s="32">
-        <v>4548</v>
+        <v>4638</v>
       </c>
       <c r="G224" s="33">
         <v>106702</v>
@@ -9757,13 +9603,13 @@
         <v>2475</v>
       </c>
       <c r="D226" s="32">
-        <v>2394</v>
+        <v>2505</v>
       </c>
       <c r="E226" s="32">
-        <v>1763</v>
+        <v>1866</v>
       </c>
       <c r="F226" s="32">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="G226" s="33">
         <v>9311</v>
@@ -9795,10 +9641,10 @@
         <v>425</v>
       </c>
       <c r="E227" s="32">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F227" s="32">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G227" s="33">
         <v>1248</v>
@@ -9827,13 +9673,13 @@
         <v>3100</v>
       </c>
       <c r="D228" s="32">
-        <v>1849</v>
+        <v>1877</v>
       </c>
       <c r="E228" s="32">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="F228" s="32">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="G228" s="33">
         <v>24346</v>
@@ -9862,13 +9708,13 @@
         <v>19600</v>
       </c>
       <c r="D229" s="32">
-        <v>16139</v>
+        <v>17887</v>
       </c>
       <c r="E229" s="32">
-        <v>11515</v>
+        <v>12150</v>
       </c>
       <c r="F229" s="32">
-        <v>4624</v>
+        <v>5737</v>
       </c>
       <c r="G229" s="33">
         <v>92742</v>
@@ -9897,13 +9743,13 @@
         <v>171600</v>
       </c>
       <c r="D230" s="32">
-        <v>121064</v>
+        <v>123909</v>
       </c>
       <c r="E230" s="32">
-        <v>90368</v>
+        <v>92369</v>
       </c>
       <c r="F230" s="32">
-        <v>30696</v>
+        <v>31540</v>
       </c>
       <c r="G230" s="33">
         <v>1005013</v>
@@ -9932,13 +9778,13 @@
         <v>1775</v>
       </c>
       <c r="D231" s="32">
-        <v>968</v>
+        <v>1367</v>
       </c>
       <c r="E231" s="32">
-        <v>723</v>
+        <v>1118</v>
       </c>
       <c r="F231" s="32">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G231" s="33">
         <v>12102</v>
@@ -9967,13 +9813,13 @@
         <v>2000</v>
       </c>
       <c r="D232" s="32">
-        <v>2015</v>
+        <v>2425</v>
       </c>
       <c r="E232" s="32">
-        <v>1380</v>
+        <v>1779</v>
       </c>
       <c r="F232" s="32">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="G232" s="33">
         <v>17913</v>
@@ -10002,13 +9848,13 @@
         <v>1100</v>
       </c>
       <c r="D233" s="32">
-        <v>2078</v>
+        <v>2090</v>
       </c>
       <c r="E233" s="32">
-        <v>1623</v>
+        <v>1629</v>
       </c>
       <c r="F233" s="32">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="G233" s="33">
         <v>32565</v>
@@ -10037,10 +9883,10 @@
         <v>400</v>
       </c>
       <c r="D234" s="32">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="E234" s="32">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F234" s="32">
         <v>148</v>
@@ -10072,13 +9918,13 @@
         <v>5025</v>
       </c>
       <c r="D235" s="32">
-        <v>4215</v>
+        <v>4254</v>
       </c>
       <c r="E235" s="32">
-        <v>3502</v>
+        <v>3520</v>
       </c>
       <c r="F235" s="32">
-        <v>713</v>
+        <v>734</v>
       </c>
       <c r="G235" s="33">
         <v>20354</v>
@@ -10107,13 +9953,13 @@
         <v>4750</v>
       </c>
       <c r="D236" s="32">
-        <v>5197</v>
+        <v>5302</v>
       </c>
       <c r="E236" s="32">
-        <v>4134</v>
+        <v>4206</v>
       </c>
       <c r="F236" s="32">
-        <v>1063</v>
+        <v>1096</v>
       </c>
       <c r="G236" s="33">
         <v>36493</v>
@@ -10142,13 +9988,13 @@
         <v>2600</v>
       </c>
       <c r="D237" s="32">
-        <v>4067</v>
+        <v>4132</v>
       </c>
       <c r="E237" s="32">
-        <v>2993</v>
+        <v>3034</v>
       </c>
       <c r="F237" s="32">
-        <v>1074</v>
+        <v>1098</v>
       </c>
       <c r="G237" s="33">
         <v>44695</v>
@@ -10177,13 +10023,13 @@
         <v>11475</v>
       </c>
       <c r="D238" s="32">
-        <v>10838</v>
+        <v>11023</v>
       </c>
       <c r="E238" s="32">
-        <v>8140</v>
+        <v>8274</v>
       </c>
       <c r="F238" s="32">
-        <v>2698</v>
+        <v>2749</v>
       </c>
       <c r="G238" s="33">
         <v>71227</v>
@@ -10212,13 +10058,13 @@
         <v>4600</v>
       </c>
       <c r="D239" s="32">
-        <v>3875</v>
+        <v>3918</v>
       </c>
       <c r="E239" s="32">
-        <v>2968</v>
+        <v>3006</v>
       </c>
       <c r="F239" s="32">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="G239" s="33">
         <v>63569</v>
@@ -10247,13 +10093,13 @@
         <v>2800</v>
       </c>
       <c r="D240" s="32">
-        <v>2386</v>
+        <v>2581</v>
       </c>
       <c r="E240" s="32">
-        <v>1919</v>
+        <v>2054</v>
       </c>
       <c r="F240" s="32">
-        <v>467</v>
+        <v>527</v>
       </c>
       <c r="G240" s="33">
         <v>42000</v>
@@ -10282,10 +10128,10 @@
         <v>500</v>
       </c>
       <c r="D241" s="32">
-        <v>1011</v>
+        <v>1039</v>
       </c>
       <c r="E241" s="32">
-        <v>794</v>
+        <v>822</v>
       </c>
       <c r="F241" s="32">
         <v>217</v>
@@ -10317,13 +10163,13 @@
         <v>11000</v>
       </c>
       <c r="D242" s="32">
-        <v>3854</v>
+        <v>3877</v>
       </c>
       <c r="E242" s="32">
-        <v>3218</v>
+        <v>3228</v>
       </c>
       <c r="F242" s="32">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="G242" s="33">
         <v>28752</v>
@@ -10352,13 +10198,13 @@
         <v>39400</v>
       </c>
       <c r="D243" s="32">
-        <v>29893</v>
+        <v>32175</v>
       </c>
       <c r="E243" s="32">
-        <v>22443</v>
+        <v>24599</v>
       </c>
       <c r="F243" s="32">
-        <v>7450</v>
+        <v>7576</v>
       </c>
       <c r="G243" s="33">
         <v>194708</v>
@@ -10387,13 +10233,13 @@
         <v>2400</v>
       </c>
       <c r="D244" s="32">
-        <v>2295</v>
+        <v>2358</v>
       </c>
       <c r="E244" s="32">
-        <v>1794</v>
+        <v>1832</v>
       </c>
       <c r="F244" s="32">
-        <v>501</v>
+        <v>526</v>
       </c>
       <c r="G244" s="33">
         <v>32017</v>
@@ -10422,13 +10268,13 @@
         <v>700</v>
       </c>
       <c r="D245" s="32">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="E245" s="32">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="F245" s="32">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G245" s="33">
         <v>4010</v>
@@ -10457,13 +10303,13 @@
         <v>24750</v>
       </c>
       <c r="D246" s="32">
-        <v>18659</v>
+        <v>19673</v>
       </c>
       <c r="E246" s="32">
-        <v>13940</v>
+        <v>14226</v>
       </c>
       <c r="F246" s="32">
-        <v>4719</v>
+        <v>5447</v>
       </c>
       <c r="G246" s="33">
         <v>105295</v>
@@ -10492,13 +10338,13 @@
         <v>5400</v>
       </c>
       <c r="D247" s="32">
-        <v>2957</v>
+        <v>3032</v>
       </c>
       <c r="E247" s="32">
-        <v>2023</v>
+        <v>2062</v>
       </c>
       <c r="F247" s="32">
-        <v>934</v>
+        <v>970</v>
       </c>
       <c r="G247" s="33">
         <v>10315</v>
@@ -10527,13 +10373,13 @@
         <v>700</v>
       </c>
       <c r="D248" s="32">
-        <v>1947</v>
+        <v>1978</v>
       </c>
       <c r="E248" s="32">
-        <v>1596</v>
+        <v>1615</v>
       </c>
       <c r="F248" s="32">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="G248" s="33">
         <v>16950</v>
@@ -10562,13 +10408,13 @@
         <v>55750</v>
       </c>
       <c r="D249" s="32">
-        <v>51174</v>
+        <v>52176</v>
       </c>
       <c r="E249" s="32">
-        <v>38111</v>
+        <v>38877</v>
       </c>
       <c r="F249" s="32">
-        <v>13063</v>
+        <v>13299</v>
       </c>
       <c r="G249" s="33">
         <v>437838</v>
@@ -10597,13 +10443,13 @@
         <v>3700</v>
       </c>
       <c r="D250" s="32">
-        <v>4988</v>
+        <v>5180</v>
       </c>
       <c r="E250" s="32">
-        <v>3401</v>
+        <v>3485</v>
       </c>
       <c r="F250" s="32">
-        <v>1587</v>
+        <v>1695</v>
       </c>
       <c r="G250" s="33">
         <v>39683</v>
@@ -10632,10 +10478,10 @@
         <v>400</v>
       </c>
       <c r="D251" s="32">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="E251" s="32">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="F251" s="32">
         <v>91</v>
@@ -10667,13 +10513,13 @@
         <v>6150</v>
       </c>
       <c r="D252" s="32">
-        <v>6357</v>
+        <v>6450</v>
       </c>
       <c r="E252" s="32">
-        <v>3959</v>
+        <v>4006</v>
       </c>
       <c r="F252" s="32">
-        <v>2398</v>
+        <v>2444</v>
       </c>
       <c r="G252" s="33">
         <v>53336</v>
@@ -10702,13 +10548,13 @@
         <v>2000</v>
       </c>
       <c r="D253" s="32">
-        <v>3189</v>
+        <v>3226</v>
       </c>
       <c r="E253" s="32">
-        <v>2564</v>
+        <v>2572</v>
       </c>
       <c r="F253" s="32">
-        <v>625</v>
+        <v>654</v>
       </c>
       <c r="G253" s="33">
         <v>37548</v>
@@ -10737,13 +10583,13 @@
         <v>600</v>
       </c>
       <c r="D254" s="32">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="E254" s="32">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="F254" s="32">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G254" s="33">
         <v>6073</v>
@@ -10772,13 +10618,13 @@
         <v>2100</v>
       </c>
       <c r="D255" s="32">
-        <v>1614</v>
+        <v>1593</v>
       </c>
       <c r="E255" s="32">
-        <v>1257</v>
+        <v>1220</v>
       </c>
       <c r="F255" s="32">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="G255" s="33">
         <v>14172</v>
@@ -10807,13 +10653,13 @@
         <v>700</v>
       </c>
       <c r="D256" s="32">
-        <v>1118</v>
+        <v>1132</v>
       </c>
       <c r="E256" s="32">
-        <v>996</v>
+        <v>1006</v>
       </c>
       <c r="F256" s="32">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G256" s="33">
         <v>9939</v>
@@ -10842,10 +10688,10 @@
         <v>200</v>
       </c>
       <c r="D257" s="32">
-        <v>1515</v>
+        <v>1731</v>
       </c>
       <c r="E257" s="32">
-        <v>1358</v>
+        <v>1574</v>
       </c>
       <c r="F257" s="32">
         <v>157</v>
@@ -10877,13 +10723,13 @@
         <v>9775</v>
       </c>
       <c r="D258" s="32">
-        <v>314137</v>
+        <v>325516</v>
       </c>
       <c r="E258" s="32">
-        <v>248886</v>
+        <v>256309</v>
       </c>
       <c r="F258" s="32">
-        <v>65251</v>
+        <v>69207</v>
       </c>
       <c r="G258" s="33"/>
       <c r="H258" s="33"/>
@@ -10919,14 +10765,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.796875" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="24.19921875" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="22" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="22" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>278</v>
       </c>
@@ -10946,7 +10792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>281</v>
       </c>
@@ -10957,16 +10803,16 @@
         <v>298</v>
       </c>
       <c r="D2" s="32">
-        <v>44531</v>
+        <v>46571</v>
       </c>
       <c r="E2" s="32">
-        <v>28623</v>
+        <v>29686</v>
       </c>
       <c r="F2" s="32">
-        <v>15908</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+        <v>16885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>281</v>
       </c>
@@ -10977,16 +10823,16 @@
         <v>299</v>
       </c>
       <c r="D3" s="32">
-        <v>31580</v>
+        <v>33044</v>
       </c>
       <c r="E3" s="32">
-        <v>21125</v>
+        <v>21916</v>
       </c>
       <c r="F3" s="32">
-        <v>10455</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+        <v>11128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>281</v>
       </c>
@@ -10997,16 +10843,16 @@
         <v>297</v>
       </c>
       <c r="D4" s="32">
-        <v>95943</v>
+        <v>102221</v>
       </c>
       <c r="E4" s="32">
-        <v>67821</v>
+        <v>71976</v>
       </c>
       <c r="F4" s="32">
-        <v>28122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+        <v>30245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>281</v>
       </c>
@@ -11017,16 +10863,16 @@
         <v>301</v>
       </c>
       <c r="D5" s="32">
-        <v>180403</v>
+        <v>187104</v>
       </c>
       <c r="E5" s="32">
-        <v>117159</v>
+        <v>121258</v>
       </c>
       <c r="F5" s="32">
-        <v>63244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+        <v>65846</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>281</v>
       </c>
@@ -11037,16 +10883,16 @@
         <v>300</v>
       </c>
       <c r="D6" s="32">
-        <v>60996</v>
+        <v>62988</v>
       </c>
       <c r="E6" s="32">
-        <v>42895</v>
+        <v>44088</v>
       </c>
       <c r="F6" s="32">
-        <v>18101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+        <v>18900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>281</v>
       </c>
@@ -11057,17 +10903,17 @@
         <v>286</v>
       </c>
       <c r="D7" s="32">
-        <v>289889</v>
+        <v>293961</v>
       </c>
       <c r="E7" s="32">
-        <v>201915</v>
+        <v>203712</v>
       </c>
       <c r="F7" s="32">
-        <v>87974</v>
+        <v>90249</v>
       </c>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>281</v>
       </c>
@@ -11078,17 +10924,17 @@
         <v>298</v>
       </c>
       <c r="D8" s="32">
-        <v>20682</v>
+        <v>21978</v>
       </c>
       <c r="E8" s="32">
-        <v>14648</v>
+        <v>15364</v>
       </c>
       <c r="F8" s="32">
-        <v>6034</v>
+        <v>6614</v>
       </c>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>281</v>
       </c>
@@ -11099,17 +10945,17 @@
         <v>299</v>
       </c>
       <c r="D9" s="32">
-        <v>25223</v>
+        <v>26929</v>
       </c>
       <c r="E9" s="32">
-        <v>17941</v>
+        <v>19085</v>
       </c>
       <c r="F9" s="32">
-        <v>7282</v>
+        <v>7844</v>
       </c>
       <c r="O9" s="30"/>
     </row>
-    <row r="10" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>281</v>
       </c>
@@ -11120,17 +10966,17 @@
         <v>297</v>
       </c>
       <c r="D10" s="32">
-        <v>48520</v>
+        <v>52748</v>
       </c>
       <c r="E10" s="32">
-        <v>37953</v>
+        <v>41058</v>
       </c>
       <c r="F10" s="32">
-        <v>10567</v>
+        <v>11690</v>
       </c>
       <c r="O10" s="30"/>
     </row>
-    <row r="11" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>281</v>
       </c>
@@ -11141,17 +10987,17 @@
         <v>301</v>
       </c>
       <c r="D11" s="32">
-        <v>118829</v>
+        <v>125494</v>
       </c>
       <c r="E11" s="32">
-        <v>84983</v>
+        <v>89718</v>
       </c>
       <c r="F11" s="32">
-        <v>33846</v>
+        <v>35776</v>
       </c>
       <c r="O11" s="30"/>
     </row>
-    <row r="12" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>281</v>
       </c>
@@ -11162,17 +11008,17 @@
         <v>300</v>
       </c>
       <c r="D12" s="32">
-        <v>37263</v>
+        <v>38753</v>
       </c>
       <c r="E12" s="32">
-        <v>27401</v>
+        <v>28403</v>
       </c>
       <c r="F12" s="32">
-        <v>9862</v>
+        <v>10350</v>
       </c>
       <c r="O12" s="30"/>
     </row>
-    <row r="13" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>281</v>
       </c>
@@ -11183,17 +11029,17 @@
         <v>286</v>
       </c>
       <c r="D13" s="32">
-        <v>183804</v>
+        <v>186714</v>
       </c>
       <c r="E13" s="32">
-        <v>137539</v>
+        <v>139018</v>
       </c>
       <c r="F13" s="32">
-        <v>46265</v>
+        <v>47696</v>
       </c>
       <c r="O13" s="30"/>
     </row>
-    <row r="14" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>281</v>
       </c>
@@ -11204,17 +11050,17 @@
         <v>298</v>
       </c>
       <c r="D14" s="32">
-        <v>18175</v>
+        <v>21289</v>
       </c>
       <c r="E14" s="32">
-        <v>15273</v>
+        <v>17563</v>
       </c>
       <c r="F14" s="32">
-        <v>2902</v>
+        <v>3726</v>
       </c>
       <c r="O14" s="30"/>
     </row>
-    <row r="15" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>281</v>
       </c>
@@ -11225,17 +11071,17 @@
         <v>299</v>
       </c>
       <c r="D15" s="32">
-        <v>20103</v>
+        <v>22476</v>
       </c>
       <c r="E15" s="32">
-        <v>17620</v>
+        <v>19590</v>
       </c>
       <c r="F15" s="32">
-        <v>2483</v>
+        <v>2886</v>
       </c>
       <c r="O15" s="30"/>
     </row>
-    <row r="16" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>281</v>
       </c>
@@ -11246,17 +11092,17 @@
         <v>297</v>
       </c>
       <c r="D16" s="32">
-        <v>35964</v>
+        <v>40716</v>
       </c>
       <c r="E16" s="32">
-        <v>31419</v>
+        <v>35119</v>
       </c>
       <c r="F16" s="32">
-        <v>4545</v>
+        <v>5597</v>
       </c>
       <c r="O16" s="30"/>
     </row>
-    <row r="17" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>281</v>
       </c>
@@ -11267,17 +11113,17 @@
         <v>301</v>
       </c>
       <c r="D17" s="32">
-        <v>173037</v>
+        <v>187055</v>
       </c>
       <c r="E17" s="32">
-        <v>145956</v>
+        <v>156384</v>
       </c>
       <c r="F17" s="32">
-        <v>27081</v>
+        <v>30671</v>
       </c>
       <c r="O17" s="30"/>
     </row>
-    <row r="18" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>281</v>
       </c>
@@ -11288,17 +11134,17 @@
         <v>300</v>
       </c>
       <c r="D18" s="32">
-        <v>38907</v>
+        <v>40764</v>
       </c>
       <c r="E18" s="32">
-        <v>30883</v>
+        <v>32167</v>
       </c>
       <c r="F18" s="32">
-        <v>8024</v>
+        <v>8597</v>
       </c>
       <c r="O18" s="30"/>
     </row>
-    <row r="19" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>281</v>
       </c>
@@ -11309,17 +11155,17 @@
         <v>286</v>
       </c>
       <c r="D19" s="32">
-        <v>199897</v>
+        <v>203400</v>
       </c>
       <c r="E19" s="32">
-        <v>166706</v>
+        <v>168609</v>
       </c>
       <c r="F19" s="32">
-        <v>33191</v>
+        <v>34791</v>
       </c>
       <c r="O19" s="30"/>
     </row>
-    <row r="20" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>281</v>
       </c>
@@ -11330,17 +11176,17 @@
         <v>298</v>
       </c>
       <c r="D20" s="32">
-        <v>3931</v>
+        <v>4599</v>
       </c>
       <c r="E20" s="32">
-        <v>3360</v>
+        <v>3821</v>
       </c>
       <c r="F20" s="32">
-        <v>571</v>
+        <v>778</v>
       </c>
       <c r="O20" s="30"/>
     </row>
-    <row r="21" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>281</v>
       </c>
@@ -11351,17 +11197,17 @@
         <v>299</v>
       </c>
       <c r="D21" s="32">
-        <v>4320</v>
+        <v>4814</v>
       </c>
       <c r="E21" s="32">
-        <v>3869</v>
+        <v>4294</v>
       </c>
       <c r="F21" s="32">
-        <v>451</v>
+        <v>520</v>
       </c>
       <c r="O21" s="30"/>
     </row>
-    <row r="22" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>281</v>
       </c>
@@ -11372,13 +11218,13 @@
         <v>297</v>
       </c>
       <c r="D22" s="32">
-        <v>8278</v>
+        <v>9310</v>
       </c>
       <c r="E22" s="32">
-        <v>7333</v>
+        <v>8126</v>
       </c>
       <c r="F22" s="32">
-        <v>945</v>
+        <v>1184</v>
       </c>
       <c r="O22" s="30"/>
     </row>
@@ -11393,13 +11239,13 @@
         <v>301</v>
       </c>
       <c r="D23" s="32">
-        <v>52808</v>
+        <v>56543</v>
       </c>
       <c r="E23" s="32">
-        <v>43967</v>
+        <v>46708</v>
       </c>
       <c r="F23" s="32">
-        <v>8841</v>
+        <v>9835</v>
       </c>
       <c r="O23" s="30"/>
     </row>
@@ -11414,13 +11260,13 @@
         <v>300</v>
       </c>
       <c r="D24" s="32">
-        <v>40131</v>
+        <v>41232</v>
       </c>
       <c r="E24" s="32">
-        <v>28813</v>
+        <v>29725</v>
       </c>
       <c r="F24" s="32">
-        <v>11318</v>
+        <v>11507</v>
       </c>
       <c r="O24" s="30"/>
     </row>
@@ -11435,13 +11281,13 @@
         <v>286</v>
       </c>
       <c r="D25" s="32">
-        <v>71191</v>
+        <v>72360</v>
       </c>
       <c r="E25" s="32">
-        <v>58516</v>
+        <v>59245</v>
       </c>
       <c r="F25" s="32">
-        <v>12675</v>
+        <v>13115</v>
       </c>
       <c r="O25" s="30"/>
     </row>
@@ -11456,10 +11302,10 @@
         <v>298</v>
       </c>
       <c r="D26" s="32">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E26" s="32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F26" s="32">
         <v>2</v>
@@ -11477,10 +11323,10 @@
         <v>299</v>
       </c>
       <c r="D27" s="32">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27" s="32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F27" s="32">
         <v>3</v>
@@ -11498,13 +11344,13 @@
         <v>297</v>
       </c>
       <c r="D28" s="32">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="E28" s="32">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="F28" s="32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -11519,13 +11365,13 @@
         <v>301</v>
       </c>
       <c r="D29" s="32">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E29" s="32">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F29" s="32">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O29" s="30"/>
     </row>
@@ -11561,13 +11407,13 @@
         <v>286</v>
       </c>
       <c r="D31" s="32">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E31" s="32">
         <v>827</v>
       </c>
       <c r="F31" s="32">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O31" s="30"/>
     </row>
@@ -11582,13 +11428,13 @@
         <v>298</v>
       </c>
       <c r="D32" s="32">
-        <v>29149</v>
+        <v>30692</v>
       </c>
       <c r="E32" s="32">
-        <v>19237</v>
+        <v>20077</v>
       </c>
       <c r="F32" s="32">
-        <v>9912</v>
+        <v>10615</v>
       </c>
       <c r="O32" s="30"/>
     </row>
@@ -11603,13 +11449,13 @@
         <v>299</v>
       </c>
       <c r="D33" s="32">
-        <v>13644</v>
+        <v>14384</v>
       </c>
       <c r="E33" s="32">
-        <v>9423</v>
+        <v>9848</v>
       </c>
       <c r="F33" s="32">
-        <v>4221</v>
+        <v>4536</v>
       </c>
       <c r="O33" s="30"/>
     </row>
@@ -11624,13 +11470,13 @@
         <v>297</v>
       </c>
       <c r="D34" s="32">
-        <v>51815</v>
+        <v>55542</v>
       </c>
       <c r="E34" s="32">
-        <v>38085</v>
+        <v>40610</v>
       </c>
       <c r="F34" s="32">
-        <v>13730</v>
+        <v>14932</v>
       </c>
       <c r="O34" s="30"/>
     </row>
@@ -11645,13 +11491,13 @@
         <v>301</v>
       </c>
       <c r="D35" s="32">
-        <v>92574</v>
+        <v>96893</v>
       </c>
       <c r="E35" s="32">
-        <v>62762</v>
+        <v>65425</v>
       </c>
       <c r="F35" s="32">
-        <v>29812</v>
+        <v>31468</v>
       </c>
       <c r="O35" s="30"/>
     </row>
@@ -11666,13 +11512,13 @@
         <v>300</v>
       </c>
       <c r="D36" s="32">
-        <v>29451</v>
+        <v>30576</v>
       </c>
       <c r="E36" s="32">
-        <v>20853</v>
+        <v>21552</v>
       </c>
       <c r="F36" s="32">
-        <v>8598</v>
+        <v>9024</v>
       </c>
       <c r="O36" s="30"/>
     </row>
@@ -11687,13 +11533,13 @@
         <v>286</v>
       </c>
       <c r="D37" s="32">
-        <v>176333</v>
+        <v>178976</v>
       </c>
       <c r="E37" s="32">
-        <v>124505</v>
+        <v>125735</v>
       </c>
       <c r="F37" s="32">
-        <v>51828</v>
+        <v>53241</v>
       </c>
       <c r="O37" s="30"/>
     </row>
@@ -11708,13 +11554,13 @@
         <v>298</v>
       </c>
       <c r="D38" s="32">
-        <v>14758</v>
+        <v>15803</v>
       </c>
       <c r="E38" s="32">
-        <v>10877</v>
+        <v>11504</v>
       </c>
       <c r="F38" s="32">
-        <v>3881</v>
+        <v>4299</v>
       </c>
       <c r="O38" s="30"/>
     </row>
@@ -11729,13 +11575,13 @@
         <v>299</v>
       </c>
       <c r="D39" s="32">
-        <v>13596</v>
+        <v>14676</v>
       </c>
       <c r="E39" s="32">
-        <v>10166</v>
+        <v>10898</v>
       </c>
       <c r="F39" s="32">
-        <v>3430</v>
+        <v>3778</v>
       </c>
       <c r="O39" s="30"/>
     </row>
@@ -11750,13 +11596,13 @@
         <v>297</v>
       </c>
       <c r="D40" s="32">
-        <v>31587</v>
+        <v>34556</v>
       </c>
       <c r="E40" s="32">
-        <v>25404</v>
+        <v>27608</v>
       </c>
       <c r="F40" s="32">
-        <v>6183</v>
+        <v>6948</v>
       </c>
       <c r="O40" s="30"/>
     </row>
@@ -11771,13 +11617,13 @@
         <v>301</v>
       </c>
       <c r="D41" s="32">
-        <v>76376</v>
+        <v>81173</v>
       </c>
       <c r="E41" s="32">
-        <v>57392</v>
+        <v>60698</v>
       </c>
       <c r="F41" s="32">
-        <v>18984</v>
+        <v>20475</v>
       </c>
       <c r="O41" s="30"/>
     </row>
@@ -11792,13 +11638,13 @@
         <v>300</v>
       </c>
       <c r="D42" s="32">
-        <v>20574</v>
+        <v>21509</v>
       </c>
       <c r="E42" s="32">
-        <v>15267</v>
+        <v>15898</v>
       </c>
       <c r="F42" s="32">
-        <v>5307</v>
+        <v>5611</v>
       </c>
       <c r="O42" s="30"/>
     </row>
@@ -11813,13 +11659,13 @@
         <v>286</v>
       </c>
       <c r="D43" s="32">
-        <v>124132</v>
+        <v>126209</v>
       </c>
       <c r="E43" s="32">
-        <v>94500</v>
+        <v>95613</v>
       </c>
       <c r="F43" s="32">
-        <v>29632</v>
+        <v>30596</v>
       </c>
       <c r="O43" s="30"/>
     </row>
@@ -11834,13 +11680,13 @@
         <v>298</v>
       </c>
       <c r="D44" s="32">
-        <v>16087</v>
+        <v>18912</v>
       </c>
       <c r="E44" s="32">
-        <v>13509</v>
+        <v>15582</v>
       </c>
       <c r="F44" s="32">
-        <v>2578</v>
+        <v>3330</v>
       </c>
       <c r="O44" s="30"/>
     </row>
@@ -11855,13 +11701,13 @@
         <v>299</v>
       </c>
       <c r="D45" s="32">
-        <v>13069</v>
+        <v>14470</v>
       </c>
       <c r="E45" s="32">
-        <v>11390</v>
+        <v>12566</v>
       </c>
       <c r="F45" s="32">
-        <v>1679</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -11875,13 +11721,13 @@
         <v>297</v>
       </c>
       <c r="D46" s="32">
-        <v>27479</v>
+        <v>31075</v>
       </c>
       <c r="E46" s="32">
-        <v>23913</v>
+        <v>26637</v>
       </c>
       <c r="F46" s="32">
-        <v>3566</v>
+        <v>4438</v>
       </c>
       <c r="O46" s="30"/>
     </row>
@@ -11896,13 +11742,13 @@
         <v>301</v>
       </c>
       <c r="D47" s="32">
-        <v>148496</v>
+        <v>160394</v>
       </c>
       <c r="E47" s="32">
-        <v>125111</v>
+        <v>134020</v>
       </c>
       <c r="F47" s="32">
-        <v>23385</v>
+        <v>26374</v>
       </c>
       <c r="O47" s="30"/>
     </row>
@@ -11917,13 +11763,13 @@
         <v>300</v>
       </c>
       <c r="D48" s="32">
-        <v>27925</v>
+        <v>29436</v>
       </c>
       <c r="E48" s="32">
-        <v>22432</v>
+        <v>23481</v>
       </c>
       <c r="F48" s="32">
-        <v>5493</v>
+        <v>5955</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -11937,13 +11783,13 @@
         <v>286</v>
       </c>
       <c r="D49" s="32">
-        <v>165347</v>
+        <v>168318</v>
       </c>
       <c r="E49" s="32">
-        <v>137522</v>
+        <v>139046</v>
       </c>
       <c r="F49" s="32">
-        <v>27825</v>
+        <v>29272</v>
       </c>
       <c r="O49" s="30"/>
     </row>
@@ -11958,13 +11804,13 @@
         <v>298</v>
       </c>
       <c r="D50" s="32">
-        <v>3437</v>
+        <v>3970</v>
       </c>
       <c r="E50" s="32">
-        <v>2902</v>
+        <v>3279</v>
       </c>
       <c r="F50" s="32">
-        <v>535</v>
+        <v>691</v>
       </c>
       <c r="O50" s="30"/>
     </row>
@@ -11979,13 +11825,13 @@
         <v>299</v>
       </c>
       <c r="D51" s="32">
-        <v>2273</v>
+        <v>2515</v>
       </c>
       <c r="E51" s="32">
-        <v>1982</v>
+        <v>2185</v>
       </c>
       <c r="F51" s="32">
-        <v>291</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -11999,13 +11845,13 @@
         <v>297</v>
       </c>
       <c r="D52" s="32">
-        <v>5295</v>
+        <v>5972</v>
       </c>
       <c r="E52" s="32">
-        <v>4617</v>
+        <v>5148</v>
       </c>
       <c r="F52" s="32">
-        <v>678</v>
+        <v>824</v>
       </c>
       <c r="O52" s="30"/>
     </row>
@@ -12020,13 +11866,13 @@
         <v>301</v>
       </c>
       <c r="D53" s="32">
-        <v>43035</v>
+        <v>45823</v>
       </c>
       <c r="E53" s="32">
-        <v>35212</v>
+        <v>37165</v>
       </c>
       <c r="F53" s="32">
-        <v>7823</v>
+        <v>8658</v>
       </c>
       <c r="O53" s="30"/>
     </row>
@@ -12041,13 +11887,13 @@
         <v>300</v>
       </c>
       <c r="D54" s="32">
-        <v>16554</v>
+        <v>17063</v>
       </c>
       <c r="E54" s="32">
-        <v>12248</v>
+        <v>12633</v>
       </c>
       <c r="F54" s="32">
-        <v>4306</v>
+        <v>4430</v>
       </c>
       <c r="O54" s="30"/>
     </row>
@@ -12062,13 +11908,13 @@
         <v>286</v>
       </c>
       <c r="D55" s="32">
-        <v>46881</v>
+        <v>47630</v>
       </c>
       <c r="E55" s="32">
-        <v>38862</v>
+        <v>39278</v>
       </c>
       <c r="F55" s="32">
-        <v>8019</v>
+        <v>8352</v>
       </c>
       <c r="O55" s="30"/>
     </row>
@@ -12083,10 +11929,10 @@
         <v>298</v>
       </c>
       <c r="D56" s="32">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E56" s="32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F56" s="32">
         <v>4</v>
@@ -12124,13 +11970,13 @@
         <v>297</v>
       </c>
       <c r="D58" s="32">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E58" s="32">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F58" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O58" s="30"/>
     </row>
@@ -12145,10 +11991,10 @@
         <v>301</v>
       </c>
       <c r="D59" s="32">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E59" s="32">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F59" s="32">
         <v>15</v>
@@ -12166,10 +12012,10 @@
         <v>300</v>
       </c>
       <c r="D60" s="32">
+        <v>21</v>
+      </c>
+      <c r="E60" s="32">
         <v>19</v>
-      </c>
-      <c r="E60" s="32">
-        <v>17</v>
       </c>
       <c r="F60" s="32">
         <v>2</v>
@@ -12187,10 +12033,10 @@
         <v>286</v>
       </c>
       <c r="D61" s="32">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E61" s="32">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F61" s="32">
         <v>47</v>
@@ -12208,13 +12054,13 @@
         <v>298</v>
       </c>
       <c r="D62" s="32">
-        <v>886</v>
+        <v>921</v>
       </c>
       <c r="E62" s="32">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F62" s="32">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="O62" s="30"/>
     </row>
@@ -12229,13 +12075,13 @@
         <v>299</v>
       </c>
       <c r="D63" s="32">
-        <v>537</v>
+        <v>568</v>
       </c>
       <c r="E63" s="32">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="F63" s="32">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12249,13 +12095,13 @@
         <v>297</v>
       </c>
       <c r="D64" s="32">
-        <v>1307</v>
+        <v>1370</v>
       </c>
       <c r="E64" s="32">
-        <v>991</v>
+        <v>1012</v>
       </c>
       <c r="F64" s="32">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="O64" s="30"/>
     </row>
@@ -12270,13 +12116,13 @@
         <v>301</v>
       </c>
       <c r="D65" s="32">
-        <v>2780</v>
+        <v>2862</v>
       </c>
       <c r="E65" s="32">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="F65" s="32">
-        <v>768</v>
+        <v>853</v>
       </c>
       <c r="O65" s="30"/>
     </row>
@@ -12291,13 +12137,13 @@
         <v>300</v>
       </c>
       <c r="D66" s="32">
-        <v>2169</v>
+        <v>2261</v>
       </c>
       <c r="E66" s="32">
-        <v>1490</v>
+        <v>1494</v>
       </c>
       <c r="F66" s="32">
-        <v>679</v>
+        <v>767</v>
       </c>
     </row>
     <row r="67" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12311,13 +12157,13 @@
         <v>286</v>
       </c>
       <c r="D67" s="32">
-        <v>7671</v>
+        <v>8343</v>
       </c>
       <c r="E67" s="32">
-        <v>6950</v>
+        <v>7616</v>
       </c>
       <c r="F67" s="32">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="O67" s="30"/>
     </row>
@@ -12332,13 +12178,13 @@
         <v>298</v>
       </c>
       <c r="D68" s="32">
-        <v>606</v>
+        <v>637</v>
       </c>
       <c r="E68" s="32">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="F68" s="32">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="O68" s="30"/>
     </row>
@@ -12353,13 +12199,13 @@
         <v>299</v>
       </c>
       <c r="D69" s="32">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="E69" s="32">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="F69" s="32">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12373,13 +12219,13 @@
         <v>297</v>
       </c>
       <c r="D70" s="32">
-        <v>597</v>
+        <v>638</v>
       </c>
       <c r="E70" s="32">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="F70" s="32">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="O70" s="30"/>
     </row>
@@ -12394,13 +12240,13 @@
         <v>301</v>
       </c>
       <c r="D71" s="32">
-        <v>2344</v>
+        <v>2433</v>
       </c>
       <c r="E71" s="32">
-        <v>1809</v>
+        <v>1829</v>
       </c>
       <c r="F71" s="32">
-        <v>535</v>
+        <v>604</v>
       </c>
       <c r="O71" s="30"/>
     </row>
@@ -12415,13 +12261,13 @@
         <v>300</v>
       </c>
       <c r="D72" s="32">
-        <v>1274</v>
+        <v>1315</v>
       </c>
       <c r="E72" s="32">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F72" s="32">
-        <v>339</v>
+        <v>384</v>
       </c>
     </row>
     <row r="73" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12435,13 +12281,13 @@
         <v>286</v>
       </c>
       <c r="D73" s="32">
-        <v>7790</v>
+        <v>8279</v>
       </c>
       <c r="E73" s="32">
-        <v>7074</v>
+        <v>7557</v>
       </c>
       <c r="F73" s="32">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="O73" s="30"/>
     </row>
@@ -12456,13 +12302,13 @@
         <v>298</v>
       </c>
       <c r="D74" s="32">
-        <v>1823</v>
+        <v>1926</v>
       </c>
       <c r="E74" s="32">
-        <v>1440</v>
+        <v>1466</v>
       </c>
       <c r="F74" s="32">
-        <v>383</v>
+        <v>460</v>
       </c>
       <c r="O74" s="30"/>
     </row>
@@ -12477,13 +12323,13 @@
         <v>299</v>
       </c>
       <c r="D75" s="32">
-        <v>1017</v>
+        <v>1091</v>
       </c>
       <c r="E75" s="32">
-        <v>916</v>
+        <v>950</v>
       </c>
       <c r="F75" s="32">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="O75" s="30"/>
     </row>
@@ -12498,13 +12344,13 @@
         <v>297</v>
       </c>
       <c r="D76" s="32">
-        <v>1167</v>
+        <v>1225</v>
       </c>
       <c r="E76" s="32">
-        <v>1041</v>
+        <v>1066</v>
       </c>
       <c r="F76" s="32">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="O76" s="30"/>
     </row>
@@ -12519,13 +12365,13 @@
         <v>301</v>
       </c>
       <c r="D77" s="32">
-        <v>10861</v>
+        <v>11355</v>
       </c>
       <c r="E77" s="32">
-        <v>9122</v>
+        <v>9190</v>
       </c>
       <c r="F77" s="32">
-        <v>1739</v>
+        <v>2165</v>
       </c>
       <c r="O77" s="30"/>
     </row>
@@ -12540,13 +12386,13 @@
         <v>300</v>
       </c>
       <c r="D78" s="32">
-        <v>4388</v>
+        <v>4603</v>
       </c>
       <c r="E78" s="32">
-        <v>3653</v>
+        <v>3669</v>
       </c>
       <c r="F78" s="32">
-        <v>735</v>
+        <v>934</v>
       </c>
       <c r="O78" s="30"/>
     </row>
@@ -12561,13 +12407,13 @@
         <v>286</v>
       </c>
       <c r="D79" s="32">
-        <v>13594</v>
+        <v>14067</v>
       </c>
       <c r="E79" s="32">
-        <v>11626</v>
+        <v>12078</v>
       </c>
       <c r="F79" s="32">
-        <v>1968</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12581,13 +12427,13 @@
         <v>298</v>
       </c>
       <c r="D80" s="32">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="E80" s="32">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="F80" s="32">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12601,13 +12447,13 @@
         <v>299</v>
       </c>
       <c r="D81" s="32">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E81" s="32">
         <v>141</v>
       </c>
       <c r="F81" s="32">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12621,13 +12467,13 @@
         <v>297</v>
       </c>
       <c r="D82" s="32">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E82" s="32">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F82" s="32">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12641,13 +12487,13 @@
         <v>301</v>
       </c>
       <c r="D83" s="32">
-        <v>1994</v>
+        <v>2084</v>
       </c>
       <c r="E83" s="32">
-        <v>1691</v>
+        <v>1713</v>
       </c>
       <c r="F83" s="32">
-        <v>303</v>
+        <v>371</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12661,13 +12507,13 @@
         <v>300</v>
       </c>
       <c r="D84" s="32">
-        <v>748</v>
+        <v>778</v>
       </c>
       <c r="E84" s="32">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F84" s="32">
-        <v>98</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12681,13 +12527,13 @@
         <v>286</v>
       </c>
       <c r="D85" s="32">
-        <v>2173</v>
+        <v>2271</v>
       </c>
       <c r="E85" s="32">
-        <v>1795</v>
+        <v>1890</v>
       </c>
       <c r="F85" s="32">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12781,10 +12627,10 @@
         <v>286</v>
       </c>
       <c r="D90" s="32">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E90" s="32">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F90" s="32">
         <v>7</v>
@@ -12801,13 +12647,13 @@
         <v>287</v>
       </c>
       <c r="D91" s="32">
-        <v>3063297</v>
+        <v>3202062</v>
       </c>
       <c r="E91" s="32">
-        <v>2330010</v>
+        <v>2423278</v>
       </c>
       <c r="F91" s="32">
-        <v>733287</v>
+        <v>778784</v>
       </c>
     </row>
   </sheetData>
@@ -12818,7 +12664,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C270"/>
+  <dimension ref="A1:C275"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -12826,7 +12672,7 @@
   <cols>
     <col min="1" max="1" width="10.3984375" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.73046875" style="36" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.59765625" style="23"/>
   </cols>
   <sheetData>
@@ -12845,8 +12691,8 @@
       <c r="A2" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>311</v>
+      <c r="B2" s="38">
+        <v>44179</v>
       </c>
       <c r="C2" s="32">
         <v>274</v>
@@ -12856,8 +12702,8 @@
       <c r="A3" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>312</v>
+      <c r="B3" s="38">
+        <v>44180</v>
       </c>
       <c r="C3" s="32">
         <v>3885</v>
@@ -12867,8 +12713,8 @@
       <c r="A4" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>313</v>
+      <c r="B4" s="38">
+        <v>44181</v>
       </c>
       <c r="C4" s="32">
         <v>12804</v>
@@ -12878,8 +12724,8 @@
       <c r="A5" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>314</v>
+      <c r="B5" s="38">
+        <v>44182</v>
       </c>
       <c r="C5" s="32">
         <v>15986</v>
@@ -12889,19 +12735,19 @@
       <c r="A6" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>315</v>
+      <c r="B6" s="38">
+        <v>44183</v>
       </c>
       <c r="C6" s="32">
-        <v>24778</v>
+        <v>24777</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>316</v>
+      <c r="B7" s="38">
+        <v>44184</v>
       </c>
       <c r="C7" s="32">
         <v>12378</v>
@@ -12911,8 +12757,8 @@
       <c r="A8" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>317</v>
+      <c r="B8" s="38">
+        <v>44185</v>
       </c>
       <c r="C8" s="32">
         <v>6759</v>
@@ -12922,19 +12768,19 @@
       <c r="A9" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>318</v>
+      <c r="B9" s="38">
+        <v>44186</v>
       </c>
       <c r="C9" s="32">
-        <v>18413</v>
+        <v>18415</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>319</v>
+      <c r="B10" s="38">
+        <v>44187</v>
       </c>
       <c r="C10" s="32">
         <v>17126</v>
@@ -12944,30 +12790,30 @@
       <c r="A11" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>320</v>
+      <c r="B11" s="38">
+        <v>44188</v>
       </c>
       <c r="C11" s="32">
-        <v>24590</v>
+        <v>24596</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>321</v>
+      <c r="B12" s="38">
+        <v>44189</v>
       </c>
       <c r="C12" s="32">
-        <v>10264</v>
+        <v>10266</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B13" s="34" t="s">
-        <v>322</v>
+      <c r="B13" s="38">
+        <v>44190</v>
       </c>
       <c r="C13" s="32">
         <v>1446</v>
@@ -12977,19 +12823,19 @@
       <c r="A14" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>323</v>
+      <c r="B14" s="38">
+        <v>44191</v>
       </c>
       <c r="C14" s="32">
-        <v>6662</v>
+        <v>6663</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>324</v>
+      <c r="B15" s="38">
+        <v>44192</v>
       </c>
       <c r="C15" s="32">
         <v>5301</v>
@@ -12999,228 +12845,228 @@
       <c r="A16" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B16" s="34" t="s">
-        <v>325</v>
+      <c r="B16" s="38">
+        <v>44193</v>
       </c>
       <c r="C16" s="32">
-        <v>25446</v>
+        <v>25445</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>326</v>
+      <c r="B17" s="38">
+        <v>44194</v>
       </c>
       <c r="C17" s="32">
-        <v>32090</v>
+        <v>32091</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>327</v>
+      <c r="B18" s="38">
+        <v>44195</v>
       </c>
       <c r="C18" s="32">
-        <v>37835</v>
+        <v>37975</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B19" s="34" t="s">
-        <v>328</v>
+      <c r="B19" s="38">
+        <v>44196</v>
       </c>
       <c r="C19" s="32">
-        <v>21639</v>
+        <v>21653</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B20" s="34" t="s">
-        <v>329</v>
+      <c r="B20" s="38">
+        <v>44197</v>
       </c>
       <c r="C20" s="32">
-        <v>2294</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>330</v>
+      <c r="B21" s="38">
+        <v>44198</v>
       </c>
       <c r="C21" s="32">
-        <v>9920</v>
+        <v>9923</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B22" s="34" t="s">
-        <v>331</v>
+      <c r="B22" s="38">
+        <v>44199</v>
       </c>
       <c r="C22" s="32">
-        <v>6201</v>
+        <v>6202</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B23" s="34" t="s">
-        <v>332</v>
+      <c r="B23" s="38">
+        <v>44200</v>
       </c>
       <c r="C23" s="32">
-        <v>23991</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B24" s="34" t="s">
-        <v>333</v>
+      <c r="B24" s="38">
+        <v>44201</v>
       </c>
       <c r="C24" s="32">
-        <v>27978</v>
+        <v>28027</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B25" s="34" t="s">
-        <v>334</v>
+      <c r="B25" s="38">
+        <v>44202</v>
       </c>
       <c r="C25" s="32">
-        <v>36072</v>
+        <v>36185</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B26" s="34" t="s">
-        <v>335</v>
+      <c r="B26" s="38">
+        <v>44203</v>
       </c>
       <c r="C26" s="32">
-        <v>40778</v>
+        <v>40929</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B27" s="34" t="s">
-        <v>336</v>
+      <c r="B27" s="38">
+        <v>44204</v>
       </c>
       <c r="C27" s="32">
-        <v>43864</v>
+        <v>43940</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B28" s="34" t="s">
-        <v>337</v>
+      <c r="B28" s="38">
+        <v>44205</v>
       </c>
       <c r="C28" s="32">
-        <v>18555</v>
+        <v>18577</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B29" s="34" t="s">
-        <v>338</v>
+      <c r="B29" s="38">
+        <v>44206</v>
       </c>
       <c r="C29" s="32">
-        <v>8443</v>
+        <v>8445</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B30" s="34" t="s">
-        <v>339</v>
+      <c r="B30" s="38">
+        <v>44207</v>
       </c>
       <c r="C30" s="32">
-        <v>28331</v>
+        <v>28452</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B31" s="34" t="s">
-        <v>340</v>
+      <c r="B31" s="38">
+        <v>44208</v>
       </c>
       <c r="C31" s="32">
-        <v>29117</v>
+        <v>29234</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B32" s="34" t="s">
-        <v>341</v>
+      <c r="B32" s="38">
+        <v>44209</v>
       </c>
       <c r="C32" s="32">
-        <v>27574</v>
+        <v>27631</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B33" s="34" t="s">
-        <v>342</v>
+      <c r="B33" s="38">
+        <v>44210</v>
       </c>
       <c r="C33" s="32">
-        <v>21653</v>
+        <v>21656</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B34" s="34" t="s">
-        <v>343</v>
+      <c r="B34" s="38">
+        <v>44211</v>
       </c>
       <c r="C34" s="32">
-        <v>23629</v>
+        <v>23736</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B35" s="34" t="s">
-        <v>344</v>
+      <c r="B35" s="38">
+        <v>44212</v>
       </c>
       <c r="C35" s="32">
-        <v>12591</v>
+        <v>12598</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B36" s="34" t="s">
-        <v>345</v>
+      <c r="B36" s="38">
+        <v>44213</v>
       </c>
       <c r="C36" s="32">
         <v>2667</v>
@@ -13230,2574 +13076,2629 @@
       <c r="A37" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B37" s="34" t="s">
-        <v>346</v>
+      <c r="B37" s="38">
+        <v>44214</v>
       </c>
       <c r="C37" s="32">
-        <v>11974</v>
+        <v>12056</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B38" s="34" t="s">
-        <v>347</v>
+      <c r="B38" s="38">
+        <v>44215</v>
       </c>
       <c r="C38" s="32">
-        <v>22038</v>
+        <v>22127</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B39" s="34" t="s">
-        <v>348</v>
+      <c r="B39" s="38">
+        <v>44216</v>
       </c>
       <c r="C39" s="32">
-        <v>29567</v>
+        <v>29637</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B40" s="34" t="s">
-        <v>349</v>
+      <c r="B40" s="38">
+        <v>44217</v>
       </c>
       <c r="C40" s="32">
-        <v>27150</v>
+        <v>27284</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B41" s="34" t="s">
-        <v>350</v>
+      <c r="B41" s="38">
+        <v>44218</v>
       </c>
       <c r="C41" s="32">
-        <v>32594</v>
+        <v>32734</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B42" s="34" t="s">
-        <v>351</v>
+      <c r="B42" s="38">
+        <v>44219</v>
       </c>
       <c r="C42" s="32">
-        <v>17754</v>
+        <v>17988</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B43" s="34" t="s">
-        <v>352</v>
+      <c r="B43" s="38">
+        <v>44220</v>
       </c>
       <c r="C43" s="32">
-        <v>6993</v>
+        <v>7064</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B44" s="34" t="s">
-        <v>353</v>
+      <c r="B44" s="38">
+        <v>44221</v>
       </c>
       <c r="C44" s="32">
-        <v>33982</v>
+        <v>34096</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B45" s="34" t="s">
-        <v>354</v>
+      <c r="B45" s="38">
+        <v>44222</v>
       </c>
       <c r="C45" s="32">
-        <v>38024</v>
+        <v>40353</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B46" s="34" t="s">
-        <v>355</v>
+      <c r="B46" s="38">
+        <v>44223</v>
       </c>
       <c r="C46" s="32">
-        <v>35308</v>
+        <v>39027</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B47" s="34" t="s">
-        <v>356</v>
+      <c r="B47" s="38">
+        <v>44224</v>
       </c>
       <c r="C47" s="32">
-        <v>33480</v>
+        <v>36479</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B48" s="34" t="s">
-        <v>357</v>
+      <c r="B48" s="38">
+        <v>44225</v>
       </c>
       <c r="C48" s="32">
-        <v>35208</v>
+        <v>35344</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B49" s="34" t="s">
-        <v>358</v>
+      <c r="B49" s="38">
+        <v>44226</v>
       </c>
       <c r="C49" s="32">
-        <v>16528</v>
+        <v>16704</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B50" s="34" t="s">
-        <v>359</v>
+      <c r="B50" s="38">
+        <v>44227</v>
       </c>
       <c r="C50" s="32">
-        <v>7369</v>
+        <v>7404</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B51" s="34" t="s">
-        <v>360</v>
+      <c r="B51" s="38">
+        <v>44228</v>
       </c>
       <c r="C51" s="32">
-        <v>28916</v>
+        <v>29293</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B52" s="34" t="s">
-        <v>361</v>
+      <c r="B52" s="38">
+        <v>44229</v>
       </c>
       <c r="C52" s="32">
-        <v>25162</v>
+        <v>26720</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B53" s="34" t="s">
-        <v>362</v>
+      <c r="B53" s="38">
+        <v>44230</v>
       </c>
       <c r="C53" s="32">
-        <v>32575</v>
+        <v>36432</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B54" s="34" t="s">
-        <v>363</v>
+      <c r="B54" s="38">
+        <v>44231</v>
       </c>
       <c r="C54" s="32">
-        <v>21409</v>
+        <v>27216</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B55" s="34" t="s">
-        <v>364</v>
+      <c r="B55" s="38">
+        <v>44232</v>
       </c>
       <c r="C55" s="32">
-        <v>14293</v>
+        <v>21974</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="B56" s="34" t="s">
-        <v>311</v>
+        <v>282</v>
+      </c>
+      <c r="B56" s="38">
+        <v>44233</v>
       </c>
       <c r="C56" s="32">
-        <v>138</v>
+        <v>7006</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B57" s="34" t="s">
-        <v>312</v>
+      <c r="B57" s="38">
+        <v>44179</v>
       </c>
       <c r="C57" s="32">
-        <v>1488</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B58" s="34" t="s">
-        <v>313</v>
+      <c r="B58" s="38">
+        <v>44180</v>
       </c>
       <c r="C58" s="32">
-        <v>4970</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B59" s="34" t="s">
-        <v>314</v>
+      <c r="B59" s="38">
+        <v>44181</v>
       </c>
       <c r="C59" s="32">
-        <v>6643</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B60" s="34" t="s">
-        <v>315</v>
+      <c r="B60" s="38">
+        <v>44182</v>
       </c>
       <c r="C60" s="32">
-        <v>10816</v>
+        <v>6643</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B61" s="34" t="s">
-        <v>316</v>
+      <c r="B61" s="38">
+        <v>44183</v>
       </c>
       <c r="C61" s="32">
-        <v>4706</v>
+        <v>10816</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B62" s="34" t="s">
-        <v>317</v>
+      <c r="B62" s="38">
+        <v>44184</v>
       </c>
       <c r="C62" s="32">
-        <v>2533</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B63" s="34" t="s">
-        <v>318</v>
+      <c r="B63" s="38">
+        <v>44185</v>
       </c>
       <c r="C63" s="32">
-        <v>7839</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B64" s="34" t="s">
-        <v>319</v>
+      <c r="B64" s="38">
+        <v>44186</v>
       </c>
       <c r="C64" s="32">
-        <v>7344</v>
+        <v>7839</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B65" s="34" t="s">
-        <v>320</v>
+      <c r="B65" s="38">
+        <v>44187</v>
       </c>
       <c r="C65" s="32">
-        <v>10734</v>
+        <v>7345</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B66" s="34" t="s">
-        <v>321</v>
+      <c r="B66" s="38">
+        <v>44188</v>
       </c>
       <c r="C66" s="32">
-        <v>4635</v>
+        <v>10748</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B67" s="34" t="s">
-        <v>322</v>
+      <c r="B67" s="38">
+        <v>44189</v>
       </c>
       <c r="C67" s="32">
-        <v>665</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B68" s="34" t="s">
-        <v>323</v>
+      <c r="B68" s="38">
+        <v>44190</v>
       </c>
       <c r="C68" s="32">
-        <v>3169</v>
+        <v>665</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B69" s="34" t="s">
-        <v>324</v>
+      <c r="B69" s="38">
+        <v>44191</v>
       </c>
       <c r="C69" s="32">
-        <v>2236</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B70" s="34" t="s">
-        <v>325</v>
+      <c r="B70" s="38">
+        <v>44192</v>
       </c>
       <c r="C70" s="32">
-        <v>12842</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B71" s="34" t="s">
-        <v>326</v>
+      <c r="B71" s="38">
+        <v>44193</v>
       </c>
       <c r="C71" s="32">
-        <v>16946</v>
+        <v>12844</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B72" s="34" t="s">
-        <v>327</v>
+      <c r="B72" s="38">
+        <v>44194</v>
       </c>
       <c r="C72" s="32">
-        <v>20735</v>
+        <v>16948</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B73" s="34" t="s">
-        <v>328</v>
+      <c r="B73" s="38">
+        <v>44195</v>
       </c>
       <c r="C73" s="32">
-        <v>12601</v>
+        <v>20824</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B74" s="34" t="s">
-        <v>329</v>
+      <c r="B74" s="38">
+        <v>44196</v>
       </c>
       <c r="C74" s="32">
-        <v>1181</v>
+        <v>12609</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B75" s="34" t="s">
-        <v>330</v>
+      <c r="B75" s="38">
+        <v>44197</v>
       </c>
       <c r="C75" s="32">
-        <v>5686</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B76" s="34" t="s">
-        <v>331</v>
+      <c r="B76" s="38">
+        <v>44198</v>
       </c>
       <c r="C76" s="32">
-        <v>3289</v>
+        <v>5692</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B77" s="34" t="s">
-        <v>332</v>
+      <c r="B77" s="38">
+        <v>44199</v>
       </c>
       <c r="C77" s="32">
-        <v>14840</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B78" s="34" t="s">
-        <v>333</v>
+      <c r="B78" s="38">
+        <v>44200</v>
       </c>
       <c r="C78" s="32">
-        <v>16603</v>
+        <v>14847</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B79" s="34" t="s">
-        <v>334</v>
+      <c r="B79" s="38">
+        <v>44201</v>
       </c>
       <c r="C79" s="32">
-        <v>20122</v>
+        <v>16642</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B80" s="34" t="s">
-        <v>335</v>
+      <c r="B80" s="38">
+        <v>44202</v>
       </c>
       <c r="C80" s="32">
-        <v>22862</v>
+        <v>20208</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B81" s="34" t="s">
-        <v>336</v>
+      <c r="B81" s="38">
+        <v>44203</v>
       </c>
       <c r="C81" s="32">
-        <v>24519</v>
+        <v>22938</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B82" s="34" t="s">
-        <v>337</v>
+      <c r="B82" s="38">
+        <v>44204</v>
       </c>
       <c r="C82" s="32">
-        <v>10633</v>
+        <v>24563</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B83" s="34" t="s">
-        <v>338</v>
+      <c r="B83" s="38">
+        <v>44205</v>
       </c>
       <c r="C83" s="32">
-        <v>4439</v>
+        <v>10645</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B84" s="34" t="s">
-        <v>339</v>
+      <c r="B84" s="38">
+        <v>44206</v>
       </c>
       <c r="C84" s="32">
-        <v>17963</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B85" s="34" t="s">
-        <v>340</v>
+      <c r="B85" s="38">
+        <v>44207</v>
       </c>
       <c r="C85" s="32">
-        <v>19751</v>
+        <v>18056</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B86" s="34" t="s">
-        <v>341</v>
+      <c r="B86" s="38">
+        <v>44208</v>
       </c>
       <c r="C86" s="32">
-        <v>19806</v>
+        <v>19832</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B87" s="34" t="s">
-        <v>342</v>
+      <c r="B87" s="38">
+        <v>44209</v>
       </c>
       <c r="C87" s="32">
-        <v>17161</v>
+        <v>19830</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B88" s="34" t="s">
-        <v>343</v>
+      <c r="B88" s="38">
+        <v>44210</v>
       </c>
       <c r="C88" s="32">
-        <v>17451</v>
+        <v>17165</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B89" s="34" t="s">
-        <v>344</v>
+      <c r="B89" s="38">
+        <v>44211</v>
       </c>
       <c r="C89" s="32">
-        <v>10818</v>
+        <v>17511</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B90" s="34" t="s">
-        <v>345</v>
+      <c r="B90" s="38">
+        <v>44212</v>
       </c>
       <c r="C90" s="32">
-        <v>1699</v>
+        <v>10830</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B91" s="34" t="s">
-        <v>346</v>
+      <c r="B91" s="38">
+        <v>44213</v>
       </c>
       <c r="C91" s="32">
-        <v>8560</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B92" s="34" t="s">
-        <v>347</v>
+      <c r="B92" s="38">
+        <v>44214</v>
       </c>
       <c r="C92" s="32">
-        <v>17029</v>
+        <v>8617</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B93" s="34" t="s">
-        <v>348</v>
+      <c r="B93" s="38">
+        <v>44215</v>
       </c>
       <c r="C93" s="32">
-        <v>22311</v>
+        <v>17096</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B94" s="34" t="s">
-        <v>349</v>
+      <c r="B94" s="38">
+        <v>44216</v>
       </c>
       <c r="C94" s="32">
-        <v>21563</v>
+        <v>22364</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B95" s="34" t="s">
-        <v>350</v>
+      <c r="B95" s="38">
+        <v>44217</v>
       </c>
       <c r="C95" s="32">
-        <v>22997</v>
+        <v>21639</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B96" s="34" t="s">
-        <v>351</v>
+      <c r="B96" s="38">
+        <v>44218</v>
       </c>
       <c r="C96" s="32">
-        <v>12688</v>
+        <v>23041</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B97" s="34" t="s">
-        <v>352</v>
+      <c r="B97" s="38">
+        <v>44219</v>
       </c>
       <c r="C97" s="32">
-        <v>5025</v>
+        <v>12755</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B98" s="34" t="s">
-        <v>353</v>
+      <c r="B98" s="38">
+        <v>44220</v>
       </c>
       <c r="C98" s="32">
-        <v>22872</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B99" s="34" t="s">
-        <v>354</v>
+      <c r="B99" s="38">
+        <v>44221</v>
       </c>
       <c r="C99" s="32">
-        <v>27791</v>
+        <v>22941</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B100" s="34" t="s">
-        <v>355</v>
+      <c r="B100" s="38">
+        <v>44222</v>
       </c>
       <c r="C100" s="32">
-        <v>27776</v>
+        <v>29607</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B101" s="34" t="s">
-        <v>356</v>
+      <c r="B101" s="38">
+        <v>44223</v>
       </c>
       <c r="C101" s="32">
-        <v>27782</v>
+        <v>30457</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B102" s="34" t="s">
-        <v>357</v>
+      <c r="B102" s="38">
+        <v>44224</v>
       </c>
       <c r="C102" s="32">
-        <v>27802</v>
+        <v>29552</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B103" s="34" t="s">
-        <v>358</v>
+      <c r="B103" s="38">
+        <v>44225</v>
       </c>
       <c r="C103" s="32">
-        <v>13460</v>
+        <v>27936</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B104" s="34" t="s">
-        <v>359</v>
+      <c r="B104" s="38">
+        <v>44226</v>
       </c>
       <c r="C104" s="32">
-        <v>5721</v>
+        <v>13583</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B105" s="34" t="s">
-        <v>360</v>
+      <c r="B105" s="38">
+        <v>44227</v>
       </c>
       <c r="C105" s="32">
-        <v>21824</v>
+        <v>5732</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B106" s="34" t="s">
-        <v>361</v>
+      <c r="B106" s="38">
+        <v>44228</v>
       </c>
       <c r="C106" s="32">
-        <v>22287</v>
+        <v>22206</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B107" s="34" t="s">
-        <v>362</v>
+      <c r="B107" s="38">
+        <v>44229</v>
       </c>
       <c r="C107" s="32">
-        <v>27445</v>
+        <v>23714</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B108" s="34" t="s">
-        <v>363</v>
+      <c r="B108" s="38">
+        <v>44230</v>
       </c>
       <c r="C108" s="32">
-        <v>20465</v>
+        <v>30191</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B109" s="34" t="s">
-        <v>364</v>
+      <c r="B109" s="38">
+        <v>44231</v>
       </c>
       <c r="C109" s="32">
-        <v>13221</v>
+        <v>25431</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="B110" s="34" t="s">
-        <v>311</v>
+        <v>283</v>
+      </c>
+      <c r="B110" s="38">
+        <v>44232</v>
       </c>
       <c r="C110" s="32">
-        <v>24</v>
+        <v>20185</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="B111" s="34" t="s">
-        <v>312</v>
+        <v>283</v>
+      </c>
+      <c r="B111" s="38">
+        <v>44233</v>
       </c>
       <c r="C111" s="32">
-        <v>303</v>
+        <v>7732</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B112" s="34" t="s">
-        <v>313</v>
+      <c r="B112" s="38">
+        <v>44179</v>
       </c>
       <c r="C112" s="32">
-        <v>955</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B113" s="34" t="s">
-        <v>314</v>
+      <c r="B113" s="38">
+        <v>44180</v>
       </c>
       <c r="C113" s="32">
-        <v>1429</v>
+        <v>304</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B114" s="34" t="s">
-        <v>315</v>
+      <c r="B114" s="38">
+        <v>44181</v>
       </c>
       <c r="C114" s="32">
-        <v>2022</v>
+        <v>955</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B115" s="34" t="s">
-        <v>316</v>
+      <c r="B115" s="38">
+        <v>44182</v>
       </c>
       <c r="C115" s="32">
-        <v>1008</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B116" s="34" t="s">
-        <v>317</v>
+      <c r="B116" s="38">
+        <v>44183</v>
       </c>
       <c r="C116" s="32">
-        <v>497</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B117" s="34" t="s">
-        <v>318</v>
+      <c r="B117" s="38">
+        <v>44184</v>
       </c>
       <c r="C117" s="32">
-        <v>1490</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B118" s="34" t="s">
-        <v>319</v>
+      <c r="B118" s="38">
+        <v>44185</v>
       </c>
       <c r="C118" s="32">
-        <v>2068</v>
+        <v>497</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B119" s="34" t="s">
-        <v>320</v>
+      <c r="B119" s="38">
+        <v>44186</v>
       </c>
       <c r="C119" s="32">
-        <v>2893</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B120" s="34" t="s">
-        <v>321</v>
+      <c r="B120" s="38">
+        <v>44187</v>
       </c>
       <c r="C120" s="32">
-        <v>1884</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B121" s="34" t="s">
-        <v>322</v>
+      <c r="B121" s="38">
+        <v>44188</v>
       </c>
       <c r="C121" s="32">
-        <v>325</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B122" s="34" t="s">
-        <v>323</v>
+      <c r="B122" s="38">
+        <v>44189</v>
       </c>
       <c r="C122" s="32">
-        <v>1716</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B123" s="34" t="s">
-        <v>324</v>
+      <c r="B123" s="38">
+        <v>44190</v>
       </c>
       <c r="C123" s="32">
-        <v>1119</v>
+        <v>325</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B124" s="34" t="s">
-        <v>325</v>
+      <c r="B124" s="38">
+        <v>44191</v>
       </c>
       <c r="C124" s="32">
-        <v>6634</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B125" s="34" t="s">
-        <v>326</v>
+      <c r="B125" s="38">
+        <v>44192</v>
       </c>
       <c r="C125" s="32">
-        <v>10652</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B126" s="34" t="s">
-        <v>327</v>
+      <c r="B126" s="38">
+        <v>44193</v>
       </c>
       <c r="C126" s="32">
-        <v>17324</v>
+        <v>6634</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B127" s="34" t="s">
-        <v>328</v>
+      <c r="B127" s="38">
+        <v>44194</v>
       </c>
       <c r="C127" s="32">
-        <v>10841</v>
+        <v>10654</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B128" s="34" t="s">
-        <v>329</v>
+      <c r="B128" s="38">
+        <v>44195</v>
       </c>
       <c r="C128" s="32">
-        <v>1321</v>
+        <v>17422</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B129" s="34" t="s">
-        <v>330</v>
+      <c r="B129" s="38">
+        <v>44196</v>
       </c>
       <c r="C129" s="32">
-        <v>6191</v>
+        <v>10866</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B130" s="34" t="s">
-        <v>331</v>
+      <c r="B130" s="38">
+        <v>44197</v>
       </c>
       <c r="C130" s="32">
-        <v>3484</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B131" s="34" t="s">
-        <v>332</v>
+      <c r="B131" s="38">
+        <v>44198</v>
       </c>
       <c r="C131" s="32">
-        <v>16265</v>
+        <v>6201</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B132" s="34" t="s">
-        <v>333</v>
+      <c r="B132" s="38">
+        <v>44199</v>
       </c>
       <c r="C132" s="32">
-        <v>18411</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B133" s="34" t="s">
-        <v>334</v>
+      <c r="B133" s="38">
+        <v>44200</v>
       </c>
       <c r="C133" s="32">
-        <v>20391</v>
+        <v>16266</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B134" s="34" t="s">
-        <v>335</v>
+      <c r="B134" s="38">
+        <v>44201</v>
       </c>
       <c r="C134" s="32">
-        <v>24419</v>
+        <v>18442</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B135" s="34" t="s">
-        <v>336</v>
+      <c r="B135" s="38">
+        <v>44202</v>
       </c>
       <c r="C135" s="32">
-        <v>24759</v>
+        <v>20474</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B136" s="34" t="s">
-        <v>337</v>
+      <c r="B136" s="38">
+        <v>44203</v>
       </c>
       <c r="C136" s="32">
-        <v>13972</v>
+        <v>24518</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B137" s="34" t="s">
-        <v>338</v>
+      <c r="B137" s="38">
+        <v>44204</v>
       </c>
       <c r="C137" s="32">
-        <v>4394</v>
+        <v>24788</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B138" s="34" t="s">
-        <v>339</v>
+      <c r="B138" s="38">
+        <v>44205</v>
       </c>
       <c r="C138" s="32">
-        <v>23638</v>
+        <v>13993</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B139" s="34" t="s">
-        <v>340</v>
+      <c r="B139" s="38">
+        <v>44206</v>
       </c>
       <c r="C139" s="32">
-        <v>28584</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B140" s="34" t="s">
-        <v>341</v>
+      <c r="B140" s="38">
+        <v>44207</v>
       </c>
       <c r="C140" s="32">
-        <v>29635</v>
+        <v>23668</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B141" s="34" t="s">
-        <v>342</v>
+      <c r="B141" s="38">
+        <v>44208</v>
       </c>
       <c r="C141" s="32">
-        <v>33975</v>
+        <v>28669</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B142" s="34" t="s">
-        <v>343</v>
+      <c r="B142" s="38">
+        <v>44209</v>
       </c>
       <c r="C142" s="32">
-        <v>30461</v>
+        <v>29653</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B143" s="34" t="s">
-        <v>344</v>
+      <c r="B143" s="38">
+        <v>44210</v>
       </c>
       <c r="C143" s="32">
-        <v>25066</v>
+        <v>33990</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B144" s="34" t="s">
-        <v>345</v>
+      <c r="B144" s="38">
+        <v>44211</v>
       </c>
       <c r="C144" s="32">
-        <v>6695</v>
+        <v>30535</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B145" s="34" t="s">
-        <v>346</v>
+      <c r="B145" s="38">
+        <v>44212</v>
       </c>
       <c r="C145" s="32">
-        <v>12107</v>
+        <v>25085</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B146" s="34" t="s">
-        <v>347</v>
+      <c r="B146" s="38">
+        <v>44213</v>
       </c>
       <c r="C146" s="32">
-        <v>22711</v>
+        <v>6695</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B147" s="34" t="s">
-        <v>348</v>
+      <c r="B147" s="38">
+        <v>44214</v>
       </c>
       <c r="C147" s="32">
-        <v>31265</v>
+        <v>12158</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B148" s="34" t="s">
-        <v>349</v>
+      <c r="B148" s="38">
+        <v>44215</v>
       </c>
       <c r="C148" s="32">
-        <v>33394</v>
+        <v>22782</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B149" s="34" t="s">
-        <v>350</v>
+      <c r="B149" s="38">
+        <v>44216</v>
       </c>
       <c r="C149" s="32">
-        <v>29681</v>
+        <v>31352</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B150" s="34" t="s">
-        <v>351</v>
+      <c r="B150" s="38">
+        <v>44217</v>
       </c>
       <c r="C150" s="32">
-        <v>21403</v>
+        <v>33426</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B151" s="34" t="s">
-        <v>352</v>
+      <c r="B151" s="38">
+        <v>44218</v>
       </c>
       <c r="C151" s="32">
-        <v>8746</v>
+        <v>29745</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B152" s="34" t="s">
-        <v>353</v>
+      <c r="B152" s="38">
+        <v>44219</v>
       </c>
       <c r="C152" s="32">
-        <v>26292</v>
+        <v>21429</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B153" s="34" t="s">
-        <v>354</v>
+      <c r="B153" s="38">
+        <v>44220</v>
       </c>
       <c r="C153" s="32">
-        <v>33201</v>
+        <v>8814</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B154" s="34" t="s">
-        <v>355</v>
+      <c r="B154" s="38">
+        <v>44221</v>
       </c>
       <c r="C154" s="32">
-        <v>38093</v>
+        <v>26339</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B155" s="34" t="s">
-        <v>356</v>
+      <c r="B155" s="38">
+        <v>44222</v>
       </c>
       <c r="C155" s="32">
-        <v>42002</v>
+        <v>35897</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B156" s="34" t="s">
-        <v>357</v>
+      <c r="B156" s="38">
+        <v>44223</v>
       </c>
       <c r="C156" s="32">
-        <v>43485</v>
+        <v>41337</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B157" s="34" t="s">
-        <v>358</v>
+      <c r="B157" s="38">
+        <v>44224</v>
       </c>
       <c r="C157" s="32">
-        <v>21930</v>
+        <v>46679</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B158" s="34" t="s">
-        <v>359</v>
+      <c r="B158" s="38">
+        <v>44225</v>
       </c>
       <c r="C158" s="32">
-        <v>6926</v>
+        <v>43628</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B159" s="34" t="s">
-        <v>360</v>
+      <c r="B159" s="38">
+        <v>44226</v>
       </c>
       <c r="C159" s="32">
-        <v>32237</v>
+        <v>22086</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B160" s="34" t="s">
-        <v>361</v>
+      <c r="B160" s="38">
+        <v>44227</v>
       </c>
       <c r="C160" s="32">
-        <v>36258</v>
+        <v>6936</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B161" s="34" t="s">
-        <v>362</v>
+      <c r="B161" s="38">
+        <v>44228</v>
       </c>
       <c r="C161" s="32">
-        <v>44169</v>
+        <v>32785</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B162" s="34" t="s">
-        <v>363</v>
+      <c r="B162" s="38">
+        <v>44229</v>
       </c>
       <c r="C162" s="32">
-        <v>37660</v>
+        <v>38238</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B163" s="34" t="s">
-        <v>364</v>
+      <c r="B163" s="38">
+        <v>44230</v>
       </c>
       <c r="C163" s="32">
-        <v>20931</v>
+        <v>50989</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="B164" s="34" t="s">
-        <v>311</v>
+        <v>284</v>
+      </c>
+      <c r="B164" s="38">
+        <v>44231</v>
       </c>
       <c r="C164" s="32">
-        <v>1</v>
+        <v>49790</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="B165" s="34" t="s">
-        <v>312</v>
+        <v>284</v>
+      </c>
+      <c r="B165" s="38">
+        <v>44232</v>
       </c>
       <c r="C165" s="32">
-        <v>7</v>
+        <v>32264</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="B166" s="34" t="s">
-        <v>313</v>
+        <v>284</v>
+      </c>
+      <c r="B166" s="38">
+        <v>44233</v>
       </c>
       <c r="C166" s="32">
-        <v>34</v>
+        <v>10404</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B167" s="34" t="s">
-        <v>314</v>
+      <c r="B167" s="38">
+        <v>44179</v>
       </c>
       <c r="C167" s="32">
-        <v>69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B168" s="34" t="s">
-        <v>315</v>
+      <c r="B168" s="38">
+        <v>44180</v>
       </c>
       <c r="C168" s="32">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B169" s="34" t="s">
-        <v>316</v>
+      <c r="B169" s="38">
+        <v>44181</v>
       </c>
       <c r="C169" s="32">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B170" s="34" t="s">
-        <v>317</v>
+      <c r="B170" s="38">
+        <v>44182</v>
       </c>
       <c r="C170" s="32">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B171" s="34" t="s">
-        <v>318</v>
+      <c r="B171" s="38">
+        <v>44183</v>
       </c>
       <c r="C171" s="32">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B172" s="34" t="s">
-        <v>319</v>
+      <c r="B172" s="38">
+        <v>44184</v>
       </c>
       <c r="C172" s="32">
-        <v>157</v>
+        <v>47</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B173" s="34" t="s">
-        <v>320</v>
+      <c r="B173" s="38">
+        <v>44185</v>
       </c>
       <c r="C173" s="32">
-        <v>581</v>
+        <v>89</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B174" s="34" t="s">
-        <v>321</v>
+      <c r="B174" s="38">
+        <v>44186</v>
       </c>
       <c r="C174" s="32">
-        <v>409</v>
+        <v>58</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B175" s="34" t="s">
-        <v>322</v>
+      <c r="B175" s="38">
+        <v>44187</v>
       </c>
       <c r="C175" s="32">
-        <v>57</v>
+        <v>157</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B176" s="34" t="s">
-        <v>323</v>
+      <c r="B176" s="38">
+        <v>44188</v>
       </c>
       <c r="C176" s="32">
-        <v>507</v>
+        <v>581</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B177" s="34" t="s">
-        <v>324</v>
+      <c r="B177" s="38">
+        <v>44189</v>
       </c>
       <c r="C177" s="32">
-        <v>367</v>
+        <v>409</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B178" s="34" t="s">
-        <v>325</v>
+      <c r="B178" s="38">
+        <v>44190</v>
       </c>
       <c r="C178" s="32">
-        <v>2711</v>
+        <v>57</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B179" s="34" t="s">
-        <v>326</v>
+      <c r="B179" s="38">
+        <v>44191</v>
       </c>
       <c r="C179" s="32">
-        <v>5501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B180" s="34" t="s">
-        <v>327</v>
+      <c r="B180" s="38">
+        <v>44192</v>
       </c>
       <c r="C180" s="32">
-        <v>7172</v>
+        <v>367</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B181" s="34" t="s">
-        <v>328</v>
+      <c r="B181" s="38">
+        <v>44193</v>
       </c>
       <c r="C181" s="32">
-        <v>3205</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B182" s="34" t="s">
-        <v>329</v>
+      <c r="B182" s="38">
+        <v>44194</v>
       </c>
       <c r="C182" s="32">
-        <v>409</v>
+        <v>5501</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B183" s="34" t="s">
-        <v>330</v>
+      <c r="B183" s="38">
+        <v>44195</v>
       </c>
       <c r="C183" s="32">
-        <v>2045</v>
+        <v>7191</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B184" s="34" t="s">
-        <v>331</v>
+      <c r="B184" s="38">
+        <v>44196</v>
       </c>
       <c r="C184" s="32">
-        <v>1239</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B185" s="34" t="s">
-        <v>332</v>
+      <c r="B185" s="38">
+        <v>44197</v>
       </c>
       <c r="C185" s="32">
-        <v>6656</v>
+        <v>409</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B186" s="34" t="s">
-        <v>333</v>
+      <c r="B186" s="38">
+        <v>44198</v>
       </c>
       <c r="C186" s="32">
-        <v>5837</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B187" s="34" t="s">
-        <v>334</v>
+      <c r="B187" s="38">
+        <v>44199</v>
       </c>
       <c r="C187" s="32">
-        <v>7594</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B188" s="34" t="s">
-        <v>335</v>
+      <c r="B188" s="38">
+        <v>44200</v>
       </c>
       <c r="C188" s="32">
-        <v>9445</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B189" s="34" t="s">
-        <v>336</v>
+      <c r="B189" s="38">
+        <v>44201</v>
       </c>
       <c r="C189" s="32">
-        <v>8657</v>
+        <v>5851</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B190" s="34" t="s">
-        <v>337</v>
+      <c r="B190" s="38">
+        <v>44202</v>
       </c>
       <c r="C190" s="32">
-        <v>4735</v>
+        <v>7617</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B191" s="34" t="s">
-        <v>338</v>
+      <c r="B191" s="38">
+        <v>44203</v>
       </c>
       <c r="C191" s="32">
-        <v>1382</v>
+        <v>9465</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B192" s="34" t="s">
-        <v>339</v>
+      <c r="B192" s="38">
+        <v>44204</v>
       </c>
       <c r="C192" s="32">
-        <v>8386</v>
+        <v>8663</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B193" s="34" t="s">
-        <v>340</v>
+      <c r="B193" s="38">
+        <v>44205</v>
       </c>
       <c r="C193" s="32">
-        <v>9186</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B194" s="34" t="s">
-        <v>341</v>
+      <c r="B194" s="38">
+        <v>44206</v>
       </c>
       <c r="C194" s="32">
-        <v>11481</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B195" s="34" t="s">
-        <v>342</v>
+      <c r="B195" s="38">
+        <v>44207</v>
       </c>
       <c r="C195" s="32">
-        <v>11907</v>
+        <v>8392</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B196" s="34" t="s">
-        <v>343</v>
+      <c r="B196" s="38">
+        <v>44208</v>
       </c>
       <c r="C196" s="32">
-        <v>8892</v>
+        <v>9206</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B197" s="34" t="s">
-        <v>344</v>
+      <c r="B197" s="38">
+        <v>44209</v>
       </c>
       <c r="C197" s="32">
-        <v>5377</v>
+        <v>11488</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B198" s="34" t="s">
-        <v>345</v>
+      <c r="B198" s="38">
+        <v>44210</v>
       </c>
       <c r="C198" s="32">
-        <v>1682</v>
+        <v>11912</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B199" s="34" t="s">
-        <v>346</v>
+      <c r="B199" s="38">
+        <v>44211</v>
       </c>
       <c r="C199" s="32">
-        <v>5106</v>
+        <v>8914</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B200" s="34" t="s">
-        <v>347</v>
+      <c r="B200" s="38">
+        <v>44212</v>
       </c>
       <c r="C200" s="32">
-        <v>8753</v>
+        <v>5386</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B201" s="34" t="s">
-        <v>348</v>
+      <c r="B201" s="38">
+        <v>44213</v>
       </c>
       <c r="C201" s="32">
-        <v>10870</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B202" s="34" t="s">
-        <v>349</v>
+      <c r="B202" s="38">
+        <v>44214</v>
       </c>
       <c r="C202" s="32">
-        <v>10596</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B203" s="34" t="s">
-        <v>350</v>
+      <c r="B203" s="38">
+        <v>44215</v>
       </c>
       <c r="C203" s="32">
-        <v>8425</v>
+        <v>8776</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B204" s="34" t="s">
-        <v>351</v>
+      <c r="B204" s="38">
+        <v>44216</v>
       </c>
       <c r="C204" s="32">
-        <v>5990</v>
+        <v>10889</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B205" s="34" t="s">
-        <v>352</v>
+      <c r="B205" s="38">
+        <v>44217</v>
       </c>
       <c r="C205" s="32">
-        <v>1951</v>
+        <v>10602</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B206" s="34" t="s">
-        <v>353</v>
+      <c r="B206" s="38">
+        <v>44218</v>
       </c>
       <c r="C206" s="32">
-        <v>8819</v>
+        <v>8431</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B207" s="34" t="s">
-        <v>354</v>
+      <c r="B207" s="38">
+        <v>44219</v>
       </c>
       <c r="C207" s="32">
-        <v>11999</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B208" s="34" t="s">
-        <v>355</v>
+      <c r="B208" s="38">
+        <v>44220</v>
       </c>
       <c r="C208" s="32">
-        <v>13737</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B209" s="34" t="s">
-        <v>356</v>
+      <c r="B209" s="38">
+        <v>44221</v>
       </c>
       <c r="C209" s="32">
-        <v>14230</v>
+        <v>8847</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B210" s="34" t="s">
-        <v>357</v>
+      <c r="B210" s="38">
+        <v>44222</v>
       </c>
       <c r="C210" s="32">
-        <v>13250</v>
+        <v>12651</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B211" s="34" t="s">
-        <v>358</v>
+      <c r="B211" s="38">
+        <v>44223</v>
       </c>
       <c r="C211" s="32">
-        <v>6566</v>
+        <v>14585</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B212" s="34" t="s">
-        <v>359</v>
+      <c r="B212" s="38">
+        <v>44224</v>
       </c>
       <c r="C212" s="32">
-        <v>3179</v>
+        <v>15207</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B213" s="34" t="s">
-        <v>360</v>
+      <c r="B213" s="38">
+        <v>44225</v>
       </c>
       <c r="C213" s="32">
-        <v>11500</v>
+        <v>13285</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B214" s="34" t="s">
-        <v>361</v>
+      <c r="B214" s="38">
+        <v>44226</v>
       </c>
       <c r="C214" s="32">
-        <v>12518</v>
+        <v>6602</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B215" s="34" t="s">
-        <v>362</v>
+      <c r="B215" s="38">
+        <v>44227</v>
       </c>
       <c r="C215" s="32">
-        <v>13963</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B216" s="34" t="s">
-        <v>363</v>
+      <c r="B216" s="38">
+        <v>44228</v>
       </c>
       <c r="C216" s="32">
-        <v>10201</v>
+        <v>11679</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B217" s="34" t="s">
-        <v>364</v>
+      <c r="B217" s="38">
+        <v>44229</v>
       </c>
       <c r="C217" s="32">
-        <v>6131</v>
+        <v>13910</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="B218" s="34" t="s">
-        <v>312</v>
+        <v>285</v>
+      </c>
+      <c r="B218" s="38">
+        <v>44230</v>
       </c>
       <c r="C218" s="32">
-        <v>2</v>
+        <v>15292</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="B219" s="34" t="s">
-        <v>313</v>
+        <v>285</v>
+      </c>
+      <c r="B219" s="38">
+        <v>44231</v>
       </c>
       <c r="C219" s="32">
-        <v>5</v>
+        <v>12788</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="B220" s="34" t="s">
-        <v>314</v>
+        <v>285</v>
+      </c>
+      <c r="B220" s="38">
+        <v>44232</v>
       </c>
       <c r="C220" s="32">
-        <v>13</v>
+        <v>8741</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="B221" s="34" t="s">
-        <v>315</v>
+        <v>285</v>
+      </c>
+      <c r="B221" s="38">
+        <v>44233</v>
       </c>
       <c r="C221" s="32">
-        <v>40</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B222" s="34" t="s">
-        <v>316</v>
+      <c r="B222" s="38">
+        <v>44180</v>
       </c>
       <c r="C222" s="32">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B223" s="34" t="s">
-        <v>317</v>
+      <c r="B223" s="38">
+        <v>44181</v>
       </c>
       <c r="C223" s="32">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B224" s="34" t="s">
-        <v>318</v>
+      <c r="B224" s="38">
+        <v>44182</v>
       </c>
       <c r="C224" s="32">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B225" s="34" t="s">
-        <v>319</v>
+      <c r="B225" s="38">
+        <v>44183</v>
       </c>
       <c r="C225" s="32">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B226" s="34" t="s">
-        <v>320</v>
+      <c r="B226" s="38">
+        <v>44184</v>
       </c>
       <c r="C226" s="32">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B227" s="34" t="s">
-        <v>321</v>
+      <c r="B227" s="38">
+        <v>44185</v>
       </c>
       <c r="C227" s="32">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B228" s="34" t="s">
-        <v>322</v>
+      <c r="B228" s="38">
+        <v>44186</v>
       </c>
       <c r="C228" s="32">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B229" s="34" t="s">
-        <v>323</v>
+      <c r="B229" s="38">
+        <v>44187</v>
       </c>
       <c r="C229" s="32">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B230" s="34" t="s">
-        <v>324</v>
+      <c r="B230" s="38">
+        <v>44188</v>
       </c>
       <c r="C230" s="32">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B231" s="34" t="s">
-        <v>325</v>
+      <c r="B231" s="38">
+        <v>44189</v>
       </c>
       <c r="C231" s="32">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B232" s="34" t="s">
-        <v>326</v>
+      <c r="B232" s="38">
+        <v>44190</v>
       </c>
       <c r="C232" s="32">
-        <v>78</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B233" s="34" t="s">
-        <v>327</v>
+      <c r="B233" s="38">
+        <v>44191</v>
       </c>
       <c r="C233" s="32">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B234" s="34" t="s">
-        <v>328</v>
+      <c r="B234" s="38">
+        <v>44192</v>
       </c>
       <c r="C234" s="32">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B235" s="34" t="s">
-        <v>329</v>
+      <c r="B235" s="38">
+        <v>44193</v>
       </c>
       <c r="C235" s="32">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B236" s="34" t="s">
-        <v>330</v>
+      <c r="B236" s="38">
+        <v>44194</v>
       </c>
       <c r="C236" s="32">
-        <v>17</v>
+        <v>78</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B237" s="34" t="s">
-        <v>331</v>
+      <c r="B237" s="38">
+        <v>44195</v>
       </c>
       <c r="C237" s="32">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B238" s="34" t="s">
-        <v>332</v>
+      <c r="B238" s="38">
+        <v>44196</v>
       </c>
       <c r="C238" s="32">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B239" s="34" t="s">
-        <v>333</v>
+      <c r="B239" s="38">
+        <v>44197</v>
       </c>
       <c r="C239" s="32">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B240" s="34" t="s">
-        <v>334</v>
+      <c r="B240" s="38">
+        <v>44198</v>
       </c>
       <c r="C240" s="32">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B241" s="34" t="s">
-        <v>335</v>
+      <c r="B241" s="38">
+        <v>44199</v>
       </c>
       <c r="C241" s="32">
-        <v>56</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B242" s="34" t="s">
-        <v>336</v>
+      <c r="B242" s="38">
+        <v>44200</v>
       </c>
       <c r="C242" s="32">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B243" s="34" t="s">
-        <v>337</v>
+      <c r="B243" s="38">
+        <v>44201</v>
       </c>
       <c r="C243" s="32">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B244" s="34" t="s">
-        <v>338</v>
+      <c r="B244" s="38">
+        <v>44202</v>
       </c>
       <c r="C244" s="32">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B245" s="34" t="s">
-        <v>339</v>
+      <c r="B245" s="38">
+        <v>44203</v>
       </c>
       <c r="C245" s="32">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B246" s="34" t="s">
-        <v>340</v>
+      <c r="B246" s="38">
+        <v>44204</v>
       </c>
       <c r="C246" s="32">
-        <v>78</v>
+        <v>33</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B247" s="34" t="s">
-        <v>341</v>
+      <c r="B247" s="38">
+        <v>44205</v>
       </c>
       <c r="C247" s="32">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B248" s="34" t="s">
-        <v>342</v>
+      <c r="B248" s="38">
+        <v>44206</v>
       </c>
       <c r="C248" s="32">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B249" s="34" t="s">
-        <v>343</v>
+      <c r="B249" s="38">
+        <v>44207</v>
       </c>
       <c r="C249" s="32">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B250" s="34" t="s">
-        <v>344</v>
+      <c r="B250" s="38">
+        <v>44208</v>
       </c>
       <c r="C250" s="32">
-        <v>24</v>
+        <v>78</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B251" s="34" t="s">
-        <v>345</v>
+      <c r="B251" s="38">
+        <v>44209</v>
       </c>
       <c r="C251" s="32">
-        <v>4</v>
+        <v>87</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B252" s="34" t="s">
-        <v>346</v>
+      <c r="B252" s="38">
+        <v>44210</v>
       </c>
       <c r="C252" s="32">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B253" s="34" t="s">
-        <v>347</v>
+      <c r="B253" s="38">
+        <v>44211</v>
       </c>
       <c r="C253" s="32">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B254" s="34" t="s">
-        <v>348</v>
+      <c r="B254" s="38">
+        <v>44212</v>
       </c>
       <c r="C254" s="32">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B255" s="34" t="s">
-        <v>349</v>
+      <c r="B255" s="38">
+        <v>44213</v>
       </c>
       <c r="C255" s="32">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B256" s="34" t="s">
-        <v>350</v>
+      <c r="B256" s="38">
+        <v>44214</v>
       </c>
       <c r="C256" s="32">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B257" s="34" t="s">
-        <v>351</v>
+      <c r="B257" s="38">
+        <v>44215</v>
       </c>
       <c r="C257" s="32">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B258" s="34" t="s">
-        <v>352</v>
+      <c r="B258" s="38">
+        <v>44216</v>
       </c>
       <c r="C258" s="32">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B259" s="34" t="s">
-        <v>353</v>
+      <c r="B259" s="38">
+        <v>44217</v>
       </c>
       <c r="C259" s="32">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B260" s="34" t="s">
-        <v>354</v>
+      <c r="B260" s="38">
+        <v>44218</v>
       </c>
       <c r="C260" s="32">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B261" s="34" t="s">
-        <v>355</v>
+      <c r="B261" s="38">
+        <v>44219</v>
       </c>
       <c r="C261" s="32">
-        <v>74</v>
+        <v>33</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B262" s="34" t="s">
-        <v>356</v>
+      <c r="B262" s="38">
+        <v>44220</v>
       </c>
       <c r="C262" s="32">
-        <v>62</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B263" s="34" t="s">
-        <v>357</v>
+      <c r="B263" s="38">
+        <v>44221</v>
       </c>
       <c r="C263" s="32">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B264" s="34" t="s">
-        <v>358</v>
+      <c r="B264" s="38">
+        <v>44222</v>
       </c>
       <c r="C264" s="32">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B265" s="34" t="s">
-        <v>359</v>
+      <c r="B265" s="38">
+        <v>44223</v>
       </c>
       <c r="C265" s="32">
-        <v>3</v>
+        <v>76</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B266" s="34" t="s">
-        <v>360</v>
+      <c r="B266" s="38">
+        <v>44224</v>
       </c>
       <c r="C266" s="32">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B267" s="34" t="s">
-        <v>361</v>
+      <c r="B267" s="38">
+        <v>44225</v>
       </c>
       <c r="C267" s="32">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B268" s="34" t="s">
-        <v>362</v>
+      <c r="B268" s="38">
+        <v>44226</v>
       </c>
       <c r="C268" s="32">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B269" s="34" t="s">
-        <v>363</v>
+      <c r="B269" s="38">
+        <v>44227</v>
       </c>
       <c r="C269" s="32">
-        <v>59</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B270" s="34" t="s">
-        <v>364</v>
+      <c r="B270" s="38">
+        <v>44228</v>
       </c>
       <c r="C270" s="32">
-        <v>45</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B271" s="39">
+        <v>44229</v>
+      </c>
+      <c r="C271" s="36">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B272" s="39">
+        <v>44230</v>
+      </c>
+      <c r="C272" s="36">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B273" s="39">
+        <v>44231</v>
+      </c>
+      <c r="C273" s="36">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B274" s="39">
+        <v>44232</v>
+      </c>
+      <c r="C274" s="36">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B275" s="39">
+        <v>44233</v>
+      </c>
+      <c r="C275" s="36">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Services/StateOfTexas/Data/COVID-19 Vaccine Data by County.xlsx
+++ b/Services/StateOfTexas/Data/COVID-19 Vaccine Data by County.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12048" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12048"/>
   </bookViews>
   <sheets>
     <sheet name="About the Data" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="311">
   <si>
     <t>County Name</t>
   </si>
@@ -1139,7 +1139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1246,7 +1246,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1564,9 +1563,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1587,7 +1584,7 @@
         <v>305</v>
       </c>
       <c r="B2" s="29">
-        <v>44235</v>
+        <v>44237</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1692,7 +1689,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N259"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1760,15 +1757,15 @@
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:K2" si="0">SUM(D4:D258)</f>
-        <v>3277891</v>
+        <v>3523303</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>2472063</v>
+        <v>2630567</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>805828</v>
+        <v>892736</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
@@ -1841,13 +1838,13 @@
         <v>6200</v>
       </c>
       <c r="D4" s="32">
-        <v>2774</v>
+        <v>3022</v>
       </c>
       <c r="E4" s="32">
-        <v>2337</v>
+        <v>2508</v>
       </c>
       <c r="F4" s="32">
-        <v>437</v>
+        <v>514</v>
       </c>
       <c r="G4" s="33">
         <v>48045</v>
@@ -1876,13 +1873,13 @@
         <v>1600</v>
       </c>
       <c r="D5" s="32">
-        <v>2857</v>
+        <v>2866</v>
       </c>
       <c r="E5" s="32">
-        <v>2237</v>
+        <v>2247</v>
       </c>
       <c r="F5" s="32">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G5" s="33">
         <v>13503</v>
@@ -1911,13 +1908,13 @@
         <v>15700</v>
       </c>
       <c r="D6" s="32">
-        <v>10434</v>
+        <v>11140</v>
       </c>
       <c r="E6" s="32">
-        <v>7321</v>
+        <v>7566</v>
       </c>
       <c r="F6" s="32">
-        <v>3113</v>
+        <v>3574</v>
       </c>
       <c r="G6" s="33">
         <v>67056</v>
@@ -1946,13 +1943,13 @@
         <v>1100</v>
       </c>
       <c r="D7" s="32">
-        <v>2068</v>
+        <v>2194</v>
       </c>
       <c r="E7" s="32">
-        <v>1677</v>
+        <v>1718</v>
       </c>
       <c r="F7" s="32">
-        <v>391</v>
+        <v>476</v>
       </c>
       <c r="G7" s="33">
         <v>19803</v>
@@ -1981,13 +1978,13 @@
         <v>700</v>
       </c>
       <c r="D8" s="32">
-        <v>1342</v>
+        <v>1438</v>
       </c>
       <c r="E8" s="32">
-        <v>1003</v>
+        <v>1046</v>
       </c>
       <c r="F8" s="32">
-        <v>339</v>
+        <v>392</v>
       </c>
       <c r="G8" s="33">
         <v>6921</v>
@@ -2016,13 +2013,13 @@
         <v>400</v>
       </c>
       <c r="D9" s="32">
-        <v>439</v>
+        <v>478</v>
       </c>
       <c r="E9" s="32">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="F9" s="32">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="G9" s="33">
         <v>1499</v>
@@ -2051,13 +2048,13 @@
         <v>3600</v>
       </c>
       <c r="D10" s="32">
-        <v>3766</v>
+        <v>3970</v>
       </c>
       <c r="E10" s="32">
-        <v>2789</v>
+        <v>2887</v>
       </c>
       <c r="F10" s="32">
-        <v>977</v>
+        <v>1083</v>
       </c>
       <c r="G10" s="33">
         <v>38768</v>
@@ -2086,13 +2083,13 @@
         <v>2000</v>
       </c>
       <c r="D11" s="32">
-        <v>3532</v>
+        <v>3714</v>
       </c>
       <c r="E11" s="32">
-        <v>2781</v>
+        <v>2863</v>
       </c>
       <c r="F11" s="32">
-        <v>751</v>
+        <v>851</v>
       </c>
       <c r="G11" s="33">
         <v>23704</v>
@@ -2121,13 +2118,13 @@
         <v>5475</v>
       </c>
       <c r="D12" s="32">
-        <v>1497</v>
+        <v>1516</v>
       </c>
       <c r="E12" s="32">
-        <v>1369</v>
+        <v>1380</v>
       </c>
       <c r="F12" s="32">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G12" s="33">
         <v>5089</v>
@@ -2156,13 +2153,13 @@
         <v>500</v>
       </c>
       <c r="D13" s="32">
-        <v>2432</v>
+        <v>2127</v>
       </c>
       <c r="E13" s="32">
-        <v>2052</v>
+        <v>1727</v>
       </c>
       <c r="F13" s="32">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="G13" s="33">
         <v>19763</v>
@@ -2191,13 +2188,13 @@
         <v>7500</v>
       </c>
       <c r="D14" s="32">
-        <v>4471</v>
+        <v>4670</v>
       </c>
       <c r="E14" s="32">
-        <v>3226</v>
+        <v>3342</v>
       </c>
       <c r="F14" s="32">
-        <v>1245</v>
+        <v>1328</v>
       </c>
       <c r="G14" s="33">
         <v>68839</v>
@@ -2226,13 +2223,13 @@
         <v>2950</v>
       </c>
       <c r="D15" s="32">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="E15" s="32">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="F15" s="32">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G15" s="33">
         <v>2793</v>
@@ -2261,13 +2258,13 @@
         <v>16925</v>
       </c>
       <c r="D16" s="32">
-        <v>5909</v>
+        <v>7002</v>
       </c>
       <c r="E16" s="32">
-        <v>5175</v>
+        <v>5216</v>
       </c>
       <c r="F16" s="32">
-        <v>734</v>
+        <v>1786</v>
       </c>
       <c r="G16" s="33">
         <v>26496</v>
@@ -2296,13 +2293,13 @@
         <v>49450</v>
       </c>
       <c r="D17" s="32">
-        <v>29352</v>
+        <v>30912</v>
       </c>
       <c r="E17" s="32">
-        <v>21065</v>
+        <v>21657</v>
       </c>
       <c r="F17" s="32">
-        <v>8287</v>
+        <v>9255</v>
       </c>
       <c r="G17" s="33">
         <v>272969</v>
@@ -2331,13 +2328,13 @@
         <v>376100</v>
       </c>
       <c r="D18" s="32">
-        <v>228019</v>
+        <v>240235</v>
       </c>
       <c r="E18" s="32">
-        <v>166991</v>
+        <v>175715</v>
       </c>
       <c r="F18" s="32">
-        <v>61028</v>
+        <v>64520</v>
       </c>
       <c r="G18" s="33">
         <v>1552823</v>
@@ -2366,13 +2363,13 @@
         <v>900</v>
       </c>
       <c r="D19" s="32">
-        <v>2272</v>
+        <v>2282</v>
       </c>
       <c r="E19" s="32">
-        <v>1794</v>
+        <v>1682</v>
       </c>
       <c r="F19" s="32">
-        <v>478</v>
+        <v>600</v>
       </c>
       <c r="G19" s="33">
         <v>10092</v>
@@ -2401,13 +2398,13 @@
         <v>0</v>
       </c>
       <c r="D20" s="32">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E20" s="32">
         <v>48</v>
       </c>
       <c r="F20" s="32">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G20" s="33">
         <v>543</v>
@@ -2436,13 +2433,13 @@
         <v>2900</v>
       </c>
       <c r="D21" s="32">
-        <v>1369</v>
+        <v>1479</v>
       </c>
       <c r="E21" s="32">
-        <v>1082</v>
+        <v>1122</v>
       </c>
       <c r="F21" s="32">
-        <v>287</v>
+        <v>357</v>
       </c>
       <c r="G21" s="33">
         <v>15224</v>
@@ -2471,13 +2468,13 @@
         <v>13350</v>
       </c>
       <c r="D22" s="32">
-        <v>5911</v>
+        <v>6002</v>
       </c>
       <c r="E22" s="32">
-        <v>4049</v>
+        <v>4036</v>
       </c>
       <c r="F22" s="32">
-        <v>1862</v>
+        <v>1966</v>
       </c>
       <c r="G22" s="33">
         <v>73689</v>
@@ -2506,13 +2503,13 @@
         <v>32000</v>
       </c>
       <c r="D23" s="32">
-        <v>37401</v>
+        <v>42229</v>
       </c>
       <c r="E23" s="32">
-        <v>27020</v>
+        <v>30527</v>
       </c>
       <c r="F23" s="32">
-        <v>10381</v>
+        <v>11702</v>
       </c>
       <c r="G23" s="33">
         <v>287683</v>
@@ -2541,13 +2538,13 @@
         <v>29100</v>
       </c>
       <c r="D24" s="32">
-        <v>16367</v>
+        <v>18468</v>
       </c>
       <c r="E24" s="32">
-        <v>13297</v>
+        <v>15039</v>
       </c>
       <c r="F24" s="32">
-        <v>3070</v>
+        <v>3429</v>
       </c>
       <c r="G24" s="33">
         <v>186843</v>
@@ -2576,13 +2573,13 @@
         <v>1300</v>
       </c>
       <c r="D25" s="32">
-        <v>2083</v>
+        <v>2007</v>
       </c>
       <c r="E25" s="32">
-        <v>1772</v>
+        <v>1700</v>
       </c>
       <c r="F25" s="32">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G25" s="33">
         <v>7706</v>
@@ -2611,13 +2608,13 @@
         <v>400</v>
       </c>
       <c r="D26" s="32">
-        <v>670</v>
+        <v>621</v>
       </c>
       <c r="E26" s="32">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="F26" s="32">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G26" s="33">
         <v>1272</v>
@@ -2646,13 +2643,13 @@
         <v>900</v>
       </c>
       <c r="D27" s="32">
-        <v>847</v>
+        <v>1010</v>
       </c>
       <c r="E27" s="32">
-        <v>717</v>
+        <v>869</v>
       </c>
       <c r="F27" s="32">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="G27" s="33">
         <v>5317</v>
@@ -2681,13 +2678,13 @@
         <v>2700</v>
       </c>
       <c r="D28" s="32">
-        <v>2665</v>
+        <v>2739</v>
       </c>
       <c r="E28" s="32">
-        <v>1925</v>
+        <v>1960</v>
       </c>
       <c r="F28" s="32">
-        <v>740</v>
+        <v>779</v>
       </c>
       <c r="G28" s="33">
         <v>30883</v>
@@ -2716,13 +2713,13 @@
         <v>800</v>
       </c>
       <c r="D29" s="32">
-        <v>1561</v>
+        <v>1697</v>
       </c>
       <c r="E29" s="32">
-        <v>1153</v>
+        <v>1254</v>
       </c>
       <c r="F29" s="32">
-        <v>408</v>
+        <v>443</v>
       </c>
       <c r="G29" s="33">
         <v>14869</v>
@@ -2751,13 +2748,13 @@
         <v>6425</v>
       </c>
       <c r="D30" s="32">
-        <v>3621</v>
+        <v>4054</v>
       </c>
       <c r="E30" s="32">
-        <v>2894</v>
+        <v>3212</v>
       </c>
       <c r="F30" s="32">
-        <v>727</v>
+        <v>842</v>
       </c>
       <c r="G30" s="33">
         <v>39239</v>
@@ -2786,13 +2783,13 @@
         <v>3300</v>
       </c>
       <c r="D31" s="32">
-        <v>2577</v>
+        <v>2679</v>
       </c>
       <c r="E31" s="32">
-        <v>1970</v>
+        <v>2022</v>
       </c>
       <c r="F31" s="32">
-        <v>607</v>
+        <v>657</v>
       </c>
       <c r="G31" s="33">
         <v>34853</v>
@@ -2821,13 +2818,13 @@
         <v>1200</v>
       </c>
       <c r="D32" s="32">
-        <v>1868</v>
+        <v>1779</v>
       </c>
       <c r="E32" s="32">
-        <v>1395</v>
+        <v>1289</v>
       </c>
       <c r="F32" s="32">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="G32" s="33">
         <v>16817</v>
@@ -2856,13 +2853,13 @@
         <v>1000</v>
       </c>
       <c r="D33" s="32">
-        <v>1149</v>
+        <v>1325</v>
       </c>
       <c r="E33" s="32">
-        <v>888</v>
+        <v>984</v>
       </c>
       <c r="F33" s="32">
-        <v>261</v>
+        <v>341</v>
       </c>
       <c r="G33" s="33">
         <v>11263</v>
@@ -2891,13 +2888,13 @@
         <v>76750</v>
       </c>
       <c r="D34" s="32">
-        <v>60797</v>
+        <v>63316</v>
       </c>
       <c r="E34" s="32">
-        <v>44427</v>
+        <v>46140</v>
       </c>
       <c r="F34" s="32">
-        <v>16370</v>
+        <v>17176</v>
       </c>
       <c r="G34" s="33">
         <v>311689</v>
@@ -2926,13 +2923,13 @@
         <v>300</v>
       </c>
       <c r="D35" s="32">
-        <v>786</v>
+        <v>821</v>
       </c>
       <c r="E35" s="32">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="F35" s="32">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="G35" s="33">
         <v>10031</v>
@@ -2961,13 +2958,13 @@
         <v>200</v>
       </c>
       <c r="D36" s="32">
-        <v>983</v>
+        <v>1070</v>
       </c>
       <c r="E36" s="32">
-        <v>707</v>
+        <v>729</v>
       </c>
       <c r="F36" s="32">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="G36" s="33">
         <v>4718</v>
@@ -2996,13 +2993,13 @@
         <v>500</v>
       </c>
       <c r="D37" s="32">
-        <v>901</v>
+        <v>955</v>
       </c>
       <c r="E37" s="32">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="F37" s="32">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="G37" s="33">
         <v>24182</v>
@@ -3031,13 +3028,13 @@
         <v>800</v>
       </c>
       <c r="D38" s="32">
-        <v>1058</v>
+        <v>1104</v>
       </c>
       <c r="E38" s="32">
-        <v>879</v>
+        <v>900</v>
       </c>
       <c r="F38" s="32">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="G38" s="33">
         <v>5607</v>
@@ -3066,13 +3063,13 @@
         <v>9200</v>
       </c>
       <c r="D39" s="32">
-        <v>3314</v>
+        <v>3577</v>
       </c>
       <c r="E39" s="32">
-        <v>2436</v>
+        <v>2560</v>
       </c>
       <c r="F39" s="32">
-        <v>878</v>
+        <v>1017</v>
       </c>
       <c r="G39" s="33">
         <v>33062</v>
@@ -3101,13 +3098,13 @@
         <v>6100</v>
       </c>
       <c r="D40" s="32">
-        <v>3680</v>
+        <v>3962</v>
       </c>
       <c r="E40" s="32">
-        <v>2885</v>
+        <v>3045</v>
       </c>
       <c r="F40" s="32">
-        <v>795</v>
+        <v>917</v>
       </c>
       <c r="G40" s="33">
         <v>40876</v>
@@ -3136,13 +3133,13 @@
         <v>1500</v>
       </c>
       <c r="D41" s="32">
-        <v>1028</v>
+        <v>1153</v>
       </c>
       <c r="E41" s="32">
-        <v>613</v>
+        <v>683</v>
       </c>
       <c r="F41" s="32">
-        <v>415</v>
+        <v>470</v>
       </c>
       <c r="G41" s="33">
         <v>6094</v>
@@ -3171,13 +3168,13 @@
         <v>4300</v>
       </c>
       <c r="D42" s="32">
-        <v>2549</v>
+        <v>2604</v>
       </c>
       <c r="E42" s="32">
-        <v>2104</v>
+        <v>2138</v>
       </c>
       <c r="F42" s="32">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="G42" s="33">
         <v>8666</v>
@@ -3206,13 +3203,13 @@
         <v>400</v>
       </c>
       <c r="D43" s="32">
-        <v>651</v>
+        <v>618</v>
       </c>
       <c r="E43" s="32">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F43" s="32">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="G43" s="33">
         <v>2188</v>
@@ -3241,13 +3238,13 @@
         <v>0</v>
       </c>
       <c r="D44" s="32">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="E44" s="32">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="F44" s="32">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G44" s="33">
         <v>2756</v>
@@ -3276,13 +3273,13 @@
         <v>800</v>
       </c>
       <c r="D45" s="32">
-        <v>718</v>
+        <v>735</v>
       </c>
       <c r="E45" s="32">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="F45" s="32">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G45" s="33">
         <v>6721</v>
@@ -3311,13 +3308,13 @@
         <v>120750</v>
       </c>
       <c r="D46" s="32">
-        <v>110106</v>
+        <v>124793</v>
       </c>
       <c r="E46" s="32">
-        <v>86425</v>
+        <v>98057</v>
       </c>
       <c r="F46" s="32">
-        <v>23681</v>
+        <v>26736</v>
       </c>
       <c r="G46" s="33">
         <v>801716</v>
@@ -3346,13 +3343,13 @@
         <v>500</v>
       </c>
       <c r="D47" s="32">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E47" s="32">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F47" s="32">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G47" s="33">
         <v>2263</v>
@@ -3381,13 +3378,13 @@
         <v>2400</v>
       </c>
       <c r="D48" s="32">
-        <v>2372</v>
+        <v>2560</v>
       </c>
       <c r="E48" s="32">
-        <v>1975</v>
+        <v>2082</v>
       </c>
       <c r="F48" s="32">
-        <v>397</v>
+        <v>478</v>
       </c>
       <c r="G48" s="33">
         <v>17107</v>
@@ -3416,13 +3413,13 @@
         <v>17500</v>
       </c>
       <c r="D49" s="32">
-        <v>16466</v>
+        <v>17499</v>
       </c>
       <c r="E49" s="32">
-        <v>12780</v>
+        <v>13466</v>
       </c>
       <c r="F49" s="32">
-        <v>3686</v>
+        <v>4033</v>
       </c>
       <c r="G49" s="33">
         <v>125307</v>
@@ -3451,13 +3448,13 @@
         <v>2850</v>
       </c>
       <c r="D50" s="32">
-        <v>1908</v>
+        <v>1953</v>
       </c>
       <c r="E50" s="32">
-        <v>1452</v>
+        <v>1463</v>
       </c>
       <c r="F50" s="32">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="G50" s="33">
         <v>10944</v>
@@ -3486,13 +3483,13 @@
         <v>300</v>
       </c>
       <c r="D51" s="32">
-        <v>315</v>
+        <v>373</v>
       </c>
       <c r="E51" s="32">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="F51" s="32">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G51" s="33">
         <v>2288</v>
@@ -3521,13 +3518,13 @@
         <v>4100</v>
       </c>
       <c r="D52" s="32">
-        <v>3165</v>
+        <v>3300</v>
       </c>
       <c r="E52" s="32">
-        <v>2236</v>
+        <v>2277</v>
       </c>
       <c r="F52" s="32">
-        <v>929</v>
+        <v>1023</v>
       </c>
       <c r="G52" s="33">
         <v>32675</v>
@@ -3556,13 +3553,13 @@
         <v>7075</v>
       </c>
       <c r="D53" s="32">
-        <v>4845</v>
+        <v>5091</v>
       </c>
       <c r="E53" s="32">
-        <v>3922</v>
+        <v>4059</v>
       </c>
       <c r="F53" s="32">
-        <v>923</v>
+        <v>1032</v>
       </c>
       <c r="G53" s="33">
         <v>60428</v>
@@ -3591,13 +3588,13 @@
         <v>0</v>
       </c>
       <c r="D54" s="32">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E54" s="32">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F54" s="32">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G54" s="33">
         <v>1123</v>
@@ -3626,13 +3623,13 @@
         <v>2150</v>
       </c>
       <c r="D55" s="32">
-        <v>609</v>
+        <v>680</v>
       </c>
       <c r="E55" s="32">
-        <v>491</v>
+        <v>557</v>
       </c>
       <c r="F55" s="32">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G55" s="33">
         <v>3554</v>
@@ -3661,10 +3658,10 @@
         <v>0</v>
       </c>
       <c r="D56" s="32">
-        <v>687</v>
+        <v>665</v>
       </c>
       <c r="E56" s="32">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="F56" s="32">
         <v>208</v>
@@ -3696,13 +3693,13 @@
         <v>2350</v>
       </c>
       <c r="D57" s="32">
-        <v>1301</v>
+        <v>1318</v>
       </c>
       <c r="E57" s="32">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="F57" s="32">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="G57" s="33">
         <v>4421</v>
@@ -3731,13 +3728,13 @@
         <v>400</v>
       </c>
       <c r="D58" s="32">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="E58" s="32">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F58" s="32">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G58" s="33">
         <v>1746</v>
@@ -3766,13 +3763,13 @@
         <v>4800</v>
       </c>
       <c r="D59" s="32">
-        <v>1389</v>
+        <v>1446</v>
       </c>
       <c r="E59" s="32">
-        <v>1264</v>
+        <v>1302</v>
       </c>
       <c r="F59" s="32">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="G59" s="33">
         <v>5217</v>
@@ -3801,13 +3798,13 @@
         <v>456375</v>
       </c>
       <c r="D60" s="32">
-        <v>259345</v>
+        <v>281262</v>
       </c>
       <c r="E60" s="32">
-        <v>199639</v>
+        <v>214320</v>
       </c>
       <c r="F60" s="32">
-        <v>59706</v>
+        <v>66942</v>
       </c>
       <c r="G60" s="33">
         <v>2028105</v>
@@ -3836,13 +3833,13 @@
         <v>700</v>
       </c>
       <c r="D61" s="32">
-        <v>831</v>
+        <v>885</v>
       </c>
       <c r="E61" s="32">
-        <v>701</v>
+        <v>724</v>
       </c>
       <c r="F61" s="32">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="G61" s="33">
         <v>9789</v>
@@ -3871,13 +3868,13 @@
         <v>1900</v>
       </c>
       <c r="D62" s="32">
-        <v>1873</v>
+        <v>2000</v>
       </c>
       <c r="E62" s="32">
-        <v>1287</v>
+        <v>1380</v>
       </c>
       <c r="F62" s="32">
-        <v>586</v>
+        <v>620</v>
       </c>
       <c r="G62" s="33">
         <v>13439</v>
@@ -3906,13 +3903,13 @@
         <v>200</v>
       </c>
       <c r="D63" s="32">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="E63" s="32">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="F63" s="32">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G63" s="33">
         <v>4222</v>
@@ -3941,13 +3938,13 @@
         <v>104750</v>
       </c>
       <c r="D64" s="32">
-        <v>55279</v>
+        <v>61983</v>
       </c>
       <c r="E64" s="32">
-        <v>40397</v>
+        <v>44492</v>
       </c>
       <c r="F64" s="32">
-        <v>14882</v>
+        <v>17491</v>
       </c>
       <c r="G64" s="33">
         <v>697330</v>
@@ -3976,13 +3973,13 @@
         <v>800</v>
       </c>
       <c r="D65" s="32">
-        <v>1275</v>
+        <v>1410</v>
       </c>
       <c r="E65" s="32">
-        <v>955</v>
+        <v>992</v>
       </c>
       <c r="F65" s="32">
-        <v>320</v>
+        <v>418</v>
       </c>
       <c r="G65" s="33">
         <v>16110</v>
@@ -4011,13 +4008,13 @@
         <v>0</v>
       </c>
       <c r="D66" s="32">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E66" s="32">
         <v>235</v>
       </c>
       <c r="F66" s="32">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G66" s="33">
         <v>1858</v>
@@ -4046,13 +4043,13 @@
         <v>5975</v>
       </c>
       <c r="D67" s="32">
-        <v>2377</v>
+        <v>2623</v>
       </c>
       <c r="E67" s="32">
-        <v>2187</v>
+        <v>2368</v>
       </c>
       <c r="F67" s="32">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="G67" s="33">
         <v>7539</v>
@@ -4081,13 +4078,13 @@
         <v>200</v>
       </c>
       <c r="D68" s="32">
-        <v>490</v>
+        <v>557</v>
       </c>
       <c r="E68" s="32">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="F68" s="32">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="G68" s="33">
         <v>2716</v>
@@ -4116,13 +4113,13 @@
         <v>700</v>
       </c>
       <c r="D69" s="32">
-        <v>1428</v>
+        <v>1486</v>
       </c>
       <c r="E69" s="32">
-        <v>1214</v>
+        <v>1246</v>
       </c>
       <c r="F69" s="32">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="G69" s="33">
         <v>8600</v>
@@ -4151,13 +4148,13 @@
         <v>1100</v>
       </c>
       <c r="D70" s="32">
-        <v>1700</v>
+        <v>1729</v>
       </c>
       <c r="E70" s="32">
-        <v>1175</v>
+        <v>1188</v>
       </c>
       <c r="F70" s="32">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="G70" s="33">
         <v>14970</v>
@@ -4186,13 +4183,13 @@
         <v>33300</v>
       </c>
       <c r="D71" s="32">
-        <v>18484</v>
+        <v>18858</v>
       </c>
       <c r="E71" s="32">
-        <v>14182</v>
+        <v>14417</v>
       </c>
       <c r="F71" s="32">
-        <v>4302</v>
+        <v>4441</v>
       </c>
       <c r="G71" s="33">
         <v>120896</v>
@@ -4221,13 +4218,13 @@
         <v>0</v>
       </c>
       <c r="D72" s="32">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E72" s="32">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F72" s="32">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G72" s="33">
         <v>1555</v>
@@ -4256,13 +4253,13 @@
         <v>161575</v>
       </c>
       <c r="D73" s="32">
-        <v>125858</v>
+        <v>136155</v>
       </c>
       <c r="E73" s="32">
-        <v>93019</v>
+        <v>99178</v>
       </c>
       <c r="F73" s="32">
-        <v>32839</v>
+        <v>36977</v>
       </c>
       <c r="G73" s="33">
         <v>640180</v>
@@ -4291,13 +4288,13 @@
         <v>14300</v>
       </c>
       <c r="D74" s="32">
-        <v>18399</v>
+        <v>20550</v>
       </c>
       <c r="E74" s="32">
-        <v>14168</v>
+        <v>15903</v>
       </c>
       <c r="F74" s="32">
-        <v>4231</v>
+        <v>4647</v>
       </c>
       <c r="G74" s="33">
         <v>141665</v>
@@ -4326,13 +4323,13 @@
         <v>2400</v>
       </c>
       <c r="D75" s="32">
-        <v>2950</v>
+        <v>3172</v>
       </c>
       <c r="E75" s="32">
-        <v>2308</v>
+        <v>2389</v>
       </c>
       <c r="F75" s="32">
-        <v>642</v>
+        <v>783</v>
       </c>
       <c r="G75" s="33">
         <v>34875</v>
@@ -4361,13 +4358,13 @@
         <v>5575</v>
       </c>
       <c r="D76" s="32">
-        <v>1782</v>
+        <v>1831</v>
       </c>
       <c r="E76" s="32">
-        <v>1582</v>
+        <v>1602</v>
       </c>
       <c r="F76" s="32">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="G76" s="33">
         <v>14049</v>
@@ -4396,13 +4393,13 @@
         <v>8375</v>
       </c>
       <c r="D77" s="32">
-        <v>4124</v>
+        <v>4319</v>
       </c>
       <c r="E77" s="32">
-        <v>2950</v>
+        <v>3102</v>
       </c>
       <c r="F77" s="32">
-        <v>1174</v>
+        <v>1217</v>
       </c>
       <c r="G77" s="33">
         <v>28874</v>
@@ -4431,13 +4428,13 @@
         <v>1400</v>
       </c>
       <c r="D78" s="32">
-        <v>1876</v>
+        <v>2149</v>
       </c>
       <c r="E78" s="32">
-        <v>1557</v>
+        <v>1753</v>
       </c>
       <c r="F78" s="32">
-        <v>319</v>
+        <v>396</v>
       </c>
       <c r="G78" s="33">
         <v>20879</v>
@@ -4466,13 +4463,13 @@
         <v>600</v>
       </c>
       <c r="D79" s="32">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="E79" s="32">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="F79" s="32">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G79" s="33">
         <v>3088</v>
@@ -4501,13 +4498,13 @@
         <v>600</v>
       </c>
       <c r="D80" s="32">
-        <v>893</v>
+        <v>915</v>
       </c>
       <c r="E80" s="32">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="F80" s="32">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="G80" s="33">
         <v>4371</v>
@@ -4536,13 +4533,13 @@
         <v>400</v>
       </c>
       <c r="D81" s="32">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E81" s="32">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F81" s="32">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G81" s="33">
         <v>962</v>
@@ -4571,13 +4568,13 @@
         <v>97850</v>
       </c>
       <c r="D82" s="32">
-        <v>92564</v>
+        <v>105766</v>
       </c>
       <c r="E82" s="32">
-        <v>70416</v>
+        <v>79853</v>
       </c>
       <c r="F82" s="32">
-        <v>22148</v>
+        <v>25913</v>
       </c>
       <c r="G82" s="33">
         <v>616413</v>
@@ -4606,13 +4603,13 @@
         <v>900</v>
       </c>
       <c r="D83" s="32">
-        <v>738</v>
+        <v>780</v>
       </c>
       <c r="E83" s="32">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="F83" s="32">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c r="G83" s="33">
         <v>8554</v>
@@ -4641,13 +4638,13 @@
         <v>1200</v>
       </c>
       <c r="D84" s="32">
-        <v>981</v>
+        <v>1100</v>
       </c>
       <c r="E84" s="32">
-        <v>772</v>
+        <v>802</v>
       </c>
       <c r="F84" s="32">
-        <v>209</v>
+        <v>298</v>
       </c>
       <c r="G84" s="33">
         <v>15808</v>
@@ -4676,13 +4673,13 @@
         <v>3475</v>
       </c>
       <c r="D85" s="32">
-        <v>2340</v>
+        <v>2525</v>
       </c>
       <c r="E85" s="32">
-        <v>1793</v>
+        <v>1872</v>
       </c>
       <c r="F85" s="32">
-        <v>547</v>
+        <v>653</v>
       </c>
       <c r="G85" s="33">
         <v>16121</v>
@@ -4711,13 +4708,13 @@
         <v>1400</v>
       </c>
       <c r="D86" s="32">
-        <v>1371</v>
+        <v>1393</v>
       </c>
       <c r="E86" s="32">
-        <v>831</v>
+        <v>852</v>
       </c>
       <c r="F86" s="32">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G86" s="33">
         <v>14548</v>
@@ -4746,13 +4743,13 @@
         <v>56950</v>
       </c>
       <c r="D87" s="32">
-        <v>49720</v>
+        <v>53009</v>
       </c>
       <c r="E87" s="32">
-        <v>36115</v>
+        <v>37994</v>
       </c>
       <c r="F87" s="32">
-        <v>13605</v>
+        <v>15015</v>
       </c>
       <c r="G87" s="33">
         <v>269280</v>
@@ -4781,13 +4778,13 @@
         <v>400</v>
       </c>
       <c r="D88" s="32">
-        <v>357</v>
+        <v>391</v>
       </c>
       <c r="E88" s="32">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="F88" s="32">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="G88" s="33">
         <v>5325</v>
@@ -4816,13 +4813,13 @@
         <v>6700</v>
       </c>
       <c r="D89" s="32">
-        <v>4011</v>
+        <v>4381</v>
       </c>
       <c r="E89" s="32">
-        <v>3260</v>
+        <v>3586</v>
       </c>
       <c r="F89" s="32">
-        <v>751</v>
+        <v>795</v>
       </c>
       <c r="G89" s="33">
         <v>22307</v>
@@ -4851,13 +4848,13 @@
         <v>0</v>
       </c>
       <c r="D90" s="32">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E90" s="32">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F90" s="32">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G90" s="33">
         <v>1099</v>
@@ -4886,13 +4883,13 @@
         <v>200</v>
       </c>
       <c r="D91" s="32">
-        <v>881</v>
+        <v>949</v>
       </c>
       <c r="E91" s="32">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="F91" s="32">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="G91" s="33">
         <v>6281</v>
@@ -4921,13 +4918,13 @@
         <v>1700</v>
       </c>
       <c r="D92" s="32">
-        <v>2039</v>
+        <v>2191</v>
       </c>
       <c r="E92" s="32">
-        <v>1562</v>
+        <v>1592</v>
       </c>
       <c r="F92" s="32">
-        <v>477</v>
+        <v>599</v>
       </c>
       <c r="G92" s="33">
         <v>15937</v>
@@ -4956,13 +4953,13 @@
         <v>1400</v>
       </c>
       <c r="D93" s="32">
-        <v>2342</v>
+        <v>2511</v>
       </c>
       <c r="E93" s="32">
-        <v>1572</v>
+        <v>1695</v>
       </c>
       <c r="F93" s="32">
-        <v>770</v>
+        <v>816</v>
       </c>
       <c r="G93" s="33">
         <v>16924</v>
@@ -4991,13 +4988,13 @@
         <v>24100</v>
       </c>
       <c r="D94" s="32">
-        <v>13439</v>
+        <v>14404</v>
       </c>
       <c r="E94" s="32">
-        <v>9482</v>
+        <v>10049</v>
       </c>
       <c r="F94" s="32">
-        <v>3957</v>
+        <v>4355</v>
       </c>
       <c r="G94" s="33">
         <v>107521</v>
@@ -5026,13 +5023,13 @@
         <v>23800</v>
       </c>
       <c r="D95" s="32">
-        <v>10312</v>
+        <v>10798</v>
       </c>
       <c r="E95" s="32">
-        <v>7972</v>
+        <v>8133</v>
       </c>
       <c r="F95" s="32">
-        <v>2340</v>
+        <v>2665</v>
       </c>
       <c r="G95" s="33">
         <v>95544</v>
@@ -5061,13 +5058,13 @@
         <v>1400</v>
       </c>
       <c r="D96" s="32">
-        <v>1738</v>
+        <v>1945</v>
       </c>
       <c r="E96" s="32">
-        <v>1321</v>
+        <v>1487</v>
       </c>
       <c r="F96" s="32">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="G96" s="33">
         <v>23245</v>
@@ -5096,13 +5093,13 @@
         <v>16625</v>
       </c>
       <c r="D97" s="32">
-        <v>13887</v>
+        <v>14290</v>
       </c>
       <c r="E97" s="32">
-        <v>10711</v>
+        <v>10914</v>
       </c>
       <c r="F97" s="32">
-        <v>3176</v>
+        <v>3376</v>
       </c>
       <c r="G97" s="33">
         <v>130517</v>
@@ -5131,13 +5128,13 @@
         <v>3300</v>
       </c>
       <c r="D98" s="32">
-        <v>3310</v>
+        <v>3531</v>
       </c>
       <c r="E98" s="32">
-        <v>2329</v>
+        <v>2487</v>
       </c>
       <c r="F98" s="32">
-        <v>981</v>
+        <v>1044</v>
       </c>
       <c r="G98" s="33">
         <v>25476</v>
@@ -5166,13 +5163,13 @@
         <v>0</v>
       </c>
       <c r="D99" s="32">
-        <v>646</v>
+        <v>679</v>
       </c>
       <c r="E99" s="32">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="F99" s="32">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="G99" s="33">
         <v>2406</v>
@@ -5201,13 +5198,13 @@
         <v>1800</v>
       </c>
       <c r="D100" s="32">
-        <v>2246</v>
+        <v>2282</v>
       </c>
       <c r="E100" s="32">
-        <v>1697</v>
+        <v>1710</v>
       </c>
       <c r="F100" s="32">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="G100" s="33">
         <v>6832</v>
@@ -5236,13 +5233,13 @@
         <v>700</v>
       </c>
       <c r="D101" s="32">
-        <v>735</v>
+        <v>750</v>
       </c>
       <c r="E101" s="32">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="F101" s="32">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="G101" s="33">
         <v>3987</v>
@@ -5271,13 +5268,13 @@
         <v>1000</v>
       </c>
       <c r="D102" s="32">
-        <v>1052</v>
+        <v>1124</v>
       </c>
       <c r="E102" s="32">
-        <v>751</v>
+        <v>771</v>
       </c>
       <c r="F102" s="32">
-        <v>301</v>
+        <v>353</v>
       </c>
       <c r="G102" s="33">
         <v>3190</v>
@@ -5306,13 +5303,13 @@
         <v>5400</v>
       </c>
       <c r="D103" s="32">
-        <v>4733</v>
+        <v>5547</v>
       </c>
       <c r="E103" s="32">
-        <v>3790</v>
+        <v>4251</v>
       </c>
       <c r="F103" s="32">
-        <v>943</v>
+        <v>1296</v>
       </c>
       <c r="G103" s="33">
         <v>45112</v>
@@ -5341,13 +5338,13 @@
         <v>759025</v>
       </c>
       <c r="D104" s="32">
-        <v>478023</v>
+        <v>523308</v>
       </c>
       <c r="E104" s="32">
-        <v>351391</v>
+        <v>377952</v>
       </c>
       <c r="F104" s="32">
-        <v>126632</v>
+        <v>145356</v>
       </c>
       <c r="G104" s="33">
         <v>3601939</v>
@@ -5376,13 +5373,13 @@
         <v>4200</v>
       </c>
       <c r="D105" s="32">
-        <v>3517</v>
+        <v>3708</v>
       </c>
       <c r="E105" s="32">
-        <v>2736</v>
+        <v>2801</v>
       </c>
       <c r="F105" s="32">
-        <v>781</v>
+        <v>907</v>
       </c>
       <c r="G105" s="33">
         <v>51900</v>
@@ -5411,13 +5408,13 @@
         <v>1475</v>
       </c>
       <c r="D106" s="32">
-        <v>565</v>
+        <v>594</v>
       </c>
       <c r="E106" s="32">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="F106" s="32">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G106" s="33">
         <v>4561</v>
@@ -5446,13 +5443,13 @@
         <v>600</v>
       </c>
       <c r="D107" s="32">
-        <v>866</v>
+        <v>877</v>
       </c>
       <c r="E107" s="32">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F107" s="32">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G107" s="33">
         <v>4831</v>
@@ -5481,13 +5478,13 @@
         <v>28550</v>
       </c>
       <c r="D108" s="32">
-        <v>21957</v>
+        <v>23994</v>
       </c>
       <c r="E108" s="32">
-        <v>17005</v>
+        <v>18602</v>
       </c>
       <c r="F108" s="32">
-        <v>4952</v>
+        <v>5392</v>
       </c>
       <c r="G108" s="33">
         <v>183380</v>
@@ -5516,13 +5513,13 @@
         <v>1300</v>
       </c>
       <c r="D109" s="32">
-        <v>929</v>
+        <v>971</v>
       </c>
       <c r="E109" s="32">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="F109" s="32">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="G109" s="33">
         <v>2827</v>
@@ -5551,13 +5548,13 @@
         <v>5000</v>
       </c>
       <c r="D110" s="32">
-        <v>5084</v>
+        <v>5480</v>
       </c>
       <c r="E110" s="32">
-        <v>3979</v>
+        <v>4296</v>
       </c>
       <c r="F110" s="32">
-        <v>1105</v>
+        <v>1184</v>
       </c>
       <c r="G110" s="33">
         <v>67238</v>
@@ -5586,13 +5583,13 @@
         <v>160975</v>
       </c>
       <c r="D111" s="32">
-        <v>94134</v>
+        <v>100813</v>
       </c>
       <c r="E111" s="32">
-        <v>70400</v>
+        <v>75101</v>
       </c>
       <c r="F111" s="32">
-        <v>23734</v>
+        <v>25712</v>
       </c>
       <c r="G111" s="33">
         <v>620824</v>
@@ -5621,13 +5618,13 @@
         <v>1900</v>
       </c>
       <c r="D112" s="32">
-        <v>2988</v>
+        <v>3477</v>
       </c>
       <c r="E112" s="32">
-        <v>2443</v>
+        <v>2645</v>
       </c>
       <c r="F112" s="32">
-        <v>545</v>
+        <v>832</v>
       </c>
       <c r="G112" s="33">
         <v>29198</v>
@@ -5656,13 +5653,13 @@
         <v>1200</v>
       </c>
       <c r="D113" s="32">
-        <v>2601</v>
+        <v>2829</v>
       </c>
       <c r="E113" s="32">
-        <v>2082</v>
+        <v>2241</v>
       </c>
       <c r="F113" s="32">
-        <v>519</v>
+        <v>588</v>
       </c>
       <c r="G113" s="33">
         <v>17799</v>
@@ -5691,13 +5688,13 @@
         <v>4500</v>
       </c>
       <c r="D114" s="32">
-        <v>5122</v>
+        <v>5965</v>
       </c>
       <c r="E114" s="32">
-        <v>4147</v>
+        <v>4892</v>
       </c>
       <c r="F114" s="32">
-        <v>975</v>
+        <v>1073</v>
       </c>
       <c r="G114" s="33">
         <v>50193</v>
@@ -5726,13 +5723,13 @@
         <v>3100</v>
       </c>
       <c r="D115" s="32">
-        <v>2345</v>
+        <v>2008</v>
       </c>
       <c r="E115" s="32">
-        <v>1925</v>
+        <v>1553</v>
       </c>
       <c r="F115" s="32">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="G115" s="33">
         <v>29175</v>
@@ -5761,13 +5758,13 @@
         <v>2000</v>
       </c>
       <c r="D116" s="32">
-        <v>2037</v>
+        <v>2147</v>
       </c>
       <c r="E116" s="32">
-        <v>1433</v>
+        <v>1454</v>
       </c>
       <c r="F116" s="32">
-        <v>604</v>
+        <v>693</v>
       </c>
       <c r="G116" s="33">
         <v>18929</v>
@@ -5796,13 +5793,13 @@
         <v>3100</v>
       </c>
       <c r="D117" s="32">
-        <v>2244</v>
+        <v>2361</v>
       </c>
       <c r="E117" s="32">
-        <v>1531</v>
+        <v>1610</v>
       </c>
       <c r="F117" s="32">
-        <v>713</v>
+        <v>751</v>
       </c>
       <c r="G117" s="33">
         <v>29544</v>
@@ -5831,13 +5828,13 @@
         <v>300</v>
       </c>
       <c r="D118" s="32">
-        <v>365</v>
+        <v>426</v>
       </c>
       <c r="E118" s="32">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="F118" s="32">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="G118" s="33">
         <v>3979</v>
@@ -5866,13 +5863,13 @@
         <v>8150</v>
       </c>
       <c r="D119" s="32">
-        <v>8083</v>
+        <v>8504</v>
       </c>
       <c r="E119" s="32">
-        <v>5612</v>
+        <v>5946</v>
       </c>
       <c r="F119" s="32">
-        <v>2471</v>
+        <v>2558</v>
       </c>
       <c r="G119" s="33">
         <v>77878</v>
@@ -5901,13 +5898,13 @@
         <v>1000</v>
       </c>
       <c r="D120" s="32">
-        <v>1861</v>
+        <v>2076</v>
       </c>
       <c r="E120" s="32">
-        <v>1457</v>
+        <v>1532</v>
       </c>
       <c r="F120" s="32">
-        <v>404</v>
+        <v>544</v>
       </c>
       <c r="G120" s="33">
         <v>16258</v>
@@ -5936,13 +5933,13 @@
         <v>0</v>
       </c>
       <c r="D121" s="32">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E121" s="32">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F121" s="32">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G121" s="33">
         <v>1234</v>
@@ -5971,13 +5968,13 @@
         <v>1100</v>
       </c>
       <c r="D122" s="32">
-        <v>1067</v>
+        <v>1125</v>
       </c>
       <c r="E122" s="32">
-        <v>816</v>
+        <v>842</v>
       </c>
       <c r="F122" s="32">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="G122" s="33">
         <v>7230</v>
@@ -6006,13 +6003,13 @@
         <v>3750</v>
       </c>
       <c r="D123" s="32">
-        <v>2021</v>
+        <v>2307</v>
       </c>
       <c r="E123" s="32">
-        <v>1528</v>
+        <v>1764</v>
       </c>
       <c r="F123" s="32">
-        <v>493</v>
+        <v>543</v>
       </c>
       <c r="G123" s="33">
         <v>11425</v>
@@ -6041,13 +6038,13 @@
         <v>7200</v>
       </c>
       <c r="D124" s="32">
-        <v>3420</v>
+        <v>4005</v>
       </c>
       <c r="E124" s="32">
-        <v>3081</v>
+        <v>3571</v>
       </c>
       <c r="F124" s="32">
-        <v>339</v>
+        <v>434</v>
       </c>
       <c r="G124" s="33">
         <v>28056</v>
@@ -6076,10 +6073,10 @@
         <v>200</v>
       </c>
       <c r="D125" s="32">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E125" s="32">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F125" s="32">
         <v>42</v>
@@ -6111,13 +6108,13 @@
         <v>41200</v>
       </c>
       <c r="D126" s="32">
-        <v>14769</v>
+        <v>17721</v>
       </c>
       <c r="E126" s="32">
-        <v>11620</v>
+        <v>13894</v>
       </c>
       <c r="F126" s="32">
-        <v>3149</v>
+        <v>3827</v>
       </c>
       <c r="G126" s="33">
         <v>197382</v>
@@ -6146,13 +6143,13 @@
         <v>300</v>
       </c>
       <c r="D127" s="32">
-        <v>767</v>
+        <v>780</v>
       </c>
       <c r="E127" s="32">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="F127" s="32">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G127" s="33">
         <v>3791</v>
@@ -6181,13 +6178,13 @@
         <v>6675</v>
       </c>
       <c r="D128" s="32">
-        <v>5684</v>
+        <v>5982</v>
       </c>
       <c r="E128" s="32">
-        <v>4913</v>
+        <v>5080</v>
       </c>
       <c r="F128" s="32">
-        <v>771</v>
+        <v>902</v>
       </c>
       <c r="G128" s="33">
         <v>30579</v>
@@ -6216,13 +6213,13 @@
         <v>7400</v>
       </c>
       <c r="D129" s="32">
-        <v>12247</v>
+        <v>13416</v>
       </c>
       <c r="E129" s="32">
-        <v>9117</v>
+        <v>9773</v>
       </c>
       <c r="F129" s="32">
-        <v>3130</v>
+        <v>3643</v>
       </c>
       <c r="G129" s="33">
         <v>135345</v>
@@ -6251,13 +6248,13 @@
         <v>500</v>
       </c>
       <c r="D130" s="32">
-        <v>1307</v>
+        <v>1446</v>
       </c>
       <c r="E130" s="32">
-        <v>1057</v>
+        <v>1139</v>
       </c>
       <c r="F130" s="32">
-        <v>250</v>
+        <v>307</v>
       </c>
       <c r="G130" s="33">
         <v>17011</v>
@@ -6286,13 +6283,13 @@
         <v>2000</v>
       </c>
       <c r="D131" s="32">
-        <v>1396</v>
+        <v>1567</v>
       </c>
       <c r="E131" s="32">
-        <v>1179</v>
+        <v>1258</v>
       </c>
       <c r="F131" s="32">
-        <v>217</v>
+        <v>309</v>
       </c>
       <c r="G131" s="33">
         <v>12669</v>
@@ -6321,13 +6318,13 @@
         <v>5550</v>
       </c>
       <c r="D132" s="32">
-        <v>10729</v>
+        <v>11653</v>
       </c>
       <c r="E132" s="32">
-        <v>7685</v>
+        <v>8217</v>
       </c>
       <c r="F132" s="32">
-        <v>3044</v>
+        <v>3436</v>
       </c>
       <c r="G132" s="33">
         <v>102341</v>
@@ -6356,13 +6353,13 @@
         <v>2900</v>
       </c>
       <c r="D133" s="32">
-        <v>5237</v>
+        <v>5302</v>
       </c>
       <c r="E133" s="32">
-        <v>3874</v>
+        <v>3930</v>
       </c>
       <c r="F133" s="32">
-        <v>1363</v>
+        <v>1372</v>
       </c>
       <c r="G133" s="33">
         <v>37890</v>
@@ -6391,13 +6388,13 @@
         <v>0</v>
       </c>
       <c r="D134" s="32">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E134" s="32">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F134" s="32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G134" s="33">
         <v>321</v>
@@ -6426,13 +6423,13 @@
         <v>0</v>
       </c>
       <c r="D135" s="32">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E135" s="32">
         <v>82</v>
       </c>
       <c r="F135" s="32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G135" s="33">
         <v>615</v>
@@ -6461,13 +6458,13 @@
         <v>5300</v>
       </c>
       <c r="D136" s="32">
-        <v>4798</v>
+        <v>5209</v>
       </c>
       <c r="E136" s="32">
-        <v>3635</v>
+        <v>3948</v>
       </c>
       <c r="F136" s="32">
-        <v>1163</v>
+        <v>1261</v>
       </c>
       <c r="G136" s="33">
         <v>43793</v>
@@ -6496,10 +6493,10 @@
         <v>700</v>
       </c>
       <c r="D137" s="32">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="E137" s="32">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="F137" s="32">
         <v>71</v>
@@ -6531,13 +6528,13 @@
         <v>0</v>
       </c>
       <c r="D138" s="32">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E138" s="32">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F138" s="32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G138" s="33">
         <v>205</v>
@@ -6566,13 +6563,13 @@
         <v>200</v>
       </c>
       <c r="D139" s="32">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="E139" s="32">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F139" s="32">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G139" s="33">
         <v>3050</v>
@@ -6601,13 +6598,13 @@
         <v>10175</v>
       </c>
       <c r="D140" s="32">
-        <v>5966</v>
+        <v>6355</v>
       </c>
       <c r="E140" s="32">
-        <v>5464</v>
+        <v>5789</v>
       </c>
       <c r="F140" s="32">
-        <v>502</v>
+        <v>566</v>
       </c>
       <c r="G140" s="33">
         <v>24188</v>
@@ -6636,13 +6633,13 @@
         <v>700</v>
       </c>
       <c r="D141" s="32">
-        <v>811</v>
+        <v>819</v>
       </c>
       <c r="E141" s="32">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="F141" s="32">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G141" s="33">
         <v>2808</v>
@@ -6671,13 +6668,13 @@
         <v>4400</v>
       </c>
       <c r="D142" s="32">
-        <v>1744</v>
+        <v>1795</v>
       </c>
       <c r="E142" s="32">
-        <v>1670</v>
+        <v>1694</v>
       </c>
       <c r="F142" s="32">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="G142" s="33">
         <v>6212</v>
@@ -6706,13 +6703,13 @@
         <v>6500</v>
       </c>
       <c r="D143" s="32">
-        <v>5552</v>
+        <v>5627</v>
       </c>
       <c r="E143" s="32">
-        <v>4254</v>
+        <v>4280</v>
       </c>
       <c r="F143" s="32">
-        <v>1298</v>
+        <v>1347</v>
       </c>
       <c r="G143" s="33">
         <v>39402</v>
@@ -6741,13 +6738,13 @@
         <v>600</v>
       </c>
       <c r="D144" s="32">
-        <v>1668</v>
+        <v>1867</v>
       </c>
       <c r="E144" s="32">
-        <v>1370</v>
+        <v>1477</v>
       </c>
       <c r="F144" s="32">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="G144" s="33">
         <v>9740</v>
@@ -6776,13 +6773,13 @@
         <v>800</v>
       </c>
       <c r="D145" s="32">
-        <v>1296</v>
+        <v>1513</v>
       </c>
       <c r="E145" s="32">
-        <v>1073</v>
+        <v>1219</v>
       </c>
       <c r="F145" s="32">
-        <v>223</v>
+        <v>294</v>
       </c>
       <c r="G145" s="33">
         <v>17366</v>
@@ -6811,13 +6808,13 @@
         <v>2300</v>
       </c>
       <c r="D146" s="32">
-        <v>2236</v>
+        <v>2356</v>
       </c>
       <c r="E146" s="32">
-        <v>1544</v>
+        <v>1560</v>
       </c>
       <c r="F146" s="32">
-        <v>692</v>
+        <v>796</v>
       </c>
       <c r="G146" s="33">
         <v>16004</v>
@@ -6846,13 +6843,13 @@
         <v>800</v>
       </c>
       <c r="D147" s="32">
-        <v>1184</v>
+        <v>1295</v>
       </c>
       <c r="E147" s="32">
-        <v>911</v>
+        <v>973</v>
       </c>
       <c r="F147" s="32">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="G147" s="33">
         <v>13993</v>
@@ -6881,13 +6878,13 @@
         <v>900</v>
       </c>
       <c r="D148" s="32">
-        <v>889</v>
+        <v>981</v>
       </c>
       <c r="E148" s="32">
-        <v>645</v>
+        <v>690</v>
       </c>
       <c r="F148" s="32">
-        <v>244</v>
+        <v>291</v>
       </c>
       <c r="G148" s="33">
         <v>13946</v>
@@ -6916,13 +6913,13 @@
         <v>9175</v>
       </c>
       <c r="D149" s="32">
-        <v>4119</v>
+        <v>4558</v>
       </c>
       <c r="E149" s="32">
-        <v>3211</v>
+        <v>3410</v>
       </c>
       <c r="F149" s="32">
-        <v>908</v>
+        <v>1148</v>
       </c>
       <c r="G149" s="33">
         <v>66868</v>
@@ -6951,13 +6948,13 @@
         <v>1700</v>
       </c>
       <c r="D150" s="32">
-        <v>1330</v>
+        <v>1538</v>
       </c>
       <c r="E150" s="32">
-        <v>1110</v>
+        <v>1141</v>
       </c>
       <c r="F150" s="32">
-        <v>220</v>
+        <v>397</v>
       </c>
       <c r="G150" s="33">
         <v>18871</v>
@@ -6986,13 +6983,13 @@
         <v>200</v>
       </c>
       <c r="D151" s="32">
-        <v>441</v>
+        <v>485</v>
       </c>
       <c r="E151" s="32">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="F151" s="32">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G151" s="33">
         <v>2520</v>
@@ -7021,13 +7018,13 @@
         <v>400</v>
       </c>
       <c r="D152" s="32">
-        <v>1144</v>
+        <v>1228</v>
       </c>
       <c r="E152" s="32">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="F152" s="32">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="G152" s="33">
         <v>10055</v>
@@ -7056,13 +7053,13 @@
         <v>1200</v>
       </c>
       <c r="D153" s="32">
-        <v>2076</v>
+        <v>2486</v>
       </c>
       <c r="E153" s="32">
-        <v>1780</v>
+        <v>2073</v>
       </c>
       <c r="F153" s="32">
-        <v>296</v>
+        <v>413</v>
       </c>
       <c r="G153" s="33">
         <v>18908</v>
@@ -7091,13 +7088,13 @@
         <v>0</v>
       </c>
       <c r="D154" s="32">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E154" s="32">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F154" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G154" s="33">
         <v>129</v>
@@ -7126,13 +7123,13 @@
         <v>95200</v>
       </c>
       <c r="D155" s="32">
-        <v>59435</v>
+        <v>63916</v>
       </c>
       <c r="E155" s="32">
-        <v>44707</v>
+        <v>47035</v>
       </c>
       <c r="F155" s="32">
-        <v>14728</v>
+        <v>16881</v>
       </c>
       <c r="G155" s="33">
         <v>244992</v>
@@ -7161,13 +7158,13 @@
         <v>400</v>
       </c>
       <c r="D156" s="32">
-        <v>699</v>
+        <v>838</v>
       </c>
       <c r="E156" s="32">
-        <v>547</v>
+        <v>599</v>
       </c>
       <c r="F156" s="32">
-        <v>152</v>
+        <v>239</v>
       </c>
       <c r="G156" s="33">
         <v>4496</v>
@@ -7196,13 +7193,13 @@
         <v>900</v>
       </c>
       <c r="D157" s="32">
-        <v>629</v>
+        <v>703</v>
       </c>
       <c r="E157" s="32">
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="F157" s="32">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="G157" s="33">
         <v>11595</v>
@@ -7231,13 +7228,13 @@
         <v>0</v>
       </c>
       <c r="D158" s="32">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="E158" s="32">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="F158" s="32">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G158" s="33">
         <v>8277</v>
@@ -7266,10 +7263,10 @@
         <v>800</v>
       </c>
       <c r="D159" s="32">
-        <v>1140</v>
+        <v>1154</v>
       </c>
       <c r="E159" s="32">
-        <v>859</v>
+        <v>873</v>
       </c>
       <c r="F159" s="32">
         <v>281</v>
@@ -7301,13 +7298,13 @@
         <v>400</v>
       </c>
       <c r="D160" s="32">
-        <v>519</v>
+        <v>547</v>
       </c>
       <c r="E160" s="32">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="F160" s="32">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G160" s="33">
         <v>3521</v>
@@ -7336,13 +7333,13 @@
         <v>2900</v>
       </c>
       <c r="D161" s="32">
-        <v>1963</v>
+        <v>2420</v>
       </c>
       <c r="E161" s="32">
-        <v>1576</v>
+        <v>1688</v>
       </c>
       <c r="F161" s="32">
-        <v>387</v>
+        <v>732</v>
       </c>
       <c r="G161" s="33">
         <v>28247</v>
@@ -7371,13 +7368,13 @@
         <v>9100</v>
       </c>
       <c r="D162" s="32">
-        <v>4206</v>
+        <v>4760</v>
       </c>
       <c r="E162" s="32">
-        <v>3357</v>
+        <v>3826</v>
       </c>
       <c r="F162" s="32">
-        <v>849</v>
+        <v>934</v>
       </c>
       <c r="G162" s="33">
         <v>42606</v>
@@ -7406,13 +7403,13 @@
         <v>1200</v>
       </c>
       <c r="D163" s="32">
-        <v>611</v>
+        <v>682</v>
       </c>
       <c r="E163" s="32">
-        <v>520</v>
+        <v>577</v>
       </c>
       <c r="F163" s="32">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="G163" s="33">
         <v>6435</v>
@@ -7441,13 +7438,13 @@
         <v>34950</v>
       </c>
       <c r="D164" s="32">
-        <v>25297</v>
+        <v>26156</v>
       </c>
       <c r="E164" s="32">
-        <v>20645</v>
+        <v>21134</v>
       </c>
       <c r="F164" s="32">
-        <v>4652</v>
+        <v>5022</v>
       </c>
       <c r="G164" s="33">
         <v>200781</v>
@@ -7476,10 +7473,10 @@
         <v>100</v>
       </c>
       <c r="D165" s="32">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E165" s="32">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F165" s="32">
         <v>5</v>
@@ -7511,13 +7508,13 @@
         <v>2600</v>
       </c>
       <c r="D166" s="32">
-        <v>4337</v>
+        <v>4637</v>
       </c>
       <c r="E166" s="32">
-        <v>3294</v>
+        <v>3536</v>
       </c>
       <c r="F166" s="32">
-        <v>1043</v>
+        <v>1101</v>
       </c>
       <c r="G166" s="33">
         <v>41263</v>
@@ -7546,10 +7543,10 @@
         <v>200</v>
       </c>
       <c r="D167" s="32">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E167" s="32">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F167" s="32">
         <v>64</v>
@@ -7581,13 +7578,13 @@
         <v>32275</v>
       </c>
       <c r="D168" s="32">
-        <v>19267</v>
+        <v>21663</v>
       </c>
       <c r="E168" s="32">
-        <v>15884</v>
+        <v>18066</v>
       </c>
       <c r="F168" s="32">
-        <v>3383</v>
+        <v>3597</v>
       </c>
       <c r="G168" s="33">
         <v>131025</v>
@@ -7616,13 +7613,13 @@
         <v>2700</v>
       </c>
       <c r="D169" s="32">
-        <v>2287</v>
+        <v>2519</v>
       </c>
       <c r="E169" s="32">
-        <v>1636</v>
+        <v>1759</v>
       </c>
       <c r="F169" s="32">
-        <v>651</v>
+        <v>760</v>
       </c>
       <c r="G169" s="33">
         <v>19689</v>
@@ -7651,13 +7648,13 @@
         <v>300</v>
       </c>
       <c r="D170" s="32">
-        <v>651</v>
+        <v>693</v>
       </c>
       <c r="E170" s="32">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="F170" s="32">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="G170" s="33">
         <v>4006</v>
@@ -7686,13 +7683,13 @@
         <v>1000</v>
       </c>
       <c r="D171" s="32">
-        <v>788</v>
+        <v>888</v>
       </c>
       <c r="E171" s="32">
-        <v>546</v>
+        <v>635</v>
       </c>
       <c r="F171" s="32">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="G171" s="33">
         <v>6958</v>
@@ -7721,13 +7718,13 @@
         <v>2350</v>
       </c>
       <c r="D172" s="32">
-        <v>2408</v>
+        <v>2473</v>
       </c>
       <c r="E172" s="32">
-        <v>2125</v>
+        <v>2169</v>
       </c>
       <c r="F172" s="32">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="G172" s="33">
         <v>15872</v>
@@ -7756,13 +7753,13 @@
         <v>74300</v>
       </c>
       <c r="D173" s="32">
-        <v>38929</v>
+        <v>49605</v>
       </c>
       <c r="E173" s="32">
-        <v>27483</v>
+        <v>35563</v>
       </c>
       <c r="F173" s="32">
-        <v>11446</v>
+        <v>14042</v>
       </c>
       <c r="G173" s="33">
         <v>467232</v>
@@ -7791,13 +7788,13 @@
         <v>1500</v>
       </c>
       <c r="D174" s="32">
-        <v>2307</v>
+        <v>2554</v>
       </c>
       <c r="E174" s="32">
-        <v>1665</v>
+        <v>1713</v>
       </c>
       <c r="F174" s="32">
-        <v>642</v>
+        <v>841</v>
       </c>
       <c r="G174" s="33">
         <v>14986</v>
@@ -7826,13 +7823,13 @@
         <v>500</v>
       </c>
       <c r="D175" s="32">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="E175" s="32">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="F175" s="32">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="G175" s="33">
         <v>9830</v>
@@ -7861,10 +7858,10 @@
         <v>0</v>
       </c>
       <c r="D176" s="32">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E176" s="32">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F176" s="32">
         <v>40</v>
@@ -7896,13 +7893,13 @@
         <v>8700</v>
       </c>
       <c r="D177" s="32">
-        <v>8223</v>
+        <v>8480</v>
       </c>
       <c r="E177" s="32">
-        <v>5828</v>
+        <v>5945</v>
       </c>
       <c r="F177" s="32">
-        <v>2395</v>
+        <v>2535</v>
       </c>
       <c r="G177" s="33">
         <v>51773</v>
@@ -7931,13 +7928,13 @@
         <v>7100</v>
       </c>
       <c r="D178" s="32">
-        <v>5729</v>
+        <v>5843</v>
       </c>
       <c r="E178" s="32">
-        <v>4882</v>
+        <v>4935</v>
       </c>
       <c r="F178" s="32">
-        <v>847</v>
+        <v>908</v>
       </c>
       <c r="G178" s="33">
         <v>38360</v>
@@ -7966,13 +7963,13 @@
         <v>900</v>
       </c>
       <c r="D179" s="32">
-        <v>1058</v>
+        <v>1198</v>
       </c>
       <c r="E179" s="32">
-        <v>929</v>
+        <v>1039</v>
       </c>
       <c r="F179" s="32">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="G179" s="33">
         <v>11298</v>
@@ -8001,13 +7998,13 @@
         <v>2200</v>
       </c>
       <c r="D180" s="32">
-        <v>1995</v>
+        <v>2125</v>
       </c>
       <c r="E180" s="32">
-        <v>1586</v>
+        <v>1593</v>
       </c>
       <c r="F180" s="32">
-        <v>409</v>
+        <v>532</v>
       </c>
       <c r="G180" s="33">
         <v>11321</v>
@@ -8036,13 +8033,13 @@
         <v>74275</v>
       </c>
       <c r="D181" s="32">
-        <v>35753</v>
+        <v>36925</v>
       </c>
       <c r="E181" s="32">
-        <v>24614</v>
+        <v>25106</v>
       </c>
       <c r="F181" s="32">
-        <v>11139</v>
+        <v>11819</v>
       </c>
       <c r="G181" s="33">
         <v>284366</v>
@@ -8071,13 +8068,13 @@
         <v>1300</v>
       </c>
       <c r="D182" s="32">
-        <v>953</v>
+        <v>1022</v>
       </c>
       <c r="E182" s="32">
-        <v>722</v>
+        <v>783</v>
       </c>
       <c r="F182" s="32">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="G182" s="33">
         <v>7106</v>
@@ -8106,13 +8103,13 @@
         <v>300</v>
       </c>
       <c r="D183" s="32">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="E183" s="32">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F183" s="32">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G183" s="33">
         <v>1728</v>
@@ -8141,13 +8138,13 @@
         <v>1600</v>
       </c>
       <c r="D184" s="32">
-        <v>3128</v>
+        <v>3993</v>
       </c>
       <c r="E184" s="32">
-        <v>2595</v>
+        <v>3231</v>
       </c>
       <c r="F184" s="32">
-        <v>533</v>
+        <v>762</v>
       </c>
       <c r="G184" s="33">
         <v>65087</v>
@@ -8176,13 +8173,13 @@
         <v>1800</v>
       </c>
       <c r="D185" s="32">
-        <v>1665</v>
+        <v>1877</v>
       </c>
       <c r="E185" s="32">
-        <v>1385</v>
+        <v>1444</v>
       </c>
       <c r="F185" s="32">
-        <v>280</v>
+        <v>433</v>
       </c>
       <c r="G185" s="33">
         <v>23207</v>
@@ -8211,13 +8208,13 @@
         <v>1600</v>
       </c>
       <c r="D186" s="32">
-        <v>1264</v>
+        <v>1364</v>
       </c>
       <c r="E186" s="32">
-        <v>998</v>
+        <v>1011</v>
       </c>
       <c r="F186" s="32">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="G186" s="33">
         <v>18462</v>
@@ -8246,13 +8243,13 @@
         <v>15350</v>
       </c>
       <c r="D187" s="32">
-        <v>13393</v>
+        <v>14783</v>
       </c>
       <c r="E187" s="32">
-        <v>10191</v>
+        <v>11038</v>
       </c>
       <c r="F187" s="32">
-        <v>3202</v>
+        <v>3745</v>
       </c>
       <c r="G187" s="33">
         <v>111686</v>
@@ -8281,13 +8278,13 @@
         <v>800</v>
       </c>
       <c r="D188" s="32">
-        <v>1253</v>
+        <v>1565</v>
       </c>
       <c r="E188" s="32">
-        <v>946</v>
+        <v>1184</v>
       </c>
       <c r="F188" s="32">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="G188" s="33">
         <v>7222</v>
@@ -8316,13 +8313,13 @@
         <v>2000</v>
       </c>
       <c r="D189" s="32">
-        <v>2217</v>
+        <v>2237</v>
       </c>
       <c r="E189" s="32">
-        <v>1716</v>
+        <v>1734</v>
       </c>
       <c r="F189" s="32">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G189" s="33">
         <v>12317</v>
@@ -8351,13 +8348,13 @@
         <v>4300</v>
       </c>
       <c r="D190" s="32">
-        <v>3650</v>
+        <v>4073</v>
       </c>
       <c r="E190" s="32">
-        <v>3033</v>
+        <v>3255</v>
       </c>
       <c r="F190" s="32">
-        <v>617</v>
+        <v>818</v>
       </c>
       <c r="G190" s="33">
         <v>42276</v>
@@ -8386,13 +8383,13 @@
         <v>84125</v>
       </c>
       <c r="D191" s="32">
-        <v>22581</v>
+        <v>24508</v>
       </c>
       <c r="E191" s="32">
-        <v>15536</v>
+        <v>16244</v>
       </c>
       <c r="F191" s="32">
-        <v>7045</v>
+        <v>8264</v>
       </c>
       <c r="G191" s="33">
         <v>88673</v>
@@ -8421,13 +8418,13 @@
         <v>800</v>
       </c>
       <c r="D192" s="32">
-        <v>1107</v>
+        <v>1213</v>
       </c>
       <c r="E192" s="32">
-        <v>1009</v>
+        <v>1016</v>
       </c>
       <c r="F192" s="32">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="G192" s="33">
         <v>5069</v>
@@ -8456,13 +8453,13 @@
         <v>300</v>
       </c>
       <c r="D193" s="32">
-        <v>713</v>
+        <v>745</v>
       </c>
       <c r="E193" s="32">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="F193" s="32">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="G193" s="33">
         <v>10277</v>
@@ -8491,13 +8488,13 @@
         <v>6100</v>
       </c>
       <c r="D194" s="32">
-        <v>34123</v>
+        <v>36876</v>
       </c>
       <c r="E194" s="32">
-        <v>23147</v>
+        <v>24055</v>
       </c>
       <c r="F194" s="32">
-        <v>10976</v>
+        <v>12821</v>
       </c>
       <c r="G194" s="33">
         <v>108431</v>
@@ -8526,13 +8523,13 @@
         <v>300</v>
       </c>
       <c r="D195" s="32">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="E195" s="32">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="F195" s="32">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="G195" s="33">
         <v>2841</v>
@@ -8561,13 +8558,13 @@
         <v>200</v>
       </c>
       <c r="D196" s="32">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="E196" s="32">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F196" s="32">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G196" s="33">
         <v>2943</v>
@@ -8596,13 +8593,13 @@
         <v>800</v>
       </c>
       <c r="D197" s="32">
-        <v>1372</v>
+        <v>1377</v>
       </c>
       <c r="E197" s="32">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="F197" s="32">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="G197" s="33">
         <v>9965</v>
@@ -8631,13 +8628,13 @@
         <v>5775</v>
       </c>
       <c r="D198" s="32">
-        <v>3107</v>
+        <v>3145</v>
       </c>
       <c r="E198" s="32">
-        <v>2747</v>
+        <v>2779</v>
       </c>
       <c r="F198" s="32">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="G198" s="33">
         <v>12781</v>
@@ -8666,13 +8663,13 @@
         <v>700</v>
       </c>
       <c r="D199" s="32">
-        <v>1169</v>
+        <v>1184</v>
       </c>
       <c r="E199" s="32">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="F199" s="32">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="G199" s="33">
         <v>5583</v>
@@ -8701,13 +8698,13 @@
         <v>0</v>
       </c>
       <c r="D200" s="32">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E200" s="32">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F200" s="32">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G200" s="33">
         <v>672</v>
@@ -8736,13 +8733,13 @@
         <v>1000</v>
       </c>
       <c r="D201" s="32">
-        <v>1167</v>
+        <v>1297</v>
       </c>
       <c r="E201" s="32">
-        <v>924</v>
+        <v>1013</v>
       </c>
       <c r="F201" s="32">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="G201" s="33">
         <v>13474</v>
@@ -8771,13 +8768,13 @@
         <v>6775</v>
       </c>
       <c r="D202" s="32">
-        <v>10638</v>
+        <v>12037</v>
       </c>
       <c r="E202" s="32">
-        <v>8129</v>
+        <v>9024</v>
       </c>
       <c r="F202" s="32">
-        <v>2509</v>
+        <v>3013</v>
       </c>
       <c r="G202" s="33">
         <v>80325</v>
@@ -8806,13 +8803,13 @@
         <v>1500</v>
       </c>
       <c r="D203" s="32">
-        <v>1417</v>
+        <v>1541</v>
       </c>
       <c r="E203" s="32">
-        <v>983</v>
+        <v>1042</v>
       </c>
       <c r="F203" s="32">
-        <v>434</v>
+        <v>499</v>
       </c>
       <c r="G203" s="33">
         <v>8184</v>
@@ -8841,13 +8838,13 @@
         <v>2000</v>
       </c>
       <c r="D204" s="32">
-        <v>2423</v>
+        <v>2504</v>
       </c>
       <c r="E204" s="32">
-        <v>1949</v>
+        <v>1917</v>
       </c>
       <c r="F204" s="32">
-        <v>474</v>
+        <v>587</v>
       </c>
       <c r="G204" s="33">
         <v>43777</v>
@@ -8876,13 +8873,13 @@
         <v>1400</v>
       </c>
       <c r="D205" s="32">
-        <v>1267</v>
+        <v>1402</v>
       </c>
       <c r="E205" s="32">
-        <v>1068</v>
+        <v>1110</v>
       </c>
       <c r="F205" s="32">
-        <v>199</v>
+        <v>292</v>
       </c>
       <c r="G205" s="33">
         <v>8871</v>
@@ -8911,13 +8908,13 @@
         <v>1200</v>
       </c>
       <c r="D206" s="32">
-        <v>631</v>
+        <v>749</v>
       </c>
       <c r="E206" s="32">
-        <v>508</v>
+        <v>563</v>
       </c>
       <c r="F206" s="32">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="G206" s="33">
         <v>6811</v>
@@ -8946,13 +8943,13 @@
         <v>1600</v>
       </c>
       <c r="D207" s="32">
-        <v>1671</v>
+        <v>1895</v>
       </c>
       <c r="E207" s="32">
-        <v>1330</v>
+        <v>1461</v>
       </c>
       <c r="F207" s="32">
-        <v>341</v>
+        <v>434</v>
       </c>
       <c r="G207" s="33">
         <v>23444</v>
@@ -8981,13 +8978,13 @@
         <v>3200</v>
       </c>
       <c r="D208" s="32">
-        <v>5416</v>
+        <v>5762</v>
       </c>
       <c r="E208" s="32">
-        <v>4343</v>
+        <v>4496</v>
       </c>
       <c r="F208" s="32">
-        <v>1073</v>
+        <v>1266</v>
       </c>
       <c r="G208" s="33">
         <v>51116</v>
@@ -9016,13 +9013,13 @@
         <v>300</v>
       </c>
       <c r="D209" s="32">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="E209" s="32">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="F209" s="32">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="G209" s="33">
         <v>5000</v>
@@ -9051,13 +9048,13 @@
         <v>400</v>
       </c>
       <c r="D210" s="32">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="E210" s="32">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="F210" s="32">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G210" s="33">
         <v>2218</v>
@@ -9086,13 +9083,13 @@
         <v>3925</v>
       </c>
       <c r="D211" s="32">
-        <v>1426</v>
+        <v>1367</v>
       </c>
       <c r="E211" s="32">
-        <v>1180</v>
+        <v>1091</v>
       </c>
       <c r="F211" s="32">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="G211" s="33">
         <v>13000</v>
@@ -9121,13 +9118,13 @@
         <v>300</v>
       </c>
       <c r="D212" s="32">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="E212" s="32">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F212" s="32">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G212" s="33">
         <v>2612</v>
@@ -9156,13 +9153,13 @@
         <v>1700</v>
       </c>
       <c r="D213" s="32">
-        <v>1271</v>
+        <v>1340</v>
       </c>
       <c r="E213" s="32">
-        <v>902</v>
+        <v>936</v>
       </c>
       <c r="F213" s="32">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="G213" s="33">
         <v>19449</v>
@@ -9191,13 +9188,13 @@
         <v>500</v>
       </c>
       <c r="D214" s="32">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="E214" s="32">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="F214" s="32">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G214" s="33">
         <v>2294</v>
@@ -9226,13 +9223,13 @@
         <v>63600</v>
       </c>
       <c r="D215" s="32">
-        <v>27783</v>
+        <v>28094</v>
       </c>
       <c r="E215" s="32">
-        <v>20735</v>
+        <v>21285</v>
       </c>
       <c r="F215" s="32">
-        <v>7048</v>
+        <v>6809</v>
       </c>
       <c r="G215" s="33">
         <v>182283</v>
@@ -9261,13 +9258,13 @@
         <v>600</v>
       </c>
       <c r="D216" s="32">
-        <v>1068</v>
+        <v>1102</v>
       </c>
       <c r="E216" s="32">
-        <v>856</v>
+        <v>870</v>
       </c>
       <c r="F216" s="32">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="G216" s="33">
         <v>7386</v>
@@ -9296,13 +9293,13 @@
         <v>6400</v>
       </c>
       <c r="D217" s="32">
-        <v>5925</v>
+        <v>6235</v>
       </c>
       <c r="E217" s="32">
-        <v>4321</v>
+        <v>4529</v>
       </c>
       <c r="F217" s="32">
-        <v>1604</v>
+        <v>1706</v>
       </c>
       <c r="G217" s="33">
         <v>45765</v>
@@ -9331,13 +9328,13 @@
         <v>900</v>
       </c>
       <c r="D218" s="32">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="E218" s="32">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F218" s="32">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="G218" s="33">
         <v>7542</v>
@@ -9366,10 +9363,10 @@
         <v>100</v>
       </c>
       <c r="D219" s="32">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E219" s="32">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F219" s="32">
         <v>17</v>
@@ -9401,13 +9398,13 @@
         <v>500</v>
       </c>
       <c r="D220" s="32">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E220" s="32">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F220" s="32">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G220" s="33">
         <v>1095</v>
@@ -9436,10 +9433,10 @@
         <v>400</v>
       </c>
       <c r="D221" s="32">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E221" s="32">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F221" s="32">
         <v>85</v>
@@ -9471,13 +9468,13 @@
         <v>500</v>
       </c>
       <c r="D222" s="32">
-        <v>1138</v>
+        <v>1177</v>
       </c>
       <c r="E222" s="32">
-        <v>890</v>
+        <v>903</v>
       </c>
       <c r="F222" s="32">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="G222" s="33">
         <v>5764</v>
@@ -9506,13 +9503,13 @@
         <v>395350</v>
       </c>
       <c r="D223" s="32">
-        <v>181307</v>
+        <v>196403</v>
       </c>
       <c r="E223" s="32">
-        <v>136865</v>
+        <v>144200</v>
       </c>
       <c r="F223" s="32">
-        <v>44442</v>
+        <v>52203</v>
       </c>
       <c r="G223" s="33">
         <v>1617160</v>
@@ -9541,13 +9538,13 @@
         <v>22375</v>
       </c>
       <c r="D224" s="32">
-        <v>19471</v>
+        <v>20668</v>
       </c>
       <c r="E224" s="32">
-        <v>14736</v>
+        <v>15420</v>
       </c>
       <c r="F224" s="32">
-        <v>4735</v>
+        <v>5248</v>
       </c>
       <c r="G224" s="33">
         <v>107257</v>
@@ -9576,13 +9573,13 @@
         <v>0</v>
       </c>
       <c r="D225" s="32">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E225" s="32">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F225" s="32">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G225" s="33">
         <v>639</v>
@@ -9611,13 +9608,13 @@
         <v>3450</v>
       </c>
       <c r="D226" s="32">
-        <v>2514</v>
+        <v>2556</v>
       </c>
       <c r="E226" s="32">
-        <v>1875</v>
+        <v>1903</v>
       </c>
       <c r="F226" s="32">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="G226" s="33">
         <v>9307</v>
@@ -9646,13 +9643,13 @@
         <v>500</v>
       </c>
       <c r="D227" s="32">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E227" s="32">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F227" s="32">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G227" s="33">
         <v>1247</v>
@@ -9681,13 +9678,13 @@
         <v>4300</v>
       </c>
       <c r="D228" s="32">
-        <v>1901</v>
+        <v>1943</v>
       </c>
       <c r="E228" s="32">
-        <v>1313</v>
+        <v>1334</v>
       </c>
       <c r="F228" s="32">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="G228" s="33">
         <v>24323</v>
@@ -9716,13 +9713,13 @@
         <v>24000</v>
       </c>
       <c r="D229" s="32">
-        <v>18976</v>
+        <v>19333</v>
       </c>
       <c r="E229" s="32">
-        <v>13148</v>
+        <v>13357</v>
       </c>
       <c r="F229" s="32">
-        <v>5828</v>
+        <v>5976</v>
       </c>
       <c r="G229" s="33">
         <v>93752</v>
@@ -9751,13 +9748,13 @@
         <v>217400</v>
       </c>
       <c r="D230" s="32">
-        <v>125212</v>
+        <v>131241</v>
       </c>
       <c r="E230" s="32">
-        <v>93287</v>
+        <v>96556</v>
       </c>
       <c r="F230" s="32">
-        <v>31925</v>
+        <v>34685</v>
       </c>
       <c r="G230" s="33">
         <v>1032386</v>
@@ -9786,13 +9783,13 @@
         <v>2750</v>
       </c>
       <c r="D231" s="32">
-        <v>1381</v>
+        <v>1725</v>
       </c>
       <c r="E231" s="32">
-        <v>1127</v>
+        <v>1402</v>
       </c>
       <c r="F231" s="32">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="G231" s="33">
         <v>12104</v>
@@ -9821,13 +9818,13 @@
         <v>2800</v>
       </c>
       <c r="D232" s="32">
-        <v>2436</v>
+        <v>2539</v>
       </c>
       <c r="E232" s="32">
-        <v>1784</v>
+        <v>1863</v>
       </c>
       <c r="F232" s="32">
-        <v>652</v>
+        <v>676</v>
       </c>
       <c r="G232" s="33">
         <v>17963</v>
@@ -9856,13 +9853,13 @@
         <v>1400</v>
       </c>
       <c r="D233" s="32">
-        <v>2153</v>
+        <v>2257</v>
       </c>
       <c r="E233" s="32">
-        <v>1675</v>
+        <v>1715</v>
       </c>
       <c r="F233" s="32">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="G233" s="33">
         <v>33011</v>
@@ -9891,13 +9888,13 @@
         <v>400</v>
       </c>
       <c r="D234" s="32">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="E234" s="32">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="F234" s="32">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G234" s="33">
         <v>2730</v>
@@ -9926,13 +9923,13 @@
         <v>7175</v>
       </c>
       <c r="D235" s="32">
-        <v>4255</v>
+        <v>4327</v>
       </c>
       <c r="E235" s="32">
-        <v>3522</v>
+        <v>3537</v>
       </c>
       <c r="F235" s="32">
-        <v>733</v>
+        <v>790</v>
       </c>
       <c r="G235" s="33">
         <v>20379</v>
@@ -9961,13 +9958,13 @@
         <v>5150</v>
       </c>
       <c r="D236" s="32">
-        <v>5326</v>
+        <v>5354</v>
       </c>
       <c r="E236" s="32">
-        <v>4219</v>
+        <v>4221</v>
       </c>
       <c r="F236" s="32">
-        <v>1107</v>
+        <v>1133</v>
       </c>
       <c r="G236" s="33">
         <v>36546</v>
@@ -9996,13 +9993,13 @@
         <v>2900</v>
       </c>
       <c r="D237" s="32">
-        <v>4199</v>
+        <v>4403</v>
       </c>
       <c r="E237" s="32">
-        <v>3083</v>
+        <v>3256</v>
       </c>
       <c r="F237" s="32">
-        <v>1116</v>
+        <v>1147</v>
       </c>
       <c r="G237" s="33">
         <v>45216</v>
@@ -10031,13 +10028,13 @@
         <v>13475</v>
       </c>
       <c r="D238" s="32">
-        <v>11159</v>
+        <v>12039</v>
       </c>
       <c r="E238" s="32">
-        <v>8373</v>
+        <v>8562</v>
       </c>
       <c r="F238" s="32">
-        <v>2786</v>
+        <v>3477</v>
       </c>
       <c r="G238" s="33">
         <v>71388</v>
@@ -10066,13 +10063,13 @@
         <v>5600</v>
       </c>
       <c r="D239" s="32">
-        <v>4011</v>
+        <v>4584</v>
       </c>
       <c r="E239" s="32">
-        <v>3061</v>
+        <v>3446</v>
       </c>
       <c r="F239" s="32">
-        <v>950</v>
+        <v>1138</v>
       </c>
       <c r="G239" s="33">
         <v>63471</v>
@@ -10101,13 +10098,13 @@
         <v>3300</v>
       </c>
       <c r="D240" s="32">
-        <v>2786</v>
+        <v>3117</v>
       </c>
       <c r="E240" s="32">
-        <v>2241</v>
+        <v>2434</v>
       </c>
       <c r="F240" s="32">
-        <v>545</v>
+        <v>683</v>
       </c>
       <c r="G240" s="33">
         <v>43350</v>
@@ -10136,13 +10133,13 @@
         <v>600</v>
       </c>
       <c r="D241" s="32">
-        <v>1040</v>
+        <v>1071</v>
       </c>
       <c r="E241" s="32">
-        <v>822</v>
+        <v>847</v>
       </c>
       <c r="F241" s="32">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G241" s="33">
         <v>8921</v>
@@ -10171,13 +10168,13 @@
         <v>14000</v>
       </c>
       <c r="D242" s="32">
-        <v>3975</v>
+        <v>4456</v>
       </c>
       <c r="E242" s="32">
-        <v>3275</v>
+        <v>3627</v>
       </c>
       <c r="F242" s="32">
-        <v>700</v>
+        <v>829</v>
       </c>
       <c r="G242" s="33">
         <v>29086</v>
@@ -10206,13 +10203,13 @@
         <v>46900</v>
       </c>
       <c r="D243" s="32">
-        <v>32490</v>
+        <v>35235</v>
       </c>
       <c r="E243" s="32">
-        <v>24871</v>
+        <v>26917</v>
       </c>
       <c r="F243" s="32">
-        <v>7619</v>
+        <v>8318</v>
       </c>
       <c r="G243" s="33">
         <v>196916</v>
@@ -10241,13 +10238,13 @@
         <v>2800</v>
       </c>
       <c r="D244" s="32">
-        <v>2398</v>
+        <v>2810</v>
       </c>
       <c r="E244" s="32">
-        <v>1849</v>
+        <v>2071</v>
       </c>
       <c r="F244" s="32">
-        <v>549</v>
+        <v>739</v>
       </c>
       <c r="G244" s="33">
         <v>32110</v>
@@ -10276,13 +10273,13 @@
         <v>900</v>
       </c>
       <c r="D245" s="32">
-        <v>709</v>
+        <v>796</v>
       </c>
       <c r="E245" s="32">
-        <v>549</v>
+        <v>599</v>
       </c>
       <c r="F245" s="32">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="G245" s="33">
         <v>3915</v>
@@ -10311,13 +10308,13 @@
         <v>28000</v>
       </c>
       <c r="D246" s="32">
-        <v>21022</v>
+        <v>21987</v>
       </c>
       <c r="E246" s="32">
-        <v>14952</v>
+        <v>15454</v>
       </c>
       <c r="F246" s="32">
-        <v>6070</v>
+        <v>6533</v>
       </c>
       <c r="G246" s="33">
         <v>105631</v>
@@ -10346,13 +10343,13 @@
         <v>5700</v>
       </c>
       <c r="D247" s="32">
-        <v>3056</v>
+        <v>3281</v>
       </c>
       <c r="E247" s="32">
-        <v>2076</v>
+        <v>2250</v>
       </c>
       <c r="F247" s="32">
-        <v>980</v>
+        <v>1031</v>
       </c>
       <c r="G247" s="33">
         <v>10361</v>
@@ -10381,13 +10378,13 @@
         <v>800</v>
       </c>
       <c r="D248" s="32">
-        <v>2008</v>
+        <v>2118</v>
       </c>
       <c r="E248" s="32">
-        <v>1633</v>
+        <v>1683</v>
       </c>
       <c r="F248" s="32">
-        <v>375</v>
+        <v>435</v>
       </c>
       <c r="G248" s="33">
         <v>16897</v>
@@ -10416,13 +10413,13 @@
         <v>65550</v>
       </c>
       <c r="D249" s="32">
-        <v>52784</v>
+        <v>55803</v>
       </c>
       <c r="E249" s="32">
-        <v>39187</v>
+        <v>41034</v>
       </c>
       <c r="F249" s="32">
-        <v>13597</v>
+        <v>14769</v>
       </c>
       <c r="G249" s="33">
         <v>458433</v>
@@ -10451,13 +10448,13 @@
         <v>4100</v>
       </c>
       <c r="D250" s="32">
-        <v>5276</v>
+        <v>5553</v>
       </c>
       <c r="E250" s="32">
-        <v>3553</v>
+        <v>3646</v>
       </c>
       <c r="F250" s="32">
-        <v>1723</v>
+        <v>1907</v>
       </c>
       <c r="G250" s="33">
         <v>40488</v>
@@ -10486,13 +10483,13 @@
         <v>400</v>
       </c>
       <c r="D251" s="32">
-        <v>655</v>
+        <v>733</v>
       </c>
       <c r="E251" s="32">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="F251" s="32">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="G251" s="33">
         <v>5954</v>
@@ -10521,13 +10518,13 @@
         <v>6850</v>
       </c>
       <c r="D252" s="32">
-        <v>6523</v>
+        <v>6653</v>
       </c>
       <c r="E252" s="32">
-        <v>4056</v>
+        <v>4132</v>
       </c>
       <c r="F252" s="32">
-        <v>2467</v>
+        <v>2521</v>
       </c>
       <c r="G252" s="33">
         <v>54722</v>
@@ -10556,13 +10553,13 @@
         <v>2400</v>
       </c>
       <c r="D253" s="32">
-        <v>3291</v>
+        <v>3462</v>
       </c>
       <c r="E253" s="32">
-        <v>2626</v>
+        <v>2727</v>
       </c>
       <c r="F253" s="32">
-        <v>665</v>
+        <v>735</v>
       </c>
       <c r="G253" s="33">
         <v>38005</v>
@@ -10591,10 +10588,10 @@
         <v>800</v>
       </c>
       <c r="D254" s="32">
-        <v>944</v>
+        <v>954</v>
       </c>
       <c r="E254" s="32">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="F254" s="32">
         <v>340</v>
@@ -10626,13 +10623,13 @@
         <v>2700</v>
       </c>
       <c r="D255" s="32">
-        <v>1656</v>
+        <v>1825</v>
       </c>
       <c r="E255" s="32">
-        <v>1251</v>
+        <v>1306</v>
       </c>
       <c r="F255" s="32">
-        <v>405</v>
+        <v>519</v>
       </c>
       <c r="G255" s="33">
         <v>14219</v>
@@ -10661,13 +10658,13 @@
         <v>700</v>
       </c>
       <c r="D256" s="32">
-        <v>1138</v>
+        <v>1167</v>
       </c>
       <c r="E256" s="32">
-        <v>1009</v>
+        <v>1029</v>
       </c>
       <c r="F256" s="32">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G256" s="33">
         <v>9981</v>
@@ -10696,13 +10693,13 @@
         <v>200</v>
       </c>
       <c r="D257" s="32">
-        <v>1804</v>
+        <v>2313</v>
       </c>
       <c r="E257" s="32">
-        <v>1644</v>
+        <v>2104</v>
       </c>
       <c r="F257" s="32">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="G257" s="33">
         <v>8840</v>
@@ -10731,13 +10728,13 @@
         <v>9775</v>
       </c>
       <c r="D258" s="32">
-        <v>330580</v>
+        <v>332153</v>
       </c>
       <c r="E258" s="32">
-        <v>261135</v>
+        <v>266648</v>
       </c>
       <c r="F258" s="32">
-        <v>69445</v>
+        <v>65505</v>
       </c>
       <c r="G258" s="33"/>
       <c r="H258" s="33"/>
@@ -10811,13 +10808,13 @@
         <v>298</v>
       </c>
       <c r="D2" s="32">
-        <v>47585</v>
+        <v>50449</v>
       </c>
       <c r="E2" s="32">
-        <v>30272</v>
+        <v>32409</v>
       </c>
       <c r="F2" s="32">
-        <v>17313</v>
+        <v>18040</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -10831,13 +10828,13 @@
         <v>299</v>
       </c>
       <c r="D3" s="32">
-        <v>33859</v>
+        <v>35907</v>
       </c>
       <c r="E3" s="32">
-        <v>22446</v>
+        <v>23839</v>
       </c>
       <c r="F3" s="32">
-        <v>11413</v>
+        <v>12068</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -10851,13 +10848,13 @@
         <v>297</v>
       </c>
       <c r="D4" s="32">
-        <v>105098</v>
+        <v>114596</v>
       </c>
       <c r="E4" s="32">
-        <v>74020</v>
+        <v>81189</v>
       </c>
       <c r="F4" s="32">
-        <v>31078</v>
+        <v>33407</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -10871,13 +10868,13 @@
         <v>301</v>
       </c>
       <c r="D5" s="32">
-        <v>192354</v>
+        <v>202510</v>
       </c>
       <c r="E5" s="32">
-        <v>124055</v>
+        <v>131018</v>
       </c>
       <c r="F5" s="32">
-        <v>68299</v>
+        <v>71492</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -10891,13 +10888,13 @@
         <v>300</v>
       </c>
       <c r="D6" s="32">
-        <v>65137</v>
+        <v>69064</v>
       </c>
       <c r="E6" s="32">
-        <v>45466</v>
+        <v>48336</v>
       </c>
       <c r="F6" s="32">
-        <v>19671</v>
+        <v>20728</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -10911,13 +10908,13 @@
         <v>286</v>
       </c>
       <c r="D7" s="32">
-        <v>295700</v>
+        <v>303205</v>
       </c>
       <c r="E7" s="32">
-        <v>204322</v>
+        <v>206421</v>
       </c>
       <c r="F7" s="32">
-        <v>91378</v>
+        <v>96784</v>
       </c>
       <c r="O7" s="30"/>
     </row>
@@ -10932,13 +10929,13 @@
         <v>298</v>
       </c>
       <c r="D8" s="32">
-        <v>22565</v>
+        <v>24496</v>
       </c>
       <c r="E8" s="32">
-        <v>15719</v>
+        <v>17215</v>
       </c>
       <c r="F8" s="32">
-        <v>6846</v>
+        <v>7281</v>
       </c>
       <c r="O8" s="30"/>
     </row>
@@ -10953,13 +10950,13 @@
         <v>299</v>
       </c>
       <c r="D9" s="32">
-        <v>27676</v>
+        <v>29967</v>
       </c>
       <c r="E9" s="32">
-        <v>19629</v>
+        <v>21301</v>
       </c>
       <c r="F9" s="32">
-        <v>8047</v>
+        <v>8666</v>
       </c>
       <c r="O9" s="30"/>
     </row>
@@ -10974,13 +10971,13 @@
         <v>297</v>
       </c>
       <c r="D10" s="32">
-        <v>54371</v>
+        <v>61142</v>
       </c>
       <c r="E10" s="32">
-        <v>42302</v>
+        <v>47800</v>
       </c>
       <c r="F10" s="32">
-        <v>12069</v>
+        <v>13342</v>
       </c>
       <c r="O10" s="30"/>
     </row>
@@ -10995,13 +10992,13 @@
         <v>301</v>
       </c>
       <c r="D11" s="32">
-        <v>130049</v>
+        <v>140370</v>
       </c>
       <c r="E11" s="32">
-        <v>92588</v>
+        <v>100116</v>
       </c>
       <c r="F11" s="32">
-        <v>37461</v>
+        <v>40254</v>
       </c>
       <c r="O11" s="30"/>
     </row>
@@ -11016,13 +11013,13 @@
         <v>300</v>
       </c>
       <c r="D12" s="32">
-        <v>40522</v>
+        <v>43450</v>
       </c>
       <c r="E12" s="32">
-        <v>29591</v>
+        <v>31837</v>
       </c>
       <c r="F12" s="32">
-        <v>10931</v>
+        <v>11613</v>
       </c>
       <c r="O12" s="30"/>
     </row>
@@ -11037,13 +11034,13 @@
         <v>286</v>
       </c>
       <c r="D13" s="32">
-        <v>187969</v>
+        <v>193641</v>
       </c>
       <c r="E13" s="32">
-        <v>139569</v>
+        <v>141066</v>
       </c>
       <c r="F13" s="32">
-        <v>48400</v>
+        <v>52575</v>
       </c>
       <c r="O13" s="30"/>
     </row>
@@ -11058,13 +11055,13 @@
         <v>298</v>
       </c>
       <c r="D14" s="32">
-        <v>22056</v>
+        <v>25626</v>
       </c>
       <c r="E14" s="32">
-        <v>18024</v>
+        <v>20487</v>
       </c>
       <c r="F14" s="32">
-        <v>4032</v>
+        <v>5139</v>
       </c>
       <c r="O14" s="30"/>
     </row>
@@ -11079,13 +11076,13 @@
         <v>299</v>
       </c>
       <c r="D15" s="32">
-        <v>23177</v>
+        <v>27615</v>
       </c>
       <c r="E15" s="32">
-        <v>20140</v>
+        <v>23312</v>
       </c>
       <c r="F15" s="32">
-        <v>3037</v>
+        <v>4303</v>
       </c>
       <c r="O15" s="30"/>
     </row>
@@ -11100,13 +11097,13 @@
         <v>297</v>
       </c>
       <c r="D16" s="32">
-        <v>42581</v>
+        <v>51717</v>
       </c>
       <c r="E16" s="32">
-        <v>36579</v>
+        <v>43712</v>
       </c>
       <c r="F16" s="32">
-        <v>6002</v>
+        <v>8005</v>
       </c>
       <c r="O16" s="30"/>
     </row>
@@ -11121,13 +11118,13 @@
         <v>301</v>
       </c>
       <c r="D17" s="32">
-        <v>195832</v>
+        <v>224359</v>
       </c>
       <c r="E17" s="32">
-        <v>162834</v>
+        <v>183351</v>
       </c>
       <c r="F17" s="32">
-        <v>32998</v>
+        <v>41008</v>
       </c>
       <c r="O17" s="30"/>
     </row>
@@ -11142,13 +11139,13 @@
         <v>300</v>
       </c>
       <c r="D18" s="32">
-        <v>42667</v>
+        <v>46958</v>
       </c>
       <c r="E18" s="32">
-        <v>33442</v>
+        <v>36752</v>
       </c>
       <c r="F18" s="32">
-        <v>9225</v>
+        <v>10206</v>
       </c>
       <c r="O18" s="30"/>
     </row>
@@ -11163,13 +11160,13 @@
         <v>286</v>
       </c>
       <c r="D19" s="32">
-        <v>204706</v>
+        <v>212581</v>
       </c>
       <c r="E19" s="32">
-        <v>169063</v>
+        <v>170349</v>
       </c>
       <c r="F19" s="32">
-        <v>35643</v>
+        <v>42232</v>
       </c>
       <c r="O19" s="30"/>
     </row>
@@ -11184,13 +11181,13 @@
         <v>298</v>
       </c>
       <c r="D20" s="32">
-        <v>4769</v>
+        <v>5471</v>
       </c>
       <c r="E20" s="32">
-        <v>3917</v>
+        <v>4405</v>
       </c>
       <c r="F20" s="32">
-        <v>852</v>
+        <v>1066</v>
       </c>
       <c r="O20" s="30"/>
     </row>
@@ -11205,13 +11202,13 @@
         <v>299</v>
       </c>
       <c r="D21" s="32">
-        <v>4961</v>
+        <v>5832</v>
       </c>
       <c r="E21" s="32">
-        <v>4400</v>
+        <v>5042</v>
       </c>
       <c r="F21" s="32">
-        <v>561</v>
+        <v>790</v>
       </c>
       <c r="O21" s="30"/>
     </row>
@@ -11226,13 +11223,13 @@
         <v>297</v>
       </c>
       <c r="D22" s="32">
-        <v>9825</v>
+        <v>12207</v>
       </c>
       <c r="E22" s="32">
-        <v>8535</v>
+        <v>10449</v>
       </c>
       <c r="F22" s="32">
-        <v>1290</v>
+        <v>1758</v>
       </c>
       <c r="O22" s="30"/>
     </row>
@@ -11247,13 +11244,13 @@
         <v>301</v>
       </c>
       <c r="D23" s="32">
-        <v>58773</v>
+        <v>67012</v>
       </c>
       <c r="E23" s="32">
-        <v>48301</v>
+        <v>53889</v>
       </c>
       <c r="F23" s="32">
-        <v>10472</v>
+        <v>13123</v>
       </c>
       <c r="O23" s="30"/>
     </row>
@@ -11268,13 +11265,13 @@
         <v>300</v>
       </c>
       <c r="D24" s="32">
-        <v>43082</v>
+        <v>45767</v>
       </c>
       <c r="E24" s="32">
-        <v>30822</v>
+        <v>33039</v>
       </c>
       <c r="F24" s="32">
-        <v>12260</v>
+        <v>12728</v>
       </c>
       <c r="O24" s="30"/>
     </row>
@@ -11289,13 +11286,13 @@
         <v>286</v>
       </c>
       <c r="D25" s="32">
-        <v>73252</v>
+        <v>76324</v>
       </c>
       <c r="E25" s="32">
-        <v>59594</v>
+        <v>60245</v>
       </c>
       <c r="F25" s="32">
-        <v>13658</v>
+        <v>16079</v>
       </c>
       <c r="O25" s="30"/>
     </row>
@@ -11310,10 +11307,10 @@
         <v>298</v>
       </c>
       <c r="D26" s="32">
+        <v>23</v>
+      </c>
+      <c r="E26" s="32">
         <v>21</v>
-      </c>
-      <c r="E26" s="32">
-        <v>19</v>
       </c>
       <c r="F26" s="32">
         <v>2</v>
@@ -11331,13 +11328,13 @@
         <v>299</v>
       </c>
       <c r="D27" s="32">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E27" s="32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F27" s="32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O27" s="30"/>
     </row>
@@ -11352,13 +11349,13 @@
         <v>297</v>
       </c>
       <c r="D28" s="32">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="E28" s="32">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F28" s="32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -11373,10 +11370,10 @@
         <v>301</v>
       </c>
       <c r="D29" s="32">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="E29" s="32">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="F29" s="32">
         <v>16</v>
@@ -11394,10 +11391,10 @@
         <v>300</v>
       </c>
       <c r="D30" s="32">
+        <v>31</v>
+      </c>
+      <c r="E30" s="32">
         <v>27</v>
-      </c>
-      <c r="E30" s="32">
-        <v>23</v>
       </c>
       <c r="F30" s="32">
         <v>4</v>
@@ -11415,13 +11412,13 @@
         <v>286</v>
       </c>
       <c r="D31" s="32">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E31" s="32">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F31" s="32">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O31" s="30"/>
     </row>
@@ -11436,13 +11433,13 @@
         <v>298</v>
       </c>
       <c r="D32" s="32">
-        <v>31426</v>
+        <v>33652</v>
       </c>
       <c r="E32" s="32">
-        <v>20494</v>
+        <v>22211</v>
       </c>
       <c r="F32" s="32">
-        <v>10932</v>
+        <v>11441</v>
       </c>
       <c r="O32" s="30"/>
     </row>
@@ -11457,13 +11454,13 @@
         <v>299</v>
       </c>
       <c r="D33" s="32">
-        <v>14788</v>
+        <v>15927</v>
       </c>
       <c r="E33" s="32">
-        <v>10118</v>
+        <v>10940</v>
       </c>
       <c r="F33" s="32">
-        <v>4670</v>
+        <v>4987</v>
       </c>
       <c r="O33" s="30"/>
     </row>
@@ -11478,13 +11475,13 @@
         <v>297</v>
       </c>
       <c r="D34" s="32">
-        <v>57051</v>
+        <v>62756</v>
       </c>
       <c r="E34" s="32">
-        <v>41710</v>
+        <v>46313</v>
       </c>
       <c r="F34" s="32">
-        <v>15341</v>
+        <v>16443</v>
       </c>
       <c r="O34" s="30"/>
     </row>
@@ -11499,13 +11496,13 @@
         <v>301</v>
       </c>
       <c r="D35" s="32">
-        <v>100138</v>
+        <v>106843</v>
       </c>
       <c r="E35" s="32">
-        <v>67192</v>
+        <v>71995</v>
       </c>
       <c r="F35" s="32">
-        <v>32946</v>
+        <v>34848</v>
       </c>
       <c r="O35" s="30"/>
     </row>
@@ -11520,13 +11517,13 @@
         <v>300</v>
       </c>
       <c r="D36" s="32">
-        <v>31648</v>
+        <v>33632</v>
       </c>
       <c r="E36" s="32">
-        <v>22239</v>
+        <v>23703</v>
       </c>
       <c r="F36" s="32">
-        <v>9409</v>
+        <v>9929</v>
       </c>
       <c r="O36" s="30"/>
     </row>
@@ -11541,13 +11538,13 @@
         <v>286</v>
       </c>
       <c r="D37" s="32">
-        <v>179934</v>
+        <v>184733</v>
       </c>
       <c r="E37" s="32">
-        <v>126179</v>
+        <v>127627</v>
       </c>
       <c r="F37" s="32">
-        <v>53755</v>
+        <v>57106</v>
       </c>
       <c r="O37" s="30"/>
     </row>
@@ -11562,13 +11559,13 @@
         <v>298</v>
       </c>
       <c r="D38" s="32">
-        <v>16288</v>
+        <v>17902</v>
       </c>
       <c r="E38" s="32">
-        <v>11812</v>
+        <v>13088</v>
       </c>
       <c r="F38" s="32">
-        <v>4476</v>
+        <v>4814</v>
       </c>
       <c r="O38" s="30"/>
     </row>
@@ -11583,13 +11580,13 @@
         <v>299</v>
       </c>
       <c r="D39" s="32">
-        <v>15138</v>
+        <v>16629</v>
       </c>
       <c r="E39" s="32">
-        <v>11229</v>
+        <v>12371</v>
       </c>
       <c r="F39" s="32">
-        <v>3909</v>
+        <v>4258</v>
       </c>
       <c r="O39" s="30"/>
     </row>
@@ -11604,13 +11601,13 @@
         <v>297</v>
       </c>
       <c r="D40" s="32">
-        <v>35560</v>
+        <v>40210</v>
       </c>
       <c r="E40" s="32">
-        <v>28400</v>
+        <v>32282</v>
       </c>
       <c r="F40" s="32">
-        <v>7160</v>
+        <v>7928</v>
       </c>
       <c r="O40" s="30"/>
     </row>
@@ -11625,13 +11622,13 @@
         <v>301</v>
       </c>
       <c r="D41" s="32">
-        <v>84361</v>
+        <v>92012</v>
       </c>
       <c r="E41" s="32">
-        <v>62709</v>
+        <v>68342</v>
       </c>
       <c r="F41" s="32">
-        <v>21652</v>
+        <v>23670</v>
       </c>
       <c r="O41" s="30"/>
     </row>
@@ -11646,13 +11643,13 @@
         <v>300</v>
       </c>
       <c r="D42" s="32">
-        <v>22442</v>
+        <v>24152</v>
       </c>
       <c r="E42" s="32">
-        <v>16558</v>
+        <v>17839</v>
       </c>
       <c r="F42" s="32">
-        <v>5884</v>
+        <v>6313</v>
       </c>
       <c r="O42" s="30"/>
     </row>
@@ -11667,13 +11664,13 @@
         <v>286</v>
       </c>
       <c r="D43" s="32">
-        <v>126991</v>
+        <v>130859</v>
       </c>
       <c r="E43" s="32">
-        <v>95973</v>
+        <v>97035</v>
       </c>
       <c r="F43" s="32">
-        <v>31018</v>
+        <v>33824</v>
       </c>
       <c r="O43" s="30"/>
     </row>
@@ -11688,13 +11685,13 @@
         <v>298</v>
       </c>
       <c r="D44" s="32">
-        <v>19615</v>
+        <v>22753</v>
       </c>
       <c r="E44" s="32">
-        <v>15962</v>
+        <v>18109</v>
       </c>
       <c r="F44" s="32">
-        <v>3653</v>
+        <v>4644</v>
       </c>
       <c r="O44" s="30"/>
     </row>
@@ -11709,13 +11706,13 @@
         <v>299</v>
       </c>
       <c r="D45" s="32">
-        <v>14896</v>
+        <v>17716</v>
       </c>
       <c r="E45" s="32">
-        <v>12912</v>
+        <v>14949</v>
       </c>
       <c r="F45" s="32">
-        <v>1984</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -11729,13 +11726,13 @@
         <v>297</v>
       </c>
       <c r="D46" s="32">
-        <v>32409</v>
+        <v>39330</v>
       </c>
       <c r="E46" s="32">
-        <v>27669</v>
+        <v>33025</v>
       </c>
       <c r="F46" s="32">
-        <v>4740</v>
+        <v>6305</v>
       </c>
       <c r="O46" s="30"/>
     </row>
@@ -11750,13 +11747,13 @@
         <v>301</v>
       </c>
       <c r="D47" s="32">
-        <v>167750</v>
+        <v>192371</v>
       </c>
       <c r="E47" s="32">
-        <v>139427</v>
+        <v>157029</v>
       </c>
       <c r="F47" s="32">
-        <v>28323</v>
+        <v>35342</v>
       </c>
       <c r="O47" s="30"/>
     </row>
@@ -11771,13 +11768,13 @@
         <v>300</v>
       </c>
       <c r="D48" s="32">
-        <v>30719</v>
+        <v>33831</v>
       </c>
       <c r="E48" s="32">
-        <v>24371</v>
+        <v>26709</v>
       </c>
       <c r="F48" s="32">
-        <v>6348</v>
+        <v>7122</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -11791,13 +11788,13 @@
         <v>286</v>
       </c>
       <c r="D49" s="32">
-        <v>169400</v>
+        <v>175424</v>
       </c>
       <c r="E49" s="32">
-        <v>139458</v>
+        <v>140167</v>
       </c>
       <c r="F49" s="32">
-        <v>29942</v>
+        <v>35257</v>
       </c>
       <c r="O49" s="30"/>
     </row>
@@ -11812,13 +11809,13 @@
         <v>298</v>
       </c>
       <c r="D50" s="32">
-        <v>4102</v>
+        <v>4720</v>
       </c>
       <c r="E50" s="32">
-        <v>3349</v>
+        <v>3746</v>
       </c>
       <c r="F50" s="32">
-        <v>753</v>
+        <v>974</v>
       </c>
       <c r="O50" s="30"/>
     </row>
@@ -11833,13 +11830,13 @@
         <v>299</v>
       </c>
       <c r="D51" s="32">
-        <v>2588</v>
+        <v>2972</v>
       </c>
       <c r="E51" s="32">
-        <v>2234</v>
+        <v>2494</v>
       </c>
       <c r="F51" s="32">
-        <v>354</v>
+        <v>478</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -11853,13 +11850,13 @@
         <v>297</v>
       </c>
       <c r="D52" s="32">
-        <v>6264</v>
+        <v>7661</v>
       </c>
       <c r="E52" s="32">
-        <v>5393</v>
+        <v>6536</v>
       </c>
       <c r="F52" s="32">
-        <v>871</v>
+        <v>1125</v>
       </c>
       <c r="O52" s="30"/>
     </row>
@@ -11874,13 +11871,13 @@
         <v>301</v>
       </c>
       <c r="D53" s="32">
-        <v>47469</v>
+        <v>53370</v>
       </c>
       <c r="E53" s="32">
-        <v>38301</v>
+        <v>42205</v>
       </c>
       <c r="F53" s="32">
-        <v>9168</v>
+        <v>11165</v>
       </c>
       <c r="O53" s="30"/>
     </row>
@@ -11895,13 +11892,13 @@
         <v>300</v>
       </c>
       <c r="D54" s="32">
-        <v>17757</v>
+        <v>19018</v>
       </c>
       <c r="E54" s="32">
-        <v>13052</v>
+        <v>14059</v>
       </c>
       <c r="F54" s="32">
-        <v>4705</v>
+        <v>4959</v>
       </c>
       <c r="O54" s="30"/>
     </row>
@@ -11916,13 +11913,13 @@
         <v>286</v>
       </c>
       <c r="D55" s="32">
-        <v>48071</v>
+        <v>49684</v>
       </c>
       <c r="E55" s="32">
-        <v>39467</v>
+        <v>39575</v>
       </c>
       <c r="F55" s="32">
-        <v>8604</v>
+        <v>10109</v>
       </c>
       <c r="O55" s="30"/>
     </row>
@@ -11937,10 +11934,10 @@
         <v>298</v>
       </c>
       <c r="D56" s="32">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E56" s="32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F56" s="32">
         <v>4</v>
@@ -11958,10 +11955,10 @@
         <v>299</v>
       </c>
       <c r="D57" s="32">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E57" s="32">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F57" s="32">
         <v>0</v>
@@ -11978,10 +11975,10 @@
         <v>297</v>
       </c>
       <c r="D58" s="32">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E58" s="32">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F58" s="32">
         <v>3</v>
@@ -11999,13 +11996,13 @@
         <v>301</v>
       </c>
       <c r="D59" s="32">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="E59" s="32">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="F59" s="32">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O59" s="30"/>
     </row>
@@ -12020,13 +12017,13 @@
         <v>300</v>
       </c>
       <c r="D60" s="32">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E60" s="32">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F60" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O60" s="30"/>
     </row>
@@ -12041,13 +12038,13 @@
         <v>286</v>
       </c>
       <c r="D61" s="32">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E61" s="32">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F61" s="32">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O61" s="30"/>
     </row>
@@ -12062,13 +12059,13 @@
         <v>298</v>
       </c>
       <c r="D62" s="32">
-        <v>933</v>
+        <v>986</v>
       </c>
       <c r="E62" s="32">
-        <v>640</v>
+        <v>687</v>
       </c>
       <c r="F62" s="32">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="O62" s="30"/>
     </row>
@@ -12083,13 +12080,13 @@
         <v>299</v>
       </c>
       <c r="D63" s="32">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="E63" s="32">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="F63" s="32">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12103,13 +12100,13 @@
         <v>297</v>
       </c>
       <c r="D64" s="32">
-        <v>1379</v>
+        <v>1434</v>
       </c>
       <c r="E64" s="32">
-        <v>1019</v>
+        <v>1057</v>
       </c>
       <c r="F64" s="32">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="O64" s="30"/>
     </row>
@@ -12124,13 +12121,13 @@
         <v>301</v>
       </c>
       <c r="D65" s="32">
-        <v>2867</v>
+        <v>3038</v>
       </c>
       <c r="E65" s="32">
-        <v>2013</v>
+        <v>2160</v>
       </c>
       <c r="F65" s="32">
-        <v>854</v>
+        <v>878</v>
       </c>
       <c r="O65" s="30"/>
     </row>
@@ -12145,13 +12142,13 @@
         <v>300</v>
       </c>
       <c r="D66" s="32">
-        <v>2261</v>
+        <v>2257</v>
       </c>
       <c r="E66" s="32">
-        <v>1494</v>
+        <v>1469</v>
       </c>
       <c r="F66" s="32">
-        <v>767</v>
+        <v>788</v>
       </c>
     </row>
     <row r="67" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12165,13 +12162,13 @@
         <v>286</v>
       </c>
       <c r="D67" s="32">
-        <v>8337</v>
+        <v>8373</v>
       </c>
       <c r="E67" s="32">
-        <v>7611</v>
+        <v>7599</v>
       </c>
       <c r="F67" s="32">
-        <v>726</v>
+        <v>774</v>
       </c>
       <c r="O67" s="30"/>
     </row>
@@ -12186,13 +12183,13 @@
         <v>298</v>
       </c>
       <c r="D68" s="32">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="E68" s="32">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F68" s="32">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="O68" s="30"/>
     </row>
@@ -12207,13 +12204,13 @@
         <v>299</v>
       </c>
       <c r="D69" s="32">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="E69" s="32">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F69" s="32">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12227,13 +12224,13 @@
         <v>297</v>
       </c>
       <c r="D70" s="32">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="E70" s="32">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F70" s="32">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="O70" s="30"/>
     </row>
@@ -12248,13 +12245,13 @@
         <v>301</v>
       </c>
       <c r="D71" s="32">
-        <v>2438</v>
+        <v>2530</v>
       </c>
       <c r="E71" s="32">
-        <v>1834</v>
+        <v>1872</v>
       </c>
       <c r="F71" s="32">
-        <v>604</v>
+        <v>658</v>
       </c>
       <c r="O71" s="30"/>
     </row>
@@ -12269,13 +12266,13 @@
         <v>300</v>
       </c>
       <c r="D72" s="32">
-        <v>1316</v>
+        <v>1334</v>
       </c>
       <c r="E72" s="32">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="F72" s="32">
-        <v>384</v>
+        <v>405</v>
       </c>
     </row>
     <row r="73" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12289,13 +12286,13 @@
         <v>286</v>
       </c>
       <c r="D73" s="32">
-        <v>8276</v>
+        <v>8298</v>
       </c>
       <c r="E73" s="32">
-        <v>7552</v>
+        <v>7558</v>
       </c>
       <c r="F73" s="32">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="O73" s="30"/>
     </row>
@@ -12310,13 +12307,13 @@
         <v>298</v>
       </c>
       <c r="D74" s="32">
-        <v>1932</v>
+        <v>2075</v>
       </c>
       <c r="E74" s="32">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="F74" s="32">
-        <v>460</v>
+        <v>604</v>
       </c>
       <c r="O74" s="30"/>
     </row>
@@ -12331,13 +12328,13 @@
         <v>299</v>
       </c>
       <c r="D75" s="32">
-        <v>1091</v>
+        <v>1180</v>
       </c>
       <c r="E75" s="32">
-        <v>949</v>
+        <v>960</v>
       </c>
       <c r="F75" s="32">
-        <v>142</v>
+        <v>220</v>
       </c>
       <c r="O75" s="30"/>
     </row>
@@ -12352,13 +12349,13 @@
         <v>297</v>
       </c>
       <c r="D76" s="32">
-        <v>1230</v>
+        <v>1338</v>
       </c>
       <c r="E76" s="32">
-        <v>1069</v>
+        <v>1080</v>
       </c>
       <c r="F76" s="32">
-        <v>161</v>
+        <v>258</v>
       </c>
       <c r="O76" s="30"/>
     </row>
@@ -12373,13 +12370,13 @@
         <v>301</v>
       </c>
       <c r="D77" s="32">
-        <v>11362</v>
+        <v>12173</v>
       </c>
       <c r="E77" s="32">
-        <v>9195</v>
+        <v>9253</v>
       </c>
       <c r="F77" s="32">
-        <v>2167</v>
+        <v>2920</v>
       </c>
       <c r="O77" s="30"/>
     </row>
@@ -12394,13 +12391,13 @@
         <v>300</v>
       </c>
       <c r="D78" s="32">
-        <v>4602</v>
+        <v>4937</v>
       </c>
       <c r="E78" s="32">
-        <v>3669</v>
+        <v>3665</v>
       </c>
       <c r="F78" s="32">
-        <v>933</v>
+        <v>1272</v>
       </c>
       <c r="O78" s="30"/>
     </row>
@@ -12415,13 +12412,13 @@
         <v>286</v>
       </c>
       <c r="D79" s="32">
-        <v>14075</v>
+        <v>14098</v>
       </c>
       <c r="E79" s="32">
-        <v>12079</v>
+        <v>12081</v>
       </c>
       <c r="F79" s="32">
-        <v>1996</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12435,13 +12432,13 @@
         <v>298</v>
       </c>
       <c r="D80" s="32">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="E80" s="32">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F80" s="32">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12455,13 +12452,13 @@
         <v>299</v>
       </c>
       <c r="D81" s="32">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="E81" s="32">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F81" s="32">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12475,13 +12472,13 @@
         <v>297</v>
       </c>
       <c r="D82" s="32">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="E82" s="32">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F82" s="32">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12495,13 +12492,13 @@
         <v>301</v>
       </c>
       <c r="D83" s="32">
-        <v>2079</v>
+        <v>2226</v>
       </c>
       <c r="E83" s="32">
-        <v>1711</v>
+        <v>1728</v>
       </c>
       <c r="F83" s="32">
-        <v>368</v>
+        <v>498</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12515,13 +12512,13 @@
         <v>300</v>
       </c>
       <c r="D84" s="32">
-        <v>777</v>
+        <v>852</v>
       </c>
       <c r="E84" s="32">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="F84" s="32">
-        <v>126</v>
+        <v>198</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12538,10 +12535,10 @@
         <v>2279</v>
       </c>
       <c r="E85" s="32">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="F85" s="32">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12615,10 +12612,10 @@
         <v>301</v>
       </c>
       <c r="D89" s="32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" s="32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F89" s="32">
         <v>0</v>
@@ -12655,13 +12652,13 @@
         <v>286</v>
       </c>
       <c r="D91" s="32">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E91" s="32">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F91" s="32">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -12674,14 +12671,14 @@
       <c r="C92" t="s">
         <v>287</v>
       </c>
-      <c r="D92" s="40">
-        <v>3277891</v>
-      </c>
-      <c r="E92" s="40">
-        <v>2472063</v>
-      </c>
-      <c r="F92" s="40">
-        <v>805828</v>
+      <c r="D92" s="32">
+        <v>3523303</v>
+      </c>
+      <c r="E92" s="32">
+        <v>2630567</v>
+      </c>
+      <c r="F92" s="32">
+        <v>892736</v>
       </c>
     </row>
   </sheetData>
@@ -12692,7 +12689,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C280"/>
+  <dimension ref="A1:C290"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -12734,7 +12731,7 @@
         <v>44180</v>
       </c>
       <c r="C3" s="32">
-        <v>3885</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12745,7 +12742,7 @@
         <v>44181</v>
       </c>
       <c r="C4" s="32">
-        <v>12804</v>
+        <v>12803</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12756,7 +12753,7 @@
         <v>44182</v>
       </c>
       <c r="C5" s="32">
-        <v>15986</v>
+        <v>15989</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12767,7 +12764,7 @@
         <v>44183</v>
       </c>
       <c r="C6" s="32">
-        <v>24777</v>
+        <v>24796</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12789,7 +12786,7 @@
         <v>44185</v>
       </c>
       <c r="C8" s="32">
-        <v>6759</v>
+        <v>6760</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12800,7 +12797,7 @@
         <v>44186</v>
       </c>
       <c r="C9" s="32">
-        <v>18415</v>
+        <v>18463</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12811,7 +12808,7 @@
         <v>44187</v>
       </c>
       <c r="C10" s="32">
-        <v>17126</v>
+        <v>17199</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12822,7 +12819,7 @@
         <v>44188</v>
       </c>
       <c r="C11" s="32">
-        <v>24599</v>
+        <v>24659</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12833,7 +12830,7 @@
         <v>44189</v>
       </c>
       <c r="C12" s="32">
-        <v>10268</v>
+        <v>10269</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12877,7 +12874,7 @@
         <v>44193</v>
       </c>
       <c r="C16" s="32">
-        <v>25447</v>
+        <v>25460</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12888,7 +12885,7 @@
         <v>44194</v>
       </c>
       <c r="C17" s="32">
-        <v>32094</v>
+        <v>32056</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12899,7 +12896,7 @@
         <v>44195</v>
       </c>
       <c r="C18" s="32">
-        <v>37978</v>
+        <v>37926</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12910,7 +12907,7 @@
         <v>44196</v>
       </c>
       <c r="C19" s="32">
-        <v>21653</v>
+        <v>21662</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12921,7 +12918,7 @@
         <v>44197</v>
       </c>
       <c r="C20" s="32">
-        <v>2297</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12932,7 +12929,7 @@
         <v>44198</v>
       </c>
       <c r="C21" s="32">
-        <v>9924</v>
+        <v>9933</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12943,7 +12940,7 @@
         <v>44199</v>
       </c>
       <c r="C22" s="32">
-        <v>6202</v>
+        <v>6204</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12954,7 +12951,7 @@
         <v>44200</v>
       </c>
       <c r="C23" s="32">
-        <v>24003</v>
+        <v>23993</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12965,7 +12962,7 @@
         <v>44201</v>
       </c>
       <c r="C24" s="32">
-        <v>28030</v>
+        <v>27948</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12976,7 +12973,7 @@
         <v>44202</v>
       </c>
       <c r="C25" s="32">
-        <v>36194</v>
+        <v>36105</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12987,7 +12984,7 @@
         <v>44203</v>
       </c>
       <c r="C26" s="32">
-        <v>40930</v>
+        <v>40849</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12998,7 +12995,7 @@
         <v>44204</v>
       </c>
       <c r="C27" s="32">
-        <v>43944</v>
+        <v>43965</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13009,7 +13006,7 @@
         <v>44205</v>
       </c>
       <c r="C28" s="32">
-        <v>18579</v>
+        <v>18594</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13020,7 +13017,7 @@
         <v>44206</v>
       </c>
       <c r="C29" s="32">
-        <v>8450</v>
+        <v>8457</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13031,7 +13028,7 @@
         <v>44207</v>
       </c>
       <c r="C30" s="32">
-        <v>28466</v>
+        <v>28507</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13042,7 +13039,7 @@
         <v>44208</v>
       </c>
       <c r="C31" s="32">
-        <v>29275</v>
+        <v>29310</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13053,7 +13050,7 @@
         <v>44209</v>
       </c>
       <c r="C32" s="32">
-        <v>27667</v>
+        <v>27712</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13064,7 +13061,7 @@
         <v>44210</v>
       </c>
       <c r="C33" s="32">
-        <v>21683</v>
+        <v>21621</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13075,7 +13072,7 @@
         <v>44211</v>
       </c>
       <c r="C34" s="32">
-        <v>23752</v>
+        <v>23738</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13086,7 +13083,7 @@
         <v>44212</v>
       </c>
       <c r="C35" s="32">
-        <v>12647</v>
+        <v>12748</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13097,7 +13094,7 @@
         <v>44213</v>
       </c>
       <c r="C36" s="32">
-        <v>2676</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13108,7 +13105,7 @@
         <v>44214</v>
       </c>
       <c r="C37" s="32">
-        <v>12145</v>
+        <v>12116</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13119,7 +13116,7 @@
         <v>44215</v>
       </c>
       <c r="C38" s="32">
-        <v>22197</v>
+        <v>22276</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13130,7 +13127,7 @@
         <v>44216</v>
       </c>
       <c r="C39" s="32">
-        <v>29717</v>
+        <v>29862</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13141,7 +13138,7 @@
         <v>44217</v>
       </c>
       <c r="C40" s="32">
-        <v>27360</v>
+        <v>27468</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13152,7 +13149,7 @@
         <v>44218</v>
       </c>
       <c r="C41" s="32">
-        <v>32906</v>
+        <v>32992</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13163,7 +13160,7 @@
         <v>44219</v>
       </c>
       <c r="C42" s="32">
-        <v>18095</v>
+        <v>18200</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13174,7 +13171,7 @@
         <v>44220</v>
       </c>
       <c r="C43" s="32">
-        <v>7089</v>
+        <v>7761</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13185,7 +13182,7 @@
         <v>44221</v>
       </c>
       <c r="C44" s="32">
-        <v>34150</v>
+        <v>34263</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13196,7 +13193,7 @@
         <v>44222</v>
       </c>
       <c r="C45" s="32">
-        <v>40871</v>
+        <v>41071</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13207,7 +13204,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="32">
-        <v>39561</v>
+        <v>39827</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13218,7 +13215,7 @@
         <v>44224</v>
       </c>
       <c r="C47" s="32">
-        <v>38275</v>
+        <v>38480</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13229,7 +13226,7 @@
         <v>44225</v>
       </c>
       <c r="C48" s="32">
-        <v>35585</v>
+        <v>36068</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13240,7 +13237,7 @@
         <v>44226</v>
       </c>
       <c r="C49" s="32">
-        <v>16749</v>
+        <v>17206</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13251,7 +13248,7 @@
         <v>44227</v>
       </c>
       <c r="C50" s="32">
-        <v>7426</v>
+        <v>7559</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13262,7 +13259,7 @@
         <v>44228</v>
       </c>
       <c r="C51" s="32">
-        <v>30596</v>
+        <v>31037</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13273,7 +13270,7 @@
         <v>44229</v>
       </c>
       <c r="C52" s="32">
-        <v>28806</v>
+        <v>29710</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13284,7 +13281,7 @@
         <v>44230</v>
       </c>
       <c r="C53" s="32">
-        <v>39400</v>
+        <v>40252</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13295,7 +13292,7 @@
         <v>44231</v>
       </c>
       <c r="C54" s="32">
-        <v>30960</v>
+        <v>35934</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13306,7 +13303,7 @@
         <v>44232</v>
       </c>
       <c r="C55" s="32">
-        <v>26522</v>
+        <v>41282</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13317,7 +13314,7 @@
         <v>44233</v>
       </c>
       <c r="C56" s="32">
-        <v>8778</v>
+        <v>20447</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13328,29 +13325,29 @@
         <v>44234</v>
       </c>
       <c r="C57" s="32">
-        <v>1307</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B58" s="38">
-        <v>44179</v>
+        <v>44235</v>
       </c>
       <c r="C58" s="32">
-        <v>139</v>
+        <v>11123</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B59" s="38">
-        <v>44180</v>
+        <v>44236</v>
       </c>
       <c r="C59" s="32">
-        <v>1491</v>
+        <v>8050</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13358,10 +13355,10 @@
         <v>283</v>
       </c>
       <c r="B60" s="38">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="C60" s="32">
-        <v>4970</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13369,10 +13366,10 @@
         <v>283</v>
       </c>
       <c r="B61" s="38">
-        <v>44182</v>
+        <v>44180</v>
       </c>
       <c r="C61" s="32">
-        <v>6643</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13380,10 +13377,10 @@
         <v>283</v>
       </c>
       <c r="B62" s="38">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="C62" s="32">
-        <v>10817</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13391,10 +13388,10 @@
         <v>283</v>
       </c>
       <c r="B63" s="38">
-        <v>44184</v>
+        <v>44182</v>
       </c>
       <c r="C63" s="32">
-        <v>4706</v>
+        <v>6643</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13402,10 +13399,10 @@
         <v>283</v>
       </c>
       <c r="B64" s="38">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="C64" s="32">
-        <v>2533</v>
+        <v>10828</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13413,10 +13410,10 @@
         <v>283</v>
       </c>
       <c r="B65" s="38">
-        <v>44186</v>
+        <v>44184</v>
       </c>
       <c r="C65" s="32">
-        <v>7840</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13424,10 +13421,10 @@
         <v>283</v>
       </c>
       <c r="B66" s="38">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="C66" s="32">
-        <v>7345</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13435,10 +13432,10 @@
         <v>283</v>
       </c>
       <c r="B67" s="38">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="C67" s="32">
-        <v>10748</v>
+        <v>7899</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13446,10 +13443,10 @@
         <v>283</v>
       </c>
       <c r="B68" s="38">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="C68" s="32">
-        <v>4636</v>
+        <v>7394</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13457,10 +13454,10 @@
         <v>283</v>
       </c>
       <c r="B69" s="38">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="C69" s="32">
-        <v>665</v>
+        <v>10794</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13468,10 +13465,10 @@
         <v>283</v>
       </c>
       <c r="B70" s="38">
-        <v>44191</v>
+        <v>44189</v>
       </c>
       <c r="C70" s="32">
-        <v>3169</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13479,10 +13476,10 @@
         <v>283</v>
       </c>
       <c r="B71" s="38">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="C71" s="32">
-        <v>2236</v>
+        <v>665</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13490,10 +13487,10 @@
         <v>283</v>
       </c>
       <c r="B72" s="38">
-        <v>44193</v>
+        <v>44191</v>
       </c>
       <c r="C72" s="32">
-        <v>12848</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13501,10 +13498,10 @@
         <v>283</v>
       </c>
       <c r="B73" s="38">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="C73" s="32">
-        <v>16948</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13512,10 +13509,10 @@
         <v>283</v>
       </c>
       <c r="B74" s="38">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="C74" s="32">
-        <v>20829</v>
+        <v>12843</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13523,10 +13520,10 @@
         <v>283</v>
       </c>
       <c r="B75" s="38">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="C75" s="32">
-        <v>12610</v>
+        <v>16919</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13534,10 +13531,10 @@
         <v>283</v>
       </c>
       <c r="B76" s="38">
-        <v>44197</v>
+        <v>44195</v>
       </c>
       <c r="C76" s="32">
-        <v>1186</v>
+        <v>20792</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13545,10 +13542,10 @@
         <v>283</v>
       </c>
       <c r="B77" s="38">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="C77" s="32">
-        <v>5694</v>
+        <v>12617</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13556,10 +13553,10 @@
         <v>283</v>
       </c>
       <c r="B78" s="38">
-        <v>44199</v>
+        <v>44197</v>
       </c>
       <c r="C78" s="32">
-        <v>3292</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13567,10 +13564,10 @@
         <v>283</v>
       </c>
       <c r="B79" s="38">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="C79" s="32">
-        <v>14852</v>
+        <v>5704</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13578,10 +13575,10 @@
         <v>283</v>
       </c>
       <c r="B80" s="38">
-        <v>44201</v>
+        <v>44199</v>
       </c>
       <c r="C80" s="32">
-        <v>16646</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13589,10 +13586,10 @@
         <v>283</v>
       </c>
       <c r="B81" s="38">
-        <v>44202</v>
+        <v>44200</v>
       </c>
       <c r="C81" s="32">
-        <v>20210</v>
+        <v>14834</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13600,10 +13597,10 @@
         <v>283</v>
       </c>
       <c r="B82" s="38">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="C82" s="32">
-        <v>22950</v>
+        <v>16590</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13611,10 +13608,10 @@
         <v>283</v>
       </c>
       <c r="B83" s="38">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="C83" s="32">
-        <v>24570</v>
+        <v>20089</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13622,10 +13619,10 @@
         <v>283</v>
       </c>
       <c r="B84" s="38">
-        <v>44205</v>
+        <v>44203</v>
       </c>
       <c r="C84" s="32">
-        <v>10650</v>
+        <v>22876</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13633,10 +13630,10 @@
         <v>283</v>
       </c>
       <c r="B85" s="38">
-        <v>44206</v>
+        <v>44204</v>
       </c>
       <c r="C85" s="32">
-        <v>4442</v>
+        <v>24540</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13644,10 +13641,10 @@
         <v>283</v>
       </c>
       <c r="B86" s="38">
-        <v>44207</v>
+        <v>44205</v>
       </c>
       <c r="C86" s="32">
-        <v>18072</v>
+        <v>10669</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13655,10 +13652,10 @@
         <v>283</v>
       </c>
       <c r="B87" s="38">
-        <v>44208</v>
+        <v>44206</v>
       </c>
       <c r="C87" s="32">
-        <v>19877</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13666,10 +13663,10 @@
         <v>283</v>
       </c>
       <c r="B88" s="38">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="C88" s="32">
-        <v>19884</v>
+        <v>18130</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13677,10 +13674,10 @@
         <v>283</v>
       </c>
       <c r="B89" s="38">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="C89" s="32">
-        <v>17216</v>
+        <v>19898</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13688,10 +13685,10 @@
         <v>283</v>
       </c>
       <c r="B90" s="38">
-        <v>44211</v>
+        <v>44209</v>
       </c>
       <c r="C90" s="32">
-        <v>17520</v>
+        <v>19907</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13699,10 +13696,10 @@
         <v>283</v>
       </c>
       <c r="B91" s="38">
-        <v>44212</v>
+        <v>44210</v>
       </c>
       <c r="C91" s="32">
-        <v>10861</v>
+        <v>17165</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13710,10 +13707,10 @@
         <v>283</v>
       </c>
       <c r="B92" s="38">
-        <v>44213</v>
+        <v>44211</v>
       </c>
       <c r="C92" s="32">
-        <v>1703</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13721,10 +13718,10 @@
         <v>283</v>
       </c>
       <c r="B93" s="38">
-        <v>44214</v>
+        <v>44212</v>
       </c>
       <c r="C93" s="32">
-        <v>8658</v>
+        <v>10939</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13732,10 +13729,10 @@
         <v>283</v>
       </c>
       <c r="B94" s="38">
-        <v>44215</v>
+        <v>44213</v>
       </c>
       <c r="C94" s="32">
-        <v>17124</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13743,10 +13740,10 @@
         <v>283</v>
       </c>
       <c r="B95" s="38">
-        <v>44216</v>
+        <v>44214</v>
       </c>
       <c r="C95" s="32">
-        <v>22411</v>
+        <v>8631</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13754,10 +13751,10 @@
         <v>283</v>
       </c>
       <c r="B96" s="38">
-        <v>44217</v>
+        <v>44215</v>
       </c>
       <c r="C96" s="32">
-        <v>21675</v>
+        <v>17174</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13765,10 +13762,10 @@
         <v>283</v>
       </c>
       <c r="B97" s="38">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="C97" s="32">
-        <v>23131</v>
+        <v>22568</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13776,10 +13773,10 @@
         <v>283</v>
       </c>
       <c r="B98" s="38">
-        <v>44219</v>
+        <v>44217</v>
       </c>
       <c r="C98" s="32">
-        <v>12804</v>
+        <v>21826</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13787,10 +13784,10 @@
         <v>283</v>
       </c>
       <c r="B99" s="38">
-        <v>44220</v>
+        <v>44218</v>
       </c>
       <c r="C99" s="32">
-        <v>5100</v>
+        <v>23207</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13798,10 +13795,10 @@
         <v>283</v>
       </c>
       <c r="B100" s="38">
-        <v>44221</v>
+        <v>44219</v>
       </c>
       <c r="C100" s="32">
-        <v>22979</v>
+        <v>12871</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13809,10 +13806,10 @@
         <v>283</v>
       </c>
       <c r="B101" s="38">
-        <v>44222</v>
+        <v>44220</v>
       </c>
       <c r="C101" s="32">
-        <v>29768</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13820,10 +13817,10 @@
         <v>283</v>
       </c>
       <c r="B102" s="38">
-        <v>44223</v>
+        <v>44221</v>
       </c>
       <c r="C102" s="32">
-        <v>30704</v>
+        <v>23062</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13831,10 +13828,10 @@
         <v>283</v>
       </c>
       <c r="B103" s="38">
-        <v>44224</v>
+        <v>44222</v>
       </c>
       <c r="C103" s="32">
-        <v>30853</v>
+        <v>30067</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13842,10 +13839,10 @@
         <v>283</v>
       </c>
       <c r="B104" s="38">
-        <v>44225</v>
+        <v>44223</v>
       </c>
       <c r="C104" s="32">
-        <v>28057</v>
+        <v>30960</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13853,10 +13850,10 @@
         <v>283</v>
       </c>
       <c r="B105" s="38">
-        <v>44226</v>
+        <v>44224</v>
       </c>
       <c r="C105" s="32">
-        <v>13606</v>
+        <v>31019</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13864,10 +13861,10 @@
         <v>283</v>
       </c>
       <c r="B106" s="38">
-        <v>44227</v>
+        <v>44225</v>
       </c>
       <c r="C106" s="32">
-        <v>5758</v>
+        <v>28466</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13875,10 +13872,10 @@
         <v>283</v>
       </c>
       <c r="B107" s="38">
-        <v>44228</v>
+        <v>44226</v>
       </c>
       <c r="C107" s="32">
-        <v>23221</v>
+        <v>13913</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13886,10 +13883,10 @@
         <v>283</v>
       </c>
       <c r="B108" s="38">
-        <v>44229</v>
+        <v>44227</v>
       </c>
       <c r="C108" s="32">
-        <v>25521</v>
+        <v>5887</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13897,10 +13894,10 @@
         <v>283</v>
       </c>
       <c r="B109" s="38">
-        <v>44230</v>
+        <v>44228</v>
       </c>
       <c r="C109" s="32">
-        <v>32538</v>
+        <v>23499</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13908,10 +13905,10 @@
         <v>283</v>
       </c>
       <c r="B110" s="38">
-        <v>44231</v>
+        <v>44229</v>
       </c>
       <c r="C110" s="32">
-        <v>28469</v>
+        <v>26107</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13919,10 +13916,10 @@
         <v>283</v>
       </c>
       <c r="B111" s="38">
-        <v>44232</v>
+        <v>44230</v>
       </c>
       <c r="C111" s="32">
-        <v>24001</v>
+        <v>33222</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13930,10 +13927,10 @@
         <v>283</v>
       </c>
       <c r="B112" s="38">
-        <v>44233</v>
+        <v>44231</v>
       </c>
       <c r="C112" s="32">
-        <v>9509</v>
+        <v>31953</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13941,54 +13938,54 @@
         <v>283</v>
       </c>
       <c r="B113" s="38">
-        <v>44234</v>
+        <v>44232</v>
       </c>
       <c r="C113" s="32">
-        <v>1120</v>
+        <v>35372</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B114" s="38">
-        <v>44179</v>
+        <v>44233</v>
       </c>
       <c r="C114" s="32">
-        <v>24</v>
+        <v>19540</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B115" s="38">
-        <v>44180</v>
+        <v>44234</v>
       </c>
       <c r="C115" s="32">
-        <v>304</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B116" s="38">
-        <v>44181</v>
+        <v>44235</v>
       </c>
       <c r="C116" s="32">
-        <v>955</v>
+        <v>10475</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B117" s="38">
-        <v>44182</v>
+        <v>44236</v>
       </c>
       <c r="C117" s="32">
-        <v>1429</v>
+        <v>8609</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13996,10 +13993,10 @@
         <v>284</v>
       </c>
       <c r="B118" s="38">
-        <v>44183</v>
+        <v>44179</v>
       </c>
       <c r="C118" s="32">
-        <v>2022</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14007,10 +14004,10 @@
         <v>284</v>
       </c>
       <c r="B119" s="38">
-        <v>44184</v>
+        <v>44180</v>
       </c>
       <c r="C119" s="32">
-        <v>1009</v>
+        <v>304</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14018,10 +14015,10 @@
         <v>284</v>
       </c>
       <c r="B120" s="38">
-        <v>44185</v>
+        <v>44181</v>
       </c>
       <c r="C120" s="32">
-        <v>497</v>
+        <v>955</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14029,10 +14026,10 @@
         <v>284</v>
       </c>
       <c r="B121" s="38">
-        <v>44186</v>
+        <v>44182</v>
       </c>
       <c r="C121" s="32">
-        <v>1490</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14040,10 +14037,10 @@
         <v>284</v>
       </c>
       <c r="B122" s="38">
-        <v>44187</v>
+        <v>44183</v>
       </c>
       <c r="C122" s="32">
-        <v>2069</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14051,10 +14048,10 @@
         <v>284</v>
       </c>
       <c r="B123" s="38">
-        <v>44188</v>
+        <v>44184</v>
       </c>
       <c r="C123" s="32">
-        <v>2896</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14062,10 +14059,10 @@
         <v>284</v>
       </c>
       <c r="B124" s="38">
-        <v>44189</v>
+        <v>44185</v>
       </c>
       <c r="C124" s="32">
-        <v>1884</v>
+        <v>498</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14073,10 +14070,10 @@
         <v>284</v>
       </c>
       <c r="B125" s="38">
-        <v>44190</v>
+        <v>44186</v>
       </c>
       <c r="C125" s="32">
-        <v>325</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14084,10 +14081,10 @@
         <v>284</v>
       </c>
       <c r="B126" s="38">
-        <v>44191</v>
+        <v>44187</v>
       </c>
       <c r="C126" s="32">
-        <v>1716</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14095,10 +14092,10 @@
         <v>284</v>
       </c>
       <c r="B127" s="38">
-        <v>44192</v>
+        <v>44188</v>
       </c>
       <c r="C127" s="32">
-        <v>1119</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14106,10 +14103,10 @@
         <v>284</v>
       </c>
       <c r="B128" s="38">
-        <v>44193</v>
+        <v>44189</v>
       </c>
       <c r="C128" s="32">
-        <v>6637</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14117,10 +14114,10 @@
         <v>284</v>
       </c>
       <c r="B129" s="38">
-        <v>44194</v>
+        <v>44190</v>
       </c>
       <c r="C129" s="32">
-        <v>10656</v>
+        <v>325</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14128,10 +14125,10 @@
         <v>284</v>
       </c>
       <c r="B130" s="38">
-        <v>44195</v>
+        <v>44191</v>
       </c>
       <c r="C130" s="32">
-        <v>17421</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14139,10 +14136,10 @@
         <v>284</v>
       </c>
       <c r="B131" s="38">
-        <v>44196</v>
+        <v>44192</v>
       </c>
       <c r="C131" s="32">
-        <v>10868</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14150,10 +14147,10 @@
         <v>284</v>
       </c>
       <c r="B132" s="38">
-        <v>44197</v>
+        <v>44193</v>
       </c>
       <c r="C132" s="32">
-        <v>1323</v>
+        <v>6649</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14161,10 +14158,10 @@
         <v>284</v>
       </c>
       <c r="B133" s="38">
-        <v>44198</v>
+        <v>44194</v>
       </c>
       <c r="C133" s="32">
-        <v>6202</v>
+        <v>10652</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14172,10 +14169,10 @@
         <v>284</v>
       </c>
       <c r="B134" s="38">
-        <v>44199</v>
+        <v>44195</v>
       </c>
       <c r="C134" s="32">
-        <v>3486</v>
+        <v>17396</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14183,10 +14180,10 @@
         <v>284</v>
       </c>
       <c r="B135" s="38">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="C135" s="32">
-        <v>16275</v>
+        <v>10874</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14194,10 +14191,10 @@
         <v>284</v>
       </c>
       <c r="B136" s="38">
-        <v>44201</v>
+        <v>44197</v>
       </c>
       <c r="C136" s="32">
-        <v>18446</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14205,10 +14202,10 @@
         <v>284</v>
       </c>
       <c r="B137" s="38">
-        <v>44202</v>
+        <v>44198</v>
       </c>
       <c r="C137" s="32">
-        <v>20489</v>
+        <v>6214</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14216,10 +14213,10 @@
         <v>284</v>
       </c>
       <c r="B138" s="38">
-        <v>44203</v>
+        <v>44199</v>
       </c>
       <c r="C138" s="32">
-        <v>24522</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14227,10 +14224,10 @@
         <v>284</v>
       </c>
       <c r="B139" s="38">
-        <v>44204</v>
+        <v>44200</v>
       </c>
       <c r="C139" s="32">
-        <v>24804</v>
+        <v>16245</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14238,10 +14235,10 @@
         <v>284</v>
       </c>
       <c r="B140" s="38">
-        <v>44205</v>
+        <v>44201</v>
       </c>
       <c r="C140" s="32">
-        <v>14000</v>
+        <v>18374</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14249,10 +14246,10 @@
         <v>284</v>
       </c>
       <c r="B141" s="38">
-        <v>44206</v>
+        <v>44202</v>
       </c>
       <c r="C141" s="32">
-        <v>4400</v>
+        <v>20324</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14260,10 +14257,10 @@
         <v>284</v>
       </c>
       <c r="B142" s="38">
-        <v>44207</v>
+        <v>44203</v>
       </c>
       <c r="C142" s="32">
-        <v>23718</v>
+        <v>24435</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14271,10 +14268,10 @@
         <v>284</v>
       </c>
       <c r="B143" s="38">
-        <v>44208</v>
+        <v>44204</v>
       </c>
       <c r="C143" s="32">
-        <v>28820</v>
+        <v>24666</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14282,10 +14279,10 @@
         <v>284</v>
       </c>
       <c r="B144" s="38">
-        <v>44209</v>
+        <v>44205</v>
       </c>
       <c r="C144" s="32">
-        <v>29749</v>
+        <v>14018</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14293,10 +14290,10 @@
         <v>284</v>
       </c>
       <c r="B145" s="38">
-        <v>44210</v>
+        <v>44206</v>
       </c>
       <c r="C145" s="32">
-        <v>34097</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14304,10 +14301,10 @@
         <v>284</v>
       </c>
       <c r="B146" s="38">
-        <v>44211</v>
+        <v>44207</v>
       </c>
       <c r="C146" s="32">
-        <v>30550</v>
+        <v>23742</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14315,10 +14312,10 @@
         <v>284</v>
       </c>
       <c r="B147" s="38">
-        <v>44212</v>
+        <v>44208</v>
       </c>
       <c r="C147" s="32">
-        <v>25106</v>
+        <v>28804</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14326,10 +14323,10 @@
         <v>284</v>
       </c>
       <c r="B148" s="38">
-        <v>44213</v>
+        <v>44209</v>
       </c>
       <c r="C148" s="32">
-        <v>6697</v>
+        <v>29698</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14337,10 +14334,10 @@
         <v>284</v>
       </c>
       <c r="B149" s="38">
-        <v>44214</v>
+        <v>44210</v>
       </c>
       <c r="C149" s="32">
-        <v>12164</v>
+        <v>33966</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14348,10 +14345,10 @@
         <v>284</v>
       </c>
       <c r="B150" s="38">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="C150" s="32">
-        <v>22787</v>
+        <v>30456</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14359,10 +14356,10 @@
         <v>284</v>
       </c>
       <c r="B151" s="38">
-        <v>44216</v>
+        <v>44212</v>
       </c>
       <c r="C151" s="32">
-        <v>31397</v>
+        <v>25203</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14370,10 +14367,10 @@
         <v>284</v>
       </c>
       <c r="B152" s="38">
-        <v>44217</v>
+        <v>44213</v>
       </c>
       <c r="C152" s="32">
-        <v>33450</v>
+        <v>6699</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14381,10 +14378,10 @@
         <v>284</v>
       </c>
       <c r="B153" s="38">
-        <v>44218</v>
+        <v>44214</v>
       </c>
       <c r="C153" s="32">
-        <v>29818</v>
+        <v>12090</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14392,10 +14389,10 @@
         <v>284</v>
       </c>
       <c r="B154" s="38">
-        <v>44219</v>
+        <v>44215</v>
       </c>
       <c r="C154" s="32">
-        <v>21439</v>
+        <v>22825</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14403,10 +14400,10 @@
         <v>284</v>
       </c>
       <c r="B155" s="38">
-        <v>44220</v>
+        <v>44216</v>
       </c>
       <c r="C155" s="32">
-        <v>8819</v>
+        <v>31592</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14414,10 +14411,10 @@
         <v>284</v>
       </c>
       <c r="B156" s="38">
-        <v>44221</v>
+        <v>44217</v>
       </c>
       <c r="C156" s="32">
-        <v>26360</v>
+        <v>33607</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14425,10 +14422,10 @@
         <v>284</v>
       </c>
       <c r="B157" s="38">
-        <v>44222</v>
+        <v>44218</v>
       </c>
       <c r="C157" s="32">
-        <v>36210</v>
+        <v>29937</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14436,10 +14433,10 @@
         <v>284</v>
       </c>
       <c r="B158" s="38">
-        <v>44223</v>
+        <v>44219</v>
       </c>
       <c r="C158" s="32">
-        <v>41894</v>
+        <v>21550</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14447,10 +14444,10 @@
         <v>284</v>
       </c>
       <c r="B159" s="38">
-        <v>44224</v>
+        <v>44220</v>
       </c>
       <c r="C159" s="32">
-        <v>47947</v>
+        <v>8980</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14458,10 +14455,10 @@
         <v>284</v>
       </c>
       <c r="B160" s="38">
-        <v>44225</v>
+        <v>44221</v>
       </c>
       <c r="C160" s="32">
-        <v>43710</v>
+        <v>26730</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14469,10 +14466,10 @@
         <v>284</v>
       </c>
       <c r="B161" s="38">
-        <v>44226</v>
+        <v>44222</v>
       </c>
       <c r="C161" s="32">
-        <v>22124</v>
+        <v>37783</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14480,10 +14477,10 @@
         <v>284</v>
       </c>
       <c r="B162" s="38">
-        <v>44227</v>
+        <v>44223</v>
       </c>
       <c r="C162" s="32">
-        <v>6983</v>
+        <v>43467</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14491,10 +14488,10 @@
         <v>284</v>
       </c>
       <c r="B163" s="38">
-        <v>44228</v>
+        <v>44224</v>
       </c>
       <c r="C163" s="32">
-        <v>34177</v>
+        <v>48107</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14502,10 +14499,10 @@
         <v>284</v>
       </c>
       <c r="B164" s="38">
-        <v>44229</v>
+        <v>44225</v>
       </c>
       <c r="C164" s="32">
-        <v>41094</v>
+        <v>44183</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14513,10 +14510,10 @@
         <v>284</v>
       </c>
       <c r="B165" s="38">
-        <v>44230</v>
+        <v>44226</v>
       </c>
       <c r="C165" s="32">
-        <v>54786</v>
+        <v>22376</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14524,10 +14521,10 @@
         <v>284</v>
       </c>
       <c r="B166" s="38">
-        <v>44231</v>
+        <v>44227</v>
       </c>
       <c r="C166" s="32">
-        <v>56723</v>
+        <v>7123</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14535,10 +14532,10 @@
         <v>284</v>
       </c>
       <c r="B167" s="38">
-        <v>44232</v>
+        <v>44228</v>
       </c>
       <c r="C167" s="32">
-        <v>38075</v>
+        <v>34527</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14546,10 +14543,10 @@
         <v>284</v>
       </c>
       <c r="B168" s="38">
-        <v>44233</v>
+        <v>44229</v>
       </c>
       <c r="C168" s="32">
-        <v>13059</v>
+        <v>42019</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14557,76 +14554,76 @@
         <v>284</v>
       </c>
       <c r="B169" s="38">
-        <v>44234</v>
+        <v>44230</v>
       </c>
       <c r="C169" s="32">
-        <v>1079</v>
+        <v>56102</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B170" s="38">
-        <v>44179</v>
+        <v>44231</v>
       </c>
       <c r="C170" s="32">
-        <v>1</v>
+        <v>60869</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B171" s="38">
-        <v>44180</v>
+        <v>44232</v>
       </c>
       <c r="C171" s="32">
-        <v>7</v>
+        <v>64098</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B172" s="38">
-        <v>44181</v>
+        <v>44233</v>
       </c>
       <c r="C172" s="32">
-        <v>34</v>
+        <v>41078</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B173" s="38">
-        <v>44182</v>
+        <v>44234</v>
       </c>
       <c r="C173" s="32">
-        <v>69</v>
+        <v>11202</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B174" s="38">
-        <v>44183</v>
+        <v>44235</v>
       </c>
       <c r="C174" s="32">
-        <v>56</v>
+        <v>15409</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B175" s="38">
-        <v>44184</v>
+        <v>44236</v>
       </c>
       <c r="C175" s="32">
-        <v>47</v>
+        <v>14962</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14634,10 +14631,10 @@
         <v>285</v>
       </c>
       <c r="B176" s="38">
-        <v>44185</v>
+        <v>44179</v>
       </c>
       <c r="C176" s="32">
-        <v>89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14645,10 +14642,10 @@
         <v>285</v>
       </c>
       <c r="B177" s="38">
-        <v>44186</v>
+        <v>44180</v>
       </c>
       <c r="C177" s="32">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14656,10 +14653,10 @@
         <v>285</v>
       </c>
       <c r="B178" s="38">
-        <v>44187</v>
+        <v>44181</v>
       </c>
       <c r="C178" s="32">
-        <v>157</v>
+        <v>34</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14667,10 +14664,10 @@
         <v>285</v>
       </c>
       <c r="B179" s="38">
-        <v>44188</v>
+        <v>44182</v>
       </c>
       <c r="C179" s="32">
-        <v>581</v>
+        <v>69</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14678,10 +14675,10 @@
         <v>285</v>
       </c>
       <c r="B180" s="38">
-        <v>44189</v>
+        <v>44183</v>
       </c>
       <c r="C180" s="32">
-        <v>409</v>
+        <v>56</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14689,10 +14686,10 @@
         <v>285</v>
       </c>
       <c r="B181" s="38">
-        <v>44190</v>
+        <v>44184</v>
       </c>
       <c r="C181" s="32">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14700,10 +14697,10 @@
         <v>285</v>
       </c>
       <c r="B182" s="38">
-        <v>44191</v>
+        <v>44185</v>
       </c>
       <c r="C182" s="32">
-        <v>507</v>
+        <v>89</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14711,10 +14708,10 @@
         <v>285</v>
       </c>
       <c r="B183" s="38">
-        <v>44192</v>
+        <v>44186</v>
       </c>
       <c r="C183" s="32">
-        <v>367</v>
+        <v>62</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14722,10 +14719,10 @@
         <v>285</v>
       </c>
       <c r="B184" s="38">
-        <v>44193</v>
+        <v>44187</v>
       </c>
       <c r="C184" s="32">
-        <v>2714</v>
+        <v>162</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14733,10 +14730,10 @@
         <v>285</v>
       </c>
       <c r="B185" s="38">
-        <v>44194</v>
+        <v>44188</v>
       </c>
       <c r="C185" s="32">
-        <v>5501</v>
+        <v>583</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14744,10 +14741,10 @@
         <v>285</v>
       </c>
       <c r="B186" s="38">
-        <v>44195</v>
+        <v>44189</v>
       </c>
       <c r="C186" s="32">
-        <v>7192</v>
+        <v>409</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14755,10 +14752,10 @@
         <v>285</v>
       </c>
       <c r="B187" s="38">
-        <v>44196</v>
+        <v>44190</v>
       </c>
       <c r="C187" s="32">
-        <v>3210</v>
+        <v>57</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14766,10 +14763,10 @@
         <v>285</v>
       </c>
       <c r="B188" s="38">
-        <v>44197</v>
+        <v>44191</v>
       </c>
       <c r="C188" s="32">
-        <v>410</v>
+        <v>507</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14777,10 +14774,10 @@
         <v>285</v>
       </c>
       <c r="B189" s="38">
-        <v>44198</v>
+        <v>44192</v>
       </c>
       <c r="C189" s="32">
-        <v>2048</v>
+        <v>367</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14788,10 +14785,10 @@
         <v>285</v>
       </c>
       <c r="B190" s="38">
-        <v>44199</v>
+        <v>44193</v>
       </c>
       <c r="C190" s="32">
-        <v>1240</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14799,10 +14796,10 @@
         <v>285</v>
       </c>
       <c r="B191" s="38">
-        <v>44200</v>
+        <v>44194</v>
       </c>
       <c r="C191" s="32">
-        <v>6654</v>
+        <v>5505</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14810,10 +14807,10 @@
         <v>285</v>
       </c>
       <c r="B192" s="38">
-        <v>44201</v>
+        <v>44195</v>
       </c>
       <c r="C192" s="32">
-        <v>5868</v>
+        <v>7189</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14821,10 +14818,10 @@
         <v>285</v>
       </c>
       <c r="B193" s="38">
-        <v>44202</v>
+        <v>44196</v>
       </c>
       <c r="C193" s="32">
-        <v>7619</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14832,10 +14829,10 @@
         <v>285</v>
       </c>
       <c r="B194" s="38">
-        <v>44203</v>
+        <v>44197</v>
       </c>
       <c r="C194" s="32">
-        <v>9465</v>
+        <v>412</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14843,10 +14840,10 @@
         <v>285</v>
       </c>
       <c r="B195" s="38">
-        <v>44204</v>
+        <v>44198</v>
       </c>
       <c r="C195" s="32">
-        <v>8665</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14854,10 +14851,10 @@
         <v>285</v>
       </c>
       <c r="B196" s="38">
-        <v>44205</v>
+        <v>44199</v>
       </c>
       <c r="C196" s="32">
-        <v>4747</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14865,10 +14862,10 @@
         <v>285</v>
       </c>
       <c r="B197" s="38">
-        <v>44206</v>
+        <v>44200</v>
       </c>
       <c r="C197" s="32">
-        <v>1384</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14876,10 +14873,10 @@
         <v>285</v>
       </c>
       <c r="B198" s="38">
-        <v>44207</v>
+        <v>44201</v>
       </c>
       <c r="C198" s="32">
-        <v>8403</v>
+        <v>5848</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14887,10 +14884,10 @@
         <v>285</v>
       </c>
       <c r="B199" s="38">
-        <v>44208</v>
+        <v>44202</v>
       </c>
       <c r="C199" s="32">
-        <v>9237</v>
+        <v>7562</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14898,10 +14895,10 @@
         <v>285</v>
       </c>
       <c r="B200" s="38">
-        <v>44209</v>
+        <v>44203</v>
       </c>
       <c r="C200" s="32">
-        <v>11519</v>
+        <v>9425</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14909,10 +14906,10 @@
         <v>285</v>
       </c>
       <c r="B201" s="38">
-        <v>44210</v>
+        <v>44204</v>
       </c>
       <c r="C201" s="32">
-        <v>11929</v>
+        <v>8630</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14920,10 +14917,10 @@
         <v>285</v>
       </c>
       <c r="B202" s="38">
-        <v>44211</v>
+        <v>44205</v>
       </c>
       <c r="C202" s="32">
-        <v>8919</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14931,10 +14928,10 @@
         <v>285</v>
       </c>
       <c r="B203" s="38">
-        <v>44212</v>
+        <v>44206</v>
       </c>
       <c r="C203" s="32">
-        <v>5387</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14942,10 +14939,10 @@
         <v>285</v>
       </c>
       <c r="B204" s="38">
-        <v>44213</v>
+        <v>44207</v>
       </c>
       <c r="C204" s="32">
-        <v>1685</v>
+        <v>8413</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14953,10 +14950,10 @@
         <v>285</v>
       </c>
       <c r="B205" s="38">
-        <v>44214</v>
+        <v>44208</v>
       </c>
       <c r="C205" s="32">
-        <v>5124</v>
+        <v>9222</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14964,10 +14961,10 @@
         <v>285</v>
       </c>
       <c r="B206" s="38">
-        <v>44215</v>
+        <v>44209</v>
       </c>
       <c r="C206" s="32">
-        <v>8777</v>
+        <v>11503</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14975,10 +14972,10 @@
         <v>285</v>
       </c>
       <c r="B207" s="38">
-        <v>44216</v>
+        <v>44210</v>
       </c>
       <c r="C207" s="32">
-        <v>10907</v>
+        <v>11908</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14986,10 +14983,10 @@
         <v>285</v>
       </c>
       <c r="B208" s="38">
-        <v>44217</v>
+        <v>44211</v>
       </c>
       <c r="C208" s="32">
-        <v>10604</v>
+        <v>8921</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14997,10 +14994,10 @@
         <v>285</v>
       </c>
       <c r="B209" s="38">
-        <v>44218</v>
+        <v>44212</v>
       </c>
       <c r="C209" s="32">
-        <v>8443</v>
+        <v>5425</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15008,10 +15005,10 @@
         <v>285</v>
       </c>
       <c r="B210" s="38">
-        <v>44219</v>
+        <v>44213</v>
       </c>
       <c r="C210" s="32">
-        <v>6000</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15019,10 +15016,10 @@
         <v>285</v>
       </c>
       <c r="B211" s="38">
-        <v>44220</v>
+        <v>44214</v>
       </c>
       <c r="C211" s="32">
-        <v>1981</v>
+        <v>5106</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15030,10 +15027,10 @@
         <v>285</v>
       </c>
       <c r="B212" s="38">
-        <v>44221</v>
+        <v>44215</v>
       </c>
       <c r="C212" s="32">
-        <v>8851</v>
+        <v>8787</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15041,10 +15038,10 @@
         <v>285</v>
       </c>
       <c r="B213" s="38">
-        <v>44222</v>
+        <v>44216</v>
       </c>
       <c r="C213" s="32">
-        <v>12726</v>
+        <v>10948</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15052,10 +15049,10 @@
         <v>285</v>
       </c>
       <c r="B214" s="38">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="C214" s="32">
-        <v>14829</v>
+        <v>10630</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15063,10 +15060,10 @@
         <v>285</v>
       </c>
       <c r="B215" s="38">
-        <v>44224</v>
+        <v>44218</v>
       </c>
       <c r="C215" s="32">
-        <v>15542</v>
+        <v>8479</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15074,10 +15071,10 @@
         <v>285</v>
       </c>
       <c r="B216" s="38">
-        <v>44225</v>
+        <v>44219</v>
       </c>
       <c r="C216" s="32">
-        <v>13296</v>
+        <v>6027</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15085,10 +15082,10 @@
         <v>285</v>
       </c>
       <c r="B217" s="38">
-        <v>44226</v>
+        <v>44220</v>
       </c>
       <c r="C217" s="32">
-        <v>6619</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15096,10 +15093,10 @@
         <v>285</v>
       </c>
       <c r="B218" s="38">
-        <v>44227</v>
+        <v>44221</v>
       </c>
       <c r="C218" s="32">
-        <v>3198</v>
+        <v>8950</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15107,10 +15104,10 @@
         <v>285</v>
       </c>
       <c r="B219" s="38">
-        <v>44228</v>
+        <v>44222</v>
       </c>
       <c r="C219" s="32">
-        <v>11941</v>
+        <v>13144</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15118,10 +15115,10 @@
         <v>285</v>
       </c>
       <c r="B220" s="38">
-        <v>44229</v>
+        <v>44223</v>
       </c>
       <c r="C220" s="32">
-        <v>14789</v>
+        <v>15048</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15129,10 +15126,10 @@
         <v>285</v>
       </c>
       <c r="B221" s="38">
-        <v>44230</v>
+        <v>44224</v>
       </c>
       <c r="C221" s="32">
-        <v>16313</v>
+        <v>15596</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15140,10 +15137,10 @@
         <v>285</v>
       </c>
       <c r="B222" s="38">
-        <v>44231</v>
+        <v>44225</v>
       </c>
       <c r="C222" s="32">
-        <v>15974</v>
+        <v>13470</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15151,10 +15148,10 @@
         <v>285</v>
       </c>
       <c r="B223" s="38">
-        <v>44232</v>
+        <v>44226</v>
       </c>
       <c r="C223" s="32">
-        <v>10827</v>
+        <v>6913</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15162,10 +15159,10 @@
         <v>285</v>
       </c>
       <c r="B224" s="38">
-        <v>44233</v>
+        <v>44227</v>
       </c>
       <c r="C224" s="32">
-        <v>3589</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15173,98 +15170,98 @@
         <v>285</v>
       </c>
       <c r="B225" s="38">
-        <v>44234</v>
+        <v>44228</v>
       </c>
       <c r="C225" s="32">
-        <v>186</v>
+        <v>12298</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B226" s="38">
-        <v>44180</v>
+        <v>44229</v>
       </c>
       <c r="C226" s="32">
-        <v>2</v>
+        <v>14998</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B227" s="38">
-        <v>44181</v>
+        <v>44230</v>
       </c>
       <c r="C227" s="32">
-        <v>5</v>
+        <v>16660</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B228" s="38">
-        <v>44182</v>
+        <v>44231</v>
       </c>
       <c r="C228" s="32">
-        <v>13</v>
+        <v>17232</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B229" s="38">
-        <v>44183</v>
+        <v>44232</v>
       </c>
       <c r="C229" s="32">
-        <v>40</v>
+        <v>18785</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B230" s="38">
-        <v>44184</v>
+        <v>44233</v>
       </c>
       <c r="C230" s="32">
-        <v>14</v>
+        <v>10448</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B231" s="38">
-        <v>44185</v>
+        <v>44234</v>
       </c>
       <c r="C231" s="32">
-        <v>10</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B232" s="38">
-        <v>44186</v>
+        <v>44235</v>
       </c>
       <c r="C232" s="32">
-        <v>24</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B233" s="38">
-        <v>44187</v>
+        <v>44236</v>
       </c>
       <c r="C233" s="32">
-        <v>20</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15272,10 +15269,10 @@
         <v>286</v>
       </c>
       <c r="B234" s="38">
-        <v>44188</v>
+        <v>44180</v>
       </c>
       <c r="C234" s="32">
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15283,10 +15280,10 @@
         <v>286</v>
       </c>
       <c r="B235" s="38">
-        <v>44189</v>
+        <v>44181</v>
       </c>
       <c r="C235" s="32">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15294,10 +15291,10 @@
         <v>286</v>
       </c>
       <c r="B236" s="38">
-        <v>44190</v>
+        <v>44182</v>
       </c>
       <c r="C236" s="32">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15305,10 +15302,10 @@
         <v>286</v>
       </c>
       <c r="B237" s="38">
-        <v>44191</v>
+        <v>44183</v>
       </c>
       <c r="C237" s="32">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15316,10 +15313,10 @@
         <v>286</v>
       </c>
       <c r="B238" s="38">
-        <v>44192</v>
+        <v>44184</v>
       </c>
       <c r="C238" s="32">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15327,10 +15324,10 @@
         <v>286</v>
       </c>
       <c r="B239" s="38">
-        <v>44193</v>
+        <v>44185</v>
       </c>
       <c r="C239" s="32">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15338,10 +15335,10 @@
         <v>286</v>
       </c>
       <c r="B240" s="38">
-        <v>44194</v>
+        <v>44186</v>
       </c>
       <c r="C240" s="32">
-        <v>78</v>
+        <v>24</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15349,10 +15346,10 @@
         <v>286</v>
       </c>
       <c r="B241" s="38">
-        <v>44195</v>
+        <v>44187</v>
       </c>
       <c r="C241" s="32">
-        <v>86</v>
+        <v>19</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15360,10 +15357,10 @@
         <v>286</v>
       </c>
       <c r="B242" s="38">
-        <v>44196</v>
+        <v>44188</v>
       </c>
       <c r="C242" s="32">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15371,10 +15368,10 @@
         <v>286</v>
       </c>
       <c r="B243" s="38">
-        <v>44197</v>
+        <v>44189</v>
       </c>
       <c r="C243" s="32">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15382,10 +15379,10 @@
         <v>286</v>
       </c>
       <c r="B244" s="38">
-        <v>44198</v>
+        <v>44190</v>
       </c>
       <c r="C244" s="32">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15393,10 +15390,10 @@
         <v>286</v>
       </c>
       <c r="B245" s="38">
-        <v>44199</v>
+        <v>44191</v>
       </c>
       <c r="C245" s="32">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15404,10 +15401,10 @@
         <v>286</v>
       </c>
       <c r="B246" s="38">
-        <v>44200</v>
+        <v>44192</v>
       </c>
       <c r="C246" s="32">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15415,10 +15412,10 @@
         <v>286</v>
       </c>
       <c r="B247" s="38">
-        <v>44201</v>
+        <v>44193</v>
       </c>
       <c r="C247" s="32">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15426,10 +15423,10 @@
         <v>286</v>
       </c>
       <c r="B248" s="38">
-        <v>44202</v>
+        <v>44194</v>
       </c>
       <c r="C248" s="32">
-        <v>41</v>
+        <v>78</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15437,10 +15434,10 @@
         <v>286</v>
       </c>
       <c r="B249" s="38">
-        <v>44203</v>
+        <v>44195</v>
       </c>
       <c r="C249" s="32">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15448,10 +15445,10 @@
         <v>286</v>
       </c>
       <c r="B250" s="38">
-        <v>44204</v>
+        <v>44196</v>
       </c>
       <c r="C250" s="32">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15459,10 +15456,10 @@
         <v>286</v>
       </c>
       <c r="B251" s="38">
-        <v>44205</v>
+        <v>44197</v>
       </c>
       <c r="C251" s="32">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15470,10 +15467,10 @@
         <v>286</v>
       </c>
       <c r="B252" s="38">
-        <v>44206</v>
+        <v>44198</v>
       </c>
       <c r="C252" s="32">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15481,10 +15478,10 @@
         <v>286</v>
       </c>
       <c r="B253" s="38">
-        <v>44207</v>
+        <v>44199</v>
       </c>
       <c r="C253" s="32">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15492,10 +15489,10 @@
         <v>286</v>
       </c>
       <c r="B254" s="38">
-        <v>44208</v>
+        <v>44200</v>
       </c>
       <c r="C254" s="32">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15503,10 +15500,10 @@
         <v>286</v>
       </c>
       <c r="B255" s="38">
-        <v>44209</v>
+        <v>44201</v>
       </c>
       <c r="C255" s="32">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15514,10 +15511,10 @@
         <v>286</v>
       </c>
       <c r="B256" s="38">
-        <v>44210</v>
+        <v>44202</v>
       </c>
       <c r="C256" s="32">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15525,10 +15522,10 @@
         <v>286</v>
       </c>
       <c r="B257" s="38">
-        <v>44211</v>
+        <v>44203</v>
       </c>
       <c r="C257" s="32">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15536,10 +15533,10 @@
         <v>286</v>
       </c>
       <c r="B258" s="38">
-        <v>44212</v>
+        <v>44204</v>
       </c>
       <c r="C258" s="32">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15547,10 +15544,10 @@
         <v>286</v>
       </c>
       <c r="B259" s="38">
-        <v>44213</v>
+        <v>44205</v>
       </c>
       <c r="C259" s="32">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15558,10 +15555,10 @@
         <v>286</v>
       </c>
       <c r="B260" s="38">
-        <v>44214</v>
+        <v>44206</v>
       </c>
       <c r="C260" s="32">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15569,10 +15566,10 @@
         <v>286</v>
       </c>
       <c r="B261" s="38">
-        <v>44215</v>
+        <v>44207</v>
       </c>
       <c r="C261" s="32">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15580,10 +15577,10 @@
         <v>286</v>
       </c>
       <c r="B262" s="38">
-        <v>44216</v>
+        <v>44208</v>
       </c>
       <c r="C262" s="32">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15591,10 +15588,10 @@
         <v>286</v>
       </c>
       <c r="B263" s="38">
-        <v>44217</v>
+        <v>44209</v>
       </c>
       <c r="C263" s="32">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15602,10 +15599,10 @@
         <v>286</v>
       </c>
       <c r="B264" s="38">
-        <v>44218</v>
+        <v>44210</v>
       </c>
       <c r="C264" s="32">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15613,10 +15610,10 @@
         <v>286</v>
       </c>
       <c r="B265" s="38">
-        <v>44219</v>
+        <v>44211</v>
       </c>
       <c r="C265" s="32">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15624,10 +15621,10 @@
         <v>286</v>
       </c>
       <c r="B266" s="38">
-        <v>44220</v>
+        <v>44212</v>
       </c>
       <c r="C266" s="32">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15635,10 +15632,10 @@
         <v>286</v>
       </c>
       <c r="B267" s="38">
-        <v>44221</v>
+        <v>44213</v>
       </c>
       <c r="C267" s="32">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15646,10 +15643,10 @@
         <v>286</v>
       </c>
       <c r="B268" s="38">
-        <v>44222</v>
+        <v>44214</v>
       </c>
       <c r="C268" s="32">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15657,10 +15654,10 @@
         <v>286</v>
       </c>
       <c r="B269" s="38">
-        <v>44223</v>
+        <v>44215</v>
       </c>
       <c r="C269" s="32">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15668,120 +15665,230 @@
         <v>286</v>
       </c>
       <c r="B270" s="38">
-        <v>44224</v>
+        <v>44216</v>
       </c>
       <c r="C270" s="32">
         <v>64</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="23" t="s">
+    <row r="271" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B271" s="39">
+      <c r="B271" s="38">
+        <v>44217</v>
+      </c>
+      <c r="C271" s="32">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="B272" s="38">
+        <v>44218</v>
+      </c>
+      <c r="C272" s="32">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="B273" s="38">
+        <v>44219</v>
+      </c>
+      <c r="C273" s="32">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="B274" s="38">
+        <v>44220</v>
+      </c>
+      <c r="C274" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="B275" s="38">
+        <v>44221</v>
+      </c>
+      <c r="C275" s="32">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="B276" s="38">
+        <v>44222</v>
+      </c>
+      <c r="C276" s="32">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="B277" s="38">
+        <v>44223</v>
+      </c>
+      <c r="C277" s="32">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="B278" s="38">
+        <v>44224</v>
+      </c>
+      <c r="C278" s="32">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="B279" s="38">
         <v>44225</v>
       </c>
-      <c r="C271" s="36">
+      <c r="C279" s="32">
         <v>71</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="23" t="s">
+    <row r="280" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B272" s="39">
+      <c r="B280" s="38">
         <v>44226</v>
       </c>
-      <c r="C272" s="36">
+      <c r="C280" s="32">
         <v>23</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="23" t="s">
+    <row r="281" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B273" s="39">
+      <c r="B281" s="38">
         <v>44227</v>
       </c>
-      <c r="C273" s="36">
+      <c r="C281" s="32">
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="23" t="s">
+    <row r="282" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B274" s="39">
+      <c r="B282" s="38">
         <v>44228</v>
       </c>
-      <c r="C274" s="36">
+      <c r="C282" s="32">
         <v>50</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="23" t="s">
+    <row r="283" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B275" s="39">
+      <c r="B283" s="38">
         <v>44229</v>
       </c>
-      <c r="C275" s="36">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="23" t="s">
+      <c r="C283" s="32">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B276" s="39">
+      <c r="B284" s="38">
         <v>44230</v>
       </c>
-      <c r="C276" s="36">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="23" t="s">
+      <c r="C284" s="32">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B277" s="39">
+      <c r="B285" s="38">
         <v>44231</v>
       </c>
-      <c r="C277" s="36">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="23" t="s">
+      <c r="C285" s="32">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="B278" s="39">
+      <c r="B286" s="39">
         <v>44232</v>
       </c>
-      <c r="C278" s="36">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="23" t="s">
+      <c r="C286" s="36">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="B279" s="39">
+      <c r="B287" s="39">
         <v>44233</v>
       </c>
-      <c r="C279" s="36">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="23" t="s">
+      <c r="C287" s="36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="B280" s="39">
+      <c r="B288" s="39">
         <v>44234</v>
       </c>
-      <c r="C280" s="36">
-        <v>3</v>
+      <c r="C288" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B289" s="39">
+        <v>44235</v>
+      </c>
+      <c r="C289" s="36">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B290" s="39">
+        <v>44236</v>
+      </c>
+      <c r="C290" s="36">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Services/StateOfTexas/Data/COVID-19 Vaccine Data by County.xlsx
+++ b/Services/StateOfTexas/Data/COVID-19 Vaccine Data by County.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12048"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12048" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About the Data" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="311">
   <si>
     <t>County Name</t>
   </si>
@@ -1566,7 +1566,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showWhiteSpace="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1587,7 +1589,7 @@
         <v>305</v>
       </c>
       <c r="B2" s="29">
-        <v>44238</v>
+        <v>44239</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1692,7 +1694,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N259"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1760,15 +1762,15 @@
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:K2" si="0">SUM(D4:D258)</f>
-        <v>3663537</v>
+        <v>3829551</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>2703941</v>
+        <v>2794008</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>959596</v>
+        <v>1035543</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
@@ -1841,13 +1843,13 @@
         <v>6200</v>
       </c>
       <c r="D4" s="37">
-        <v>3151</v>
+        <v>3213</v>
       </c>
       <c r="E4" s="37">
-        <v>2566</v>
+        <v>2591</v>
       </c>
       <c r="F4" s="37">
-        <v>585</v>
+        <v>622</v>
       </c>
       <c r="G4" s="38">
         <v>48045</v>
@@ -1876,13 +1878,13 @@
         <v>1600</v>
       </c>
       <c r="D5" s="37">
-        <v>2871</v>
+        <v>2939</v>
       </c>
       <c r="E5" s="37">
-        <v>2252</v>
+        <v>2317</v>
       </c>
       <c r="F5" s="37">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="G5" s="38">
         <v>13503</v>
@@ -1911,13 +1913,13 @@
         <v>15700</v>
       </c>
       <c r="D6" s="37">
-        <v>11380</v>
+        <v>12324</v>
       </c>
       <c r="E6" s="37">
-        <v>7660</v>
+        <v>8460</v>
       </c>
       <c r="F6" s="37">
-        <v>3720</v>
+        <v>3864</v>
       </c>
       <c r="G6" s="38">
         <v>67056</v>
@@ -1946,13 +1948,13 @@
         <v>1100</v>
       </c>
       <c r="D7" s="37">
-        <v>2328</v>
+        <v>2554</v>
       </c>
       <c r="E7" s="37">
-        <v>1800</v>
+        <v>1974</v>
       </c>
       <c r="F7" s="37">
-        <v>528</v>
+        <v>580</v>
       </c>
       <c r="G7" s="38">
         <v>19803</v>
@@ -1981,13 +1983,13 @@
         <v>700</v>
       </c>
       <c r="D8" s="37">
-        <v>1486</v>
+        <v>1548</v>
       </c>
       <c r="E8" s="37">
-        <v>1072</v>
+        <v>1094</v>
       </c>
       <c r="F8" s="37">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="G8" s="38">
         <v>6921</v>
@@ -2016,13 +2018,13 @@
         <v>400</v>
       </c>
       <c r="D9" s="37">
-        <v>494</v>
+        <v>529</v>
       </c>
       <c r="E9" s="37">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="F9" s="37">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="G9" s="38">
         <v>1499</v>
@@ -2051,13 +2053,13 @@
         <v>3600</v>
       </c>
       <c r="D10" s="37">
-        <v>4115</v>
+        <v>4271</v>
       </c>
       <c r="E10" s="37">
-        <v>2951</v>
+        <v>3073</v>
       </c>
       <c r="F10" s="37">
-        <v>1164</v>
+        <v>1198</v>
       </c>
       <c r="G10" s="38">
         <v>38768</v>
@@ -2086,13 +2088,13 @@
         <v>2000</v>
       </c>
       <c r="D11" s="37">
-        <v>3941</v>
+        <v>4102</v>
       </c>
       <c r="E11" s="37">
-        <v>3015</v>
+        <v>3143</v>
       </c>
       <c r="F11" s="37">
-        <v>926</v>
+        <v>959</v>
       </c>
       <c r="G11" s="38">
         <v>23704</v>
@@ -2121,13 +2123,13 @@
         <v>5475</v>
       </c>
       <c r="D12" s="37">
-        <v>1535</v>
+        <v>2022</v>
       </c>
       <c r="E12" s="37">
-        <v>1393</v>
+        <v>1405</v>
       </c>
       <c r="F12" s="37">
-        <v>142</v>
+        <v>617</v>
       </c>
       <c r="G12" s="38">
         <v>5089</v>
@@ -2156,13 +2158,13 @@
         <v>500</v>
       </c>
       <c r="D13" s="37">
-        <v>2196</v>
+        <v>2284</v>
       </c>
       <c r="E13" s="37">
-        <v>1760</v>
+        <v>1829</v>
       </c>
       <c r="F13" s="37">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="G13" s="38">
         <v>19763</v>
@@ -2191,13 +2193,13 @@
         <v>7500</v>
       </c>
       <c r="D14" s="37">
-        <v>4846</v>
+        <v>5059</v>
       </c>
       <c r="E14" s="37">
-        <v>3449</v>
+        <v>3579</v>
       </c>
       <c r="F14" s="37">
-        <v>1397</v>
+        <v>1480</v>
       </c>
       <c r="G14" s="38">
         <v>68839</v>
@@ -2226,13 +2228,13 @@
         <v>2950</v>
       </c>
       <c r="D15" s="37">
-        <v>944</v>
+        <v>1198</v>
       </c>
       <c r="E15" s="37">
-        <v>732</v>
+        <v>825</v>
       </c>
       <c r="F15" s="37">
-        <v>212</v>
+        <v>373</v>
       </c>
       <c r="G15" s="38">
         <v>2793</v>
@@ -2261,13 +2263,13 @@
         <v>16925</v>
       </c>
       <c r="D16" s="37">
-        <v>7565</v>
+        <v>7712</v>
       </c>
       <c r="E16" s="37">
-        <v>5379</v>
+        <v>5481</v>
       </c>
       <c r="F16" s="37">
-        <v>2186</v>
+        <v>2231</v>
       </c>
       <c r="G16" s="38">
         <v>26496</v>
@@ -2296,13 +2298,13 @@
         <v>49450</v>
       </c>
       <c r="D17" s="37">
-        <v>32471</v>
+        <v>33436</v>
       </c>
       <c r="E17" s="37">
-        <v>22381</v>
+        <v>22667</v>
       </c>
       <c r="F17" s="37">
-        <v>10090</v>
+        <v>10769</v>
       </c>
       <c r="G17" s="38">
         <v>272969</v>
@@ -2331,13 +2333,13 @@
         <v>376100</v>
       </c>
       <c r="D18" s="37">
-        <v>248696</v>
+        <v>260618</v>
       </c>
       <c r="E18" s="37">
-        <v>180209</v>
+        <v>186059</v>
       </c>
       <c r="F18" s="37">
-        <v>68487</v>
+        <v>74559</v>
       </c>
       <c r="G18" s="38">
         <v>1552823</v>
@@ -2366,13 +2368,13 @@
         <v>900</v>
       </c>
       <c r="D19" s="37">
-        <v>1920</v>
+        <v>1884</v>
       </c>
       <c r="E19" s="37">
-        <v>1516</v>
+        <v>1559</v>
       </c>
       <c r="F19" s="37">
-        <v>404</v>
+        <v>325</v>
       </c>
       <c r="G19" s="38">
         <v>10092</v>
@@ -2401,13 +2403,13 @@
         <v>0</v>
       </c>
       <c r="D20" s="37">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E20" s="37">
         <v>51</v>
       </c>
       <c r="F20" s="37">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G20" s="38">
         <v>543</v>
@@ -2436,13 +2438,13 @@
         <v>2900</v>
       </c>
       <c r="D21" s="37">
-        <v>1583</v>
+        <v>1901</v>
       </c>
       <c r="E21" s="37">
-        <v>1178</v>
+        <v>1256</v>
       </c>
       <c r="F21" s="37">
-        <v>405</v>
+        <v>645</v>
       </c>
       <c r="G21" s="38">
         <v>15224</v>
@@ -2471,13 +2473,13 @@
         <v>13350</v>
       </c>
       <c r="D22" s="37">
-        <v>6155</v>
+        <v>6262</v>
       </c>
       <c r="E22" s="37">
-        <v>4109</v>
+        <v>4147</v>
       </c>
       <c r="F22" s="37">
-        <v>2046</v>
+        <v>2115</v>
       </c>
       <c r="G22" s="38">
         <v>73689</v>
@@ -2506,13 +2508,13 @@
         <v>32000</v>
       </c>
       <c r="D23" s="37">
-        <v>44601</v>
+        <v>46762</v>
       </c>
       <c r="E23" s="37">
-        <v>31832</v>
+        <v>33042</v>
       </c>
       <c r="F23" s="37">
-        <v>12769</v>
+        <v>13720</v>
       </c>
       <c r="G23" s="38">
         <v>287683</v>
@@ -2541,13 +2543,13 @@
         <v>29100</v>
       </c>
       <c r="D24" s="37">
-        <v>18722</v>
+        <v>19063</v>
       </c>
       <c r="E24" s="37">
-        <v>15171</v>
+        <v>15277</v>
       </c>
       <c r="F24" s="37">
-        <v>3551</v>
+        <v>3786</v>
       </c>
       <c r="G24" s="38">
         <v>186843</v>
@@ -2576,13 +2578,13 @@
         <v>1300</v>
       </c>
       <c r="D25" s="37">
-        <v>2090</v>
+        <v>2149</v>
       </c>
       <c r="E25" s="37">
-        <v>1784</v>
+        <v>1833</v>
       </c>
       <c r="F25" s="37">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="G25" s="38">
         <v>7706</v>
@@ -2611,13 +2613,13 @@
         <v>400</v>
       </c>
       <c r="D26" s="37">
-        <v>578</v>
+        <v>550</v>
       </c>
       <c r="E26" s="37">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="F26" s="37">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G26" s="38">
         <v>1272</v>
@@ -2646,13 +2648,13 @@
         <v>900</v>
       </c>
       <c r="D27" s="37">
-        <v>1032</v>
+        <v>1137</v>
       </c>
       <c r="E27" s="37">
-        <v>892</v>
+        <v>971</v>
       </c>
       <c r="F27" s="37">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="G27" s="38">
         <v>5317</v>
@@ -2681,13 +2683,13 @@
         <v>2700</v>
       </c>
       <c r="D28" s="37">
-        <v>3068</v>
+        <v>3384</v>
       </c>
       <c r="E28" s="37">
-        <v>2194</v>
+        <v>2477</v>
       </c>
       <c r="F28" s="37">
-        <v>874</v>
+        <v>907</v>
       </c>
       <c r="G28" s="38">
         <v>30883</v>
@@ -2716,13 +2718,13 @@
         <v>800</v>
       </c>
       <c r="D29" s="37">
-        <v>1778</v>
+        <v>1879</v>
       </c>
       <c r="E29" s="37">
-        <v>1329</v>
+        <v>1416</v>
       </c>
       <c r="F29" s="37">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="G29" s="38">
         <v>14869</v>
@@ -2751,13 +2753,13 @@
         <v>6425</v>
       </c>
       <c r="D30" s="37">
-        <v>4140</v>
+        <v>4214</v>
       </c>
       <c r="E30" s="37">
-        <v>3259</v>
+        <v>3281</v>
       </c>
       <c r="F30" s="37">
-        <v>881</v>
+        <v>933</v>
       </c>
       <c r="G30" s="38">
         <v>39239</v>
@@ -2786,13 +2788,13 @@
         <v>3300</v>
       </c>
       <c r="D31" s="37">
-        <v>2798</v>
+        <v>2968</v>
       </c>
       <c r="E31" s="37">
-        <v>2066</v>
+        <v>2120</v>
       </c>
       <c r="F31" s="37">
-        <v>732</v>
+        <v>848</v>
       </c>
       <c r="G31" s="38">
         <v>34853</v>
@@ -2821,13 +2823,13 @@
         <v>1200</v>
       </c>
       <c r="D32" s="37">
-        <v>1963</v>
+        <v>2214</v>
       </c>
       <c r="E32" s="37">
-        <v>1418</v>
+        <v>1590</v>
       </c>
       <c r="F32" s="37">
-        <v>545</v>
+        <v>624</v>
       </c>
       <c r="G32" s="38">
         <v>16817</v>
@@ -2856,13 +2858,13 @@
         <v>1000</v>
       </c>
       <c r="D33" s="37">
-        <v>1466</v>
+        <v>1497</v>
       </c>
       <c r="E33" s="37">
-        <v>1064</v>
+        <v>1085</v>
       </c>
       <c r="F33" s="37">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="G33" s="38">
         <v>11263</v>
@@ -2891,13 +2893,13 @@
         <v>76750</v>
       </c>
       <c r="D34" s="37">
-        <v>66155</v>
+        <v>67480</v>
       </c>
       <c r="E34" s="37">
-        <v>46712</v>
+        <v>47529</v>
       </c>
       <c r="F34" s="37">
-        <v>19443</v>
+        <v>19951</v>
       </c>
       <c r="G34" s="38">
         <v>311689</v>
@@ -2926,13 +2928,13 @@
         <v>300</v>
       </c>
       <c r="D35" s="37">
-        <v>903</v>
+        <v>923</v>
       </c>
       <c r="E35" s="37">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="F35" s="37">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="G35" s="38">
         <v>10031</v>
@@ -2961,13 +2963,13 @@
         <v>200</v>
       </c>
       <c r="D36" s="37">
-        <v>1091</v>
+        <v>1123</v>
       </c>
       <c r="E36" s="37">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="F36" s="37">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="G36" s="38">
         <v>4718</v>
@@ -2996,13 +2998,13 @@
         <v>500</v>
       </c>
       <c r="D37" s="37">
-        <v>992</v>
+        <v>1031</v>
       </c>
       <c r="E37" s="37">
-        <v>671</v>
+        <v>699</v>
       </c>
       <c r="F37" s="37">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="G37" s="38">
         <v>24182</v>
@@ -3031,13 +3033,13 @@
         <v>800</v>
       </c>
       <c r="D38" s="37">
-        <v>1179</v>
+        <v>1246</v>
       </c>
       <c r="E38" s="37">
-        <v>912</v>
+        <v>922</v>
       </c>
       <c r="F38" s="37">
-        <v>267</v>
+        <v>324</v>
       </c>
       <c r="G38" s="38">
         <v>5607</v>
@@ -3066,13 +3068,13 @@
         <v>9200</v>
       </c>
       <c r="D39" s="37">
-        <v>3738</v>
+        <v>3855</v>
       </c>
       <c r="E39" s="37">
-        <v>2638</v>
+        <v>2711</v>
       </c>
       <c r="F39" s="37">
-        <v>1100</v>
+        <v>1144</v>
       </c>
       <c r="G39" s="38">
         <v>33062</v>
@@ -3101,13 +3103,13 @@
         <v>6100</v>
       </c>
       <c r="D40" s="37">
-        <v>4266</v>
+        <v>4554</v>
       </c>
       <c r="E40" s="37">
-        <v>3197</v>
+        <v>3346</v>
       </c>
       <c r="F40" s="37">
-        <v>1069</v>
+        <v>1208</v>
       </c>
       <c r="G40" s="38">
         <v>40876</v>
@@ -3136,13 +3138,13 @@
         <v>1500</v>
       </c>
       <c r="D41" s="37">
-        <v>1178</v>
+        <v>1201</v>
       </c>
       <c r="E41" s="37">
-        <v>696</v>
+        <v>710</v>
       </c>
       <c r="F41" s="37">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="G41" s="38">
         <v>6094</v>
@@ -3171,13 +3173,13 @@
         <v>4300</v>
       </c>
       <c r="D42" s="37">
-        <v>2650</v>
+        <v>2685</v>
       </c>
       <c r="E42" s="37">
-        <v>2163</v>
+        <v>2176</v>
       </c>
       <c r="F42" s="37">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="G42" s="38">
         <v>8666</v>
@@ -3206,13 +3208,13 @@
         <v>400</v>
       </c>
       <c r="D43" s="37">
-        <v>620</v>
+        <v>637</v>
       </c>
       <c r="E43" s="37">
         <v>516</v>
       </c>
       <c r="F43" s="37">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="G43" s="38">
         <v>2188</v>
@@ -3241,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="D44" s="37">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="E44" s="37">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="F44" s="37">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G44" s="38">
         <v>2756</v>
@@ -3276,13 +3278,13 @@
         <v>800</v>
       </c>
       <c r="D45" s="37">
-        <v>872</v>
+        <v>892</v>
       </c>
       <c r="E45" s="37">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="F45" s="37">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="G45" s="38">
         <v>6721</v>
@@ -3311,13 +3313,13 @@
         <v>120750</v>
       </c>
       <c r="D46" s="37">
-        <v>130687</v>
+        <v>136602</v>
       </c>
       <c r="E46" s="37">
-        <v>102124</v>
+        <v>106408</v>
       </c>
       <c r="F46" s="37">
-        <v>28563</v>
+        <v>30194</v>
       </c>
       <c r="G46" s="38">
         <v>801716</v>
@@ -3346,13 +3348,13 @@
         <v>500</v>
       </c>
       <c r="D47" s="37">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="E47" s="37">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F47" s="37">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G47" s="38">
         <v>2263</v>
@@ -3381,13 +3383,13 @@
         <v>2400</v>
       </c>
       <c r="D48" s="37">
-        <v>2644</v>
+        <v>2735</v>
       </c>
       <c r="E48" s="37">
-        <v>2132</v>
+        <v>2188</v>
       </c>
       <c r="F48" s="37">
-        <v>512</v>
+        <v>547</v>
       </c>
       <c r="G48" s="38">
         <v>17107</v>
@@ -3416,13 +3418,13 @@
         <v>17500</v>
       </c>
       <c r="D49" s="37">
-        <v>17804</v>
+        <v>19130</v>
       </c>
       <c r="E49" s="37">
-        <v>13617</v>
+        <v>14751</v>
       </c>
       <c r="F49" s="37">
-        <v>4187</v>
+        <v>4379</v>
       </c>
       <c r="G49" s="38">
         <v>125307</v>
@@ -3451,13 +3453,13 @@
         <v>2850</v>
       </c>
       <c r="D50" s="37">
-        <v>1972</v>
+        <v>2031</v>
       </c>
       <c r="E50" s="37">
-        <v>1476</v>
+        <v>1493</v>
       </c>
       <c r="F50" s="37">
-        <v>496</v>
+        <v>538</v>
       </c>
       <c r="G50" s="38">
         <v>10944</v>
@@ -3486,13 +3488,13 @@
         <v>300</v>
       </c>
       <c r="D51" s="37">
-        <v>436</v>
+        <v>495</v>
       </c>
       <c r="E51" s="37">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="F51" s="37">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G51" s="38">
         <v>2288</v>
@@ -3521,13 +3523,13 @@
         <v>4100</v>
       </c>
       <c r="D52" s="37">
-        <v>3609</v>
+        <v>3842</v>
       </c>
       <c r="E52" s="37">
-        <v>2490</v>
+        <v>2685</v>
       </c>
       <c r="F52" s="37">
-        <v>1119</v>
+        <v>1157</v>
       </c>
       <c r="G52" s="38">
         <v>32675</v>
@@ -3556,13 +3558,13 @@
         <v>7075</v>
       </c>
       <c r="D53" s="37">
-        <v>5309</v>
+        <v>5516</v>
       </c>
       <c r="E53" s="37">
-        <v>4202</v>
+        <v>4297</v>
       </c>
       <c r="F53" s="37">
-        <v>1107</v>
+        <v>1219</v>
       </c>
       <c r="G53" s="38">
         <v>60428</v>
@@ -3591,13 +3593,13 @@
         <v>0</v>
       </c>
       <c r="D54" s="37">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E54" s="37">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F54" s="37">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G54" s="38">
         <v>1123</v>
@@ -3626,13 +3628,13 @@
         <v>2150</v>
       </c>
       <c r="D55" s="37">
-        <v>691</v>
+        <v>753</v>
       </c>
       <c r="E55" s="37">
-        <v>568</v>
+        <v>625</v>
       </c>
       <c r="F55" s="37">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G55" s="38">
         <v>3554</v>
@@ -3661,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="D56" s="37">
-        <v>728</v>
+        <v>777</v>
       </c>
       <c r="E56" s="37">
-        <v>506</v>
+        <v>536</v>
       </c>
       <c r="F56" s="37">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="G56" s="38">
         <v>2694</v>
@@ -3696,13 +3698,13 @@
         <v>2350</v>
       </c>
       <c r="D57" s="37">
-        <v>1337</v>
+        <v>1367</v>
       </c>
       <c r="E57" s="37">
-        <v>1119</v>
+        <v>1137</v>
       </c>
       <c r="F57" s="37">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="G57" s="38">
         <v>4421</v>
@@ -3731,13 +3733,13 @@
         <v>400</v>
       </c>
       <c r="D58" s="37">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="E58" s="37">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F58" s="37">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G58" s="38">
         <v>1746</v>
@@ -3766,13 +3768,13 @@
         <v>4800</v>
       </c>
       <c r="D59" s="37">
-        <v>1537</v>
+        <v>1580</v>
       </c>
       <c r="E59" s="37">
-        <v>1392</v>
+        <v>1437</v>
       </c>
       <c r="F59" s="37">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G59" s="38">
         <v>5217</v>
@@ -3801,13 +3803,13 @@
         <v>456375</v>
       </c>
       <c r="D60" s="37">
-        <v>297573</v>
+        <v>308637</v>
       </c>
       <c r="E60" s="37">
-        <v>223999</v>
+        <v>229682</v>
       </c>
       <c r="F60" s="37">
-        <v>73574</v>
+        <v>78955</v>
       </c>
       <c r="G60" s="38">
         <v>2028105</v>
@@ -3836,13 +3838,13 @@
         <v>700</v>
       </c>
       <c r="D61" s="37">
-        <v>909</v>
+        <v>950</v>
       </c>
       <c r="E61" s="37">
-        <v>740</v>
+        <v>770</v>
       </c>
       <c r="F61" s="37">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="G61" s="38">
         <v>9789</v>
@@ -3871,13 +3873,13 @@
         <v>1900</v>
       </c>
       <c r="D62" s="37">
-        <v>2121</v>
+        <v>2238</v>
       </c>
       <c r="E62" s="37">
-        <v>1437</v>
+        <v>1541</v>
       </c>
       <c r="F62" s="37">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="G62" s="38">
         <v>13439</v>
@@ -3906,13 +3908,13 @@
         <v>200</v>
       </c>
       <c r="D63" s="37">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E63" s="37">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F63" s="37">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G63" s="38">
         <v>4222</v>
@@ -3941,13 +3943,13 @@
         <v>104750</v>
       </c>
       <c r="D64" s="37">
-        <v>64981</v>
+        <v>67328</v>
       </c>
       <c r="E64" s="37">
-        <v>45942</v>
+        <v>47249</v>
       </c>
       <c r="F64" s="37">
-        <v>19039</v>
+        <v>20079</v>
       </c>
       <c r="G64" s="38">
         <v>697330</v>
@@ -3976,13 +3978,13 @@
         <v>800</v>
       </c>
       <c r="D65" s="37">
-        <v>1506</v>
+        <v>1655</v>
       </c>
       <c r="E65" s="37">
-        <v>1042</v>
+        <v>1167</v>
       </c>
       <c r="F65" s="37">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="G65" s="38">
         <v>16110</v>
@@ -4011,13 +4013,13 @@
         <v>0</v>
       </c>
       <c r="D66" s="37">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E66" s="37">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F66" s="37">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G66" s="38">
         <v>1858</v>
@@ -4046,13 +4048,13 @@
         <v>5975</v>
       </c>
       <c r="D67" s="37">
-        <v>2738</v>
+        <v>2813</v>
       </c>
       <c r="E67" s="37">
-        <v>2472</v>
+        <v>2494</v>
       </c>
       <c r="F67" s="37">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="G67" s="38">
         <v>7539</v>
@@ -4081,13 +4083,13 @@
         <v>200</v>
       </c>
       <c r="D68" s="37">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E68" s="37">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F68" s="37">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G68" s="38">
         <v>2716</v>
@@ -4116,13 +4118,13 @@
         <v>700</v>
       </c>
       <c r="D69" s="37">
-        <v>1516</v>
+        <v>1737</v>
       </c>
       <c r="E69" s="37">
-        <v>1277</v>
+        <v>1329</v>
       </c>
       <c r="F69" s="37">
-        <v>239</v>
+        <v>408</v>
       </c>
       <c r="G69" s="38">
         <v>8600</v>
@@ -4151,13 +4153,13 @@
         <v>1100</v>
       </c>
       <c r="D70" s="37">
-        <v>1768</v>
+        <v>1775</v>
       </c>
       <c r="E70" s="37">
-        <v>1219</v>
+        <v>1227</v>
       </c>
       <c r="F70" s="37">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G70" s="38">
         <v>14970</v>
@@ -4186,13 +4188,13 @@
         <v>33300</v>
       </c>
       <c r="D71" s="37">
-        <v>18889</v>
+        <v>22468</v>
       </c>
       <c r="E71" s="37">
-        <v>14447</v>
+        <v>17648</v>
       </c>
       <c r="F71" s="37">
-        <v>4442</v>
+        <v>4820</v>
       </c>
       <c r="G71" s="38">
         <v>120896</v>
@@ -4221,13 +4223,13 @@
         <v>0</v>
       </c>
       <c r="D72" s="37">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="E72" s="37">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F72" s="37">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G72" s="38">
         <v>1555</v>
@@ -4256,13 +4258,13 @@
         <v>161575</v>
       </c>
       <c r="D73" s="37">
-        <v>141506</v>
+        <v>146514</v>
       </c>
       <c r="E73" s="37">
-        <v>100642</v>
+        <v>103493</v>
       </c>
       <c r="F73" s="37">
-        <v>40864</v>
+        <v>43021</v>
       </c>
       <c r="G73" s="38">
         <v>640180</v>
@@ -4291,13 +4293,13 @@
         <v>14300</v>
       </c>
       <c r="D74" s="37">
-        <v>21084</v>
+        <v>22010</v>
       </c>
       <c r="E74" s="37">
-        <v>16176</v>
+        <v>16853</v>
       </c>
       <c r="F74" s="37">
-        <v>4908</v>
+        <v>5157</v>
       </c>
       <c r="G74" s="38">
         <v>141665</v>
@@ -4326,13 +4328,13 @@
         <v>2400</v>
       </c>
       <c r="D75" s="37">
-        <v>3526</v>
+        <v>3855</v>
       </c>
       <c r="E75" s="37">
-        <v>2680</v>
+        <v>2965</v>
       </c>
       <c r="F75" s="37">
-        <v>846</v>
+        <v>890</v>
       </c>
       <c r="G75" s="38">
         <v>34875</v>
@@ -4361,13 +4363,13 @@
         <v>5575</v>
       </c>
       <c r="D76" s="37">
-        <v>1889</v>
+        <v>1991</v>
       </c>
       <c r="E76" s="37">
-        <v>1637</v>
+        <v>1713</v>
       </c>
       <c r="F76" s="37">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="G76" s="38">
         <v>14049</v>
@@ -4396,13 +4398,13 @@
         <v>8375</v>
       </c>
       <c r="D77" s="37">
-        <v>4468</v>
+        <v>4503</v>
       </c>
       <c r="E77" s="37">
-        <v>3141</v>
+        <v>3170</v>
       </c>
       <c r="F77" s="37">
-        <v>1327</v>
+        <v>1333</v>
       </c>
       <c r="G77" s="38">
         <v>28874</v>
@@ -4431,13 +4433,13 @@
         <v>1400</v>
       </c>
       <c r="D78" s="37">
-        <v>2449</v>
+        <v>2671</v>
       </c>
       <c r="E78" s="37">
-        <v>1982</v>
+        <v>2129</v>
       </c>
       <c r="F78" s="37">
-        <v>467</v>
+        <v>542</v>
       </c>
       <c r="G78" s="38">
         <v>20879</v>
@@ -4466,13 +4468,13 @@
         <v>600</v>
       </c>
       <c r="D79" s="37">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="E79" s="37">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="F79" s="37">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G79" s="38">
         <v>3088</v>
@@ -4501,13 +4503,13 @@
         <v>600</v>
       </c>
       <c r="D80" s="37">
-        <v>946</v>
+        <v>1022</v>
       </c>
       <c r="E80" s="37">
-        <v>686</v>
+        <v>743</v>
       </c>
       <c r="F80" s="37">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="G80" s="38">
         <v>4371</v>
@@ -4536,10 +4538,10 @@
         <v>400</v>
       </c>
       <c r="D81" s="37">
-        <v>430</v>
+        <v>521</v>
       </c>
       <c r="E81" s="37">
-        <v>299</v>
+        <v>390</v>
       </c>
       <c r="F81" s="37">
         <v>131</v>
@@ -4571,13 +4573,13 @@
         <v>97850</v>
       </c>
       <c r="D82" s="37">
-        <v>112866</v>
+        <v>118222</v>
       </c>
       <c r="E82" s="37">
-        <v>84166</v>
+        <v>87257</v>
       </c>
       <c r="F82" s="37">
-        <v>28700</v>
+        <v>30965</v>
       </c>
       <c r="G82" s="38">
         <v>616413</v>
@@ -4606,13 +4608,13 @@
         <v>900</v>
       </c>
       <c r="D83" s="37">
-        <v>836</v>
+        <v>872</v>
       </c>
       <c r="E83" s="37">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="F83" s="37">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="G83" s="38">
         <v>8554</v>
@@ -4641,13 +4643,13 @@
         <v>1200</v>
       </c>
       <c r="D84" s="37">
-        <v>1165</v>
+        <v>1212</v>
       </c>
       <c r="E84" s="37">
-        <v>831</v>
+        <v>868</v>
       </c>
       <c r="F84" s="37">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="G84" s="38">
         <v>15808</v>
@@ -4676,13 +4678,13 @@
         <v>3475</v>
       </c>
       <c r="D85" s="37">
-        <v>2630</v>
+        <v>2705</v>
       </c>
       <c r="E85" s="37">
-        <v>1941</v>
+        <v>1961</v>
       </c>
       <c r="F85" s="37">
-        <v>689</v>
+        <v>744</v>
       </c>
       <c r="G85" s="38">
         <v>16121</v>
@@ -4711,13 +4713,13 @@
         <v>1400</v>
       </c>
       <c r="D86" s="37">
-        <v>1426</v>
+        <v>1471</v>
       </c>
       <c r="E86" s="37">
-        <v>876</v>
+        <v>917</v>
       </c>
       <c r="F86" s="37">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="G86" s="38">
         <v>14548</v>
@@ -4746,13 +4748,13 @@
         <v>56950</v>
       </c>
       <c r="D87" s="37">
-        <v>55053</v>
+        <v>57482</v>
       </c>
       <c r="E87" s="37">
-        <v>38801</v>
+        <v>40019</v>
       </c>
       <c r="F87" s="37">
-        <v>16252</v>
+        <v>17463</v>
       </c>
       <c r="G87" s="38">
         <v>269280</v>
@@ -4781,13 +4783,13 @@
         <v>400</v>
       </c>
       <c r="D88" s="37">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="E88" s="37">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="F88" s="37">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G88" s="38">
         <v>5325</v>
@@ -4816,13 +4818,13 @@
         <v>6700</v>
       </c>
       <c r="D89" s="37">
-        <v>4610</v>
+        <v>4752</v>
       </c>
       <c r="E89" s="37">
-        <v>3768</v>
+        <v>3856</v>
       </c>
       <c r="F89" s="37">
-        <v>842</v>
+        <v>896</v>
       </c>
       <c r="G89" s="38">
         <v>22307</v>
@@ -4851,13 +4853,13 @@
         <v>0</v>
       </c>
       <c r="D90" s="37">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E90" s="37">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F90" s="37">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G90" s="38">
         <v>1099</v>
@@ -4886,13 +4888,13 @@
         <v>200</v>
       </c>
       <c r="D91" s="37">
-        <v>977</v>
+        <v>1172</v>
       </c>
       <c r="E91" s="37">
-        <v>765</v>
+        <v>949</v>
       </c>
       <c r="F91" s="37">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="G91" s="38">
         <v>6281</v>
@@ -4921,13 +4923,13 @@
         <v>1700</v>
       </c>
       <c r="D92" s="37">
-        <v>2257</v>
+        <v>2324</v>
       </c>
       <c r="E92" s="37">
-        <v>1604</v>
+        <v>1641</v>
       </c>
       <c r="F92" s="37">
-        <v>653</v>
+        <v>683</v>
       </c>
       <c r="G92" s="38">
         <v>15937</v>
@@ -4956,13 +4958,13 @@
         <v>1400</v>
       </c>
       <c r="D93" s="37">
-        <v>2553</v>
+        <v>2578</v>
       </c>
       <c r="E93" s="37">
-        <v>1718</v>
+        <v>1729</v>
       </c>
       <c r="F93" s="37">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="G93" s="38">
         <v>16924</v>
@@ -4991,13 +4993,13 @@
         <v>24100</v>
       </c>
       <c r="D94" s="37">
-        <v>14776</v>
+        <v>15122</v>
       </c>
       <c r="E94" s="37">
-        <v>10226</v>
+        <v>10470</v>
       </c>
       <c r="F94" s="37">
-        <v>4550</v>
+        <v>4652</v>
       </c>
       <c r="G94" s="38">
         <v>107521</v>
@@ -5026,13 +5028,13 @@
         <v>23800</v>
       </c>
       <c r="D95" s="37">
-        <v>13205</v>
+        <v>13513</v>
       </c>
       <c r="E95" s="37">
-        <v>10113</v>
+        <v>10252</v>
       </c>
       <c r="F95" s="37">
-        <v>3092</v>
+        <v>3261</v>
       </c>
       <c r="G95" s="38">
         <v>95544</v>
@@ -5061,13 +5063,13 @@
         <v>1400</v>
       </c>
       <c r="D96" s="37">
-        <v>2011</v>
+        <v>2090</v>
       </c>
       <c r="E96" s="37">
-        <v>1534</v>
+        <v>1596</v>
       </c>
       <c r="F96" s="37">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="G96" s="38">
         <v>23245</v>
@@ -5096,13 +5098,13 @@
         <v>16625</v>
       </c>
       <c r="D97" s="37">
-        <v>14661</v>
+        <v>15617</v>
       </c>
       <c r="E97" s="37">
-        <v>11104</v>
+        <v>11828</v>
       </c>
       <c r="F97" s="37">
-        <v>3557</v>
+        <v>3789</v>
       </c>
       <c r="G97" s="38">
         <v>130517</v>
@@ -5131,13 +5133,13 @@
         <v>3300</v>
       </c>
       <c r="D98" s="37">
-        <v>3740</v>
+        <v>4109</v>
       </c>
       <c r="E98" s="37">
-        <v>2576</v>
+        <v>2778</v>
       </c>
       <c r="F98" s="37">
-        <v>1164</v>
+        <v>1331</v>
       </c>
       <c r="G98" s="38">
         <v>25476</v>
@@ -5166,13 +5168,13 @@
         <v>0</v>
       </c>
       <c r="D99" s="37">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="E99" s="37">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="F99" s="37">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G99" s="38">
         <v>2406</v>
@@ -5201,13 +5203,13 @@
         <v>1800</v>
       </c>
       <c r="D100" s="37">
-        <v>2319</v>
+        <v>2376</v>
       </c>
       <c r="E100" s="37">
-        <v>1758</v>
+        <v>1810</v>
       </c>
       <c r="F100" s="37">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="G100" s="38">
         <v>6832</v>
@@ -5236,10 +5238,10 @@
         <v>700</v>
       </c>
       <c r="D101" s="37">
-        <v>869</v>
+        <v>880</v>
       </c>
       <c r="E101" s="37">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="F101" s="37">
         <v>238</v>
@@ -5271,13 +5273,13 @@
         <v>1000</v>
       </c>
       <c r="D102" s="37">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="E102" s="37">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F102" s="37">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G102" s="38">
         <v>3190</v>
@@ -5306,13 +5308,13 @@
         <v>5400</v>
       </c>
       <c r="D103" s="37">
-        <v>6066</v>
+        <v>6301</v>
       </c>
       <c r="E103" s="37">
-        <v>4631</v>
+        <v>4812</v>
       </c>
       <c r="F103" s="37">
-        <v>1435</v>
+        <v>1489</v>
       </c>
       <c r="G103" s="38">
         <v>45112</v>
@@ -5341,13 +5343,13 @@
         <v>759025</v>
       </c>
       <c r="D104" s="37">
-        <v>540775</v>
+        <v>565807</v>
       </c>
       <c r="E104" s="37">
-        <v>385575</v>
+        <v>399072</v>
       </c>
       <c r="F104" s="37">
-        <v>155200</v>
+        <v>166735</v>
       </c>
       <c r="G104" s="38">
         <v>3601939</v>
@@ -5376,13 +5378,13 @@
         <v>4200</v>
       </c>
       <c r="D105" s="37">
-        <v>3983</v>
+        <v>4344</v>
       </c>
       <c r="E105" s="37">
-        <v>2935</v>
+        <v>3200</v>
       </c>
       <c r="F105" s="37">
-        <v>1048</v>
+        <v>1144</v>
       </c>
       <c r="G105" s="38">
         <v>51900</v>
@@ -5411,13 +5413,13 @@
         <v>1475</v>
       </c>
       <c r="D106" s="37">
-        <v>638</v>
+        <v>670</v>
       </c>
       <c r="E106" s="37">
-        <v>577</v>
+        <v>606</v>
       </c>
       <c r="F106" s="37">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G106" s="38">
         <v>4561</v>
@@ -5446,10 +5448,10 @@
         <v>600</v>
       </c>
       <c r="D107" s="37">
-        <v>884</v>
+        <v>908</v>
       </c>
       <c r="E107" s="37">
-        <v>766</v>
+        <v>790</v>
       </c>
       <c r="F107" s="37">
         <v>118</v>
@@ -5481,13 +5483,13 @@
         <v>28550</v>
       </c>
       <c r="D108" s="37">
-        <v>24926</v>
+        <v>25721</v>
       </c>
       <c r="E108" s="37">
-        <v>19210</v>
+        <v>19655</v>
       </c>
       <c r="F108" s="37">
-        <v>5716</v>
+        <v>6066</v>
       </c>
       <c r="G108" s="38">
         <v>183380</v>
@@ -5516,13 +5518,13 @@
         <v>1300</v>
       </c>
       <c r="D109" s="37">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="E109" s="37">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F109" s="37">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G109" s="38">
         <v>2827</v>
@@ -5551,13 +5553,13 @@
         <v>5000</v>
       </c>
       <c r="D110" s="37">
-        <v>5843</v>
+        <v>6167</v>
       </c>
       <c r="E110" s="37">
-        <v>4470</v>
+        <v>4673</v>
       </c>
       <c r="F110" s="37">
-        <v>1373</v>
+        <v>1494</v>
       </c>
       <c r="G110" s="38">
         <v>67238</v>
@@ -5586,13 +5588,13 @@
         <v>160975</v>
       </c>
       <c r="D111" s="37">
-        <v>102432</v>
+        <v>109643</v>
       </c>
       <c r="E111" s="37">
-        <v>75597</v>
+        <v>76999</v>
       </c>
       <c r="F111" s="37">
-        <v>26835</v>
+        <v>32644</v>
       </c>
       <c r="G111" s="38">
         <v>620824</v>
@@ -5621,13 +5623,13 @@
         <v>1900</v>
       </c>
       <c r="D112" s="37">
-        <v>3678</v>
+        <v>3900</v>
       </c>
       <c r="E112" s="37">
-        <v>2694</v>
+        <v>2743</v>
       </c>
       <c r="F112" s="37">
-        <v>984</v>
+        <v>1157</v>
       </c>
       <c r="G112" s="38">
         <v>29198</v>
@@ -5656,13 +5658,13 @@
         <v>1200</v>
       </c>
       <c r="D113" s="37">
-        <v>3003</v>
+        <v>3120</v>
       </c>
       <c r="E113" s="37">
-        <v>2371</v>
+        <v>2443</v>
       </c>
       <c r="F113" s="37">
-        <v>632</v>
+        <v>677</v>
       </c>
       <c r="G113" s="38">
         <v>17799</v>
@@ -5691,13 +5693,13 @@
         <v>4500</v>
       </c>
       <c r="D114" s="37">
-        <v>6430</v>
+        <v>6556</v>
       </c>
       <c r="E114" s="37">
-        <v>5285</v>
+        <v>5359</v>
       </c>
       <c r="F114" s="37">
-        <v>1145</v>
+        <v>1197</v>
       </c>
       <c r="G114" s="38">
         <v>50193</v>
@@ -5726,13 +5728,13 @@
         <v>3100</v>
       </c>
       <c r="D115" s="37">
-        <v>2129</v>
+        <v>2163</v>
       </c>
       <c r="E115" s="37">
-        <v>1624</v>
+        <v>1635</v>
       </c>
       <c r="F115" s="37">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="G115" s="38">
         <v>29175</v>
@@ -5761,13 +5763,13 @@
         <v>2000</v>
       </c>
       <c r="D116" s="37">
-        <v>2140</v>
+        <v>2157</v>
       </c>
       <c r="E116" s="37">
-        <v>1431</v>
+        <v>1438</v>
       </c>
       <c r="F116" s="37">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="G116" s="38">
         <v>18929</v>
@@ -5796,13 +5798,13 @@
         <v>3100</v>
       </c>
       <c r="D117" s="37">
-        <v>2485</v>
+        <v>2682</v>
       </c>
       <c r="E117" s="37">
-        <v>1676</v>
+        <v>1747</v>
       </c>
       <c r="F117" s="37">
-        <v>809</v>
+        <v>935</v>
       </c>
       <c r="G117" s="38">
         <v>29544</v>
@@ -5831,13 +5833,13 @@
         <v>300</v>
       </c>
       <c r="D118" s="37">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="E118" s="37">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="F118" s="37">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="G118" s="38">
         <v>3979</v>
@@ -5866,13 +5868,13 @@
         <v>8150</v>
       </c>
       <c r="D119" s="37">
-        <v>8851</v>
+        <v>8962</v>
       </c>
       <c r="E119" s="37">
-        <v>6144</v>
+        <v>6214</v>
       </c>
       <c r="F119" s="37">
-        <v>2707</v>
+        <v>2748</v>
       </c>
       <c r="G119" s="38">
         <v>77878</v>
@@ -5901,13 +5903,13 @@
         <v>1000</v>
       </c>
       <c r="D120" s="37">
-        <v>2151</v>
+        <v>2281</v>
       </c>
       <c r="E120" s="37">
-        <v>1562</v>
+        <v>1641</v>
       </c>
       <c r="F120" s="37">
-        <v>589</v>
+        <v>640</v>
       </c>
       <c r="G120" s="38">
         <v>16258</v>
@@ -5936,13 +5938,13 @@
         <v>0</v>
       </c>
       <c r="D121" s="37">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E121" s="37">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F121" s="37">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G121" s="38">
         <v>1234</v>
@@ -5971,13 +5973,13 @@
         <v>1100</v>
       </c>
       <c r="D122" s="37">
-        <v>1135</v>
+        <v>1145</v>
       </c>
       <c r="E122" s="37">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="F122" s="37">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G122" s="38">
         <v>7230</v>
@@ -6006,13 +6008,13 @@
         <v>3750</v>
       </c>
       <c r="D123" s="37">
-        <v>2499</v>
+        <v>2536</v>
       </c>
       <c r="E123" s="37">
-        <v>1920</v>
+        <v>1947</v>
       </c>
       <c r="F123" s="37">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="G123" s="38">
         <v>11425</v>
@@ -6041,13 +6043,13 @@
         <v>7200</v>
       </c>
       <c r="D124" s="37">
-        <v>4224</v>
+        <v>4442</v>
       </c>
       <c r="E124" s="37">
-        <v>3752</v>
+        <v>3945</v>
       </c>
       <c r="F124" s="37">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="G124" s="38">
         <v>28056</v>
@@ -6076,13 +6078,13 @@
         <v>200</v>
       </c>
       <c r="D125" s="37">
-        <v>529</v>
+        <v>650</v>
       </c>
       <c r="E125" s="37">
-        <v>482</v>
+        <v>600</v>
       </c>
       <c r="F125" s="37">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G125" s="38">
         <v>2180</v>
@@ -6111,13 +6113,13 @@
         <v>41200</v>
       </c>
       <c r="D126" s="37">
-        <v>18898</v>
+        <v>20246</v>
       </c>
       <c r="E126" s="37">
-        <v>14858</v>
+        <v>16025</v>
       </c>
       <c r="F126" s="37">
-        <v>4040</v>
+        <v>4221</v>
       </c>
       <c r="G126" s="38">
         <v>197382</v>
@@ -6146,13 +6148,13 @@
         <v>300</v>
       </c>
       <c r="D127" s="37">
-        <v>1080</v>
+        <v>1104</v>
       </c>
       <c r="E127" s="37">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="F127" s="37">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="G127" s="38">
         <v>3791</v>
@@ -6181,13 +6183,13 @@
         <v>6675</v>
       </c>
       <c r="D128" s="37">
-        <v>6173</v>
+        <v>6422</v>
       </c>
       <c r="E128" s="37">
-        <v>5218</v>
+        <v>5348</v>
       </c>
       <c r="F128" s="37">
-        <v>955</v>
+        <v>1074</v>
       </c>
       <c r="G128" s="38">
         <v>30579</v>
@@ -6216,13 +6218,13 @@
         <v>7400</v>
       </c>
       <c r="D129" s="37">
-        <v>14077</v>
+        <v>14482</v>
       </c>
       <c r="E129" s="37">
-        <v>10055</v>
+        <v>10167</v>
       </c>
       <c r="F129" s="37">
-        <v>4022</v>
+        <v>4315</v>
       </c>
       <c r="G129" s="38">
         <v>135345</v>
@@ -6251,13 +6253,13 @@
         <v>500</v>
       </c>
       <c r="D130" s="37">
-        <v>1515</v>
+        <v>1572</v>
       </c>
       <c r="E130" s="37">
-        <v>1168</v>
+        <v>1202</v>
       </c>
       <c r="F130" s="37">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="G130" s="38">
         <v>17011</v>
@@ -6286,13 +6288,13 @@
         <v>2000</v>
       </c>
       <c r="D131" s="37">
-        <v>1660</v>
+        <v>1726</v>
       </c>
       <c r="E131" s="37">
-        <v>1294</v>
+        <v>1337</v>
       </c>
       <c r="F131" s="37">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="G131" s="38">
         <v>12669</v>
@@ -6321,13 +6323,13 @@
         <v>5550</v>
       </c>
       <c r="D132" s="37">
-        <v>12163</v>
+        <v>12582</v>
       </c>
       <c r="E132" s="37">
-        <v>8493</v>
+        <v>8724</v>
       </c>
       <c r="F132" s="37">
-        <v>3670</v>
+        <v>3858</v>
       </c>
       <c r="G132" s="38">
         <v>102341</v>
@@ -6356,13 +6358,13 @@
         <v>2900</v>
       </c>
       <c r="D133" s="37">
-        <v>5496</v>
+        <v>5782</v>
       </c>
       <c r="E133" s="37">
-        <v>3990</v>
+        <v>4181</v>
       </c>
       <c r="F133" s="37">
-        <v>1506</v>
+        <v>1601</v>
       </c>
       <c r="G133" s="38">
         <v>37890</v>
@@ -6391,13 +6393,13 @@
         <v>0</v>
       </c>
       <c r="D134" s="37">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E134" s="37">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F134" s="37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G134" s="38">
         <v>321</v>
@@ -6426,13 +6428,13 @@
         <v>0</v>
       </c>
       <c r="D135" s="37">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="E135" s="37">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="F135" s="37">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G135" s="38">
         <v>615</v>
@@ -6461,13 +6463,13 @@
         <v>5300</v>
       </c>
       <c r="D136" s="37">
-        <v>5377</v>
+        <v>5738</v>
       </c>
       <c r="E136" s="37">
-        <v>4072</v>
+        <v>4401</v>
       </c>
       <c r="F136" s="37">
-        <v>1305</v>
+        <v>1337</v>
       </c>
       <c r="G136" s="38">
         <v>43793</v>
@@ -6496,10 +6498,10 @@
         <v>700</v>
       </c>
       <c r="D137" s="37">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="E137" s="37">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="F137" s="37">
         <v>81</v>
@@ -6531,13 +6533,13 @@
         <v>0</v>
       </c>
       <c r="D138" s="37">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E138" s="37">
         <v>27</v>
       </c>
       <c r="F138" s="37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G138" s="38">
         <v>205</v>
@@ -6566,13 +6568,13 @@
         <v>200</v>
       </c>
       <c r="D139" s="37">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="E139" s="37">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="F139" s="37">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G139" s="38">
         <v>3050</v>
@@ -6601,13 +6603,13 @@
         <v>10175</v>
       </c>
       <c r="D140" s="37">
-        <v>7296</v>
+        <v>7629</v>
       </c>
       <c r="E140" s="37">
-        <v>6706</v>
+        <v>6790</v>
       </c>
       <c r="F140" s="37">
-        <v>590</v>
+        <v>839</v>
       </c>
       <c r="G140" s="38">
         <v>24188</v>
@@ -6636,13 +6638,13 @@
         <v>700</v>
       </c>
       <c r="D141" s="37">
-        <v>825</v>
+        <v>847</v>
       </c>
       <c r="E141" s="37">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="F141" s="37">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G141" s="38">
         <v>2808</v>
@@ -6671,13 +6673,13 @@
         <v>4400</v>
       </c>
       <c r="D142" s="37">
-        <v>1823</v>
+        <v>2351</v>
       </c>
       <c r="E142" s="37">
-        <v>1703</v>
+        <v>1715</v>
       </c>
       <c r="F142" s="37">
-        <v>120</v>
+        <v>636</v>
       </c>
       <c r="G142" s="38">
         <v>6212</v>
@@ -6706,13 +6708,13 @@
         <v>6500</v>
       </c>
       <c r="D143" s="37">
-        <v>5772</v>
+        <v>5808</v>
       </c>
       <c r="E143" s="37">
-        <v>4300</v>
+        <v>4314</v>
       </c>
       <c r="F143" s="37">
-        <v>1472</v>
+        <v>1494</v>
       </c>
       <c r="G143" s="38">
         <v>39402</v>
@@ -6741,13 +6743,13 @@
         <v>600</v>
       </c>
       <c r="D144" s="37">
-        <v>1968</v>
+        <v>2196</v>
       </c>
       <c r="E144" s="37">
-        <v>1550</v>
+        <v>1608</v>
       </c>
       <c r="F144" s="37">
-        <v>418</v>
+        <v>588</v>
       </c>
       <c r="G144" s="38">
         <v>9740</v>
@@ -6776,13 +6778,13 @@
         <v>800</v>
       </c>
       <c r="D145" s="37">
-        <v>1584</v>
+        <v>1665</v>
       </c>
       <c r="E145" s="37">
-        <v>1265</v>
+        <v>1324</v>
       </c>
       <c r="F145" s="37">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="G145" s="38">
         <v>17366</v>
@@ -6811,13 +6813,13 @@
         <v>2300</v>
       </c>
       <c r="D146" s="37">
-        <v>2580</v>
+        <v>2795</v>
       </c>
       <c r="E146" s="37">
-        <v>1630</v>
+        <v>1753</v>
       </c>
       <c r="F146" s="37">
-        <v>950</v>
+        <v>1042</v>
       </c>
       <c r="G146" s="38">
         <v>16004</v>
@@ -6846,13 +6848,13 @@
         <v>800</v>
       </c>
       <c r="D147" s="37">
-        <v>1342</v>
+        <v>1394</v>
       </c>
       <c r="E147" s="37">
-        <v>993</v>
+        <v>1018</v>
       </c>
       <c r="F147" s="37">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="G147" s="38">
         <v>13993</v>
@@ -6881,13 +6883,13 @@
         <v>900</v>
       </c>
       <c r="D148" s="37">
-        <v>1006</v>
+        <v>1038</v>
       </c>
       <c r="E148" s="37">
-        <v>706</v>
+        <v>730</v>
       </c>
       <c r="F148" s="37">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="G148" s="38">
         <v>13946</v>
@@ -6916,13 +6918,13 @@
         <v>9175</v>
       </c>
       <c r="D149" s="37">
-        <v>4935</v>
+        <v>5235</v>
       </c>
       <c r="E149" s="37">
-        <v>3532</v>
+        <v>3656</v>
       </c>
       <c r="F149" s="37">
-        <v>1403</v>
+        <v>1579</v>
       </c>
       <c r="G149" s="38">
         <v>66868</v>
@@ -6951,13 +6953,13 @@
         <v>1700</v>
       </c>
       <c r="D150" s="37">
-        <v>1631</v>
+        <v>1699</v>
       </c>
       <c r="E150" s="37">
-        <v>1185</v>
+        <v>1226</v>
       </c>
       <c r="F150" s="37">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="G150" s="38">
         <v>18871</v>
@@ -6986,13 +6988,13 @@
         <v>200</v>
       </c>
       <c r="D151" s="37">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="E151" s="37">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="F151" s="37">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G151" s="38">
         <v>2520</v>
@@ -7021,13 +7023,13 @@
         <v>400</v>
       </c>
       <c r="D152" s="37">
-        <v>1328</v>
+        <v>1483</v>
       </c>
       <c r="E152" s="37">
-        <v>1024</v>
+        <v>1149</v>
       </c>
       <c r="F152" s="37">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="G152" s="38">
         <v>10055</v>
@@ -7056,13 +7058,13 @@
         <v>1200</v>
       </c>
       <c r="D153" s="37">
-        <v>2508</v>
+        <v>2536</v>
       </c>
       <c r="E153" s="37">
-        <v>2093</v>
+        <v>2099</v>
       </c>
       <c r="F153" s="37">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="G153" s="38">
         <v>18908</v>
@@ -7126,13 +7128,13 @@
         <v>95200</v>
       </c>
       <c r="D155" s="37">
-        <v>66138</v>
+        <v>68298</v>
       </c>
       <c r="E155" s="37">
-        <v>48045</v>
+        <v>48804</v>
       </c>
       <c r="F155" s="37">
-        <v>18093</v>
+        <v>19494</v>
       </c>
       <c r="G155" s="38">
         <v>244992</v>
@@ -7161,13 +7163,13 @@
         <v>400</v>
       </c>
       <c r="D156" s="37">
-        <v>889</v>
+        <v>948</v>
       </c>
       <c r="E156" s="37">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="F156" s="37">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="G156" s="38">
         <v>4496</v>
@@ -7196,13 +7198,13 @@
         <v>900</v>
       </c>
       <c r="D157" s="37">
-        <v>709</v>
+        <v>793</v>
       </c>
       <c r="E157" s="37">
-        <v>481</v>
+        <v>564</v>
       </c>
       <c r="F157" s="37">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G157" s="38">
         <v>11595</v>
@@ -7231,13 +7233,13 @@
         <v>0</v>
       </c>
       <c r="D158" s="37">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="E158" s="37">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="F158" s="37">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G158" s="38">
         <v>8277</v>
@@ -7266,10 +7268,10 @@
         <v>800</v>
       </c>
       <c r="D159" s="37">
-        <v>1142</v>
+        <v>1163</v>
       </c>
       <c r="E159" s="37">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="F159" s="37">
         <v>277</v>
@@ -7301,13 +7303,13 @@
         <v>400</v>
       </c>
       <c r="D160" s="37">
-        <v>656</v>
+        <v>731</v>
       </c>
       <c r="E160" s="37">
-        <v>522</v>
+        <v>596</v>
       </c>
       <c r="F160" s="37">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G160" s="38">
         <v>3521</v>
@@ -7336,13 +7338,13 @@
         <v>2900</v>
       </c>
       <c r="D161" s="37">
-        <v>2631</v>
+        <v>2744</v>
       </c>
       <c r="E161" s="37">
-        <v>1812</v>
+        <v>1911</v>
       </c>
       <c r="F161" s="37">
-        <v>819</v>
+        <v>833</v>
       </c>
       <c r="G161" s="38">
         <v>28247</v>
@@ -7371,13 +7373,13 @@
         <v>9100</v>
       </c>
       <c r="D162" s="37">
-        <v>4836</v>
+        <v>4898</v>
       </c>
       <c r="E162" s="37">
-        <v>3857</v>
+        <v>3893</v>
       </c>
       <c r="F162" s="37">
-        <v>979</v>
+        <v>1005</v>
       </c>
       <c r="G162" s="38">
         <v>42606</v>
@@ -7406,13 +7408,13 @@
         <v>1200</v>
       </c>
       <c r="D163" s="37">
-        <v>779</v>
+        <v>828</v>
       </c>
       <c r="E163" s="37">
-        <v>670</v>
+        <v>713</v>
       </c>
       <c r="F163" s="37">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G163" s="38">
         <v>6435</v>
@@ -7441,13 +7443,13 @@
         <v>34950</v>
       </c>
       <c r="D164" s="37">
-        <v>26776</v>
+        <v>28768</v>
       </c>
       <c r="E164" s="37">
-        <v>21379</v>
+        <v>21942</v>
       </c>
       <c r="F164" s="37">
-        <v>5397</v>
+        <v>6826</v>
       </c>
       <c r="G164" s="38">
         <v>200781</v>
@@ -7476,13 +7478,13 @@
         <v>100</v>
       </c>
       <c r="D165" s="37">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E165" s="37">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F165" s="37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G165" s="38">
         <v>616</v>
@@ -7511,13 +7513,13 @@
         <v>2600</v>
       </c>
       <c r="D166" s="37">
-        <v>5004</v>
+        <v>5687</v>
       </c>
       <c r="E166" s="37">
-        <v>3635</v>
+        <v>4138</v>
       </c>
       <c r="F166" s="37">
-        <v>1369</v>
+        <v>1549</v>
       </c>
       <c r="G166" s="38">
         <v>41263</v>
@@ -7546,13 +7548,13 @@
         <v>200</v>
       </c>
       <c r="D167" s="37">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E167" s="37">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="F167" s="37">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G167" s="38">
         <v>1790</v>
@@ -7581,13 +7583,13 @@
         <v>32275</v>
       </c>
       <c r="D168" s="37">
-        <v>21924</v>
+        <v>25016</v>
       </c>
       <c r="E168" s="37">
-        <v>18232</v>
+        <v>21193</v>
       </c>
       <c r="F168" s="37">
-        <v>3692</v>
+        <v>3823</v>
       </c>
       <c r="G168" s="38">
         <v>131025</v>
@@ -7616,13 +7618,13 @@
         <v>2700</v>
       </c>
       <c r="D169" s="37">
-        <v>2604</v>
+        <v>2913</v>
       </c>
       <c r="E169" s="37">
-        <v>1786</v>
+        <v>1811</v>
       </c>
       <c r="F169" s="37">
-        <v>818</v>
+        <v>1102</v>
       </c>
       <c r="G169" s="38">
         <v>19689</v>
@@ -7651,13 +7653,13 @@
         <v>300</v>
       </c>
       <c r="D170" s="37">
-        <v>746</v>
+        <v>791</v>
       </c>
       <c r="E170" s="37">
-        <v>507</v>
+        <v>543</v>
       </c>
       <c r="F170" s="37">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="G170" s="38">
         <v>4006</v>
@@ -7686,13 +7688,13 @@
         <v>1000</v>
       </c>
       <c r="D171" s="37">
-        <v>917</v>
+        <v>935</v>
       </c>
       <c r="E171" s="37">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F171" s="37">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="G171" s="38">
         <v>6958</v>
@@ -7721,13 +7723,13 @@
         <v>2350</v>
       </c>
       <c r="D172" s="37">
-        <v>2523</v>
+        <v>2642</v>
       </c>
       <c r="E172" s="37">
-        <v>2193</v>
+        <v>2219</v>
       </c>
       <c r="F172" s="37">
-        <v>330</v>
+        <v>423</v>
       </c>
       <c r="G172" s="38">
         <v>15872</v>
@@ -7756,13 +7758,13 @@
         <v>74300</v>
       </c>
       <c r="D173" s="37">
-        <v>52494</v>
+        <v>57665</v>
       </c>
       <c r="E173" s="37">
-        <v>37154</v>
+        <v>40783</v>
       </c>
       <c r="F173" s="37">
-        <v>15340</v>
+        <v>16882</v>
       </c>
       <c r="G173" s="38">
         <v>467232</v>
@@ -7791,13 +7793,13 @@
         <v>1500</v>
       </c>
       <c r="D174" s="37">
-        <v>3202</v>
+        <v>4476</v>
       </c>
       <c r="E174" s="37">
-        <v>2296</v>
+        <v>3557</v>
       </c>
       <c r="F174" s="37">
-        <v>906</v>
+        <v>919</v>
       </c>
       <c r="G174" s="38">
         <v>14986</v>
@@ -7826,13 +7828,13 @@
         <v>500</v>
       </c>
       <c r="D175" s="37">
-        <v>820</v>
+        <v>837</v>
       </c>
       <c r="E175" s="37">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="F175" s="37">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G175" s="38">
         <v>9830</v>
@@ -7861,13 +7863,13 @@
         <v>0</v>
       </c>
       <c r="D176" s="37">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E176" s="37">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F176" s="37">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G176" s="38">
         <v>994</v>
@@ -7896,13 +7898,13 @@
         <v>8700</v>
       </c>
       <c r="D177" s="37">
-        <v>8698</v>
+        <v>9777</v>
       </c>
       <c r="E177" s="37">
-        <v>6073</v>
+        <v>6230</v>
       </c>
       <c r="F177" s="37">
-        <v>2625</v>
+        <v>3547</v>
       </c>
       <c r="G177" s="38">
         <v>51773</v>
@@ -7931,13 +7933,13 @@
         <v>7100</v>
       </c>
       <c r="D178" s="37">
-        <v>6300</v>
+        <v>6960</v>
       </c>
       <c r="E178" s="37">
-        <v>5370</v>
+        <v>6005</v>
       </c>
       <c r="F178" s="37">
-        <v>930</v>
+        <v>955</v>
       </c>
       <c r="G178" s="38">
         <v>38360</v>
@@ -7966,13 +7968,13 @@
         <v>900</v>
       </c>
       <c r="D179" s="37">
-        <v>1279</v>
+        <v>1312</v>
       </c>
       <c r="E179" s="37">
-        <v>1096</v>
+        <v>1124</v>
       </c>
       <c r="F179" s="37">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G179" s="38">
         <v>11298</v>
@@ -8001,13 +8003,13 @@
         <v>2200</v>
       </c>
       <c r="D180" s="37">
-        <v>2231</v>
+        <v>2338</v>
       </c>
       <c r="E180" s="37">
-        <v>1637</v>
+        <v>1668</v>
       </c>
       <c r="F180" s="37">
-        <v>594</v>
+        <v>670</v>
       </c>
       <c r="G180" s="38">
         <v>11321</v>
@@ -8036,13 +8038,13 @@
         <v>74275</v>
       </c>
       <c r="D181" s="37">
-        <v>38174</v>
+        <v>40272</v>
       </c>
       <c r="E181" s="37">
-        <v>25876</v>
+        <v>26991</v>
       </c>
       <c r="F181" s="37">
-        <v>12298</v>
+        <v>13281</v>
       </c>
       <c r="G181" s="38">
         <v>284366</v>
@@ -8071,13 +8073,13 @@
         <v>1300</v>
       </c>
       <c r="D182" s="37">
-        <v>1109</v>
+        <v>1171</v>
       </c>
       <c r="E182" s="37">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="F182" s="37">
-        <v>322</v>
+        <v>377</v>
       </c>
       <c r="G182" s="38">
         <v>7106</v>
@@ -8106,13 +8108,13 @@
         <v>300</v>
       </c>
       <c r="D183" s="37">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="E183" s="37">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F183" s="37">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G183" s="38">
         <v>1728</v>
@@ -8141,13 +8143,13 @@
         <v>1600</v>
       </c>
       <c r="D184" s="37">
-        <v>4571</v>
+        <v>5197</v>
       </c>
       <c r="E184" s="37">
-        <v>3748</v>
+        <v>4333</v>
       </c>
       <c r="F184" s="37">
-        <v>823</v>
+        <v>864</v>
       </c>
       <c r="G184" s="38">
         <v>65087</v>
@@ -8176,13 +8178,13 @@
         <v>1800</v>
       </c>
       <c r="D185" s="37">
-        <v>2010</v>
+        <v>2065</v>
       </c>
       <c r="E185" s="37">
-        <v>1463</v>
+        <v>1494</v>
       </c>
       <c r="F185" s="37">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="G185" s="38">
         <v>23207</v>
@@ -8211,13 +8213,13 @@
         <v>1600</v>
       </c>
       <c r="D186" s="37">
-        <v>1589</v>
+        <v>1683</v>
       </c>
       <c r="E186" s="37">
-        <v>1198</v>
+        <v>1236</v>
       </c>
       <c r="F186" s="37">
-        <v>391</v>
+        <v>447</v>
       </c>
       <c r="G186" s="38">
         <v>18462</v>
@@ -8246,13 +8248,13 @@
         <v>15350</v>
       </c>
       <c r="D187" s="37">
-        <v>15393</v>
+        <v>15853</v>
       </c>
       <c r="E187" s="37">
-        <v>11352</v>
+        <v>11620</v>
       </c>
       <c r="F187" s="37">
-        <v>4041</v>
+        <v>4233</v>
       </c>
       <c r="G187" s="38">
         <v>111686</v>
@@ -8281,13 +8283,13 @@
         <v>800</v>
       </c>
       <c r="D188" s="37">
-        <v>1683</v>
+        <v>1782</v>
       </c>
       <c r="E188" s="37">
-        <v>1279</v>
+        <v>1310</v>
       </c>
       <c r="F188" s="37">
-        <v>404</v>
+        <v>472</v>
       </c>
       <c r="G188" s="38">
         <v>7222</v>
@@ -8316,13 +8318,13 @@
         <v>2000</v>
       </c>
       <c r="D189" s="37">
-        <v>2789</v>
+        <v>2871</v>
       </c>
       <c r="E189" s="37">
-        <v>2284</v>
+        <v>2360</v>
       </c>
       <c r="F189" s="37">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="G189" s="38">
         <v>12317</v>
@@ -8351,13 +8353,13 @@
         <v>4300</v>
       </c>
       <c r="D190" s="37">
-        <v>4320</v>
+        <v>4827</v>
       </c>
       <c r="E190" s="37">
-        <v>3364</v>
+        <v>3605</v>
       </c>
       <c r="F190" s="37">
-        <v>956</v>
+        <v>1222</v>
       </c>
       <c r="G190" s="38">
         <v>42276</v>
@@ -8386,13 +8388,13 @@
         <v>84125</v>
       </c>
       <c r="D191" s="37">
-        <v>25314</v>
+        <v>25798</v>
       </c>
       <c r="E191" s="37">
-        <v>16556</v>
+        <v>16806</v>
       </c>
       <c r="F191" s="37">
-        <v>8758</v>
+        <v>8992</v>
       </c>
       <c r="G191" s="38">
         <v>88673</v>
@@ -8421,13 +8423,13 @@
         <v>800</v>
       </c>
       <c r="D192" s="37">
-        <v>1246</v>
+        <v>1308</v>
       </c>
       <c r="E192" s="37">
-        <v>1049</v>
+        <v>1109</v>
       </c>
       <c r="F192" s="37">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G192" s="38">
         <v>5069</v>
@@ -8456,13 +8458,13 @@
         <v>300</v>
       </c>
       <c r="D193" s="37">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="E193" s="37">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="F193" s="37">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G193" s="38">
         <v>10277</v>
@@ -8491,13 +8493,13 @@
         <v>6100</v>
       </c>
       <c r="D194" s="37">
-        <v>38046</v>
+        <v>38922</v>
       </c>
       <c r="E194" s="37">
-        <v>24417</v>
+        <v>24775</v>
       </c>
       <c r="F194" s="37">
-        <v>13629</v>
+        <v>14147</v>
       </c>
       <c r="G194" s="38">
         <v>108431</v>
@@ -8526,13 +8528,13 @@
         <v>300</v>
       </c>
       <c r="D195" s="37">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="E195" s="37">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="F195" s="37">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G195" s="38">
         <v>2841</v>
@@ -8561,13 +8563,13 @@
         <v>200</v>
       </c>
       <c r="D196" s="37">
-        <v>647</v>
+        <v>755</v>
       </c>
       <c r="E196" s="37">
-        <v>459</v>
+        <v>563</v>
       </c>
       <c r="F196" s="37">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G196" s="38">
         <v>2943</v>
@@ -8596,13 +8598,13 @@
         <v>800</v>
       </c>
       <c r="D197" s="37">
-        <v>1441</v>
+        <v>1480</v>
       </c>
       <c r="E197" s="37">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="F197" s="37">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="G197" s="38">
         <v>9965</v>
@@ -8631,13 +8633,13 @@
         <v>5775</v>
       </c>
       <c r="D198" s="37">
-        <v>3555</v>
+        <v>4117</v>
       </c>
       <c r="E198" s="37">
-        <v>2883</v>
+        <v>2995</v>
       </c>
       <c r="F198" s="37">
-        <v>672</v>
+        <v>1122</v>
       </c>
       <c r="G198" s="38">
         <v>12781</v>
@@ -8666,13 +8668,13 @@
         <v>700</v>
       </c>
       <c r="D199" s="37">
-        <v>1209</v>
+        <v>1329</v>
       </c>
       <c r="E199" s="37">
-        <v>814</v>
+        <v>923</v>
       </c>
       <c r="F199" s="37">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="G199" s="38">
         <v>5583</v>
@@ -8701,13 +8703,13 @@
         <v>0</v>
       </c>
       <c r="D200" s="37">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E200" s="37">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F200" s="37">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G200" s="38">
         <v>672</v>
@@ -8736,13 +8738,13 @@
         <v>1000</v>
       </c>
       <c r="D201" s="37">
-        <v>1468</v>
+        <v>1507</v>
       </c>
       <c r="E201" s="37">
-        <v>1170</v>
+        <v>1194</v>
       </c>
       <c r="F201" s="37">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="G201" s="38">
         <v>13474</v>
@@ -8771,13 +8773,13 @@
         <v>6775</v>
       </c>
       <c r="D202" s="37">
-        <v>12820</v>
+        <v>13565</v>
       </c>
       <c r="E202" s="37">
-        <v>9520</v>
+        <v>10120</v>
       </c>
       <c r="F202" s="37">
-        <v>3300</v>
+        <v>3445</v>
       </c>
       <c r="G202" s="38">
         <v>80325</v>
@@ -8806,13 +8808,13 @@
         <v>1500</v>
       </c>
       <c r="D203" s="37">
-        <v>1619</v>
+        <v>1708</v>
       </c>
       <c r="E203" s="37">
-        <v>1073</v>
+        <v>1113</v>
       </c>
       <c r="F203" s="37">
-        <v>546</v>
+        <v>595</v>
       </c>
       <c r="G203" s="38">
         <v>8184</v>
@@ -8841,13 +8843,13 @@
         <v>2000</v>
       </c>
       <c r="D204" s="37">
-        <v>2835</v>
+        <v>2941</v>
       </c>
       <c r="E204" s="37">
-        <v>2145</v>
+        <v>2194</v>
       </c>
       <c r="F204" s="37">
-        <v>690</v>
+        <v>747</v>
       </c>
       <c r="G204" s="38">
         <v>43777</v>
@@ -8876,13 +8878,13 @@
         <v>1400</v>
       </c>
       <c r="D205" s="37">
-        <v>1436</v>
+        <v>1570</v>
       </c>
       <c r="E205" s="37">
-        <v>1116</v>
+        <v>1154</v>
       </c>
       <c r="F205" s="37">
-        <v>320</v>
+        <v>416</v>
       </c>
       <c r="G205" s="38">
         <v>8871</v>
@@ -8911,13 +8913,13 @@
         <v>1200</v>
       </c>
       <c r="D206" s="37">
-        <v>800</v>
+        <v>835</v>
       </c>
       <c r="E206" s="37">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="F206" s="37">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="G206" s="38">
         <v>6811</v>
@@ -8946,13 +8948,13 @@
         <v>1600</v>
       </c>
       <c r="D207" s="37">
-        <v>2035</v>
+        <v>2162</v>
       </c>
       <c r="E207" s="37">
-        <v>1522</v>
+        <v>1580</v>
       </c>
       <c r="F207" s="37">
-        <v>513</v>
+        <v>582</v>
       </c>
       <c r="G207" s="38">
         <v>23444</v>
@@ -8981,13 +8983,13 @@
         <v>3200</v>
       </c>
       <c r="D208" s="37">
-        <v>6148</v>
+        <v>6746</v>
       </c>
       <c r="E208" s="37">
-        <v>4784</v>
+        <v>5180</v>
       </c>
       <c r="F208" s="37">
-        <v>1364</v>
+        <v>1566</v>
       </c>
       <c r="G208" s="38">
         <v>51116</v>
@@ -9016,13 +9018,13 @@
         <v>300</v>
       </c>
       <c r="D209" s="37">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="E209" s="37">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F209" s="37">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G209" s="38">
         <v>5000</v>
@@ -9051,13 +9053,13 @@
         <v>400</v>
       </c>
       <c r="D210" s="37">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="E210" s="37">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="F210" s="37">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G210" s="38">
         <v>2218</v>
@@ -9086,13 +9088,13 @@
         <v>3925</v>
       </c>
       <c r="D211" s="37">
-        <v>1532</v>
+        <v>1635</v>
       </c>
       <c r="E211" s="37">
-        <v>1157</v>
+        <v>1200</v>
       </c>
       <c r="F211" s="37">
-        <v>375</v>
+        <v>435</v>
       </c>
       <c r="G211" s="38">
         <v>13000</v>
@@ -9121,10 +9123,10 @@
         <v>300</v>
       </c>
       <c r="D212" s="37">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="E212" s="37">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F212" s="37">
         <v>52</v>
@@ -9156,13 +9158,13 @@
         <v>1700</v>
       </c>
       <c r="D213" s="37">
-        <v>1425</v>
+        <v>1526</v>
       </c>
       <c r="E213" s="37">
-        <v>980</v>
+        <v>1001</v>
       </c>
       <c r="F213" s="37">
-        <v>445</v>
+        <v>525</v>
       </c>
       <c r="G213" s="38">
         <v>19449</v>
@@ -9191,13 +9193,13 @@
         <v>500</v>
       </c>
       <c r="D214" s="37">
-        <v>418</v>
+        <v>492</v>
       </c>
       <c r="E214" s="37">
-        <v>340</v>
+        <v>412</v>
       </c>
       <c r="F214" s="37">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G214" s="38">
         <v>2294</v>
@@ -9226,13 +9228,13 @@
         <v>63600</v>
       </c>
       <c r="D215" s="37">
-        <v>29425</v>
+        <v>29948</v>
       </c>
       <c r="E215" s="37">
-        <v>21884</v>
+        <v>22295</v>
       </c>
       <c r="F215" s="37">
-        <v>7541</v>
+        <v>7653</v>
       </c>
       <c r="G215" s="38">
         <v>182283</v>
@@ -9261,13 +9263,13 @@
         <v>600</v>
       </c>
       <c r="D216" s="37">
-        <v>1134</v>
+        <v>1223</v>
       </c>
       <c r="E216" s="37">
-        <v>892</v>
+        <v>973</v>
       </c>
       <c r="F216" s="37">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="G216" s="38">
         <v>7386</v>
@@ -9296,13 +9298,13 @@
         <v>6400</v>
       </c>
       <c r="D217" s="37">
-        <v>6653</v>
+        <v>7115</v>
       </c>
       <c r="E217" s="37">
-        <v>4876</v>
+        <v>5251</v>
       </c>
       <c r="F217" s="37">
-        <v>1777</v>
+        <v>1864</v>
       </c>
       <c r="G217" s="38">
         <v>45765</v>
@@ -9331,13 +9333,13 @@
         <v>900</v>
       </c>
       <c r="D218" s="37">
-        <v>514</v>
+        <v>595</v>
       </c>
       <c r="E218" s="37">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="F218" s="37">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="G218" s="38">
         <v>7542</v>
@@ -9366,13 +9368,13 @@
         <v>100</v>
       </c>
       <c r="D219" s="37">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E219" s="37">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F219" s="37">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G219" s="38">
         <v>975</v>
@@ -9401,10 +9403,10 @@
         <v>500</v>
       </c>
       <c r="D220" s="37">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="E220" s="37">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="F220" s="37">
         <v>47</v>
@@ -9436,13 +9438,13 @@
         <v>400</v>
       </c>
       <c r="D221" s="37">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="E221" s="37">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F221" s="37">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G221" s="38">
         <v>2992</v>
@@ -9471,13 +9473,13 @@
         <v>500</v>
       </c>
       <c r="D222" s="37">
-        <v>1195</v>
+        <v>1214</v>
       </c>
       <c r="E222" s="37">
         <v>904</v>
       </c>
       <c r="F222" s="37">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="G222" s="38">
         <v>5764</v>
@@ -9506,13 +9508,13 @@
         <v>395350</v>
       </c>
       <c r="D223" s="37">
-        <v>210250</v>
+        <v>220625</v>
       </c>
       <c r="E223" s="37">
-        <v>149322</v>
+        <v>152808</v>
       </c>
       <c r="F223" s="37">
-        <v>60928</v>
+        <v>67817</v>
       </c>
       <c r="G223" s="38">
         <v>1617160</v>
@@ -9541,13 +9543,13 @@
         <v>22375</v>
       </c>
       <c r="D224" s="37">
-        <v>21763</v>
+        <v>22499</v>
       </c>
       <c r="E224" s="37">
-        <v>16205</v>
+        <v>16830</v>
       </c>
       <c r="F224" s="37">
-        <v>5558</v>
+        <v>5669</v>
       </c>
       <c r="G224" s="38">
         <v>107257</v>
@@ -9576,10 +9578,10 @@
         <v>0</v>
       </c>
       <c r="D225" s="37">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E225" s="37">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F225" s="37">
         <v>19</v>
@@ -9611,13 +9613,13 @@
         <v>3450</v>
       </c>
       <c r="D226" s="37">
-        <v>2568</v>
+        <v>2588</v>
       </c>
       <c r="E226" s="37">
-        <v>1915</v>
+        <v>1923</v>
       </c>
       <c r="F226" s="37">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="G226" s="38">
         <v>9307</v>
@@ -9646,13 +9648,13 @@
         <v>500</v>
       </c>
       <c r="D227" s="37">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E227" s="37">
         <v>359</v>
       </c>
       <c r="F227" s="37">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G227" s="38">
         <v>1247</v>
@@ -9681,13 +9683,13 @@
         <v>4300</v>
       </c>
       <c r="D228" s="37">
-        <v>2111</v>
+        <v>2188</v>
       </c>
       <c r="E228" s="37">
-        <v>1413</v>
+        <v>1450</v>
       </c>
       <c r="F228" s="37">
-        <v>698</v>
+        <v>738</v>
       </c>
       <c r="G228" s="38">
         <v>24323</v>
@@ -9716,13 +9718,13 @@
         <v>24000</v>
       </c>
       <c r="D229" s="37">
-        <v>20202</v>
+        <v>21245</v>
       </c>
       <c r="E229" s="37">
-        <v>13732</v>
+        <v>14436</v>
       </c>
       <c r="F229" s="37">
-        <v>6470</v>
+        <v>6809</v>
       </c>
       <c r="G229" s="38">
         <v>93752</v>
@@ -9751,13 +9753,13 @@
         <v>217400</v>
       </c>
       <c r="D230" s="37">
-        <v>135718</v>
+        <v>139961</v>
       </c>
       <c r="E230" s="37">
-        <v>98954</v>
+        <v>100680</v>
       </c>
       <c r="F230" s="37">
-        <v>36764</v>
+        <v>39281</v>
       </c>
       <c r="G230" s="38">
         <v>1032386</v>
@@ -9786,13 +9788,13 @@
         <v>2750</v>
       </c>
       <c r="D231" s="37">
-        <v>1867</v>
+        <v>1913</v>
       </c>
       <c r="E231" s="37">
-        <v>1448</v>
+        <v>1470</v>
       </c>
       <c r="F231" s="37">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="G231" s="38">
         <v>12104</v>
@@ -9821,13 +9823,13 @@
         <v>2800</v>
       </c>
       <c r="D232" s="37">
-        <v>2668</v>
+        <v>2743</v>
       </c>
       <c r="E232" s="37">
-        <v>1903</v>
+        <v>1962</v>
       </c>
       <c r="F232" s="37">
-        <v>765</v>
+        <v>781</v>
       </c>
       <c r="G232" s="38">
         <v>17963</v>
@@ -9856,13 +9858,13 @@
         <v>1400</v>
       </c>
       <c r="D233" s="37">
-        <v>2610</v>
+        <v>2684</v>
       </c>
       <c r="E233" s="37">
-        <v>1989</v>
+        <v>2025</v>
       </c>
       <c r="F233" s="37">
-        <v>621</v>
+        <v>659</v>
       </c>
       <c r="G233" s="38">
         <v>33011</v>
@@ -9891,13 +9893,13 @@
         <v>400</v>
       </c>
       <c r="D234" s="37">
-        <v>726</v>
+        <v>748</v>
       </c>
       <c r="E234" s="37">
-        <v>575</v>
+        <v>596</v>
       </c>
       <c r="F234" s="37">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G234" s="38">
         <v>2730</v>
@@ -9926,13 +9928,13 @@
         <v>7175</v>
       </c>
       <c r="D235" s="37">
-        <v>5157</v>
+        <v>5451</v>
       </c>
       <c r="E235" s="37">
-        <v>3577</v>
+        <v>3808</v>
       </c>
       <c r="F235" s="37">
-        <v>1580</v>
+        <v>1643</v>
       </c>
       <c r="G235" s="38">
         <v>20379</v>
@@ -9961,13 +9963,13 @@
         <v>5150</v>
       </c>
       <c r="D236" s="37">
-        <v>5331</v>
+        <v>5438</v>
       </c>
       <c r="E236" s="37">
-        <v>4200</v>
+        <v>4271</v>
       </c>
       <c r="F236" s="37">
-        <v>1131</v>
+        <v>1167</v>
       </c>
       <c r="G236" s="38">
         <v>36546</v>
@@ -9996,13 +9998,13 @@
         <v>2900</v>
       </c>
       <c r="D237" s="37">
-        <v>4627</v>
+        <v>4751</v>
       </c>
       <c r="E237" s="37">
-        <v>3386</v>
+        <v>3481</v>
       </c>
       <c r="F237" s="37">
-        <v>1241</v>
+        <v>1270</v>
       </c>
       <c r="G237" s="38">
         <v>45216</v>
@@ -10031,13 +10033,13 @@
         <v>13475</v>
       </c>
       <c r="D238" s="37">
-        <v>12307</v>
+        <v>13688</v>
       </c>
       <c r="E238" s="37">
-        <v>8764</v>
+        <v>10105</v>
       </c>
       <c r="F238" s="37">
-        <v>3543</v>
+        <v>3583</v>
       </c>
       <c r="G238" s="38">
         <v>71388</v>
@@ -10066,13 +10068,13 @@
         <v>5600</v>
       </c>
       <c r="D239" s="37">
-        <v>4891</v>
+        <v>5170</v>
       </c>
       <c r="E239" s="37">
-        <v>3607</v>
+        <v>3785</v>
       </c>
       <c r="F239" s="37">
-        <v>1284</v>
+        <v>1385</v>
       </c>
       <c r="G239" s="38">
         <v>63471</v>
@@ -10101,13 +10103,13 @@
         <v>3300</v>
       </c>
       <c r="D240" s="37">
-        <v>3247</v>
+        <v>3418</v>
       </c>
       <c r="E240" s="37">
-        <v>2501</v>
+        <v>2593</v>
       </c>
       <c r="F240" s="37">
-        <v>746</v>
+        <v>825</v>
       </c>
       <c r="G240" s="38">
         <v>43350</v>
@@ -10136,13 +10138,13 @@
         <v>600</v>
       </c>
       <c r="D241" s="37">
-        <v>1114</v>
+        <v>1273</v>
       </c>
       <c r="E241" s="37">
-        <v>880</v>
+        <v>992</v>
       </c>
       <c r="F241" s="37">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="G241" s="38">
         <v>8921</v>
@@ -10171,13 +10173,13 @@
         <v>14000</v>
       </c>
       <c r="D242" s="37">
-        <v>4833</v>
+        <v>5155</v>
       </c>
       <c r="E242" s="37">
-        <v>3964</v>
+        <v>4187</v>
       </c>
       <c r="F242" s="37">
-        <v>869</v>
+        <v>968</v>
       </c>
       <c r="G242" s="38">
         <v>29086</v>
@@ -10206,13 +10208,13 @@
         <v>46900</v>
       </c>
       <c r="D243" s="37">
-        <v>36645</v>
+        <v>37730</v>
       </c>
       <c r="E243" s="37">
-        <v>27546</v>
+        <v>27999</v>
       </c>
       <c r="F243" s="37">
-        <v>9099</v>
+        <v>9731</v>
       </c>
       <c r="G243" s="38">
         <v>196916</v>
@@ -10241,13 +10243,13 @@
         <v>2800</v>
       </c>
       <c r="D244" s="37">
-        <v>3100</v>
+        <v>3289</v>
       </c>
       <c r="E244" s="37">
-        <v>2270</v>
+        <v>2368</v>
       </c>
       <c r="F244" s="37">
-        <v>830</v>
+        <v>921</v>
       </c>
       <c r="G244" s="38">
         <v>32110</v>
@@ -10276,13 +10278,13 @@
         <v>900</v>
       </c>
       <c r="D245" s="37">
-        <v>896</v>
+        <v>976</v>
       </c>
       <c r="E245" s="37">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="F245" s="37">
-        <v>242</v>
+        <v>317</v>
       </c>
       <c r="G245" s="38">
         <v>3915</v>
@@ -10311,13 +10313,13 @@
         <v>28000</v>
       </c>
       <c r="D246" s="37">
-        <v>22423</v>
+        <v>23149</v>
       </c>
       <c r="E246" s="37">
-        <v>15630</v>
+        <v>16105</v>
       </c>
       <c r="F246" s="37">
-        <v>6793</v>
+        <v>7044</v>
       </c>
       <c r="G246" s="38">
         <v>105631</v>
@@ -10346,13 +10348,13 @@
         <v>5700</v>
       </c>
       <c r="D247" s="37">
-        <v>3380</v>
+        <v>3493</v>
       </c>
       <c r="E247" s="37">
-        <v>2312</v>
+        <v>2387</v>
       </c>
       <c r="F247" s="37">
-        <v>1068</v>
+        <v>1106</v>
       </c>
       <c r="G247" s="38">
         <v>10361</v>
@@ -10381,13 +10383,13 @@
         <v>800</v>
       </c>
       <c r="D248" s="37">
-        <v>2202</v>
+        <v>2249</v>
       </c>
       <c r="E248" s="37">
-        <v>1707</v>
+        <v>1728</v>
       </c>
       <c r="F248" s="37">
-        <v>495</v>
+        <v>521</v>
       </c>
       <c r="G248" s="38">
         <v>16897</v>
@@ -10416,13 +10418,13 @@
         <v>65550</v>
       </c>
       <c r="D249" s="37">
-        <v>57570</v>
+        <v>59078</v>
       </c>
       <c r="E249" s="37">
-        <v>42081</v>
+        <v>42782</v>
       </c>
       <c r="F249" s="37">
-        <v>15489</v>
+        <v>16296</v>
       </c>
       <c r="G249" s="38">
         <v>458433</v>
@@ -10451,13 +10453,13 @@
         <v>4100</v>
       </c>
       <c r="D250" s="37">
-        <v>5710</v>
+        <v>5875</v>
       </c>
       <c r="E250" s="37">
-        <v>3701</v>
+        <v>3799</v>
       </c>
       <c r="F250" s="37">
-        <v>2009</v>
+        <v>2076</v>
       </c>
       <c r="G250" s="38">
         <v>40488</v>
@@ -10486,13 +10488,13 @@
         <v>400</v>
       </c>
       <c r="D251" s="37">
-        <v>806</v>
+        <v>830</v>
       </c>
       <c r="E251" s="37">
-        <v>582</v>
+        <v>604</v>
       </c>
       <c r="F251" s="37">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G251" s="38">
         <v>5954</v>
@@ -10521,13 +10523,13 @@
         <v>6850</v>
       </c>
       <c r="D252" s="37">
-        <v>6944</v>
+        <v>7186</v>
       </c>
       <c r="E252" s="37">
-        <v>4218</v>
+        <v>4375</v>
       </c>
       <c r="F252" s="37">
-        <v>2726</v>
+        <v>2811</v>
       </c>
       <c r="G252" s="38">
         <v>54722</v>
@@ -10556,13 +10558,13 @@
         <v>2400</v>
       </c>
       <c r="D253" s="37">
-        <v>3793</v>
+        <v>3927</v>
       </c>
       <c r="E253" s="37">
-        <v>2911</v>
+        <v>2997</v>
       </c>
       <c r="F253" s="37">
-        <v>882</v>
+        <v>930</v>
       </c>
       <c r="G253" s="38">
         <v>38005</v>
@@ -10591,13 +10593,13 @@
         <v>800</v>
       </c>
       <c r="D254" s="37">
-        <v>1003</v>
+        <v>1069</v>
       </c>
       <c r="E254" s="37">
-        <v>661</v>
+        <v>715</v>
       </c>
       <c r="F254" s="37">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="G254" s="38">
         <v>6135</v>
@@ -10626,13 +10628,13 @@
         <v>2700</v>
       </c>
       <c r="D255" s="37">
-        <v>1976</v>
+        <v>2143</v>
       </c>
       <c r="E255" s="37">
-        <v>1421</v>
+        <v>1561</v>
       </c>
       <c r="F255" s="37">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="G255" s="38">
         <v>14219</v>
@@ -10661,13 +10663,13 @@
         <v>700</v>
       </c>
       <c r="D256" s="37">
-        <v>1283</v>
+        <v>1499</v>
       </c>
       <c r="E256" s="37">
-        <v>1132</v>
+        <v>1327</v>
       </c>
       <c r="F256" s="37">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="G256" s="38">
         <v>9981</v>
@@ -10696,13 +10698,13 @@
         <v>200</v>
       </c>
       <c r="D257" s="37">
-        <v>2513</v>
+        <v>2544</v>
       </c>
       <c r="E257" s="37">
-        <v>2247</v>
+        <v>2268</v>
       </c>
       <c r="F257" s="37">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="G257" s="38">
         <v>8840</v>
@@ -10731,13 +10733,13 @@
         <v>9775</v>
       </c>
       <c r="D258" s="37">
-        <v>328369</v>
+        <v>337246</v>
       </c>
       <c r="E258" s="37">
-        <v>265512</v>
+        <v>268993</v>
       </c>
       <c r="F258" s="37">
-        <v>62857</v>
+        <v>68253</v>
       </c>
       <c r="G258" s="38"/>
       <c r="H258" s="38"/>
@@ -10811,13 +10813,13 @@
         <v>298</v>
       </c>
       <c r="D2" s="32">
-        <v>51935</v>
+        <v>53783</v>
       </c>
       <c r="E2" s="32">
-        <v>33121</v>
+        <v>34238</v>
       </c>
       <c r="F2" s="32">
-        <v>18814</v>
+        <v>19545</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -10831,13 +10833,13 @@
         <v>299</v>
       </c>
       <c r="D3" s="32">
-        <v>37244</v>
+        <v>38739</v>
       </c>
       <c r="E3" s="32">
-        <v>24628</v>
+        <v>25519</v>
       </c>
       <c r="F3" s="32">
-        <v>12616</v>
+        <v>13220</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -10851,13 +10853,13 @@
         <v>297</v>
       </c>
       <c r="D4" s="32">
-        <v>120034</v>
+        <v>128709</v>
       </c>
       <c r="E4" s="32">
-        <v>84908</v>
+        <v>89849</v>
       </c>
       <c r="F4" s="32">
-        <v>35126</v>
+        <v>38860</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -10871,13 +10873,13 @@
         <v>301</v>
       </c>
       <c r="D5" s="32">
-        <v>208388</v>
+        <v>215938</v>
       </c>
       <c r="E5" s="32">
-        <v>134649</v>
+        <v>139249</v>
       </c>
       <c r="F5" s="32">
-        <v>73739</v>
+        <v>76689</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -10891,13 +10893,13 @@
         <v>300</v>
       </c>
       <c r="D6" s="32">
-        <v>71606</v>
+        <v>73689</v>
       </c>
       <c r="E6" s="32">
-        <v>49324</v>
+        <v>50364</v>
       </c>
       <c r="F6" s="32">
-        <v>22282</v>
+        <v>23325</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -10911,13 +10913,13 @@
         <v>286</v>
       </c>
       <c r="D7" s="32">
-        <v>306969</v>
+        <v>310859</v>
       </c>
       <c r="E7" s="32">
-        <v>206963</v>
+        <v>207820</v>
       </c>
       <c r="F7" s="32">
-        <v>100006</v>
+        <v>103039</v>
       </c>
       <c r="O7" s="30"/>
     </row>
@@ -10932,13 +10934,13 @@
         <v>298</v>
       </c>
       <c r="D8" s="32">
-        <v>25456</v>
+        <v>26708</v>
       </c>
       <c r="E8" s="32">
-        <v>17652</v>
+        <v>18431</v>
       </c>
       <c r="F8" s="32">
-        <v>7804</v>
+        <v>8277</v>
       </c>
       <c r="O8" s="30"/>
     </row>
@@ -10953,13 +10955,13 @@
         <v>299</v>
       </c>
       <c r="D9" s="32">
-        <v>31504</v>
+        <v>32997</v>
       </c>
       <c r="E9" s="32">
-        <v>22323</v>
+        <v>23299</v>
       </c>
       <c r="F9" s="32">
-        <v>9181</v>
+        <v>9698</v>
       </c>
       <c r="O9" s="30"/>
     </row>
@@ -10974,13 +10976,13 @@
         <v>297</v>
       </c>
       <c r="D10" s="32">
-        <v>65222</v>
+        <v>71968</v>
       </c>
       <c r="E10" s="32">
-        <v>50629</v>
+        <v>54742</v>
       </c>
       <c r="F10" s="32">
-        <v>14593</v>
+        <v>17226</v>
       </c>
       <c r="O10" s="30"/>
     </row>
@@ -10995,13 +10997,13 @@
         <v>301</v>
       </c>
       <c r="D11" s="32">
-        <v>146555</v>
+        <v>154268</v>
       </c>
       <c r="E11" s="32">
-        <v>104128</v>
+        <v>109136</v>
       </c>
       <c r="F11" s="32">
-        <v>42427</v>
+        <v>45132</v>
       </c>
       <c r="O11" s="30"/>
     </row>
@@ -11016,13 +11018,13 @@
         <v>300</v>
       </c>
       <c r="D12" s="32">
-        <v>45275</v>
+        <v>46941</v>
       </c>
       <c r="E12" s="32">
-        <v>32649</v>
+        <v>33589</v>
       </c>
       <c r="F12" s="32">
-        <v>12626</v>
+        <v>13352</v>
       </c>
       <c r="O12" s="30"/>
     </row>
@@ -11037,13 +11039,13 @@
         <v>286</v>
       </c>
       <c r="D13" s="32">
-        <v>196828</v>
+        <v>199722</v>
       </c>
       <c r="E13" s="32">
-        <v>141528</v>
+        <v>142161</v>
       </c>
       <c r="F13" s="32">
-        <v>55300</v>
+        <v>57561</v>
       </c>
       <c r="O13" s="30"/>
     </row>
@@ -11058,13 +11060,13 @@
         <v>298</v>
       </c>
       <c r="D14" s="32">
-        <v>27221</v>
+        <v>28907</v>
       </c>
       <c r="E14" s="32">
-        <v>21293</v>
+        <v>22282</v>
       </c>
       <c r="F14" s="32">
-        <v>5928</v>
+        <v>6625</v>
       </c>
       <c r="O14" s="30"/>
     </row>
@@ -11079,13 +11081,13 @@
         <v>299</v>
       </c>
       <c r="D15" s="32">
-        <v>30003</v>
+        <v>32049</v>
       </c>
       <c r="E15" s="32">
-        <v>25049</v>
+        <v>26453</v>
       </c>
       <c r="F15" s="32">
-        <v>4954</v>
+        <v>5596</v>
       </c>
       <c r="O15" s="30"/>
     </row>
@@ -11100,13 +11102,13 @@
         <v>297</v>
       </c>
       <c r="D16" s="32">
-        <v>56870</v>
+        <v>63992</v>
       </c>
       <c r="E16" s="32">
-        <v>47344</v>
+        <v>51764</v>
       </c>
       <c r="F16" s="32">
-        <v>9526</v>
+        <v>12228</v>
       </c>
       <c r="O16" s="30"/>
     </row>
@@ -11121,13 +11123,13 @@
         <v>301</v>
       </c>
       <c r="D17" s="32">
-        <v>239409</v>
+        <v>257551</v>
       </c>
       <c r="E17" s="32">
-        <v>192523</v>
+        <v>203975</v>
       </c>
       <c r="F17" s="32">
-        <v>46886</v>
+        <v>53576</v>
       </c>
       <c r="O17" s="30"/>
     </row>
@@ -11142,13 +11144,13 @@
         <v>300</v>
       </c>
       <c r="D18" s="32">
-        <v>49598</v>
+        <v>51627</v>
       </c>
       <c r="E18" s="32">
-        <v>38183</v>
+        <v>39316</v>
       </c>
       <c r="F18" s="32">
-        <v>11415</v>
+        <v>12311</v>
       </c>
       <c r="O18" s="30"/>
     </row>
@@ -11163,13 +11165,13 @@
         <v>286</v>
       </c>
       <c r="D19" s="32">
-        <v>216859</v>
+        <v>220114</v>
       </c>
       <c r="E19" s="32">
-        <v>170713</v>
+        <v>170743</v>
       </c>
       <c r="F19" s="32">
-        <v>46146</v>
+        <v>49371</v>
       </c>
       <c r="O19" s="30"/>
     </row>
@@ -11184,13 +11186,13 @@
         <v>298</v>
       </c>
       <c r="D20" s="32">
-        <v>5793</v>
+        <v>6107</v>
       </c>
       <c r="E20" s="32">
-        <v>4526</v>
+        <v>4698</v>
       </c>
       <c r="F20" s="32">
-        <v>1267</v>
+        <v>1409</v>
       </c>
       <c r="O20" s="30"/>
     </row>
@@ -11205,13 +11207,13 @@
         <v>299</v>
       </c>
       <c r="D21" s="32">
-        <v>6328</v>
+        <v>6774</v>
       </c>
       <c r="E21" s="32">
-        <v>5351</v>
+        <v>5624</v>
       </c>
       <c r="F21" s="32">
-        <v>977</v>
+        <v>1150</v>
       </c>
       <c r="O21" s="30"/>
     </row>
@@ -11226,13 +11228,13 @@
         <v>297</v>
       </c>
       <c r="D22" s="32">
-        <v>13573</v>
+        <v>15450</v>
       </c>
       <c r="E22" s="32">
-        <v>11360</v>
+        <v>12639</v>
       </c>
       <c r="F22" s="32">
-        <v>2213</v>
+        <v>2811</v>
       </c>
       <c r="O22" s="30"/>
     </row>
@@ -11247,13 +11249,13 @@
         <v>301</v>
       </c>
       <c r="D23" s="32">
-        <v>71901</v>
+        <v>77225</v>
       </c>
       <c r="E23" s="32">
-        <v>56558</v>
+        <v>59838</v>
       </c>
       <c r="F23" s="32">
-        <v>15343</v>
+        <v>17387</v>
       </c>
       <c r="O23" s="30"/>
     </row>
@@ -11268,13 +11270,13 @@
         <v>300</v>
       </c>
       <c r="D24" s="32">
-        <v>46999</v>
+        <v>48080</v>
       </c>
       <c r="E24" s="32">
-        <v>33590</v>
+        <v>34104</v>
       </c>
       <c r="F24" s="32">
-        <v>13409</v>
+        <v>13976</v>
       </c>
       <c r="O24" s="30"/>
     </row>
@@ -11289,13 +11291,13 @@
         <v>286</v>
       </c>
       <c r="D25" s="32">
-        <v>77903</v>
+        <v>79039</v>
       </c>
       <c r="E25" s="32">
-        <v>60484</v>
+        <v>60486</v>
       </c>
       <c r="F25" s="32">
-        <v>17419</v>
+        <v>18553</v>
       </c>
       <c r="O25" s="30"/>
     </row>
@@ -11331,13 +11333,13 @@
         <v>299</v>
       </c>
       <c r="D27" s="32">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E27" s="32">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F27" s="32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O27" s="30"/>
     </row>
@@ -11352,13 +11354,13 @@
         <v>297</v>
       </c>
       <c r="D28" s="32">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E28" s="32">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F28" s="32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -11373,10 +11375,10 @@
         <v>301</v>
       </c>
       <c r="D29" s="32">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E29" s="32">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F29" s="32">
         <v>18</v>
@@ -11415,13 +11417,13 @@
         <v>286</v>
       </c>
       <c r="D31" s="32">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="E31" s="32">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F31" s="32">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="O31" s="30"/>
     </row>
@@ -11436,13 +11438,13 @@
         <v>298</v>
       </c>
       <c r="D32" s="32">
-        <v>34753</v>
+        <v>36080</v>
       </c>
       <c r="E32" s="32">
-        <v>22711</v>
+        <v>23535</v>
       </c>
       <c r="F32" s="32">
-        <v>12042</v>
+        <v>12545</v>
       </c>
       <c r="O32" s="30"/>
     </row>
@@ -11457,13 +11459,13 @@
         <v>299</v>
       </c>
       <c r="D33" s="32">
-        <v>16649</v>
+        <v>17333</v>
       </c>
       <c r="E33" s="32">
-        <v>11399</v>
+        <v>11820</v>
       </c>
       <c r="F33" s="32">
-        <v>5250</v>
+        <v>5513</v>
       </c>
       <c r="O33" s="30"/>
     </row>
@@ -11478,13 +11480,13 @@
         <v>297</v>
       </c>
       <c r="D34" s="32">
-        <v>66127</v>
+        <v>71787</v>
       </c>
       <c r="E34" s="32">
-        <v>48798</v>
+        <v>52129</v>
       </c>
       <c r="F34" s="32">
-        <v>17329</v>
+        <v>19658</v>
       </c>
       <c r="O34" s="30"/>
     </row>
@@ -11499,13 +11501,13 @@
         <v>301</v>
       </c>
       <c r="D35" s="32">
-        <v>110747</v>
+        <v>115588</v>
       </c>
       <c r="E35" s="32">
-        <v>74465</v>
+        <v>77577</v>
       </c>
       <c r="F35" s="32">
-        <v>36282</v>
+        <v>38011</v>
       </c>
       <c r="O35" s="30"/>
     </row>
@@ -11520,13 +11522,13 @@
         <v>300</v>
       </c>
       <c r="D36" s="32">
-        <v>34948</v>
+        <v>36200</v>
       </c>
       <c r="E36" s="32">
-        <v>24264</v>
+        <v>24964</v>
       </c>
       <c r="F36" s="32">
-        <v>10684</v>
+        <v>11236</v>
       </c>
       <c r="O36" s="30"/>
     </row>
@@ -11541,13 +11543,13 @@
         <v>286</v>
       </c>
       <c r="D37" s="32">
-        <v>187324</v>
+        <v>189962</v>
       </c>
       <c r="E37" s="32">
-        <v>128139</v>
+        <v>128977</v>
       </c>
       <c r="F37" s="32">
-        <v>59185</v>
+        <v>60985</v>
       </c>
       <c r="O37" s="30"/>
     </row>
@@ -11562,13 +11564,13 @@
         <v>298</v>
       </c>
       <c r="D38" s="32">
-        <v>18739</v>
+        <v>19877</v>
       </c>
       <c r="E38" s="32">
-        <v>13494</v>
+        <v>14170</v>
       </c>
       <c r="F38" s="32">
-        <v>5245</v>
+        <v>5707</v>
       </c>
       <c r="O38" s="30"/>
     </row>
@@ -11583,13 +11585,13 @@
         <v>299</v>
       </c>
       <c r="D39" s="32">
-        <v>17720</v>
+        <v>18762</v>
       </c>
       <c r="E39" s="32">
-        <v>13098</v>
+        <v>13810</v>
       </c>
       <c r="F39" s="32">
-        <v>4622</v>
+        <v>4952</v>
       </c>
       <c r="O39" s="30"/>
     </row>
@@ -11604,13 +11606,13 @@
         <v>297</v>
       </c>
       <c r="D40" s="32">
-        <v>43147</v>
+        <v>47966</v>
       </c>
       <c r="E40" s="32">
-        <v>34395</v>
+        <v>37375</v>
       </c>
       <c r="F40" s="32">
-        <v>8752</v>
+        <v>10591</v>
       </c>
       <c r="O40" s="30"/>
     </row>
@@ -11625,13 +11627,13 @@
         <v>301</v>
       </c>
       <c r="D41" s="32">
-        <v>96867</v>
+        <v>102761</v>
       </c>
       <c r="E41" s="32">
-        <v>71477</v>
+        <v>75304</v>
       </c>
       <c r="F41" s="32">
-        <v>25390</v>
+        <v>27457</v>
       </c>
       <c r="O41" s="30"/>
     </row>
@@ -11646,13 +11648,13 @@
         <v>300</v>
       </c>
       <c r="D42" s="32">
-        <v>25271</v>
+        <v>26315</v>
       </c>
       <c r="E42" s="32">
-        <v>18368</v>
+        <v>19004</v>
       </c>
       <c r="F42" s="32">
-        <v>6903</v>
+        <v>7311</v>
       </c>
       <c r="O42" s="30"/>
     </row>
@@ -11667,13 +11669,13 @@
         <v>286</v>
       </c>
       <c r="D43" s="32">
-        <v>133023</v>
+        <v>135141</v>
       </c>
       <c r="E43" s="32">
-        <v>97361</v>
+        <v>97909</v>
       </c>
       <c r="F43" s="32">
-        <v>35662</v>
+        <v>37232</v>
       </c>
       <c r="O43" s="30"/>
     </row>
@@ -11688,13 +11690,13 @@
         <v>298</v>
       </c>
       <c r="D44" s="32">
-        <v>24148</v>
+        <v>25570</v>
       </c>
       <c r="E44" s="32">
-        <v>18829</v>
+        <v>19610</v>
       </c>
       <c r="F44" s="32">
-        <v>5319</v>
+        <v>5960</v>
       </c>
       <c r="O44" s="30"/>
     </row>
@@ -11709,13 +11711,13 @@
         <v>299</v>
       </c>
       <c r="D45" s="32">
-        <v>19208</v>
+        <v>20490</v>
       </c>
       <c r="E45" s="32">
-        <v>16058</v>
+        <v>16938</v>
       </c>
       <c r="F45" s="32">
-        <v>3150</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -11729,13 +11731,13 @@
         <v>297</v>
       </c>
       <c r="D46" s="32">
-        <v>43326</v>
+        <v>48784</v>
       </c>
       <c r="E46" s="32">
-        <v>35832</v>
+        <v>39246</v>
       </c>
       <c r="F46" s="32">
-        <v>7494</v>
+        <v>9538</v>
       </c>
       <c r="O46" s="30"/>
     </row>
@@ -11750,13 +11752,13 @@
         <v>301</v>
       </c>
       <c r="D47" s="32">
-        <v>205250</v>
+        <v>220680</v>
       </c>
       <c r="E47" s="32">
-        <v>164966</v>
+        <v>174557</v>
       </c>
       <c r="F47" s="32">
-        <v>40284</v>
+        <v>46123</v>
       </c>
       <c r="O47" s="30"/>
     </row>
@@ -11771,13 +11773,13 @@
         <v>300</v>
       </c>
       <c r="D48" s="32">
-        <v>35852</v>
+        <v>37491</v>
       </c>
       <c r="E48" s="32">
-        <v>27821</v>
+        <v>28711</v>
       </c>
       <c r="F48" s="32">
-        <v>8031</v>
+        <v>8780</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -11791,13 +11793,13 @@
         <v>286</v>
       </c>
       <c r="D49" s="32">
-        <v>179049</v>
+        <v>181822</v>
       </c>
       <c r="E49" s="32">
-        <v>140477</v>
+        <v>140522</v>
       </c>
       <c r="F49" s="32">
-        <v>38572</v>
+        <v>41300</v>
       </c>
       <c r="O49" s="30"/>
     </row>
@@ -11812,13 +11814,13 @@
         <v>298</v>
       </c>
       <c r="D50" s="32">
-        <v>5024</v>
+        <v>5309</v>
       </c>
       <c r="E50" s="32">
-        <v>3846</v>
+        <v>4000</v>
       </c>
       <c r="F50" s="32">
-        <v>1178</v>
+        <v>1309</v>
       </c>
       <c r="O50" s="30"/>
     </row>
@@ -11833,13 +11835,13 @@
         <v>299</v>
       </c>
       <c r="D51" s="32">
-        <v>3212</v>
+        <v>3425</v>
       </c>
       <c r="E51" s="32">
-        <v>2638</v>
+        <v>2783</v>
       </c>
       <c r="F51" s="32">
-        <v>574</v>
+        <v>642</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -11853,13 +11855,13 @@
         <v>297</v>
       </c>
       <c r="D52" s="32">
-        <v>8533</v>
+        <v>9633</v>
       </c>
       <c r="E52" s="32">
-        <v>7112</v>
+        <v>7843</v>
       </c>
       <c r="F52" s="32">
-        <v>1421</v>
+        <v>1790</v>
       </c>
       <c r="O52" s="30"/>
     </row>
@@ -11874,13 +11876,13 @@
         <v>301</v>
       </c>
       <c r="D53" s="32">
-        <v>57059</v>
+        <v>61227</v>
       </c>
       <c r="E53" s="32">
-        <v>44091</v>
+        <v>46489</v>
       </c>
       <c r="F53" s="32">
-        <v>12968</v>
+        <v>14738</v>
       </c>
       <c r="O53" s="30"/>
     </row>
@@ -11895,13 +11897,13 @@
         <v>300</v>
       </c>
       <c r="D54" s="32">
-        <v>19697</v>
+        <v>20264</v>
       </c>
       <c r="E54" s="32">
-        <v>14383</v>
+        <v>14654</v>
       </c>
       <c r="F54" s="32">
-        <v>5314</v>
+        <v>5610</v>
       </c>
       <c r="O54" s="30"/>
     </row>
@@ -11916,13 +11918,13 @@
         <v>286</v>
       </c>
       <c r="D55" s="32">
-        <v>50687</v>
+        <v>51483</v>
       </c>
       <c r="E55" s="32">
-        <v>39676</v>
+        <v>39704</v>
       </c>
       <c r="F55" s="32">
-        <v>11011</v>
+        <v>11779</v>
       </c>
       <c r="O55" s="30"/>
     </row>
@@ -11937,13 +11939,13 @@
         <v>298</v>
       </c>
       <c r="D56" s="32">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E56" s="32">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F56" s="32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O56" s="30"/>
     </row>
@@ -11978,13 +11980,13 @@
         <v>297</v>
       </c>
       <c r="D58" s="32">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E58" s="32">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F58" s="32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O58" s="30"/>
     </row>
@@ -11999,10 +12001,10 @@
         <v>301</v>
       </c>
       <c r="D59" s="32">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E59" s="32">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F59" s="32">
         <v>17</v>
@@ -12020,10 +12022,10 @@
         <v>300</v>
       </c>
       <c r="D60" s="32">
+        <v>32</v>
+      </c>
+      <c r="E60" s="32">
         <v>29</v>
-      </c>
-      <c r="E60" s="32">
-        <v>26</v>
       </c>
       <c r="F60" s="32">
         <v>3</v>
@@ -12041,13 +12043,13 @@
         <v>286</v>
       </c>
       <c r="D61" s="32">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="E61" s="32">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="F61" s="32">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O61" s="30"/>
     </row>
@@ -12062,13 +12064,13 @@
         <v>298</v>
       </c>
       <c r="D62" s="32">
-        <v>989</v>
+        <v>1004</v>
       </c>
       <c r="E62" s="32">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="F62" s="32">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="O62" s="30"/>
     </row>
@@ -12083,13 +12085,13 @@
         <v>299</v>
       </c>
       <c r="D63" s="32">
-        <v>585</v>
+        <v>613</v>
       </c>
       <c r="E63" s="32">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="F63" s="32">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12103,13 +12105,13 @@
         <v>297</v>
       </c>
       <c r="D64" s="32">
-        <v>1449</v>
+        <v>1469</v>
       </c>
       <c r="E64" s="32">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="F64" s="32">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="O64" s="30"/>
     </row>
@@ -12124,13 +12126,13 @@
         <v>301</v>
       </c>
       <c r="D65" s="32">
-        <v>3012</v>
+        <v>3089</v>
       </c>
       <c r="E65" s="32">
-        <v>2122</v>
+        <v>2157</v>
       </c>
       <c r="F65" s="32">
-        <v>890</v>
+        <v>932</v>
       </c>
       <c r="O65" s="30"/>
     </row>
@@ -12145,13 +12147,13 @@
         <v>300</v>
       </c>
       <c r="D66" s="32">
-        <v>2252</v>
+        <v>2339</v>
       </c>
       <c r="E66" s="32">
-        <v>1448</v>
+        <v>1496</v>
       </c>
       <c r="F66" s="32">
-        <v>804</v>
+        <v>843</v>
       </c>
     </row>
     <row r="67" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12165,13 +12167,13 @@
         <v>286</v>
       </c>
       <c r="D67" s="32">
-        <v>8742</v>
+        <v>9654</v>
       </c>
       <c r="E67" s="32">
-        <v>7626</v>
+        <v>7791</v>
       </c>
       <c r="F67" s="32">
-        <v>1116</v>
+        <v>1863</v>
       </c>
       <c r="O67" s="30"/>
     </row>
@@ -12186,13 +12188,13 @@
         <v>298</v>
       </c>
       <c r="D68" s="32">
-        <v>665</v>
+        <v>690</v>
       </c>
       <c r="E68" s="32">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="F68" s="32">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="O68" s="30"/>
     </row>
@@ -12207,13 +12209,13 @@
         <v>299</v>
       </c>
       <c r="D69" s="32">
-        <v>568</v>
+        <v>630</v>
       </c>
       <c r="E69" s="32">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="F69" s="32">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12227,13 +12229,13 @@
         <v>297</v>
       </c>
       <c r="D70" s="32">
-        <v>664</v>
+        <v>702</v>
       </c>
       <c r="E70" s="32">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="F70" s="32">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="O70" s="30"/>
     </row>
@@ -12248,13 +12250,13 @@
         <v>301</v>
       </c>
       <c r="D71" s="32">
-        <v>2518</v>
+        <v>2610</v>
       </c>
       <c r="E71" s="32">
-        <v>1848</v>
+        <v>1882</v>
       </c>
       <c r="F71" s="32">
-        <v>670</v>
+        <v>728</v>
       </c>
       <c r="O71" s="30"/>
     </row>
@@ -12269,13 +12271,13 @@
         <v>300</v>
       </c>
       <c r="D72" s="32">
-        <v>1330</v>
+        <v>1410</v>
       </c>
       <c r="E72" s="32">
-        <v>915</v>
+        <v>968</v>
       </c>
       <c r="F72" s="32">
-        <v>415</v>
+        <v>442</v>
       </c>
     </row>
     <row r="73" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12289,13 +12291,13 @@
         <v>286</v>
       </c>
       <c r="D73" s="32">
-        <v>8800</v>
+        <v>9951</v>
       </c>
       <c r="E73" s="32">
-        <v>7594</v>
+        <v>7747</v>
       </c>
       <c r="F73" s="32">
-        <v>1206</v>
+        <v>2204</v>
       </c>
       <c r="O73" s="30"/>
     </row>
@@ -12310,13 +12312,13 @@
         <v>298</v>
       </c>
       <c r="D74" s="32">
-        <v>2049</v>
+        <v>2087</v>
       </c>
       <c r="E74" s="32">
-        <v>1433</v>
+        <v>1440</v>
       </c>
       <c r="F74" s="32">
-        <v>616</v>
+        <v>647</v>
       </c>
       <c r="O74" s="30"/>
     </row>
@@ -12331,13 +12333,13 @@
         <v>299</v>
       </c>
       <c r="D75" s="32">
-        <v>1204</v>
+        <v>1268</v>
       </c>
       <c r="E75" s="32">
-        <v>963</v>
+        <v>986</v>
       </c>
       <c r="F75" s="32">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="O75" s="30"/>
     </row>
@@ -12352,13 +12354,13 @@
         <v>297</v>
       </c>
       <c r="D76" s="32">
-        <v>1369</v>
+        <v>1431</v>
       </c>
       <c r="E76" s="32">
-        <v>1096</v>
+        <v>1121</v>
       </c>
       <c r="F76" s="32">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="O76" s="30"/>
     </row>
@@ -12373,13 +12375,13 @@
         <v>301</v>
       </c>
       <c r="D77" s="32">
-        <v>12301</v>
+        <v>12681</v>
       </c>
       <c r="E77" s="32">
-        <v>9245</v>
+        <v>9324</v>
       </c>
       <c r="F77" s="32">
-        <v>3056</v>
+        <v>3357</v>
       </c>
       <c r="O77" s="30"/>
     </row>
@@ -12394,13 +12396,13 @@
         <v>300</v>
       </c>
       <c r="D78" s="32">
-        <v>4964</v>
+        <v>5172</v>
       </c>
       <c r="E78" s="32">
-        <v>3638</v>
+        <v>3683</v>
       </c>
       <c r="F78" s="32">
-        <v>1326</v>
+        <v>1489</v>
       </c>
       <c r="O78" s="30"/>
     </row>
@@ -12415,13 +12417,13 @@
         <v>286</v>
       </c>
       <c r="D79" s="32">
-        <v>15499</v>
+        <v>18309</v>
       </c>
       <c r="E79" s="32">
-        <v>12211</v>
+        <v>12527</v>
       </c>
       <c r="F79" s="32">
-        <v>3288</v>
+        <v>5782</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12435,13 +12437,13 @@
         <v>298</v>
       </c>
       <c r="D80" s="32">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E80" s="32">
         <v>250</v>
       </c>
       <c r="F80" s="32">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12455,13 +12457,13 @@
         <v>299</v>
       </c>
       <c r="D81" s="32">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E81" s="32">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F81" s="32">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12475,13 +12477,13 @@
         <v>297</v>
       </c>
       <c r="D82" s="32">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="E82" s="32">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F82" s="32">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12495,13 +12497,13 @@
         <v>301</v>
       </c>
       <c r="D83" s="32">
-        <v>2240</v>
+        <v>2324</v>
       </c>
       <c r="E83" s="32">
-        <v>1716</v>
+        <v>1739</v>
       </c>
       <c r="F83" s="32">
-        <v>524</v>
+        <v>585</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12515,13 +12517,13 @@
         <v>300</v>
       </c>
       <c r="D84" s="32">
-        <v>861</v>
+        <v>884</v>
       </c>
       <c r="E84" s="32">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F84" s="32">
-        <v>211</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12535,13 +12537,13 @@
         <v>286</v>
       </c>
       <c r="D85" s="32">
-        <v>2575</v>
+        <v>2913</v>
       </c>
       <c r="E85" s="32">
-        <v>1943</v>
+        <v>2095</v>
       </c>
       <c r="F85" s="32">
-        <v>632</v>
+        <v>818</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12655,13 +12657,13 @@
         <v>286</v>
       </c>
       <c r="D91" s="32">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E91" s="32">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F91" s="32">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -12675,13 +12677,13 @@
         <v>287</v>
       </c>
       <c r="D92" s="32">
-        <v>3663537</v>
+        <v>3829551</v>
       </c>
       <c r="E92" s="32">
-        <v>2703941</v>
+        <v>2794008</v>
       </c>
       <c r="F92" s="32">
-        <v>959596</v>
+        <v>1035543</v>
       </c>
     </row>
   </sheetData>
@@ -12692,7 +12694,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C295"/>
+  <dimension ref="A1:C300"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -12767,7 +12769,7 @@
         <v>44183</v>
       </c>
       <c r="C6" s="32">
-        <v>24803</v>
+        <v>24804</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12778,7 +12780,7 @@
         <v>44184</v>
       </c>
       <c r="C7" s="32">
-        <v>12380</v>
+        <v>12381</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12811,7 +12813,7 @@
         <v>44187</v>
       </c>
       <c r="C10" s="32">
-        <v>17204</v>
+        <v>17205</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12833,7 +12835,7 @@
         <v>44189</v>
       </c>
       <c r="C12" s="32">
-        <v>10270</v>
+        <v>10272</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12855,7 +12857,7 @@
         <v>44191</v>
       </c>
       <c r="C14" s="32">
-        <v>6664</v>
+        <v>6698</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12866,7 +12868,7 @@
         <v>44192</v>
       </c>
       <c r="C15" s="32">
-        <v>5302</v>
+        <v>5313</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12877,7 +12879,7 @@
         <v>44193</v>
       </c>
       <c r="C16" s="32">
-        <v>25467</v>
+        <v>25482</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12888,7 +12890,7 @@
         <v>44194</v>
       </c>
       <c r="C17" s="32">
-        <v>32097</v>
+        <v>32111</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12899,7 +12901,7 @@
         <v>44195</v>
       </c>
       <c r="C18" s="32">
-        <v>37933</v>
+        <v>37944</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12910,7 +12912,7 @@
         <v>44196</v>
       </c>
       <c r="C19" s="32">
-        <v>21672</v>
+        <v>21679</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12921,7 +12923,7 @@
         <v>44197</v>
       </c>
       <c r="C20" s="32">
-        <v>2302</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12932,7 +12934,7 @@
         <v>44198</v>
       </c>
       <c r="C21" s="32">
-        <v>9972</v>
+        <v>9996</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12943,7 +12945,7 @@
         <v>44199</v>
       </c>
       <c r="C22" s="32">
-        <v>6207</v>
+        <v>6218</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12954,7 +12956,7 @@
         <v>44200</v>
       </c>
       <c r="C23" s="32">
-        <v>24013</v>
+        <v>24061</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12965,7 +12967,7 @@
         <v>44201</v>
       </c>
       <c r="C24" s="32">
-        <v>27958</v>
+        <v>27985</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12976,7 +12978,7 @@
         <v>44202</v>
       </c>
       <c r="C25" s="32">
-        <v>36122</v>
+        <v>36144</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12987,7 +12989,7 @@
         <v>44203</v>
       </c>
       <c r="C26" s="32">
-        <v>40888</v>
+        <v>40930</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12998,7 +13000,7 @@
         <v>44204</v>
       </c>
       <c r="C27" s="32">
-        <v>44004</v>
+        <v>44013</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13009,7 +13011,7 @@
         <v>44205</v>
       </c>
       <c r="C28" s="32">
-        <v>18601</v>
+        <v>18604</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13020,7 +13022,7 @@
         <v>44206</v>
       </c>
       <c r="C29" s="32">
-        <v>8461</v>
+        <v>8472</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13031,7 +13033,7 @@
         <v>44207</v>
       </c>
       <c r="C30" s="32">
-        <v>28546</v>
+        <v>28574</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13042,7 +13044,7 @@
         <v>44208</v>
       </c>
       <c r="C31" s="32">
-        <v>29349</v>
+        <v>29391</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13053,7 +13055,7 @@
         <v>44209</v>
       </c>
       <c r="C32" s="32">
-        <v>27775</v>
+        <v>27897</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13064,7 +13066,7 @@
         <v>44210</v>
       </c>
       <c r="C33" s="32">
-        <v>21720</v>
+        <v>21757</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13075,7 +13077,7 @@
         <v>44211</v>
       </c>
       <c r="C34" s="32">
-        <v>23765</v>
+        <v>23784</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13086,7 +13088,7 @@
         <v>44212</v>
       </c>
       <c r="C35" s="32">
-        <v>12893</v>
+        <v>12985</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13097,7 +13099,7 @@
         <v>44213</v>
       </c>
       <c r="C36" s="32">
-        <v>2682</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13108,7 +13110,7 @@
         <v>44214</v>
       </c>
       <c r="C37" s="32">
-        <v>12164</v>
+        <v>12173</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13119,7 +13121,7 @@
         <v>44215</v>
       </c>
       <c r="C38" s="32">
-        <v>22351</v>
+        <v>22384</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13130,7 +13132,7 @@
         <v>44216</v>
       </c>
       <c r="C39" s="32">
-        <v>29906</v>
+        <v>30028</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13141,7 +13143,7 @@
         <v>44217</v>
       </c>
       <c r="C40" s="32">
-        <v>27487</v>
+        <v>27574</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13152,7 +13154,7 @@
         <v>44218</v>
       </c>
       <c r="C41" s="32">
-        <v>33084</v>
+        <v>33182</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13163,7 +13165,7 @@
         <v>44219</v>
       </c>
       <c r="C42" s="32">
-        <v>18228</v>
+        <v>18341</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13174,7 +13176,7 @@
         <v>44220</v>
       </c>
       <c r="C43" s="32">
-        <v>7759</v>
+        <v>7762</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13185,7 +13187,7 @@
         <v>44221</v>
       </c>
       <c r="C44" s="32">
-        <v>34275</v>
+        <v>34324</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13196,7 +13198,7 @@
         <v>44222</v>
       </c>
       <c r="C45" s="32">
-        <v>41097</v>
+        <v>41143</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13207,7 +13209,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="32">
-        <v>39874</v>
+        <v>40017</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13218,7 +13220,7 @@
         <v>44224</v>
       </c>
       <c r="C47" s="32">
-        <v>38624</v>
+        <v>38648</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13229,7 +13231,7 @@
         <v>44225</v>
       </c>
       <c r="C48" s="32">
-        <v>36213</v>
+        <v>36335</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13240,7 +13242,7 @@
         <v>44226</v>
       </c>
       <c r="C49" s="32">
-        <v>17467</v>
+        <v>17701</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13251,7 +13253,7 @@
         <v>44227</v>
       </c>
       <c r="C50" s="32">
-        <v>7572</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13262,7 +13264,7 @@
         <v>44228</v>
       </c>
       <c r="C51" s="32">
-        <v>31076</v>
+        <v>31199</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13273,7 +13275,7 @@
         <v>44229</v>
       </c>
       <c r="C52" s="32">
-        <v>30056</v>
+        <v>30164</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13284,7 +13286,7 @@
         <v>44230</v>
       </c>
       <c r="C53" s="32">
-        <v>40533</v>
+        <v>42081</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13295,7 +13297,7 @@
         <v>44231</v>
       </c>
       <c r="C54" s="32">
-        <v>36773</v>
+        <v>39380</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13306,7 +13308,7 @@
         <v>44232</v>
       </c>
       <c r="C55" s="32">
-        <v>42146</v>
+        <v>43371</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13317,7 +13319,7 @@
         <v>44233</v>
       </c>
       <c r="C56" s="32">
-        <v>22913</v>
+        <v>24395</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13328,7 +13330,7 @@
         <v>44234</v>
       </c>
       <c r="C57" s="32">
-        <v>5228</v>
+        <v>5257</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13339,7 +13341,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="32">
-        <v>22108</v>
+        <v>22838</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13350,7 +13352,7 @@
         <v>44236</v>
       </c>
       <c r="C59" s="32">
-        <v>12924</v>
+        <v>29624</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13361,18 +13363,18 @@
         <v>44237</v>
       </c>
       <c r="C60" s="32">
-        <v>10544</v>
+        <v>18515</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B61" s="35">
-        <v>44179</v>
+        <v>44238</v>
       </c>
       <c r="C61" s="32">
-        <v>139</v>
+        <v>8809</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13380,10 +13382,10 @@
         <v>283</v>
       </c>
       <c r="B62" s="35">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="C62" s="32">
-        <v>1491</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13391,10 +13393,10 @@
         <v>283</v>
       </c>
       <c r="B63" s="35">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="C63" s="32">
-        <v>4970</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13402,10 +13404,10 @@
         <v>283</v>
       </c>
       <c r="B64" s="35">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="C64" s="32">
-        <v>6643</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13413,10 +13415,10 @@
         <v>283</v>
       </c>
       <c r="B65" s="35">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="C65" s="32">
-        <v>10831</v>
+        <v>6644</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13424,10 +13426,10 @@
         <v>283</v>
       </c>
       <c r="B66" s="35">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="C66" s="32">
-        <v>4706</v>
+        <v>10831</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13435,10 +13437,10 @@
         <v>283</v>
       </c>
       <c r="B67" s="35">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="C67" s="32">
-        <v>2533</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13446,10 +13448,10 @@
         <v>283</v>
       </c>
       <c r="B68" s="35">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="C68" s="32">
-        <v>7902</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13457,10 +13459,10 @@
         <v>283</v>
       </c>
       <c r="B69" s="35">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="C69" s="32">
-        <v>7394</v>
+        <v>7902</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13468,10 +13470,10 @@
         <v>283</v>
       </c>
       <c r="B70" s="35">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="C70" s="32">
-        <v>10794</v>
+        <v>7395</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13479,10 +13481,10 @@
         <v>283</v>
       </c>
       <c r="B71" s="35">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="C71" s="32">
-        <v>4638</v>
+        <v>10795</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13490,10 +13492,10 @@
         <v>283</v>
       </c>
       <c r="B72" s="35">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="C72" s="32">
-        <v>665</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13501,10 +13503,10 @@
         <v>283</v>
       </c>
       <c r="B73" s="35">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="C73" s="32">
-        <v>3170</v>
+        <v>665</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13512,10 +13514,10 @@
         <v>283</v>
       </c>
       <c r="B74" s="35">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="C74" s="32">
-        <v>2236</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13523,10 +13525,10 @@
         <v>283</v>
       </c>
       <c r="B75" s="35">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="C75" s="32">
-        <v>12850</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13534,10 +13536,10 @@
         <v>283</v>
       </c>
       <c r="B76" s="35">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="C76" s="32">
-        <v>16945</v>
+        <v>12855</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13545,10 +13547,10 @@
         <v>283</v>
       </c>
       <c r="B77" s="35">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="C77" s="32">
-        <v>20799</v>
+        <v>16953</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13556,10 +13558,10 @@
         <v>283</v>
       </c>
       <c r="B78" s="35">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="C78" s="32">
-        <v>12619</v>
+        <v>20819</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13567,10 +13569,10 @@
         <v>283</v>
       </c>
       <c r="B79" s="35">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="C79" s="32">
-        <v>1193</v>
+        <v>12621</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13578,10 +13580,10 @@
         <v>283</v>
       </c>
       <c r="B80" s="35">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="C80" s="32">
-        <v>5720</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13589,10 +13591,10 @@
         <v>283</v>
       </c>
       <c r="B81" s="35">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="C81" s="32">
-        <v>3296</v>
+        <v>5741</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13600,10 +13602,10 @@
         <v>283</v>
       </c>
       <c r="B82" s="35">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="C82" s="32">
-        <v>14849</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13611,10 +13613,10 @@
         <v>283</v>
       </c>
       <c r="B83" s="35">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="C83" s="32">
-        <v>16601</v>
+        <v>14874</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13622,10 +13624,10 @@
         <v>283</v>
       </c>
       <c r="B84" s="35">
-        <v>44202</v>
+        <v>44201</v>
       </c>
       <c r="C84" s="32">
-        <v>20104</v>
+        <v>16611</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13633,10 +13635,10 @@
         <v>283</v>
       </c>
       <c r="B85" s="35">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="C85" s="32">
-        <v>22902</v>
+        <v>20123</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13644,10 +13646,10 @@
         <v>283</v>
       </c>
       <c r="B86" s="35">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="C86" s="32">
-        <v>24573</v>
+        <v>22924</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13655,10 +13657,10 @@
         <v>283</v>
       </c>
       <c r="B87" s="35">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="C87" s="32">
-        <v>10672</v>
+        <v>24581</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13666,10 +13668,10 @@
         <v>283</v>
       </c>
       <c r="B88" s="35">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="C88" s="32">
-        <v>4447</v>
+        <v>10680</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13677,10 +13679,10 @@
         <v>283</v>
       </c>
       <c r="B89" s="35">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="C89" s="32">
-        <v>18155</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13688,10 +13690,10 @@
         <v>283</v>
       </c>
       <c r="B90" s="35">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="C90" s="32">
-        <v>19929</v>
+        <v>18169</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13699,10 +13701,10 @@
         <v>283</v>
       </c>
       <c r="B91" s="35">
-        <v>44209</v>
+        <v>44208</v>
       </c>
       <c r="C91" s="32">
-        <v>19965</v>
+        <v>19971</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13710,10 +13712,10 @@
         <v>283</v>
       </c>
       <c r="B92" s="35">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="C92" s="32">
-        <v>17278</v>
+        <v>20056</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13721,10 +13723,10 @@
         <v>283</v>
       </c>
       <c r="B93" s="35">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="C93" s="32">
-        <v>17524</v>
+        <v>17348</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13732,10 +13734,10 @@
         <v>283</v>
       </c>
       <c r="B94" s="35">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="C94" s="32">
-        <v>11071</v>
+        <v>17543</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13743,10 +13745,10 @@
         <v>283</v>
       </c>
       <c r="B95" s="35">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="C95" s="32">
-        <v>1707</v>
+        <v>11124</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13754,10 +13756,10 @@
         <v>283</v>
       </c>
       <c r="B96" s="35">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="C96" s="32">
-        <v>8653</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13765,10 +13767,10 @@
         <v>283</v>
       </c>
       <c r="B97" s="35">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="C97" s="32">
-        <v>17224</v>
+        <v>8664</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13776,10 +13778,10 @@
         <v>283</v>
       </c>
       <c r="B98" s="35">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="C98" s="32">
-        <v>22602</v>
+        <v>17253</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13787,10 +13789,10 @@
         <v>283</v>
       </c>
       <c r="B99" s="35">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="C99" s="32">
-        <v>21841</v>
+        <v>22712</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13798,10 +13800,10 @@
         <v>283</v>
       </c>
       <c r="B100" s="35">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="C100" s="32">
-        <v>23271</v>
+        <v>21887</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13809,10 +13811,10 @@
         <v>283</v>
       </c>
       <c r="B101" s="35">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="C101" s="32">
-        <v>12873</v>
+        <v>23368</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13820,10 +13822,10 @@
         <v>283</v>
       </c>
       <c r="B102" s="35">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="C102" s="32">
-        <v>5205</v>
+        <v>12959</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13831,10 +13833,10 @@
         <v>283</v>
       </c>
       <c r="B103" s="35">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="C103" s="32">
-        <v>23067</v>
+        <v>5205</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13842,10 +13844,10 @@
         <v>283</v>
       </c>
       <c r="B104" s="35">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="C104" s="32">
-        <v>30073</v>
+        <v>23103</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13853,10 +13855,10 @@
         <v>283</v>
       </c>
       <c r="B105" s="35">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="C105" s="32">
-        <v>31022</v>
+        <v>30108</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13864,10 +13866,10 @@
         <v>283</v>
       </c>
       <c r="B106" s="35">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="C106" s="32">
-        <v>31114</v>
+        <v>31139</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13875,10 +13877,10 @@
         <v>283</v>
       </c>
       <c r="B107" s="35">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="C107" s="32">
-        <v>28641</v>
+        <v>31147</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13886,10 +13888,10 @@
         <v>283</v>
       </c>
       <c r="B108" s="35">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="C108" s="32">
-        <v>14030</v>
+        <v>28765</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13897,10 +13899,10 @@
         <v>283</v>
       </c>
       <c r="B109" s="35">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="C109" s="32">
-        <v>5899</v>
+        <v>14186</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13908,10 +13910,10 @@
         <v>283</v>
       </c>
       <c r="B110" s="35">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="C110" s="32">
-        <v>23544</v>
+        <v>5905</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13919,10 +13921,10 @@
         <v>283</v>
       </c>
       <c r="B111" s="35">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="C111" s="32">
-        <v>26546</v>
+        <v>23634</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13930,10 +13932,10 @@
         <v>283</v>
       </c>
       <c r="B112" s="35">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="C112" s="32">
-        <v>33405</v>
+        <v>26712</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13941,10 +13943,10 @@
         <v>283</v>
       </c>
       <c r="B113" s="35">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="C113" s="32">
-        <v>32557</v>
+        <v>34667</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13952,10 +13954,10 @@
         <v>283</v>
       </c>
       <c r="B114" s="35">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="C114" s="32">
-        <v>35951</v>
+        <v>34379</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13963,10 +13965,10 @@
         <v>283</v>
       </c>
       <c r="B115" s="35">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="C115" s="32">
-        <v>21528</v>
+        <v>36655</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13974,10 +13976,10 @@
         <v>283</v>
       </c>
       <c r="B116" s="35">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="C116" s="32">
-        <v>5665</v>
+        <v>22383</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13985,10 +13987,10 @@
         <v>283</v>
       </c>
       <c r="B117" s="35">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="C117" s="32">
-        <v>20242</v>
+        <v>5684</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13996,10 +13998,10 @@
         <v>283</v>
       </c>
       <c r="B118" s="35">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="C118" s="32">
-        <v>12758</v>
+        <v>20859</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14007,32 +14009,32 @@
         <v>283</v>
       </c>
       <c r="B119" s="35">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="C119" s="32">
-        <v>11130</v>
+        <v>27143</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B120" s="35">
-        <v>44179</v>
+        <v>44237</v>
       </c>
       <c r="C120" s="32">
-        <v>24</v>
+        <v>19214</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B121" s="35">
-        <v>44180</v>
+        <v>44238</v>
       </c>
       <c r="C121" s="32">
-        <v>304</v>
+        <v>9876</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14040,10 +14042,10 @@
         <v>284</v>
       </c>
       <c r="B122" s="35">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="C122" s="32">
-        <v>955</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14051,10 +14053,10 @@
         <v>284</v>
       </c>
       <c r="B123" s="35">
-        <v>44182</v>
+        <v>44180</v>
       </c>
       <c r="C123" s="32">
-        <v>1430</v>
+        <v>305</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14062,10 +14064,10 @@
         <v>284</v>
       </c>
       <c r="B124" s="35">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="C124" s="32">
-        <v>2028</v>
+        <v>955</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14073,10 +14075,10 @@
         <v>284</v>
       </c>
       <c r="B125" s="35">
-        <v>44184</v>
+        <v>44182</v>
       </c>
       <c r="C125" s="32">
-        <v>1009</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14084,10 +14086,10 @@
         <v>284</v>
       </c>
       <c r="B126" s="35">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="C126" s="32">
-        <v>498</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14095,10 +14097,10 @@
         <v>284</v>
       </c>
       <c r="B127" s="35">
-        <v>44186</v>
+        <v>44184</v>
       </c>
       <c r="C127" s="32">
-        <v>1511</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14106,10 +14108,10 @@
         <v>284</v>
       </c>
       <c r="B128" s="35">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="C128" s="32">
-        <v>2104</v>
+        <v>498</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14117,10 +14119,10 @@
         <v>284</v>
       </c>
       <c r="B129" s="35">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="C129" s="32">
-        <v>2925</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14128,10 +14130,10 @@
         <v>284</v>
       </c>
       <c r="B130" s="35">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="C130" s="32">
-        <v>1886</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14139,10 +14141,10 @@
         <v>284</v>
       </c>
       <c r="B131" s="35">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="C131" s="32">
-        <v>325</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14150,10 +14152,10 @@
         <v>284</v>
       </c>
       <c r="B132" s="35">
-        <v>44191</v>
+        <v>44189</v>
       </c>
       <c r="C132" s="32">
-        <v>1716</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14161,10 +14163,10 @@
         <v>284</v>
       </c>
       <c r="B133" s="35">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="C133" s="32">
-        <v>1120</v>
+        <v>325</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14172,10 +14174,10 @@
         <v>284</v>
       </c>
       <c r="B134" s="35">
-        <v>44193</v>
+        <v>44191</v>
       </c>
       <c r="C134" s="32">
-        <v>6653</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14183,10 +14185,10 @@
         <v>284</v>
       </c>
       <c r="B135" s="35">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="C135" s="32">
-        <v>10702</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14194,10 +14196,10 @@
         <v>284</v>
       </c>
       <c r="B136" s="35">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="C136" s="32">
-        <v>17407</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14205,10 +14207,10 @@
         <v>284</v>
       </c>
       <c r="B137" s="35">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="C137" s="32">
-        <v>10879</v>
+        <v>10738</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14216,10 +14218,10 @@
         <v>284</v>
       </c>
       <c r="B138" s="35">
-        <v>44197</v>
+        <v>44195</v>
       </c>
       <c r="C138" s="32">
-        <v>1326</v>
+        <v>17468</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14227,10 +14229,10 @@
         <v>284</v>
       </c>
       <c r="B139" s="35">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="C139" s="32">
-        <v>6248</v>
+        <v>10881</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14238,10 +14240,10 @@
         <v>284</v>
       </c>
       <c r="B140" s="35">
-        <v>44199</v>
+        <v>44197</v>
       </c>
       <c r="C140" s="32">
-        <v>3502</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14249,10 +14251,10 @@
         <v>284</v>
       </c>
       <c r="B141" s="35">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="C141" s="32">
-        <v>16266</v>
+        <v>6283</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14260,10 +14262,10 @@
         <v>284</v>
       </c>
       <c r="B142" s="35">
-        <v>44201</v>
+        <v>44199</v>
       </c>
       <c r="C142" s="32">
-        <v>18378</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14271,10 +14273,10 @@
         <v>284</v>
       </c>
       <c r="B143" s="35">
-        <v>44202</v>
+        <v>44200</v>
       </c>
       <c r="C143" s="32">
-        <v>20346</v>
+        <v>16294</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14282,10 +14284,10 @@
         <v>284</v>
       </c>
       <c r="B144" s="35">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="C144" s="32">
-        <v>24446</v>
+        <v>18386</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14293,10 +14295,10 @@
         <v>284</v>
       </c>
       <c r="B145" s="35">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="C145" s="32">
-        <v>24696</v>
+        <v>20357</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14304,10 +14306,10 @@
         <v>284</v>
       </c>
       <c r="B146" s="35">
-        <v>44205</v>
+        <v>44203</v>
       </c>
       <c r="C146" s="32">
-        <v>14030</v>
+        <v>24466</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14315,10 +14317,10 @@
         <v>284</v>
       </c>
       <c r="B147" s="35">
-        <v>44206</v>
+        <v>44204</v>
       </c>
       <c r="C147" s="32">
-        <v>4415</v>
+        <v>24718</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14326,10 +14328,10 @@
         <v>284</v>
       </c>
       <c r="B148" s="35">
-        <v>44207</v>
+        <v>44205</v>
       </c>
       <c r="C148" s="32">
-        <v>23761</v>
+        <v>14043</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14337,10 +14339,10 @@
         <v>284</v>
       </c>
       <c r="B149" s="35">
-        <v>44208</v>
+        <v>44206</v>
       </c>
       <c r="C149" s="32">
-        <v>28856</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14348,10 +14350,10 @@
         <v>284</v>
       </c>
       <c r="B150" s="35">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="C150" s="32">
-        <v>29784</v>
+        <v>23774</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14359,10 +14361,10 @@
         <v>284</v>
       </c>
       <c r="B151" s="35">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="C151" s="32">
-        <v>34180</v>
+        <v>28921</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14370,10 +14372,10 @@
         <v>284</v>
       </c>
       <c r="B152" s="35">
-        <v>44211</v>
+        <v>44209</v>
       </c>
       <c r="C152" s="32">
-        <v>30487</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14381,10 +14383,10 @@
         <v>284</v>
       </c>
       <c r="B153" s="35">
-        <v>44212</v>
+        <v>44210</v>
       </c>
       <c r="C153" s="32">
-        <v>25374</v>
+        <v>34356</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14392,10 +14394,10 @@
         <v>284</v>
       </c>
       <c r="B154" s="35">
-        <v>44213</v>
+        <v>44211</v>
       </c>
       <c r="C154" s="32">
-        <v>6704</v>
+        <v>30519</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14403,10 +14405,10 @@
         <v>284</v>
       </c>
       <c r="B155" s="35">
-        <v>44214</v>
+        <v>44212</v>
       </c>
       <c r="C155" s="32">
-        <v>12122</v>
+        <v>25463</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14414,10 +14416,10 @@
         <v>284</v>
       </c>
       <c r="B156" s="35">
-        <v>44215</v>
+        <v>44213</v>
       </c>
       <c r="C156" s="32">
-        <v>22869</v>
+        <v>6708</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14425,10 +14427,10 @@
         <v>284</v>
       </c>
       <c r="B157" s="35">
-        <v>44216</v>
+        <v>44214</v>
       </c>
       <c r="C157" s="32">
-        <v>31666</v>
+        <v>12136</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14436,10 +14438,10 @@
         <v>284</v>
       </c>
       <c r="B158" s="35">
-        <v>44217</v>
+        <v>44215</v>
       </c>
       <c r="C158" s="32">
-        <v>33628</v>
+        <v>22892</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14447,10 +14449,10 @@
         <v>284</v>
       </c>
       <c r="B159" s="35">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="C159" s="32">
-        <v>30067</v>
+        <v>31813</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14458,10 +14460,10 @@
         <v>284</v>
       </c>
       <c r="B160" s="35">
-        <v>44219</v>
+        <v>44217</v>
       </c>
       <c r="C160" s="32">
-        <v>21555</v>
+        <v>33687</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14469,10 +14471,10 @@
         <v>284</v>
       </c>
       <c r="B161" s="35">
-        <v>44220</v>
+        <v>44218</v>
       </c>
       <c r="C161" s="32">
-        <v>8982</v>
+        <v>30199</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14480,10 +14482,10 @@
         <v>284</v>
       </c>
       <c r="B162" s="35">
-        <v>44221</v>
+        <v>44219</v>
       </c>
       <c r="C162" s="32">
-        <v>26732</v>
+        <v>21685</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14491,10 +14493,10 @@
         <v>284</v>
       </c>
       <c r="B163" s="35">
-        <v>44222</v>
+        <v>44220</v>
       </c>
       <c r="C163" s="32">
-        <v>37811</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14502,10 +14504,10 @@
         <v>284</v>
       </c>
       <c r="B164" s="35">
-        <v>44223</v>
+        <v>44221</v>
       </c>
       <c r="C164" s="32">
-        <v>44028</v>
+        <v>26783</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14513,10 +14515,10 @@
         <v>284</v>
       </c>
       <c r="B165" s="35">
-        <v>44224</v>
+        <v>44222</v>
       </c>
       <c r="C165" s="32">
-        <v>48769</v>
+        <v>37881</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14524,10 +14526,10 @@
         <v>284</v>
       </c>
       <c r="B166" s="35">
-        <v>44225</v>
+        <v>44223</v>
       </c>
       <c r="C166" s="32">
-        <v>44335</v>
+        <v>44132</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14535,10 +14537,10 @@
         <v>284</v>
       </c>
       <c r="B167" s="35">
-        <v>44226</v>
+        <v>44224</v>
       </c>
       <c r="C167" s="32">
-        <v>22462</v>
+        <v>48792</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14546,10 +14548,10 @@
         <v>284</v>
       </c>
       <c r="B168" s="35">
-        <v>44227</v>
+        <v>44225</v>
       </c>
       <c r="C168" s="32">
-        <v>7142</v>
+        <v>44447</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14557,10 +14559,10 @@
         <v>284</v>
       </c>
       <c r="B169" s="35">
-        <v>44228</v>
+        <v>44226</v>
       </c>
       <c r="C169" s="32">
-        <v>34614</v>
+        <v>22555</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14568,10 +14570,10 @@
         <v>284</v>
       </c>
       <c r="B170" s="35">
-        <v>44229</v>
+        <v>44227</v>
       </c>
       <c r="C170" s="32">
-        <v>42974</v>
+        <v>7155</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14579,10 +14581,10 @@
         <v>284</v>
       </c>
       <c r="B171" s="35">
-        <v>44230</v>
+        <v>44228</v>
       </c>
       <c r="C171" s="32">
-        <v>56277</v>
+        <v>34686</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14590,10 +14592,10 @@
         <v>284</v>
       </c>
       <c r="B172" s="35">
-        <v>44231</v>
+        <v>44229</v>
       </c>
       <c r="C172" s="32">
-        <v>61645</v>
+        <v>43339</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14601,10 +14603,10 @@
         <v>284</v>
       </c>
       <c r="B173" s="35">
-        <v>44232</v>
+        <v>44230</v>
       </c>
       <c r="C173" s="32">
-        <v>64555</v>
+        <v>57433</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14612,10 +14614,10 @@
         <v>284</v>
       </c>
       <c r="B174" s="35">
-        <v>44233</v>
+        <v>44231</v>
       </c>
       <c r="C174" s="32">
-        <v>44503</v>
+        <v>66225</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14623,10 +14625,10 @@
         <v>284</v>
       </c>
       <c r="B175" s="35">
-        <v>44234</v>
+        <v>44232</v>
       </c>
       <c r="C175" s="32">
-        <v>15104</v>
+        <v>65439</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14634,10 +14636,10 @@
         <v>284</v>
       </c>
       <c r="B176" s="35">
-        <v>44235</v>
+        <v>44233</v>
       </c>
       <c r="C176" s="32">
-        <v>35447</v>
+        <v>46026</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14645,10 +14647,10 @@
         <v>284</v>
       </c>
       <c r="B177" s="35">
-        <v>44236</v>
+        <v>44234</v>
       </c>
       <c r="C177" s="32">
-        <v>20614</v>
+        <v>15125</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14656,43 +14658,43 @@
         <v>284</v>
       </c>
       <c r="B178" s="35">
-        <v>44237</v>
+        <v>44235</v>
       </c>
       <c r="C178" s="32">
-        <v>20003</v>
+        <v>36352</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B179" s="35">
-        <v>44179</v>
+        <v>44236</v>
       </c>
       <c r="C179" s="32">
-        <v>1</v>
+        <v>45584</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B180" s="35">
-        <v>44180</v>
+        <v>44237</v>
       </c>
       <c r="C180" s="32">
-        <v>7</v>
+        <v>32823</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B181" s="35">
-        <v>44181</v>
+        <v>44238</v>
       </c>
       <c r="C181" s="32">
-        <v>34</v>
+        <v>16693</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14700,10 +14702,10 @@
         <v>285</v>
       </c>
       <c r="B182" s="35">
-        <v>44182</v>
+        <v>44179</v>
       </c>
       <c r="C182" s="32">
-        <v>69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14711,10 +14713,10 @@
         <v>285</v>
       </c>
       <c r="B183" s="35">
-        <v>44183</v>
+        <v>44180</v>
       </c>
       <c r="C183" s="32">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14722,10 +14724,10 @@
         <v>285</v>
       </c>
       <c r="B184" s="35">
-        <v>44184</v>
+        <v>44181</v>
       </c>
       <c r="C184" s="32">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14733,10 +14735,10 @@
         <v>285</v>
       </c>
       <c r="B185" s="35">
-        <v>44185</v>
+        <v>44182</v>
       </c>
       <c r="C185" s="32">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14744,10 +14746,10 @@
         <v>285</v>
       </c>
       <c r="B186" s="35">
-        <v>44186</v>
+        <v>44183</v>
       </c>
       <c r="C186" s="32">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14755,10 +14757,10 @@
         <v>285</v>
       </c>
       <c r="B187" s="35">
-        <v>44187</v>
+        <v>44184</v>
       </c>
       <c r="C187" s="32">
-        <v>162</v>
+        <v>47</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14766,10 +14768,10 @@
         <v>285</v>
       </c>
       <c r="B188" s="35">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="C188" s="32">
-        <v>583</v>
+        <v>89</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14777,10 +14779,10 @@
         <v>285</v>
       </c>
       <c r="B189" s="35">
-        <v>44189</v>
+        <v>44186</v>
       </c>
       <c r="C189" s="32">
-        <v>409</v>
+        <v>62</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14788,10 +14790,10 @@
         <v>285</v>
       </c>
       <c r="B190" s="35">
-        <v>44190</v>
+        <v>44187</v>
       </c>
       <c r="C190" s="32">
-        <v>57</v>
+        <v>162</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14799,10 +14801,10 @@
         <v>285</v>
       </c>
       <c r="B191" s="35">
-        <v>44191</v>
+        <v>44188</v>
       </c>
       <c r="C191" s="32">
-        <v>507</v>
+        <v>584</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14810,10 +14812,10 @@
         <v>285</v>
       </c>
       <c r="B192" s="35">
-        <v>44192</v>
+        <v>44189</v>
       </c>
       <c r="C192" s="32">
-        <v>367</v>
+        <v>409</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14821,10 +14823,10 @@
         <v>285</v>
       </c>
       <c r="B193" s="35">
-        <v>44193</v>
+        <v>44190</v>
       </c>
       <c r="C193" s="32">
-        <v>2717</v>
+        <v>57</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14832,10 +14834,10 @@
         <v>285</v>
       </c>
       <c r="B194" s="35">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="C194" s="32">
-        <v>5559</v>
+        <v>509</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14843,10 +14845,10 @@
         <v>285</v>
       </c>
       <c r="B195" s="35">
-        <v>44195</v>
+        <v>44192</v>
       </c>
       <c r="C195" s="32">
-        <v>7191</v>
+        <v>367</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14854,10 +14856,10 @@
         <v>285</v>
       </c>
       <c r="B196" s="35">
-        <v>44196</v>
+        <v>44193</v>
       </c>
       <c r="C196" s="32">
-        <v>3216</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14865,10 +14867,10 @@
         <v>285</v>
       </c>
       <c r="B197" s="35">
-        <v>44197</v>
+        <v>44194</v>
       </c>
       <c r="C197" s="32">
-        <v>414</v>
+        <v>5575</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14876,10 +14878,10 @@
         <v>285</v>
       </c>
       <c r="B198" s="35">
-        <v>44198</v>
+        <v>44195</v>
       </c>
       <c r="C198" s="32">
-        <v>2054</v>
+        <v>7196</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14887,10 +14889,10 @@
         <v>285</v>
       </c>
       <c r="B199" s="35">
-        <v>44199</v>
+        <v>44196</v>
       </c>
       <c r="C199" s="32">
-        <v>1241</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14898,10 +14900,10 @@
         <v>285</v>
       </c>
       <c r="B200" s="35">
-        <v>44200</v>
+        <v>44197</v>
       </c>
       <c r="C200" s="32">
-        <v>6658</v>
+        <v>417</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14909,10 +14911,10 @@
         <v>285</v>
       </c>
       <c r="B201" s="35">
-        <v>44201</v>
+        <v>44198</v>
       </c>
       <c r="C201" s="32">
-        <v>5851</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14920,10 +14922,10 @@
         <v>285</v>
       </c>
       <c r="B202" s="35">
-        <v>44202</v>
+        <v>44199</v>
       </c>
       <c r="C202" s="32">
-        <v>7566</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14931,10 +14933,10 @@
         <v>285</v>
       </c>
       <c r="B203" s="35">
-        <v>44203</v>
+        <v>44200</v>
       </c>
       <c r="C203" s="32">
-        <v>9428</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14942,10 +14944,10 @@
         <v>285</v>
       </c>
       <c r="B204" s="35">
-        <v>44204</v>
+        <v>44201</v>
       </c>
       <c r="C204" s="32">
-        <v>8637</v>
+        <v>5854</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14953,10 +14955,10 @@
         <v>285</v>
       </c>
       <c r="B205" s="35">
-        <v>44205</v>
+        <v>44202</v>
       </c>
       <c r="C205" s="32">
-        <v>4755</v>
+        <v>7578</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14964,10 +14966,10 @@
         <v>285</v>
       </c>
       <c r="B206" s="35">
-        <v>44206</v>
+        <v>44203</v>
       </c>
       <c r="C206" s="32">
-        <v>1384</v>
+        <v>9436</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14975,10 +14977,10 @@
         <v>285</v>
       </c>
       <c r="B207" s="35">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="C207" s="32">
-        <v>8418</v>
+        <v>8651</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14986,10 +14988,10 @@
         <v>285</v>
       </c>
       <c r="B208" s="35">
-        <v>44208</v>
+        <v>44205</v>
       </c>
       <c r="C208" s="32">
-        <v>9238</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14997,10 +14999,10 @@
         <v>285</v>
       </c>
       <c r="B209" s="35">
-        <v>44209</v>
+        <v>44206</v>
       </c>
       <c r="C209" s="32">
-        <v>11539</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15008,10 +15010,10 @@
         <v>285</v>
       </c>
       <c r="B210" s="35">
-        <v>44210</v>
+        <v>44207</v>
       </c>
       <c r="C210" s="32">
-        <v>11996</v>
+        <v>8421</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15019,10 +15021,10 @@
         <v>285</v>
       </c>
       <c r="B211" s="35">
-        <v>44211</v>
+        <v>44208</v>
       </c>
       <c r="C211" s="32">
-        <v>8968</v>
+        <v>9272</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15030,10 +15032,10 @@
         <v>285</v>
       </c>
       <c r="B212" s="35">
-        <v>44212</v>
+        <v>44209</v>
       </c>
       <c r="C212" s="32">
-        <v>5462</v>
+        <v>11583</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15041,10 +15043,10 @@
         <v>285</v>
       </c>
       <c r="B213" s="35">
-        <v>44213</v>
+        <v>44210</v>
       </c>
       <c r="C213" s="32">
-        <v>1702</v>
+        <v>12113</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15052,10 +15054,10 @@
         <v>285</v>
       </c>
       <c r="B214" s="35">
-        <v>44214</v>
+        <v>44211</v>
       </c>
       <c r="C214" s="32">
-        <v>5148</v>
+        <v>8978</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15063,10 +15065,10 @@
         <v>285</v>
       </c>
       <c r="B215" s="35">
-        <v>44215</v>
+        <v>44212</v>
       </c>
       <c r="C215" s="32">
-        <v>8787</v>
+        <v>5468</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15074,10 +15076,10 @@
         <v>285</v>
       </c>
       <c r="B216" s="35">
-        <v>44216</v>
+        <v>44213</v>
       </c>
       <c r="C216" s="32">
-        <v>10968</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15085,10 +15087,10 @@
         <v>285</v>
       </c>
       <c r="B217" s="35">
-        <v>44217</v>
+        <v>44214</v>
       </c>
       <c r="C217" s="32">
-        <v>10635</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15096,10 +15098,10 @@
         <v>285</v>
       </c>
       <c r="B218" s="35">
-        <v>44218</v>
+        <v>44215</v>
       </c>
       <c r="C218" s="32">
-        <v>8487</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15107,10 +15109,10 @@
         <v>285</v>
       </c>
       <c r="B219" s="35">
-        <v>44219</v>
+        <v>44216</v>
       </c>
       <c r="C219" s="32">
-        <v>6030</v>
+        <v>10982</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15118,10 +15120,10 @@
         <v>285</v>
       </c>
       <c r="B220" s="35">
-        <v>44220</v>
+        <v>44217</v>
       </c>
       <c r="C220" s="32">
-        <v>2020</v>
+        <v>10649</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15129,10 +15131,10 @@
         <v>285</v>
       </c>
       <c r="B221" s="35">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="C221" s="32">
-        <v>8949</v>
+        <v>8524</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15140,10 +15142,10 @@
         <v>285</v>
       </c>
       <c r="B222" s="35">
-        <v>44222</v>
+        <v>44219</v>
       </c>
       <c r="C222" s="32">
-        <v>13148</v>
+        <v>6047</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15151,10 +15153,10 @@
         <v>285</v>
       </c>
       <c r="B223" s="35">
-        <v>44223</v>
+        <v>44220</v>
       </c>
       <c r="C223" s="32">
-        <v>15124</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15162,10 +15164,10 @@
         <v>285</v>
       </c>
       <c r="B224" s="35">
-        <v>44224</v>
+        <v>44221</v>
       </c>
       <c r="C224" s="32">
-        <v>15861</v>
+        <v>8957</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15173,10 +15175,10 @@
         <v>285</v>
       </c>
       <c r="B225" s="35">
-        <v>44225</v>
+        <v>44222</v>
       </c>
       <c r="C225" s="32">
-        <v>13495</v>
+        <v>13179</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15184,10 +15186,10 @@
         <v>285</v>
       </c>
       <c r="B226" s="35">
-        <v>44226</v>
+        <v>44223</v>
       </c>
       <c r="C226" s="32">
-        <v>6928</v>
+        <v>15163</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15195,10 +15197,10 @@
         <v>285</v>
       </c>
       <c r="B227" s="35">
-        <v>44227</v>
+        <v>44224</v>
       </c>
       <c r="C227" s="32">
-        <v>3367</v>
+        <v>15870</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15206,10 +15208,10 @@
         <v>285</v>
       </c>
       <c r="B228" s="35">
-        <v>44228</v>
+        <v>44225</v>
       </c>
       <c r="C228" s="32">
-        <v>12319</v>
+        <v>13548</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15217,10 +15219,10 @@
         <v>285</v>
       </c>
       <c r="B229" s="35">
-        <v>44229</v>
+        <v>44226</v>
       </c>
       <c r="C229" s="32">
-        <v>15367</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15228,10 +15230,10 @@
         <v>285</v>
       </c>
       <c r="B230" s="35">
-        <v>44230</v>
+        <v>44227</v>
       </c>
       <c r="C230" s="32">
-        <v>16698</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15239,10 +15241,10 @@
         <v>285</v>
       </c>
       <c r="B231" s="35">
-        <v>44231</v>
+        <v>44228</v>
       </c>
       <c r="C231" s="32">
-        <v>17439</v>
+        <v>12327</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15250,10 +15252,10 @@
         <v>285</v>
       </c>
       <c r="B232" s="35">
-        <v>44232</v>
+        <v>44229</v>
       </c>
       <c r="C232" s="32">
-        <v>18985</v>
+        <v>15462</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15261,10 +15263,10 @@
         <v>285</v>
       </c>
       <c r="B233" s="35">
-        <v>44233</v>
+        <v>44230</v>
       </c>
       <c r="C233" s="32">
-        <v>11301</v>
+        <v>17117</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15272,10 +15274,10 @@
         <v>285</v>
       </c>
       <c r="B234" s="35">
-        <v>44234</v>
+        <v>44231</v>
       </c>
       <c r="C234" s="32">
-        <v>2951</v>
+        <v>18606</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15283,10 +15285,10 @@
         <v>285</v>
       </c>
       <c r="B235" s="35">
-        <v>44235</v>
+        <v>44232</v>
       </c>
       <c r="C235" s="32">
-        <v>10957</v>
+        <v>19257</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15294,10 +15296,10 @@
         <v>285</v>
       </c>
       <c r="B236" s="35">
-        <v>44236</v>
+        <v>44233</v>
       </c>
       <c r="C236" s="32">
-        <v>6070</v>
+        <v>11618</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15305,54 +15307,54 @@
         <v>285</v>
       </c>
       <c r="B237" s="35">
-        <v>44237</v>
+        <v>44234</v>
       </c>
       <c r="C237" s="32">
-        <v>5666</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B238" s="35">
-        <v>44180</v>
+        <v>44235</v>
       </c>
       <c r="C238" s="32">
-        <v>2</v>
+        <v>11189</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B239" s="35">
-        <v>44181</v>
+        <v>44236</v>
       </c>
       <c r="C239" s="32">
-        <v>6</v>
+        <v>12742</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B240" s="35">
-        <v>44182</v>
+        <v>44237</v>
       </c>
       <c r="C240" s="32">
-        <v>13</v>
+        <v>8906</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B241" s="35">
-        <v>44183</v>
+        <v>44238</v>
       </c>
       <c r="C241" s="32">
-        <v>40</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15360,10 +15362,10 @@
         <v>286</v>
       </c>
       <c r="B242" s="35">
-        <v>44184</v>
+        <v>44180</v>
       </c>
       <c r="C242" s="32">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15371,10 +15373,10 @@
         <v>286</v>
       </c>
       <c r="B243" s="35">
-        <v>44185</v>
+        <v>44181</v>
       </c>
       <c r="C243" s="32">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15382,10 +15384,10 @@
         <v>286</v>
       </c>
       <c r="B244" s="35">
-        <v>44186</v>
+        <v>44182</v>
       </c>
       <c r="C244" s="32">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15393,10 +15395,10 @@
         <v>286</v>
       </c>
       <c r="B245" s="35">
-        <v>44187</v>
+        <v>44183</v>
       </c>
       <c r="C245" s="32">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15404,10 +15406,10 @@
         <v>286</v>
       </c>
       <c r="B246" s="35">
-        <v>44188</v>
+        <v>44184</v>
       </c>
       <c r="C246" s="32">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15415,10 +15417,10 @@
         <v>286</v>
       </c>
       <c r="B247" s="35">
-        <v>44189</v>
+        <v>44185</v>
       </c>
       <c r="C247" s="32">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15426,10 +15428,10 @@
         <v>286</v>
       </c>
       <c r="B248" s="35">
-        <v>44190</v>
+        <v>44186</v>
       </c>
       <c r="C248" s="32">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15437,10 +15439,10 @@
         <v>286</v>
       </c>
       <c r="B249" s="35">
-        <v>44191</v>
+        <v>44187</v>
       </c>
       <c r="C249" s="32">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15448,10 +15450,10 @@
         <v>286</v>
       </c>
       <c r="B250" s="35">
-        <v>44192</v>
+        <v>44188</v>
       </c>
       <c r="C250" s="32">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15459,10 +15461,10 @@
         <v>286</v>
       </c>
       <c r="B251" s="35">
-        <v>44193</v>
+        <v>44189</v>
       </c>
       <c r="C251" s="32">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15470,10 +15472,10 @@
         <v>286</v>
       </c>
       <c r="B252" s="35">
-        <v>44194</v>
+        <v>44190</v>
       </c>
       <c r="C252" s="32">
-        <v>78</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15481,10 +15483,10 @@
         <v>286</v>
       </c>
       <c r="B253" s="35">
-        <v>44195</v>
+        <v>44191</v>
       </c>
       <c r="C253" s="32">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15492,10 +15494,10 @@
         <v>286</v>
       </c>
       <c r="B254" s="35">
-        <v>44196</v>
+        <v>44192</v>
       </c>
       <c r="C254" s="32">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15503,10 +15505,10 @@
         <v>286</v>
       </c>
       <c r="B255" s="35">
-        <v>44197</v>
+        <v>44193</v>
       </c>
       <c r="C255" s="32">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15514,10 +15516,10 @@
         <v>286</v>
       </c>
       <c r="B256" s="35">
-        <v>44198</v>
+        <v>44194</v>
       </c>
       <c r="C256" s="32">
-        <v>17</v>
+        <v>78</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15525,10 +15527,10 @@
         <v>286</v>
       </c>
       <c r="B257" s="35">
-        <v>44199</v>
+        <v>44195</v>
       </c>
       <c r="C257" s="32">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15536,10 +15538,10 @@
         <v>286</v>
       </c>
       <c r="B258" s="35">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="C258" s="32">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15547,10 +15549,10 @@
         <v>286</v>
       </c>
       <c r="B259" s="35">
-        <v>44201</v>
+        <v>44197</v>
       </c>
       <c r="C259" s="32">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15558,10 +15560,10 @@
         <v>286</v>
       </c>
       <c r="B260" s="35">
-        <v>44202</v>
+        <v>44198</v>
       </c>
       <c r="C260" s="32">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15569,10 +15571,10 @@
         <v>286</v>
       </c>
       <c r="B261" s="35">
-        <v>44203</v>
+        <v>44199</v>
       </c>
       <c r="C261" s="32">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15580,10 +15582,10 @@
         <v>286</v>
       </c>
       <c r="B262" s="35">
-        <v>44204</v>
+        <v>44200</v>
       </c>
       <c r="C262" s="32">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15591,10 +15593,10 @@
         <v>286</v>
       </c>
       <c r="B263" s="35">
-        <v>44205</v>
+        <v>44201</v>
       </c>
       <c r="C263" s="32">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15602,10 +15604,10 @@
         <v>286</v>
       </c>
       <c r="B264" s="35">
-        <v>44206</v>
+        <v>44202</v>
       </c>
       <c r="C264" s="32">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15613,10 +15615,10 @@
         <v>286</v>
       </c>
       <c r="B265" s="35">
-        <v>44207</v>
+        <v>44203</v>
       </c>
       <c r="C265" s="32">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15624,10 +15626,10 @@
         <v>286</v>
       </c>
       <c r="B266" s="35">
-        <v>44208</v>
+        <v>44204</v>
       </c>
       <c r="C266" s="32">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15635,10 +15637,10 @@
         <v>286</v>
       </c>
       <c r="B267" s="35">
-        <v>44209</v>
+        <v>44205</v>
       </c>
       <c r="C267" s="32">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15646,10 +15648,10 @@
         <v>286</v>
       </c>
       <c r="B268" s="35">
-        <v>44210</v>
+        <v>44206</v>
       </c>
       <c r="C268" s="32">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15657,10 +15659,10 @@
         <v>286</v>
       </c>
       <c r="B269" s="35">
-        <v>44211</v>
+        <v>44207</v>
       </c>
       <c r="C269" s="32">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15668,10 +15670,10 @@
         <v>286</v>
       </c>
       <c r="B270" s="35">
-        <v>44212</v>
+        <v>44208</v>
       </c>
       <c r="C270" s="32">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15679,10 +15681,10 @@
         <v>286</v>
       </c>
       <c r="B271" s="35">
-        <v>44213</v>
+        <v>44209</v>
       </c>
       <c r="C271" s="32">
-        <v>4</v>
+        <v>86</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15690,10 +15692,10 @@
         <v>286</v>
       </c>
       <c r="B272" s="35">
-        <v>44214</v>
+        <v>44210</v>
       </c>
       <c r="C272" s="32">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15701,10 +15703,10 @@
         <v>286</v>
       </c>
       <c r="B273" s="35">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="C273" s="32">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15712,10 +15714,10 @@
         <v>286</v>
       </c>
       <c r="B274" s="35">
-        <v>44216</v>
+        <v>44212</v>
       </c>
       <c r="C274" s="32">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15723,10 +15725,10 @@
         <v>286</v>
       </c>
       <c r="B275" s="35">
-        <v>44217</v>
+        <v>44213</v>
       </c>
       <c r="C275" s="32">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15734,10 +15736,10 @@
         <v>286</v>
       </c>
       <c r="B276" s="35">
-        <v>44218</v>
+        <v>44214</v>
       </c>
       <c r="C276" s="32">
-        <v>66</v>
+        <v>19</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15745,10 +15747,10 @@
         <v>286</v>
       </c>
       <c r="B277" s="35">
-        <v>44219</v>
+        <v>44215</v>
       </c>
       <c r="C277" s="32">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15756,10 +15758,10 @@
         <v>286</v>
       </c>
       <c r="B278" s="35">
-        <v>44220</v>
+        <v>44216</v>
       </c>
       <c r="C278" s="32">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15767,10 +15769,10 @@
         <v>286</v>
       </c>
       <c r="B279" s="35">
-        <v>44221</v>
+        <v>44217</v>
       </c>
       <c r="C279" s="32">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15778,10 +15780,10 @@
         <v>286</v>
       </c>
       <c r="B280" s="35">
-        <v>44222</v>
+        <v>44218</v>
       </c>
       <c r="C280" s="32">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15789,10 +15791,10 @@
         <v>286</v>
       </c>
       <c r="B281" s="35">
-        <v>44223</v>
+        <v>44219</v>
       </c>
       <c r="C281" s="32">
-        <v>76</v>
+        <v>33</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15800,10 +15802,10 @@
         <v>286</v>
       </c>
       <c r="B282" s="35">
-        <v>44224</v>
+        <v>44220</v>
       </c>
       <c r="C282" s="32">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15811,10 +15813,10 @@
         <v>286</v>
       </c>
       <c r="B283" s="35">
-        <v>44225</v>
+        <v>44221</v>
       </c>
       <c r="C283" s="32">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15822,10 +15824,10 @@
         <v>286</v>
       </c>
       <c r="B284" s="35">
-        <v>44226</v>
+        <v>44222</v>
       </c>
       <c r="C284" s="32">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15833,10 +15835,10 @@
         <v>286</v>
       </c>
       <c r="B285" s="35">
-        <v>44227</v>
+        <v>44223</v>
       </c>
       <c r="C285" s="32">
-        <v>3</v>
+        <v>77</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -15844,10 +15846,10 @@
         <v>286</v>
       </c>
       <c r="B286" s="36">
-        <v>44228</v>
+        <v>44224</v>
       </c>
       <c r="C286" s="33">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -15855,10 +15857,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="36">
-        <v>44229</v>
+        <v>44225</v>
       </c>
       <c r="C287" s="33">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -15866,10 +15868,10 @@
         <v>286</v>
       </c>
       <c r="B288" s="36">
-        <v>44230</v>
+        <v>44226</v>
       </c>
       <c r="C288" s="33">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -15877,10 +15879,10 @@
         <v>286</v>
       </c>
       <c r="B289" s="36">
-        <v>44231</v>
+        <v>44227</v>
       </c>
       <c r="C289" s="33">
-        <v>68</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -15888,10 +15890,10 @@
         <v>286</v>
       </c>
       <c r="B290" s="36">
-        <v>44232</v>
+        <v>44228</v>
       </c>
       <c r="C290" s="33">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -15899,10 +15901,10 @@
         <v>286</v>
       </c>
       <c r="B291" s="36">
-        <v>44233</v>
+        <v>44229</v>
       </c>
       <c r="C291" s="33">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -15910,10 +15912,10 @@
         <v>286</v>
       </c>
       <c r="B292" s="36">
-        <v>44234</v>
+        <v>44230</v>
       </c>
       <c r="C292" s="33">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -15921,10 +15923,10 @@
         <v>286</v>
       </c>
       <c r="B293" s="36">
-        <v>44235</v>
+        <v>44231</v>
       </c>
       <c r="C293" s="33">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -15932,10 +15934,10 @@
         <v>286</v>
       </c>
       <c r="B294" s="36">
-        <v>44236</v>
+        <v>44232</v>
       </c>
       <c r="C294" s="33">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -15943,10 +15945,65 @@
         <v>286</v>
       </c>
       <c r="B295" s="36">
+        <v>44233</v>
+      </c>
+      <c r="C295" s="33">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B296" s="36">
+        <v>44234</v>
+      </c>
+      <c r="C296" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B297" s="36">
+        <v>44235</v>
+      </c>
+      <c r="C297" s="33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B298" s="36">
+        <v>44236</v>
+      </c>
+      <c r="C298" s="33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B299" s="36">
         <v>44237</v>
       </c>
-      <c r="C295" s="33">
-        <v>36</v>
+      <c r="C299" s="33">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B300" s="36">
+        <v>44238</v>
+      </c>
+      <c r="C300" s="33">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Services/StateOfTexas/Data/COVID-19 Vaccine Data by County.xlsx
+++ b/Services/StateOfTexas/Data/COVID-19 Vaccine Data by County.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnicholas000\Desktop\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FEBF695-2E61-4B43-A701-9025E09FC0A1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94A78E0A-A60B-43D6-A87D-3FC57ED58344}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="311">
   <si>
     <t>County Name</t>
   </si>
@@ -1575,7 +1575,7 @@
     <col min="2" max="2" width="121.46484375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="48.65" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>270</v>
       </c>
@@ -1583,15 +1583,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>305</v>
       </c>
       <c r="B2" s="29">
-        <v>44240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>267</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>264</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>261</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>265</v>
       </c>
@@ -1700,18 +1700,18 @@
     <col min="1" max="1" width="19" style="14" customWidth="1"/>
     <col min="2" max="3" width="12.19921875" style="6" customWidth="1"/>
     <col min="4" max="5" width="20.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.796875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.73046875" style="6" customWidth="1"/>
     <col min="7" max="7" width="11.46484375" style="6" customWidth="1"/>
     <col min="8" max="8" width="13.19921875" style="6" customWidth="1"/>
     <col min="9" max="9" width="15.06640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.796875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.73046875" style="6" customWidth="1"/>
     <col min="11" max="11" width="12" style="6" customWidth="1"/>
     <col min="12" max="12" width="9.19921875" style="5"/>
     <col min="13" max="14" width="9.19921875" style="12"/>
     <col min="15" max="16384" width="9.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="64.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1756,20 +1756,20 @@
         <v>263</v>
       </c>
       <c r="C2" s="4">
-        <f>SUM(C3:C258)</f>
+        <f t="shared" ref="C2:K2" si="0">SUM(C4:C258)</f>
         <v>5225050</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="D2:K2" si="0">SUM(D4:D258)</f>
-        <v>3964801</v>
+        <f t="shared" si="0"/>
+        <v>4090423</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>2861794</v>
+        <v>2931147</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>1103007</v>
+        <v>1159276</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
@@ -1794,7 +1794,7 @@
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>296</v>
       </c>
@@ -1831,7 +1831,7 @@
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>5</v>
       </c>
@@ -1842,13 +1842,13 @@
         <v>6200</v>
       </c>
       <c r="D4" s="37">
-        <v>3251</v>
+        <v>3891</v>
       </c>
       <c r="E4" s="37">
-        <v>2610</v>
+        <v>2710</v>
       </c>
       <c r="F4" s="37">
-        <v>641</v>
+        <v>1181</v>
       </c>
       <c r="G4" s="38">
         <v>48045</v>
@@ -1866,7 +1866,7 @@
         <v>20206</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>7</v>
       </c>
@@ -1877,13 +1877,13 @@
         <v>1600</v>
       </c>
       <c r="D5" s="37">
-        <v>2940</v>
+        <v>2991</v>
       </c>
       <c r="E5" s="37">
-        <v>2317</v>
+        <v>2361</v>
       </c>
       <c r="F5" s="37">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="G5" s="38">
         <v>13503</v>
@@ -1901,7 +1901,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>8</v>
       </c>
@@ -1912,13 +1912,13 @@
         <v>15700</v>
       </c>
       <c r="D6" s="37">
-        <v>12969</v>
+        <v>13266</v>
       </c>
       <c r="E6" s="37">
-        <v>8841</v>
+        <v>8992</v>
       </c>
       <c r="F6" s="37">
-        <v>4128</v>
+        <v>4274</v>
       </c>
       <c r="G6" s="38">
         <v>67056</v>
@@ -1936,7 +1936,7 @@
         <v>28054</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>9</v>
       </c>
@@ -1947,13 +1947,13 @@
         <v>1100</v>
       </c>
       <c r="D7" s="37">
-        <v>2767</v>
+        <v>2947</v>
       </c>
       <c r="E7" s="37">
-        <v>2091</v>
+        <v>2200</v>
       </c>
       <c r="F7" s="37">
-        <v>676</v>
+        <v>747</v>
       </c>
       <c r="G7" s="38">
         <v>19803</v>
@@ -1971,7 +1971,7 @@
         <v>6701</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>10</v>
       </c>
@@ -1982,13 +1982,13 @@
         <v>700</v>
       </c>
       <c r="D8" s="37">
-        <v>1642</v>
+        <v>1726</v>
       </c>
       <c r="E8" s="37">
-        <v>1146</v>
+        <v>1191</v>
       </c>
       <c r="F8" s="37">
-        <v>496</v>
+        <v>535</v>
       </c>
       <c r="G8" s="38">
         <v>6921</v>
@@ -2006,7 +2006,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>11</v>
       </c>
@@ -2017,13 +2017,13 @@
         <v>400</v>
       </c>
       <c r="D9" s="37">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="E9" s="37">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F9" s="37">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G9" s="38">
         <v>1499</v>
@@ -2041,7 +2041,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>12</v>
       </c>
@@ -2052,13 +2052,13 @@
         <v>3600</v>
       </c>
       <c r="D10" s="37">
-        <v>4475</v>
+        <v>4629</v>
       </c>
       <c r="E10" s="37">
-        <v>3186</v>
+        <v>3289</v>
       </c>
       <c r="F10" s="37">
-        <v>1289</v>
+        <v>1340</v>
       </c>
       <c r="G10" s="38">
         <v>38768</v>
@@ -2076,7 +2076,7 @@
         <v>15239</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
         <v>13</v>
       </c>
@@ -2087,13 +2087,13 @@
         <v>2000</v>
       </c>
       <c r="D11" s="37">
-        <v>4228</v>
+        <v>4322</v>
       </c>
       <c r="E11" s="37">
-        <v>3235</v>
+        <v>3294</v>
       </c>
       <c r="F11" s="37">
-        <v>993</v>
+        <v>1028</v>
       </c>
       <c r="G11" s="38">
         <v>23704</v>
@@ -2111,7 +2111,7 @@
         <v>7873</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>15</v>
       </c>
@@ -2122,13 +2122,13 @@
         <v>5475</v>
       </c>
       <c r="D12" s="37">
-        <v>2426</v>
+        <v>2445</v>
       </c>
       <c r="E12" s="37">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="F12" s="37">
-        <v>984</v>
+        <v>1006</v>
       </c>
       <c r="G12" s="38">
         <v>5089</v>
@@ -2146,7 +2146,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
         <v>16</v>
       </c>
@@ -2157,13 +2157,13 @@
         <v>500</v>
       </c>
       <c r="D13" s="37">
-        <v>2342</v>
+        <v>2551</v>
       </c>
       <c r="E13" s="37">
-        <v>1869</v>
+        <v>2050</v>
       </c>
       <c r="F13" s="37">
-        <v>473</v>
+        <v>501</v>
       </c>
       <c r="G13" s="38">
         <v>19763</v>
@@ -2181,7 +2181,7 @@
         <v>6555</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
         <v>17</v>
       </c>
@@ -2192,13 +2192,13 @@
         <v>7500</v>
       </c>
       <c r="D14" s="37">
-        <v>5465</v>
+        <v>5602</v>
       </c>
       <c r="E14" s="37">
-        <v>3786</v>
+        <v>3850</v>
       </c>
       <c r="F14" s="37">
-        <v>1679</v>
+        <v>1752</v>
       </c>
       <c r="G14" s="38">
         <v>68839</v>
@@ -2216,7 +2216,7 @@
         <v>29356</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
         <v>18</v>
       </c>
@@ -2227,13 +2227,13 @@
         <v>2950</v>
       </c>
       <c r="D15" s="37">
-        <v>1231</v>
+        <v>1504</v>
       </c>
       <c r="E15" s="37">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="F15" s="37">
-        <v>396</v>
+        <v>656</v>
       </c>
       <c r="G15" s="38">
         <v>2793</v>
@@ -2251,7 +2251,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>19</v>
       </c>
@@ -2262,13 +2262,13 @@
         <v>16925</v>
       </c>
       <c r="D16" s="37">
-        <v>8226</v>
+        <v>8309</v>
       </c>
       <c r="E16" s="37">
-        <v>5512</v>
+        <v>5544</v>
       </c>
       <c r="F16" s="37">
-        <v>2714</v>
+        <v>2765</v>
       </c>
       <c r="G16" s="38">
         <v>26496</v>
@@ -2286,7 +2286,7 @@
         <v>11359</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
         <v>20</v>
       </c>
@@ -2297,13 +2297,13 @@
         <v>49450</v>
       </c>
       <c r="D17" s="37">
-        <v>33849</v>
+        <v>35421</v>
       </c>
       <c r="E17" s="37">
-        <v>22862</v>
+        <v>24183</v>
       </c>
       <c r="F17" s="37">
-        <v>10987</v>
+        <v>11238</v>
       </c>
       <c r="G17" s="38">
         <v>272969</v>
@@ -2321,7 +2321,7 @@
         <v>95066</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
         <v>21</v>
       </c>
@@ -2329,16 +2329,16 @@
         <v>275</v>
       </c>
       <c r="C18" s="37">
-        <v>376100</v>
+        <v>378050</v>
       </c>
       <c r="D18" s="37">
-        <v>274349</v>
+        <v>286558</v>
       </c>
       <c r="E18" s="37">
-        <v>193732</v>
+        <v>201180</v>
       </c>
       <c r="F18" s="37">
-        <v>80617</v>
+        <v>85378</v>
       </c>
       <c r="G18" s="38">
         <v>1552823</v>
@@ -2367,13 +2367,13 @@
         <v>900</v>
       </c>
       <c r="D19" s="37">
-        <v>1859</v>
+        <v>1880</v>
       </c>
       <c r="E19" s="37">
-        <v>1543</v>
+        <v>1562</v>
       </c>
       <c r="F19" s="37">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G19" s="38">
         <v>10092</v>
@@ -2402,13 +2402,13 @@
         <v>0</v>
       </c>
       <c r="D20" s="37">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E20" s="37">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F20" s="37">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G20" s="38">
         <v>543</v>
@@ -2437,13 +2437,13 @@
         <v>2900</v>
       </c>
       <c r="D21" s="37">
-        <v>2241</v>
+        <v>2607</v>
       </c>
       <c r="E21" s="37">
-        <v>1432</v>
+        <v>1625</v>
       </c>
       <c r="F21" s="37">
-        <v>809</v>
+        <v>982</v>
       </c>
       <c r="G21" s="38">
         <v>15224</v>
@@ -2472,13 +2472,13 @@
         <v>13350</v>
       </c>
       <c r="D22" s="37">
-        <v>6366</v>
+        <v>6685</v>
       </c>
       <c r="E22" s="37">
-        <v>4187</v>
+        <v>4448</v>
       </c>
       <c r="F22" s="37">
-        <v>2179</v>
+        <v>2237</v>
       </c>
       <c r="G22" s="38">
         <v>73689</v>
@@ -2507,13 +2507,13 @@
         <v>32000</v>
       </c>
       <c r="D23" s="37">
-        <v>48420</v>
+        <v>49922</v>
       </c>
       <c r="E23" s="37">
-        <v>33914</v>
+        <v>34735</v>
       </c>
       <c r="F23" s="37">
-        <v>14506</v>
+        <v>15187</v>
       </c>
       <c r="G23" s="38">
         <v>287683</v>
@@ -2542,13 +2542,13 @@
         <v>29100</v>
       </c>
       <c r="D24" s="37">
-        <v>20105</v>
+        <v>21198</v>
       </c>
       <c r="E24" s="37">
-        <v>15734</v>
+        <v>15902</v>
       </c>
       <c r="F24" s="37">
-        <v>4371</v>
+        <v>5296</v>
       </c>
       <c r="G24" s="38">
         <v>186843</v>
@@ -2577,13 +2577,13 @@
         <v>1300</v>
       </c>
       <c r="D25" s="37">
-        <v>2188</v>
+        <v>2310</v>
       </c>
       <c r="E25" s="37">
-        <v>1857</v>
+        <v>1947</v>
       </c>
       <c r="F25" s="37">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="G25" s="38">
         <v>7706</v>
@@ -2612,13 +2612,13 @@
         <v>400</v>
       </c>
       <c r="D26" s="37">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E26" s="37">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F26" s="37">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G26" s="38">
         <v>1272</v>
@@ -2647,13 +2647,13 @@
         <v>900</v>
       </c>
       <c r="D27" s="37">
-        <v>1183</v>
+        <v>1208</v>
       </c>
       <c r="E27" s="37">
-        <v>973</v>
+        <v>985</v>
       </c>
       <c r="F27" s="37">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="G27" s="38">
         <v>5317</v>
@@ -2682,13 +2682,13 @@
         <v>2700</v>
       </c>
       <c r="D28" s="37">
-        <v>3495</v>
+        <v>3563</v>
       </c>
       <c r="E28" s="37">
-        <v>2513</v>
+        <v>2547</v>
       </c>
       <c r="F28" s="37">
-        <v>982</v>
+        <v>1016</v>
       </c>
       <c r="G28" s="38">
         <v>30883</v>
@@ -2717,13 +2717,13 @@
         <v>800</v>
       </c>
       <c r="D29" s="37">
-        <v>1953</v>
+        <v>2062</v>
       </c>
       <c r="E29" s="37">
-        <v>1463</v>
+        <v>1525</v>
       </c>
       <c r="F29" s="37">
-        <v>490</v>
+        <v>537</v>
       </c>
       <c r="G29" s="38">
         <v>14869</v>
@@ -2752,13 +2752,13 @@
         <v>6425</v>
       </c>
       <c r="D30" s="37">
-        <v>4344</v>
+        <v>4562</v>
       </c>
       <c r="E30" s="37">
-        <v>3326</v>
+        <v>3519</v>
       </c>
       <c r="F30" s="37">
-        <v>1018</v>
+        <v>1043</v>
       </c>
       <c r="G30" s="38">
         <v>39239</v>
@@ -2787,13 +2787,13 @@
         <v>3300</v>
       </c>
       <c r="D31" s="37">
-        <v>3190</v>
+        <v>3311</v>
       </c>
       <c r="E31" s="37">
-        <v>2221</v>
+        <v>2298</v>
       </c>
       <c r="F31" s="37">
-        <v>969</v>
+        <v>1013</v>
       </c>
       <c r="G31" s="38">
         <v>34853</v>
@@ -2822,13 +2822,13 @@
         <v>1200</v>
       </c>
       <c r="D32" s="37">
-        <v>2267</v>
+        <v>2608</v>
       </c>
       <c r="E32" s="37">
-        <v>1613</v>
+        <v>1847</v>
       </c>
       <c r="F32" s="37">
-        <v>654</v>
+        <v>761</v>
       </c>
       <c r="G32" s="38">
         <v>16817</v>
@@ -2857,13 +2857,13 @@
         <v>1000</v>
       </c>
       <c r="D33" s="37">
-        <v>1557</v>
+        <v>1572</v>
       </c>
       <c r="E33" s="37">
-        <v>1117</v>
+        <v>1128</v>
       </c>
       <c r="F33" s="37">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="G33" s="38">
         <v>11263</v>
@@ -2892,13 +2892,13 @@
         <v>76750</v>
       </c>
       <c r="D34" s="37">
-        <v>72551</v>
+        <v>75296</v>
       </c>
       <c r="E34" s="37">
-        <v>49897</v>
+        <v>52182</v>
       </c>
       <c r="F34" s="37">
-        <v>22654</v>
+        <v>23114</v>
       </c>
       <c r="G34" s="38">
         <v>311689</v>
@@ -2927,13 +2927,13 @@
         <v>300</v>
       </c>
       <c r="D35" s="37">
-        <v>991</v>
+        <v>1089</v>
       </c>
       <c r="E35" s="37">
-        <v>739</v>
+        <v>809</v>
       </c>
       <c r="F35" s="37">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="G35" s="38">
         <v>10031</v>
@@ -2962,13 +2962,13 @@
         <v>200</v>
       </c>
       <c r="D36" s="37">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="E36" s="37">
         <v>737</v>
       </c>
       <c r="F36" s="37">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G36" s="38">
         <v>4718</v>
@@ -2997,13 +2997,13 @@
         <v>500</v>
       </c>
       <c r="D37" s="37">
-        <v>1091</v>
+        <v>1191</v>
       </c>
       <c r="E37" s="37">
-        <v>732</v>
+        <v>802</v>
       </c>
       <c r="F37" s="37">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="G37" s="38">
         <v>24182</v>
@@ -3032,13 +3032,13 @@
         <v>800</v>
       </c>
       <c r="D38" s="37">
-        <v>1282</v>
+        <v>1290</v>
       </c>
       <c r="E38" s="37">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="F38" s="37">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G38" s="38">
         <v>5607</v>
@@ -3067,13 +3067,13 @@
         <v>9200</v>
       </c>
       <c r="D39" s="37">
-        <v>4012</v>
+        <v>4203</v>
       </c>
       <c r="E39" s="37">
-        <v>2766</v>
+        <v>2845</v>
       </c>
       <c r="F39" s="37">
-        <v>1246</v>
+        <v>1358</v>
       </c>
       <c r="G39" s="38">
         <v>33062</v>
@@ -3102,13 +3102,13 @@
         <v>6100</v>
       </c>
       <c r="D40" s="37">
-        <v>4904</v>
+        <v>5340</v>
       </c>
       <c r="E40" s="37">
-        <v>3564</v>
+        <v>3704</v>
       </c>
       <c r="F40" s="37">
-        <v>1340</v>
+        <v>1636</v>
       </c>
       <c r="G40" s="38">
         <v>40876</v>
@@ -3137,13 +3137,13 @@
         <v>1500</v>
       </c>
       <c r="D41" s="37">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="E41" s="37">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="F41" s="37">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G41" s="38">
         <v>6094</v>
@@ -3172,13 +3172,13 @@
         <v>4300</v>
       </c>
       <c r="D42" s="37">
-        <v>2732</v>
+        <v>2778</v>
       </c>
       <c r="E42" s="37">
-        <v>2195</v>
+        <v>2217</v>
       </c>
       <c r="F42" s="37">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="G42" s="38">
         <v>8666</v>
@@ -3207,13 +3207,13 @@
         <v>400</v>
       </c>
       <c r="D43" s="37">
-        <v>655</v>
+        <v>600</v>
       </c>
       <c r="E43" s="37">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="F43" s="37">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="G43" s="38">
         <v>2188</v>
@@ -3242,13 +3242,13 @@
         <v>0</v>
       </c>
       <c r="D44" s="37">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="E44" s="37">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F44" s="37">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G44" s="38">
         <v>2756</v>
@@ -3277,13 +3277,13 @@
         <v>800</v>
       </c>
       <c r="D45" s="37">
-        <v>962</v>
+        <v>983</v>
       </c>
       <c r="E45" s="37">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="F45" s="37">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G45" s="38">
         <v>6721</v>
@@ -3312,13 +3312,13 @@
         <v>120750</v>
       </c>
       <c r="D46" s="37">
-        <v>141139</v>
+        <v>145703</v>
       </c>
       <c r="E46" s="37">
-        <v>109360</v>
+        <v>111126</v>
       </c>
       <c r="F46" s="37">
-        <v>31779</v>
+        <v>34577</v>
       </c>
       <c r="G46" s="38">
         <v>801716</v>
@@ -3347,13 +3347,13 @@
         <v>500</v>
       </c>
       <c r="D47" s="37">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E47" s="37">
         <v>372</v>
       </c>
       <c r="F47" s="37">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G47" s="38">
         <v>2263</v>
@@ -3382,13 +3382,13 @@
         <v>2400</v>
       </c>
       <c r="D48" s="37">
-        <v>2985</v>
+        <v>3049</v>
       </c>
       <c r="E48" s="37">
-        <v>2406</v>
+        <v>2447</v>
       </c>
       <c r="F48" s="37">
-        <v>579</v>
+        <v>602</v>
       </c>
       <c r="G48" s="38">
         <v>17107</v>
@@ -3417,13 +3417,13 @@
         <v>17500</v>
       </c>
       <c r="D49" s="37">
-        <v>20675</v>
+        <v>21266</v>
       </c>
       <c r="E49" s="37">
-        <v>15913</v>
+        <v>16328</v>
       </c>
       <c r="F49" s="37">
-        <v>4762</v>
+        <v>4938</v>
       </c>
       <c r="G49" s="38">
         <v>125307</v>
@@ -3452,13 +3452,13 @@
         <v>2850</v>
       </c>
       <c r="D50" s="37">
-        <v>2484</v>
+        <v>2699</v>
       </c>
       <c r="E50" s="37">
-        <v>1523</v>
+        <v>1540</v>
       </c>
       <c r="F50" s="37">
-        <v>961</v>
+        <v>1159</v>
       </c>
       <c r="G50" s="38">
         <v>10944</v>
@@ -3487,13 +3487,13 @@
         <v>300</v>
       </c>
       <c r="D51" s="37">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="E51" s="37">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="F51" s="37">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G51" s="38">
         <v>2288</v>
@@ -3522,13 +3522,13 @@
         <v>4100</v>
       </c>
       <c r="D52" s="37">
-        <v>4427</v>
+        <v>4593</v>
       </c>
       <c r="E52" s="37">
-        <v>3161</v>
+        <v>3277</v>
       </c>
       <c r="F52" s="37">
-        <v>1266</v>
+        <v>1316</v>
       </c>
       <c r="G52" s="38">
         <v>32675</v>
@@ -3557,13 +3557,13 @@
         <v>7075</v>
       </c>
       <c r="D53" s="37">
-        <v>5804</v>
+        <v>6307</v>
       </c>
       <c r="E53" s="37">
-        <v>4414</v>
+        <v>4511</v>
       </c>
       <c r="F53" s="37">
-        <v>1390</v>
+        <v>1796</v>
       </c>
       <c r="G53" s="38">
         <v>60428</v>
@@ -3592,13 +3592,13 @@
         <v>0</v>
       </c>
       <c r="D54" s="37">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E54" s="37">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F54" s="37">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G54" s="38">
         <v>1123</v>
@@ -3627,13 +3627,13 @@
         <v>2150</v>
       </c>
       <c r="D55" s="37">
-        <v>756</v>
+        <v>770</v>
       </c>
       <c r="E55" s="37">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="F55" s="37">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G55" s="38">
         <v>3554</v>
@@ -3662,13 +3662,13 @@
         <v>0</v>
       </c>
       <c r="D56" s="37">
-        <v>793</v>
+        <v>816</v>
       </c>
       <c r="E56" s="37">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="F56" s="37">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G56" s="38">
         <v>2694</v>
@@ -3697,13 +3697,13 @@
         <v>2350</v>
       </c>
       <c r="D57" s="37">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="E57" s="37">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F57" s="37">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G57" s="38">
         <v>4421</v>
@@ -3732,13 +3732,13 @@
         <v>400</v>
       </c>
       <c r="D58" s="37">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E58" s="37">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F58" s="37">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G58" s="38">
         <v>1746</v>
@@ -3767,13 +3767,13 @@
         <v>4800</v>
       </c>
       <c r="D59" s="37">
-        <v>1671</v>
+        <v>2513</v>
       </c>
       <c r="E59" s="37">
-        <v>1484</v>
+        <v>1771</v>
       </c>
       <c r="F59" s="37">
-        <v>187</v>
+        <v>742</v>
       </c>
       <c r="G59" s="38">
         <v>5217</v>
@@ -3802,13 +3802,13 @@
         <v>456375</v>
       </c>
       <c r="D60" s="37">
-        <v>316689</v>
+        <v>329680</v>
       </c>
       <c r="E60" s="37">
-        <v>234351</v>
+        <v>239648</v>
       </c>
       <c r="F60" s="37">
-        <v>82338</v>
+        <v>90032</v>
       </c>
       <c r="G60" s="38">
         <v>2028105</v>
@@ -3837,13 +3837,13 @@
         <v>700</v>
       </c>
       <c r="D61" s="37">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="E61" s="37">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="F61" s="37">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G61" s="38">
         <v>9789</v>
@@ -3872,13 +3872,13 @@
         <v>1900</v>
       </c>
       <c r="D62" s="37">
-        <v>2362</v>
+        <v>2383</v>
       </c>
       <c r="E62" s="37">
-        <v>1656</v>
+        <v>1667</v>
       </c>
       <c r="F62" s="37">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="G62" s="38">
         <v>13439</v>
@@ -3907,13 +3907,13 @@
         <v>200</v>
       </c>
       <c r="D63" s="37">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="E63" s="37">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="F63" s="37">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="G63" s="38">
         <v>4222</v>
@@ -3942,13 +3942,13 @@
         <v>104750</v>
       </c>
       <c r="D64" s="37">
-        <v>72494</v>
+        <v>83577</v>
       </c>
       <c r="E64" s="37">
-        <v>50955</v>
+        <v>60097</v>
       </c>
       <c r="F64" s="37">
-        <v>21539</v>
+        <v>23480</v>
       </c>
       <c r="G64" s="38">
         <v>697330</v>
@@ -3977,13 +3977,13 @@
         <v>800</v>
       </c>
       <c r="D65" s="37">
-        <v>1714</v>
+        <v>1747</v>
       </c>
       <c r="E65" s="37">
-        <v>1194</v>
+        <v>1212</v>
       </c>
       <c r="F65" s="37">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="G65" s="38">
         <v>16110</v>
@@ -4012,13 +4012,13 @@
         <v>0</v>
       </c>
       <c r="D66" s="37">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E66" s="37">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F66" s="37">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G66" s="38">
         <v>1858</v>
@@ -4047,13 +4047,13 @@
         <v>5975</v>
       </c>
       <c r="D67" s="37">
-        <v>2956</v>
+        <v>2974</v>
       </c>
       <c r="E67" s="37">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="F67" s="37">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="G67" s="38">
         <v>7539</v>
@@ -4082,13 +4082,13 @@
         <v>200</v>
       </c>
       <c r="D68" s="37">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="E68" s="37">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="F68" s="37">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G68" s="38">
         <v>2716</v>
@@ -4117,13 +4117,13 @@
         <v>700</v>
       </c>
       <c r="D69" s="37">
-        <v>2096</v>
+        <v>2141</v>
       </c>
       <c r="E69" s="37">
-        <v>1458</v>
+        <v>1483</v>
       </c>
       <c r="F69" s="37">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="G69" s="38">
         <v>8600</v>
@@ -4152,13 +4152,13 @@
         <v>1100</v>
       </c>
       <c r="D70" s="37">
-        <v>1809</v>
+        <v>1847</v>
       </c>
       <c r="E70" s="37">
-        <v>1231</v>
+        <v>1239</v>
       </c>
       <c r="F70" s="37">
-        <v>578</v>
+        <v>608</v>
       </c>
       <c r="G70" s="38">
         <v>14970</v>
@@ -4187,13 +4187,13 @@
         <v>33300</v>
       </c>
       <c r="D71" s="37">
-        <v>22731</v>
+        <v>25045</v>
       </c>
       <c r="E71" s="37">
-        <v>17766</v>
+        <v>19750</v>
       </c>
       <c r="F71" s="37">
-        <v>4965</v>
+        <v>5295</v>
       </c>
       <c r="G71" s="38">
         <v>120896</v>
@@ -4222,13 +4222,13 @@
         <v>0</v>
       </c>
       <c r="D72" s="37">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E72" s="37">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F72" s="37">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G72" s="38">
         <v>1555</v>
@@ -4254,16 +4254,16 @@
         <v>271</v>
       </c>
       <c r="C73" s="37">
-        <v>161575</v>
+        <v>162575</v>
       </c>
       <c r="D73" s="37">
-        <v>151513</v>
+        <v>155124</v>
       </c>
       <c r="E73" s="37">
-        <v>106277</v>
+        <v>107126</v>
       </c>
       <c r="F73" s="37">
-        <v>45236</v>
+        <v>47998</v>
       </c>
       <c r="G73" s="38">
         <v>640180</v>
@@ -4292,13 +4292,13 @@
         <v>14300</v>
       </c>
       <c r="D74" s="37">
-        <v>23184</v>
+        <v>23528</v>
       </c>
       <c r="E74" s="37">
-        <v>17782</v>
+        <v>17944</v>
       </c>
       <c r="F74" s="37">
-        <v>5402</v>
+        <v>5584</v>
       </c>
       <c r="G74" s="38">
         <v>141665</v>
@@ -4327,13 +4327,13 @@
         <v>2400</v>
       </c>
       <c r="D75" s="37">
-        <v>3992</v>
+        <v>4108</v>
       </c>
       <c r="E75" s="37">
-        <v>3000</v>
+        <v>3049</v>
       </c>
       <c r="F75" s="37">
-        <v>992</v>
+        <v>1059</v>
       </c>
       <c r="G75" s="38">
         <v>34875</v>
@@ -4362,13 +4362,13 @@
         <v>5575</v>
       </c>
       <c r="D76" s="37">
-        <v>2012</v>
+        <v>2066</v>
       </c>
       <c r="E76" s="37">
-        <v>1729</v>
+        <v>1753</v>
       </c>
       <c r="F76" s="37">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="G76" s="38">
         <v>14049</v>
@@ -4397,13 +4397,13 @@
         <v>8375</v>
       </c>
       <c r="D77" s="37">
-        <v>4647</v>
+        <v>4724</v>
       </c>
       <c r="E77" s="37">
-        <v>3251</v>
+        <v>3290</v>
       </c>
       <c r="F77" s="37">
-        <v>1396</v>
+        <v>1434</v>
       </c>
       <c r="G77" s="38">
         <v>28874</v>
@@ -4432,13 +4432,13 @@
         <v>1400</v>
       </c>
       <c r="D78" s="37">
-        <v>2847</v>
+        <v>2918</v>
       </c>
       <c r="E78" s="37">
-        <v>2283</v>
+        <v>2312</v>
       </c>
       <c r="F78" s="37">
-        <v>564</v>
+        <v>606</v>
       </c>
       <c r="G78" s="38">
         <v>20879</v>
@@ -4467,13 +4467,13 @@
         <v>600</v>
       </c>
       <c r="D79" s="37">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="E79" s="37">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F79" s="37">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G79" s="38">
         <v>3088</v>
@@ -4502,13 +4502,13 @@
         <v>600</v>
       </c>
       <c r="D80" s="37">
-        <v>1085</v>
+        <v>1092</v>
       </c>
       <c r="E80" s="37">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="F80" s="37">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G80" s="38">
         <v>4371</v>
@@ -4537,13 +4537,13 @@
         <v>400</v>
       </c>
       <c r="D81" s="37">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E81" s="37">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F81" s="37">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G81" s="38">
         <v>962</v>
@@ -4572,13 +4572,13 @@
         <v>97850</v>
       </c>
       <c r="D82" s="37">
-        <v>123062</v>
+        <v>127996</v>
       </c>
       <c r="E82" s="37">
-        <v>89086</v>
+        <v>91761</v>
       </c>
       <c r="F82" s="37">
-        <v>33976</v>
+        <v>36235</v>
       </c>
       <c r="G82" s="38">
         <v>616413</v>
@@ -4607,13 +4607,13 @@
         <v>900</v>
       </c>
       <c r="D83" s="37">
-        <v>947</v>
+        <v>1221</v>
       </c>
       <c r="E83" s="37">
-        <v>648</v>
+        <v>875</v>
       </c>
       <c r="F83" s="37">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="G83" s="38">
         <v>8554</v>
@@ -4642,13 +4642,13 @@
         <v>1200</v>
       </c>
       <c r="D84" s="37">
-        <v>1282</v>
+        <v>1317</v>
       </c>
       <c r="E84" s="37">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="F84" s="37">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="G84" s="38">
         <v>15808</v>
@@ -4677,13 +4677,13 @@
         <v>3475</v>
       </c>
       <c r="D85" s="37">
-        <v>2793</v>
+        <v>2803</v>
       </c>
       <c r="E85" s="37">
-        <v>1996</v>
+        <v>2003</v>
       </c>
       <c r="F85" s="37">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="G85" s="38">
         <v>16121</v>
@@ -4712,13 +4712,13 @@
         <v>1400</v>
       </c>
       <c r="D86" s="37">
-        <v>1473</v>
+        <v>1498</v>
       </c>
       <c r="E86" s="37">
-        <v>918</v>
+        <v>940</v>
       </c>
       <c r="F86" s="37">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="G86" s="38">
         <v>14548</v>
@@ -4747,13 +4747,13 @@
         <v>56950</v>
       </c>
       <c r="D87" s="37">
-        <v>59476</v>
+        <v>61640</v>
       </c>
       <c r="E87" s="37">
-        <v>40978</v>
+        <v>41802</v>
       </c>
       <c r="F87" s="37">
-        <v>18498</v>
+        <v>19838</v>
       </c>
       <c r="G87" s="38">
         <v>269280</v>
@@ -4782,13 +4782,13 @@
         <v>400</v>
       </c>
       <c r="D88" s="37">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="E88" s="37">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="F88" s="37">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G88" s="38">
         <v>5325</v>
@@ -4817,13 +4817,13 @@
         <v>6700</v>
       </c>
       <c r="D89" s="37">
-        <v>5219</v>
+        <v>5296</v>
       </c>
       <c r="E89" s="37">
-        <v>4036</v>
+        <v>4081</v>
       </c>
       <c r="F89" s="37">
-        <v>1183</v>
+        <v>1215</v>
       </c>
       <c r="G89" s="38">
         <v>22307</v>
@@ -4887,13 +4887,13 @@
         <v>200</v>
       </c>
       <c r="D91" s="37">
-        <v>1203</v>
+        <v>1314</v>
       </c>
       <c r="E91" s="37">
-        <v>961</v>
+        <v>977</v>
       </c>
       <c r="F91" s="37">
-        <v>242</v>
+        <v>337</v>
       </c>
       <c r="G91" s="38">
         <v>6281</v>
@@ -4922,13 +4922,13 @@
         <v>1700</v>
       </c>
       <c r="D92" s="37">
-        <v>2460</v>
+        <v>2536</v>
       </c>
       <c r="E92" s="37">
-        <v>1682</v>
+        <v>1733</v>
       </c>
       <c r="F92" s="37">
-        <v>778</v>
+        <v>803</v>
       </c>
       <c r="G92" s="38">
         <v>15937</v>
@@ -4957,13 +4957,13 @@
         <v>1400</v>
       </c>
       <c r="D93" s="37">
-        <v>2584</v>
+        <v>2601</v>
       </c>
       <c r="E93" s="37">
-        <v>1731</v>
+        <v>1745</v>
       </c>
       <c r="F93" s="37">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G93" s="38">
         <v>16924</v>
@@ -4992,13 +4992,13 @@
         <v>24100</v>
       </c>
       <c r="D94" s="37">
-        <v>15548</v>
+        <v>15705</v>
       </c>
       <c r="E94" s="37">
-        <v>10769</v>
+        <v>10886</v>
       </c>
       <c r="F94" s="37">
-        <v>4779</v>
+        <v>4819</v>
       </c>
       <c r="G94" s="38">
         <v>107521</v>
@@ -5027,13 +5027,13 @@
         <v>23800</v>
       </c>
       <c r="D95" s="37">
-        <v>13830</v>
+        <v>14522</v>
       </c>
       <c r="E95" s="37">
-        <v>10388</v>
+        <v>10544</v>
       </c>
       <c r="F95" s="37">
-        <v>3442</v>
+        <v>3978</v>
       </c>
       <c r="G95" s="38">
         <v>95544</v>
@@ -5062,13 +5062,13 @@
         <v>1400</v>
       </c>
       <c r="D96" s="37">
-        <v>2213</v>
+        <v>2308</v>
       </c>
       <c r="E96" s="37">
-        <v>1661</v>
+        <v>1697</v>
       </c>
       <c r="F96" s="37">
-        <v>552</v>
+        <v>611</v>
       </c>
       <c r="G96" s="38">
         <v>23245</v>
@@ -5097,13 +5097,13 @@
         <v>16625</v>
       </c>
       <c r="D97" s="37">
-        <v>16495</v>
+        <v>16827</v>
       </c>
       <c r="E97" s="37">
-        <v>12170</v>
+        <v>12361</v>
       </c>
       <c r="F97" s="37">
-        <v>4325</v>
+        <v>4466</v>
       </c>
       <c r="G97" s="38">
         <v>130517</v>
@@ -5132,13 +5132,13 @@
         <v>3300</v>
       </c>
       <c r="D98" s="37">
-        <v>4319</v>
+        <v>4353</v>
       </c>
       <c r="E98" s="37">
-        <v>2930</v>
+        <v>2954</v>
       </c>
       <c r="F98" s="37">
-        <v>1389</v>
+        <v>1399</v>
       </c>
       <c r="G98" s="38">
         <v>25476</v>
@@ -5167,13 +5167,13 @@
         <v>0</v>
       </c>
       <c r="D99" s="37">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="E99" s="37">
         <v>567</v>
       </c>
       <c r="F99" s="37">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G99" s="38">
         <v>2406</v>
@@ -5202,13 +5202,13 @@
         <v>1800</v>
       </c>
       <c r="D100" s="37">
-        <v>1934</v>
+        <v>1723</v>
       </c>
       <c r="E100" s="37">
-        <v>1364</v>
+        <v>1150</v>
       </c>
       <c r="F100" s="37">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="G100" s="38">
         <v>6832</v>
@@ -5237,13 +5237,13 @@
         <v>700</v>
       </c>
       <c r="D101" s="37">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="E101" s="37">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F101" s="37">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G101" s="38">
         <v>3987</v>
@@ -5272,13 +5272,13 @@
         <v>1000</v>
       </c>
       <c r="D102" s="37">
-        <v>1200</v>
+        <v>1264</v>
       </c>
       <c r="E102" s="37">
-        <v>837</v>
+        <v>857</v>
       </c>
       <c r="F102" s="37">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="G102" s="38">
         <v>3190</v>
@@ -5307,13 +5307,13 @@
         <v>5400</v>
       </c>
       <c r="D103" s="37">
-        <v>6465</v>
+        <v>7009</v>
       </c>
       <c r="E103" s="37">
-        <v>4923</v>
+        <v>5300</v>
       </c>
       <c r="F103" s="37">
-        <v>1542</v>
+        <v>1709</v>
       </c>
       <c r="G103" s="38">
         <v>45112</v>
@@ -5339,16 +5339,16 @@
         <v>14</v>
       </c>
       <c r="C104" s="37">
-        <v>759025</v>
+        <v>764875</v>
       </c>
       <c r="D104" s="37">
-        <v>575475</v>
+        <v>588278</v>
       </c>
       <c r="E104" s="37">
-        <v>403820</v>
+        <v>411165</v>
       </c>
       <c r="F104" s="37">
-        <v>171655</v>
+        <v>177113</v>
       </c>
       <c r="G104" s="38">
         <v>3601939</v>
@@ -5377,13 +5377,13 @@
         <v>4200</v>
       </c>
       <c r="D105" s="37">
-        <v>4594</v>
+        <v>4784</v>
       </c>
       <c r="E105" s="37">
-        <v>3387</v>
+        <v>3481</v>
       </c>
       <c r="F105" s="37">
-        <v>1207</v>
+        <v>1303</v>
       </c>
       <c r="G105" s="38">
         <v>51900</v>
@@ -5412,13 +5412,13 @@
         <v>1475</v>
       </c>
       <c r="D106" s="37">
-        <v>764</v>
+        <v>1298</v>
       </c>
       <c r="E106" s="37">
-        <v>651</v>
+        <v>883</v>
       </c>
       <c r="F106" s="37">
-        <v>113</v>
+        <v>415</v>
       </c>
       <c r="G106" s="38">
         <v>4561</v>
@@ -5447,13 +5447,13 @@
         <v>600</v>
       </c>
       <c r="D107" s="37">
-        <v>911</v>
+        <v>1021</v>
       </c>
       <c r="E107" s="37">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="F107" s="37">
-        <v>121</v>
+        <v>229</v>
       </c>
       <c r="G107" s="38">
         <v>4831</v>
@@ -5482,13 +5482,13 @@
         <v>28550</v>
       </c>
       <c r="D108" s="37">
-        <v>26815</v>
+        <v>27546</v>
       </c>
       <c r="E108" s="37">
-        <v>20149</v>
+        <v>20525</v>
       </c>
       <c r="F108" s="37">
-        <v>6666</v>
+        <v>7021</v>
       </c>
       <c r="G108" s="38">
         <v>183380</v>
@@ -5517,10 +5517,10 @@
         <v>1300</v>
       </c>
       <c r="D109" s="37">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="E109" s="37">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="F109" s="37">
         <v>368</v>
@@ -5552,13 +5552,13 @@
         <v>5000</v>
       </c>
       <c r="D110" s="37">
-        <v>6631</v>
+        <v>7483</v>
       </c>
       <c r="E110" s="37">
-        <v>4962</v>
+        <v>5416</v>
       </c>
       <c r="F110" s="37">
-        <v>1669</v>
+        <v>2067</v>
       </c>
       <c r="G110" s="38">
         <v>67238</v>
@@ -5587,13 +5587,13 @@
         <v>160975</v>
       </c>
       <c r="D111" s="37">
-        <v>114286</v>
+        <v>117223</v>
       </c>
       <c r="E111" s="37">
-        <v>80161</v>
+        <v>81767</v>
       </c>
       <c r="F111" s="37">
-        <v>34125</v>
+        <v>35456</v>
       </c>
       <c r="G111" s="38">
         <v>620824</v>
@@ -5622,13 +5622,13 @@
         <v>1900</v>
       </c>
       <c r="D112" s="37">
-        <v>4059</v>
+        <v>4183</v>
       </c>
       <c r="E112" s="37">
-        <v>2826</v>
+        <v>2878</v>
       </c>
       <c r="F112" s="37">
-        <v>1233</v>
+        <v>1305</v>
       </c>
       <c r="G112" s="38">
         <v>29198</v>
@@ -5657,13 +5657,13 @@
         <v>1200</v>
       </c>
       <c r="D113" s="37">
-        <v>3207</v>
+        <v>3236</v>
       </c>
       <c r="E113" s="37">
-        <v>2483</v>
+        <v>2499</v>
       </c>
       <c r="F113" s="37">
-        <v>724</v>
+        <v>737</v>
       </c>
       <c r="G113" s="38">
         <v>17799</v>
@@ -5692,13 +5692,13 @@
         <v>4500</v>
       </c>
       <c r="D114" s="37">
-        <v>6865</v>
+        <v>7209</v>
       </c>
       <c r="E114" s="37">
-        <v>5554</v>
+        <v>5773</v>
       </c>
       <c r="F114" s="37">
-        <v>1311</v>
+        <v>1436</v>
       </c>
       <c r="G114" s="38">
         <v>50193</v>
@@ -5727,13 +5727,13 @@
         <v>3100</v>
       </c>
       <c r="D115" s="37">
-        <v>2292</v>
+        <v>3304</v>
       </c>
       <c r="E115" s="37">
-        <v>1696</v>
+        <v>2482</v>
       </c>
       <c r="F115" s="37">
-        <v>596</v>
+        <v>822</v>
       </c>
       <c r="G115" s="38">
         <v>29175</v>
@@ -5762,13 +5762,13 @@
         <v>2000</v>
       </c>
       <c r="D116" s="37">
-        <v>2220</v>
+        <v>2256</v>
       </c>
       <c r="E116" s="37">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="F116" s="37">
-        <v>763</v>
+        <v>805</v>
       </c>
       <c r="G116" s="38">
         <v>18929</v>
@@ -5797,13 +5797,13 @@
         <v>3100</v>
       </c>
       <c r="D117" s="37">
-        <v>2724</v>
+        <v>2957</v>
       </c>
       <c r="E117" s="37">
-        <v>1773</v>
+        <v>1898</v>
       </c>
       <c r="F117" s="37">
-        <v>951</v>
+        <v>1059</v>
       </c>
       <c r="G117" s="38">
         <v>29544</v>
@@ -5832,13 +5832,13 @@
         <v>300</v>
       </c>
       <c r="D118" s="37">
-        <v>607</v>
+        <v>632</v>
       </c>
       <c r="E118" s="37">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="F118" s="37">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="G118" s="38">
         <v>3979</v>
@@ -5867,13 +5867,13 @@
         <v>8150</v>
       </c>
       <c r="D119" s="37">
-        <v>9399</v>
+        <v>9834</v>
       </c>
       <c r="E119" s="37">
-        <v>6322</v>
+        <v>6374</v>
       </c>
       <c r="F119" s="37">
-        <v>3077</v>
+        <v>3460</v>
       </c>
       <c r="G119" s="38">
         <v>77878</v>
@@ -5902,13 +5902,13 @@
         <v>1000</v>
       </c>
       <c r="D120" s="37">
-        <v>2345</v>
+        <v>2442</v>
       </c>
       <c r="E120" s="37">
-        <v>1693</v>
+        <v>1770</v>
       </c>
       <c r="F120" s="37">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="G120" s="38">
         <v>16258</v>
@@ -5937,13 +5937,13 @@
         <v>0</v>
       </c>
       <c r="D121" s="37">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E121" s="37">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F121" s="37">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G121" s="38">
         <v>1234</v>
@@ -5972,13 +5972,13 @@
         <v>1100</v>
       </c>
       <c r="D122" s="37">
-        <v>1158</v>
+        <v>1164</v>
       </c>
       <c r="E122" s="37">
         <v>859</v>
       </c>
       <c r="F122" s="37">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G122" s="38">
         <v>7230</v>
@@ -6007,13 +6007,13 @@
         <v>3750</v>
       </c>
       <c r="D123" s="37">
-        <v>2575</v>
+        <v>2637</v>
       </c>
       <c r="E123" s="37">
-        <v>1972</v>
+        <v>2020</v>
       </c>
       <c r="F123" s="37">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="G123" s="38">
         <v>11425</v>
@@ -6042,13 +6042,13 @@
         <v>7200</v>
       </c>
       <c r="D124" s="37">
-        <v>4776</v>
+        <v>4883</v>
       </c>
       <c r="E124" s="37">
-        <v>4256</v>
+        <v>4310</v>
       </c>
       <c r="F124" s="37">
-        <v>520</v>
+        <v>573</v>
       </c>
       <c r="G124" s="38">
         <v>28056</v>
@@ -6077,13 +6077,13 @@
         <v>200</v>
       </c>
       <c r="D125" s="37">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="E125" s="37">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F125" s="37">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G125" s="38">
         <v>2180</v>
@@ -6112,13 +6112,13 @@
         <v>41200</v>
       </c>
       <c r="D126" s="37">
-        <v>21614</v>
+        <v>22678</v>
       </c>
       <c r="E126" s="37">
-        <v>16911</v>
+        <v>17770</v>
       </c>
       <c r="F126" s="37">
-        <v>4703</v>
+        <v>4908</v>
       </c>
       <c r="G126" s="38">
         <v>197382</v>
@@ -6147,13 +6147,13 @@
         <v>300</v>
       </c>
       <c r="D127" s="37">
-        <v>1122</v>
+        <v>1332</v>
       </c>
       <c r="E127" s="37">
-        <v>709</v>
+        <v>908</v>
       </c>
       <c r="F127" s="37">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="G127" s="38">
         <v>3791</v>
@@ -6182,13 +6182,13 @@
         <v>6675</v>
       </c>
       <c r="D128" s="37">
-        <v>8486</v>
+        <v>8694</v>
       </c>
       <c r="E128" s="37">
-        <v>6163</v>
+        <v>6313</v>
       </c>
       <c r="F128" s="37">
-        <v>2323</v>
+        <v>2381</v>
       </c>
       <c r="G128" s="38">
         <v>30579</v>
@@ -6217,13 +6217,13 @@
         <v>7400</v>
       </c>
       <c r="D129" s="37">
-        <v>15143</v>
+        <v>15647</v>
       </c>
       <c r="E129" s="37">
-        <v>10411</v>
+        <v>10665</v>
       </c>
       <c r="F129" s="37">
-        <v>4732</v>
+        <v>4982</v>
       </c>
       <c r="G129" s="38">
         <v>135345</v>
@@ -6252,13 +6252,13 @@
         <v>500</v>
       </c>
       <c r="D130" s="37">
-        <v>1622</v>
+        <v>1659</v>
       </c>
       <c r="E130" s="37">
-        <v>1227</v>
+        <v>1240</v>
       </c>
       <c r="F130" s="37">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="G130" s="38">
         <v>17011</v>
@@ -6287,13 +6287,13 @@
         <v>2000</v>
       </c>
       <c r="D131" s="37">
-        <v>1801</v>
+        <v>1818</v>
       </c>
       <c r="E131" s="37">
-        <v>1355</v>
+        <v>1366</v>
       </c>
       <c r="F131" s="37">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="G131" s="38">
         <v>12669</v>
@@ -6322,13 +6322,13 @@
         <v>5550</v>
       </c>
       <c r="D132" s="37">
-        <v>13184</v>
+        <v>13708</v>
       </c>
       <c r="E132" s="37">
-        <v>9039</v>
+        <v>9357</v>
       </c>
       <c r="F132" s="37">
-        <v>4145</v>
+        <v>4351</v>
       </c>
       <c r="G132" s="38">
         <v>102341</v>
@@ -6357,13 +6357,13 @@
         <v>2900</v>
       </c>
       <c r="D133" s="37">
-        <v>5993</v>
+        <v>6249</v>
       </c>
       <c r="E133" s="37">
-        <v>4330</v>
+        <v>4494</v>
       </c>
       <c r="F133" s="37">
-        <v>1663</v>
+        <v>1755</v>
       </c>
       <c r="G133" s="38">
         <v>37890</v>
@@ -6427,13 +6427,13 @@
         <v>0</v>
       </c>
       <c r="D135" s="37">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E135" s="37">
         <v>131</v>
       </c>
       <c r="F135" s="37">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G135" s="38">
         <v>615</v>
@@ -6462,13 +6462,13 @@
         <v>5300</v>
       </c>
       <c r="D136" s="37">
-        <v>5904</v>
+        <v>5995</v>
       </c>
       <c r="E136" s="37">
-        <v>4497</v>
+        <v>4570</v>
       </c>
       <c r="F136" s="37">
-        <v>1407</v>
+        <v>1425</v>
       </c>
       <c r="G136" s="38">
         <v>43793</v>
@@ -6497,13 +6497,13 @@
         <v>700</v>
       </c>
       <c r="D137" s="37">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="E137" s="37">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F137" s="37">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G137" s="38">
         <v>3651</v>
@@ -6535,10 +6535,10 @@
         <v>35</v>
       </c>
       <c r="E138" s="37">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F138" s="37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G138" s="38">
         <v>205</v>
@@ -6602,13 +6602,13 @@
         <v>10175</v>
       </c>
       <c r="D140" s="37">
-        <v>7797</v>
+        <v>7899</v>
       </c>
       <c r="E140" s="37">
-        <v>6869</v>
+        <v>6919</v>
       </c>
       <c r="F140" s="37">
-        <v>928</v>
+        <v>980</v>
       </c>
       <c r="G140" s="38">
         <v>24188</v>
@@ -6637,13 +6637,13 @@
         <v>700</v>
       </c>
       <c r="D141" s="37">
-        <v>853</v>
+        <v>953</v>
       </c>
       <c r="E141" s="37">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="F141" s="37">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="G141" s="38">
         <v>2808</v>
@@ -6672,10 +6672,10 @@
         <v>4400</v>
       </c>
       <c r="D142" s="37">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="E142" s="37">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="F142" s="37">
         <v>797</v>
@@ -6707,13 +6707,13 @@
         <v>6500</v>
       </c>
       <c r="D143" s="37">
-        <v>6767</v>
+        <v>6846</v>
       </c>
       <c r="E143" s="37">
-        <v>5240</v>
+        <v>5299</v>
       </c>
       <c r="F143" s="37">
-        <v>1527</v>
+        <v>1547</v>
       </c>
       <c r="G143" s="38">
         <v>39402</v>
@@ -6742,13 +6742,13 @@
         <v>600</v>
       </c>
       <c r="D144" s="37">
-        <v>2427</v>
+        <v>2452</v>
       </c>
       <c r="E144" s="37">
-        <v>1645</v>
+        <v>1658</v>
       </c>
       <c r="F144" s="37">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="G144" s="38">
         <v>9740</v>
@@ -6777,13 +6777,13 @@
         <v>800</v>
       </c>
       <c r="D145" s="37">
-        <v>1704</v>
+        <v>1758</v>
       </c>
       <c r="E145" s="37">
-        <v>1348</v>
+        <v>1368</v>
       </c>
       <c r="F145" s="37">
-        <v>356</v>
+        <v>390</v>
       </c>
       <c r="G145" s="38">
         <v>17366</v>
@@ -6812,13 +6812,13 @@
         <v>2300</v>
       </c>
       <c r="D146" s="37">
-        <v>2870</v>
+        <v>2933</v>
       </c>
       <c r="E146" s="37">
-        <v>1795</v>
+        <v>1828</v>
       </c>
       <c r="F146" s="37">
-        <v>1075</v>
+        <v>1105</v>
       </c>
       <c r="G146" s="38">
         <v>16004</v>
@@ -6847,13 +6847,13 @@
         <v>800</v>
       </c>
       <c r="D147" s="37">
-        <v>1443</v>
+        <v>1474</v>
       </c>
       <c r="E147" s="37">
-        <v>1052</v>
+        <v>1061</v>
       </c>
       <c r="F147" s="37">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="G147" s="38">
         <v>13993</v>
@@ -6882,13 +6882,13 @@
         <v>900</v>
       </c>
       <c r="D148" s="37">
-        <v>1091</v>
+        <v>1117</v>
       </c>
       <c r="E148" s="37">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="F148" s="37">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="G148" s="38">
         <v>13946</v>
@@ -6917,13 +6917,13 @@
         <v>9175</v>
       </c>
       <c r="D149" s="37">
-        <v>5579</v>
+        <v>5761</v>
       </c>
       <c r="E149" s="37">
-        <v>3777</v>
+        <v>3852</v>
       </c>
       <c r="F149" s="37">
-        <v>1802</v>
+        <v>1909</v>
       </c>
       <c r="G149" s="38">
         <v>66868</v>
@@ -6952,13 +6952,13 @@
         <v>1700</v>
       </c>
       <c r="D150" s="37">
-        <v>1846</v>
+        <v>1884</v>
       </c>
       <c r="E150" s="37">
-        <v>1263</v>
+        <v>1282</v>
       </c>
       <c r="F150" s="37">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="G150" s="38">
         <v>18871</v>
@@ -6987,13 +6987,13 @@
         <v>200</v>
       </c>
       <c r="D151" s="37">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="E151" s="37">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F151" s="37">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G151" s="38">
         <v>2520</v>
@@ -7022,13 +7022,13 @@
         <v>400</v>
       </c>
       <c r="D152" s="37">
-        <v>1582</v>
+        <v>1596</v>
       </c>
       <c r="E152" s="37">
-        <v>1160</v>
+        <v>1167</v>
       </c>
       <c r="F152" s="37">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="G152" s="38">
         <v>10055</v>
@@ -7057,13 +7057,13 @@
         <v>1200</v>
       </c>
       <c r="D153" s="37">
-        <v>2602</v>
+        <v>2699</v>
       </c>
       <c r="E153" s="37">
-        <v>2124</v>
+        <v>2214</v>
       </c>
       <c r="F153" s="37">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="G153" s="38">
         <v>18908</v>
@@ -7092,10 +7092,10 @@
         <v>0</v>
       </c>
       <c r="D154" s="37">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E154" s="37">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F154" s="37">
         <v>1</v>
@@ -7127,13 +7127,13 @@
         <v>95200</v>
       </c>
       <c r="D155" s="37">
-        <v>70598</v>
+        <v>71895</v>
       </c>
       <c r="E155" s="37">
-        <v>49971</v>
+        <v>50696</v>
       </c>
       <c r="F155" s="37">
-        <v>20627</v>
+        <v>21199</v>
       </c>
       <c r="G155" s="38">
         <v>244992</v>
@@ -7162,13 +7162,13 @@
         <v>400</v>
       </c>
       <c r="D156" s="37">
-        <v>970</v>
+        <v>987</v>
       </c>
       <c r="E156" s="37">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="F156" s="37">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="G156" s="38">
         <v>4496</v>
@@ -7197,13 +7197,13 @@
         <v>900</v>
       </c>
       <c r="D157" s="37">
-        <v>855</v>
+        <v>882</v>
       </c>
       <c r="E157" s="37">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="F157" s="37">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="G157" s="38">
         <v>11595</v>
@@ -7232,13 +7232,13 @@
         <v>0</v>
       </c>
       <c r="D158" s="37">
-        <v>570</v>
+        <v>631</v>
       </c>
       <c r="E158" s="37">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="F158" s="37">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="G158" s="38">
         <v>8277</v>
@@ -7267,13 +7267,13 @@
         <v>800</v>
       </c>
       <c r="D159" s="37">
-        <v>1166</v>
+        <v>1173</v>
       </c>
       <c r="E159" s="37">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="F159" s="37">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G159" s="38">
         <v>4136</v>
@@ -7302,13 +7302,13 @@
         <v>400</v>
       </c>
       <c r="D160" s="37">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="E160" s="37">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="F160" s="37">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G160" s="38">
         <v>3521</v>
@@ -7337,13 +7337,13 @@
         <v>2900</v>
       </c>
       <c r="D161" s="37">
-        <v>2828</v>
+        <v>2866</v>
       </c>
       <c r="E161" s="37">
-        <v>1930</v>
+        <v>1958</v>
       </c>
       <c r="F161" s="37">
-        <v>898</v>
+        <v>908</v>
       </c>
       <c r="G161" s="38">
         <v>28247</v>
@@ -7372,13 +7372,13 @@
         <v>9100</v>
       </c>
       <c r="D162" s="37">
-        <v>5147</v>
+        <v>5205</v>
       </c>
       <c r="E162" s="37">
-        <v>4110</v>
+        <v>4157</v>
       </c>
       <c r="F162" s="37">
-        <v>1037</v>
+        <v>1048</v>
       </c>
       <c r="G162" s="38">
         <v>42606</v>
@@ -7407,13 +7407,13 @@
         <v>1200</v>
       </c>
       <c r="D163" s="37">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="E163" s="37">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="F163" s="37">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G163" s="38">
         <v>6435</v>
@@ -7442,13 +7442,13 @@
         <v>34950</v>
       </c>
       <c r="D164" s="37">
-        <v>30547</v>
+        <v>31841</v>
       </c>
       <c r="E164" s="37">
-        <v>23017</v>
+        <v>23572</v>
       </c>
       <c r="F164" s="37">
-        <v>7530</v>
+        <v>8269</v>
       </c>
       <c r="G164" s="38">
         <v>200781</v>
@@ -7477,10 +7477,10 @@
         <v>100</v>
       </c>
       <c r="D165" s="37">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E165" s="37">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F165" s="37">
         <v>8</v>
@@ -7512,13 +7512,13 @@
         <v>2600</v>
       </c>
       <c r="D166" s="37">
-        <v>5938</v>
+        <v>6145</v>
       </c>
       <c r="E166" s="37">
-        <v>4315</v>
+        <v>4452</v>
       </c>
       <c r="F166" s="37">
-        <v>1623</v>
+        <v>1693</v>
       </c>
       <c r="G166" s="38">
         <v>41263</v>
@@ -7547,10 +7547,10 @@
         <v>200</v>
       </c>
       <c r="D167" s="37">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E167" s="37">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F167" s="37">
         <v>75</v>
@@ -7582,13 +7582,13 @@
         <v>32275</v>
       </c>
       <c r="D168" s="37">
-        <v>25230</v>
+        <v>26398</v>
       </c>
       <c r="E168" s="37">
-        <v>21241</v>
+        <v>22290</v>
       </c>
       <c r="F168" s="37">
-        <v>3989</v>
+        <v>4108</v>
       </c>
       <c r="G168" s="38">
         <v>131025</v>
@@ -7617,13 +7617,13 @@
         <v>2700</v>
       </c>
       <c r="D169" s="37">
-        <v>3086</v>
+        <v>3131</v>
       </c>
       <c r="E169" s="37">
-        <v>1964</v>
+        <v>1996</v>
       </c>
       <c r="F169" s="37">
-        <v>1122</v>
+        <v>1135</v>
       </c>
       <c r="G169" s="38">
         <v>19689</v>
@@ -7652,13 +7652,13 @@
         <v>300</v>
       </c>
       <c r="D170" s="37">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="E170" s="37">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F170" s="37">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G170" s="38">
         <v>4006</v>
@@ -7687,13 +7687,13 @@
         <v>1000</v>
       </c>
       <c r="D171" s="37">
-        <v>940</v>
+        <v>947</v>
       </c>
       <c r="E171" s="37">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="F171" s="37">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G171" s="38">
         <v>6958</v>
@@ -7722,13 +7722,13 @@
         <v>2350</v>
       </c>
       <c r="D172" s="37">
-        <v>3075</v>
+        <v>3115</v>
       </c>
       <c r="E172" s="37">
-        <v>2242</v>
+        <v>2267</v>
       </c>
       <c r="F172" s="37">
-        <v>833</v>
+        <v>848</v>
       </c>
       <c r="G172" s="38">
         <v>15872</v>
@@ -7757,13 +7757,13 @@
         <v>74300</v>
       </c>
       <c r="D173" s="37">
-        <v>60794</v>
+        <v>63959</v>
       </c>
       <c r="E173" s="37">
-        <v>42887</v>
+        <v>44804</v>
       </c>
       <c r="F173" s="37">
-        <v>17907</v>
+        <v>19155</v>
       </c>
       <c r="G173" s="38">
         <v>467232</v>
@@ -7792,13 +7792,13 @@
         <v>1500</v>
       </c>
       <c r="D174" s="37">
-        <v>4621</v>
+        <v>4967</v>
       </c>
       <c r="E174" s="37">
-        <v>3692</v>
+        <v>3979</v>
       </c>
       <c r="F174" s="37">
-        <v>929</v>
+        <v>988</v>
       </c>
       <c r="G174" s="38">
         <v>14986</v>
@@ -7827,13 +7827,13 @@
         <v>500</v>
       </c>
       <c r="D175" s="37">
-        <v>858</v>
+        <v>918</v>
       </c>
       <c r="E175" s="37">
-        <v>567</v>
+        <v>612</v>
       </c>
       <c r="F175" s="37">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="G175" s="38">
         <v>9830</v>
@@ -7862,13 +7862,13 @@
         <v>0</v>
       </c>
       <c r="D176" s="37">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E176" s="37">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F176" s="37">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G176" s="38">
         <v>994</v>
@@ -7897,13 +7897,13 @@
         <v>8700</v>
       </c>
       <c r="D177" s="37">
-        <v>9985</v>
+        <v>10055</v>
       </c>
       <c r="E177" s="37">
-        <v>6340</v>
+        <v>6387</v>
       </c>
       <c r="F177" s="37">
-        <v>3645</v>
+        <v>3668</v>
       </c>
       <c r="G177" s="38">
         <v>51773</v>
@@ -7932,13 +7932,13 @@
         <v>7100</v>
       </c>
       <c r="D178" s="37">
-        <v>7495</v>
+        <v>7577</v>
       </c>
       <c r="E178" s="37">
-        <v>6477</v>
+        <v>6519</v>
       </c>
       <c r="F178" s="37">
-        <v>1018</v>
+        <v>1058</v>
       </c>
       <c r="G178" s="38">
         <v>38360</v>
@@ -7967,13 +7967,13 @@
         <v>900</v>
       </c>
       <c r="D179" s="37">
-        <v>1467</v>
+        <v>1473</v>
       </c>
       <c r="E179" s="37">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="F179" s="37">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G179" s="38">
         <v>11298</v>
@@ -8002,13 +8002,13 @@
         <v>2200</v>
       </c>
       <c r="D180" s="37">
-        <v>2371</v>
+        <v>2406</v>
       </c>
       <c r="E180" s="37">
-        <v>1686</v>
+        <v>1701</v>
       </c>
       <c r="F180" s="37">
-        <v>685</v>
+        <v>705</v>
       </c>
       <c r="G180" s="38">
         <v>11321</v>
@@ -8037,13 +8037,13 @@
         <v>74275</v>
       </c>
       <c r="D181" s="37">
-        <v>43091</v>
+        <v>44977</v>
       </c>
       <c r="E181" s="37">
-        <v>28415</v>
+        <v>28971</v>
       </c>
       <c r="F181" s="37">
-        <v>14676</v>
+        <v>16006</v>
       </c>
       <c r="G181" s="38">
         <v>284366</v>
@@ -8072,10 +8072,10 @@
         <v>1300</v>
       </c>
       <c r="D182" s="37">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E182" s="37">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F182" s="37">
         <v>422</v>
@@ -8107,13 +8107,13 @@
         <v>300</v>
       </c>
       <c r="D183" s="37">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="E183" s="37">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F183" s="37">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G183" s="38">
         <v>1728</v>
@@ -8142,13 +8142,13 @@
         <v>1600</v>
       </c>
       <c r="D184" s="37">
-        <v>5710</v>
+        <v>6062</v>
       </c>
       <c r="E184" s="37">
-        <v>4744</v>
+        <v>5032</v>
       </c>
       <c r="F184" s="37">
-        <v>966</v>
+        <v>1030</v>
       </c>
       <c r="G184" s="38">
         <v>65087</v>
@@ -8177,13 +8177,13 @@
         <v>1800</v>
       </c>
       <c r="D185" s="37">
-        <v>2105</v>
+        <v>2153</v>
       </c>
       <c r="E185" s="37">
-        <v>1524</v>
+        <v>1541</v>
       </c>
       <c r="F185" s="37">
-        <v>581</v>
+        <v>612</v>
       </c>
       <c r="G185" s="38">
         <v>23207</v>
@@ -8212,13 +8212,13 @@
         <v>1600</v>
       </c>
       <c r="D186" s="37">
-        <v>1735</v>
+        <v>1764</v>
       </c>
       <c r="E186" s="37">
-        <v>1256</v>
+        <v>1272</v>
       </c>
       <c r="F186" s="37">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="G186" s="38">
         <v>18462</v>
@@ -8247,13 +8247,13 @@
         <v>15350</v>
       </c>
       <c r="D187" s="37">
-        <v>16533</v>
+        <v>17467</v>
       </c>
       <c r="E187" s="37">
-        <v>11987</v>
+        <v>12435</v>
       </c>
       <c r="F187" s="37">
-        <v>4546</v>
+        <v>5032</v>
       </c>
       <c r="G187" s="38">
         <v>111686</v>
@@ -8282,13 +8282,13 @@
         <v>800</v>
       </c>
       <c r="D188" s="37">
-        <v>1849</v>
+        <v>1859</v>
       </c>
       <c r="E188" s="37">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="F188" s="37">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="G188" s="38">
         <v>7222</v>
@@ -8317,13 +8317,13 @@
         <v>2000</v>
       </c>
       <c r="D189" s="37">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="E189" s="37">
-        <v>2384</v>
+        <v>2387</v>
       </c>
       <c r="F189" s="37">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G189" s="38">
         <v>12317</v>
@@ -8352,13 +8352,13 @@
         <v>4300</v>
       </c>
       <c r="D190" s="37">
-        <v>5803</v>
+        <v>6016</v>
       </c>
       <c r="E190" s="37">
-        <v>4452</v>
+        <v>4605</v>
       </c>
       <c r="F190" s="37">
-        <v>1351</v>
+        <v>1411</v>
       </c>
       <c r="G190" s="38">
         <v>42276</v>
@@ -8387,13 +8387,13 @@
         <v>84125</v>
       </c>
       <c r="D191" s="37">
-        <v>26175</v>
+        <v>26480</v>
       </c>
       <c r="E191" s="37">
-        <v>16941</v>
+        <v>17079</v>
       </c>
       <c r="F191" s="37">
-        <v>9234</v>
+        <v>9401</v>
       </c>
       <c r="G191" s="38">
         <v>88673</v>
@@ -8422,13 +8422,13 @@
         <v>800</v>
       </c>
       <c r="D192" s="37">
-        <v>1449</v>
+        <v>1480</v>
       </c>
       <c r="E192" s="37">
-        <v>1236</v>
+        <v>1264</v>
       </c>
       <c r="F192" s="37">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G192" s="38">
         <v>5069</v>
@@ -8457,13 +8457,13 @@
         <v>300</v>
       </c>
       <c r="D193" s="37">
-        <v>851</v>
+        <v>1001</v>
       </c>
       <c r="E193" s="37">
-        <v>620</v>
+        <v>718</v>
       </c>
       <c r="F193" s="37">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="G193" s="38">
         <v>10277</v>
@@ -8492,13 +8492,13 @@
         <v>6100</v>
       </c>
       <c r="D194" s="37">
-        <v>39552</v>
+        <v>40159</v>
       </c>
       <c r="E194" s="37">
-        <v>25015</v>
+        <v>25284</v>
       </c>
       <c r="F194" s="37">
-        <v>14537</v>
+        <v>14875</v>
       </c>
       <c r="G194" s="38">
         <v>108431</v>
@@ -8527,13 +8527,13 @@
         <v>300</v>
       </c>
       <c r="D195" s="37">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E195" s="37">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F195" s="37">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G195" s="38">
         <v>2841</v>
@@ -8562,13 +8562,13 @@
         <v>200</v>
       </c>
       <c r="D196" s="37">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="E196" s="37">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="F196" s="37">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G196" s="38">
         <v>2943</v>
@@ -8597,13 +8597,13 @@
         <v>800</v>
       </c>
       <c r="D197" s="37">
-        <v>1692</v>
+        <v>1724</v>
       </c>
       <c r="E197" s="37">
-        <v>1277</v>
+        <v>1296</v>
       </c>
       <c r="F197" s="37">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="G197" s="38">
         <v>9965</v>
@@ -8632,13 +8632,13 @@
         <v>5775</v>
       </c>
       <c r="D198" s="37">
-        <v>4457</v>
+        <v>4472</v>
       </c>
       <c r="E198" s="37">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="F198" s="37">
-        <v>1349</v>
+        <v>1354</v>
       </c>
       <c r="G198" s="38">
         <v>12781</v>
@@ -8667,13 +8667,13 @@
         <v>700</v>
       </c>
       <c r="D199" s="37">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="E199" s="37">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="F199" s="37">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="G199" s="38">
         <v>5583</v>
@@ -8702,10 +8702,10 @@
         <v>0</v>
       </c>
       <c r="D200" s="37">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E200" s="37">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F200" s="37">
         <v>47</v>
@@ -8737,13 +8737,13 @@
         <v>1000</v>
       </c>
       <c r="D201" s="37">
-        <v>1590</v>
+        <v>1688</v>
       </c>
       <c r="E201" s="37">
-        <v>1246</v>
+        <v>1284</v>
       </c>
       <c r="F201" s="37">
-        <v>344</v>
+        <v>404</v>
       </c>
       <c r="G201" s="38">
         <v>13474</v>
@@ -8772,13 +8772,13 @@
         <v>6775</v>
       </c>
       <c r="D202" s="37">
-        <v>14191</v>
+        <v>14642</v>
       </c>
       <c r="E202" s="37">
-        <v>10490</v>
+        <v>10749</v>
       </c>
       <c r="F202" s="37">
-        <v>3701</v>
+        <v>3893</v>
       </c>
       <c r="G202" s="38">
         <v>80325</v>
@@ -8807,13 +8807,13 @@
         <v>1500</v>
       </c>
       <c r="D203" s="37">
-        <v>1750</v>
+        <v>1772</v>
       </c>
       <c r="E203" s="37">
-        <v>1138</v>
+        <v>1158</v>
       </c>
       <c r="F203" s="37">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="G203" s="38">
         <v>8184</v>
@@ -8842,13 +8842,13 @@
         <v>2000</v>
       </c>
       <c r="D204" s="37">
-        <v>3151</v>
+        <v>3771</v>
       </c>
       <c r="E204" s="37">
-        <v>2307</v>
+        <v>2755</v>
       </c>
       <c r="F204" s="37">
-        <v>844</v>
+        <v>1016</v>
       </c>
       <c r="G204" s="38">
         <v>43777</v>
@@ -8877,10 +8877,10 @@
         <v>1400</v>
       </c>
       <c r="D205" s="37">
-        <v>1706</v>
+        <v>1693</v>
       </c>
       <c r="E205" s="37">
-        <v>1248</v>
+        <v>1235</v>
       </c>
       <c r="F205" s="37">
         <v>458</v>
@@ -8912,13 +8912,13 @@
         <v>1200</v>
       </c>
       <c r="D206" s="37">
-        <v>1055</v>
+        <v>1104</v>
       </c>
       <c r="E206" s="37">
-        <v>783</v>
+        <v>800</v>
       </c>
       <c r="F206" s="37">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="G206" s="38">
         <v>6811</v>
@@ -8947,13 +8947,13 @@
         <v>1600</v>
       </c>
       <c r="D207" s="37">
-        <v>2301</v>
+        <v>2359</v>
       </c>
       <c r="E207" s="37">
-        <v>1663</v>
+        <v>1699</v>
       </c>
       <c r="F207" s="37">
-        <v>638</v>
+        <v>660</v>
       </c>
       <c r="G207" s="38">
         <v>23444</v>
@@ -8982,13 +8982,13 @@
         <v>3200</v>
       </c>
       <c r="D208" s="37">
-        <v>7449</v>
+        <v>7759</v>
       </c>
       <c r="E208" s="37">
-        <v>5501</v>
+        <v>5678</v>
       </c>
       <c r="F208" s="37">
-        <v>1948</v>
+        <v>2081</v>
       </c>
       <c r="G208" s="38">
         <v>51116</v>
@@ -9017,13 +9017,13 @@
         <v>300</v>
       </c>
       <c r="D209" s="37">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E209" s="37">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F209" s="37">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G209" s="38">
         <v>5000</v>
@@ -9052,13 +9052,13 @@
         <v>400</v>
       </c>
       <c r="D210" s="37">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E210" s="37">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F210" s="37">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G210" s="38">
         <v>2218</v>
@@ -9087,13 +9087,13 @@
         <v>3925</v>
       </c>
       <c r="D211" s="37">
-        <v>1689</v>
+        <v>1708</v>
       </c>
       <c r="E211" s="37">
-        <v>1223</v>
+        <v>1233</v>
       </c>
       <c r="F211" s="37">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="G211" s="38">
         <v>13000</v>
@@ -9122,13 +9122,13 @@
         <v>300</v>
       </c>
       <c r="D212" s="37">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E212" s="37">
         <v>280</v>
       </c>
       <c r="F212" s="37">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G212" s="38">
         <v>2612</v>
@@ -9157,13 +9157,13 @@
         <v>1700</v>
       </c>
       <c r="D213" s="37">
-        <v>1595</v>
+        <v>1635</v>
       </c>
       <c r="E213" s="37">
-        <v>1036</v>
+        <v>1054</v>
       </c>
       <c r="F213" s="37">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="G213" s="38">
         <v>19449</v>
@@ -9192,13 +9192,13 @@
         <v>500</v>
       </c>
       <c r="D214" s="37">
-        <v>525</v>
+        <v>574</v>
       </c>
       <c r="E214" s="37">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="F214" s="37">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="G214" s="38">
         <v>2294</v>
@@ -9227,13 +9227,13 @@
         <v>63600</v>
       </c>
       <c r="D215" s="37">
-        <v>31448</v>
+        <v>36803</v>
       </c>
       <c r="E215" s="37">
-        <v>23207</v>
+        <v>25394</v>
       </c>
       <c r="F215" s="37">
-        <v>8241</v>
+        <v>11409</v>
       </c>
       <c r="G215" s="38">
         <v>182283</v>
@@ -9262,13 +9262,13 @@
         <v>600</v>
       </c>
       <c r="D216" s="37">
-        <v>1247</v>
+        <v>1256</v>
       </c>
       <c r="E216" s="37">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F216" s="37">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="G216" s="38">
         <v>7386</v>
@@ -9297,13 +9297,13 @@
         <v>6400</v>
       </c>
       <c r="D217" s="37">
-        <v>7580</v>
+        <v>7738</v>
       </c>
       <c r="E217" s="37">
-        <v>5652</v>
+        <v>5731</v>
       </c>
       <c r="F217" s="37">
-        <v>1928</v>
+        <v>2007</v>
       </c>
       <c r="G217" s="38">
         <v>45765</v>
@@ -9332,13 +9332,13 @@
         <v>900</v>
       </c>
       <c r="D218" s="37">
-        <v>740</v>
+        <v>784</v>
       </c>
       <c r="E218" s="37">
-        <v>576</v>
+        <v>606</v>
       </c>
       <c r="F218" s="37">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="G218" s="38">
         <v>7542</v>
@@ -9367,13 +9367,13 @@
         <v>100</v>
       </c>
       <c r="D219" s="37">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E219" s="37">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F219" s="37">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G219" s="38">
         <v>975</v>
@@ -9402,13 +9402,13 @@
         <v>500</v>
       </c>
       <c r="D220" s="37">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="E220" s="37">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F220" s="37">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="G220" s="38">
         <v>1095</v>
@@ -9437,13 +9437,13 @@
         <v>400</v>
       </c>
       <c r="D221" s="37">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="E221" s="37">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F221" s="37">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G221" s="38">
         <v>2992</v>
@@ -9472,13 +9472,13 @@
         <v>500</v>
       </c>
       <c r="D222" s="37">
-        <v>1246</v>
+        <v>1270</v>
       </c>
       <c r="E222" s="37">
-        <v>918</v>
+        <v>930</v>
       </c>
       <c r="F222" s="37">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="G222" s="38">
         <v>5764</v>
@@ -9507,13 +9507,13 @@
         <v>395350</v>
       </c>
       <c r="D223" s="37">
-        <v>231718</v>
+        <v>239972</v>
       </c>
       <c r="E223" s="37">
-        <v>157093</v>
+        <v>160403</v>
       </c>
       <c r="F223" s="37">
-        <v>74625</v>
+        <v>79569</v>
       </c>
       <c r="G223" s="38">
         <v>1617160</v>
@@ -9542,13 +9542,13 @@
         <v>22375</v>
       </c>
       <c r="D224" s="37">
-        <v>23141</v>
+        <v>23540</v>
       </c>
       <c r="E224" s="37">
-        <v>17184</v>
+        <v>17391</v>
       </c>
       <c r="F224" s="37">
-        <v>5957</v>
+        <v>6149</v>
       </c>
       <c r="G224" s="38">
         <v>107257</v>
@@ -9577,13 +9577,13 @@
         <v>0</v>
       </c>
       <c r="D225" s="37">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E225" s="37">
         <v>199</v>
       </c>
       <c r="F225" s="37">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G225" s="38">
         <v>639</v>
@@ -9612,10 +9612,10 @@
         <v>3450</v>
       </c>
       <c r="D226" s="37">
-        <v>2622</v>
+        <v>2624</v>
       </c>
       <c r="E226" s="37">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="F226" s="37">
         <v>695</v>
@@ -9647,13 +9647,13 @@
         <v>500</v>
       </c>
       <c r="D227" s="37">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="E227" s="37">
         <v>359</v>
       </c>
       <c r="F227" s="37">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G227" s="38">
         <v>1247</v>
@@ -9682,13 +9682,13 @@
         <v>4300</v>
       </c>
       <c r="D228" s="37">
-        <v>2390</v>
+        <v>2709</v>
       </c>
       <c r="E228" s="37">
-        <v>1569</v>
+        <v>1827</v>
       </c>
       <c r="F228" s="37">
-        <v>821</v>
+        <v>882</v>
       </c>
       <c r="G228" s="38">
         <v>24323</v>
@@ -9717,13 +9717,13 @@
         <v>24000</v>
       </c>
       <c r="D229" s="37">
-        <v>21575</v>
+        <v>22224</v>
       </c>
       <c r="E229" s="37">
-        <v>14683</v>
+        <v>15090</v>
       </c>
       <c r="F229" s="37">
-        <v>6892</v>
+        <v>7134</v>
       </c>
       <c r="G229" s="38">
         <v>93752</v>
@@ -9752,13 +9752,13 @@
         <v>217400</v>
       </c>
       <c r="D230" s="37">
-        <v>147248</v>
+        <v>150966</v>
       </c>
       <c r="E230" s="37">
-        <v>102975</v>
+        <v>105450</v>
       </c>
       <c r="F230" s="37">
-        <v>44273</v>
+        <v>45516</v>
       </c>
       <c r="G230" s="38">
         <v>1032386</v>
@@ -9787,13 +9787,13 @@
         <v>2750</v>
       </c>
       <c r="D231" s="37">
-        <v>2054</v>
+        <v>2077</v>
       </c>
       <c r="E231" s="37">
-        <v>1513</v>
+        <v>1528</v>
       </c>
       <c r="F231" s="37">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="G231" s="38">
         <v>12104</v>
@@ -9822,13 +9822,13 @@
         <v>2800</v>
       </c>
       <c r="D232" s="37">
-        <v>2775</v>
+        <v>3120</v>
       </c>
       <c r="E232" s="37">
-        <v>2002</v>
+        <v>2232</v>
       </c>
       <c r="F232" s="37">
-        <v>773</v>
+        <v>888</v>
       </c>
       <c r="G232" s="38">
         <v>17963</v>
@@ -9857,13 +9857,13 @@
         <v>1400</v>
       </c>
       <c r="D233" s="37">
-        <v>2783</v>
+        <v>2957</v>
       </c>
       <c r="E233" s="37">
-        <v>2077</v>
+        <v>2146</v>
       </c>
       <c r="F233" s="37">
-        <v>706</v>
+        <v>811</v>
       </c>
       <c r="G233" s="38">
         <v>33011</v>
@@ -9927,13 +9927,13 @@
         <v>7175</v>
       </c>
       <c r="D235" s="37">
-        <v>5795</v>
+        <v>5831</v>
       </c>
       <c r="E235" s="37">
-        <v>4046</v>
+        <v>4075</v>
       </c>
       <c r="F235" s="37">
-        <v>1749</v>
+        <v>1756</v>
       </c>
       <c r="G235" s="38">
         <v>20379</v>
@@ -9962,13 +9962,13 @@
         <v>5150</v>
       </c>
       <c r="D236" s="37">
-        <v>5599</v>
+        <v>5688</v>
       </c>
       <c r="E236" s="37">
-        <v>4396</v>
+        <v>4459</v>
       </c>
       <c r="F236" s="37">
-        <v>1203</v>
+        <v>1229</v>
       </c>
       <c r="G236" s="38">
         <v>36546</v>
@@ -9997,13 +9997,13 @@
         <v>2900</v>
       </c>
       <c r="D237" s="37">
-        <v>4973</v>
+        <v>5397</v>
       </c>
       <c r="E237" s="37">
-        <v>3603</v>
+        <v>3766</v>
       </c>
       <c r="F237" s="37">
-        <v>1370</v>
+        <v>1631</v>
       </c>
       <c r="G237" s="38">
         <v>45216</v>
@@ -10029,16 +10029,16 @@
         <v>275</v>
       </c>
       <c r="C238" s="37">
-        <v>13475</v>
+        <v>14450</v>
       </c>
       <c r="D238" s="37">
-        <v>13946</v>
+        <v>14068</v>
       </c>
       <c r="E238" s="37">
-        <v>10245</v>
+        <v>10317</v>
       </c>
       <c r="F238" s="37">
-        <v>3701</v>
+        <v>3751</v>
       </c>
       <c r="G238" s="38">
         <v>71388</v>
@@ -10067,13 +10067,13 @@
         <v>5600</v>
       </c>
       <c r="D239" s="37">
-        <v>5308</v>
+        <v>5424</v>
       </c>
       <c r="E239" s="37">
-        <v>3851</v>
+        <v>3911</v>
       </c>
       <c r="F239" s="37">
-        <v>1457</v>
+        <v>1513</v>
       </c>
       <c r="G239" s="38">
         <v>63471</v>
@@ -10102,13 +10102,13 @@
         <v>3300</v>
       </c>
       <c r="D240" s="37">
-        <v>3616</v>
+        <v>3756</v>
       </c>
       <c r="E240" s="37">
-        <v>2733</v>
+        <v>2808</v>
       </c>
       <c r="F240" s="37">
-        <v>883</v>
+        <v>948</v>
       </c>
       <c r="G240" s="38">
         <v>43350</v>
@@ -10137,13 +10137,13 @@
         <v>600</v>
       </c>
       <c r="D241" s="37">
-        <v>1429</v>
+        <v>1467</v>
       </c>
       <c r="E241" s="37">
-        <v>1132</v>
+        <v>1159</v>
       </c>
       <c r="F241" s="37">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="G241" s="38">
         <v>8921</v>
@@ -10172,13 +10172,13 @@
         <v>14000</v>
       </c>
       <c r="D242" s="37">
-        <v>5429</v>
+        <v>5594</v>
       </c>
       <c r="E242" s="37">
-        <v>4421</v>
+        <v>4470</v>
       </c>
       <c r="F242" s="37">
-        <v>1008</v>
+        <v>1124</v>
       </c>
       <c r="G242" s="38">
         <v>29086</v>
@@ -10207,13 +10207,13 @@
         <v>46900</v>
       </c>
       <c r="D243" s="37">
-        <v>38951</v>
+        <v>39688</v>
       </c>
       <c r="E243" s="37">
-        <v>28534</v>
+        <v>29148</v>
       </c>
       <c r="F243" s="37">
-        <v>10417</v>
+        <v>10540</v>
       </c>
       <c r="G243" s="38">
         <v>196916</v>
@@ -10242,13 +10242,13 @@
         <v>2800</v>
       </c>
       <c r="D244" s="37">
-        <v>3460</v>
+        <v>3673</v>
       </c>
       <c r="E244" s="37">
-        <v>2442</v>
+        <v>2576</v>
       </c>
       <c r="F244" s="37">
-        <v>1018</v>
+        <v>1097</v>
       </c>
       <c r="G244" s="38">
         <v>32110</v>
@@ -10277,13 +10277,13 @@
         <v>900</v>
       </c>
       <c r="D245" s="37">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="E245" s="37">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F245" s="37">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G245" s="38">
         <v>3915</v>
@@ -10312,13 +10312,13 @@
         <v>28000</v>
       </c>
       <c r="D246" s="37">
-        <v>24573</v>
+        <v>24946</v>
       </c>
       <c r="E246" s="37">
-        <v>16218</v>
+        <v>16294</v>
       </c>
       <c r="F246" s="37">
-        <v>8355</v>
+        <v>8652</v>
       </c>
       <c r="G246" s="38">
         <v>105631</v>
@@ -10347,13 +10347,13 @@
         <v>5700</v>
       </c>
       <c r="D247" s="37">
-        <v>3511</v>
+        <v>3663</v>
       </c>
       <c r="E247" s="37">
-        <v>2392</v>
+        <v>2481</v>
       </c>
       <c r="F247" s="37">
-        <v>1119</v>
+        <v>1182</v>
       </c>
       <c r="G247" s="38">
         <v>10361</v>
@@ -10382,13 +10382,13 @@
         <v>800</v>
       </c>
       <c r="D248" s="37">
-        <v>2399</v>
+        <v>2443</v>
       </c>
       <c r="E248" s="37">
-        <v>1804</v>
+        <v>1837</v>
       </c>
       <c r="F248" s="37">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="G248" s="38">
         <v>16897</v>
@@ -10417,13 +10417,13 @@
         <v>65550</v>
       </c>
       <c r="D249" s="37">
-        <v>61907</v>
+        <v>63289</v>
       </c>
       <c r="E249" s="37">
-        <v>43973</v>
+        <v>44895</v>
       </c>
       <c r="F249" s="37">
-        <v>17934</v>
+        <v>18394</v>
       </c>
       <c r="G249" s="38">
         <v>458433</v>
@@ -10452,13 +10452,13 @@
         <v>4100</v>
       </c>
       <c r="D250" s="37">
-        <v>6146</v>
+        <v>6296</v>
       </c>
       <c r="E250" s="37">
-        <v>3956</v>
+        <v>4043</v>
       </c>
       <c r="F250" s="37">
-        <v>2190</v>
+        <v>2253</v>
       </c>
       <c r="G250" s="38">
         <v>40488</v>
@@ -10487,10 +10487,10 @@
         <v>400</v>
       </c>
       <c r="D251" s="37">
-        <v>1055</v>
+        <v>1104</v>
       </c>
       <c r="E251" s="37">
-        <v>825</v>
+        <v>874</v>
       </c>
       <c r="F251" s="37">
         <v>230</v>
@@ -10522,13 +10522,13 @@
         <v>6850</v>
       </c>
       <c r="D252" s="37">
-        <v>7616</v>
+        <v>7736</v>
       </c>
       <c r="E252" s="37">
-        <v>4517</v>
+        <v>4608</v>
       </c>
       <c r="F252" s="37">
-        <v>3099</v>
+        <v>3128</v>
       </c>
       <c r="G252" s="38">
         <v>54722</v>
@@ -10557,13 +10557,13 @@
         <v>2400</v>
       </c>
       <c r="D253" s="37">
-        <v>4232</v>
+        <v>5183</v>
       </c>
       <c r="E253" s="37">
-        <v>3196</v>
+        <v>3840</v>
       </c>
       <c r="F253" s="37">
-        <v>1036</v>
+        <v>1343</v>
       </c>
       <c r="G253" s="38">
         <v>38005</v>
@@ -10592,13 +10592,13 @@
         <v>800</v>
       </c>
       <c r="D254" s="37">
-        <v>1105</v>
+        <v>1200</v>
       </c>
       <c r="E254" s="37">
-        <v>741</v>
+        <v>799</v>
       </c>
       <c r="F254" s="37">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="G254" s="38">
         <v>6135</v>
@@ -10627,13 +10627,13 @@
         <v>2700</v>
       </c>
       <c r="D255" s="37">
-        <v>2372</v>
+        <v>2582</v>
       </c>
       <c r="E255" s="37">
-        <v>1720</v>
+        <v>1786</v>
       </c>
       <c r="F255" s="37">
-        <v>652</v>
+        <v>796</v>
       </c>
       <c r="G255" s="38">
         <v>14219</v>
@@ -10662,13 +10662,13 @@
         <v>700</v>
       </c>
       <c r="D256" s="37">
-        <v>1530</v>
+        <v>1544</v>
       </c>
       <c r="E256" s="37">
-        <v>1345</v>
+        <v>1353</v>
       </c>
       <c r="F256" s="37">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G256" s="38">
         <v>9981</v>
@@ -10697,13 +10697,13 @@
         <v>200</v>
       </c>
       <c r="D257" s="37">
-        <v>2628</v>
+        <v>2647</v>
       </c>
       <c r="E257" s="37">
-        <v>2306</v>
+        <v>2310</v>
       </c>
       <c r="F257" s="37">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="G257" s="38">
         <v>8840</v>
@@ -10729,16 +10729,16 @@
         <v>291</v>
       </c>
       <c r="C258" s="37">
-        <v>9775</v>
+        <v>720525</v>
       </c>
       <c r="D258" s="37">
-        <v>331160</v>
+        <v>321570</v>
       </c>
       <c r="E258" s="37">
-        <v>262995</v>
+        <v>258002</v>
       </c>
       <c r="F258" s="37">
-        <v>68165</v>
+        <v>63568</v>
       </c>
       <c r="G258" s="38"/>
       <c r="H258" s="38"/>
@@ -10774,14 +10774,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.796875" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="24.19921875" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="22" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="22" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>278</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>281</v>
       </c>
@@ -10812,16 +10812,16 @@
         <v>298</v>
       </c>
       <c r="D2" s="32">
-        <v>54980</v>
+        <v>56190</v>
       </c>
       <c r="E2" s="32">
-        <v>34808</v>
+        <v>35405</v>
       </c>
       <c r="F2" s="32">
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+        <v>20785</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>281</v>
       </c>
@@ -10832,16 +10832,16 @@
         <v>299</v>
       </c>
       <c r="D3" s="32">
-        <v>39810</v>
+        <v>41046</v>
       </c>
       <c r="E3" s="32">
-        <v>26140</v>
+        <v>26865</v>
       </c>
       <c r="F3" s="32">
-        <v>13670</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+        <v>14181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>281</v>
       </c>
@@ -10852,16 +10852,16 @@
         <v>297</v>
       </c>
       <c r="D4" s="32">
-        <v>134000</v>
+        <v>139471</v>
       </c>
       <c r="E4" s="32">
-        <v>93033</v>
+        <v>96438</v>
       </c>
       <c r="F4" s="32">
-        <v>40967</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>281</v>
       </c>
@@ -10872,16 +10872,16 @@
         <v>301</v>
       </c>
       <c r="D5" s="32">
-        <v>223328</v>
+        <v>230572</v>
       </c>
       <c r="E5" s="32">
-        <v>143182</v>
+        <v>147890</v>
       </c>
       <c r="F5" s="32">
-        <v>80146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+        <v>82682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>281</v>
       </c>
@@ -10892,16 +10892,16 @@
         <v>300</v>
       </c>
       <c r="D6" s="32">
-        <v>75625</v>
+        <v>76988</v>
       </c>
       <c r="E6" s="32">
-        <v>51309</v>
+        <v>52127</v>
       </c>
       <c r="F6" s="32">
-        <v>24316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+        <v>24861</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>281</v>
       </c>
@@ -10912,17 +10912,17 @@
         <v>286</v>
       </c>
       <c r="D7" s="32">
-        <v>315799</v>
+        <v>318727</v>
       </c>
       <c r="E7" s="32">
-        <v>208802</v>
+        <v>209485</v>
       </c>
       <c r="F7" s="32">
-        <v>106997</v>
+        <v>109242</v>
       </c>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>281</v>
       </c>
@@ -10933,17 +10933,17 @@
         <v>298</v>
       </c>
       <c r="D8" s="32">
-        <v>27364</v>
+        <v>28042</v>
       </c>
       <c r="E8" s="32">
-        <v>18777</v>
+        <v>19106</v>
       </c>
       <c r="F8" s="32">
-        <v>8587</v>
+        <v>8936</v>
       </c>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>281</v>
       </c>
@@ -10954,17 +10954,17 @@
         <v>299</v>
       </c>
       <c r="D9" s="32">
-        <v>34202</v>
+        <v>35594</v>
       </c>
       <c r="E9" s="32">
-        <v>24051</v>
+        <v>24923</v>
       </c>
       <c r="F9" s="32">
-        <v>10151</v>
+        <v>10671</v>
       </c>
       <c r="O9" s="30"/>
     </row>
-    <row r="10" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>281</v>
       </c>
@@ -10975,17 +10975,17 @@
         <v>297</v>
       </c>
       <c r="D10" s="32">
-        <v>76491</v>
+        <v>80366</v>
       </c>
       <c r="E10" s="32">
-        <v>57364</v>
+        <v>59926</v>
       </c>
       <c r="F10" s="32">
-        <v>19127</v>
+        <v>20440</v>
       </c>
       <c r="O10" s="30"/>
     </row>
-    <row r="11" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>281</v>
       </c>
@@ -10996,17 +10996,17 @@
         <v>301</v>
       </c>
       <c r="D11" s="32">
-        <v>160850</v>
+        <v>168284</v>
       </c>
       <c r="E11" s="32">
-        <v>113070</v>
+        <v>118080</v>
       </c>
       <c r="F11" s="32">
-        <v>47780</v>
+        <v>50204</v>
       </c>
       <c r="O11" s="30"/>
     </row>
-    <row r="12" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>281</v>
       </c>
@@ -11017,17 +11017,17 @@
         <v>300</v>
       </c>
       <c r="D12" s="32">
-        <v>48326</v>
+        <v>49111</v>
       </c>
       <c r="E12" s="32">
-        <v>34325</v>
+        <v>34788</v>
       </c>
       <c r="F12" s="32">
-        <v>14001</v>
+        <v>14323</v>
       </c>
       <c r="O12" s="30"/>
     </row>
-    <row r="13" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>281</v>
       </c>
@@ -11038,17 +11038,17 @@
         <v>286</v>
       </c>
       <c r="D13" s="32">
-        <v>203920</v>
+        <v>205839</v>
       </c>
       <c r="E13" s="32">
-        <v>143041</v>
+        <v>143177</v>
       </c>
       <c r="F13" s="32">
-        <v>60879</v>
+        <v>62662</v>
       </c>
       <c r="O13" s="30"/>
     </row>
-    <row r="14" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>281</v>
       </c>
@@ -11059,17 +11059,17 @@
         <v>298</v>
       </c>
       <c r="D14" s="32">
-        <v>29913</v>
+        <v>31179</v>
       </c>
       <c r="E14" s="32">
-        <v>22759</v>
+        <v>23419</v>
       </c>
       <c r="F14" s="32">
-        <v>7154</v>
+        <v>7760</v>
       </c>
       <c r="O14" s="30"/>
     </row>
-    <row r="15" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>281</v>
       </c>
@@ -11080,17 +11080,17 @@
         <v>299</v>
       </c>
       <c r="D15" s="32">
-        <v>33535</v>
+        <v>35439</v>
       </c>
       <c r="E15" s="32">
-        <v>27333</v>
+        <v>28561</v>
       </c>
       <c r="F15" s="32">
-        <v>6202</v>
+        <v>6878</v>
       </c>
       <c r="O15" s="30"/>
     </row>
-    <row r="16" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>281</v>
       </c>
@@ -11101,17 +11101,17 @@
         <v>297</v>
       </c>
       <c r="D16" s="32">
-        <v>69210</v>
+        <v>73186</v>
       </c>
       <c r="E16" s="32">
-        <v>55097</v>
+        <v>58003</v>
       </c>
       <c r="F16" s="32">
-        <v>14113</v>
+        <v>15183</v>
       </c>
       <c r="O16" s="30"/>
     </row>
-    <row r="17" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>281</v>
       </c>
@@ -11122,17 +11122,17 @@
         <v>301</v>
       </c>
       <c r="D17" s="32">
-        <v>270766</v>
+        <v>288770</v>
       </c>
       <c r="E17" s="32">
-        <v>211968</v>
+        <v>222925</v>
       </c>
       <c r="F17" s="32">
-        <v>58798</v>
+        <v>65845</v>
       </c>
       <c r="O17" s="30"/>
     </row>
-    <row r="18" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>281</v>
       </c>
@@ -11143,17 +11143,17 @@
         <v>300</v>
       </c>
       <c r="D18" s="32">
-        <v>53492</v>
+        <v>54908</v>
       </c>
       <c r="E18" s="32">
-        <v>40400</v>
+        <v>41192</v>
       </c>
       <c r="F18" s="32">
-        <v>13092</v>
+        <v>13716</v>
       </c>
       <c r="O18" s="30"/>
     </row>
-    <row r="19" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>281</v>
       </c>
@@ -11164,17 +11164,17 @@
         <v>286</v>
       </c>
       <c r="D19" s="32">
-        <v>225846</v>
+        <v>226280</v>
       </c>
       <c r="E19" s="32">
-        <v>171479</v>
+        <v>169401</v>
       </c>
       <c r="F19" s="32">
-        <v>54367</v>
+        <v>56879</v>
       </c>
       <c r="O19" s="30"/>
     </row>
-    <row r="20" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>281</v>
       </c>
@@ -11185,17 +11185,17 @@
         <v>298</v>
       </c>
       <c r="D20" s="32">
-        <v>6302</v>
+        <v>6615</v>
       </c>
       <c r="E20" s="32">
-        <v>4783</v>
+        <v>4942</v>
       </c>
       <c r="F20" s="32">
-        <v>1519</v>
+        <v>1673</v>
       </c>
       <c r="O20" s="30"/>
     </row>
-    <row r="21" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>281</v>
       </c>
@@ -11206,17 +11206,17 @@
         <v>299</v>
       </c>
       <c r="D21" s="32">
-        <v>7153</v>
+        <v>7643</v>
       </c>
       <c r="E21" s="32">
-        <v>5848</v>
+        <v>6198</v>
       </c>
       <c r="F21" s="32">
-        <v>1305</v>
+        <v>1445</v>
       </c>
       <c r="O21" s="30"/>
     </row>
-    <row r="22" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>281</v>
       </c>
@@ -11227,13 +11227,13 @@
         <v>297</v>
       </c>
       <c r="D22" s="32">
-        <v>16991</v>
+        <v>18022</v>
       </c>
       <c r="E22" s="32">
-        <v>13744</v>
+        <v>14482</v>
       </c>
       <c r="F22" s="32">
-        <v>3247</v>
+        <v>3540</v>
       </c>
       <c r="O22" s="30"/>
     </row>
@@ -11248,13 +11248,13 @@
         <v>301</v>
       </c>
       <c r="D23" s="32">
-        <v>81106</v>
+        <v>86650</v>
       </c>
       <c r="E23" s="32">
-        <v>62208</v>
+        <v>65495</v>
       </c>
       <c r="F23" s="32">
-        <v>18898</v>
+        <v>21155</v>
       </c>
       <c r="O23" s="30"/>
     </row>
@@ -11269,13 +11269,13 @@
         <v>300</v>
       </c>
       <c r="D24" s="32">
-        <v>49188</v>
+        <v>49737</v>
       </c>
       <c r="E24" s="32">
-        <v>34555</v>
+        <v>34774</v>
       </c>
       <c r="F24" s="32">
-        <v>14633</v>
+        <v>14963</v>
       </c>
       <c r="O24" s="30"/>
     </row>
@@ -11290,13 +11290,13 @@
         <v>286</v>
       </c>
       <c r="D25" s="32">
-        <v>81165</v>
+        <v>81105</v>
       </c>
       <c r="E25" s="32">
-        <v>61052</v>
+        <v>60201</v>
       </c>
       <c r="F25" s="32">
-        <v>20113</v>
+        <v>20904</v>
       </c>
       <c r="O25" s="30"/>
     </row>
@@ -11311,10 +11311,10 @@
         <v>298</v>
       </c>
       <c r="D26" s="32">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="32">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" s="32">
         <v>2</v>
@@ -11332,13 +11332,13 @@
         <v>299</v>
       </c>
       <c r="D27" s="32">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E27" s="32">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F27" s="32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O27" s="30"/>
     </row>
@@ -11353,13 +11353,13 @@
         <v>297</v>
       </c>
       <c r="D28" s="32">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E28" s="32">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F28" s="32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -11374,13 +11374,13 @@
         <v>301</v>
       </c>
       <c r="D29" s="32">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E29" s="32">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F29" s="32">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O29" s="30"/>
     </row>
@@ -11395,10 +11395,10 @@
         <v>300</v>
       </c>
       <c r="D30" s="32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" s="32">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" s="32">
         <v>4</v>
@@ -11416,13 +11416,13 @@
         <v>286</v>
       </c>
       <c r="D31" s="32">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="E31" s="32">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F31" s="32">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O31" s="30"/>
     </row>
@@ -11437,13 +11437,13 @@
         <v>298</v>
       </c>
       <c r="D32" s="32">
-        <v>36974</v>
+        <v>37852</v>
       </c>
       <c r="E32" s="32">
-        <v>24004</v>
+        <v>24467</v>
       </c>
       <c r="F32" s="32">
-        <v>12970</v>
+        <v>13385</v>
       </c>
       <c r="O32" s="30"/>
     </row>
@@ -11458,13 +11458,13 @@
         <v>299</v>
       </c>
       <c r="D33" s="32">
-        <v>17943</v>
+        <v>18619</v>
       </c>
       <c r="E33" s="32">
-        <v>12201</v>
+        <v>12605</v>
       </c>
       <c r="F33" s="32">
-        <v>5742</v>
+        <v>6014</v>
       </c>
       <c r="O33" s="30"/>
     </row>
@@ -11479,13 +11479,13 @@
         <v>297</v>
       </c>
       <c r="D34" s="32">
-        <v>75170</v>
+        <v>78970</v>
       </c>
       <c r="E34" s="32">
-        <v>54281</v>
+        <v>56845</v>
       </c>
       <c r="F34" s="32">
-        <v>20889</v>
+        <v>22125</v>
       </c>
       <c r="O34" s="30"/>
     </row>
@@ -11500,13 +11500,13 @@
         <v>301</v>
       </c>
       <c r="D35" s="32">
-        <v>120187</v>
+        <v>125648</v>
       </c>
       <c r="E35" s="32">
-        <v>80237</v>
+        <v>83919</v>
       </c>
       <c r="F35" s="32">
-        <v>39950</v>
+        <v>41729</v>
       </c>
       <c r="O35" s="30"/>
     </row>
@@ -11521,13 +11521,13 @@
         <v>300</v>
       </c>
       <c r="D36" s="32">
-        <v>37364</v>
+        <v>38245</v>
       </c>
       <c r="E36" s="32">
-        <v>25614</v>
+        <v>26235</v>
       </c>
       <c r="F36" s="32">
-        <v>11750</v>
+        <v>12010</v>
       </c>
       <c r="O36" s="30"/>
     </row>
@@ -11542,13 +11542,13 @@
         <v>286</v>
       </c>
       <c r="D37" s="32">
-        <v>193041</v>
+        <v>195008</v>
       </c>
       <c r="E37" s="32">
-        <v>129700</v>
+        <v>130400</v>
       </c>
       <c r="F37" s="32">
-        <v>63341</v>
+        <v>64608</v>
       </c>
       <c r="O37" s="30"/>
     </row>
@@ -11563,13 +11563,13 @@
         <v>298</v>
       </c>
       <c r="D38" s="32">
-        <v>20450</v>
+        <v>20983</v>
       </c>
       <c r="E38" s="32">
-        <v>14468</v>
+        <v>14733</v>
       </c>
       <c r="F38" s="32">
-        <v>5982</v>
+        <v>6250</v>
       </c>
       <c r="O38" s="30"/>
     </row>
@@ -11584,13 +11584,13 @@
         <v>299</v>
       </c>
       <c r="D39" s="32">
-        <v>19611</v>
+        <v>20577</v>
       </c>
       <c r="E39" s="32">
-        <v>14376</v>
+        <v>14996</v>
       </c>
       <c r="F39" s="32">
-        <v>5235</v>
+        <v>5581</v>
       </c>
       <c r="O39" s="30"/>
     </row>
@@ -11605,13 +11605,13 @@
         <v>297</v>
       </c>
       <c r="D40" s="32">
-        <v>51255</v>
+        <v>54085</v>
       </c>
       <c r="E40" s="32">
-        <v>39415</v>
+        <v>41286</v>
       </c>
       <c r="F40" s="32">
-        <v>11840</v>
+        <v>12799</v>
       </c>
       <c r="O40" s="30"/>
     </row>
@@ -11626,13 +11626,13 @@
         <v>301</v>
       </c>
       <c r="D41" s="32">
-        <v>107989</v>
+        <v>114219</v>
       </c>
       <c r="E41" s="32">
-        <v>78513</v>
+        <v>82646</v>
       </c>
       <c r="F41" s="32">
-        <v>29476</v>
+        <v>31573</v>
       </c>
       <c r="O41" s="30"/>
     </row>
@@ -11647,13 +11647,13 @@
         <v>300</v>
       </c>
       <c r="D42" s="32">
-        <v>27210</v>
+        <v>27868</v>
       </c>
       <c r="E42" s="32">
-        <v>19534</v>
+        <v>19961</v>
       </c>
       <c r="F42" s="32">
-        <v>7676</v>
+        <v>7907</v>
       </c>
       <c r="O42" s="30"/>
     </row>
@@ -11668,13 +11668,13 @@
         <v>286</v>
       </c>
       <c r="D43" s="32">
-        <v>138062</v>
+        <v>139476</v>
       </c>
       <c r="E43" s="32">
-        <v>98599</v>
+        <v>98754</v>
       </c>
       <c r="F43" s="32">
-        <v>39463</v>
+        <v>40722</v>
       </c>
       <c r="O43" s="30"/>
     </row>
@@ -11689,13 +11689,13 @@
         <v>298</v>
       </c>
       <c r="D44" s="32">
-        <v>26423</v>
+        <v>27496</v>
       </c>
       <c r="E44" s="32">
-        <v>20022</v>
+        <v>20590</v>
       </c>
       <c r="F44" s="32">
-        <v>6401</v>
+        <v>6906</v>
       </c>
       <c r="O44" s="30"/>
     </row>
@@ -11710,13 +11710,13 @@
         <v>299</v>
       </c>
       <c r="D45" s="32">
-        <v>21562</v>
+        <v>22900</v>
       </c>
       <c r="E45" s="32">
-        <v>17567</v>
+        <v>18419</v>
       </c>
       <c r="F45" s="32">
-        <v>3995</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -11730,13 +11730,13 @@
         <v>297</v>
       </c>
       <c r="D46" s="32">
-        <v>52735</v>
+        <v>55692</v>
       </c>
       <c r="E46" s="32">
-        <v>41707</v>
+        <v>43869</v>
       </c>
       <c r="F46" s="32">
-        <v>11028</v>
+        <v>11823</v>
       </c>
       <c r="O46" s="30"/>
     </row>
@@ -11751,13 +11751,13 @@
         <v>301</v>
       </c>
       <c r="D47" s="32">
-        <v>232265</v>
+        <v>247958</v>
       </c>
       <c r="E47" s="32">
-        <v>181372</v>
+        <v>190824</v>
       </c>
       <c r="F47" s="32">
-        <v>50893</v>
+        <v>57134</v>
       </c>
       <c r="O47" s="30"/>
     </row>
@@ -11772,13 +11772,13 @@
         <v>300</v>
       </c>
       <c r="D48" s="32">
-        <v>38917</v>
+        <v>40086</v>
       </c>
       <c r="E48" s="32">
-        <v>29548</v>
+        <v>30220</v>
       </c>
       <c r="F48" s="32">
-        <v>9369</v>
+        <v>9866</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -11792,13 +11792,13 @@
         <v>286</v>
       </c>
       <c r="D49" s="32">
-        <v>186566</v>
+        <v>187122</v>
       </c>
       <c r="E49" s="32">
-        <v>141070</v>
+        <v>139538</v>
       </c>
       <c r="F49" s="32">
-        <v>45496</v>
+        <v>47584</v>
       </c>
       <c r="O49" s="30"/>
     </row>
@@ -11813,13 +11813,13 @@
         <v>298</v>
       </c>
       <c r="D50" s="32">
-        <v>5479</v>
+        <v>5759</v>
       </c>
       <c r="E50" s="32">
-        <v>4067</v>
+        <v>4221</v>
       </c>
       <c r="F50" s="32">
-        <v>1412</v>
+        <v>1538</v>
       </c>
       <c r="O50" s="30"/>
     </row>
@@ -11834,13 +11834,13 @@
         <v>299</v>
       </c>
       <c r="D51" s="32">
-        <v>3589</v>
+        <v>3845</v>
       </c>
       <c r="E51" s="32">
-        <v>2871</v>
+        <v>3047</v>
       </c>
       <c r="F51" s="32">
-        <v>718</v>
+        <v>798</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -11854,13 +11854,13 @@
         <v>297</v>
       </c>
       <c r="D52" s="32">
-        <v>10562</v>
+        <v>11208</v>
       </c>
       <c r="E52" s="32">
-        <v>8493</v>
+        <v>8964</v>
       </c>
       <c r="F52" s="32">
-        <v>2069</v>
+        <v>2244</v>
       </c>
       <c r="O52" s="30"/>
     </row>
@@ -11875,13 +11875,13 @@
         <v>301</v>
       </c>
       <c r="D53" s="32">
-        <v>64315</v>
+        <v>69024</v>
       </c>
       <c r="E53" s="32">
-        <v>48285</v>
+        <v>50978</v>
       </c>
       <c r="F53" s="32">
-        <v>16030</v>
+        <v>18046</v>
       </c>
       <c r="O53" s="30"/>
     </row>
@@ -11896,13 +11896,13 @@
         <v>300</v>
       </c>
       <c r="D54" s="32">
-        <v>20781</v>
+        <v>21127</v>
       </c>
       <c r="E54" s="32">
-        <v>14897</v>
+        <v>15045</v>
       </c>
       <c r="F54" s="32">
-        <v>5884</v>
+        <v>6082</v>
       </c>
       <c r="O54" s="30"/>
     </row>
@@ -11917,13 +11917,13 @@
         <v>286</v>
       </c>
       <c r="D55" s="32">
-        <v>52822</v>
+        <v>52507</v>
       </c>
       <c r="E55" s="32">
-        <v>40001</v>
+        <v>39179</v>
       </c>
       <c r="F55" s="32">
-        <v>12821</v>
+        <v>13328</v>
       </c>
       <c r="O55" s="30"/>
     </row>
@@ -11938,13 +11938,13 @@
         <v>298</v>
       </c>
       <c r="D56" s="32">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E56" s="32">
         <v>22</v>
       </c>
       <c r="F56" s="32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O56" s="30"/>
     </row>
@@ -11959,10 +11959,10 @@
         <v>299</v>
       </c>
       <c r="D57" s="32">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E57" s="32">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F57" s="32">
         <v>2</v>
@@ -11979,13 +11979,13 @@
         <v>297</v>
       </c>
       <c r="D58" s="32">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E58" s="32">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F58" s="32">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O58" s="30"/>
     </row>
@@ -12000,13 +12000,13 @@
         <v>301</v>
       </c>
       <c r="D59" s="32">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E59" s="32">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F59" s="32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O59" s="30"/>
     </row>
@@ -12021,10 +12021,10 @@
         <v>300</v>
       </c>
       <c r="D60" s="32">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E60" s="32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F60" s="32">
         <v>3</v>
@@ -12066,10 +12066,10 @@
         <v>991</v>
       </c>
       <c r="E62" s="32">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F62" s="32">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O62" s="30"/>
     </row>
@@ -12084,13 +12084,13 @@
         <v>299</v>
       </c>
       <c r="D63" s="32">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E63" s="32">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F63" s="32">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12104,13 +12104,13 @@
         <v>297</v>
       </c>
       <c r="D64" s="32">
-        <v>1463</v>
+        <v>1410</v>
       </c>
       <c r="E64" s="32">
-        <v>1055</v>
+        <v>999</v>
       </c>
       <c r="F64" s="32">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="O64" s="30"/>
     </row>
@@ -12125,13 +12125,13 @@
         <v>301</v>
       </c>
       <c r="D65" s="32">
-        <v>3027</v>
+        <v>3005</v>
       </c>
       <c r="E65" s="32">
-        <v>2092</v>
+        <v>2062</v>
       </c>
       <c r="F65" s="32">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="O65" s="30"/>
     </row>
@@ -12146,13 +12146,13 @@
         <v>300</v>
       </c>
       <c r="D66" s="32">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="E66" s="32">
-        <v>1497</v>
+        <v>1492</v>
       </c>
       <c r="F66" s="32">
-        <v>843</v>
+        <v>849</v>
       </c>
     </row>
     <row r="67" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12166,13 +12166,13 @@
         <v>286</v>
       </c>
       <c r="D67" s="32">
-        <v>9674</v>
+        <v>9677</v>
       </c>
       <c r="E67" s="32">
         <v>7806</v>
       </c>
       <c r="F67" s="32">
-        <v>1868</v>
+        <v>1871</v>
       </c>
       <c r="O67" s="30"/>
     </row>
@@ -12187,13 +12187,13 @@
         <v>298</v>
       </c>
       <c r="D68" s="32">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="E68" s="32">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F68" s="32">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O68" s="30"/>
     </row>
@@ -12208,13 +12208,13 @@
         <v>299</v>
       </c>
       <c r="D69" s="32">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="E69" s="32">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F69" s="32">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12228,13 +12228,13 @@
         <v>297</v>
       </c>
       <c r="D70" s="32">
-        <v>689</v>
+        <v>671</v>
       </c>
       <c r="E70" s="32">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="F70" s="32">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="O70" s="30"/>
     </row>
@@ -12249,13 +12249,13 @@
         <v>301</v>
       </c>
       <c r="D71" s="32">
-        <v>2569</v>
+        <v>2573</v>
       </c>
       <c r="E71" s="32">
-        <v>1838</v>
+        <v>1825</v>
       </c>
       <c r="F71" s="32">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="O71" s="30"/>
     </row>
@@ -12270,13 +12270,13 @@
         <v>300</v>
       </c>
       <c r="D72" s="32">
-        <v>1412</v>
+        <v>1428</v>
       </c>
       <c r="E72" s="32">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F72" s="32">
-        <v>443</v>
+        <v>461</v>
       </c>
     </row>
     <row r="73" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12311,13 +12311,13 @@
         <v>298</v>
       </c>
       <c r="D74" s="32">
-        <v>2074</v>
+        <v>2094</v>
       </c>
       <c r="E74" s="32">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="F74" s="32">
-        <v>646</v>
+        <v>663</v>
       </c>
       <c r="O74" s="30"/>
     </row>
@@ -12332,13 +12332,13 @@
         <v>299</v>
       </c>
       <c r="D75" s="32">
-        <v>1266</v>
+        <v>1281</v>
       </c>
       <c r="E75" s="32">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="F75" s="32">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="O75" s="30"/>
     </row>
@@ -12353,13 +12353,13 @@
         <v>297</v>
       </c>
       <c r="D76" s="32">
-        <v>1434</v>
+        <v>1449</v>
       </c>
       <c r="E76" s="32">
         <v>1117</v>
       </c>
       <c r="F76" s="32">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="O76" s="30"/>
     </row>
@@ -12374,13 +12374,13 @@
         <v>301</v>
       </c>
       <c r="D77" s="32">
-        <v>12605</v>
+        <v>12714</v>
       </c>
       <c r="E77" s="32">
-        <v>9248</v>
+        <v>9195</v>
       </c>
       <c r="F77" s="32">
-        <v>3357</v>
+        <v>3519</v>
       </c>
       <c r="O77" s="30"/>
     </row>
@@ -12395,13 +12395,13 @@
         <v>300</v>
       </c>
       <c r="D78" s="32">
-        <v>5169</v>
+        <v>5224</v>
       </c>
       <c r="E78" s="32">
-        <v>3679</v>
+        <v>3658</v>
       </c>
       <c r="F78" s="32">
-        <v>1490</v>
+        <v>1566</v>
       </c>
       <c r="O78" s="30"/>
     </row>
@@ -12416,13 +12416,13 @@
         <v>286</v>
       </c>
       <c r="D79" s="32">
-        <v>18273</v>
+        <v>18276</v>
       </c>
       <c r="E79" s="32">
-        <v>12497</v>
+        <v>12489</v>
       </c>
       <c r="F79" s="32">
-        <v>5776</v>
+        <v>5787</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12436,13 +12436,13 @@
         <v>298</v>
       </c>
       <c r="D80" s="32">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E80" s="32">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F80" s="32">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12456,13 +12456,13 @@
         <v>299</v>
       </c>
       <c r="D81" s="32">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E81" s="32">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F81" s="32">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12476,13 +12476,13 @@
         <v>297</v>
       </c>
       <c r="D82" s="32">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E82" s="32">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F82" s="32">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12496,13 +12496,13 @@
         <v>301</v>
       </c>
       <c r="D83" s="32">
-        <v>2315</v>
+        <v>2335</v>
       </c>
       <c r="E83" s="32">
-        <v>1730</v>
+        <v>1724</v>
       </c>
       <c r="F83" s="32">
-        <v>585</v>
+        <v>611</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12516,13 +12516,13 @@
         <v>300</v>
       </c>
       <c r="D84" s="32">
-        <v>886</v>
+        <v>895</v>
       </c>
       <c r="E84" s="32">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F84" s="32">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12536,13 +12536,13 @@
         <v>286</v>
       </c>
       <c r="D85" s="32">
-        <v>2908</v>
+        <v>2909</v>
       </c>
       <c r="E85" s="32">
-        <v>2086</v>
+        <v>2082</v>
       </c>
       <c r="F85" s="32">
-        <v>822</v>
+        <v>827</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12676,13 +12676,13 @@
         <v>287</v>
       </c>
       <c r="D92" s="32">
-        <v>3964801</v>
+        <v>4090423</v>
       </c>
       <c r="E92" s="32">
-        <v>2861794</v>
+        <v>2931147</v>
       </c>
       <c r="F92" s="32">
-        <v>1103007</v>
+        <v>1159276</v>
       </c>
     </row>
   </sheetData>
@@ -12693,7 +12693,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C305"/>
+  <dimension ref="A1:C310"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -12701,7 +12701,7 @@
   <cols>
     <col min="1" max="1" width="10.3984375" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.796875" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.73046875" style="33" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.59765625" style="23"/>
   </cols>
   <sheetData>
@@ -12724,7 +12724,7 @@
         <v>44179</v>
       </c>
       <c r="C2" s="32">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12768,7 +12768,7 @@
         <v>44183</v>
       </c>
       <c r="C6" s="32">
-        <v>24804</v>
+        <v>24805</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12812,7 +12812,7 @@
         <v>44187</v>
       </c>
       <c r="C10" s="32">
-        <v>17206</v>
+        <v>17236</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12823,7 +12823,7 @@
         <v>44188</v>
       </c>
       <c r="C11" s="32">
-        <v>24670</v>
+        <v>24677</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12845,7 +12845,7 @@
         <v>44190</v>
       </c>
       <c r="C13" s="32">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12867,7 +12867,7 @@
         <v>44192</v>
       </c>
       <c r="C15" s="32">
-        <v>5313</v>
+        <v>5314</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12878,7 +12878,7 @@
         <v>44193</v>
       </c>
       <c r="C16" s="32">
-        <v>25495</v>
+        <v>25502</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12889,7 +12889,7 @@
         <v>44194</v>
       </c>
       <c r="C17" s="32">
-        <v>32117</v>
+        <v>32122</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12900,7 +12900,7 @@
         <v>44195</v>
       </c>
       <c r="C18" s="32">
-        <v>37952</v>
+        <v>37973</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12911,7 +12911,7 @@
         <v>44196</v>
       </c>
       <c r="C19" s="32">
-        <v>21683</v>
+        <v>21685</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12922,7 +12922,7 @@
         <v>44197</v>
       </c>
       <c r="C20" s="32">
-        <v>2312</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12933,7 +12933,7 @@
         <v>44198</v>
       </c>
       <c r="C21" s="32">
-        <v>10015</v>
+        <v>10022</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12944,7 +12944,7 @@
         <v>44199</v>
       </c>
       <c r="C22" s="32">
-        <v>6221</v>
+        <v>6234</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12955,7 +12955,7 @@
         <v>44200</v>
       </c>
       <c r="C23" s="32">
-        <v>24063</v>
+        <v>24091</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12966,7 +12966,7 @@
         <v>44201</v>
       </c>
       <c r="C24" s="32">
-        <v>27988</v>
+        <v>28105</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12977,7 +12977,7 @@
         <v>44202</v>
       </c>
       <c r="C25" s="32">
-        <v>36154</v>
+        <v>36161</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12988,7 +12988,7 @@
         <v>44203</v>
       </c>
       <c r="C26" s="32">
-        <v>40937</v>
+        <v>40942</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12999,7 +12999,7 @@
         <v>44204</v>
       </c>
       <c r="C27" s="32">
-        <v>44014</v>
+        <v>44021</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13010,7 +13010,7 @@
         <v>44205</v>
       </c>
       <c r="C28" s="32">
-        <v>18605</v>
+        <v>18606</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13032,7 +13032,7 @@
         <v>44207</v>
       </c>
       <c r="C30" s="32">
-        <v>28578</v>
+        <v>28583</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13043,7 +13043,7 @@
         <v>44208</v>
       </c>
       <c r="C31" s="32">
-        <v>29404</v>
+        <v>29613</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13054,7 +13054,7 @@
         <v>44209</v>
       </c>
       <c r="C32" s="32">
-        <v>27958</v>
+        <v>28024</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13065,7 +13065,7 @@
         <v>44210</v>
       </c>
       <c r="C33" s="32">
-        <v>21773</v>
+        <v>21795</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13076,7 +13076,7 @@
         <v>44211</v>
       </c>
       <c r="C34" s="32">
-        <v>23820</v>
+        <v>23845</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13087,7 +13087,7 @@
         <v>44212</v>
       </c>
       <c r="C35" s="32">
-        <v>13041</v>
+        <v>13056</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13109,7 +13109,7 @@
         <v>44214</v>
       </c>
       <c r="C37" s="32">
-        <v>12182</v>
+        <v>12192</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13120,7 +13120,7 @@
         <v>44215</v>
       </c>
       <c r="C38" s="32">
-        <v>22396</v>
+        <v>22412</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13131,7 +13131,7 @@
         <v>44216</v>
       </c>
       <c r="C39" s="32">
-        <v>30126</v>
+        <v>30178</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13142,7 +13142,7 @@
         <v>44217</v>
       </c>
       <c r="C40" s="32">
-        <v>27596</v>
+        <v>27629</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13153,7 +13153,7 @@
         <v>44218</v>
       </c>
       <c r="C41" s="32">
-        <v>33204</v>
+        <v>33365</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13164,7 +13164,7 @@
         <v>44219</v>
       </c>
       <c r="C42" s="32">
-        <v>18369</v>
+        <v>18554</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13186,7 +13186,7 @@
         <v>44221</v>
       </c>
       <c r="C44" s="32">
-        <v>34351</v>
+        <v>34358</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13197,7 +13197,7 @@
         <v>44222</v>
       </c>
       <c r="C45" s="32">
-        <v>41382</v>
+        <v>41419</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13208,7 +13208,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="32">
-        <v>42338</v>
+        <v>42363</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13219,7 +13219,7 @@
         <v>44224</v>
       </c>
       <c r="C47" s="32">
-        <v>38709</v>
+        <v>38731</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13230,7 +13230,7 @@
         <v>44225</v>
       </c>
       <c r="C48" s="32">
-        <v>36548</v>
+        <v>36637</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13241,7 +13241,7 @@
         <v>44226</v>
       </c>
       <c r="C49" s="32">
-        <v>17846</v>
+        <v>17958</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13252,7 +13252,7 @@
         <v>44227</v>
       </c>
       <c r="C50" s="32">
-        <v>7591</v>
+        <v>7595</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13263,7 +13263,7 @@
         <v>44228</v>
       </c>
       <c r="C51" s="32">
-        <v>31293</v>
+        <v>31377</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13274,7 +13274,7 @@
         <v>44229</v>
       </c>
       <c r="C52" s="32">
-        <v>30331</v>
+        <v>30574</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13285,7 +13285,7 @@
         <v>44230</v>
       </c>
       <c r="C53" s="32">
-        <v>42492</v>
+        <v>42655</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13296,7 +13296,7 @@
         <v>44231</v>
       </c>
       <c r="C54" s="32">
-        <v>41321</v>
+        <v>41798</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13307,7 +13307,7 @@
         <v>44232</v>
       </c>
       <c r="C55" s="32">
-        <v>43770</v>
+        <v>46655</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13318,7 +13318,7 @@
         <v>44233</v>
       </c>
       <c r="C56" s="32">
-        <v>24921</v>
+        <v>25554</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13329,7 +13329,7 @@
         <v>44234</v>
       </c>
       <c r="C57" s="32">
-        <v>5274</v>
+        <v>5278</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13340,7 +13340,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="32">
-        <v>22962</v>
+        <v>23077</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13351,7 +13351,7 @@
         <v>44236</v>
       </c>
       <c r="C59" s="32">
-        <v>31425</v>
+        <v>31956</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13362,7 +13362,7 @@
         <v>44237</v>
       </c>
       <c r="C60" s="32">
-        <v>25940</v>
+        <v>30501</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13373,7 +13373,7 @@
         <v>44238</v>
       </c>
       <c r="C61" s="32">
-        <v>16805</v>
+        <v>27544</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13384,18 +13384,18 @@
         <v>44239</v>
       </c>
       <c r="C62" s="32">
-        <v>11108</v>
+        <v>16906</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B63" s="35">
-        <v>44179</v>
+        <v>44240</v>
       </c>
       <c r="C63" s="32">
-        <v>139</v>
+        <v>5445</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13403,10 +13403,10 @@
         <v>283</v>
       </c>
       <c r="B64" s="35">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="C64" s="32">
-        <v>1491</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13414,10 +13414,10 @@
         <v>283</v>
       </c>
       <c r="B65" s="35">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="C65" s="32">
-        <v>4970</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13425,10 +13425,10 @@
         <v>283</v>
       </c>
       <c r="B66" s="35">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="C66" s="32">
-        <v>6644</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13436,10 +13436,10 @@
         <v>283</v>
       </c>
       <c r="B67" s="35">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="C67" s="32">
-        <v>10831</v>
+        <v>6644</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13447,10 +13447,10 @@
         <v>283</v>
       </c>
       <c r="B68" s="35">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="C68" s="32">
-        <v>4707</v>
+        <v>10831</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13458,10 +13458,10 @@
         <v>283</v>
       </c>
       <c r="B69" s="35">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="C69" s="32">
-        <v>2533</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13469,10 +13469,10 @@
         <v>283</v>
       </c>
       <c r="B70" s="35">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="C70" s="32">
-        <v>7902</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13480,10 +13480,10 @@
         <v>283</v>
       </c>
       <c r="B71" s="35">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="C71" s="32">
-        <v>7395</v>
+        <v>7903</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13491,10 +13491,10 @@
         <v>283</v>
       </c>
       <c r="B72" s="35">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="C72" s="32">
-        <v>10796</v>
+        <v>7406</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13502,10 +13502,10 @@
         <v>283</v>
       </c>
       <c r="B73" s="35">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="C73" s="32">
-        <v>4639</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13513,10 +13513,10 @@
         <v>283</v>
       </c>
       <c r="B74" s="35">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="C74" s="32">
-        <v>665</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13524,10 +13524,10 @@
         <v>283</v>
       </c>
       <c r="B75" s="35">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="C75" s="32">
-        <v>3186</v>
+        <v>667</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13535,10 +13535,10 @@
         <v>283</v>
       </c>
       <c r="B76" s="35">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="C76" s="32">
-        <v>2242</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13546,10 +13546,10 @@
         <v>283</v>
       </c>
       <c r="B77" s="35">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="C77" s="32">
-        <v>12872</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13557,10 +13557,10 @@
         <v>283</v>
       </c>
       <c r="B78" s="35">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="C78" s="32">
-        <v>16955</v>
+        <v>12877</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13568,10 +13568,10 @@
         <v>283</v>
       </c>
       <c r="B79" s="35">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="C79" s="32">
-        <v>20835</v>
+        <v>16961</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13579,10 +13579,10 @@
         <v>283</v>
       </c>
       <c r="B80" s="35">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="C80" s="32">
-        <v>12626</v>
+        <v>20840</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13590,10 +13590,10 @@
         <v>283</v>
       </c>
       <c r="B81" s="35">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="C81" s="32">
-        <v>1198</v>
+        <v>12629</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13601,10 +13601,10 @@
         <v>283</v>
       </c>
       <c r="B82" s="35">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="C82" s="32">
-        <v>5756</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13612,10 +13612,10 @@
         <v>283</v>
       </c>
       <c r="B83" s="35">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="C83" s="32">
-        <v>3315</v>
+        <v>5763</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13623,10 +13623,10 @@
         <v>283</v>
       </c>
       <c r="B84" s="35">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="C84" s="32">
-        <v>14884</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13634,10 +13634,10 @@
         <v>283</v>
       </c>
       <c r="B85" s="35">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="C85" s="32">
-        <v>16616</v>
+        <v>14903</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13645,10 +13645,10 @@
         <v>283</v>
       </c>
       <c r="B86" s="35">
-        <v>44202</v>
+        <v>44201</v>
       </c>
       <c r="C86" s="32">
-        <v>20129</v>
+        <v>16690</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13656,10 +13656,10 @@
         <v>283</v>
       </c>
       <c r="B87" s="35">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="C87" s="32">
-        <v>22933</v>
+        <v>20131</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13667,10 +13667,10 @@
         <v>283</v>
       </c>
       <c r="B88" s="35">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="C88" s="32">
-        <v>24585</v>
+        <v>22938</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13678,10 +13678,10 @@
         <v>283</v>
       </c>
       <c r="B89" s="35">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="C89" s="32">
-        <v>10681</v>
+        <v>24601</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13689,10 +13689,10 @@
         <v>283</v>
       </c>
       <c r="B90" s="35">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="C90" s="32">
-        <v>4452</v>
+        <v>10681</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13700,10 +13700,10 @@
         <v>283</v>
       </c>
       <c r="B91" s="35">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="C91" s="32">
-        <v>18174</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13711,10 +13711,10 @@
         <v>283</v>
       </c>
       <c r="B92" s="35">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="C92" s="32">
-        <v>19976</v>
+        <v>18175</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13722,10 +13722,10 @@
         <v>283</v>
       </c>
       <c r="B93" s="35">
-        <v>44209</v>
+        <v>44208</v>
       </c>
       <c r="C93" s="32">
-        <v>20118</v>
+        <v>20117</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13733,10 +13733,10 @@
         <v>283</v>
       </c>
       <c r="B94" s="35">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="C94" s="32">
-        <v>17370</v>
+        <v>20177</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13744,10 +13744,10 @@
         <v>283</v>
       </c>
       <c r="B95" s="35">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="C95" s="32">
-        <v>17590</v>
+        <v>17374</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13755,10 +13755,10 @@
         <v>283</v>
       </c>
       <c r="B96" s="35">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="C96" s="32">
-        <v>11177</v>
+        <v>17603</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13766,10 +13766,10 @@
         <v>283</v>
       </c>
       <c r="B97" s="35">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="C97" s="32">
-        <v>1725</v>
+        <v>11188</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13777,10 +13777,10 @@
         <v>283</v>
       </c>
       <c r="B98" s="35">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="C98" s="32">
-        <v>8669</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13788,10 +13788,10 @@
         <v>283</v>
       </c>
       <c r="B99" s="35">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="C99" s="32">
-        <v>17266</v>
+        <v>8674</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13799,10 +13799,10 @@
         <v>283</v>
       </c>
       <c r="B100" s="35">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="C100" s="32">
-        <v>22772</v>
+        <v>17282</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13810,10 +13810,10 @@
         <v>283</v>
       </c>
       <c r="B101" s="35">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="C101" s="32">
-        <v>21926</v>
+        <v>22846</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13821,10 +13821,10 @@
         <v>283</v>
       </c>
       <c r="B102" s="35">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="C102" s="32">
-        <v>23411</v>
+        <v>21966</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13832,10 +13832,10 @@
         <v>283</v>
       </c>
       <c r="B103" s="35">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="C103" s="32">
-        <v>12974</v>
+        <v>23502</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13843,10 +13843,10 @@
         <v>283</v>
       </c>
       <c r="B104" s="35">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="C104" s="32">
-        <v>5207</v>
+        <v>13125</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13854,10 +13854,10 @@
         <v>283</v>
       </c>
       <c r="B105" s="35">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="C105" s="32">
-        <v>23117</v>
+        <v>5208</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13865,10 +13865,10 @@
         <v>283</v>
       </c>
       <c r="B106" s="35">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="C106" s="32">
-        <v>30198</v>
+        <v>23123</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13876,10 +13876,10 @@
         <v>283</v>
       </c>
       <c r="B107" s="35">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="C107" s="32">
-        <v>32137</v>
+        <v>30242</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13887,10 +13887,10 @@
         <v>283</v>
       </c>
       <c r="B108" s="35">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="C108" s="32">
-        <v>31214</v>
+        <v>32156</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13898,10 +13898,10 @@
         <v>283</v>
       </c>
       <c r="B109" s="35">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="C109" s="32">
-        <v>28912</v>
+        <v>31235</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13909,10 +13909,10 @@
         <v>283</v>
       </c>
       <c r="B110" s="35">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="C110" s="32">
-        <v>14292</v>
+        <v>29036</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13920,10 +13920,10 @@
         <v>283</v>
       </c>
       <c r="B111" s="35">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="C111" s="32">
-        <v>5906</v>
+        <v>14388</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13931,10 +13931,10 @@
         <v>283</v>
       </c>
       <c r="B112" s="35">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="C112" s="32">
-        <v>23716</v>
+        <v>5909</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13942,10 +13942,10 @@
         <v>283</v>
       </c>
       <c r="B113" s="35">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="C113" s="32">
-        <v>27000</v>
+        <v>23789</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13953,10 +13953,10 @@
         <v>283</v>
       </c>
       <c r="B114" s="35">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="C114" s="32">
-        <v>34987</v>
+        <v>27242</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13964,10 +13964,10 @@
         <v>283</v>
       </c>
       <c r="B115" s="35">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="C115" s="32">
-        <v>35947</v>
+        <v>35202</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13975,10 +13975,10 @@
         <v>283</v>
       </c>
       <c r="B116" s="35">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="C116" s="32">
-        <v>37056</v>
+        <v>36429</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13986,10 +13986,10 @@
         <v>283</v>
       </c>
       <c r="B117" s="35">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="C117" s="32">
-        <v>22817</v>
+        <v>40275</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13997,10 +13997,10 @@
         <v>283</v>
       </c>
       <c r="B118" s="35">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="C118" s="32">
-        <v>5690</v>
+        <v>23471</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14008,10 +14008,10 @@
         <v>283</v>
       </c>
       <c r="B119" s="35">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="C119" s="32">
-        <v>21032</v>
+        <v>5703</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14019,10 +14019,10 @@
         <v>283</v>
       </c>
       <c r="B120" s="35">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="C120" s="32">
-        <v>29029</v>
+        <v>21166</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14030,10 +14030,10 @@
         <v>283</v>
       </c>
       <c r="B121" s="35">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="C121" s="32">
-        <v>26028</v>
+        <v>29501</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14041,10 +14041,10 @@
         <v>283</v>
       </c>
       <c r="B122" s="35">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="C122" s="32">
-        <v>16914</v>
+        <v>29652</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14052,32 +14052,32 @@
         <v>283</v>
       </c>
       <c r="B123" s="35">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="C123" s="32">
-        <v>11345</v>
+        <v>26223</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B124" s="35">
-        <v>44179</v>
+        <v>44239</v>
       </c>
       <c r="C124" s="32">
-        <v>24</v>
+        <v>15772</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B125" s="35">
-        <v>44180</v>
+        <v>44240</v>
       </c>
       <c r="C125" s="32">
-        <v>305</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14085,10 +14085,10 @@
         <v>284</v>
       </c>
       <c r="B126" s="35">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="C126" s="32">
-        <v>955</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14096,10 +14096,10 @@
         <v>284</v>
       </c>
       <c r="B127" s="35">
-        <v>44182</v>
+        <v>44180</v>
       </c>
       <c r="C127" s="32">
-        <v>1431</v>
+        <v>305</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14107,10 +14107,10 @@
         <v>284</v>
       </c>
       <c r="B128" s="35">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="C128" s="32">
-        <v>2029</v>
+        <v>955</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14118,10 +14118,10 @@
         <v>284</v>
       </c>
       <c r="B129" s="35">
-        <v>44184</v>
+        <v>44182</v>
       </c>
       <c r="C129" s="32">
-        <v>1009</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14129,10 +14129,10 @@
         <v>284</v>
       </c>
       <c r="B130" s="35">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="C130" s="32">
-        <v>498</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14140,10 +14140,10 @@
         <v>284</v>
       </c>
       <c r="B131" s="35">
-        <v>44186</v>
+        <v>44184</v>
       </c>
       <c r="C131" s="32">
-        <v>1511</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14151,10 +14151,10 @@
         <v>284</v>
       </c>
       <c r="B132" s="35">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="C132" s="32">
-        <v>2105</v>
+        <v>498</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14162,10 +14162,10 @@
         <v>284</v>
       </c>
       <c r="B133" s="35">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="C133" s="32">
-        <v>2924</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14173,10 +14173,10 @@
         <v>284</v>
       </c>
       <c r="B134" s="35">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r